--- a/+dataLH/test_files/readTest.xlsx
+++ b/+dataLH/test_files/readTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="525">
   <si>
     <t>Code</t>
   </si>
@@ -1610,7 +1610,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1622,16 +1622,28 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1650,13 +1662,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>524</v>
       </c>
     </row>
@@ -1664,7 +1676,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C2">
@@ -1675,7 +1687,7 @@
       <c r="A3">
         <v>-1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -1686,7 +1698,7 @@
       <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -1697,7 +1709,7 @@
       <c r="A5">
         <v>200</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C5">
@@ -1708,7 +1720,7 @@
       <c r="A6">
         <v>300</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C6">
@@ -1719,7 +1731,7 @@
       <c r="A7">
         <v>401</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C7">
@@ -1730,7 +1742,7 @@
       <c r="A8">
         <v>402</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C8">
@@ -1741,7 +1753,7 @@
       <c r="A9">
         <v>403</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
@@ -1752,7 +1764,7 @@
       <c r="A10">
         <v>411</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C10">
@@ -1763,7 +1775,7 @@
       <c r="A11">
         <v>412</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C11">
@@ -1774,7 +1786,7 @@
       <c r="A12">
         <v>413</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C12">
@@ -1785,7 +1797,7 @@
       <c r="A13">
         <v>501</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C13">
@@ -1796,7 +1808,7 @@
       <c r="A14">
         <v>502</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C14">
@@ -1807,7 +1819,7 @@
       <c r="A15">
         <v>503</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C15">
@@ -1818,7 +1830,7 @@
       <c r="A16">
         <v>511</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C16">
@@ -1829,7 +1841,7 @@
       <c r="A17">
         <v>512</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C17">
@@ -1840,7 +1852,7 @@
       <c r="A18">
         <v>513</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C18">
@@ -1851,7 +1863,7 @@
       <c r="A19">
         <v>-1</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C19">
@@ -1862,7 +1874,7 @@
       <c r="A20">
         <v>1111</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C20">
@@ -1873,7 +1885,7 @@
       <c r="A21">
         <v>1112</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C21">
@@ -1884,7 +1896,7 @@
       <c r="A22">
         <v>1113</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C22">
@@ -1895,7 +1907,7 @@
       <c r="A23">
         <v>1122</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C23">
@@ -1906,7 +1918,7 @@
       <c r="A24">
         <v>1123</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C24">
@@ -1917,7 +1929,7 @@
       <c r="A25">
         <v>1130</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C25">
@@ -1928,7 +1940,7 @@
       <c r="A26">
         <v>1140</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C26">
@@ -1939,7 +1951,7 @@
       <c r="A27">
         <v>1210</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C27">
@@ -1950,7 +1962,7 @@
       <c r="A28">
         <v>1219</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C28">
@@ -1961,7 +1973,7 @@
       <c r="A29">
         <v>1220</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C29">
@@ -1972,7 +1984,7 @@
       <c r="A30">
         <v>1230</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C30">
@@ -1983,7 +1995,7 @@
       <c r="A31">
         <v>1310</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C31">
@@ -1994,7 +2006,7 @@
       <c r="A32">
         <v>1320</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C32">
@@ -2005,7 +2017,7 @@
       <c r="A33">
         <v>-1</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C33">
@@ -2016,7 +2028,7 @@
       <c r="A34">
         <v>2011</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C34">
@@ -2027,7 +2039,7 @@
       <c r="A35">
         <v>2012</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C35">
@@ -2038,7 +2050,7 @@
       <c r="A36">
         <v>2021</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C36">
@@ -2049,7 +2061,7 @@
       <c r="A37">
         <v>2111</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C37">
@@ -2060,7 +2072,7 @@
       <c r="A38">
         <v>2112</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C38">
@@ -2071,7 +2083,7 @@
       <c r="A39">
         <v>2121</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C39">
@@ -2082,7 +2094,7 @@
       <c r="A40">
         <v>2122</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C40">
@@ -2093,7 +2105,7 @@
       <c r="A41">
         <v>2123</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C41">
@@ -2104,7 +2116,7 @@
       <c r="A42">
         <v>2124</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C42">
@@ -2115,7 +2127,7 @@
       <c r="A43">
         <v>2125</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C43">
@@ -2126,7 +2138,7 @@
       <c r="A44">
         <v>2131</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C44">
@@ -2137,7 +2149,7 @@
       <c r="A45">
         <v>2132</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C45">
@@ -2148,7 +2160,7 @@
       <c r="A46">
         <v>2133</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C46">
@@ -2159,7 +2171,7 @@
       <c r="A47">
         <v>2134</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C47">
@@ -2170,7 +2182,7 @@
       <c r="A48">
         <v>2140</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C48">
@@ -2181,7 +2193,7 @@
       <c r="A49">
         <v>2141</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C49">
@@ -2192,7 +2204,7 @@
       <c r="A50">
         <v>2142</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C50">
@@ -2203,7 +2215,7 @@
       <c r="A51">
         <v>2143</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C51">
@@ -2214,7 +2226,7 @@
       <c r="A52">
         <v>2144</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C52">
@@ -2225,7 +2237,7 @@
       <c r="A53">
         <v>2145</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C53">
@@ -2236,7 +2248,7 @@
       <c r="A54">
         <v>2146</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C54">
@@ -2247,7 +2259,7 @@
       <c r="A55">
         <v>2147</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C55">
@@ -2258,7 +2270,7 @@
       <c r="A56">
         <v>2148</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C56">
@@ -2269,7 +2281,7 @@
       <c r="A57">
         <v>2149</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C57">
@@ -2280,7 +2292,7 @@
       <c r="A58">
         <v>2151</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C58">
@@ -2291,7 +2303,7 @@
       <c r="A59">
         <v>2152</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C59">
@@ -2302,7 +2314,7 @@
       <c r="A60">
         <v>2153</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C60">
@@ -2313,7 +2325,7 @@
       <c r="A61">
         <v>2211</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C61">
@@ -2324,7 +2336,7 @@
       <c r="A62">
         <v>2221</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C62">
@@ -2335,7 +2347,7 @@
       <c r="A63">
         <v>2231</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C63">
@@ -2346,7 +2358,7 @@
       <c r="A64">
         <v>2232</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C64">
@@ -2357,7 +2369,7 @@
       <c r="A65">
         <v>2233</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="9" t="s">
         <v>66</v>
       </c>
       <c r="C65">
@@ -2368,7 +2380,7 @@
       <c r="A66">
         <v>2234</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C66">
@@ -2379,7 +2391,7 @@
       <c r="A67">
         <v>2235</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C67">
@@ -2390,7 +2402,7 @@
       <c r="A68">
         <v>2236</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C68">
@@ -2401,7 +2413,7 @@
       <c r="A69">
         <v>2237</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C69">
@@ -2412,7 +2424,7 @@
       <c r="A70">
         <v>2311</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C70">
@@ -2423,7 +2435,7 @@
       <c r="A71">
         <v>2312</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C71">
@@ -2434,7 +2446,7 @@
       <c r="A72">
         <v>2313</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C72">
@@ -2445,7 +2457,7 @@
       <c r="A73">
         <v>2321</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C73">
@@ -2456,7 +2468,7 @@
       <c r="A74">
         <v>2330</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C74">
@@ -2467,7 +2479,7 @@
       <c r="A75">
         <v>2340</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C75">
@@ -2478,7 +2490,7 @@
       <c r="A76">
         <v>2391</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C76">
@@ -2489,7 +2501,7 @@
       <c r="A77">
         <v>2392</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C77">
@@ -2500,7 +2512,7 @@
       <c r="A78">
         <v>2394</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C78">
@@ -2511,7 +2523,7 @@
       <c r="A79">
         <v>2410</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C79">
@@ -2522,7 +2534,7 @@
       <c r="A80">
         <v>2412</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C80">
@@ -2533,7 +2545,7 @@
       <c r="A81">
         <v>2419</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C81">
@@ -2544,7 +2556,7 @@
       <c r="A82">
         <v>2421</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C82">
@@ -2555,7 +2567,7 @@
       <c r="A83">
         <v>2422</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C83">
@@ -2566,7 +2578,7 @@
       <c r="A84">
         <v>2423</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C84">
@@ -2577,7 +2589,7 @@
       <c r="A85">
         <v>2511</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C85">
@@ -2588,7 +2600,7 @@
       <c r="A86">
         <v>2512</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C86">
@@ -2599,7 +2611,7 @@
       <c r="A87">
         <v>2513</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C87">
@@ -2610,7 +2622,7 @@
       <c r="A88">
         <v>2514</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C88">
@@ -2621,7 +2633,7 @@
       <c r="A89">
         <v>2515</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="9" t="s">
         <v>90</v>
       </c>
       <c r="C89">
@@ -2632,7 +2644,7 @@
       <c r="A90">
         <v>2516</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C90">
@@ -2643,7 +2655,7 @@
       <c r="A91">
         <v>2521</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C91">
@@ -2654,7 +2666,7 @@
       <c r="A92">
         <v>2522</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="9" t="s">
         <v>93</v>
       </c>
       <c r="C92">
@@ -2665,7 +2677,7 @@
       <c r="A93">
         <v>2523</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C93">
@@ -2676,7 +2688,7 @@
       <c r="A94">
         <v>2524</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C94">
@@ -2687,7 +2699,7 @@
       <c r="A95">
         <v>2525</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C95">
@@ -2698,7 +2710,7 @@
       <c r="A96">
         <v>2531</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C96">
@@ -2709,7 +2721,7 @@
       <c r="A97">
         <v>2611</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C97">
@@ -2720,7 +2732,7 @@
       <c r="A98">
         <v>2612</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="9" t="s">
         <v>99</v>
       </c>
       <c r="C98">
@@ -2731,7 +2743,7 @@
       <c r="A99">
         <v>2613</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="9" t="s">
         <v>100</v>
       </c>
       <c r="C99">
@@ -2742,7 +2754,7 @@
       <c r="A100">
         <v>2614</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C100">
@@ -2753,7 +2765,7 @@
       <c r="A101">
         <v>2615</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C101">
@@ -2764,7 +2776,7 @@
       <c r="A102">
         <v>2616</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="9" t="s">
         <v>103</v>
       </c>
       <c r="C102">
@@ -2775,7 +2787,7 @@
       <c r="A103">
         <v>2617</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C103">
@@ -2786,7 +2798,7 @@
       <c r="A104">
         <v>2621</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C104">
@@ -2797,7 +2809,7 @@
       <c r="A105">
         <v>2622</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="9" t="s">
         <v>106</v>
       </c>
       <c r="C105">
@@ -2808,7 +2820,7 @@
       <c r="A106">
         <v>2623</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="9" t="s">
         <v>107</v>
       </c>
       <c r="C106">
@@ -2819,7 +2831,7 @@
       <c r="A107">
         <v>2624</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C107">
@@ -2830,7 +2842,7 @@
       <c r="A108">
         <v>2625</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C108">
@@ -2841,7 +2853,7 @@
       <c r="A109">
         <v>2627</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C109">
@@ -2852,7 +2864,7 @@
       <c r="A110">
         <v>2631</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="9" t="s">
         <v>111</v>
       </c>
       <c r="C110">
@@ -2863,7 +2875,7 @@
       <c r="A111">
         <v>-1</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="9" t="s">
         <v>112</v>
       </c>
       <c r="C111">
@@ -2874,7 +2886,7 @@
       <c r="A112">
         <v>3001</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C112">
@@ -2885,7 +2897,7 @@
       <c r="A113">
         <v>3003</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="9" t="s">
         <v>114</v>
       </c>
       <c r="C113">
@@ -2896,7 +2908,7 @@
       <c r="A114">
         <v>3011</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="9" t="s">
         <v>115</v>
       </c>
       <c r="C114">
@@ -2907,7 +2919,7 @@
       <c r="A115">
         <v>3012</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="9" t="s">
         <v>116</v>
       </c>
       <c r="C115">
@@ -2918,7 +2930,7 @@
       <c r="A116">
         <v>3111</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C116">
@@ -2929,7 +2941,7 @@
       <c r="A117">
         <v>3112</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C117">
@@ -2940,7 +2952,7 @@
       <c r="A118">
         <v>3113</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C118">
@@ -2951,7 +2963,7 @@
       <c r="A119">
         <v>3114</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="9" t="s">
         <v>120</v>
       </c>
       <c r="C119">
@@ -2962,7 +2974,7 @@
       <c r="A120">
         <v>3115</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C120">
@@ -2973,7 +2985,7 @@
       <c r="A121">
         <v>3116</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="9" t="s">
         <v>122</v>
       </c>
       <c r="C121">
@@ -2984,7 +2996,7 @@
       <c r="A122">
         <v>3117</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="9" t="s">
         <v>123</v>
       </c>
       <c r="C122">
@@ -2995,7 +3007,7 @@
       <c r="A123">
         <v>3121</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C123">
@@ -3006,7 +3018,7 @@
       <c r="A124">
         <v>3122</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="9" t="s">
         <v>125</v>
       </c>
       <c r="C124">
@@ -3017,7 +3029,7 @@
       <c r="A125">
         <v>3123</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="9" t="s">
         <v>126</v>
       </c>
       <c r="C125">
@@ -3028,7 +3040,7 @@
       <c r="A126">
         <v>3131</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="9" t="s">
         <v>127</v>
       </c>
       <c r="C126">
@@ -3039,7 +3051,7 @@
       <c r="A127">
         <v>3132</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C127">
@@ -3050,7 +3062,7 @@
       <c r="A128">
         <v>3134</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C128">
@@ -3061,7 +3073,7 @@
       <c r="A129">
         <v>3135</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C129">
@@ -3072,7 +3084,7 @@
       <c r="A130">
         <v>3136</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="9" t="s">
         <v>131</v>
       </c>
       <c r="C130">
@@ -3083,7 +3095,7 @@
       <c r="A131">
         <v>3141</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C131">
@@ -3094,7 +3106,7 @@
       <c r="A132">
         <v>3142</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C132">
@@ -3105,7 +3117,7 @@
       <c r="A133">
         <v>3143</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="9" t="s">
         <v>134</v>
       </c>
       <c r="C133">
@@ -3116,7 +3128,7 @@
       <c r="A134">
         <v>3144</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C134">
@@ -3127,7 +3139,7 @@
       <c r="A135">
         <v>3146</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C135">
@@ -3138,7 +3150,7 @@
       <c r="A136">
         <v>3147</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="9" t="s">
         <v>137</v>
       </c>
       <c r="C136">
@@ -3149,7 +3161,7 @@
       <c r="A137">
         <v>3161</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C137">
@@ -3160,7 +3172,7 @@
       <c r="A138">
         <v>3162</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C138">
@@ -3171,7 +3183,7 @@
       <c r="A139">
         <v>3163</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C139">
@@ -3182,7 +3194,7 @@
       <c r="A140">
         <v>3171</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="9" t="s">
         <v>141</v>
       </c>
       <c r="C140">
@@ -3193,7 +3205,7 @@
       <c r="A141">
         <v>3172</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C141">
@@ -3204,7 +3216,7 @@
       <c r="A142">
         <v>3189</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C142">
@@ -3215,7 +3227,7 @@
       <c r="A143">
         <v>3191</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C143">
@@ -3226,7 +3238,7 @@
       <c r="A144">
         <v>3192</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="9" t="s">
         <v>145</v>
       </c>
       <c r="C144">
@@ -3237,7 +3249,7 @@
       <c r="A145">
         <v>3201</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="9" t="s">
         <v>146</v>
       </c>
       <c r="C145">
@@ -3248,7 +3260,7 @@
       <c r="A146">
         <v>3210</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="9" t="s">
         <v>147</v>
       </c>
       <c r="C146">
@@ -3259,7 +3271,7 @@
       <c r="A147">
         <v>3211</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="9" t="s">
         <v>148</v>
       </c>
       <c r="C147">
@@ -3270,7 +3282,7 @@
       <c r="A148">
         <v>3212</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="9" t="s">
         <v>149</v>
       </c>
       <c r="C148">
@@ -3281,7 +3293,7 @@
       <c r="A149">
         <v>3213</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="9" t="s">
         <v>150</v>
       </c>
       <c r="C149">
@@ -3292,7 +3304,7 @@
       <c r="A150">
         <v>3214</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="9" t="s">
         <v>151</v>
       </c>
       <c r="C150">
@@ -3303,7 +3315,7 @@
       <c r="A151">
         <v>3221</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="9" t="s">
         <v>152</v>
       </c>
       <c r="C151">
@@ -3314,7 +3326,7 @@
       <c r="A152">
         <v>3222</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="9" t="s">
         <v>153</v>
       </c>
       <c r="C152">
@@ -3325,7 +3337,7 @@
       <c r="A153">
         <v>3223</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="9" t="s">
         <v>154</v>
       </c>
       <c r="C153">
@@ -3336,7 +3348,7 @@
       <c r="A154">
         <v>3224</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="9" t="s">
         <v>155</v>
       </c>
       <c r="C154">
@@ -3347,7 +3359,7 @@
       <c r="A155">
         <v>3225</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="9" t="s">
         <v>156</v>
       </c>
       <c r="C155">
@@ -3358,7 +3370,7 @@
       <c r="A156">
         <v>3231</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C156">
@@ -3369,7 +3381,7 @@
       <c r="A157">
         <v>3232</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="9" t="s">
         <v>158</v>
       </c>
       <c r="C157">
@@ -3380,7 +3392,7 @@
       <c r="A158">
         <v>3241</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="9" t="s">
         <v>159</v>
       </c>
       <c r="C158">
@@ -3391,7 +3403,7 @@
       <c r="A159">
         <v>3242</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C159">
@@ -3402,7 +3414,7 @@
       <c r="A160">
         <v>3250</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C160">
@@ -3413,7 +3425,7 @@
       <c r="A161">
         <v>3251</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C161">
@@ -3424,7 +3436,7 @@
       <c r="A162">
         <v>3252</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="9" t="s">
         <v>163</v>
       </c>
       <c r="C162">
@@ -3435,7 +3447,7 @@
       <c r="A163">
         <v>3253</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C163">
@@ -3446,7 +3458,7 @@
       <c r="A164">
         <v>3281</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="9" t="s">
         <v>165</v>
       </c>
       <c r="C164">
@@ -3457,7 +3469,7 @@
       <c r="A165">
         <v>3311</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="9" t="s">
         <v>166</v>
       </c>
       <c r="C165">
@@ -3468,7 +3480,7 @@
       <c r="A166">
         <v>3312</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C166">
@@ -3479,7 +3491,7 @@
       <c r="A167">
         <v>3313</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="9" t="s">
         <v>168</v>
       </c>
       <c r="C167">
@@ -3490,7 +3502,7 @@
       <c r="A168">
         <v>3321</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="9" t="s">
         <v>169</v>
       </c>
       <c r="C168">
@@ -3501,7 +3513,7 @@
       <c r="A169">
         <v>3322</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C169">
@@ -3512,7 +3524,7 @@
       <c r="A170">
         <v>3331</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="9" t="s">
         <v>171</v>
       </c>
       <c r="C170">
@@ -3523,7 +3535,7 @@
       <c r="A171">
         <v>3341</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="9" t="s">
         <v>172</v>
       </c>
       <c r="C171">
@@ -3534,7 +3546,7 @@
       <c r="A172">
         <v>3411</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="9" t="s">
         <v>173</v>
       </c>
       <c r="C172">
@@ -3545,7 +3557,7 @@
       <c r="A173">
         <v>3412</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C173">
@@ -3556,7 +3568,7 @@
       <c r="A174">
         <v>3413</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="9" t="s">
         <v>175</v>
       </c>
       <c r="C174">
@@ -3567,7 +3579,7 @@
       <c r="A175">
         <v>3421</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="9" t="s">
         <v>176</v>
       </c>
       <c r="C175">
@@ -3578,7 +3590,7 @@
       <c r="A176">
         <v>3422</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="9" t="s">
         <v>177</v>
       </c>
       <c r="C176">
@@ -3589,7 +3601,7 @@
       <c r="A177">
         <v>3423</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C177">
@@ -3600,7 +3612,7 @@
       <c r="A178">
         <v>3424</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="9" t="s">
         <v>179</v>
       </c>
       <c r="C178">
@@ -3611,7 +3623,7 @@
       <c r="A179">
         <v>3425</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C179">
@@ -3622,7 +3634,7 @@
       <c r="A180">
         <v>3426</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="9" t="s">
         <v>181</v>
       </c>
       <c r="C180">
@@ -3633,7 +3645,7 @@
       <c r="A181">
         <v>3511</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="9" t="s">
         <v>182</v>
       </c>
       <c r="C181">
@@ -3644,7 +3656,7 @@
       <c r="A182">
         <v>3512</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="9" t="s">
         <v>183</v>
       </c>
       <c r="C182">
@@ -3655,7 +3667,7 @@
       <c r="A183">
         <v>3513</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="9" t="s">
         <v>184</v>
       </c>
       <c r="C183">
@@ -3666,7 +3678,7 @@
       <c r="A184">
         <v>3514</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="9" t="s">
         <v>185</v>
       </c>
       <c r="C184">
@@ -3677,7 +3689,7 @@
       <c r="A185">
         <v>3515</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="9" t="s">
         <v>186</v>
       </c>
       <c r="C185">
@@ -3688,7 +3700,7 @@
       <c r="A186">
         <v>3516</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="9" t="s">
         <v>187</v>
       </c>
       <c r="C186">
@@ -3699,7 +3711,7 @@
       <c r="A187">
         <v>3517</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="9" t="s">
         <v>188</v>
       </c>
       <c r="C187">
@@ -3710,7 +3722,7 @@
       <c r="A188">
         <v>3518</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="9" t="s">
         <v>189</v>
       </c>
       <c r="C188">
@@ -3721,7 +3733,7 @@
       <c r="A189">
         <v>3522</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="9" t="s">
         <v>190</v>
       </c>
       <c r="C189">
@@ -3732,7 +3744,7 @@
       <c r="A190">
         <v>3523</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="9" t="s">
         <v>191</v>
       </c>
       <c r="C190">
@@ -3743,7 +3755,7 @@
       <c r="A191">
         <v>3524</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="9" t="s">
         <v>192</v>
       </c>
       <c r="C191">
@@ -3754,7 +3766,7 @@
       <c r="A192">
         <v>3525</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="9" t="s">
         <v>193</v>
       </c>
       <c r="C192">
@@ -3765,7 +3777,7 @@
       <c r="A193">
         <v>3531</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="9" t="s">
         <v>194</v>
       </c>
       <c r="C193">
@@ -3776,7 +3788,7 @@
       <c r="A194">
         <v>3532</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="9" t="s">
         <v>195</v>
       </c>
       <c r="C194">
@@ -3787,7 +3799,7 @@
       <c r="A195">
         <v>3541</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="9" t="s">
         <v>196</v>
       </c>
       <c r="C195">
@@ -3798,7 +3810,7 @@
       <c r="A196">
         <v>3542</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="9" t="s">
         <v>197</v>
       </c>
       <c r="C196">
@@ -3809,7 +3821,7 @@
       <c r="A197">
         <v>3543</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="9" t="s">
         <v>198</v>
       </c>
       <c r="C197">
@@ -3820,7 +3832,7 @@
       <c r="A198">
         <v>3544</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="9" t="s">
         <v>199</v>
       </c>
       <c r="C198">
@@ -3831,7 +3843,7 @@
       <c r="A199">
         <v>3545</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="9" t="s">
         <v>200</v>
       </c>
       <c r="C199">
@@ -3842,7 +3854,7 @@
       <c r="A200">
         <v>3546</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="9" t="s">
         <v>201</v>
       </c>
       <c r="C200">
@@ -3853,7 +3865,7 @@
       <c r="A201">
         <v>3547</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C201">
@@ -3864,7 +3876,7 @@
       <c r="A202">
         <v>3548</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C202">
@@ -3875,7 +3887,7 @@
       <c r="A203">
         <v>3711</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="9" t="s">
         <v>204</v>
       </c>
       <c r="C203">
@@ -3886,7 +3898,7 @@
       <c r="A204">
         <v>3712</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="9" t="s">
         <v>205</v>
       </c>
       <c r="C204">
@@ -3897,7 +3909,7 @@
       <c r="A205">
         <v>3713</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="9" t="s">
         <v>206</v>
       </c>
       <c r="C205">
@@ -3908,7 +3920,7 @@
       <c r="A206">
         <v>3721</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="9" t="s">
         <v>207</v>
       </c>
       <c r="C206">
@@ -3919,7 +3931,7 @@
       <c r="A207">
         <v>3722</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="9" t="s">
         <v>208</v>
       </c>
       <c r="C207">
@@ -3930,7 +3942,7 @@
       <c r="A208">
         <v>3723</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="9" t="s">
         <v>209</v>
       </c>
       <c r="C208">
@@ -3941,7 +3953,7 @@
       <c r="A209">
         <v>3731</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="9" t="s">
         <v>210</v>
       </c>
       <c r="C209">
@@ -3952,7 +3964,7 @@
       <c r="A210">
         <v>3732</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="9" t="s">
         <v>211</v>
       </c>
       <c r="C210">
@@ -3963,7 +3975,7 @@
       <c r="A211">
         <v>3741</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="9" t="s">
         <v>212</v>
       </c>
       <c r="C211">
@@ -3974,7 +3986,7 @@
       <c r="A212">
         <v>3742</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="9" t="s">
         <v>213</v>
       </c>
       <c r="C212">
@@ -3985,7 +3997,7 @@
       <c r="A213">
         <v>3743</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="9" t="s">
         <v>214</v>
       </c>
       <c r="C213">
@@ -3996,7 +4008,7 @@
       <c r="A214">
         <v>3751</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" s="9" t="s">
         <v>215</v>
       </c>
       <c r="C214">
@@ -4007,7 +4019,7 @@
       <c r="A215">
         <v>3761</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" s="9" t="s">
         <v>216</v>
       </c>
       <c r="C215">
@@ -4018,7 +4030,7 @@
       <c r="A216">
         <v>3762</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="9" t="s">
         <v>217</v>
       </c>
       <c r="C216">
@@ -4029,7 +4041,7 @@
       <c r="A217">
         <v>3763</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B217" s="9" t="s">
         <v>218</v>
       </c>
       <c r="C217">
@@ -4040,7 +4052,7 @@
       <c r="A218">
         <v>3764</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="9" t="s">
         <v>219</v>
       </c>
       <c r="C218">
@@ -4051,7 +4063,7 @@
       <c r="A219">
         <v>3765</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" s="9" t="s">
         <v>220</v>
       </c>
       <c r="C219">
@@ -4062,7 +4074,7 @@
       <c r="A220">
         <v>3771</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="9" t="s">
         <v>221</v>
       </c>
       <c r="C220">
@@ -4073,7 +4085,7 @@
       <c r="A221">
         <v>3772</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B221" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C221">
@@ -4084,7 +4096,7 @@
       <c r="A222">
         <v>3773</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="9" t="s">
         <v>223</v>
       </c>
       <c r="C222">
@@ -4095,7 +4107,7 @@
       <c r="A223">
         <v>3911</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="9" t="s">
         <v>224</v>
       </c>
       <c r="C223">
@@ -4106,7 +4118,7 @@
       <c r="A224">
         <v>3912</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="9" t="s">
         <v>225</v>
       </c>
       <c r="C224">
@@ -4117,7 +4129,7 @@
       <c r="A225">
         <v>-1</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="9" t="s">
         <v>226</v>
       </c>
       <c r="C225">
@@ -4128,7 +4140,7 @@
       <c r="A226">
         <v>4101</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="9" t="s">
         <v>227</v>
       </c>
       <c r="C226">
@@ -4139,7 +4151,7 @@
       <c r="A227">
         <v>4102</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="9" t="s">
         <v>228</v>
       </c>
       <c r="C227">
@@ -4150,7 +4162,7 @@
       <c r="A228">
         <v>4110</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="9" t="s">
         <v>229</v>
       </c>
       <c r="C228">
@@ -4161,7 +4173,7 @@
       <c r="A229">
         <v>4121</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="9" t="s">
         <v>230</v>
       </c>
       <c r="C229">
@@ -4172,7 +4184,7 @@
       <c r="A230">
         <v>4122</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="9" t="s">
         <v>231</v>
       </c>
       <c r="C230">
@@ -4183,7 +4195,7 @@
       <c r="A231">
         <v>4123</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="9" t="s">
         <v>232</v>
       </c>
       <c r="C231">
@@ -4194,7 +4206,7 @@
       <c r="A232">
         <v>4131</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="9" t="s">
         <v>233</v>
       </c>
       <c r="C232">
@@ -4205,7 +4217,7 @@
       <c r="A233">
         <v>4132</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="9" t="s">
         <v>234</v>
       </c>
       <c r="C233">
@@ -4216,7 +4228,7 @@
       <c r="A234">
         <v>4141</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" s="9" t="s">
         <v>235</v>
       </c>
       <c r="C234">
@@ -4227,7 +4239,7 @@
       <c r="A235">
         <v>4142</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="9" t="s">
         <v>236</v>
       </c>
       <c r="C235">
@@ -4238,7 +4250,7 @@
       <c r="A236">
         <v>4151</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="9" t="s">
         <v>237</v>
       </c>
       <c r="C236">
@@ -4249,7 +4261,7 @@
       <c r="A237">
         <v>4152</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="9" t="s">
         <v>238</v>
       </c>
       <c r="C237">
@@ -4260,7 +4272,7 @@
       <c r="A238">
         <v>4201</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="9" t="s">
         <v>239</v>
       </c>
       <c r="C238">
@@ -4271,7 +4283,7 @@
       <c r="A239">
         <v>4211</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B239" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C239">
@@ -4282,7 +4294,7 @@
       <c r="A240">
         <v>4212</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" s="9" t="s">
         <v>241</v>
       </c>
       <c r="C240">
@@ -4293,7 +4305,7 @@
       <c r="A241">
         <v>4213</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="9" t="s">
         <v>242</v>
       </c>
       <c r="C241">
@@ -4304,7 +4316,7 @@
       <c r="A242">
         <v>4214</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" s="9" t="s">
         <v>243</v>
       </c>
       <c r="C242">
@@ -4315,7 +4327,7 @@
       <c r="A243">
         <v>4221</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" s="9" t="s">
         <v>244</v>
       </c>
       <c r="C243">
@@ -4326,7 +4338,7 @@
       <c r="A244">
         <v>4222</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" s="9" t="s">
         <v>245</v>
       </c>
       <c r="C244">
@@ -4337,7 +4349,7 @@
       <c r="A245">
         <v>4223</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" s="9" t="s">
         <v>246</v>
       </c>
       <c r="C245">
@@ -4348,7 +4360,7 @@
       <c r="A246">
         <v>4231</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="9" t="s">
         <v>247</v>
       </c>
       <c r="C246">
@@ -4359,7 +4371,7 @@
       <c r="A247">
         <v>4241</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" s="9" t="s">
         <v>248</v>
       </c>
       <c r="C247">
@@ -4370,7 +4382,7 @@
       <c r="A248">
         <v>-1</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="9" t="s">
         <v>249</v>
       </c>
       <c r="C248">
@@ -4381,7 +4393,7 @@
       <c r="A249">
         <v>5101</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B249" s="9" t="s">
         <v>250</v>
       </c>
       <c r="C249">
@@ -4392,7 +4404,7 @@
       <c r="A250">
         <v>5102</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" s="9" t="s">
         <v>251</v>
       </c>
       <c r="C250">
@@ -4403,7 +4415,7 @@
       <c r="A251">
         <v>5103</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" s="9" t="s">
         <v>252</v>
       </c>
       <c r="C251">
@@ -4414,7 +4426,7 @@
       <c r="A252">
         <v>5111</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" s="9" t="s">
         <v>253</v>
       </c>
       <c r="C252">
@@ -4425,7 +4437,7 @@
       <c r="A253">
         <v>5112</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B253" s="9" t="s">
         <v>254</v>
       </c>
       <c r="C253">
@@ -4436,7 +4448,7 @@
       <c r="A254">
         <v>5114</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B254" s="9" t="s">
         <v>255</v>
       </c>
       <c r="C254">
@@ -4447,7 +4459,7 @@
       <c r="A255">
         <v>5121</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="9" t="s">
         <v>256</v>
       </c>
       <c r="C255">
@@ -4458,7 +4470,7 @@
       <c r="A256">
         <v>5131</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" s="9" t="s">
         <v>257</v>
       </c>
       <c r="C256">
@@ -4469,7 +4481,7 @@
       <c r="A257">
         <v>5132</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B257" s="9" t="s">
         <v>258</v>
       </c>
       <c r="C257">
@@ -4480,7 +4492,7 @@
       <c r="A258">
         <v>5133</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" s="9" t="s">
         <v>259</v>
       </c>
       <c r="C258">
@@ -4491,7 +4503,7 @@
       <c r="A259">
         <v>5134</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="9" t="s">
         <v>260</v>
       </c>
       <c r="C259">
@@ -4502,7 +4514,7 @@
       <c r="A260">
         <v>5141</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="9" t="s">
         <v>261</v>
       </c>
       <c r="C260">
@@ -4513,7 +4525,7 @@
       <c r="A261">
         <v>5142</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" s="9" t="s">
         <v>262</v>
       </c>
       <c r="C261">
@@ -4524,7 +4536,7 @@
       <c r="A262">
         <v>5151</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" s="9" t="s">
         <v>263</v>
       </c>
       <c r="C262">
@@ -4535,7 +4547,7 @@
       <c r="A263">
         <v>5152</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" s="9" t="s">
         <v>264</v>
       </c>
       <c r="C263">
@@ -4546,7 +4558,7 @@
       <c r="A264">
         <v>5161</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" s="9" t="s">
         <v>265</v>
       </c>
       <c r="C264">
@@ -4557,7 +4569,7 @@
       <c r="A265">
         <v>5162</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B265" s="9" t="s">
         <v>266</v>
       </c>
       <c r="C265">
@@ -4568,7 +4580,7 @@
       <c r="A266">
         <v>5165</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="9" t="s">
         <v>267</v>
       </c>
       <c r="C266">
@@ -4579,7 +4591,7 @@
       <c r="A267">
         <v>5166</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" s="9" t="s">
         <v>268</v>
       </c>
       <c r="C267">
@@ -4590,7 +4602,7 @@
       <c r="A268">
         <v>5167</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B268" s="9" t="s">
         <v>269</v>
       </c>
       <c r="C268">
@@ -4601,7 +4613,7 @@
       <c r="A269">
         <v>5169</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="9" t="s">
         <v>270</v>
       </c>
       <c r="C269">
@@ -4612,7 +4624,7 @@
       <c r="A270">
         <v>5171</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B270" s="9" t="s">
         <v>271</v>
       </c>
       <c r="C270">
@@ -4623,7 +4635,7 @@
       <c r="A271">
         <v>5172</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" s="9" t="s">
         <v>272</v>
       </c>
       <c r="C271">
@@ -4634,7 +4646,7 @@
       <c r="A272">
         <v>5173</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B272" s="9" t="s">
         <v>273</v>
       </c>
       <c r="C272">
@@ -4645,7 +4657,7 @@
       <c r="A273">
         <v>5174</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B273" s="9" t="s">
         <v>274</v>
       </c>
       <c r="C273">
@@ -4656,7 +4668,7 @@
       <c r="A274">
         <v>5191</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B274" s="9" t="s">
         <v>275</v>
       </c>
       <c r="C274">
@@ -4667,7 +4679,7 @@
       <c r="A275">
         <v>5192</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B275" s="9" t="s">
         <v>276</v>
       </c>
       <c r="C275">
@@ -4678,7 +4690,7 @@
       <c r="A276">
         <v>5198</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="9" t="s">
         <v>277</v>
       </c>
       <c r="C276">
@@ -4689,7 +4701,7 @@
       <c r="A277">
         <v>5199</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B277" s="9" t="s">
         <v>278</v>
       </c>
       <c r="C277">
@@ -4700,7 +4712,7 @@
       <c r="A278">
         <v>5201</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" s="9" t="s">
         <v>279</v>
       </c>
       <c r="C278">
@@ -4711,7 +4723,7 @@
       <c r="A279">
         <v>5211</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B279" s="9" t="s">
         <v>280</v>
       </c>
       <c r="C279">
@@ -4722,7 +4734,7 @@
       <c r="A280">
         <v>5221</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="9" t="s">
         <v>281</v>
       </c>
       <c r="C280">
@@ -4733,7 +4745,7 @@
       <c r="A281">
         <v>5231</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" s="9" t="s">
         <v>282</v>
       </c>
       <c r="C281">
@@ -4744,7 +4756,7 @@
       <c r="A282">
         <v>5241</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" s="9" t="s">
         <v>283</v>
       </c>
       <c r="C282">
@@ -4755,7 +4767,7 @@
       <c r="A283">
         <v>5242</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B283" s="9" t="s">
         <v>284</v>
       </c>
       <c r="C283">
@@ -4766,7 +4778,7 @@
       <c r="A284">
         <v>5243</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B284" s="9" t="s">
         <v>285</v>
       </c>
       <c r="C284">
@@ -4777,7 +4789,7 @@
       <c r="A285">
         <v>-1</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B285" s="9" t="s">
         <v>286</v>
       </c>
       <c r="C285">
@@ -4788,7 +4800,7 @@
       <c r="A286">
         <v>6110</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B286" s="9" t="s">
         <v>287</v>
       </c>
       <c r="C286">
@@ -4799,7 +4811,7 @@
       <c r="A287">
         <v>6129</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B287" s="9" t="s">
         <v>288</v>
       </c>
       <c r="C287">
@@ -4810,7 +4822,7 @@
       <c r="A288">
         <v>6139</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B288" s="9" t="s">
         <v>289</v>
       </c>
       <c r="C288">
@@ -4821,7 +4833,7 @@
       <c r="A289">
         <v>6201</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B289" s="9" t="s">
         <v>290</v>
       </c>
       <c r="C289">
@@ -4832,7 +4844,7 @@
       <c r="A290">
         <v>6210</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="B290" s="9" t="s">
         <v>291</v>
       </c>
       <c r="C290">
@@ -4843,7 +4855,7 @@
       <c r="A291">
         <v>6229</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="B291" s="9" t="s">
         <v>292</v>
       </c>
       <c r="C291">
@@ -4854,7 +4866,7 @@
       <c r="A292">
         <v>6239</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B292" s="9" t="s">
         <v>293</v>
       </c>
       <c r="C292">
@@ -4865,7 +4877,7 @@
       <c r="A293">
         <v>6301</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B293" s="9" t="s">
         <v>294</v>
       </c>
       <c r="C293">
@@ -4876,7 +4888,7 @@
       <c r="A294">
         <v>6319</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B294" s="9" t="s">
         <v>295</v>
       </c>
       <c r="C294">
@@ -4887,7 +4899,7 @@
       <c r="A295">
         <v>6329</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B295" s="9" t="s">
         <v>296</v>
       </c>
       <c r="C295">
@@ -4898,7 +4910,7 @@
       <c r="A296">
         <v>6410</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B296" s="9" t="s">
         <v>297</v>
       </c>
       <c r="C296">
@@ -4909,7 +4921,7 @@
       <c r="A297">
         <v>6420</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B297" s="9" t="s">
         <v>298</v>
       </c>
       <c r="C297">
@@ -4920,7 +4932,7 @@
       <c r="A298">
         <v>6430</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B298" s="9" t="s">
         <v>299</v>
       </c>
       <c r="C298">
@@ -4931,7 +4943,7 @@
       <c r="A299">
         <v>-1</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B299" s="9" t="s">
         <v>300</v>
       </c>
       <c r="C299">
@@ -4942,7 +4954,7 @@
       <c r="A300">
         <v>7101</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B300" s="9" t="s">
         <v>301</v>
       </c>
       <c r="C300">
@@ -4953,7 +4965,7 @@
       <c r="A301">
         <v>7102</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B301" s="9" t="s">
         <v>302</v>
       </c>
       <c r="C301">
@@ -4964,7 +4976,7 @@
       <c r="A302">
         <v>7111</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" s="9" t="s">
         <v>303</v>
       </c>
       <c r="C302">
@@ -4975,7 +4987,7 @@
       <c r="A303">
         <v>7112</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B303" s="9" t="s">
         <v>304</v>
       </c>
       <c r="C303">
@@ -4986,7 +4998,7 @@
       <c r="A304">
         <v>7113</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B304" s="9" t="s">
         <v>305</v>
       </c>
       <c r="C304">
@@ -4997,7 +5009,7 @@
       <c r="A305">
         <v>7114</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B305" s="9" t="s">
         <v>306</v>
       </c>
       <c r="C305">
@@ -5008,7 +5020,7 @@
       <c r="A306">
         <v>7121</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B306" s="9" t="s">
         <v>307</v>
       </c>
       <c r="C306">
@@ -5019,7 +5031,7 @@
       <c r="A307">
         <v>7122</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B307" s="9" t="s">
         <v>308</v>
       </c>
       <c r="C307">
@@ -5030,7 +5042,7 @@
       <c r="A308">
         <v>7151</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B308" s="9" t="s">
         <v>309</v>
       </c>
       <c r="C308">
@@ -5041,7 +5053,7 @@
       <c r="A309">
         <v>7152</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B309" s="9" t="s">
         <v>310</v>
       </c>
       <c r="C309">
@@ -5052,7 +5064,7 @@
       <c r="A310">
         <v>7153</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B310" s="9" t="s">
         <v>311</v>
       </c>
       <c r="C310">
@@ -5063,7 +5075,7 @@
       <c r="A311">
         <v>7154</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B311" s="9" t="s">
         <v>312</v>
       </c>
       <c r="C311">
@@ -5074,7 +5086,7 @@
       <c r="A312">
         <v>7155</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B312" s="9" t="s">
         <v>313</v>
       </c>
       <c r="C312">
@@ -5085,7 +5097,7 @@
       <c r="A313">
         <v>7156</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B313" s="9" t="s">
         <v>314</v>
       </c>
       <c r="C313">
@@ -5096,7 +5108,7 @@
       <c r="A314">
         <v>7157</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B314" s="9" t="s">
         <v>315</v>
       </c>
       <c r="C314">
@@ -5107,7 +5119,7 @@
       <c r="A315">
         <v>7161</v>
       </c>
-      <c r="B315" s="3" t="s">
+      <c r="B315" s="9" t="s">
         <v>316</v>
       </c>
       <c r="C315">
@@ -5118,7 +5130,7 @@
       <c r="A316">
         <v>7162</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B316" s="9" t="s">
         <v>317</v>
       </c>
       <c r="C316">
@@ -5129,7 +5141,7 @@
       <c r="A317">
         <v>7163</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="B317" s="9" t="s">
         <v>318</v>
       </c>
       <c r="C317">
@@ -5140,7 +5152,7 @@
       <c r="A318">
         <v>7164</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B318" s="9" t="s">
         <v>319</v>
       </c>
       <c r="C318">
@@ -5151,7 +5163,7 @@
       <c r="A319">
         <v>7165</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B319" s="9" t="s">
         <v>320</v>
       </c>
       <c r="C319">
@@ -5162,7 +5174,7 @@
       <c r="A320">
         <v>7166</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B320" s="9" t="s">
         <v>321</v>
       </c>
       <c r="C320">
@@ -5173,7 +5185,7 @@
       <c r="A321">
         <v>7170</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B321" s="9" t="s">
         <v>322</v>
       </c>
       <c r="C321">
@@ -5184,7 +5196,7 @@
       <c r="A322">
         <v>7201</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B322" s="9" t="s">
         <v>323</v>
       </c>
       <c r="C322">
@@ -5195,7 +5207,7 @@
       <c r="A323">
         <v>7202</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B323" s="9" t="s">
         <v>324</v>
       </c>
       <c r="C323">
@@ -5206,7 +5218,7 @@
       <c r="A324">
         <v>7211</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B324" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C324">
@@ -5217,7 +5229,7 @@
       <c r="A325">
         <v>7212</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="B325" s="9" t="s">
         <v>326</v>
       </c>
       <c r="C325">
@@ -5228,7 +5240,7 @@
       <c r="A326">
         <v>7213</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B326" s="9" t="s">
         <v>327</v>
       </c>
       <c r="C326">
@@ -5239,7 +5251,7 @@
       <c r="A327">
         <v>7214</v>
       </c>
-      <c r="B327" s="3" t="s">
+      <c r="B327" s="9" t="s">
         <v>328</v>
       </c>
       <c r="C327">
@@ -5250,7 +5262,7 @@
       <c r="A328">
         <v>7215</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B328" s="9" t="s">
         <v>329</v>
       </c>
       <c r="C328">
@@ -5261,7 +5273,7 @@
       <c r="A329">
         <v>7221</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B329" s="9" t="s">
         <v>330</v>
       </c>
       <c r="C329">
@@ -5272,7 +5284,7 @@
       <c r="A330">
         <v>7222</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B330" s="9" t="s">
         <v>331</v>
       </c>
       <c r="C330">
@@ -5283,7 +5295,7 @@
       <c r="A331">
         <v>7223</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B331" s="9" t="s">
         <v>332</v>
       </c>
       <c r="C331">
@@ -5294,7 +5306,7 @@
       <c r="A332">
         <v>7224</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B332" s="9" t="s">
         <v>333</v>
       </c>
       <c r="C332">
@@ -5305,7 +5317,7 @@
       <c r="A333">
         <v>7231</v>
       </c>
-      <c r="B333" s="3" t="s">
+      <c r="B333" s="9" t="s">
         <v>334</v>
       </c>
       <c r="C333">
@@ -5316,7 +5328,7 @@
       <c r="A334">
         <v>7232</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B334" s="9" t="s">
         <v>335</v>
       </c>
       <c r="C334">
@@ -5327,7 +5339,7 @@
       <c r="A335">
         <v>7233</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B335" s="9" t="s">
         <v>336</v>
       </c>
       <c r="C335">
@@ -5338,7 +5350,7 @@
       <c r="A336">
         <v>7241</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B336" s="9" t="s">
         <v>337</v>
       </c>
       <c r="C336">
@@ -5349,7 +5361,7 @@
       <c r="A337">
         <v>7242</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="B337" s="9" t="s">
         <v>338</v>
       </c>
       <c r="C337">
@@ -5360,7 +5372,7 @@
       <c r="A338">
         <v>7243</v>
       </c>
-      <c r="B338" s="3" t="s">
+      <c r="B338" s="9" t="s">
         <v>339</v>
       </c>
       <c r="C338">
@@ -5371,7 +5383,7 @@
       <c r="A339">
         <v>7244</v>
       </c>
-      <c r="B339" s="3" t="s">
+      <c r="B339" s="9" t="s">
         <v>340</v>
       </c>
       <c r="C339">
@@ -5382,7 +5394,7 @@
       <c r="A340">
         <v>7245</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="B340" s="9" t="s">
         <v>341</v>
       </c>
       <c r="C340">
@@ -5393,7 +5405,7 @@
       <c r="A341">
         <v>7246</v>
       </c>
-      <c r="B341" s="3" t="s">
+      <c r="B341" s="9" t="s">
         <v>342</v>
       </c>
       <c r="C341">
@@ -5404,7 +5416,7 @@
       <c r="A342">
         <v>7250</v>
       </c>
-      <c r="B342" s="3" t="s">
+      <c r="B342" s="9" t="s">
         <v>343</v>
       </c>
       <c r="C342">
@@ -5415,7 +5427,7 @@
       <c r="A343">
         <v>7251</v>
       </c>
-      <c r="B343" s="3" t="s">
+      <c r="B343" s="9" t="s">
         <v>344</v>
       </c>
       <c r="C343">
@@ -5426,7 +5438,7 @@
       <c r="A344">
         <v>7252</v>
       </c>
-      <c r="B344" s="3" t="s">
+      <c r="B344" s="9" t="s">
         <v>345</v>
       </c>
       <c r="C344">
@@ -5437,7 +5449,7 @@
       <c r="A345">
         <v>7253</v>
       </c>
-      <c r="B345" s="3" t="s">
+      <c r="B345" s="9" t="s">
         <v>346</v>
       </c>
       <c r="C345">
@@ -5448,7 +5460,7 @@
       <c r="A346">
         <v>7254</v>
       </c>
-      <c r="B346" s="3" t="s">
+      <c r="B346" s="9" t="s">
         <v>347</v>
       </c>
       <c r="C346">
@@ -5459,7 +5471,7 @@
       <c r="A347">
         <v>7255</v>
       </c>
-      <c r="B347" s="3" t="s">
+      <c r="B347" s="9" t="s">
         <v>348</v>
       </c>
       <c r="C347">
@@ -5470,7 +5482,7 @@
       <c r="A348">
         <v>7256</v>
       </c>
-      <c r="B348" s="3" t="s">
+      <c r="B348" s="9" t="s">
         <v>349</v>
       </c>
       <c r="C348">
@@ -5481,7 +5493,7 @@
       <c r="A349">
         <v>7257</v>
       </c>
-      <c r="B349" s="3" t="s">
+      <c r="B349" s="9" t="s">
         <v>350</v>
       </c>
       <c r="C349">
@@ -5492,7 +5504,7 @@
       <c r="A350">
         <v>7301</v>
       </c>
-      <c r="B350" s="3" t="s">
+      <c r="B350" s="9" t="s">
         <v>351</v>
       </c>
       <c r="C350">
@@ -5503,7 +5515,7 @@
       <c r="A351">
         <v>7311</v>
       </c>
-      <c r="B351" s="3" t="s">
+      <c r="B351" s="9" t="s">
         <v>352</v>
       </c>
       <c r="C351">
@@ -5514,7 +5526,7 @@
       <c r="A352">
         <v>7312</v>
       </c>
-      <c r="B352" s="3" t="s">
+      <c r="B352" s="9" t="s">
         <v>353</v>
       </c>
       <c r="C352">
@@ -5525,7 +5537,7 @@
       <c r="A353">
         <v>7313</v>
       </c>
-      <c r="B353" s="3" t="s">
+      <c r="B353" s="9" t="s">
         <v>354</v>
       </c>
       <c r="C353">
@@ -5536,7 +5548,7 @@
       <c r="A354">
         <v>7321</v>
       </c>
-      <c r="B354" s="3" t="s">
+      <c r="B354" s="9" t="s">
         <v>355</v>
       </c>
       <c r="C354">
@@ -5547,7 +5559,7 @@
       <c r="A355">
         <v>7401</v>
       </c>
-      <c r="B355" s="3" t="s">
+      <c r="B355" s="9" t="s">
         <v>356</v>
       </c>
       <c r="C355">
@@ -5558,7 +5570,7 @@
       <c r="A356">
         <v>7411</v>
       </c>
-      <c r="B356" s="3" t="s">
+      <c r="B356" s="9" t="s">
         <v>357</v>
       </c>
       <c r="C356">
@@ -5569,7 +5581,7 @@
       <c r="A357">
         <v>7421</v>
       </c>
-      <c r="B357" s="3" t="s">
+      <c r="B357" s="9" t="s">
         <v>358</v>
       </c>
       <c r="C357">
@@ -5580,7 +5592,7 @@
       <c r="A358">
         <v>7501</v>
       </c>
-      <c r="B358" s="3" t="s">
+      <c r="B358" s="9" t="s">
         <v>359</v>
       </c>
       <c r="C358">
@@ -5591,7 +5603,7 @@
       <c r="A359">
         <v>7502</v>
       </c>
-      <c r="B359" s="3" t="s">
+      <c r="B359" s="9" t="s">
         <v>360</v>
       </c>
       <c r="C359">
@@ -5602,7 +5614,7 @@
       <c r="A360">
         <v>7519</v>
       </c>
-      <c r="B360" s="3" t="s">
+      <c r="B360" s="9" t="s">
         <v>361</v>
       </c>
       <c r="C360">
@@ -5613,7 +5625,7 @@
       <c r="A361">
         <v>7521</v>
       </c>
-      <c r="B361" s="3" t="s">
+      <c r="B361" s="9" t="s">
         <v>362</v>
       </c>
       <c r="C361">
@@ -5624,7 +5636,7 @@
       <c r="A362">
         <v>7522</v>
       </c>
-      <c r="B362" s="3" t="s">
+      <c r="B362" s="9" t="s">
         <v>363</v>
       </c>
       <c r="C362">
@@ -5635,7 +5647,7 @@
       <c r="A363">
         <v>7523</v>
       </c>
-      <c r="B363" s="3" t="s">
+      <c r="B363" s="9" t="s">
         <v>364</v>
       </c>
       <c r="C363">
@@ -5646,7 +5658,7 @@
       <c r="A364">
         <v>7524</v>
       </c>
-      <c r="B364" s="3" t="s">
+      <c r="B364" s="9" t="s">
         <v>365</v>
       </c>
       <c r="C364">
@@ -5657,7 +5669,7 @@
       <c r="A365">
         <v>7601</v>
       </c>
-      <c r="B365" s="3" t="s">
+      <c r="B365" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C365">
@@ -5668,7 +5680,7 @@
       <c r="A366">
         <v>7602</v>
       </c>
-      <c r="B366" s="3" t="s">
+      <c r="B366" s="9" t="s">
         <v>367</v>
       </c>
       <c r="C366">
@@ -5679,7 +5691,7 @@
       <c r="A367">
         <v>7603</v>
       </c>
-      <c r="B367" s="3" t="s">
+      <c r="B367" s="9" t="s">
         <v>368</v>
       </c>
       <c r="C367">
@@ -5690,7 +5702,7 @@
       <c r="A368">
         <v>7604</v>
       </c>
-      <c r="B368" s="3" t="s">
+      <c r="B368" s="9" t="s">
         <v>369</v>
       </c>
       <c r="C368">
@@ -5701,7 +5713,7 @@
       <c r="A369">
         <v>7605</v>
       </c>
-      <c r="B369" s="3" t="s">
+      <c r="B369" s="9" t="s">
         <v>370</v>
       </c>
       <c r="C369">
@@ -5712,7 +5724,7 @@
       <c r="A370">
         <v>7606</v>
       </c>
-      <c r="B370" s="3" t="s">
+      <c r="B370" s="9" t="s">
         <v>371</v>
       </c>
       <c r="C370">
@@ -5723,7 +5735,7 @@
       <c r="A371">
         <v>7610</v>
       </c>
-      <c r="B371" s="3" t="s">
+      <c r="B371" s="9" t="s">
         <v>372</v>
       </c>
       <c r="C371">
@@ -5734,7 +5746,7 @@
       <c r="A372">
         <v>7611</v>
       </c>
-      <c r="B372" s="3" t="s">
+      <c r="B372" s="9" t="s">
         <v>373</v>
       </c>
       <c r="C372">
@@ -5745,7 +5757,7 @@
       <c r="A373">
         <v>7612</v>
       </c>
-      <c r="B373" s="3" t="s">
+      <c r="B373" s="9" t="s">
         <v>374</v>
       </c>
       <c r="C373">
@@ -5756,7 +5768,7 @@
       <c r="A374">
         <v>7613</v>
       </c>
-      <c r="B374" s="3" t="s">
+      <c r="B374" s="9" t="s">
         <v>375</v>
       </c>
       <c r="C374">
@@ -5767,7 +5779,7 @@
       <c r="A375">
         <v>7614</v>
       </c>
-      <c r="B375" s="3" t="s">
+      <c r="B375" s="9" t="s">
         <v>376</v>
       </c>
       <c r="C375">
@@ -5778,7 +5790,7 @@
       <c r="A376">
         <v>7618</v>
       </c>
-      <c r="B376" s="3" t="s">
+      <c r="B376" s="9" t="s">
         <v>377</v>
       </c>
       <c r="C376">
@@ -5789,7 +5801,7 @@
       <c r="A377">
         <v>7620</v>
       </c>
-      <c r="B377" s="3" t="s">
+      <c r="B377" s="9" t="s">
         <v>378</v>
       </c>
       <c r="C377">
@@ -5800,7 +5812,7 @@
       <c r="A378">
         <v>7621</v>
       </c>
-      <c r="B378" s="3" t="s">
+      <c r="B378" s="9" t="s">
         <v>379</v>
       </c>
       <c r="C378">
@@ -5811,7 +5823,7 @@
       <c r="A379">
         <v>7622</v>
       </c>
-      <c r="B379" s="3" t="s">
+      <c r="B379" s="9" t="s">
         <v>380</v>
       </c>
       <c r="C379">
@@ -5822,7 +5834,7 @@
       <c r="A380">
         <v>7623</v>
       </c>
-      <c r="B380" s="3" t="s">
+      <c r="B380" s="9" t="s">
         <v>381</v>
       </c>
       <c r="C380">
@@ -5833,7 +5845,7 @@
       <c r="A381">
         <v>7630</v>
       </c>
-      <c r="B381" s="3" t="s">
+      <c r="B381" s="9" t="s">
         <v>382</v>
       </c>
       <c r="C381">
@@ -5844,7 +5856,7 @@
       <c r="A382">
         <v>7631</v>
       </c>
-      <c r="B382" s="3" t="s">
+      <c r="B382" s="9" t="s">
         <v>383</v>
       </c>
       <c r="C382">
@@ -5855,7 +5867,7 @@
       <c r="A383">
         <v>7632</v>
       </c>
-      <c r="B383" s="3" t="s">
+      <c r="B383" s="9" t="s">
         <v>384</v>
       </c>
       <c r="C383">
@@ -5866,7 +5878,7 @@
       <c r="A384">
         <v>7633</v>
       </c>
-      <c r="B384" s="3" t="s">
+      <c r="B384" s="9" t="s">
         <v>385</v>
       </c>
       <c r="C384">
@@ -5877,7 +5889,7 @@
       <c r="A385">
         <v>7640</v>
       </c>
-      <c r="B385" s="3" t="s">
+      <c r="B385" s="9" t="s">
         <v>386</v>
       </c>
       <c r="C385">
@@ -5888,7 +5900,7 @@
       <c r="A386">
         <v>7641</v>
       </c>
-      <c r="B386" s="3" t="s">
+      <c r="B386" s="9" t="s">
         <v>387</v>
       </c>
       <c r="C386">
@@ -5899,7 +5911,7 @@
       <c r="A387">
         <v>7642</v>
       </c>
-      <c r="B387" s="3" t="s">
+      <c r="B387" s="9" t="s">
         <v>388</v>
       </c>
       <c r="C387">
@@ -5910,7 +5922,7 @@
       <c r="A388">
         <v>7643</v>
       </c>
-      <c r="B388" s="3" t="s">
+      <c r="B388" s="9" t="s">
         <v>389</v>
       </c>
       <c r="C388">
@@ -5921,7 +5933,7 @@
       <c r="A389">
         <v>7650</v>
       </c>
-      <c r="B389" s="3" t="s">
+      <c r="B389" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C389">
@@ -5932,7 +5944,7 @@
       <c r="A390">
         <v>7651</v>
       </c>
-      <c r="B390" s="3" t="s">
+      <c r="B390" s="9" t="s">
         <v>391</v>
       </c>
       <c r="C390">
@@ -5943,7 +5955,7 @@
       <c r="A391">
         <v>7652</v>
       </c>
-      <c r="B391" s="3" t="s">
+      <c r="B391" s="9" t="s">
         <v>392</v>
       </c>
       <c r="C391">
@@ -5954,7 +5966,7 @@
       <c r="A392">
         <v>7653</v>
       </c>
-      <c r="B392" s="3" t="s">
+      <c r="B392" s="9" t="s">
         <v>393</v>
       </c>
       <c r="C392">
@@ -5965,7 +5977,7 @@
       <c r="A393">
         <v>7654</v>
       </c>
-      <c r="B393" s="3" t="s">
+      <c r="B393" s="9" t="s">
         <v>394</v>
       </c>
       <c r="C393">
@@ -5976,7 +5988,7 @@
       <c r="A394">
         <v>7660</v>
       </c>
-      <c r="B394" s="3" t="s">
+      <c r="B394" s="9" t="s">
         <v>395</v>
       </c>
       <c r="C394">
@@ -5987,7 +5999,7 @@
       <c r="A395">
         <v>7661</v>
       </c>
-      <c r="B395" s="3" t="s">
+      <c r="B395" s="9" t="s">
         <v>396</v>
       </c>
       <c r="C395">
@@ -5998,7 +6010,7 @@
       <c r="A396">
         <v>7662</v>
       </c>
-      <c r="B396" s="3" t="s">
+      <c r="B396" s="9" t="s">
         <v>397</v>
       </c>
       <c r="C396">
@@ -6009,7 +6021,7 @@
       <c r="A397">
         <v>7663</v>
       </c>
-      <c r="B397" s="3" t="s">
+      <c r="B397" s="9" t="s">
         <v>398</v>
       </c>
       <c r="C397">
@@ -6020,7 +6032,7 @@
       <c r="A398">
         <v>7664</v>
       </c>
-      <c r="B398" s="3" t="s">
+      <c r="B398" s="9" t="s">
         <v>399</v>
       </c>
       <c r="C398">
@@ -6031,7 +6043,7 @@
       <c r="A399">
         <v>7681</v>
       </c>
-      <c r="B399" s="3" t="s">
+      <c r="B399" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C399">
@@ -6042,7 +6054,7 @@
       <c r="A400">
         <v>7682</v>
       </c>
-      <c r="B400" s="3" t="s">
+      <c r="B400" s="9" t="s">
         <v>401</v>
       </c>
       <c r="C400">
@@ -6053,7 +6065,7 @@
       <c r="A401">
         <v>7683</v>
       </c>
-      <c r="B401" s="3" t="s">
+      <c r="B401" s="9" t="s">
         <v>402</v>
       </c>
       <c r="C401">
@@ -6064,7 +6076,7 @@
       <c r="A402">
         <v>7686</v>
       </c>
-      <c r="B402" s="3" t="s">
+      <c r="B402" s="9" t="s">
         <v>403</v>
       </c>
       <c r="C402">
@@ -6075,7 +6087,7 @@
       <c r="A403">
         <v>7687</v>
       </c>
-      <c r="B403" s="3" t="s">
+      <c r="B403" s="9" t="s">
         <v>404</v>
       </c>
       <c r="C403">
@@ -6086,7 +6098,7 @@
       <c r="A404">
         <v>7701</v>
       </c>
-      <c r="B404" s="3" t="s">
+      <c r="B404" s="9" t="s">
         <v>405</v>
       </c>
       <c r="C404">
@@ -6097,7 +6109,7 @@
       <c r="A405">
         <v>7711</v>
       </c>
-      <c r="B405" s="3" t="s">
+      <c r="B405" s="9" t="s">
         <v>406</v>
       </c>
       <c r="C405">
@@ -6108,7 +6120,7 @@
       <c r="A406">
         <v>7721</v>
       </c>
-      <c r="B406" s="3" t="s">
+      <c r="B406" s="9" t="s">
         <v>407</v>
       </c>
       <c r="C406">
@@ -6119,7 +6131,7 @@
       <c r="A407">
         <v>7731</v>
       </c>
-      <c r="B407" s="3" t="s">
+      <c r="B407" s="9" t="s">
         <v>408</v>
       </c>
       <c r="C407">
@@ -6130,7 +6142,7 @@
       <c r="A408">
         <v>7732</v>
       </c>
-      <c r="B408" s="3" t="s">
+      <c r="B408" s="9" t="s">
         <v>409</v>
       </c>
       <c r="C408">
@@ -6141,7 +6153,7 @@
       <c r="A409">
         <v>7733</v>
       </c>
-      <c r="B409" s="3" t="s">
+      <c r="B409" s="9" t="s">
         <v>410</v>
       </c>
       <c r="C409">
@@ -6152,7 +6164,7 @@
       <c r="A410">
         <v>7734</v>
       </c>
-      <c r="B410" s="3" t="s">
+      <c r="B410" s="9" t="s">
         <v>411</v>
       </c>
       <c r="C410">
@@ -6163,7 +6175,7 @@
       <c r="A411">
         <v>7735</v>
       </c>
-      <c r="B411" s="3" t="s">
+      <c r="B411" s="9" t="s">
         <v>412</v>
       </c>
       <c r="C411">
@@ -6174,7 +6186,7 @@
       <c r="A412">
         <v>7741</v>
       </c>
-      <c r="B412" s="3" t="s">
+      <c r="B412" s="9" t="s">
         <v>413</v>
       </c>
       <c r="C412">
@@ -6185,7 +6197,7 @@
       <c r="A413">
         <v>7751</v>
       </c>
-      <c r="B413" s="3" t="s">
+      <c r="B413" s="9" t="s">
         <v>414</v>
       </c>
       <c r="C413">
@@ -6196,7 +6208,7 @@
       <c r="A414">
         <v>7764</v>
       </c>
-      <c r="B414" s="3" t="s">
+      <c r="B414" s="9" t="s">
         <v>415</v>
       </c>
       <c r="C414">
@@ -6207,7 +6219,7 @@
       <c r="A415">
         <v>7771</v>
       </c>
-      <c r="B415" s="3" t="s">
+      <c r="B415" s="9" t="s">
         <v>416</v>
       </c>
       <c r="C415">
@@ -6218,7 +6230,7 @@
       <c r="A416">
         <v>7772</v>
       </c>
-      <c r="B416" s="3" t="s">
+      <c r="B416" s="9" t="s">
         <v>417</v>
       </c>
       <c r="C416">
@@ -6229,7 +6241,7 @@
       <c r="A417">
         <v>7801</v>
       </c>
-      <c r="B417" s="3" t="s">
+      <c r="B417" s="9" t="s">
         <v>418</v>
       </c>
       <c r="C417">
@@ -6240,7 +6252,7 @@
       <c r="A418">
         <v>7811</v>
       </c>
-      <c r="B418" s="3" t="s">
+      <c r="B418" s="9" t="s">
         <v>419</v>
       </c>
       <c r="C418">
@@ -6251,7 +6263,7 @@
       <c r="A419">
         <v>7813</v>
       </c>
-      <c r="B419" s="3" t="s">
+      <c r="B419" s="9" t="s">
         <v>420</v>
       </c>
       <c r="C419">
@@ -6262,7 +6274,7 @@
       <c r="A420">
         <v>7817</v>
       </c>
-      <c r="B420" s="3" t="s">
+      <c r="B420" s="9" t="s">
         <v>421</v>
       </c>
       <c r="C420">
@@ -6273,7 +6285,7 @@
       <c r="A421">
         <v>7820</v>
       </c>
-      <c r="B421" s="3" t="s">
+      <c r="B421" s="9" t="s">
         <v>422</v>
       </c>
       <c r="C421">
@@ -6284,7 +6296,7 @@
       <c r="A422">
         <v>7821</v>
       </c>
-      <c r="B422" s="3" t="s">
+      <c r="B422" s="9" t="s">
         <v>423</v>
       </c>
       <c r="C422">
@@ -6295,7 +6307,7 @@
       <c r="A423">
         <v>7822</v>
       </c>
-      <c r="B423" s="3" t="s">
+      <c r="B423" s="9" t="s">
         <v>424</v>
       </c>
       <c r="C423">
@@ -6306,7 +6318,7 @@
       <c r="A424">
         <v>7823</v>
       </c>
-      <c r="B424" s="3" t="s">
+      <c r="B424" s="9" t="s">
         <v>425</v>
       </c>
       <c r="C424">
@@ -6317,7 +6329,7 @@
       <c r="A425">
         <v>7824</v>
       </c>
-      <c r="B425" s="3" t="s">
+      <c r="B425" s="9" t="s">
         <v>426</v>
       </c>
       <c r="C425">
@@ -6328,7 +6340,7 @@
       <c r="A426">
         <v>7825</v>
       </c>
-      <c r="B426" s="3" t="s">
+      <c r="B426" s="9" t="s">
         <v>427</v>
       </c>
       <c r="C426">
@@ -6339,7 +6351,7 @@
       <c r="A427">
         <v>7826</v>
       </c>
-      <c r="B427" s="3" t="s">
+      <c r="B427" s="9" t="s">
         <v>428</v>
       </c>
       <c r="C427">
@@ -6350,7 +6362,7 @@
       <c r="A428">
         <v>7827</v>
       </c>
-      <c r="B428" s="3" t="s">
+      <c r="B428" s="9" t="s">
         <v>429</v>
       </c>
       <c r="C428">
@@ -6361,7 +6373,7 @@
       <c r="A429">
         <v>7828</v>
       </c>
-      <c r="B429" s="3" t="s">
+      <c r="B429" s="9" t="s">
         <v>430</v>
       </c>
       <c r="C429">
@@ -6372,7 +6384,7 @@
       <c r="A430">
         <v>7831</v>
       </c>
-      <c r="B430" s="3" t="s">
+      <c r="B430" s="9" t="s">
         <v>431</v>
       </c>
       <c r="C430">
@@ -6383,7 +6395,7 @@
       <c r="A431">
         <v>7832</v>
       </c>
-      <c r="B431" s="3" t="s">
+      <c r="B431" s="9" t="s">
         <v>432</v>
       </c>
       <c r="C431">
@@ -6394,7 +6406,7 @@
       <c r="A432">
         <v>7841</v>
       </c>
-      <c r="B432" s="3" t="s">
+      <c r="B432" s="9" t="s">
         <v>433</v>
       </c>
       <c r="C432">
@@ -6405,7 +6417,7 @@
       <c r="A433">
         <v>7842</v>
       </c>
-      <c r="B433" s="3" t="s">
+      <c r="B433" s="9" t="s">
         <v>434</v>
       </c>
       <c r="C433">
@@ -6416,7 +6428,7 @@
       <c r="A434">
         <v>-1</v>
       </c>
-      <c r="B434" s="3" t="s">
+      <c r="B434" s="9" t="s">
         <v>300</v>
       </c>
       <c r="C434">
@@ -6427,7 +6439,7 @@
       <c r="A435">
         <v>8101</v>
       </c>
-      <c r="B435" s="3" t="s">
+      <c r="B435" s="9" t="s">
         <v>435</v>
       </c>
       <c r="C435">
@@ -6438,7 +6450,7 @@
       <c r="A436">
         <v>8102</v>
       </c>
-      <c r="B436" s="3" t="s">
+      <c r="B436" s="9" t="s">
         <v>436</v>
       </c>
       <c r="C436">
@@ -6449,7 +6461,7 @@
       <c r="A437">
         <v>8103</v>
       </c>
-      <c r="B437" s="3" t="s">
+      <c r="B437" s="9" t="s">
         <v>437</v>
       </c>
       <c r="C437">
@@ -6460,7 +6472,7 @@
       <c r="A438">
         <v>8110</v>
       </c>
-      <c r="B438" s="3" t="s">
+      <c r="B438" s="9" t="s">
         <v>438</v>
       </c>
       <c r="C438">
@@ -6471,7 +6483,7 @@
       <c r="A439">
         <v>8111</v>
       </c>
-      <c r="B439" s="3" t="s">
+      <c r="B439" s="9" t="s">
         <v>439</v>
       </c>
       <c r="C439">
@@ -6482,7 +6494,7 @@
       <c r="A440">
         <v>8112</v>
       </c>
-      <c r="B440" s="3" t="s">
+      <c r="B440" s="9" t="s">
         <v>440</v>
       </c>
       <c r="C440">
@@ -6493,7 +6505,7 @@
       <c r="A441">
         <v>8113</v>
       </c>
-      <c r="B441" s="3" t="s">
+      <c r="B441" s="9" t="s">
         <v>441</v>
       </c>
       <c r="C441">
@@ -6504,7 +6516,7 @@
       <c r="A442">
         <v>8114</v>
       </c>
-      <c r="B442" s="3" t="s">
+      <c r="B442" s="9" t="s">
         <v>442</v>
       </c>
       <c r="C442">
@@ -6515,7 +6527,7 @@
       <c r="A443">
         <v>8115</v>
       </c>
-      <c r="B443" s="3" t="s">
+      <c r="B443" s="9" t="s">
         <v>443</v>
       </c>
       <c r="C443">
@@ -6526,7 +6538,7 @@
       <c r="A444">
         <v>8116</v>
       </c>
-      <c r="B444" s="3" t="s">
+      <c r="B444" s="9" t="s">
         <v>444</v>
       </c>
       <c r="C444">
@@ -6537,7 +6549,7 @@
       <c r="A445">
         <v>8117</v>
       </c>
-      <c r="B445" s="3" t="s">
+      <c r="B445" s="9" t="s">
         <v>445</v>
       </c>
       <c r="C445">
@@ -6548,7 +6560,7 @@
       <c r="A446">
         <v>8118</v>
       </c>
-      <c r="B446" s="3" t="s">
+      <c r="B446" s="9" t="s">
         <v>446</v>
       </c>
       <c r="C446">
@@ -6559,7 +6571,7 @@
       <c r="A447">
         <v>8121</v>
       </c>
-      <c r="B447" s="3" t="s">
+      <c r="B447" s="9" t="s">
         <v>447</v>
       </c>
       <c r="C447">
@@ -6570,7 +6582,7 @@
       <c r="A448">
         <v>8131</v>
       </c>
-      <c r="B448" s="3" t="s">
+      <c r="B448" s="9" t="s">
         <v>448</v>
       </c>
       <c r="C448">
@@ -6581,7 +6593,7 @@
       <c r="A449">
         <v>8181</v>
       </c>
-      <c r="B449" s="3" t="s">
+      <c r="B449" s="9" t="s">
         <v>449</v>
       </c>
       <c r="C449">
@@ -6592,7 +6604,7 @@
       <c r="A450">
         <v>8201</v>
       </c>
-      <c r="B450" s="3" t="s">
+      <c r="B450" s="9" t="s">
         <v>450</v>
       </c>
       <c r="C450">
@@ -6603,7 +6615,7 @@
       <c r="A451">
         <v>8202</v>
       </c>
-      <c r="B451" s="3" t="s">
+      <c r="B451" s="9" t="s">
         <v>451</v>
       </c>
       <c r="C451">
@@ -6614,7 +6626,7 @@
       <c r="A452">
         <v>8211</v>
       </c>
-      <c r="B452" s="3" t="s">
+      <c r="B452" s="9" t="s">
         <v>452</v>
       </c>
       <c r="C452">
@@ -6625,7 +6637,7 @@
       <c r="A453">
         <v>8212</v>
       </c>
-      <c r="B453" s="3" t="s">
+      <c r="B453" s="9" t="s">
         <v>453</v>
       </c>
       <c r="C453">
@@ -6636,7 +6648,7 @@
       <c r="A454">
         <v>8213</v>
       </c>
-      <c r="B454" s="3" t="s">
+      <c r="B454" s="9" t="s">
         <v>454</v>
       </c>
       <c r="C454">
@@ -6647,7 +6659,7 @@
       <c r="A455">
         <v>8214</v>
       </c>
-      <c r="B455" s="3" t="s">
+      <c r="B455" s="9" t="s">
         <v>455</v>
       </c>
       <c r="C455">
@@ -6658,7 +6670,7 @@
       <c r="A456">
         <v>8221</v>
       </c>
-      <c r="B456" s="3" t="s">
+      <c r="B456" s="9" t="s">
         <v>456</v>
       </c>
       <c r="C456">
@@ -6669,7 +6681,7 @@
       <c r="A457">
         <v>8231</v>
       </c>
-      <c r="B457" s="3" t="s">
+      <c r="B457" s="9" t="s">
         <v>457</v>
       </c>
       <c r="C457">
@@ -6680,7 +6692,7 @@
       <c r="A458">
         <v>8232</v>
       </c>
-      <c r="B458" s="3" t="s">
+      <c r="B458" s="9" t="s">
         <v>458</v>
       </c>
       <c r="C458">
@@ -6691,7 +6703,7 @@
       <c r="A459">
         <v>8233</v>
       </c>
-      <c r="B459" s="3" t="s">
+      <c r="B459" s="9" t="s">
         <v>459</v>
       </c>
       <c r="C459">
@@ -6702,7 +6714,7 @@
       <c r="A460">
         <v>8281</v>
       </c>
-      <c r="B460" s="3" t="s">
+      <c r="B460" s="9" t="s">
         <v>460</v>
       </c>
       <c r="C460">
@@ -6713,7 +6725,7 @@
       <c r="A461">
         <v>8301</v>
       </c>
-      <c r="B461" s="3" t="s">
+      <c r="B461" s="9" t="s">
         <v>461</v>
       </c>
       <c r="C461">
@@ -6724,7 +6736,7 @@
       <c r="A462">
         <v>8311</v>
       </c>
-      <c r="B462" s="3" t="s">
+      <c r="B462" s="9" t="s">
         <v>462</v>
       </c>
       <c r="C462">
@@ -6735,7 +6747,7 @@
       <c r="A463">
         <v>8321</v>
       </c>
-      <c r="B463" s="3" t="s">
+      <c r="B463" s="9" t="s">
         <v>463</v>
       </c>
       <c r="C463">
@@ -6746,7 +6758,7 @@
       <c r="A464">
         <v>8339</v>
       </c>
-      <c r="B464" s="3" t="s">
+      <c r="B464" s="9" t="s">
         <v>464</v>
       </c>
       <c r="C464">
@@ -6757,7 +6769,7 @@
       <c r="A465">
         <v>8401</v>
       </c>
-      <c r="B465" s="3" t="s">
+      <c r="B465" s="9" t="s">
         <v>465</v>
       </c>
       <c r="C465">
@@ -6768,7 +6780,7 @@
       <c r="A466">
         <v>8411</v>
       </c>
-      <c r="B466" s="3" t="s">
+      <c r="B466" s="9" t="s">
         <v>466</v>
       </c>
       <c r="C466">
@@ -6779,7 +6791,7 @@
       <c r="A467">
         <v>8412</v>
       </c>
-      <c r="B467" s="3" t="s">
+      <c r="B467" s="9" t="s">
         <v>467</v>
       </c>
       <c r="C467">
@@ -6790,7 +6802,7 @@
       <c r="A468">
         <v>8413</v>
       </c>
-      <c r="B468" s="3" t="s">
+      <c r="B468" s="9" t="s">
         <v>468</v>
       </c>
       <c r="C468">
@@ -6801,7 +6813,7 @@
       <c r="A469">
         <v>8416</v>
       </c>
-      <c r="B469" s="3" t="s">
+      <c r="B469" s="9" t="s">
         <v>469</v>
       </c>
       <c r="C469">
@@ -6812,7 +6824,7 @@
       <c r="A470">
         <v>8417</v>
       </c>
-      <c r="B470" s="3" t="s">
+      <c r="B470" s="9" t="s">
         <v>470</v>
       </c>
       <c r="C470">
@@ -6823,7 +6835,7 @@
       <c r="A471">
         <v>8421</v>
       </c>
-      <c r="B471" s="3" t="s">
+      <c r="B471" s="9" t="s">
         <v>471</v>
       </c>
       <c r="C471">
@@ -6834,7 +6846,7 @@
       <c r="A472">
         <v>8423</v>
       </c>
-      <c r="B472" s="3" t="s">
+      <c r="B472" s="9" t="s">
         <v>472</v>
       </c>
       <c r="C472">
@@ -6845,7 +6857,7 @@
       <c r="A473">
         <v>8429</v>
       </c>
-      <c r="B473" s="3" t="s">
+      <c r="B473" s="9" t="s">
         <v>473</v>
       </c>
       <c r="C473">
@@ -6856,7 +6868,7 @@
       <c r="A474">
         <v>8484</v>
       </c>
-      <c r="B474" s="3" t="s">
+      <c r="B474" s="9" t="s">
         <v>474</v>
       </c>
       <c r="C474">
@@ -6867,7 +6879,7 @@
       <c r="A475">
         <v>8485</v>
       </c>
-      <c r="B475" s="3" t="s">
+      <c r="B475" s="9" t="s">
         <v>475</v>
       </c>
       <c r="C475">
@@ -6878,7 +6890,7 @@
       <c r="A476">
         <v>8491</v>
       </c>
-      <c r="B476" s="3" t="s">
+      <c r="B476" s="9" t="s">
         <v>476</v>
       </c>
       <c r="C476">
@@ -6889,7 +6901,7 @@
       <c r="A477">
         <v>8492</v>
       </c>
-      <c r="B477" s="3" t="s">
+      <c r="B477" s="9" t="s">
         <v>477</v>
       </c>
       <c r="C477">
@@ -6900,7 +6912,7 @@
       <c r="A478">
         <v>8493</v>
       </c>
-      <c r="B478" s="3" t="s">
+      <c r="B478" s="9" t="s">
         <v>478</v>
       </c>
       <c r="C478">
@@ -6911,7 +6923,7 @@
       <c r="A479">
         <v>8601</v>
       </c>
-      <c r="B479" s="3" t="s">
+      <c r="B479" s="9" t="s">
         <v>479</v>
       </c>
       <c r="C479">
@@ -6922,7 +6934,7 @@
       <c r="A480">
         <v>8611</v>
       </c>
-      <c r="B480" s="3" t="s">
+      <c r="B480" s="9" t="s">
         <v>480</v>
       </c>
       <c r="C480">
@@ -6933,7 +6945,7 @@
       <c r="A481">
         <v>8612</v>
       </c>
-      <c r="B481" s="3" t="s">
+      <c r="B481" s="9" t="s">
         <v>481</v>
       </c>
       <c r="C481">
@@ -6944,7 +6956,7 @@
       <c r="A482">
         <v>8621</v>
       </c>
-      <c r="B482" s="3" t="s">
+      <c r="B482" s="9" t="s">
         <v>482</v>
       </c>
       <c r="C482">
@@ -6955,7 +6967,7 @@
       <c r="A483">
         <v>8622</v>
       </c>
-      <c r="B483" s="3" t="s">
+      <c r="B483" s="9" t="s">
         <v>483</v>
       </c>
       <c r="C483">
@@ -6966,7 +6978,7 @@
       <c r="A484">
         <v>8623</v>
       </c>
-      <c r="B484" s="3" t="s">
+      <c r="B484" s="9" t="s">
         <v>484</v>
       </c>
       <c r="C484">
@@ -6977,7 +6989,7 @@
       <c r="A485">
         <v>8624</v>
       </c>
-      <c r="B485" s="3" t="s">
+      <c r="B485" s="9" t="s">
         <v>485</v>
       </c>
       <c r="C485">
@@ -6988,7 +7000,7 @@
       <c r="A486">
         <v>8625</v>
       </c>
-      <c r="B486" s="3" t="s">
+      <c r="B486" s="9" t="s">
         <v>486</v>
       </c>
       <c r="C486">
@@ -6999,7 +7011,7 @@
       <c r="A487">
         <v>8711</v>
       </c>
-      <c r="B487" s="3" t="s">
+      <c r="B487" s="9" t="s">
         <v>487</v>
       </c>
       <c r="C487">
@@ -7010,7 +7022,7 @@
       <c r="A488">
         <v>-1</v>
       </c>
-      <c r="B488" s="3" t="s">
+      <c r="B488" s="9" t="s">
         <v>488</v>
       </c>
       <c r="C488">
@@ -7021,7 +7033,7 @@
       <c r="A489">
         <v>9101</v>
       </c>
-      <c r="B489" s="3" t="s">
+      <c r="B489" s="9" t="s">
         <v>489</v>
       </c>
       <c r="C489">
@@ -7032,7 +7044,7 @@
       <c r="A490">
         <v>9102</v>
       </c>
-      <c r="B490" s="3" t="s">
+      <c r="B490" s="9" t="s">
         <v>490</v>
       </c>
       <c r="C490">
@@ -7043,7 +7055,7 @@
       <c r="A491">
         <v>9109</v>
       </c>
-      <c r="B491" s="3" t="s">
+      <c r="B491" s="9" t="s">
         <v>491</v>
       </c>
       <c r="C491">
@@ -7054,7 +7066,7 @@
       <c r="A492">
         <v>9111</v>
       </c>
-      <c r="B492" s="3" t="s">
+      <c r="B492" s="9" t="s">
         <v>492</v>
       </c>
       <c r="C492">
@@ -7065,7 +7077,7 @@
       <c r="A493">
         <v>9112</v>
       </c>
-      <c r="B493" s="3" t="s">
+      <c r="B493" s="9" t="s">
         <v>493</v>
       </c>
       <c r="C493">
@@ -7076,7 +7088,7 @@
       <c r="A494">
         <v>9113</v>
       </c>
-      <c r="B494" s="3" t="s">
+      <c r="B494" s="9" t="s">
         <v>494</v>
       </c>
       <c r="C494">
@@ -7087,7 +7099,7 @@
       <c r="A495">
         <v>9131</v>
       </c>
-      <c r="B495" s="3" t="s">
+      <c r="B495" s="9" t="s">
         <v>495</v>
       </c>
       <c r="C495">
@@ -7098,7 +7110,7 @@
       <c r="A496">
         <v>9141</v>
       </c>
-      <c r="B496" s="3" t="s">
+      <c r="B496" s="9" t="s">
         <v>496</v>
       </c>
       <c r="C496">
@@ -7109,7 +7121,7 @@
       <c r="A497">
         <v>9142</v>
       </c>
-      <c r="B497" s="3" t="s">
+      <c r="B497" s="9" t="s">
         <v>497</v>
       </c>
       <c r="C497">
@@ -7120,7 +7132,7 @@
       <c r="A498">
         <v>9143</v>
       </c>
-      <c r="B498" s="3" t="s">
+      <c r="B498" s="9" t="s">
         <v>498</v>
       </c>
       <c r="C498">
@@ -7131,7 +7143,7 @@
       <c r="A499">
         <v>9144</v>
       </c>
-      <c r="B499" s="3" t="s">
+      <c r="B499" s="9" t="s">
         <v>499</v>
       </c>
       <c r="C499">
@@ -7142,7 +7154,7 @@
       <c r="A500">
         <v>9151</v>
       </c>
-      <c r="B500" s="3" t="s">
+      <c r="B500" s="9" t="s">
         <v>500</v>
       </c>
       <c r="C500">
@@ -7153,7 +7165,7 @@
       <c r="A501">
         <v>9152</v>
       </c>
-      <c r="B501" s="3" t="s">
+      <c r="B501" s="9" t="s">
         <v>501</v>
       </c>
       <c r="C501">
@@ -7164,7 +7176,7 @@
       <c r="A502">
         <v>9153</v>
       </c>
-      <c r="B502" s="3" t="s">
+      <c r="B502" s="9" t="s">
         <v>502</v>
       </c>
       <c r="C502">
@@ -7175,7 +7187,7 @@
       <c r="A503">
         <v>9154</v>
       </c>
-      <c r="B503" s="3" t="s">
+      <c r="B503" s="9" t="s">
         <v>503</v>
       </c>
       <c r="C503">
@@ -7186,7 +7198,7 @@
       <c r="A504">
         <v>9191</v>
       </c>
-      <c r="B504" s="3" t="s">
+      <c r="B504" s="9" t="s">
         <v>504</v>
       </c>
       <c r="C504">
@@ -7197,7 +7209,7 @@
       <c r="A505">
         <v>9192</v>
       </c>
-      <c r="B505" s="3" t="s">
+      <c r="B505" s="9" t="s">
         <v>505</v>
       </c>
       <c r="C505">
@@ -7208,7 +7220,7 @@
       <c r="A506">
         <v>9193</v>
       </c>
-      <c r="B506" s="3" t="s">
+      <c r="B506" s="9" t="s">
         <v>506</v>
       </c>
       <c r="C506">
@@ -7219,7 +7231,7 @@
       <c r="A507">
         <v>9501</v>
       </c>
-      <c r="B507" s="3" t="s">
+      <c r="B507" s="9" t="s">
         <v>507</v>
       </c>
       <c r="C507">
@@ -7230,7 +7242,7 @@
       <c r="A508">
         <v>9502</v>
       </c>
-      <c r="B508" s="3" t="s">
+      <c r="B508" s="9" t="s">
         <v>508</v>
       </c>
       <c r="C508">
@@ -7241,7 +7253,7 @@
       <c r="A509">
         <v>9503</v>
       </c>
-      <c r="B509" s="3" t="s">
+      <c r="B509" s="9" t="s">
         <v>509</v>
       </c>
       <c r="C509">
@@ -7252,7 +7264,7 @@
       <c r="A510">
         <v>9511</v>
       </c>
-      <c r="B510" s="3" t="s">
+      <c r="B510" s="9" t="s">
         <v>510</v>
       </c>
       <c r="C510">
@@ -7263,7 +7275,7 @@
       <c r="A511">
         <v>9513</v>
       </c>
-      <c r="B511" s="3" t="s">
+      <c r="B511" s="9" t="s">
         <v>511</v>
       </c>
       <c r="C511">
@@ -7274,7 +7286,7 @@
       <c r="A512">
         <v>9531</v>
       </c>
-      <c r="B512" s="3" t="s">
+      <c r="B512" s="9" t="s">
         <v>512</v>
       </c>
       <c r="C512">
@@ -7285,7 +7297,7 @@
       <c r="A513">
         <v>9541</v>
       </c>
-      <c r="B513" s="3" t="s">
+      <c r="B513" s="9" t="s">
         <v>513</v>
       </c>
       <c r="C513">
@@ -7296,7 +7308,7 @@
       <c r="A514">
         <v>9542</v>
       </c>
-      <c r="B514" s="3" t="s">
+      <c r="B514" s="9" t="s">
         <v>514</v>
       </c>
       <c r="C514">
@@ -7307,7 +7319,7 @@
       <c r="A515">
         <v>9543</v>
       </c>
-      <c r="B515" s="3" t="s">
+      <c r="B515" s="9" t="s">
         <v>515</v>
       </c>
       <c r="C515">
@@ -7318,7 +7330,7 @@
       <c r="A516">
         <v>9911</v>
       </c>
-      <c r="B516" s="3" t="s">
+      <c r="B516" s="9" t="s">
         <v>516</v>
       </c>
       <c r="C516">
@@ -7329,7 +7341,7 @@
       <c r="A517">
         <v>9912</v>
       </c>
-      <c r="B517" s="3" t="s">
+      <c r="B517" s="9" t="s">
         <v>517</v>
       </c>
       <c r="C517">
@@ -7340,7 +7352,7 @@
       <c r="A518">
         <v>9913</v>
       </c>
-      <c r="B518" s="3" t="s">
+      <c r="B518" s="9" t="s">
         <v>518</v>
       </c>
       <c r="C518">
@@ -7351,7 +7363,7 @@
       <c r="A519">
         <v>9914</v>
       </c>
-      <c r="B519" s="3" t="s">
+      <c r="B519" s="9" t="s">
         <v>519</v>
       </c>
       <c r="C519">
@@ -7362,7 +7374,7 @@
       <c r="A520">
         <v>9921</v>
       </c>
-      <c r="B520" s="3" t="s">
+      <c r="B520" s="9" t="s">
         <v>520</v>
       </c>
       <c r="C520">
@@ -7373,7 +7385,7 @@
       <c r="A521">
         <v>9922</v>
       </c>
-      <c r="B521" s="3" t="s">
+      <c r="B521" s="9" t="s">
         <v>521</v>
       </c>
       <c r="C521">
@@ -7384,7 +7396,7 @@
       <c r="A522">
         <v>-1</v>
       </c>
-      <c r="B522" s="3" t="s">
+      <c r="B522" s="9" t="s">
         <v>522</v>
       </c>
       <c r="C522">
@@ -7395,7 +7407,7 @@
       <c r="A523">
         <v>9999</v>
       </c>
-      <c r="B523" s="3" t="s">
+      <c r="B523" s="9" t="s">
         <v>523</v>
       </c>
       <c r="C523">

--- a/+dataLH/test_files/readTest.xlsx
+++ b/+dataLH/test_files/readTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="525">
   <si>
     <t>Code</t>
   </si>
@@ -1610,7 +1610,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1628,11 +1628,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1644,6 +1646,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1662,13 +1666,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>524</v>
       </c>
     </row>
@@ -1676,7 +1680,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C2">
@@ -1687,7 +1691,7 @@
       <c r="A3">
         <v>-1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -1698,7 +1702,7 @@
       <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -1709,7 +1713,7 @@
       <c r="A5">
         <v>200</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C5">
@@ -1720,7 +1724,7 @@
       <c r="A6">
         <v>300</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C6">
@@ -1731,7 +1735,7 @@
       <c r="A7">
         <v>401</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C7">
@@ -1742,7 +1746,7 @@
       <c r="A8">
         <v>402</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C8">
@@ -1753,7 +1757,7 @@
       <c r="A9">
         <v>403</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C9">
@@ -1764,7 +1768,7 @@
       <c r="A10">
         <v>411</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C10">
@@ -1775,7 +1779,7 @@
       <c r="A11">
         <v>412</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
@@ -1786,7 +1790,7 @@
       <c r="A12">
         <v>413</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C12">
@@ -1797,7 +1801,7 @@
       <c r="A13">
         <v>501</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C13">
@@ -1808,7 +1812,7 @@
       <c r="A14">
         <v>502</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C14">
@@ -1819,7 +1823,7 @@
       <c r="A15">
         <v>503</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C15">
@@ -1830,7 +1834,7 @@
       <c r="A16">
         <v>511</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C16">
@@ -1841,7 +1845,7 @@
       <c r="A17">
         <v>512</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C17">
@@ -1852,7 +1856,7 @@
       <c r="A18">
         <v>513</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C18">
@@ -1863,7 +1867,7 @@
       <c r="A19">
         <v>-1</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C19">
@@ -1874,7 +1878,7 @@
       <c r="A20">
         <v>1111</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C20">
@@ -1885,7 +1889,7 @@
       <c r="A21">
         <v>1112</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C21">
@@ -1896,7 +1900,7 @@
       <c r="A22">
         <v>1113</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C22">
@@ -1907,7 +1911,7 @@
       <c r="A23">
         <v>1122</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C23">
@@ -1918,7 +1922,7 @@
       <c r="A24">
         <v>1123</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C24">
@@ -1929,7 +1933,7 @@
       <c r="A25">
         <v>1130</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C25">
@@ -1940,7 +1944,7 @@
       <c r="A26">
         <v>1140</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C26">
@@ -1951,7 +1955,7 @@
       <c r="A27">
         <v>1210</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C27">
@@ -1962,7 +1966,7 @@
       <c r="A28">
         <v>1219</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C28">
@@ -1973,7 +1977,7 @@
       <c r="A29">
         <v>1220</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C29">
@@ -1984,7 +1988,7 @@
       <c r="A30">
         <v>1230</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C30">
@@ -1995,7 +1999,7 @@
       <c r="A31">
         <v>1310</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C31">
@@ -2006,7 +2010,7 @@
       <c r="A32">
         <v>1320</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C32">
@@ -2017,7 +2021,7 @@
       <c r="A33">
         <v>-1</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C33">
@@ -2028,7 +2032,7 @@
       <c r="A34">
         <v>2011</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C34">
@@ -2039,7 +2043,7 @@
       <c r="A35">
         <v>2012</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C35">
@@ -2050,7 +2054,7 @@
       <c r="A36">
         <v>2021</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C36">
@@ -2061,7 +2065,7 @@
       <c r="A37">
         <v>2111</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C37">
@@ -2072,7 +2076,7 @@
       <c r="A38">
         <v>2112</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C38">
@@ -2083,7 +2087,7 @@
       <c r="A39">
         <v>2121</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C39">
@@ -2094,7 +2098,7 @@
       <c r="A40">
         <v>2122</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C40">
@@ -2105,7 +2109,7 @@
       <c r="A41">
         <v>2123</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C41">
@@ -2116,7 +2120,7 @@
       <c r="A42">
         <v>2124</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C42">
@@ -2127,7 +2131,7 @@
       <c r="A43">
         <v>2125</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C43">
@@ -2138,7 +2142,7 @@
       <c r="A44">
         <v>2131</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C44">
@@ -2149,7 +2153,7 @@
       <c r="A45">
         <v>2132</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C45">
@@ -2160,7 +2164,7 @@
       <c r="A46">
         <v>2133</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C46">
@@ -2171,7 +2175,7 @@
       <c r="A47">
         <v>2134</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C47">
@@ -2182,7 +2186,7 @@
       <c r="A48">
         <v>2140</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C48">
@@ -2193,7 +2197,7 @@
       <c r="A49">
         <v>2141</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C49">
@@ -2204,7 +2208,7 @@
       <c r="A50">
         <v>2142</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C50">
@@ -2215,7 +2219,7 @@
       <c r="A51">
         <v>2143</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C51">
@@ -2226,7 +2230,7 @@
       <c r="A52">
         <v>2144</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C52">
@@ -2237,7 +2241,7 @@
       <c r="A53">
         <v>2145</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C53">
@@ -2248,7 +2252,7 @@
       <c r="A54">
         <v>2146</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="11" t="s">
         <v>55</v>
       </c>
       <c r="C54">
@@ -2259,7 +2263,7 @@
       <c r="A55">
         <v>2147</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C55">
@@ -2270,7 +2274,7 @@
       <c r="A56">
         <v>2148</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C56">
@@ -2281,7 +2285,7 @@
       <c r="A57">
         <v>2149</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C57">
@@ -2292,7 +2296,7 @@
       <c r="A58">
         <v>2151</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C58">
@@ -2303,7 +2307,7 @@
       <c r="A59">
         <v>2152</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C59">
@@ -2314,7 +2318,7 @@
       <c r="A60">
         <v>2153</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C60">
@@ -2325,7 +2329,7 @@
       <c r="A61">
         <v>2211</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C61">
@@ -2336,7 +2340,7 @@
       <c r="A62">
         <v>2221</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C62">
@@ -2347,7 +2351,7 @@
       <c r="A63">
         <v>2231</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C63">
@@ -2358,7 +2362,7 @@
       <c r="A64">
         <v>2232</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C64">
@@ -2369,7 +2373,7 @@
       <c r="A65">
         <v>2233</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="11" t="s">
         <v>66</v>
       </c>
       <c r="C65">
@@ -2380,7 +2384,7 @@
       <c r="A66">
         <v>2234</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C66">
@@ -2391,7 +2395,7 @@
       <c r="A67">
         <v>2235</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="11" t="s">
         <v>68</v>
       </c>
       <c r="C67">
@@ -2402,7 +2406,7 @@
       <c r="A68">
         <v>2236</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C68">
@@ -2413,7 +2417,7 @@
       <c r="A69">
         <v>2237</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C69">
@@ -2424,7 +2428,7 @@
       <c r="A70">
         <v>2311</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C70">
@@ -2435,7 +2439,7 @@
       <c r="A71">
         <v>2312</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C71">
@@ -2446,7 +2450,7 @@
       <c r="A72">
         <v>2313</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C72">
@@ -2457,7 +2461,7 @@
       <c r="A73">
         <v>2321</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C73">
@@ -2468,7 +2472,7 @@
       <c r="A74">
         <v>2330</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="11" t="s">
         <v>75</v>
       </c>
       <c r="C74">
@@ -2479,7 +2483,7 @@
       <c r="A75">
         <v>2340</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="11" t="s">
         <v>76</v>
       </c>
       <c r="C75">
@@ -2490,7 +2494,7 @@
       <c r="A76">
         <v>2391</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="11" t="s">
         <v>77</v>
       </c>
       <c r="C76">
@@ -2501,7 +2505,7 @@
       <c r="A77">
         <v>2392</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C77">
@@ -2512,7 +2516,7 @@
       <c r="A78">
         <v>2394</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C78">
@@ -2523,7 +2527,7 @@
       <c r="A79">
         <v>2410</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C79">
@@ -2534,7 +2538,7 @@
       <c r="A80">
         <v>2412</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C80">
@@ -2545,7 +2549,7 @@
       <c r="A81">
         <v>2419</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C81">
@@ -2556,7 +2560,7 @@
       <c r="A82">
         <v>2421</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C82">
@@ -2567,7 +2571,7 @@
       <c r="A83">
         <v>2422</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="11" t="s">
         <v>84</v>
       </c>
       <c r="C83">
@@ -2578,7 +2582,7 @@
       <c r="A84">
         <v>2423</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C84">
@@ -2589,7 +2593,7 @@
       <c r="A85">
         <v>2511</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C85">
@@ -2600,7 +2604,7 @@
       <c r="A86">
         <v>2512</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="11" t="s">
         <v>87</v>
       </c>
       <c r="C86">
@@ -2611,7 +2615,7 @@
       <c r="A87">
         <v>2513</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="11" t="s">
         <v>88</v>
       </c>
       <c r="C87">
@@ -2622,7 +2626,7 @@
       <c r="A88">
         <v>2514</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C88">
@@ -2633,7 +2637,7 @@
       <c r="A89">
         <v>2515</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C89">
@@ -2644,7 +2648,7 @@
       <c r="A90">
         <v>2516</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="11" t="s">
         <v>91</v>
       </c>
       <c r="C90">
@@ -2655,7 +2659,7 @@
       <c r="A91">
         <v>2521</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="11" t="s">
         <v>92</v>
       </c>
       <c r="C91">
@@ -2666,7 +2670,7 @@
       <c r="A92">
         <v>2522</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="11" t="s">
         <v>93</v>
       </c>
       <c r="C92">
@@ -2677,7 +2681,7 @@
       <c r="A93">
         <v>2523</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="11" t="s">
         <v>94</v>
       </c>
       <c r="C93">
@@ -2688,7 +2692,7 @@
       <c r="A94">
         <v>2524</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C94">
@@ -2699,7 +2703,7 @@
       <c r="A95">
         <v>2525</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C95">
@@ -2710,7 +2714,7 @@
       <c r="A96">
         <v>2531</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="11" t="s">
         <v>97</v>
       </c>
       <c r="C96">
@@ -2721,7 +2725,7 @@
       <c r="A97">
         <v>2611</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C97">
@@ -2732,7 +2736,7 @@
       <c r="A98">
         <v>2612</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C98">
@@ -2743,7 +2747,7 @@
       <c r="A99">
         <v>2613</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="11" t="s">
         <v>100</v>
       </c>
       <c r="C99">
@@ -2754,7 +2758,7 @@
       <c r="A100">
         <v>2614</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C100">
@@ -2765,7 +2769,7 @@
       <c r="A101">
         <v>2615</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="11" t="s">
         <v>102</v>
       </c>
       <c r="C101">
@@ -2776,7 +2780,7 @@
       <c r="A102">
         <v>2616</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="11" t="s">
         <v>103</v>
       </c>
       <c r="C102">
@@ -2787,7 +2791,7 @@
       <c r="A103">
         <v>2617</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="11" t="s">
         <v>104</v>
       </c>
       <c r="C103">
@@ -2798,7 +2802,7 @@
       <c r="A104">
         <v>2621</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="11" t="s">
         <v>105</v>
       </c>
       <c r="C104">
@@ -2809,7 +2813,7 @@
       <c r="A105">
         <v>2622</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="11" t="s">
         <v>106</v>
       </c>
       <c r="C105">
@@ -2820,7 +2824,7 @@
       <c r="A106">
         <v>2623</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="11" t="s">
         <v>107</v>
       </c>
       <c r="C106">
@@ -2831,7 +2835,7 @@
       <c r="A107">
         <v>2624</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C107">
@@ -2842,7 +2846,7 @@
       <c r="A108">
         <v>2625</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="11" t="s">
         <v>109</v>
       </c>
       <c r="C108">
@@ -2853,7 +2857,7 @@
       <c r="A109">
         <v>2627</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="11" t="s">
         <v>110</v>
       </c>
       <c r="C109">
@@ -2864,7 +2868,7 @@
       <c r="A110">
         <v>2631</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C110">
@@ -2875,7 +2879,7 @@
       <c r="A111">
         <v>-1</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="11" t="s">
         <v>112</v>
       </c>
       <c r="C111">
@@ -2886,7 +2890,7 @@
       <c r="A112">
         <v>3001</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="11" t="s">
         <v>113</v>
       </c>
       <c r="C112">
@@ -2897,7 +2901,7 @@
       <c r="A113">
         <v>3003</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="11" t="s">
         <v>114</v>
       </c>
       <c r="C113">
@@ -2908,7 +2912,7 @@
       <c r="A114">
         <v>3011</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="11" t="s">
         <v>115</v>
       </c>
       <c r="C114">
@@ -2919,7 +2923,7 @@
       <c r="A115">
         <v>3012</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="11" t="s">
         <v>116</v>
       </c>
       <c r="C115">
@@ -2930,7 +2934,7 @@
       <c r="A116">
         <v>3111</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="11" t="s">
         <v>117</v>
       </c>
       <c r="C116">
@@ -2941,7 +2945,7 @@
       <c r="A117">
         <v>3112</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="11" t="s">
         <v>118</v>
       </c>
       <c r="C117">
@@ -2952,7 +2956,7 @@
       <c r="A118">
         <v>3113</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="11" t="s">
         <v>119</v>
       </c>
       <c r="C118">
@@ -2963,7 +2967,7 @@
       <c r="A119">
         <v>3114</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="11" t="s">
         <v>120</v>
       </c>
       <c r="C119">
@@ -2974,7 +2978,7 @@
       <c r="A120">
         <v>3115</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="11" t="s">
         <v>121</v>
       </c>
       <c r="C120">
@@ -2985,7 +2989,7 @@
       <c r="A121">
         <v>3116</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="11" t="s">
         <v>122</v>
       </c>
       <c r="C121">
@@ -2996,7 +3000,7 @@
       <c r="A122">
         <v>3117</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="11" t="s">
         <v>123</v>
       </c>
       <c r="C122">
@@ -3007,7 +3011,7 @@
       <c r="A123">
         <v>3121</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="11" t="s">
         <v>124</v>
       </c>
       <c r="C123">
@@ -3018,7 +3022,7 @@
       <c r="A124">
         <v>3122</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="11" t="s">
         <v>125</v>
       </c>
       <c r="C124">
@@ -3029,7 +3033,7 @@
       <c r="A125">
         <v>3123</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="11" t="s">
         <v>126</v>
       </c>
       <c r="C125">
@@ -3040,7 +3044,7 @@
       <c r="A126">
         <v>3131</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="11" t="s">
         <v>127</v>
       </c>
       <c r="C126">
@@ -3051,7 +3055,7 @@
       <c r="A127">
         <v>3132</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="11" t="s">
         <v>128</v>
       </c>
       <c r="C127">
@@ -3062,7 +3066,7 @@
       <c r="A128">
         <v>3134</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="11" t="s">
         <v>129</v>
       </c>
       <c r="C128">
@@ -3073,7 +3077,7 @@
       <c r="A129">
         <v>3135</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="11" t="s">
         <v>130</v>
       </c>
       <c r="C129">
@@ -3084,7 +3088,7 @@
       <c r="A130">
         <v>3136</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="11" t="s">
         <v>131</v>
       </c>
       <c r="C130">
@@ -3095,7 +3099,7 @@
       <c r="A131">
         <v>3141</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="11" t="s">
         <v>132</v>
       </c>
       <c r="C131">
@@ -3106,7 +3110,7 @@
       <c r="A132">
         <v>3142</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="11" t="s">
         <v>133</v>
       </c>
       <c r="C132">
@@ -3117,7 +3121,7 @@
       <c r="A133">
         <v>3143</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="11" t="s">
         <v>134</v>
       </c>
       <c r="C133">
@@ -3128,7 +3132,7 @@
       <c r="A134">
         <v>3144</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="11" t="s">
         <v>135</v>
       </c>
       <c r="C134">
@@ -3139,7 +3143,7 @@
       <c r="A135">
         <v>3146</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="11" t="s">
         <v>136</v>
       </c>
       <c r="C135">
@@ -3150,7 +3154,7 @@
       <c r="A136">
         <v>3147</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="11" t="s">
         <v>137</v>
       </c>
       <c r="C136">
@@ -3161,7 +3165,7 @@
       <c r="A137">
         <v>3161</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="11" t="s">
         <v>138</v>
       </c>
       <c r="C137">
@@ -3172,7 +3176,7 @@
       <c r="A138">
         <v>3162</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="11" t="s">
         <v>139</v>
       </c>
       <c r="C138">
@@ -3183,7 +3187,7 @@
       <c r="A139">
         <v>3163</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="11" t="s">
         <v>140</v>
       </c>
       <c r="C139">
@@ -3194,7 +3198,7 @@
       <c r="A140">
         <v>3171</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="11" t="s">
         <v>141</v>
       </c>
       <c r="C140">
@@ -3205,7 +3209,7 @@
       <c r="A141">
         <v>3172</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="11" t="s">
         <v>142</v>
       </c>
       <c r="C141">
@@ -3216,7 +3220,7 @@
       <c r="A142">
         <v>3189</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="11" t="s">
         <v>143</v>
       </c>
       <c r="C142">
@@ -3227,7 +3231,7 @@
       <c r="A143">
         <v>3191</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="11" t="s">
         <v>144</v>
       </c>
       <c r="C143">
@@ -3238,7 +3242,7 @@
       <c r="A144">
         <v>3192</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="11" t="s">
         <v>145</v>
       </c>
       <c r="C144">
@@ -3249,7 +3253,7 @@
       <c r="A145">
         <v>3201</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="11" t="s">
         <v>146</v>
       </c>
       <c r="C145">
@@ -3260,7 +3264,7 @@
       <c r="A146">
         <v>3210</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="11" t="s">
         <v>147</v>
       </c>
       <c r="C146">
@@ -3271,7 +3275,7 @@
       <c r="A147">
         <v>3211</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="11" t="s">
         <v>148</v>
       </c>
       <c r="C147">
@@ -3282,7 +3286,7 @@
       <c r="A148">
         <v>3212</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="11" t="s">
         <v>149</v>
       </c>
       <c r="C148">
@@ -3293,7 +3297,7 @@
       <c r="A149">
         <v>3213</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="11" t="s">
         <v>150</v>
       </c>
       <c r="C149">
@@ -3304,7 +3308,7 @@
       <c r="A150">
         <v>3214</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="11" t="s">
         <v>151</v>
       </c>
       <c r="C150">
@@ -3315,7 +3319,7 @@
       <c r="A151">
         <v>3221</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="11" t="s">
         <v>152</v>
       </c>
       <c r="C151">
@@ -3326,7 +3330,7 @@
       <c r="A152">
         <v>3222</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="11" t="s">
         <v>153</v>
       </c>
       <c r="C152">
@@ -3337,7 +3341,7 @@
       <c r="A153">
         <v>3223</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153" s="11" t="s">
         <v>154</v>
       </c>
       <c r="C153">
@@ -3348,7 +3352,7 @@
       <c r="A154">
         <v>3224</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="11" t="s">
         <v>155</v>
       </c>
       <c r="C154">
@@ -3359,7 +3363,7 @@
       <c r="A155">
         <v>3225</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="11" t="s">
         <v>156</v>
       </c>
       <c r="C155">
@@ -3370,7 +3374,7 @@
       <c r="A156">
         <v>3231</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C156">
@@ -3381,7 +3385,7 @@
       <c r="A157">
         <v>3232</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="11" t="s">
         <v>158</v>
       </c>
       <c r="C157">
@@ -3392,7 +3396,7 @@
       <c r="A158">
         <v>3241</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="11" t="s">
         <v>159</v>
       </c>
       <c r="C158">
@@ -3403,7 +3407,7 @@
       <c r="A159">
         <v>3242</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="11" t="s">
         <v>160</v>
       </c>
       <c r="C159">
@@ -3414,7 +3418,7 @@
       <c r="A160">
         <v>3250</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C160">
@@ -3425,7 +3429,7 @@
       <c r="A161">
         <v>3251</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C161">
@@ -3436,7 +3440,7 @@
       <c r="A162">
         <v>3252</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="11" t="s">
         <v>163</v>
       </c>
       <c r="C162">
@@ -3447,7 +3451,7 @@
       <c r="A163">
         <v>3253</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="11" t="s">
         <v>164</v>
       </c>
       <c r="C163">
@@ -3458,7 +3462,7 @@
       <c r="A164">
         <v>3281</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="11" t="s">
         <v>165</v>
       </c>
       <c r="C164">
@@ -3469,7 +3473,7 @@
       <c r="A165">
         <v>3311</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C165">
@@ -3480,7 +3484,7 @@
       <c r="A166">
         <v>3312</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="11" t="s">
         <v>167</v>
       </c>
       <c r="C166">
@@ -3491,7 +3495,7 @@
       <c r="A167">
         <v>3313</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="11" t="s">
         <v>168</v>
       </c>
       <c r="C167">
@@ -3502,7 +3506,7 @@
       <c r="A168">
         <v>3321</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C168">
@@ -3513,7 +3517,7 @@
       <c r="A169">
         <v>3322</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="11" t="s">
         <v>170</v>
       </c>
       <c r="C169">
@@ -3524,7 +3528,7 @@
       <c r="A170">
         <v>3331</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="11" t="s">
         <v>171</v>
       </c>
       <c r="C170">
@@ -3535,7 +3539,7 @@
       <c r="A171">
         <v>3341</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="11" t="s">
         <v>172</v>
       </c>
       <c r="C171">
@@ -3546,7 +3550,7 @@
       <c r="A172">
         <v>3411</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="11" t="s">
         <v>173</v>
       </c>
       <c r="C172">
@@ -3557,7 +3561,7 @@
       <c r="A173">
         <v>3412</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C173">
@@ -3568,7 +3572,7 @@
       <c r="A174">
         <v>3413</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="11" t="s">
         <v>175</v>
       </c>
       <c r="C174">
@@ -3579,7 +3583,7 @@
       <c r="A175">
         <v>3421</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="11" t="s">
         <v>176</v>
       </c>
       <c r="C175">
@@ -3590,7 +3594,7 @@
       <c r="A176">
         <v>3422</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="11" t="s">
         <v>177</v>
       </c>
       <c r="C176">
@@ -3601,7 +3605,7 @@
       <c r="A177">
         <v>3423</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="11" t="s">
         <v>178</v>
       </c>
       <c r="C177">
@@ -3612,7 +3616,7 @@
       <c r="A178">
         <v>3424</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="11" t="s">
         <v>179</v>
       </c>
       <c r="C178">
@@ -3623,7 +3627,7 @@
       <c r="A179">
         <v>3425</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B179" s="11" t="s">
         <v>180</v>
       </c>
       <c r="C179">
@@ -3634,7 +3638,7 @@
       <c r="A180">
         <v>3426</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B180" s="11" t="s">
         <v>181</v>
       </c>
       <c r="C180">
@@ -3645,7 +3649,7 @@
       <c r="A181">
         <v>3511</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B181" s="11" t="s">
         <v>182</v>
       </c>
       <c r="C181">
@@ -3656,7 +3660,7 @@
       <c r="A182">
         <v>3512</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B182" s="11" t="s">
         <v>183</v>
       </c>
       <c r="C182">
@@ -3667,7 +3671,7 @@
       <c r="A183">
         <v>3513</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B183" s="11" t="s">
         <v>184</v>
       </c>
       <c r="C183">
@@ -3678,7 +3682,7 @@
       <c r="A184">
         <v>3514</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="11" t="s">
         <v>185</v>
       </c>
       <c r="C184">
@@ -3689,7 +3693,7 @@
       <c r="A185">
         <v>3515</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="B185" s="11" t="s">
         <v>186</v>
       </c>
       <c r="C185">
@@ -3700,7 +3704,7 @@
       <c r="A186">
         <v>3516</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="11" t="s">
         <v>187</v>
       </c>
       <c r="C186">
@@ -3711,7 +3715,7 @@
       <c r="A187">
         <v>3517</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="11" t="s">
         <v>188</v>
       </c>
       <c r="C187">
@@ -3722,7 +3726,7 @@
       <c r="A188">
         <v>3518</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="11" t="s">
         <v>189</v>
       </c>
       <c r="C188">
@@ -3733,7 +3737,7 @@
       <c r="A189">
         <v>3522</v>
       </c>
-      <c r="B189" s="9" t="s">
+      <c r="B189" s="11" t="s">
         <v>190</v>
       </c>
       <c r="C189">
@@ -3744,7 +3748,7 @@
       <c r="A190">
         <v>3523</v>
       </c>
-      <c r="B190" s="9" t="s">
+      <c r="B190" s="11" t="s">
         <v>191</v>
       </c>
       <c r="C190">
@@ -3755,7 +3759,7 @@
       <c r="A191">
         <v>3524</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="B191" s="11" t="s">
         <v>192</v>
       </c>
       <c r="C191">
@@ -3766,7 +3770,7 @@
       <c r="A192">
         <v>3525</v>
       </c>
-      <c r="B192" s="9" t="s">
+      <c r="B192" s="11" t="s">
         <v>193</v>
       </c>
       <c r="C192">
@@ -3777,7 +3781,7 @@
       <c r="A193">
         <v>3531</v>
       </c>
-      <c r="B193" s="9" t="s">
+      <c r="B193" s="11" t="s">
         <v>194</v>
       </c>
       <c r="C193">
@@ -3788,7 +3792,7 @@
       <c r="A194">
         <v>3532</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="B194" s="11" t="s">
         <v>195</v>
       </c>
       <c r="C194">
@@ -3799,7 +3803,7 @@
       <c r="A195">
         <v>3541</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="11" t="s">
         <v>196</v>
       </c>
       <c r="C195">
@@ -3810,7 +3814,7 @@
       <c r="A196">
         <v>3542</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="B196" s="11" t="s">
         <v>197</v>
       </c>
       <c r="C196">
@@ -3821,7 +3825,7 @@
       <c r="A197">
         <v>3543</v>
       </c>
-      <c r="B197" s="9" t="s">
+      <c r="B197" s="11" t="s">
         <v>198</v>
       </c>
       <c r="C197">
@@ -3832,7 +3836,7 @@
       <c r="A198">
         <v>3544</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="11" t="s">
         <v>199</v>
       </c>
       <c r="C198">
@@ -3843,7 +3847,7 @@
       <c r="A199">
         <v>3545</v>
       </c>
-      <c r="B199" s="9" t="s">
+      <c r="B199" s="11" t="s">
         <v>200</v>
       </c>
       <c r="C199">
@@ -3854,7 +3858,7 @@
       <c r="A200">
         <v>3546</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="B200" s="11" t="s">
         <v>201</v>
       </c>
       <c r="C200">
@@ -3865,7 +3869,7 @@
       <c r="A201">
         <v>3547</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B201" s="11" t="s">
         <v>202</v>
       </c>
       <c r="C201">
@@ -3876,7 +3880,7 @@
       <c r="A202">
         <v>3548</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B202" s="11" t="s">
         <v>203</v>
       </c>
       <c r="C202">
@@ -3887,7 +3891,7 @@
       <c r="A203">
         <v>3711</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="B203" s="11" t="s">
         <v>204</v>
       </c>
       <c r="C203">
@@ -3898,7 +3902,7 @@
       <c r="A204">
         <v>3712</v>
       </c>
-      <c r="B204" s="9" t="s">
+      <c r="B204" s="11" t="s">
         <v>205</v>
       </c>
       <c r="C204">
@@ -3909,7 +3913,7 @@
       <c r="A205">
         <v>3713</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="B205" s="11" t="s">
         <v>206</v>
       </c>
       <c r="C205">
@@ -3920,7 +3924,7 @@
       <c r="A206">
         <v>3721</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B206" s="11" t="s">
         <v>207</v>
       </c>
       <c r="C206">
@@ -3931,7 +3935,7 @@
       <c r="A207">
         <v>3722</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B207" s="11" t="s">
         <v>208</v>
       </c>
       <c r="C207">
@@ -3942,7 +3946,7 @@
       <c r="A208">
         <v>3723</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B208" s="11" t="s">
         <v>209</v>
       </c>
       <c r="C208">
@@ -3953,7 +3957,7 @@
       <c r="A209">
         <v>3731</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="B209" s="11" t="s">
         <v>210</v>
       </c>
       <c r="C209">
@@ -3964,7 +3968,7 @@
       <c r="A210">
         <v>3732</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="B210" s="11" t="s">
         <v>211</v>
       </c>
       <c r="C210">
@@ -3975,7 +3979,7 @@
       <c r="A211">
         <v>3741</v>
       </c>
-      <c r="B211" s="9" t="s">
+      <c r="B211" s="11" t="s">
         <v>212</v>
       </c>
       <c r="C211">
@@ -3986,7 +3990,7 @@
       <c r="A212">
         <v>3742</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="B212" s="11" t="s">
         <v>213</v>
       </c>
       <c r="C212">
@@ -3997,7 +4001,7 @@
       <c r="A213">
         <v>3743</v>
       </c>
-      <c r="B213" s="9" t="s">
+      <c r="B213" s="11" t="s">
         <v>214</v>
       </c>
       <c r="C213">
@@ -4008,7 +4012,7 @@
       <c r="A214">
         <v>3751</v>
       </c>
-      <c r="B214" s="9" t="s">
+      <c r="B214" s="11" t="s">
         <v>215</v>
       </c>
       <c r="C214">
@@ -4019,7 +4023,7 @@
       <c r="A215">
         <v>3761</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="B215" s="11" t="s">
         <v>216</v>
       </c>
       <c r="C215">
@@ -4030,7 +4034,7 @@
       <c r="A216">
         <v>3762</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="B216" s="11" t="s">
         <v>217</v>
       </c>
       <c r="C216">
@@ -4041,7 +4045,7 @@
       <c r="A217">
         <v>3763</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="11" t="s">
         <v>218</v>
       </c>
       <c r="C217">
@@ -4052,7 +4056,7 @@
       <c r="A218">
         <v>3764</v>
       </c>
-      <c r="B218" s="9" t="s">
+      <c r="B218" s="11" t="s">
         <v>219</v>
       </c>
       <c r="C218">
@@ -4063,7 +4067,7 @@
       <c r="A219">
         <v>3765</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="B219" s="11" t="s">
         <v>220</v>
       </c>
       <c r="C219">
@@ -4074,7 +4078,7 @@
       <c r="A220">
         <v>3771</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B220" s="11" t="s">
         <v>221</v>
       </c>
       <c r="C220">
@@ -4085,7 +4089,7 @@
       <c r="A221">
         <v>3772</v>
       </c>
-      <c r="B221" s="9" t="s">
+      <c r="B221" s="11" t="s">
         <v>222</v>
       </c>
       <c r="C221">
@@ -4096,7 +4100,7 @@
       <c r="A222">
         <v>3773</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B222" s="11" t="s">
         <v>223</v>
       </c>
       <c r="C222">
@@ -4107,7 +4111,7 @@
       <c r="A223">
         <v>3911</v>
       </c>
-      <c r="B223" s="9" t="s">
+      <c r="B223" s="11" t="s">
         <v>224</v>
       </c>
       <c r="C223">
@@ -4118,7 +4122,7 @@
       <c r="A224">
         <v>3912</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B224" s="11" t="s">
         <v>225</v>
       </c>
       <c r="C224">
@@ -4129,7 +4133,7 @@
       <c r="A225">
         <v>-1</v>
       </c>
-      <c r="B225" s="9" t="s">
+      <c r="B225" s="11" t="s">
         <v>226</v>
       </c>
       <c r="C225">
@@ -4140,7 +4144,7 @@
       <c r="A226">
         <v>4101</v>
       </c>
-      <c r="B226" s="9" t="s">
+      <c r="B226" s="11" t="s">
         <v>227</v>
       </c>
       <c r="C226">
@@ -4151,7 +4155,7 @@
       <c r="A227">
         <v>4102</v>
       </c>
-      <c r="B227" s="9" t="s">
+      <c r="B227" s="11" t="s">
         <v>228</v>
       </c>
       <c r="C227">
@@ -4162,7 +4166,7 @@
       <c r="A228">
         <v>4110</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B228" s="11" t="s">
         <v>229</v>
       </c>
       <c r="C228">
@@ -4173,7 +4177,7 @@
       <c r="A229">
         <v>4121</v>
       </c>
-      <c r="B229" s="9" t="s">
+      <c r="B229" s="11" t="s">
         <v>230</v>
       </c>
       <c r="C229">
@@ -4184,7 +4188,7 @@
       <c r="A230">
         <v>4122</v>
       </c>
-      <c r="B230" s="9" t="s">
+      <c r="B230" s="11" t="s">
         <v>231</v>
       </c>
       <c r="C230">
@@ -4195,7 +4199,7 @@
       <c r="A231">
         <v>4123</v>
       </c>
-      <c r="B231" s="9" t="s">
+      <c r="B231" s="11" t="s">
         <v>232</v>
       </c>
       <c r="C231">
@@ -4206,7 +4210,7 @@
       <c r="A232">
         <v>4131</v>
       </c>
-      <c r="B232" s="9" t="s">
+      <c r="B232" s="11" t="s">
         <v>233</v>
       </c>
       <c r="C232">
@@ -4217,7 +4221,7 @@
       <c r="A233">
         <v>4132</v>
       </c>
-      <c r="B233" s="9" t="s">
+      <c r="B233" s="11" t="s">
         <v>234</v>
       </c>
       <c r="C233">
@@ -4228,7 +4232,7 @@
       <c r="A234">
         <v>4141</v>
       </c>
-      <c r="B234" s="9" t="s">
+      <c r="B234" s="11" t="s">
         <v>235</v>
       </c>
       <c r="C234">
@@ -4239,7 +4243,7 @@
       <c r="A235">
         <v>4142</v>
       </c>
-      <c r="B235" s="9" t="s">
+      <c r="B235" s="11" t="s">
         <v>236</v>
       </c>
       <c r="C235">
@@ -4250,7 +4254,7 @@
       <c r="A236">
         <v>4151</v>
       </c>
-      <c r="B236" s="9" t="s">
+      <c r="B236" s="11" t="s">
         <v>237</v>
       </c>
       <c r="C236">
@@ -4261,7 +4265,7 @@
       <c r="A237">
         <v>4152</v>
       </c>
-      <c r="B237" s="9" t="s">
+      <c r="B237" s="11" t="s">
         <v>238</v>
       </c>
       <c r="C237">
@@ -4272,7 +4276,7 @@
       <c r="A238">
         <v>4201</v>
       </c>
-      <c r="B238" s="9" t="s">
+      <c r="B238" s="11" t="s">
         <v>239</v>
       </c>
       <c r="C238">
@@ -4283,7 +4287,7 @@
       <c r="A239">
         <v>4211</v>
       </c>
-      <c r="B239" s="9" t="s">
+      <c r="B239" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C239">
@@ -4294,7 +4298,7 @@
       <c r="A240">
         <v>4212</v>
       </c>
-      <c r="B240" s="9" t="s">
+      <c r="B240" s="11" t="s">
         <v>241</v>
       </c>
       <c r="C240">
@@ -4305,7 +4309,7 @@
       <c r="A241">
         <v>4213</v>
       </c>
-      <c r="B241" s="9" t="s">
+      <c r="B241" s="11" t="s">
         <v>242</v>
       </c>
       <c r="C241">
@@ -4316,7 +4320,7 @@
       <c r="A242">
         <v>4214</v>
       </c>
-      <c r="B242" s="9" t="s">
+      <c r="B242" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C242">
@@ -4327,7 +4331,7 @@
       <c r="A243">
         <v>4221</v>
       </c>
-      <c r="B243" s="9" t="s">
+      <c r="B243" s="11" t="s">
         <v>244</v>
       </c>
       <c r="C243">
@@ -4338,7 +4342,7 @@
       <c r="A244">
         <v>4222</v>
       </c>
-      <c r="B244" s="9" t="s">
+      <c r="B244" s="11" t="s">
         <v>245</v>
       </c>
       <c r="C244">
@@ -4349,7 +4353,7 @@
       <c r="A245">
         <v>4223</v>
       </c>
-      <c r="B245" s="9" t="s">
+      <c r="B245" s="11" t="s">
         <v>246</v>
       </c>
       <c r="C245">
@@ -4360,7 +4364,7 @@
       <c r="A246">
         <v>4231</v>
       </c>
-      <c r="B246" s="9" t="s">
+      <c r="B246" s="11" t="s">
         <v>247</v>
       </c>
       <c r="C246">
@@ -4371,7 +4375,7 @@
       <c r="A247">
         <v>4241</v>
       </c>
-      <c r="B247" s="9" t="s">
+      <c r="B247" s="11" t="s">
         <v>248</v>
       </c>
       <c r="C247">
@@ -4382,7 +4386,7 @@
       <c r="A248">
         <v>-1</v>
       </c>
-      <c r="B248" s="9" t="s">
+      <c r="B248" s="11" t="s">
         <v>249</v>
       </c>
       <c r="C248">
@@ -4393,7 +4397,7 @@
       <c r="A249">
         <v>5101</v>
       </c>
-      <c r="B249" s="9" t="s">
+      <c r="B249" s="11" t="s">
         <v>250</v>
       </c>
       <c r="C249">
@@ -4404,7 +4408,7 @@
       <c r="A250">
         <v>5102</v>
       </c>
-      <c r="B250" s="9" t="s">
+      <c r="B250" s="11" t="s">
         <v>251</v>
       </c>
       <c r="C250">
@@ -4415,7 +4419,7 @@
       <c r="A251">
         <v>5103</v>
       </c>
-      <c r="B251" s="9" t="s">
+      <c r="B251" s="11" t="s">
         <v>252</v>
       </c>
       <c r="C251">
@@ -4426,7 +4430,7 @@
       <c r="A252">
         <v>5111</v>
       </c>
-      <c r="B252" s="9" t="s">
+      <c r="B252" s="11" t="s">
         <v>253</v>
       </c>
       <c r="C252">
@@ -4437,7 +4441,7 @@
       <c r="A253">
         <v>5112</v>
       </c>
-      <c r="B253" s="9" t="s">
+      <c r="B253" s="11" t="s">
         <v>254</v>
       </c>
       <c r="C253">
@@ -4448,7 +4452,7 @@
       <c r="A254">
         <v>5114</v>
       </c>
-      <c r="B254" s="9" t="s">
+      <c r="B254" s="11" t="s">
         <v>255</v>
       </c>
       <c r="C254">
@@ -4459,7 +4463,7 @@
       <c r="A255">
         <v>5121</v>
       </c>
-      <c r="B255" s="9" t="s">
+      <c r="B255" s="11" t="s">
         <v>256</v>
       </c>
       <c r="C255">
@@ -4470,7 +4474,7 @@
       <c r="A256">
         <v>5131</v>
       </c>
-      <c r="B256" s="9" t="s">
+      <c r="B256" s="11" t="s">
         <v>257</v>
       </c>
       <c r="C256">
@@ -4481,7 +4485,7 @@
       <c r="A257">
         <v>5132</v>
       </c>
-      <c r="B257" s="9" t="s">
+      <c r="B257" s="11" t="s">
         <v>258</v>
       </c>
       <c r="C257">
@@ -4492,7 +4496,7 @@
       <c r="A258">
         <v>5133</v>
       </c>
-      <c r="B258" s="9" t="s">
+      <c r="B258" s="11" t="s">
         <v>259</v>
       </c>
       <c r="C258">
@@ -4503,7 +4507,7 @@
       <c r="A259">
         <v>5134</v>
       </c>
-      <c r="B259" s="9" t="s">
+      <c r="B259" s="11" t="s">
         <v>260</v>
       </c>
       <c r="C259">
@@ -4514,7 +4518,7 @@
       <c r="A260">
         <v>5141</v>
       </c>
-      <c r="B260" s="9" t="s">
+      <c r="B260" s="11" t="s">
         <v>261</v>
       </c>
       <c r="C260">
@@ -4525,7 +4529,7 @@
       <c r="A261">
         <v>5142</v>
       </c>
-      <c r="B261" s="9" t="s">
+      <c r="B261" s="11" t="s">
         <v>262</v>
       </c>
       <c r="C261">
@@ -4536,7 +4540,7 @@
       <c r="A262">
         <v>5151</v>
       </c>
-      <c r="B262" s="9" t="s">
+      <c r="B262" s="11" t="s">
         <v>263</v>
       </c>
       <c r="C262">
@@ -4547,7 +4551,7 @@
       <c r="A263">
         <v>5152</v>
       </c>
-      <c r="B263" s="9" t="s">
+      <c r="B263" s="11" t="s">
         <v>264</v>
       </c>
       <c r="C263">
@@ -4558,7 +4562,7 @@
       <c r="A264">
         <v>5161</v>
       </c>
-      <c r="B264" s="9" t="s">
+      <c r="B264" s="11" t="s">
         <v>265</v>
       </c>
       <c r="C264">
@@ -4569,7 +4573,7 @@
       <c r="A265">
         <v>5162</v>
       </c>
-      <c r="B265" s="9" t="s">
+      <c r="B265" s="11" t="s">
         <v>266</v>
       </c>
       <c r="C265">
@@ -4580,7 +4584,7 @@
       <c r="A266">
         <v>5165</v>
       </c>
-      <c r="B266" s="9" t="s">
+      <c r="B266" s="11" t="s">
         <v>267</v>
       </c>
       <c r="C266">
@@ -4591,7 +4595,7 @@
       <c r="A267">
         <v>5166</v>
       </c>
-      <c r="B267" s="9" t="s">
+      <c r="B267" s="11" t="s">
         <v>268</v>
       </c>
       <c r="C267">
@@ -4602,7 +4606,7 @@
       <c r="A268">
         <v>5167</v>
       </c>
-      <c r="B268" s="9" t="s">
+      <c r="B268" s="11" t="s">
         <v>269</v>
       </c>
       <c r="C268">
@@ -4613,7 +4617,7 @@
       <c r="A269">
         <v>5169</v>
       </c>
-      <c r="B269" s="9" t="s">
+      <c r="B269" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C269">
@@ -4624,7 +4628,7 @@
       <c r="A270">
         <v>5171</v>
       </c>
-      <c r="B270" s="9" t="s">
+      <c r="B270" s="11" t="s">
         <v>271</v>
       </c>
       <c r="C270">
@@ -4635,7 +4639,7 @@
       <c r="A271">
         <v>5172</v>
       </c>
-      <c r="B271" s="9" t="s">
+      <c r="B271" s="11" t="s">
         <v>272</v>
       </c>
       <c r="C271">
@@ -4646,7 +4650,7 @@
       <c r="A272">
         <v>5173</v>
       </c>
-      <c r="B272" s="9" t="s">
+      <c r="B272" s="11" t="s">
         <v>273</v>
       </c>
       <c r="C272">
@@ -4657,7 +4661,7 @@
       <c r="A273">
         <v>5174</v>
       </c>
-      <c r="B273" s="9" t="s">
+      <c r="B273" s="11" t="s">
         <v>274</v>
       </c>
       <c r="C273">
@@ -4668,7 +4672,7 @@
       <c r="A274">
         <v>5191</v>
       </c>
-      <c r="B274" s="9" t="s">
+      <c r="B274" s="11" t="s">
         <v>275</v>
       </c>
       <c r="C274">
@@ -4679,7 +4683,7 @@
       <c r="A275">
         <v>5192</v>
       </c>
-      <c r="B275" s="9" t="s">
+      <c r="B275" s="11" t="s">
         <v>276</v>
       </c>
       <c r="C275">
@@ -4690,7 +4694,7 @@
       <c r="A276">
         <v>5198</v>
       </c>
-      <c r="B276" s="9" t="s">
+      <c r="B276" s="11" t="s">
         <v>277</v>
       </c>
       <c r="C276">
@@ -4701,7 +4705,7 @@
       <c r="A277">
         <v>5199</v>
       </c>
-      <c r="B277" s="9" t="s">
+      <c r="B277" s="11" t="s">
         <v>278</v>
       </c>
       <c r="C277">
@@ -4712,7 +4716,7 @@
       <c r="A278">
         <v>5201</v>
       </c>
-      <c r="B278" s="9" t="s">
+      <c r="B278" s="11" t="s">
         <v>279</v>
       </c>
       <c r="C278">
@@ -4723,7 +4727,7 @@
       <c r="A279">
         <v>5211</v>
       </c>
-      <c r="B279" s="9" t="s">
+      <c r="B279" s="11" t="s">
         <v>280</v>
       </c>
       <c r="C279">
@@ -4734,7 +4738,7 @@
       <c r="A280">
         <v>5221</v>
       </c>
-      <c r="B280" s="9" t="s">
+      <c r="B280" s="11" t="s">
         <v>281</v>
       </c>
       <c r="C280">
@@ -4745,7 +4749,7 @@
       <c r="A281">
         <v>5231</v>
       </c>
-      <c r="B281" s="9" t="s">
+      <c r="B281" s="11" t="s">
         <v>282</v>
       </c>
       <c r="C281">
@@ -4756,7 +4760,7 @@
       <c r="A282">
         <v>5241</v>
       </c>
-      <c r="B282" s="9" t="s">
+      <c r="B282" s="11" t="s">
         <v>283</v>
       </c>
       <c r="C282">
@@ -4767,7 +4771,7 @@
       <c r="A283">
         <v>5242</v>
       </c>
-      <c r="B283" s="9" t="s">
+      <c r="B283" s="11" t="s">
         <v>284</v>
       </c>
       <c r="C283">
@@ -4778,7 +4782,7 @@
       <c r="A284">
         <v>5243</v>
       </c>
-      <c r="B284" s="9" t="s">
+      <c r="B284" s="11" t="s">
         <v>285</v>
       </c>
       <c r="C284">
@@ -4789,7 +4793,7 @@
       <c r="A285">
         <v>-1</v>
       </c>
-      <c r="B285" s="9" t="s">
+      <c r="B285" s="11" t="s">
         <v>286</v>
       </c>
       <c r="C285">
@@ -4800,7 +4804,7 @@
       <c r="A286">
         <v>6110</v>
       </c>
-      <c r="B286" s="9" t="s">
+      <c r="B286" s="11" t="s">
         <v>287</v>
       </c>
       <c r="C286">
@@ -4811,7 +4815,7 @@
       <c r="A287">
         <v>6129</v>
       </c>
-      <c r="B287" s="9" t="s">
+      <c r="B287" s="11" t="s">
         <v>288</v>
       </c>
       <c r="C287">
@@ -4822,7 +4826,7 @@
       <c r="A288">
         <v>6139</v>
       </c>
-      <c r="B288" s="9" t="s">
+      <c r="B288" s="11" t="s">
         <v>289</v>
       </c>
       <c r="C288">
@@ -4833,7 +4837,7 @@
       <c r="A289">
         <v>6201</v>
       </c>
-      <c r="B289" s="9" t="s">
+      <c r="B289" s="11" t="s">
         <v>290</v>
       </c>
       <c r="C289">
@@ -4844,7 +4848,7 @@
       <c r="A290">
         <v>6210</v>
       </c>
-      <c r="B290" s="9" t="s">
+      <c r="B290" s="11" t="s">
         <v>291</v>
       </c>
       <c r="C290">
@@ -4855,7 +4859,7 @@
       <c r="A291">
         <v>6229</v>
       </c>
-      <c r="B291" s="9" t="s">
+      <c r="B291" s="11" t="s">
         <v>292</v>
       </c>
       <c r="C291">
@@ -4866,7 +4870,7 @@
       <c r="A292">
         <v>6239</v>
       </c>
-      <c r="B292" s="9" t="s">
+      <c r="B292" s="11" t="s">
         <v>293</v>
       </c>
       <c r="C292">
@@ -4877,7 +4881,7 @@
       <c r="A293">
         <v>6301</v>
       </c>
-      <c r="B293" s="9" t="s">
+      <c r="B293" s="11" t="s">
         <v>294</v>
       </c>
       <c r="C293">
@@ -4888,7 +4892,7 @@
       <c r="A294">
         <v>6319</v>
       </c>
-      <c r="B294" s="9" t="s">
+      <c r="B294" s="11" t="s">
         <v>295</v>
       </c>
       <c r="C294">
@@ -4899,7 +4903,7 @@
       <c r="A295">
         <v>6329</v>
       </c>
-      <c r="B295" s="9" t="s">
+      <c r="B295" s="11" t="s">
         <v>296</v>
       </c>
       <c r="C295">
@@ -4910,7 +4914,7 @@
       <c r="A296">
         <v>6410</v>
       </c>
-      <c r="B296" s="9" t="s">
+      <c r="B296" s="11" t="s">
         <v>297</v>
       </c>
       <c r="C296">
@@ -4921,7 +4925,7 @@
       <c r="A297">
         <v>6420</v>
       </c>
-      <c r="B297" s="9" t="s">
+      <c r="B297" s="11" t="s">
         <v>298</v>
       </c>
       <c r="C297">
@@ -4932,7 +4936,7 @@
       <c r="A298">
         <v>6430</v>
       </c>
-      <c r="B298" s="9" t="s">
+      <c r="B298" s="11" t="s">
         <v>299</v>
       </c>
       <c r="C298">
@@ -4943,7 +4947,7 @@
       <c r="A299">
         <v>-1</v>
       </c>
-      <c r="B299" s="9" t="s">
+      <c r="B299" s="11" t="s">
         <v>300</v>
       </c>
       <c r="C299">
@@ -4954,7 +4958,7 @@
       <c r="A300">
         <v>7101</v>
       </c>
-      <c r="B300" s="9" t="s">
+      <c r="B300" s="11" t="s">
         <v>301</v>
       </c>
       <c r="C300">
@@ -4965,7 +4969,7 @@
       <c r="A301">
         <v>7102</v>
       </c>
-      <c r="B301" s="9" t="s">
+      <c r="B301" s="11" t="s">
         <v>302</v>
       </c>
       <c r="C301">
@@ -4976,7 +4980,7 @@
       <c r="A302">
         <v>7111</v>
       </c>
-      <c r="B302" s="9" t="s">
+      <c r="B302" s="11" t="s">
         <v>303</v>
       </c>
       <c r="C302">
@@ -4987,7 +4991,7 @@
       <c r="A303">
         <v>7112</v>
       </c>
-      <c r="B303" s="9" t="s">
+      <c r="B303" s="11" t="s">
         <v>304</v>
       </c>
       <c r="C303">
@@ -4998,7 +5002,7 @@
       <c r="A304">
         <v>7113</v>
       </c>
-      <c r="B304" s="9" t="s">
+      <c r="B304" s="11" t="s">
         <v>305</v>
       </c>
       <c r="C304">
@@ -5009,7 +5013,7 @@
       <c r="A305">
         <v>7114</v>
       </c>
-      <c r="B305" s="9" t="s">
+      <c r="B305" s="11" t="s">
         <v>306</v>
       </c>
       <c r="C305">
@@ -5020,7 +5024,7 @@
       <c r="A306">
         <v>7121</v>
       </c>
-      <c r="B306" s="9" t="s">
+      <c r="B306" s="11" t="s">
         <v>307</v>
       </c>
       <c r="C306">
@@ -5031,7 +5035,7 @@
       <c r="A307">
         <v>7122</v>
       </c>
-      <c r="B307" s="9" t="s">
+      <c r="B307" s="11" t="s">
         <v>308</v>
       </c>
       <c r="C307">
@@ -5042,7 +5046,7 @@
       <c r="A308">
         <v>7151</v>
       </c>
-      <c r="B308" s="9" t="s">
+      <c r="B308" s="11" t="s">
         <v>309</v>
       </c>
       <c r="C308">
@@ -5053,7 +5057,7 @@
       <c r="A309">
         <v>7152</v>
       </c>
-      <c r="B309" s="9" t="s">
+      <c r="B309" s="11" t="s">
         <v>310</v>
       </c>
       <c r="C309">
@@ -5064,7 +5068,7 @@
       <c r="A310">
         <v>7153</v>
       </c>
-      <c r="B310" s="9" t="s">
+      <c r="B310" s="11" t="s">
         <v>311</v>
       </c>
       <c r="C310">
@@ -5075,7 +5079,7 @@
       <c r="A311">
         <v>7154</v>
       </c>
-      <c r="B311" s="9" t="s">
+      <c r="B311" s="11" t="s">
         <v>312</v>
       </c>
       <c r="C311">
@@ -5086,7 +5090,7 @@
       <c r="A312">
         <v>7155</v>
       </c>
-      <c r="B312" s="9" t="s">
+      <c r="B312" s="11" t="s">
         <v>313</v>
       </c>
       <c r="C312">
@@ -5097,7 +5101,7 @@
       <c r="A313">
         <v>7156</v>
       </c>
-      <c r="B313" s="9" t="s">
+      <c r="B313" s="11" t="s">
         <v>314</v>
       </c>
       <c r="C313">
@@ -5108,7 +5112,7 @@
       <c r="A314">
         <v>7157</v>
       </c>
-      <c r="B314" s="9" t="s">
+      <c r="B314" s="11" t="s">
         <v>315</v>
       </c>
       <c r="C314">
@@ -5119,7 +5123,7 @@
       <c r="A315">
         <v>7161</v>
       </c>
-      <c r="B315" s="9" t="s">
+      <c r="B315" s="11" t="s">
         <v>316</v>
       </c>
       <c r="C315">
@@ -5130,7 +5134,7 @@
       <c r="A316">
         <v>7162</v>
       </c>
-      <c r="B316" s="9" t="s">
+      <c r="B316" s="11" t="s">
         <v>317</v>
       </c>
       <c r="C316">
@@ -5141,7 +5145,7 @@
       <c r="A317">
         <v>7163</v>
       </c>
-      <c r="B317" s="9" t="s">
+      <c r="B317" s="11" t="s">
         <v>318</v>
       </c>
       <c r="C317">
@@ -5152,7 +5156,7 @@
       <c r="A318">
         <v>7164</v>
       </c>
-      <c r="B318" s="9" t="s">
+      <c r="B318" s="11" t="s">
         <v>319</v>
       </c>
       <c r="C318">
@@ -5163,7 +5167,7 @@
       <c r="A319">
         <v>7165</v>
       </c>
-      <c r="B319" s="9" t="s">
+      <c r="B319" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C319">
@@ -5174,7 +5178,7 @@
       <c r="A320">
         <v>7166</v>
       </c>
-      <c r="B320" s="9" t="s">
+      <c r="B320" s="11" t="s">
         <v>321</v>
       </c>
       <c r="C320">
@@ -5185,7 +5189,7 @@
       <c r="A321">
         <v>7170</v>
       </c>
-      <c r="B321" s="9" t="s">
+      <c r="B321" s="11" t="s">
         <v>322</v>
       </c>
       <c r="C321">
@@ -5196,7 +5200,7 @@
       <c r="A322">
         <v>7201</v>
       </c>
-      <c r="B322" s="9" t="s">
+      <c r="B322" s="11" t="s">
         <v>323</v>
       </c>
       <c r="C322">
@@ -5207,7 +5211,7 @@
       <c r="A323">
         <v>7202</v>
       </c>
-      <c r="B323" s="9" t="s">
+      <c r="B323" s="11" t="s">
         <v>324</v>
       </c>
       <c r="C323">
@@ -5218,7 +5222,7 @@
       <c r="A324">
         <v>7211</v>
       </c>
-      <c r="B324" s="9" t="s">
+      <c r="B324" s="11" t="s">
         <v>325</v>
       </c>
       <c r="C324">
@@ -5229,7 +5233,7 @@
       <c r="A325">
         <v>7212</v>
       </c>
-      <c r="B325" s="9" t="s">
+      <c r="B325" s="11" t="s">
         <v>326</v>
       </c>
       <c r="C325">
@@ -5240,7 +5244,7 @@
       <c r="A326">
         <v>7213</v>
       </c>
-      <c r="B326" s="9" t="s">
+      <c r="B326" s="11" t="s">
         <v>327</v>
       </c>
       <c r="C326">
@@ -5251,7 +5255,7 @@
       <c r="A327">
         <v>7214</v>
       </c>
-      <c r="B327" s="9" t="s">
+      <c r="B327" s="11" t="s">
         <v>328</v>
       </c>
       <c r="C327">
@@ -5262,7 +5266,7 @@
       <c r="A328">
         <v>7215</v>
       </c>
-      <c r="B328" s="9" t="s">
+      <c r="B328" s="11" t="s">
         <v>329</v>
       </c>
       <c r="C328">
@@ -5273,7 +5277,7 @@
       <c r="A329">
         <v>7221</v>
       </c>
-      <c r="B329" s="9" t="s">
+      <c r="B329" s="11" t="s">
         <v>330</v>
       </c>
       <c r="C329">
@@ -5284,7 +5288,7 @@
       <c r="A330">
         <v>7222</v>
       </c>
-      <c r="B330" s="9" t="s">
+      <c r="B330" s="11" t="s">
         <v>331</v>
       </c>
       <c r="C330">
@@ -5295,7 +5299,7 @@
       <c r="A331">
         <v>7223</v>
       </c>
-      <c r="B331" s="9" t="s">
+      <c r="B331" s="11" t="s">
         <v>332</v>
       </c>
       <c r="C331">
@@ -5306,7 +5310,7 @@
       <c r="A332">
         <v>7224</v>
       </c>
-      <c r="B332" s="9" t="s">
+      <c r="B332" s="11" t="s">
         <v>333</v>
       </c>
       <c r="C332">
@@ -5317,7 +5321,7 @@
       <c r="A333">
         <v>7231</v>
       </c>
-      <c r="B333" s="9" t="s">
+      <c r="B333" s="11" t="s">
         <v>334</v>
       </c>
       <c r="C333">
@@ -5328,7 +5332,7 @@
       <c r="A334">
         <v>7232</v>
       </c>
-      <c r="B334" s="9" t="s">
+      <c r="B334" s="11" t="s">
         <v>335</v>
       </c>
       <c r="C334">
@@ -5339,7 +5343,7 @@
       <c r="A335">
         <v>7233</v>
       </c>
-      <c r="B335" s="9" t="s">
+      <c r="B335" s="11" t="s">
         <v>336</v>
       </c>
       <c r="C335">
@@ -5350,7 +5354,7 @@
       <c r="A336">
         <v>7241</v>
       </c>
-      <c r="B336" s="9" t="s">
+      <c r="B336" s="11" t="s">
         <v>337</v>
       </c>
       <c r="C336">
@@ -5361,7 +5365,7 @@
       <c r="A337">
         <v>7242</v>
       </c>
-      <c r="B337" s="9" t="s">
+      <c r="B337" s="11" t="s">
         <v>338</v>
       </c>
       <c r="C337">
@@ -5372,7 +5376,7 @@
       <c r="A338">
         <v>7243</v>
       </c>
-      <c r="B338" s="9" t="s">
+      <c r="B338" s="11" t="s">
         <v>339</v>
       </c>
       <c r="C338">
@@ -5383,7 +5387,7 @@
       <c r="A339">
         <v>7244</v>
       </c>
-      <c r="B339" s="9" t="s">
+      <c r="B339" s="11" t="s">
         <v>340</v>
       </c>
       <c r="C339">
@@ -5394,7 +5398,7 @@
       <c r="A340">
         <v>7245</v>
       </c>
-      <c r="B340" s="9" t="s">
+      <c r="B340" s="11" t="s">
         <v>341</v>
       </c>
       <c r="C340">
@@ -5405,7 +5409,7 @@
       <c r="A341">
         <v>7246</v>
       </c>
-      <c r="B341" s="9" t="s">
+      <c r="B341" s="11" t="s">
         <v>342</v>
       </c>
       <c r="C341">
@@ -5416,7 +5420,7 @@
       <c r="A342">
         <v>7250</v>
       </c>
-      <c r="B342" s="9" t="s">
+      <c r="B342" s="11" t="s">
         <v>343</v>
       </c>
       <c r="C342">
@@ -5427,7 +5431,7 @@
       <c r="A343">
         <v>7251</v>
       </c>
-      <c r="B343" s="9" t="s">
+      <c r="B343" s="11" t="s">
         <v>344</v>
       </c>
       <c r="C343">
@@ -5438,7 +5442,7 @@
       <c r="A344">
         <v>7252</v>
       </c>
-      <c r="B344" s="9" t="s">
+      <c r="B344" s="11" t="s">
         <v>345</v>
       </c>
       <c r="C344">
@@ -5449,7 +5453,7 @@
       <c r="A345">
         <v>7253</v>
       </c>
-      <c r="B345" s="9" t="s">
+      <c r="B345" s="11" t="s">
         <v>346</v>
       </c>
       <c r="C345">
@@ -5460,7 +5464,7 @@
       <c r="A346">
         <v>7254</v>
       </c>
-      <c r="B346" s="9" t="s">
+      <c r="B346" s="11" t="s">
         <v>347</v>
       </c>
       <c r="C346">
@@ -5471,7 +5475,7 @@
       <c r="A347">
         <v>7255</v>
       </c>
-      <c r="B347" s="9" t="s">
+      <c r="B347" s="11" t="s">
         <v>348</v>
       </c>
       <c r="C347">
@@ -5482,7 +5486,7 @@
       <c r="A348">
         <v>7256</v>
       </c>
-      <c r="B348" s="9" t="s">
+      <c r="B348" s="11" t="s">
         <v>349</v>
       </c>
       <c r="C348">
@@ -5493,7 +5497,7 @@
       <c r="A349">
         <v>7257</v>
       </c>
-      <c r="B349" s="9" t="s">
+      <c r="B349" s="11" t="s">
         <v>350</v>
       </c>
       <c r="C349">
@@ -5504,7 +5508,7 @@
       <c r="A350">
         <v>7301</v>
       </c>
-      <c r="B350" s="9" t="s">
+      <c r="B350" s="11" t="s">
         <v>351</v>
       </c>
       <c r="C350">
@@ -5515,7 +5519,7 @@
       <c r="A351">
         <v>7311</v>
       </c>
-      <c r="B351" s="9" t="s">
+      <c r="B351" s="11" t="s">
         <v>352</v>
       </c>
       <c r="C351">
@@ -5526,7 +5530,7 @@
       <c r="A352">
         <v>7312</v>
       </c>
-      <c r="B352" s="9" t="s">
+      <c r="B352" s="11" t="s">
         <v>353</v>
       </c>
       <c r="C352">
@@ -5537,7 +5541,7 @@
       <c r="A353">
         <v>7313</v>
       </c>
-      <c r="B353" s="9" t="s">
+      <c r="B353" s="11" t="s">
         <v>354</v>
       </c>
       <c r="C353">
@@ -5548,7 +5552,7 @@
       <c r="A354">
         <v>7321</v>
       </c>
-      <c r="B354" s="9" t="s">
+      <c r="B354" s="11" t="s">
         <v>355</v>
       </c>
       <c r="C354">
@@ -5559,7 +5563,7 @@
       <c r="A355">
         <v>7401</v>
       </c>
-      <c r="B355" s="9" t="s">
+      <c r="B355" s="11" t="s">
         <v>356</v>
       </c>
       <c r="C355">
@@ -5570,7 +5574,7 @@
       <c r="A356">
         <v>7411</v>
       </c>
-      <c r="B356" s="9" t="s">
+      <c r="B356" s="11" t="s">
         <v>357</v>
       </c>
       <c r="C356">
@@ -5581,7 +5585,7 @@
       <c r="A357">
         <v>7421</v>
       </c>
-      <c r="B357" s="9" t="s">
+      <c r="B357" s="11" t="s">
         <v>358</v>
       </c>
       <c r="C357">
@@ -5592,7 +5596,7 @@
       <c r="A358">
         <v>7501</v>
       </c>
-      <c r="B358" s="9" t="s">
+      <c r="B358" s="11" t="s">
         <v>359</v>
       </c>
       <c r="C358">
@@ -5603,7 +5607,7 @@
       <c r="A359">
         <v>7502</v>
       </c>
-      <c r="B359" s="9" t="s">
+      <c r="B359" s="11" t="s">
         <v>360</v>
       </c>
       <c r="C359">
@@ -5614,7 +5618,7 @@
       <c r="A360">
         <v>7519</v>
       </c>
-      <c r="B360" s="9" t="s">
+      <c r="B360" s="11" t="s">
         <v>361</v>
       </c>
       <c r="C360">
@@ -5625,7 +5629,7 @@
       <c r="A361">
         <v>7521</v>
       </c>
-      <c r="B361" s="9" t="s">
+      <c r="B361" s="11" t="s">
         <v>362</v>
       </c>
       <c r="C361">
@@ -5636,7 +5640,7 @@
       <c r="A362">
         <v>7522</v>
       </c>
-      <c r="B362" s="9" t="s">
+      <c r="B362" s="11" t="s">
         <v>363</v>
       </c>
       <c r="C362">
@@ -5647,7 +5651,7 @@
       <c r="A363">
         <v>7523</v>
       </c>
-      <c r="B363" s="9" t="s">
+      <c r="B363" s="11" t="s">
         <v>364</v>
       </c>
       <c r="C363">
@@ -5658,7 +5662,7 @@
       <c r="A364">
         <v>7524</v>
       </c>
-      <c r="B364" s="9" t="s">
+      <c r="B364" s="11" t="s">
         <v>365</v>
       </c>
       <c r="C364">
@@ -5669,7 +5673,7 @@
       <c r="A365">
         <v>7601</v>
       </c>
-      <c r="B365" s="9" t="s">
+      <c r="B365" s="11" t="s">
         <v>366</v>
       </c>
       <c r="C365">
@@ -5680,7 +5684,7 @@
       <c r="A366">
         <v>7602</v>
       </c>
-      <c r="B366" s="9" t="s">
+      <c r="B366" s="11" t="s">
         <v>367</v>
       </c>
       <c r="C366">
@@ -5691,7 +5695,7 @@
       <c r="A367">
         <v>7603</v>
       </c>
-      <c r="B367" s="9" t="s">
+      <c r="B367" s="11" t="s">
         <v>368</v>
       </c>
       <c r="C367">
@@ -5702,7 +5706,7 @@
       <c r="A368">
         <v>7604</v>
       </c>
-      <c r="B368" s="9" t="s">
+      <c r="B368" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C368">
@@ -5713,7 +5717,7 @@
       <c r="A369">
         <v>7605</v>
       </c>
-      <c r="B369" s="9" t="s">
+      <c r="B369" s="11" t="s">
         <v>370</v>
       </c>
       <c r="C369">
@@ -5724,7 +5728,7 @@
       <c r="A370">
         <v>7606</v>
       </c>
-      <c r="B370" s="9" t="s">
+      <c r="B370" s="11" t="s">
         <v>371</v>
       </c>
       <c r="C370">
@@ -5735,7 +5739,7 @@
       <c r="A371">
         <v>7610</v>
       </c>
-      <c r="B371" s="9" t="s">
+      <c r="B371" s="11" t="s">
         <v>372</v>
       </c>
       <c r="C371">
@@ -5746,7 +5750,7 @@
       <c r="A372">
         <v>7611</v>
       </c>
-      <c r="B372" s="9" t="s">
+      <c r="B372" s="11" t="s">
         <v>373</v>
       </c>
       <c r="C372">
@@ -5757,7 +5761,7 @@
       <c r="A373">
         <v>7612</v>
       </c>
-      <c r="B373" s="9" t="s">
+      <c r="B373" s="11" t="s">
         <v>374</v>
       </c>
       <c r="C373">
@@ -5768,7 +5772,7 @@
       <c r="A374">
         <v>7613</v>
       </c>
-      <c r="B374" s="9" t="s">
+      <c r="B374" s="11" t="s">
         <v>375</v>
       </c>
       <c r="C374">
@@ -5779,7 +5783,7 @@
       <c r="A375">
         <v>7614</v>
       </c>
-      <c r="B375" s="9" t="s">
+      <c r="B375" s="11" t="s">
         <v>376</v>
       </c>
       <c r="C375">
@@ -5790,7 +5794,7 @@
       <c r="A376">
         <v>7618</v>
       </c>
-      <c r="B376" s="9" t="s">
+      <c r="B376" s="11" t="s">
         <v>377</v>
       </c>
       <c r="C376">
@@ -5801,7 +5805,7 @@
       <c r="A377">
         <v>7620</v>
       </c>
-      <c r="B377" s="9" t="s">
+      <c r="B377" s="11" t="s">
         <v>378</v>
       </c>
       <c r="C377">
@@ -5812,7 +5816,7 @@
       <c r="A378">
         <v>7621</v>
       </c>
-      <c r="B378" s="9" t="s">
+      <c r="B378" s="11" t="s">
         <v>379</v>
       </c>
       <c r="C378">
@@ -5823,7 +5827,7 @@
       <c r="A379">
         <v>7622</v>
       </c>
-      <c r="B379" s="9" t="s">
+      <c r="B379" s="11" t="s">
         <v>380</v>
       </c>
       <c r="C379">
@@ -5834,7 +5838,7 @@
       <c r="A380">
         <v>7623</v>
       </c>
-      <c r="B380" s="9" t="s">
+      <c r="B380" s="11" t="s">
         <v>381</v>
       </c>
       <c r="C380">
@@ -5845,7 +5849,7 @@
       <c r="A381">
         <v>7630</v>
       </c>
-      <c r="B381" s="9" t="s">
+      <c r="B381" s="11" t="s">
         <v>382</v>
       </c>
       <c r="C381">
@@ -5856,7 +5860,7 @@
       <c r="A382">
         <v>7631</v>
       </c>
-      <c r="B382" s="9" t="s">
+      <c r="B382" s="11" t="s">
         <v>383</v>
       </c>
       <c r="C382">
@@ -5867,7 +5871,7 @@
       <c r="A383">
         <v>7632</v>
       </c>
-      <c r="B383" s="9" t="s">
+      <c r="B383" s="11" t="s">
         <v>384</v>
       </c>
       <c r="C383">
@@ -5878,7 +5882,7 @@
       <c r="A384">
         <v>7633</v>
       </c>
-      <c r="B384" s="9" t="s">
+      <c r="B384" s="11" t="s">
         <v>385</v>
       </c>
       <c r="C384">
@@ -5889,7 +5893,7 @@
       <c r="A385">
         <v>7640</v>
       </c>
-      <c r="B385" s="9" t="s">
+      <c r="B385" s="11" t="s">
         <v>386</v>
       </c>
       <c r="C385">
@@ -5900,7 +5904,7 @@
       <c r="A386">
         <v>7641</v>
       </c>
-      <c r="B386" s="9" t="s">
+      <c r="B386" s="11" t="s">
         <v>387</v>
       </c>
       <c r="C386">
@@ -5911,7 +5915,7 @@
       <c r="A387">
         <v>7642</v>
       </c>
-      <c r="B387" s="9" t="s">
+      <c r="B387" s="11" t="s">
         <v>388</v>
       </c>
       <c r="C387">
@@ -5922,7 +5926,7 @@
       <c r="A388">
         <v>7643</v>
       </c>
-      <c r="B388" s="9" t="s">
+      <c r="B388" s="11" t="s">
         <v>389</v>
       </c>
       <c r="C388">
@@ -5933,7 +5937,7 @@
       <c r="A389">
         <v>7650</v>
       </c>
-      <c r="B389" s="9" t="s">
+      <c r="B389" s="11" t="s">
         <v>390</v>
       </c>
       <c r="C389">
@@ -5944,7 +5948,7 @@
       <c r="A390">
         <v>7651</v>
       </c>
-      <c r="B390" s="9" t="s">
+      <c r="B390" s="11" t="s">
         <v>391</v>
       </c>
       <c r="C390">
@@ -5955,7 +5959,7 @@
       <c r="A391">
         <v>7652</v>
       </c>
-      <c r="B391" s="9" t="s">
+      <c r="B391" s="11" t="s">
         <v>392</v>
       </c>
       <c r="C391">
@@ -5966,7 +5970,7 @@
       <c r="A392">
         <v>7653</v>
       </c>
-      <c r="B392" s="9" t="s">
+      <c r="B392" s="11" t="s">
         <v>393</v>
       </c>
       <c r="C392">
@@ -5977,7 +5981,7 @@
       <c r="A393">
         <v>7654</v>
       </c>
-      <c r="B393" s="9" t="s">
+      <c r="B393" s="11" t="s">
         <v>394</v>
       </c>
       <c r="C393">
@@ -5988,7 +5992,7 @@
       <c r="A394">
         <v>7660</v>
       </c>
-      <c r="B394" s="9" t="s">
+      <c r="B394" s="11" t="s">
         <v>395</v>
       </c>
       <c r="C394">
@@ -5999,7 +6003,7 @@
       <c r="A395">
         <v>7661</v>
       </c>
-      <c r="B395" s="9" t="s">
+      <c r="B395" s="11" t="s">
         <v>396</v>
       </c>
       <c r="C395">
@@ -6010,7 +6014,7 @@
       <c r="A396">
         <v>7662</v>
       </c>
-      <c r="B396" s="9" t="s">
+      <c r="B396" s="11" t="s">
         <v>397</v>
       </c>
       <c r="C396">
@@ -6021,7 +6025,7 @@
       <c r="A397">
         <v>7663</v>
       </c>
-      <c r="B397" s="9" t="s">
+      <c r="B397" s="11" t="s">
         <v>398</v>
       </c>
       <c r="C397">
@@ -6032,7 +6036,7 @@
       <c r="A398">
         <v>7664</v>
       </c>
-      <c r="B398" s="9" t="s">
+      <c r="B398" s="11" t="s">
         <v>399</v>
       </c>
       <c r="C398">
@@ -6043,7 +6047,7 @@
       <c r="A399">
         <v>7681</v>
       </c>
-      <c r="B399" s="9" t="s">
+      <c r="B399" s="11" t="s">
         <v>400</v>
       </c>
       <c r="C399">
@@ -6054,7 +6058,7 @@
       <c r="A400">
         <v>7682</v>
       </c>
-      <c r="B400" s="9" t="s">
+      <c r="B400" s="11" t="s">
         <v>401</v>
       </c>
       <c r="C400">
@@ -6065,7 +6069,7 @@
       <c r="A401">
         <v>7683</v>
       </c>
-      <c r="B401" s="9" t="s">
+      <c r="B401" s="11" t="s">
         <v>402</v>
       </c>
       <c r="C401">
@@ -6076,7 +6080,7 @@
       <c r="A402">
         <v>7686</v>
       </c>
-      <c r="B402" s="9" t="s">
+      <c r="B402" s="11" t="s">
         <v>403</v>
       </c>
       <c r="C402">
@@ -6087,7 +6091,7 @@
       <c r="A403">
         <v>7687</v>
       </c>
-      <c r="B403" s="9" t="s">
+      <c r="B403" s="11" t="s">
         <v>404</v>
       </c>
       <c r="C403">
@@ -6098,7 +6102,7 @@
       <c r="A404">
         <v>7701</v>
       </c>
-      <c r="B404" s="9" t="s">
+      <c r="B404" s="11" t="s">
         <v>405</v>
       </c>
       <c r="C404">
@@ -6109,7 +6113,7 @@
       <c r="A405">
         <v>7711</v>
       </c>
-      <c r="B405" s="9" t="s">
+      <c r="B405" s="11" t="s">
         <v>406</v>
       </c>
       <c r="C405">
@@ -6120,7 +6124,7 @@
       <c r="A406">
         <v>7721</v>
       </c>
-      <c r="B406" s="9" t="s">
+      <c r="B406" s="11" t="s">
         <v>407</v>
       </c>
       <c r="C406">
@@ -6131,7 +6135,7 @@
       <c r="A407">
         <v>7731</v>
       </c>
-      <c r="B407" s="9" t="s">
+      <c r="B407" s="11" t="s">
         <v>408</v>
       </c>
       <c r="C407">
@@ -6142,7 +6146,7 @@
       <c r="A408">
         <v>7732</v>
       </c>
-      <c r="B408" s="9" t="s">
+      <c r="B408" s="11" t="s">
         <v>409</v>
       </c>
       <c r="C408">
@@ -6153,7 +6157,7 @@
       <c r="A409">
         <v>7733</v>
       </c>
-      <c r="B409" s="9" t="s">
+      <c r="B409" s="11" t="s">
         <v>410</v>
       </c>
       <c r="C409">
@@ -6164,7 +6168,7 @@
       <c r="A410">
         <v>7734</v>
       </c>
-      <c r="B410" s="9" t="s">
+      <c r="B410" s="11" t="s">
         <v>411</v>
       </c>
       <c r="C410">
@@ -6175,7 +6179,7 @@
       <c r="A411">
         <v>7735</v>
       </c>
-      <c r="B411" s="9" t="s">
+      <c r="B411" s="11" t="s">
         <v>412</v>
       </c>
       <c r="C411">
@@ -6186,7 +6190,7 @@
       <c r="A412">
         <v>7741</v>
       </c>
-      <c r="B412" s="9" t="s">
+      <c r="B412" s="11" t="s">
         <v>413</v>
       </c>
       <c r="C412">
@@ -6197,7 +6201,7 @@
       <c r="A413">
         <v>7751</v>
       </c>
-      <c r="B413" s="9" t="s">
+      <c r="B413" s="11" t="s">
         <v>414</v>
       </c>
       <c r="C413">
@@ -6208,7 +6212,7 @@
       <c r="A414">
         <v>7764</v>
       </c>
-      <c r="B414" s="9" t="s">
+      <c r="B414" s="11" t="s">
         <v>415</v>
       </c>
       <c r="C414">
@@ -6219,7 +6223,7 @@
       <c r="A415">
         <v>7771</v>
       </c>
-      <c r="B415" s="9" t="s">
+      <c r="B415" s="11" t="s">
         <v>416</v>
       </c>
       <c r="C415">
@@ -6230,7 +6234,7 @@
       <c r="A416">
         <v>7772</v>
       </c>
-      <c r="B416" s="9" t="s">
+      <c r="B416" s="11" t="s">
         <v>417</v>
       </c>
       <c r="C416">
@@ -6241,7 +6245,7 @@
       <c r="A417">
         <v>7801</v>
       </c>
-      <c r="B417" s="9" t="s">
+      <c r="B417" s="11" t="s">
         <v>418</v>
       </c>
       <c r="C417">
@@ -6252,7 +6256,7 @@
       <c r="A418">
         <v>7811</v>
       </c>
-      <c r="B418" s="9" t="s">
+      <c r="B418" s="11" t="s">
         <v>419</v>
       </c>
       <c r="C418">
@@ -6263,7 +6267,7 @@
       <c r="A419">
         <v>7813</v>
       </c>
-      <c r="B419" s="9" t="s">
+      <c r="B419" s="11" t="s">
         <v>420</v>
       </c>
       <c r="C419">
@@ -6274,7 +6278,7 @@
       <c r="A420">
         <v>7817</v>
       </c>
-      <c r="B420" s="9" t="s">
+      <c r="B420" s="11" t="s">
         <v>421</v>
       </c>
       <c r="C420">
@@ -6285,7 +6289,7 @@
       <c r="A421">
         <v>7820</v>
       </c>
-      <c r="B421" s="9" t="s">
+      <c r="B421" s="11" t="s">
         <v>422</v>
       </c>
       <c r="C421">
@@ -6296,7 +6300,7 @@
       <c r="A422">
         <v>7821</v>
       </c>
-      <c r="B422" s="9" t="s">
+      <c r="B422" s="11" t="s">
         <v>423</v>
       </c>
       <c r="C422">
@@ -6307,7 +6311,7 @@
       <c r="A423">
         <v>7822</v>
       </c>
-      <c r="B423" s="9" t="s">
+      <c r="B423" s="11" t="s">
         <v>424</v>
       </c>
       <c r="C423">
@@ -6318,7 +6322,7 @@
       <c r="A424">
         <v>7823</v>
       </c>
-      <c r="B424" s="9" t="s">
+      <c r="B424" s="11" t="s">
         <v>425</v>
       </c>
       <c r="C424">
@@ -6329,7 +6333,7 @@
       <c r="A425">
         <v>7824</v>
       </c>
-      <c r="B425" s="9" t="s">
+      <c r="B425" s="11" t="s">
         <v>426</v>
       </c>
       <c r="C425">
@@ -6340,7 +6344,7 @@
       <c r="A426">
         <v>7825</v>
       </c>
-      <c r="B426" s="9" t="s">
+      <c r="B426" s="11" t="s">
         <v>427</v>
       </c>
       <c r="C426">
@@ -6351,7 +6355,7 @@
       <c r="A427">
         <v>7826</v>
       </c>
-      <c r="B427" s="9" t="s">
+      <c r="B427" s="11" t="s">
         <v>428</v>
       </c>
       <c r="C427">
@@ -6362,7 +6366,7 @@
       <c r="A428">
         <v>7827</v>
       </c>
-      <c r="B428" s="9" t="s">
+      <c r="B428" s="11" t="s">
         <v>429</v>
       </c>
       <c r="C428">
@@ -6373,7 +6377,7 @@
       <c r="A429">
         <v>7828</v>
       </c>
-      <c r="B429" s="9" t="s">
+      <c r="B429" s="11" t="s">
         <v>430</v>
       </c>
       <c r="C429">
@@ -6384,7 +6388,7 @@
       <c r="A430">
         <v>7831</v>
       </c>
-      <c r="B430" s="9" t="s">
+      <c r="B430" s="11" t="s">
         <v>431</v>
       </c>
       <c r="C430">
@@ -6395,7 +6399,7 @@
       <c r="A431">
         <v>7832</v>
       </c>
-      <c r="B431" s="9" t="s">
+      <c r="B431" s="11" t="s">
         <v>432</v>
       </c>
       <c r="C431">
@@ -6406,7 +6410,7 @@
       <c r="A432">
         <v>7841</v>
       </c>
-      <c r="B432" s="9" t="s">
+      <c r="B432" s="11" t="s">
         <v>433</v>
       </c>
       <c r="C432">
@@ -6417,7 +6421,7 @@
       <c r="A433">
         <v>7842</v>
       </c>
-      <c r="B433" s="9" t="s">
+      <c r="B433" s="11" t="s">
         <v>434</v>
       </c>
       <c r="C433">
@@ -6428,7 +6432,7 @@
       <c r="A434">
         <v>-1</v>
       </c>
-      <c r="B434" s="9" t="s">
+      <c r="B434" s="11" t="s">
         <v>300</v>
       </c>
       <c r="C434">
@@ -6439,7 +6443,7 @@
       <c r="A435">
         <v>8101</v>
       </c>
-      <c r="B435" s="9" t="s">
+      <c r="B435" s="11" t="s">
         <v>435</v>
       </c>
       <c r="C435">
@@ -6450,7 +6454,7 @@
       <c r="A436">
         <v>8102</v>
       </c>
-      <c r="B436" s="9" t="s">
+      <c r="B436" s="11" t="s">
         <v>436</v>
       </c>
       <c r="C436">
@@ -6461,7 +6465,7 @@
       <c r="A437">
         <v>8103</v>
       </c>
-      <c r="B437" s="9" t="s">
+      <c r="B437" s="11" t="s">
         <v>437</v>
       </c>
       <c r="C437">
@@ -6472,7 +6476,7 @@
       <c r="A438">
         <v>8110</v>
       </c>
-      <c r="B438" s="9" t="s">
+      <c r="B438" s="11" t="s">
         <v>438</v>
       </c>
       <c r="C438">
@@ -6483,7 +6487,7 @@
       <c r="A439">
         <v>8111</v>
       </c>
-      <c r="B439" s="9" t="s">
+      <c r="B439" s="11" t="s">
         <v>439</v>
       </c>
       <c r="C439">
@@ -6494,7 +6498,7 @@
       <c r="A440">
         <v>8112</v>
       </c>
-      <c r="B440" s="9" t="s">
+      <c r="B440" s="11" t="s">
         <v>440</v>
       </c>
       <c r="C440">
@@ -6505,7 +6509,7 @@
       <c r="A441">
         <v>8113</v>
       </c>
-      <c r="B441" s="9" t="s">
+      <c r="B441" s="11" t="s">
         <v>441</v>
       </c>
       <c r="C441">
@@ -6516,7 +6520,7 @@
       <c r="A442">
         <v>8114</v>
       </c>
-      <c r="B442" s="9" t="s">
+      <c r="B442" s="11" t="s">
         <v>442</v>
       </c>
       <c r="C442">
@@ -6527,7 +6531,7 @@
       <c r="A443">
         <v>8115</v>
       </c>
-      <c r="B443" s="9" t="s">
+      <c r="B443" s="11" t="s">
         <v>443</v>
       </c>
       <c r="C443">
@@ -6538,7 +6542,7 @@
       <c r="A444">
         <v>8116</v>
       </c>
-      <c r="B444" s="9" t="s">
+      <c r="B444" s="11" t="s">
         <v>444</v>
       </c>
       <c r="C444">
@@ -6549,7 +6553,7 @@
       <c r="A445">
         <v>8117</v>
       </c>
-      <c r="B445" s="9" t="s">
+      <c r="B445" s="11" t="s">
         <v>445</v>
       </c>
       <c r="C445">
@@ -6560,7 +6564,7 @@
       <c r="A446">
         <v>8118</v>
       </c>
-      <c r="B446" s="9" t="s">
+      <c r="B446" s="11" t="s">
         <v>446</v>
       </c>
       <c r="C446">
@@ -6571,7 +6575,7 @@
       <c r="A447">
         <v>8121</v>
       </c>
-      <c r="B447" s="9" t="s">
+      <c r="B447" s="11" t="s">
         <v>447</v>
       </c>
       <c r="C447">
@@ -6582,7 +6586,7 @@
       <c r="A448">
         <v>8131</v>
       </c>
-      <c r="B448" s="9" t="s">
+      <c r="B448" s="11" t="s">
         <v>448</v>
       </c>
       <c r="C448">
@@ -6593,7 +6597,7 @@
       <c r="A449">
         <v>8181</v>
       </c>
-      <c r="B449" s="9" t="s">
+      <c r="B449" s="11" t="s">
         <v>449</v>
       </c>
       <c r="C449">
@@ -6604,7 +6608,7 @@
       <c r="A450">
         <v>8201</v>
       </c>
-      <c r="B450" s="9" t="s">
+      <c r="B450" s="11" t="s">
         <v>450</v>
       </c>
       <c r="C450">
@@ -6615,7 +6619,7 @@
       <c r="A451">
         <v>8202</v>
       </c>
-      <c r="B451" s="9" t="s">
+      <c r="B451" s="11" t="s">
         <v>451</v>
       </c>
       <c r="C451">
@@ -6626,7 +6630,7 @@
       <c r="A452">
         <v>8211</v>
       </c>
-      <c r="B452" s="9" t="s">
+      <c r="B452" s="11" t="s">
         <v>452</v>
       </c>
       <c r="C452">
@@ -6637,7 +6641,7 @@
       <c r="A453">
         <v>8212</v>
       </c>
-      <c r="B453" s="9" t="s">
+      <c r="B453" s="11" t="s">
         <v>453</v>
       </c>
       <c r="C453">
@@ -6648,7 +6652,7 @@
       <c r="A454">
         <v>8213</v>
       </c>
-      <c r="B454" s="9" t="s">
+      <c r="B454" s="11" t="s">
         <v>454</v>
       </c>
       <c r="C454">
@@ -6659,7 +6663,7 @@
       <c r="A455">
         <v>8214</v>
       </c>
-      <c r="B455" s="9" t="s">
+      <c r="B455" s="11" t="s">
         <v>455</v>
       </c>
       <c r="C455">
@@ -6670,7 +6674,7 @@
       <c r="A456">
         <v>8221</v>
       </c>
-      <c r="B456" s="9" t="s">
+      <c r="B456" s="11" t="s">
         <v>456</v>
       </c>
       <c r="C456">
@@ -6681,7 +6685,7 @@
       <c r="A457">
         <v>8231</v>
       </c>
-      <c r="B457" s="9" t="s">
+      <c r="B457" s="11" t="s">
         <v>457</v>
       </c>
       <c r="C457">
@@ -6692,7 +6696,7 @@
       <c r="A458">
         <v>8232</v>
       </c>
-      <c r="B458" s="9" t="s">
+      <c r="B458" s="11" t="s">
         <v>458</v>
       </c>
       <c r="C458">
@@ -6703,7 +6707,7 @@
       <c r="A459">
         <v>8233</v>
       </c>
-      <c r="B459" s="9" t="s">
+      <c r="B459" s="11" t="s">
         <v>459</v>
       </c>
       <c r="C459">
@@ -6714,7 +6718,7 @@
       <c r="A460">
         <v>8281</v>
       </c>
-      <c r="B460" s="9" t="s">
+      <c r="B460" s="11" t="s">
         <v>460</v>
       </c>
       <c r="C460">
@@ -6725,7 +6729,7 @@
       <c r="A461">
         <v>8301</v>
       </c>
-      <c r="B461" s="9" t="s">
+      <c r="B461" s="11" t="s">
         <v>461</v>
       </c>
       <c r="C461">
@@ -6736,7 +6740,7 @@
       <c r="A462">
         <v>8311</v>
       </c>
-      <c r="B462" s="9" t="s">
+      <c r="B462" s="11" t="s">
         <v>462</v>
       </c>
       <c r="C462">
@@ -6747,7 +6751,7 @@
       <c r="A463">
         <v>8321</v>
       </c>
-      <c r="B463" s="9" t="s">
+      <c r="B463" s="11" t="s">
         <v>463</v>
       </c>
       <c r="C463">
@@ -6758,7 +6762,7 @@
       <c r="A464">
         <v>8339</v>
       </c>
-      <c r="B464" s="9" t="s">
+      <c r="B464" s="11" t="s">
         <v>464</v>
       </c>
       <c r="C464">
@@ -6769,7 +6773,7 @@
       <c r="A465">
         <v>8401</v>
       </c>
-      <c r="B465" s="9" t="s">
+      <c r="B465" s="11" t="s">
         <v>465</v>
       </c>
       <c r="C465">
@@ -6780,7 +6784,7 @@
       <c r="A466">
         <v>8411</v>
       </c>
-      <c r="B466" s="9" t="s">
+      <c r="B466" s="11" t="s">
         <v>466</v>
       </c>
       <c r="C466">
@@ -6791,7 +6795,7 @@
       <c r="A467">
         <v>8412</v>
       </c>
-      <c r="B467" s="9" t="s">
+      <c r="B467" s="11" t="s">
         <v>467</v>
       </c>
       <c r="C467">
@@ -6802,7 +6806,7 @@
       <c r="A468">
         <v>8413</v>
       </c>
-      <c r="B468" s="9" t="s">
+      <c r="B468" s="11" t="s">
         <v>468</v>
       </c>
       <c r="C468">
@@ -6813,7 +6817,7 @@
       <c r="A469">
         <v>8416</v>
       </c>
-      <c r="B469" s="9" t="s">
+      <c r="B469" s="11" t="s">
         <v>469</v>
       </c>
       <c r="C469">
@@ -6824,7 +6828,7 @@
       <c r="A470">
         <v>8417</v>
       </c>
-      <c r="B470" s="9" t="s">
+      <c r="B470" s="11" t="s">
         <v>470</v>
       </c>
       <c r="C470">
@@ -6835,7 +6839,7 @@
       <c r="A471">
         <v>8421</v>
       </c>
-      <c r="B471" s="9" t="s">
+      <c r="B471" s="11" t="s">
         <v>471</v>
       </c>
       <c r="C471">
@@ -6846,7 +6850,7 @@
       <c r="A472">
         <v>8423</v>
       </c>
-      <c r="B472" s="9" t="s">
+      <c r="B472" s="11" t="s">
         <v>472</v>
       </c>
       <c r="C472">
@@ -6857,7 +6861,7 @@
       <c r="A473">
         <v>8429</v>
       </c>
-      <c r="B473" s="9" t="s">
+      <c r="B473" s="11" t="s">
         <v>473</v>
       </c>
       <c r="C473">
@@ -6868,7 +6872,7 @@
       <c r="A474">
         <v>8484</v>
       </c>
-      <c r="B474" s="9" t="s">
+      <c r="B474" s="11" t="s">
         <v>474</v>
       </c>
       <c r="C474">
@@ -6879,7 +6883,7 @@
       <c r="A475">
         <v>8485</v>
       </c>
-      <c r="B475" s="9" t="s">
+      <c r="B475" s="11" t="s">
         <v>475</v>
       </c>
       <c r="C475">
@@ -6890,7 +6894,7 @@
       <c r="A476">
         <v>8491</v>
       </c>
-      <c r="B476" s="9" t="s">
+      <c r="B476" s="11" t="s">
         <v>476</v>
       </c>
       <c r="C476">
@@ -6901,7 +6905,7 @@
       <c r="A477">
         <v>8492</v>
       </c>
-      <c r="B477" s="9" t="s">
+      <c r="B477" s="11" t="s">
         <v>477</v>
       </c>
       <c r="C477">
@@ -6912,7 +6916,7 @@
       <c r="A478">
         <v>8493</v>
       </c>
-      <c r="B478" s="9" t="s">
+      <c r="B478" s="11" t="s">
         <v>478</v>
       </c>
       <c r="C478">
@@ -6923,7 +6927,7 @@
       <c r="A479">
         <v>8601</v>
       </c>
-      <c r="B479" s="9" t="s">
+      <c r="B479" s="11" t="s">
         <v>479</v>
       </c>
       <c r="C479">
@@ -6934,7 +6938,7 @@
       <c r="A480">
         <v>8611</v>
       </c>
-      <c r="B480" s="9" t="s">
+      <c r="B480" s="11" t="s">
         <v>480</v>
       </c>
       <c r="C480">
@@ -6945,7 +6949,7 @@
       <c r="A481">
         <v>8612</v>
       </c>
-      <c r="B481" s="9" t="s">
+      <c r="B481" s="11" t="s">
         <v>481</v>
       </c>
       <c r="C481">
@@ -6956,7 +6960,7 @@
       <c r="A482">
         <v>8621</v>
       </c>
-      <c r="B482" s="9" t="s">
+      <c r="B482" s="11" t="s">
         <v>482</v>
       </c>
       <c r="C482">
@@ -6967,7 +6971,7 @@
       <c r="A483">
         <v>8622</v>
       </c>
-      <c r="B483" s="9" t="s">
+      <c r="B483" s="11" t="s">
         <v>483</v>
       </c>
       <c r="C483">
@@ -6978,7 +6982,7 @@
       <c r="A484">
         <v>8623</v>
       </c>
-      <c r="B484" s="9" t="s">
+      <c r="B484" s="11" t="s">
         <v>484</v>
       </c>
       <c r="C484">
@@ -6989,7 +6993,7 @@
       <c r="A485">
         <v>8624</v>
       </c>
-      <c r="B485" s="9" t="s">
+      <c r="B485" s="11" t="s">
         <v>485</v>
       </c>
       <c r="C485">
@@ -7000,7 +7004,7 @@
       <c r="A486">
         <v>8625</v>
       </c>
-      <c r="B486" s="9" t="s">
+      <c r="B486" s="11" t="s">
         <v>486</v>
       </c>
       <c r="C486">
@@ -7011,7 +7015,7 @@
       <c r="A487">
         <v>8711</v>
       </c>
-      <c r="B487" s="9" t="s">
+      <c r="B487" s="11" t="s">
         <v>487</v>
       </c>
       <c r="C487">
@@ -7022,7 +7026,7 @@
       <c r="A488">
         <v>-1</v>
       </c>
-      <c r="B488" s="9" t="s">
+      <c r="B488" s="11" t="s">
         <v>488</v>
       </c>
       <c r="C488">
@@ -7033,7 +7037,7 @@
       <c r="A489">
         <v>9101</v>
       </c>
-      <c r="B489" s="9" t="s">
+      <c r="B489" s="11" t="s">
         <v>489</v>
       </c>
       <c r="C489">
@@ -7044,7 +7048,7 @@
       <c r="A490">
         <v>9102</v>
       </c>
-      <c r="B490" s="9" t="s">
+      <c r="B490" s="11" t="s">
         <v>490</v>
       </c>
       <c r="C490">
@@ -7055,7 +7059,7 @@
       <c r="A491">
         <v>9109</v>
       </c>
-      <c r="B491" s="9" t="s">
+      <c r="B491" s="11" t="s">
         <v>491</v>
       </c>
       <c r="C491">
@@ -7066,7 +7070,7 @@
       <c r="A492">
         <v>9111</v>
       </c>
-      <c r="B492" s="9" t="s">
+      <c r="B492" s="11" t="s">
         <v>492</v>
       </c>
       <c r="C492">
@@ -7077,7 +7081,7 @@
       <c r="A493">
         <v>9112</v>
       </c>
-      <c r="B493" s="9" t="s">
+      <c r="B493" s="11" t="s">
         <v>493</v>
       </c>
       <c r="C493">
@@ -7088,7 +7092,7 @@
       <c r="A494">
         <v>9113</v>
       </c>
-      <c r="B494" s="9" t="s">
+      <c r="B494" s="11" t="s">
         <v>494</v>
       </c>
       <c r="C494">
@@ -7099,7 +7103,7 @@
       <c r="A495">
         <v>9131</v>
       </c>
-      <c r="B495" s="9" t="s">
+      <c r="B495" s="11" t="s">
         <v>495</v>
       </c>
       <c r="C495">
@@ -7110,7 +7114,7 @@
       <c r="A496">
         <v>9141</v>
       </c>
-      <c r="B496" s="9" t="s">
+      <c r="B496" s="11" t="s">
         <v>496</v>
       </c>
       <c r="C496">
@@ -7121,7 +7125,7 @@
       <c r="A497">
         <v>9142</v>
       </c>
-      <c r="B497" s="9" t="s">
+      <c r="B497" s="11" t="s">
         <v>497</v>
       </c>
       <c r="C497">
@@ -7132,7 +7136,7 @@
       <c r="A498">
         <v>9143</v>
       </c>
-      <c r="B498" s="9" t="s">
+      <c r="B498" s="11" t="s">
         <v>498</v>
       </c>
       <c r="C498">
@@ -7143,7 +7147,7 @@
       <c r="A499">
         <v>9144</v>
       </c>
-      <c r="B499" s="9" t="s">
+      <c r="B499" s="11" t="s">
         <v>499</v>
       </c>
       <c r="C499">
@@ -7154,7 +7158,7 @@
       <c r="A500">
         <v>9151</v>
       </c>
-      <c r="B500" s="9" t="s">
+      <c r="B500" s="11" t="s">
         <v>500</v>
       </c>
       <c r="C500">
@@ -7165,7 +7169,7 @@
       <c r="A501">
         <v>9152</v>
       </c>
-      <c r="B501" s="9" t="s">
+      <c r="B501" s="11" t="s">
         <v>501</v>
       </c>
       <c r="C501">
@@ -7176,7 +7180,7 @@
       <c r="A502">
         <v>9153</v>
       </c>
-      <c r="B502" s="9" t="s">
+      <c r="B502" s="11" t="s">
         <v>502</v>
       </c>
       <c r="C502">
@@ -7187,7 +7191,7 @@
       <c r="A503">
         <v>9154</v>
       </c>
-      <c r="B503" s="9" t="s">
+      <c r="B503" s="11" t="s">
         <v>503</v>
       </c>
       <c r="C503">
@@ -7198,7 +7202,7 @@
       <c r="A504">
         <v>9191</v>
       </c>
-      <c r="B504" s="9" t="s">
+      <c r="B504" s="11" t="s">
         <v>504</v>
       </c>
       <c r="C504">
@@ -7209,7 +7213,7 @@
       <c r="A505">
         <v>9192</v>
       </c>
-      <c r="B505" s="9" t="s">
+      <c r="B505" s="11" t="s">
         <v>505</v>
       </c>
       <c r="C505">
@@ -7220,7 +7224,7 @@
       <c r="A506">
         <v>9193</v>
       </c>
-      <c r="B506" s="9" t="s">
+      <c r="B506" s="11" t="s">
         <v>506</v>
       </c>
       <c r="C506">
@@ -7231,7 +7235,7 @@
       <c r="A507">
         <v>9501</v>
       </c>
-      <c r="B507" s="9" t="s">
+      <c r="B507" s="11" t="s">
         <v>507</v>
       </c>
       <c r="C507">
@@ -7242,7 +7246,7 @@
       <c r="A508">
         <v>9502</v>
       </c>
-      <c r="B508" s="9" t="s">
+      <c r="B508" s="11" t="s">
         <v>508</v>
       </c>
       <c r="C508">
@@ -7253,7 +7257,7 @@
       <c r="A509">
         <v>9503</v>
       </c>
-      <c r="B509" s="9" t="s">
+      <c r="B509" s="11" t="s">
         <v>509</v>
       </c>
       <c r="C509">
@@ -7264,7 +7268,7 @@
       <c r="A510">
         <v>9511</v>
       </c>
-      <c r="B510" s="9" t="s">
+      <c r="B510" s="11" t="s">
         <v>510</v>
       </c>
       <c r="C510">
@@ -7275,7 +7279,7 @@
       <c r="A511">
         <v>9513</v>
       </c>
-      <c r="B511" s="9" t="s">
+      <c r="B511" s="11" t="s">
         <v>511</v>
       </c>
       <c r="C511">
@@ -7286,7 +7290,7 @@
       <c r="A512">
         <v>9531</v>
       </c>
-      <c r="B512" s="9" t="s">
+      <c r="B512" s="11" t="s">
         <v>512</v>
       </c>
       <c r="C512">
@@ -7297,7 +7301,7 @@
       <c r="A513">
         <v>9541</v>
       </c>
-      <c r="B513" s="9" t="s">
+      <c r="B513" s="11" t="s">
         <v>513</v>
       </c>
       <c r="C513">
@@ -7308,7 +7312,7 @@
       <c r="A514">
         <v>9542</v>
       </c>
-      <c r="B514" s="9" t="s">
+      <c r="B514" s="11" t="s">
         <v>514</v>
       </c>
       <c r="C514">
@@ -7319,7 +7323,7 @@
       <c r="A515">
         <v>9543</v>
       </c>
-      <c r="B515" s="9" t="s">
+      <c r="B515" s="11" t="s">
         <v>515</v>
       </c>
       <c r="C515">
@@ -7330,7 +7334,7 @@
       <c r="A516">
         <v>9911</v>
       </c>
-      <c r="B516" s="9" t="s">
+      <c r="B516" s="11" t="s">
         <v>516</v>
       </c>
       <c r="C516">
@@ -7341,7 +7345,7 @@
       <c r="A517">
         <v>9912</v>
       </c>
-      <c r="B517" s="9" t="s">
+      <c r="B517" s="11" t="s">
         <v>517</v>
       </c>
       <c r="C517">
@@ -7352,7 +7356,7 @@
       <c r="A518">
         <v>9913</v>
       </c>
-      <c r="B518" s="9" t="s">
+      <c r="B518" s="11" t="s">
         <v>518</v>
       </c>
       <c r="C518">
@@ -7363,7 +7367,7 @@
       <c r="A519">
         <v>9914</v>
       </c>
-      <c r="B519" s="9" t="s">
+      <c r="B519" s="11" t="s">
         <v>519</v>
       </c>
       <c r="C519">
@@ -7374,7 +7378,7 @@
       <c r="A520">
         <v>9921</v>
       </c>
-      <c r="B520" s="9" t="s">
+      <c r="B520" s="11" t="s">
         <v>520</v>
       </c>
       <c r="C520">
@@ -7385,7 +7389,7 @@
       <c r="A521">
         <v>9922</v>
       </c>
-      <c r="B521" s="9" t="s">
+      <c r="B521" s="11" t="s">
         <v>521</v>
       </c>
       <c r="C521">
@@ -7396,7 +7400,7 @@
       <c r="A522">
         <v>-1</v>
       </c>
-      <c r="B522" s="9" t="s">
+      <c r="B522" s="11" t="s">
         <v>522</v>
       </c>
       <c r="C522">
@@ -7407,7 +7411,7 @@
       <c r="A523">
         <v>9999</v>
       </c>
-      <c r="B523" s="9" t="s">
+      <c r="B523" s="11" t="s">
         <v>523</v>
       </c>
       <c r="C523">

--- a/+dataLH/test_files/readTest.xlsx
+++ b/+dataLH/test_files/readTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4745" uniqueCount="525">
   <si>
     <t>Code</t>
   </si>
@@ -1610,7 +1610,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1630,11 +1630,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1648,6 +1654,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1666,13 +1678,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="17" t="s">
         <v>524</v>
       </c>
     </row>
@@ -1680,7 +1692,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C2">
@@ -1691,7 +1703,7 @@
       <c r="A3">
         <v>-1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -1702,7 +1714,7 @@
       <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -1713,7 +1725,7 @@
       <c r="A5">
         <v>200</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C5">
@@ -1724,7 +1736,7 @@
       <c r="A6">
         <v>300</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C6">
@@ -1735,7 +1747,7 @@
       <c r="A7">
         <v>401</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C7">
@@ -1746,7 +1758,7 @@
       <c r="A8">
         <v>402</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C8">
@@ -1757,7 +1769,7 @@
       <c r="A9">
         <v>403</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C9">
@@ -1768,7 +1780,7 @@
       <c r="A10">
         <v>411</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C10">
@@ -1779,7 +1791,7 @@
       <c r="A11">
         <v>412</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C11">
@@ -1790,7 +1802,7 @@
       <c r="A12">
         <v>413</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C12">
@@ -1801,7 +1813,7 @@
       <c r="A13">
         <v>501</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C13">
@@ -1812,7 +1824,7 @@
       <c r="A14">
         <v>502</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C14">
@@ -1823,7 +1835,7 @@
       <c r="A15">
         <v>503</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C15">
@@ -1834,7 +1846,7 @@
       <c r="A16">
         <v>511</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C16">
@@ -1845,7 +1857,7 @@
       <c r="A17">
         <v>512</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
@@ -1856,7 +1868,7 @@
       <c r="A18">
         <v>513</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C18">
@@ -1867,7 +1879,7 @@
       <c r="A19">
         <v>-1</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C19">
@@ -1878,7 +1890,7 @@
       <c r="A20">
         <v>1111</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C20">
@@ -1889,7 +1901,7 @@
       <c r="A21">
         <v>1112</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C21">
@@ -1900,7 +1912,7 @@
       <c r="A22">
         <v>1113</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C22">
@@ -1911,7 +1923,7 @@
       <c r="A23">
         <v>1122</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C23">
@@ -1922,7 +1934,7 @@
       <c r="A24">
         <v>1123</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C24">
@@ -1933,7 +1945,7 @@
       <c r="A25">
         <v>1130</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C25">
@@ -1944,7 +1956,7 @@
       <c r="A26">
         <v>1140</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C26">
@@ -1955,7 +1967,7 @@
       <c r="A27">
         <v>1210</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="17" t="s">
         <v>28</v>
       </c>
       <c r="C27">
@@ -1966,7 +1978,7 @@
       <c r="A28">
         <v>1219</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C28">
@@ -1977,7 +1989,7 @@
       <c r="A29">
         <v>1220</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C29">
@@ -1988,7 +2000,7 @@
       <c r="A30">
         <v>1230</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C30">
@@ -1999,7 +2011,7 @@
       <c r="A31">
         <v>1310</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C31">
@@ -2010,7 +2022,7 @@
       <c r="A32">
         <v>1320</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C32">
@@ -2021,7 +2033,7 @@
       <c r="A33">
         <v>-1</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C33">
@@ -2032,7 +2044,7 @@
       <c r="A34">
         <v>2011</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C34">
@@ -2043,7 +2055,7 @@
       <c r="A35">
         <v>2012</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C35">
@@ -2054,7 +2066,7 @@
       <c r="A36">
         <v>2021</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C36">
@@ -2065,7 +2077,7 @@
       <c r="A37">
         <v>2111</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="17" t="s">
         <v>38</v>
       </c>
       <c r="C37">
@@ -2076,7 +2088,7 @@
       <c r="A38">
         <v>2112</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C38">
@@ -2087,7 +2099,7 @@
       <c r="A39">
         <v>2121</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C39">
@@ -2098,7 +2110,7 @@
       <c r="A40">
         <v>2122</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C40">
@@ -2109,7 +2121,7 @@
       <c r="A41">
         <v>2123</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C41">
@@ -2120,7 +2132,7 @@
       <c r="A42">
         <v>2124</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C42">
@@ -2131,7 +2143,7 @@
       <c r="A43">
         <v>2125</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C43">
@@ -2142,7 +2154,7 @@
       <c r="A44">
         <v>2131</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C44">
@@ -2153,7 +2165,7 @@
       <c r="A45">
         <v>2132</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C45">
@@ -2164,7 +2176,7 @@
       <c r="A46">
         <v>2133</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="17" t="s">
         <v>47</v>
       </c>
       <c r="C46">
@@ -2175,7 +2187,7 @@
       <c r="A47">
         <v>2134</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C47">
@@ -2186,7 +2198,7 @@
       <c r="A48">
         <v>2140</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C48">
@@ -2197,7 +2209,7 @@
       <c r="A49">
         <v>2141</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C49">
@@ -2208,7 +2220,7 @@
       <c r="A50">
         <v>2142</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C50">
@@ -2219,7 +2231,7 @@
       <c r="A51">
         <v>2143</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C51">
@@ -2230,7 +2242,7 @@
       <c r="A52">
         <v>2144</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C52">
@@ -2241,7 +2253,7 @@
       <c r="A53">
         <v>2145</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C53">
@@ -2252,7 +2264,7 @@
       <c r="A54">
         <v>2146</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C54">
@@ -2263,7 +2275,7 @@
       <c r="A55">
         <v>2147</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="17" t="s">
         <v>56</v>
       </c>
       <c r="C55">
@@ -2274,7 +2286,7 @@
       <c r="A56">
         <v>2148</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C56">
@@ -2285,7 +2297,7 @@
       <c r="A57">
         <v>2149</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C57">
@@ -2296,7 +2308,7 @@
       <c r="A58">
         <v>2151</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C58">
@@ -2307,7 +2319,7 @@
       <c r="A59">
         <v>2152</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C59">
@@ -2318,7 +2330,7 @@
       <c r="A60">
         <v>2153</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C60">
@@ -2329,7 +2341,7 @@
       <c r="A61">
         <v>2211</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C61">
@@ -2340,7 +2352,7 @@
       <c r="A62">
         <v>2221</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C62">
@@ -2351,7 +2363,7 @@
       <c r="A63">
         <v>2231</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C63">
@@ -2362,7 +2374,7 @@
       <c r="A64">
         <v>2232</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="17" t="s">
         <v>65</v>
       </c>
       <c r="C64">
@@ -2373,7 +2385,7 @@
       <c r="A65">
         <v>2233</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C65">
@@ -2384,7 +2396,7 @@
       <c r="A66">
         <v>2234</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C66">
@@ -2395,7 +2407,7 @@
       <c r="A67">
         <v>2235</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C67">
@@ -2406,7 +2418,7 @@
       <c r="A68">
         <v>2236</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C68">
@@ -2417,7 +2429,7 @@
       <c r="A69">
         <v>2237</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="17" t="s">
         <v>70</v>
       </c>
       <c r="C69">
@@ -2428,7 +2440,7 @@
       <c r="A70">
         <v>2311</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C70">
@@ -2439,7 +2451,7 @@
       <c r="A71">
         <v>2312</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="17" t="s">
         <v>72</v>
       </c>
       <c r="C71">
@@ -2450,7 +2462,7 @@
       <c r="A72">
         <v>2313</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="17" t="s">
         <v>73</v>
       </c>
       <c r="C72">
@@ -2461,7 +2473,7 @@
       <c r="A73">
         <v>2321</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C73">
@@ -2472,7 +2484,7 @@
       <c r="A74">
         <v>2330</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C74">
@@ -2483,7 +2495,7 @@
       <c r="A75">
         <v>2340</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="17" t="s">
         <v>76</v>
       </c>
       <c r="C75">
@@ -2494,7 +2506,7 @@
       <c r="A76">
         <v>2391</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C76">
@@ -2505,7 +2517,7 @@
       <c r="A77">
         <v>2392</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C77">
@@ -2516,7 +2528,7 @@
       <c r="A78">
         <v>2394</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C78">
@@ -2527,7 +2539,7 @@
       <c r="A79">
         <v>2410</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C79">
@@ -2538,7 +2550,7 @@
       <c r="A80">
         <v>2412</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="17" t="s">
         <v>81</v>
       </c>
       <c r="C80">
@@ -2549,7 +2561,7 @@
       <c r="A81">
         <v>2419</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="17" t="s">
         <v>82</v>
       </c>
       <c r="C81">
@@ -2560,7 +2572,7 @@
       <c r="A82">
         <v>2421</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="17" t="s">
         <v>83</v>
       </c>
       <c r="C82">
@@ -2571,7 +2583,7 @@
       <c r="A83">
         <v>2422</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="17" t="s">
         <v>84</v>
       </c>
       <c r="C83">
@@ -2582,7 +2594,7 @@
       <c r="A84">
         <v>2423</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="17" t="s">
         <v>85</v>
       </c>
       <c r="C84">
@@ -2593,7 +2605,7 @@
       <c r="A85">
         <v>2511</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C85">
@@ -2604,7 +2616,7 @@
       <c r="A86">
         <v>2512</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="17" t="s">
         <v>87</v>
       </c>
       <c r="C86">
@@ -2615,7 +2627,7 @@
       <c r="A87">
         <v>2513</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="17" t="s">
         <v>88</v>
       </c>
       <c r="C87">
@@ -2626,7 +2638,7 @@
       <c r="A88">
         <v>2514</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="17" t="s">
         <v>89</v>
       </c>
       <c r="C88">
@@ -2637,7 +2649,7 @@
       <c r="A89">
         <v>2515</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C89">
@@ -2648,7 +2660,7 @@
       <c r="A90">
         <v>2516</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="17" t="s">
         <v>91</v>
       </c>
       <c r="C90">
@@ -2659,7 +2671,7 @@
       <c r="A91">
         <v>2521</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="17" t="s">
         <v>92</v>
       </c>
       <c r="C91">
@@ -2670,7 +2682,7 @@
       <c r="A92">
         <v>2522</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="17" t="s">
         <v>93</v>
       </c>
       <c r="C92">
@@ -2681,7 +2693,7 @@
       <c r="A93">
         <v>2523</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="17" t="s">
         <v>94</v>
       </c>
       <c r="C93">
@@ -2692,7 +2704,7 @@
       <c r="A94">
         <v>2524</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="17" t="s">
         <v>95</v>
       </c>
       <c r="C94">
@@ -2703,7 +2715,7 @@
       <c r="A95">
         <v>2525</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="17" t="s">
         <v>96</v>
       </c>
       <c r="C95">
@@ -2714,7 +2726,7 @@
       <c r="A96">
         <v>2531</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="17" t="s">
         <v>97</v>
       </c>
       <c r="C96">
@@ -2725,7 +2737,7 @@
       <c r="A97">
         <v>2611</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C97">
@@ -2736,7 +2748,7 @@
       <c r="A98">
         <v>2612</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="17" t="s">
         <v>99</v>
       </c>
       <c r="C98">
@@ -2747,7 +2759,7 @@
       <c r="A99">
         <v>2613</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="17" t="s">
         <v>100</v>
       </c>
       <c r="C99">
@@ -2758,7 +2770,7 @@
       <c r="A100">
         <v>2614</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="17" t="s">
         <v>101</v>
       </c>
       <c r="C100">
@@ -2769,7 +2781,7 @@
       <c r="A101">
         <v>2615</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="17" t="s">
         <v>102</v>
       </c>
       <c r="C101">
@@ -2780,7 +2792,7 @@
       <c r="A102">
         <v>2616</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="17" t="s">
         <v>103</v>
       </c>
       <c r="C102">
@@ -2791,7 +2803,7 @@
       <c r="A103">
         <v>2617</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="17" t="s">
         <v>104</v>
       </c>
       <c r="C103">
@@ -2802,7 +2814,7 @@
       <c r="A104">
         <v>2621</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="17" t="s">
         <v>105</v>
       </c>
       <c r="C104">
@@ -2813,7 +2825,7 @@
       <c r="A105">
         <v>2622</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="17" t="s">
         <v>106</v>
       </c>
       <c r="C105">
@@ -2824,7 +2836,7 @@
       <c r="A106">
         <v>2623</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="17" t="s">
         <v>107</v>
       </c>
       <c r="C106">
@@ -2835,7 +2847,7 @@
       <c r="A107">
         <v>2624</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="17" t="s">
         <v>108</v>
       </c>
       <c r="C107">
@@ -2846,7 +2858,7 @@
       <c r="A108">
         <v>2625</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="17" t="s">
         <v>109</v>
       </c>
       <c r="C108">
@@ -2857,7 +2869,7 @@
       <c r="A109">
         <v>2627</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="17" t="s">
         <v>110</v>
       </c>
       <c r="C109">
@@ -2868,7 +2880,7 @@
       <c r="A110">
         <v>2631</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C110">
@@ -2879,7 +2891,7 @@
       <c r="A111">
         <v>-1</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="17" t="s">
         <v>112</v>
       </c>
       <c r="C111">
@@ -2890,7 +2902,7 @@
       <c r="A112">
         <v>3001</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="17" t="s">
         <v>113</v>
       </c>
       <c r="C112">
@@ -2901,7 +2913,7 @@
       <c r="A113">
         <v>3003</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="17" t="s">
         <v>114</v>
       </c>
       <c r="C113">
@@ -2912,7 +2924,7 @@
       <c r="A114">
         <v>3011</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="17" t="s">
         <v>115</v>
       </c>
       <c r="C114">
@@ -2923,7 +2935,7 @@
       <c r="A115">
         <v>3012</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="17" t="s">
         <v>116</v>
       </c>
       <c r="C115">
@@ -2934,7 +2946,7 @@
       <c r="A116">
         <v>3111</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="17" t="s">
         <v>117</v>
       </c>
       <c r="C116">
@@ -2945,7 +2957,7 @@
       <c r="A117">
         <v>3112</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="17" t="s">
         <v>118</v>
       </c>
       <c r="C117">
@@ -2956,7 +2968,7 @@
       <c r="A118">
         <v>3113</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="17" t="s">
         <v>119</v>
       </c>
       <c r="C118">
@@ -2967,7 +2979,7 @@
       <c r="A119">
         <v>3114</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="17" t="s">
         <v>120</v>
       </c>
       <c r="C119">
@@ -2978,7 +2990,7 @@
       <c r="A120">
         <v>3115</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="17" t="s">
         <v>121</v>
       </c>
       <c r="C120">
@@ -2989,7 +3001,7 @@
       <c r="A121">
         <v>3116</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="17" t="s">
         <v>122</v>
       </c>
       <c r="C121">
@@ -3000,7 +3012,7 @@
       <c r="A122">
         <v>3117</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="17" t="s">
         <v>123</v>
       </c>
       <c r="C122">
@@ -3011,7 +3023,7 @@
       <c r="A123">
         <v>3121</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="17" t="s">
         <v>124</v>
       </c>
       <c r="C123">
@@ -3022,7 +3034,7 @@
       <c r="A124">
         <v>3122</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="17" t="s">
         <v>125</v>
       </c>
       <c r="C124">
@@ -3033,7 +3045,7 @@
       <c r="A125">
         <v>3123</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="17" t="s">
         <v>126</v>
       </c>
       <c r="C125">
@@ -3044,7 +3056,7 @@
       <c r="A126">
         <v>3131</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="17" t="s">
         <v>127</v>
       </c>
       <c r="C126">
@@ -3055,7 +3067,7 @@
       <c r="A127">
         <v>3132</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="17" t="s">
         <v>128</v>
       </c>
       <c r="C127">
@@ -3066,7 +3078,7 @@
       <c r="A128">
         <v>3134</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="17" t="s">
         <v>129</v>
       </c>
       <c r="C128">
@@ -3077,7 +3089,7 @@
       <c r="A129">
         <v>3135</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="17" t="s">
         <v>130</v>
       </c>
       <c r="C129">
@@ -3088,7 +3100,7 @@
       <c r="A130">
         <v>3136</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="17" t="s">
         <v>131</v>
       </c>
       <c r="C130">
@@ -3099,7 +3111,7 @@
       <c r="A131">
         <v>3141</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="17" t="s">
         <v>132</v>
       </c>
       <c r="C131">
@@ -3110,7 +3122,7 @@
       <c r="A132">
         <v>3142</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="17" t="s">
         <v>133</v>
       </c>
       <c r="C132">
@@ -3121,7 +3133,7 @@
       <c r="A133">
         <v>3143</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="17" t="s">
         <v>134</v>
       </c>
       <c r="C133">
@@ -3132,7 +3144,7 @@
       <c r="A134">
         <v>3144</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="17" t="s">
         <v>135</v>
       </c>
       <c r="C134">
@@ -3143,7 +3155,7 @@
       <c r="A135">
         <v>3146</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="17" t="s">
         <v>136</v>
       </c>
       <c r="C135">
@@ -3154,7 +3166,7 @@
       <c r="A136">
         <v>3147</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="17" t="s">
         <v>137</v>
       </c>
       <c r="C136">
@@ -3165,7 +3177,7 @@
       <c r="A137">
         <v>3161</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="17" t="s">
         <v>138</v>
       </c>
       <c r="C137">
@@ -3176,7 +3188,7 @@
       <c r="A138">
         <v>3162</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="17" t="s">
         <v>139</v>
       </c>
       <c r="C138">
@@ -3187,7 +3199,7 @@
       <c r="A139">
         <v>3163</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="17" t="s">
         <v>140</v>
       </c>
       <c r="C139">
@@ -3198,7 +3210,7 @@
       <c r="A140">
         <v>3171</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="17" t="s">
         <v>141</v>
       </c>
       <c r="C140">
@@ -3209,7 +3221,7 @@
       <c r="A141">
         <v>3172</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="17" t="s">
         <v>142</v>
       </c>
       <c r="C141">
@@ -3220,7 +3232,7 @@
       <c r="A142">
         <v>3189</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="17" t="s">
         <v>143</v>
       </c>
       <c r="C142">
@@ -3231,7 +3243,7 @@
       <c r="A143">
         <v>3191</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="17" t="s">
         <v>144</v>
       </c>
       <c r="C143">
@@ -3242,7 +3254,7 @@
       <c r="A144">
         <v>3192</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="17" t="s">
         <v>145</v>
       </c>
       <c r="C144">
@@ -3253,7 +3265,7 @@
       <c r="A145">
         <v>3201</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="17" t="s">
         <v>146</v>
       </c>
       <c r="C145">
@@ -3264,7 +3276,7 @@
       <c r="A146">
         <v>3210</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="17" t="s">
         <v>147</v>
       </c>
       <c r="C146">
@@ -3275,7 +3287,7 @@
       <c r="A147">
         <v>3211</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="17" t="s">
         <v>148</v>
       </c>
       <c r="C147">
@@ -3286,7 +3298,7 @@
       <c r="A148">
         <v>3212</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="17" t="s">
         <v>149</v>
       </c>
       <c r="C148">
@@ -3297,7 +3309,7 @@
       <c r="A149">
         <v>3213</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="17" t="s">
         <v>150</v>
       </c>
       <c r="C149">
@@ -3308,7 +3320,7 @@
       <c r="A150">
         <v>3214</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="17" t="s">
         <v>151</v>
       </c>
       <c r="C150">
@@ -3319,7 +3331,7 @@
       <c r="A151">
         <v>3221</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="17" t="s">
         <v>152</v>
       </c>
       <c r="C151">
@@ -3330,7 +3342,7 @@
       <c r="A152">
         <v>3222</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="17" t="s">
         <v>153</v>
       </c>
       <c r="C152">
@@ -3341,7 +3353,7 @@
       <c r="A153">
         <v>3223</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="17" t="s">
         <v>154</v>
       </c>
       <c r="C153">
@@ -3352,7 +3364,7 @@
       <c r="A154">
         <v>3224</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="17" t="s">
         <v>155</v>
       </c>
       <c r="C154">
@@ -3363,7 +3375,7 @@
       <c r="A155">
         <v>3225</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="17" t="s">
         <v>156</v>
       </c>
       <c r="C155">
@@ -3374,7 +3386,7 @@
       <c r="A156">
         <v>3231</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B156" s="17" t="s">
         <v>157</v>
       </c>
       <c r="C156">
@@ -3385,7 +3397,7 @@
       <c r="A157">
         <v>3232</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B157" s="17" t="s">
         <v>158</v>
       </c>
       <c r="C157">
@@ -3396,7 +3408,7 @@
       <c r="A158">
         <v>3241</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="17" t="s">
         <v>159</v>
       </c>
       <c r="C158">
@@ -3407,7 +3419,7 @@
       <c r="A159">
         <v>3242</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="17" t="s">
         <v>160</v>
       </c>
       <c r="C159">
@@ -3418,7 +3430,7 @@
       <c r="A160">
         <v>3250</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="17" t="s">
         <v>161</v>
       </c>
       <c r="C160">
@@ -3429,7 +3441,7 @@
       <c r="A161">
         <v>3251</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B161" s="17" t="s">
         <v>162</v>
       </c>
       <c r="C161">
@@ -3440,7 +3452,7 @@
       <c r="A162">
         <v>3252</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="17" t="s">
         <v>163</v>
       </c>
       <c r="C162">
@@ -3451,7 +3463,7 @@
       <c r="A163">
         <v>3253</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B163" s="17" t="s">
         <v>164</v>
       </c>
       <c r="C163">
@@ -3462,7 +3474,7 @@
       <c r="A164">
         <v>3281</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B164" s="17" t="s">
         <v>165</v>
       </c>
       <c r="C164">
@@ -3473,7 +3485,7 @@
       <c r="A165">
         <v>3311</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B165" s="17" t="s">
         <v>166</v>
       </c>
       <c r="C165">
@@ -3484,7 +3496,7 @@
       <c r="A166">
         <v>3312</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B166" s="17" t="s">
         <v>167</v>
       </c>
       <c r="C166">
@@ -3495,7 +3507,7 @@
       <c r="A167">
         <v>3313</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B167" s="17" t="s">
         <v>168</v>
       </c>
       <c r="C167">
@@ -3506,7 +3518,7 @@
       <c r="A168">
         <v>3321</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B168" s="17" t="s">
         <v>169</v>
       </c>
       <c r="C168">
@@ -3517,7 +3529,7 @@
       <c r="A169">
         <v>3322</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B169" s="17" t="s">
         <v>170</v>
       </c>
       <c r="C169">
@@ -3528,7 +3540,7 @@
       <c r="A170">
         <v>3331</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B170" s="17" t="s">
         <v>171</v>
       </c>
       <c r="C170">
@@ -3539,7 +3551,7 @@
       <c r="A171">
         <v>3341</v>
       </c>
-      <c r="B171" s="11" t="s">
+      <c r="B171" s="17" t="s">
         <v>172</v>
       </c>
       <c r="C171">
@@ -3550,7 +3562,7 @@
       <c r="A172">
         <v>3411</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B172" s="17" t="s">
         <v>173</v>
       </c>
       <c r="C172">
@@ -3561,7 +3573,7 @@
       <c r="A173">
         <v>3412</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B173" s="17" t="s">
         <v>174</v>
       </c>
       <c r="C173">
@@ -3572,7 +3584,7 @@
       <c r="A174">
         <v>3413</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B174" s="17" t="s">
         <v>175</v>
       </c>
       <c r="C174">
@@ -3583,7 +3595,7 @@
       <c r="A175">
         <v>3421</v>
       </c>
-      <c r="B175" s="11" t="s">
+      <c r="B175" s="17" t="s">
         <v>176</v>
       </c>
       <c r="C175">
@@ -3594,7 +3606,7 @@
       <c r="A176">
         <v>3422</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="B176" s="17" t="s">
         <v>177</v>
       </c>
       <c r="C176">
@@ -3605,7 +3617,7 @@
       <c r="A177">
         <v>3423</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B177" s="17" t="s">
         <v>178</v>
       </c>
       <c r="C177">
@@ -3616,7 +3628,7 @@
       <c r="A178">
         <v>3424</v>
       </c>
-      <c r="B178" s="11" t="s">
+      <c r="B178" s="17" t="s">
         <v>179</v>
       </c>
       <c r="C178">
@@ -3627,7 +3639,7 @@
       <c r="A179">
         <v>3425</v>
       </c>
-      <c r="B179" s="11" t="s">
+      <c r="B179" s="17" t="s">
         <v>180</v>
       </c>
       <c r="C179">
@@ -3638,7 +3650,7 @@
       <c r="A180">
         <v>3426</v>
       </c>
-      <c r="B180" s="11" t="s">
+      <c r="B180" s="17" t="s">
         <v>181</v>
       </c>
       <c r="C180">
@@ -3649,7 +3661,7 @@
       <c r="A181">
         <v>3511</v>
       </c>
-      <c r="B181" s="11" t="s">
+      <c r="B181" s="17" t="s">
         <v>182</v>
       </c>
       <c r="C181">
@@ -3660,7 +3672,7 @@
       <c r="A182">
         <v>3512</v>
       </c>
-      <c r="B182" s="11" t="s">
+      <c r="B182" s="17" t="s">
         <v>183</v>
       </c>
       <c r="C182">
@@ -3671,7 +3683,7 @@
       <c r="A183">
         <v>3513</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="B183" s="17" t="s">
         <v>184</v>
       </c>
       <c r="C183">
@@ -3682,7 +3694,7 @@
       <c r="A184">
         <v>3514</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="B184" s="17" t="s">
         <v>185</v>
       </c>
       <c r="C184">
@@ -3693,7 +3705,7 @@
       <c r="A185">
         <v>3515</v>
       </c>
-      <c r="B185" s="11" t="s">
+      <c r="B185" s="17" t="s">
         <v>186</v>
       </c>
       <c r="C185">
@@ -3704,7 +3716,7 @@
       <c r="A186">
         <v>3516</v>
       </c>
-      <c r="B186" s="11" t="s">
+      <c r="B186" s="17" t="s">
         <v>187</v>
       </c>
       <c r="C186">
@@ -3715,7 +3727,7 @@
       <c r="A187">
         <v>3517</v>
       </c>
-      <c r="B187" s="11" t="s">
+      <c r="B187" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C187">
@@ -3726,7 +3738,7 @@
       <c r="A188">
         <v>3518</v>
       </c>
-      <c r="B188" s="11" t="s">
+      <c r="B188" s="17" t="s">
         <v>189</v>
       </c>
       <c r="C188">
@@ -3737,7 +3749,7 @@
       <c r="A189">
         <v>3522</v>
       </c>
-      <c r="B189" s="11" t="s">
+      <c r="B189" s="17" t="s">
         <v>190</v>
       </c>
       <c r="C189">
@@ -3748,7 +3760,7 @@
       <c r="A190">
         <v>3523</v>
       </c>
-      <c r="B190" s="11" t="s">
+      <c r="B190" s="17" t="s">
         <v>191</v>
       </c>
       <c r="C190">
@@ -3759,7 +3771,7 @@
       <c r="A191">
         <v>3524</v>
       </c>
-      <c r="B191" s="11" t="s">
+      <c r="B191" s="17" t="s">
         <v>192</v>
       </c>
       <c r="C191">
@@ -3770,7 +3782,7 @@
       <c r="A192">
         <v>3525</v>
       </c>
-      <c r="B192" s="11" t="s">
+      <c r="B192" s="17" t="s">
         <v>193</v>
       </c>
       <c r="C192">
@@ -3781,7 +3793,7 @@
       <c r="A193">
         <v>3531</v>
       </c>
-      <c r="B193" s="11" t="s">
+      <c r="B193" s="17" t="s">
         <v>194</v>
       </c>
       <c r="C193">
@@ -3792,7 +3804,7 @@
       <c r="A194">
         <v>3532</v>
       </c>
-      <c r="B194" s="11" t="s">
+      <c r="B194" s="17" t="s">
         <v>195</v>
       </c>
       <c r="C194">
@@ -3803,7 +3815,7 @@
       <c r="A195">
         <v>3541</v>
       </c>
-      <c r="B195" s="11" t="s">
+      <c r="B195" s="17" t="s">
         <v>196</v>
       </c>
       <c r="C195">
@@ -3814,7 +3826,7 @@
       <c r="A196">
         <v>3542</v>
       </c>
-      <c r="B196" s="11" t="s">
+      <c r="B196" s="17" t="s">
         <v>197</v>
       </c>
       <c r="C196">
@@ -3825,7 +3837,7 @@
       <c r="A197">
         <v>3543</v>
       </c>
-      <c r="B197" s="11" t="s">
+      <c r="B197" s="17" t="s">
         <v>198</v>
       </c>
       <c r="C197">
@@ -3836,7 +3848,7 @@
       <c r="A198">
         <v>3544</v>
       </c>
-      <c r="B198" s="11" t="s">
+      <c r="B198" s="17" t="s">
         <v>199</v>
       </c>
       <c r="C198">
@@ -3847,7 +3859,7 @@
       <c r="A199">
         <v>3545</v>
       </c>
-      <c r="B199" s="11" t="s">
+      <c r="B199" s="17" t="s">
         <v>200</v>
       </c>
       <c r="C199">
@@ -3858,7 +3870,7 @@
       <c r="A200">
         <v>3546</v>
       </c>
-      <c r="B200" s="11" t="s">
+      <c r="B200" s="17" t="s">
         <v>201</v>
       </c>
       <c r="C200">
@@ -3869,7 +3881,7 @@
       <c r="A201">
         <v>3547</v>
       </c>
-      <c r="B201" s="11" t="s">
+      <c r="B201" s="17" t="s">
         <v>202</v>
       </c>
       <c r="C201">
@@ -3880,7 +3892,7 @@
       <c r="A202">
         <v>3548</v>
       </c>
-      <c r="B202" s="11" t="s">
+      <c r="B202" s="17" t="s">
         <v>203</v>
       </c>
       <c r="C202">
@@ -3891,7 +3903,7 @@
       <c r="A203">
         <v>3711</v>
       </c>
-      <c r="B203" s="11" t="s">
+      <c r="B203" s="17" t="s">
         <v>204</v>
       </c>
       <c r="C203">
@@ -3902,7 +3914,7 @@
       <c r="A204">
         <v>3712</v>
       </c>
-      <c r="B204" s="11" t="s">
+      <c r="B204" s="17" t="s">
         <v>205</v>
       </c>
       <c r="C204">
@@ -3913,7 +3925,7 @@
       <c r="A205">
         <v>3713</v>
       </c>
-      <c r="B205" s="11" t="s">
+      <c r="B205" s="17" t="s">
         <v>206</v>
       </c>
       <c r="C205">
@@ -3924,7 +3936,7 @@
       <c r="A206">
         <v>3721</v>
       </c>
-      <c r="B206" s="11" t="s">
+      <c r="B206" s="17" t="s">
         <v>207</v>
       </c>
       <c r="C206">
@@ -3935,7 +3947,7 @@
       <c r="A207">
         <v>3722</v>
       </c>
-      <c r="B207" s="11" t="s">
+      <c r="B207" s="17" t="s">
         <v>208</v>
       </c>
       <c r="C207">
@@ -3946,7 +3958,7 @@
       <c r="A208">
         <v>3723</v>
       </c>
-      <c r="B208" s="11" t="s">
+      <c r="B208" s="17" t="s">
         <v>209</v>
       </c>
       <c r="C208">
@@ -3957,7 +3969,7 @@
       <c r="A209">
         <v>3731</v>
       </c>
-      <c r="B209" s="11" t="s">
+      <c r="B209" s="17" t="s">
         <v>210</v>
       </c>
       <c r="C209">
@@ -3968,7 +3980,7 @@
       <c r="A210">
         <v>3732</v>
       </c>
-      <c r="B210" s="11" t="s">
+      <c r="B210" s="17" t="s">
         <v>211</v>
       </c>
       <c r="C210">
@@ -3979,7 +3991,7 @@
       <c r="A211">
         <v>3741</v>
       </c>
-      <c r="B211" s="11" t="s">
+      <c r="B211" s="17" t="s">
         <v>212</v>
       </c>
       <c r="C211">
@@ -3990,7 +4002,7 @@
       <c r="A212">
         <v>3742</v>
       </c>
-      <c r="B212" s="11" t="s">
+      <c r="B212" s="17" t="s">
         <v>213</v>
       </c>
       <c r="C212">
@@ -4001,7 +4013,7 @@
       <c r="A213">
         <v>3743</v>
       </c>
-      <c r="B213" s="11" t="s">
+      <c r="B213" s="17" t="s">
         <v>214</v>
       </c>
       <c r="C213">
@@ -4012,7 +4024,7 @@
       <c r="A214">
         <v>3751</v>
       </c>
-      <c r="B214" s="11" t="s">
+      <c r="B214" s="17" t="s">
         <v>215</v>
       </c>
       <c r="C214">
@@ -4023,7 +4035,7 @@
       <c r="A215">
         <v>3761</v>
       </c>
-      <c r="B215" s="11" t="s">
+      <c r="B215" s="17" t="s">
         <v>216</v>
       </c>
       <c r="C215">
@@ -4034,7 +4046,7 @@
       <c r="A216">
         <v>3762</v>
       </c>
-      <c r="B216" s="11" t="s">
+      <c r="B216" s="17" t="s">
         <v>217</v>
       </c>
       <c r="C216">
@@ -4045,7 +4057,7 @@
       <c r="A217">
         <v>3763</v>
       </c>
-      <c r="B217" s="11" t="s">
+      <c r="B217" s="17" t="s">
         <v>218</v>
       </c>
       <c r="C217">
@@ -4056,7 +4068,7 @@
       <c r="A218">
         <v>3764</v>
       </c>
-      <c r="B218" s="11" t="s">
+      <c r="B218" s="17" t="s">
         <v>219</v>
       </c>
       <c r="C218">
@@ -4067,7 +4079,7 @@
       <c r="A219">
         <v>3765</v>
       </c>
-      <c r="B219" s="11" t="s">
+      <c r="B219" s="17" t="s">
         <v>220</v>
       </c>
       <c r="C219">
@@ -4078,7 +4090,7 @@
       <c r="A220">
         <v>3771</v>
       </c>
-      <c r="B220" s="11" t="s">
+      <c r="B220" s="17" t="s">
         <v>221</v>
       </c>
       <c r="C220">
@@ -4089,7 +4101,7 @@
       <c r="A221">
         <v>3772</v>
       </c>
-      <c r="B221" s="11" t="s">
+      <c r="B221" s="17" t="s">
         <v>222</v>
       </c>
       <c r="C221">
@@ -4100,7 +4112,7 @@
       <c r="A222">
         <v>3773</v>
       </c>
-      <c r="B222" s="11" t="s">
+      <c r="B222" s="17" t="s">
         <v>223</v>
       </c>
       <c r="C222">
@@ -4111,7 +4123,7 @@
       <c r="A223">
         <v>3911</v>
       </c>
-      <c r="B223" s="11" t="s">
+      <c r="B223" s="17" t="s">
         <v>224</v>
       </c>
       <c r="C223">
@@ -4122,7 +4134,7 @@
       <c r="A224">
         <v>3912</v>
       </c>
-      <c r="B224" s="11" t="s">
+      <c r="B224" s="17" t="s">
         <v>225</v>
       </c>
       <c r="C224">
@@ -4133,7 +4145,7 @@
       <c r="A225">
         <v>-1</v>
       </c>
-      <c r="B225" s="11" t="s">
+      <c r="B225" s="17" t="s">
         <v>226</v>
       </c>
       <c r="C225">
@@ -4144,7 +4156,7 @@
       <c r="A226">
         <v>4101</v>
       </c>
-      <c r="B226" s="11" t="s">
+      <c r="B226" s="17" t="s">
         <v>227</v>
       </c>
       <c r="C226">
@@ -4155,7 +4167,7 @@
       <c r="A227">
         <v>4102</v>
       </c>
-      <c r="B227" s="11" t="s">
+      <c r="B227" s="17" t="s">
         <v>228</v>
       </c>
       <c r="C227">
@@ -4166,7 +4178,7 @@
       <c r="A228">
         <v>4110</v>
       </c>
-      <c r="B228" s="11" t="s">
+      <c r="B228" s="17" t="s">
         <v>229</v>
       </c>
       <c r="C228">
@@ -4177,7 +4189,7 @@
       <c r="A229">
         <v>4121</v>
       </c>
-      <c r="B229" s="11" t="s">
+      <c r="B229" s="17" t="s">
         <v>230</v>
       </c>
       <c r="C229">
@@ -4188,7 +4200,7 @@
       <c r="A230">
         <v>4122</v>
       </c>
-      <c r="B230" s="11" t="s">
+      <c r="B230" s="17" t="s">
         <v>231</v>
       </c>
       <c r="C230">
@@ -4199,7 +4211,7 @@
       <c r="A231">
         <v>4123</v>
       </c>
-      <c r="B231" s="11" t="s">
+      <c r="B231" s="17" t="s">
         <v>232</v>
       </c>
       <c r="C231">
@@ -4210,7 +4222,7 @@
       <c r="A232">
         <v>4131</v>
       </c>
-      <c r="B232" s="11" t="s">
+      <c r="B232" s="17" t="s">
         <v>233</v>
       </c>
       <c r="C232">
@@ -4221,7 +4233,7 @@
       <c r="A233">
         <v>4132</v>
       </c>
-      <c r="B233" s="11" t="s">
+      <c r="B233" s="17" t="s">
         <v>234</v>
       </c>
       <c r="C233">
@@ -4232,7 +4244,7 @@
       <c r="A234">
         <v>4141</v>
       </c>
-      <c r="B234" s="11" t="s">
+      <c r="B234" s="17" t="s">
         <v>235</v>
       </c>
       <c r="C234">
@@ -4243,7 +4255,7 @@
       <c r="A235">
         <v>4142</v>
       </c>
-      <c r="B235" s="11" t="s">
+      <c r="B235" s="17" t="s">
         <v>236</v>
       </c>
       <c r="C235">
@@ -4254,7 +4266,7 @@
       <c r="A236">
         <v>4151</v>
       </c>
-      <c r="B236" s="11" t="s">
+      <c r="B236" s="17" t="s">
         <v>237</v>
       </c>
       <c r="C236">
@@ -4265,7 +4277,7 @@
       <c r="A237">
         <v>4152</v>
       </c>
-      <c r="B237" s="11" t="s">
+      <c r="B237" s="17" t="s">
         <v>238</v>
       </c>
       <c r="C237">
@@ -4276,7 +4288,7 @@
       <c r="A238">
         <v>4201</v>
       </c>
-      <c r="B238" s="11" t="s">
+      <c r="B238" s="17" t="s">
         <v>239</v>
       </c>
       <c r="C238">
@@ -4287,7 +4299,7 @@
       <c r="A239">
         <v>4211</v>
       </c>
-      <c r="B239" s="11" t="s">
+      <c r="B239" s="17" t="s">
         <v>240</v>
       </c>
       <c r="C239">
@@ -4298,7 +4310,7 @@
       <c r="A240">
         <v>4212</v>
       </c>
-      <c r="B240" s="11" t="s">
+      <c r="B240" s="17" t="s">
         <v>241</v>
       </c>
       <c r="C240">
@@ -4309,7 +4321,7 @@
       <c r="A241">
         <v>4213</v>
       </c>
-      <c r="B241" s="11" t="s">
+      <c r="B241" s="17" t="s">
         <v>242</v>
       </c>
       <c r="C241">
@@ -4320,7 +4332,7 @@
       <c r="A242">
         <v>4214</v>
       </c>
-      <c r="B242" s="11" t="s">
+      <c r="B242" s="17" t="s">
         <v>243</v>
       </c>
       <c r="C242">
@@ -4331,7 +4343,7 @@
       <c r="A243">
         <v>4221</v>
       </c>
-      <c r="B243" s="11" t="s">
+      <c r="B243" s="17" t="s">
         <v>244</v>
       </c>
       <c r="C243">
@@ -4342,7 +4354,7 @@
       <c r="A244">
         <v>4222</v>
       </c>
-      <c r="B244" s="11" t="s">
+      <c r="B244" s="17" t="s">
         <v>245</v>
       </c>
       <c r="C244">
@@ -4353,7 +4365,7 @@
       <c r="A245">
         <v>4223</v>
       </c>
-      <c r="B245" s="11" t="s">
+      <c r="B245" s="17" t="s">
         <v>246</v>
       </c>
       <c r="C245">
@@ -4364,7 +4376,7 @@
       <c r="A246">
         <v>4231</v>
       </c>
-      <c r="B246" s="11" t="s">
+      <c r="B246" s="17" t="s">
         <v>247</v>
       </c>
       <c r="C246">
@@ -4375,7 +4387,7 @@
       <c r="A247">
         <v>4241</v>
       </c>
-      <c r="B247" s="11" t="s">
+      <c r="B247" s="17" t="s">
         <v>248</v>
       </c>
       <c r="C247">
@@ -4386,7 +4398,7 @@
       <c r="A248">
         <v>-1</v>
       </c>
-      <c r="B248" s="11" t="s">
+      <c r="B248" s="17" t="s">
         <v>249</v>
       </c>
       <c r="C248">
@@ -4397,7 +4409,7 @@
       <c r="A249">
         <v>5101</v>
       </c>
-      <c r="B249" s="11" t="s">
+      <c r="B249" s="17" t="s">
         <v>250</v>
       </c>
       <c r="C249">
@@ -4408,7 +4420,7 @@
       <c r="A250">
         <v>5102</v>
       </c>
-      <c r="B250" s="11" t="s">
+      <c r="B250" s="17" t="s">
         <v>251</v>
       </c>
       <c r="C250">
@@ -4419,7 +4431,7 @@
       <c r="A251">
         <v>5103</v>
       </c>
-      <c r="B251" s="11" t="s">
+      <c r="B251" s="17" t="s">
         <v>252</v>
       </c>
       <c r="C251">
@@ -4430,7 +4442,7 @@
       <c r="A252">
         <v>5111</v>
       </c>
-      <c r="B252" s="11" t="s">
+      <c r="B252" s="17" t="s">
         <v>253</v>
       </c>
       <c r="C252">
@@ -4441,7 +4453,7 @@
       <c r="A253">
         <v>5112</v>
       </c>
-      <c r="B253" s="11" t="s">
+      <c r="B253" s="17" t="s">
         <v>254</v>
       </c>
       <c r="C253">
@@ -4452,7 +4464,7 @@
       <c r="A254">
         <v>5114</v>
       </c>
-      <c r="B254" s="11" t="s">
+      <c r="B254" s="17" t="s">
         <v>255</v>
       </c>
       <c r="C254">
@@ -4463,7 +4475,7 @@
       <c r="A255">
         <v>5121</v>
       </c>
-      <c r="B255" s="11" t="s">
+      <c r="B255" s="17" t="s">
         <v>256</v>
       </c>
       <c r="C255">
@@ -4474,7 +4486,7 @@
       <c r="A256">
         <v>5131</v>
       </c>
-      <c r="B256" s="11" t="s">
+      <c r="B256" s="17" t="s">
         <v>257</v>
       </c>
       <c r="C256">
@@ -4485,7 +4497,7 @@
       <c r="A257">
         <v>5132</v>
       </c>
-      <c r="B257" s="11" t="s">
+      <c r="B257" s="17" t="s">
         <v>258</v>
       </c>
       <c r="C257">
@@ -4496,7 +4508,7 @@
       <c r="A258">
         <v>5133</v>
       </c>
-      <c r="B258" s="11" t="s">
+      <c r="B258" s="17" t="s">
         <v>259</v>
       </c>
       <c r="C258">
@@ -4507,7 +4519,7 @@
       <c r="A259">
         <v>5134</v>
       </c>
-      <c r="B259" s="11" t="s">
+      <c r="B259" s="17" t="s">
         <v>260</v>
       </c>
       <c r="C259">
@@ -4518,7 +4530,7 @@
       <c r="A260">
         <v>5141</v>
       </c>
-      <c r="B260" s="11" t="s">
+      <c r="B260" s="17" t="s">
         <v>261</v>
       </c>
       <c r="C260">
@@ -4529,7 +4541,7 @@
       <c r="A261">
         <v>5142</v>
       </c>
-      <c r="B261" s="11" t="s">
+      <c r="B261" s="17" t="s">
         <v>262</v>
       </c>
       <c r="C261">
@@ -4540,7 +4552,7 @@
       <c r="A262">
         <v>5151</v>
       </c>
-      <c r="B262" s="11" t="s">
+      <c r="B262" s="17" t="s">
         <v>263</v>
       </c>
       <c r="C262">
@@ -4551,7 +4563,7 @@
       <c r="A263">
         <v>5152</v>
       </c>
-      <c r="B263" s="11" t="s">
+      <c r="B263" s="17" t="s">
         <v>264</v>
       </c>
       <c r="C263">
@@ -4562,7 +4574,7 @@
       <c r="A264">
         <v>5161</v>
       </c>
-      <c r="B264" s="11" t="s">
+      <c r="B264" s="17" t="s">
         <v>265</v>
       </c>
       <c r="C264">
@@ -4573,7 +4585,7 @@
       <c r="A265">
         <v>5162</v>
       </c>
-      <c r="B265" s="11" t="s">
+      <c r="B265" s="17" t="s">
         <v>266</v>
       </c>
       <c r="C265">
@@ -4584,7 +4596,7 @@
       <c r="A266">
         <v>5165</v>
       </c>
-      <c r="B266" s="11" t="s">
+      <c r="B266" s="17" t="s">
         <v>267</v>
       </c>
       <c r="C266">
@@ -4595,7 +4607,7 @@
       <c r="A267">
         <v>5166</v>
       </c>
-      <c r="B267" s="11" t="s">
+      <c r="B267" s="17" t="s">
         <v>268</v>
       </c>
       <c r="C267">
@@ -4606,7 +4618,7 @@
       <c r="A268">
         <v>5167</v>
       </c>
-      <c r="B268" s="11" t="s">
+      <c r="B268" s="17" t="s">
         <v>269</v>
       </c>
       <c r="C268">
@@ -4617,7 +4629,7 @@
       <c r="A269">
         <v>5169</v>
       </c>
-      <c r="B269" s="11" t="s">
+      <c r="B269" s="17" t="s">
         <v>270</v>
       </c>
       <c r="C269">
@@ -4628,7 +4640,7 @@
       <c r="A270">
         <v>5171</v>
       </c>
-      <c r="B270" s="11" t="s">
+      <c r="B270" s="17" t="s">
         <v>271</v>
       </c>
       <c r="C270">
@@ -4639,7 +4651,7 @@
       <c r="A271">
         <v>5172</v>
       </c>
-      <c r="B271" s="11" t="s">
+      <c r="B271" s="17" t="s">
         <v>272</v>
       </c>
       <c r="C271">
@@ -4650,7 +4662,7 @@
       <c r="A272">
         <v>5173</v>
       </c>
-      <c r="B272" s="11" t="s">
+      <c r="B272" s="17" t="s">
         <v>273</v>
       </c>
       <c r="C272">
@@ -4661,7 +4673,7 @@
       <c r="A273">
         <v>5174</v>
       </c>
-      <c r="B273" s="11" t="s">
+      <c r="B273" s="17" t="s">
         <v>274</v>
       </c>
       <c r="C273">
@@ -4672,7 +4684,7 @@
       <c r="A274">
         <v>5191</v>
       </c>
-      <c r="B274" s="11" t="s">
+      <c r="B274" s="17" t="s">
         <v>275</v>
       </c>
       <c r="C274">
@@ -4683,7 +4695,7 @@
       <c r="A275">
         <v>5192</v>
       </c>
-      <c r="B275" s="11" t="s">
+      <c r="B275" s="17" t="s">
         <v>276</v>
       </c>
       <c r="C275">
@@ -4694,7 +4706,7 @@
       <c r="A276">
         <v>5198</v>
       </c>
-      <c r="B276" s="11" t="s">
+      <c r="B276" s="17" t="s">
         <v>277</v>
       </c>
       <c r="C276">
@@ -4705,7 +4717,7 @@
       <c r="A277">
         <v>5199</v>
       </c>
-      <c r="B277" s="11" t="s">
+      <c r="B277" s="17" t="s">
         <v>278</v>
       </c>
       <c r="C277">
@@ -4716,7 +4728,7 @@
       <c r="A278">
         <v>5201</v>
       </c>
-      <c r="B278" s="11" t="s">
+      <c r="B278" s="17" t="s">
         <v>279</v>
       </c>
       <c r="C278">
@@ -4727,7 +4739,7 @@
       <c r="A279">
         <v>5211</v>
       </c>
-      <c r="B279" s="11" t="s">
+      <c r="B279" s="17" t="s">
         <v>280</v>
       </c>
       <c r="C279">
@@ -4738,7 +4750,7 @@
       <c r="A280">
         <v>5221</v>
       </c>
-      <c r="B280" s="11" t="s">
+      <c r="B280" s="17" t="s">
         <v>281</v>
       </c>
       <c r="C280">
@@ -4749,7 +4761,7 @@
       <c r="A281">
         <v>5231</v>
       </c>
-      <c r="B281" s="11" t="s">
+      <c r="B281" s="17" t="s">
         <v>282</v>
       </c>
       <c r="C281">
@@ -4760,7 +4772,7 @@
       <c r="A282">
         <v>5241</v>
       </c>
-      <c r="B282" s="11" t="s">
+      <c r="B282" s="17" t="s">
         <v>283</v>
       </c>
       <c r="C282">
@@ -4771,7 +4783,7 @@
       <c r="A283">
         <v>5242</v>
       </c>
-      <c r="B283" s="11" t="s">
+      <c r="B283" s="17" t="s">
         <v>284</v>
       </c>
       <c r="C283">
@@ -4782,7 +4794,7 @@
       <c r="A284">
         <v>5243</v>
       </c>
-      <c r="B284" s="11" t="s">
+      <c r="B284" s="17" t="s">
         <v>285</v>
       </c>
       <c r="C284">
@@ -4793,7 +4805,7 @@
       <c r="A285">
         <v>-1</v>
       </c>
-      <c r="B285" s="11" t="s">
+      <c r="B285" s="17" t="s">
         <v>286</v>
       </c>
       <c r="C285">
@@ -4804,7 +4816,7 @@
       <c r="A286">
         <v>6110</v>
       </c>
-      <c r="B286" s="11" t="s">
+      <c r="B286" s="17" t="s">
         <v>287</v>
       </c>
       <c r="C286">
@@ -4815,7 +4827,7 @@
       <c r="A287">
         <v>6129</v>
       </c>
-      <c r="B287" s="11" t="s">
+      <c r="B287" s="17" t="s">
         <v>288</v>
       </c>
       <c r="C287">
@@ -4826,7 +4838,7 @@
       <c r="A288">
         <v>6139</v>
       </c>
-      <c r="B288" s="11" t="s">
+      <c r="B288" s="17" t="s">
         <v>289</v>
       </c>
       <c r="C288">
@@ -4837,7 +4849,7 @@
       <c r="A289">
         <v>6201</v>
       </c>
-      <c r="B289" s="11" t="s">
+      <c r="B289" s="17" t="s">
         <v>290</v>
       </c>
       <c r="C289">
@@ -4848,7 +4860,7 @@
       <c r="A290">
         <v>6210</v>
       </c>
-      <c r="B290" s="11" t="s">
+      <c r="B290" s="17" t="s">
         <v>291</v>
       </c>
       <c r="C290">
@@ -4859,7 +4871,7 @@
       <c r="A291">
         <v>6229</v>
       </c>
-      <c r="B291" s="11" t="s">
+      <c r="B291" s="17" t="s">
         <v>292</v>
       </c>
       <c r="C291">
@@ -4870,7 +4882,7 @@
       <c r="A292">
         <v>6239</v>
       </c>
-      <c r="B292" s="11" t="s">
+      <c r="B292" s="17" t="s">
         <v>293</v>
       </c>
       <c r="C292">
@@ -4881,7 +4893,7 @@
       <c r="A293">
         <v>6301</v>
       </c>
-      <c r="B293" s="11" t="s">
+      <c r="B293" s="17" t="s">
         <v>294</v>
       </c>
       <c r="C293">
@@ -4892,7 +4904,7 @@
       <c r="A294">
         <v>6319</v>
       </c>
-      <c r="B294" s="11" t="s">
+      <c r="B294" s="17" t="s">
         <v>295</v>
       </c>
       <c r="C294">
@@ -4903,7 +4915,7 @@
       <c r="A295">
         <v>6329</v>
       </c>
-      <c r="B295" s="11" t="s">
+      <c r="B295" s="17" t="s">
         <v>296</v>
       </c>
       <c r="C295">
@@ -4914,7 +4926,7 @@
       <c r="A296">
         <v>6410</v>
       </c>
-      <c r="B296" s="11" t="s">
+      <c r="B296" s="17" t="s">
         <v>297</v>
       </c>
       <c r="C296">
@@ -4925,7 +4937,7 @@
       <c r="A297">
         <v>6420</v>
       </c>
-      <c r="B297" s="11" t="s">
+      <c r="B297" s="17" t="s">
         <v>298</v>
       </c>
       <c r="C297">
@@ -4936,7 +4948,7 @@
       <c r="A298">
         <v>6430</v>
       </c>
-      <c r="B298" s="11" t="s">
+      <c r="B298" s="17" t="s">
         <v>299</v>
       </c>
       <c r="C298">
@@ -4947,7 +4959,7 @@
       <c r="A299">
         <v>-1</v>
       </c>
-      <c r="B299" s="11" t="s">
+      <c r="B299" s="17" t="s">
         <v>300</v>
       </c>
       <c r="C299">
@@ -4958,7 +4970,7 @@
       <c r="A300">
         <v>7101</v>
       </c>
-      <c r="B300" s="11" t="s">
+      <c r="B300" s="17" t="s">
         <v>301</v>
       </c>
       <c r="C300">
@@ -4969,7 +4981,7 @@
       <c r="A301">
         <v>7102</v>
       </c>
-      <c r="B301" s="11" t="s">
+      <c r="B301" s="17" t="s">
         <v>302</v>
       </c>
       <c r="C301">
@@ -4980,7 +4992,7 @@
       <c r="A302">
         <v>7111</v>
       </c>
-      <c r="B302" s="11" t="s">
+      <c r="B302" s="17" t="s">
         <v>303</v>
       </c>
       <c r="C302">
@@ -4991,7 +5003,7 @@
       <c r="A303">
         <v>7112</v>
       </c>
-      <c r="B303" s="11" t="s">
+      <c r="B303" s="17" t="s">
         <v>304</v>
       </c>
       <c r="C303">
@@ -5002,7 +5014,7 @@
       <c r="A304">
         <v>7113</v>
       </c>
-      <c r="B304" s="11" t="s">
+      <c r="B304" s="17" t="s">
         <v>305</v>
       </c>
       <c r="C304">
@@ -5013,7 +5025,7 @@
       <c r="A305">
         <v>7114</v>
       </c>
-      <c r="B305" s="11" t="s">
+      <c r="B305" s="17" t="s">
         <v>306</v>
       </c>
       <c r="C305">
@@ -5024,7 +5036,7 @@
       <c r="A306">
         <v>7121</v>
       </c>
-      <c r="B306" s="11" t="s">
+      <c r="B306" s="17" t="s">
         <v>307</v>
       </c>
       <c r="C306">
@@ -5035,7 +5047,7 @@
       <c r="A307">
         <v>7122</v>
       </c>
-      <c r="B307" s="11" t="s">
+      <c r="B307" s="17" t="s">
         <v>308</v>
       </c>
       <c r="C307">
@@ -5046,7 +5058,7 @@
       <c r="A308">
         <v>7151</v>
       </c>
-      <c r="B308" s="11" t="s">
+      <c r="B308" s="17" t="s">
         <v>309</v>
       </c>
       <c r="C308">
@@ -5057,7 +5069,7 @@
       <c r="A309">
         <v>7152</v>
       </c>
-      <c r="B309" s="11" t="s">
+      <c r="B309" s="17" t="s">
         <v>310</v>
       </c>
       <c r="C309">
@@ -5068,7 +5080,7 @@
       <c r="A310">
         <v>7153</v>
       </c>
-      <c r="B310" s="11" t="s">
+      <c r="B310" s="17" t="s">
         <v>311</v>
       </c>
       <c r="C310">
@@ -5079,7 +5091,7 @@
       <c r="A311">
         <v>7154</v>
       </c>
-      <c r="B311" s="11" t="s">
+      <c r="B311" s="17" t="s">
         <v>312</v>
       </c>
       <c r="C311">
@@ -5090,7 +5102,7 @@
       <c r="A312">
         <v>7155</v>
       </c>
-      <c r="B312" s="11" t="s">
+      <c r="B312" s="17" t="s">
         <v>313</v>
       </c>
       <c r="C312">
@@ -5101,7 +5113,7 @@
       <c r="A313">
         <v>7156</v>
       </c>
-      <c r="B313" s="11" t="s">
+      <c r="B313" s="17" t="s">
         <v>314</v>
       </c>
       <c r="C313">
@@ -5112,7 +5124,7 @@
       <c r="A314">
         <v>7157</v>
       </c>
-      <c r="B314" s="11" t="s">
+      <c r="B314" s="17" t="s">
         <v>315</v>
       </c>
       <c r="C314">
@@ -5123,7 +5135,7 @@
       <c r="A315">
         <v>7161</v>
       </c>
-      <c r="B315" s="11" t="s">
+      <c r="B315" s="17" t="s">
         <v>316</v>
       </c>
       <c r="C315">
@@ -5134,7 +5146,7 @@
       <c r="A316">
         <v>7162</v>
       </c>
-      <c r="B316" s="11" t="s">
+      <c r="B316" s="17" t="s">
         <v>317</v>
       </c>
       <c r="C316">
@@ -5145,7 +5157,7 @@
       <c r="A317">
         <v>7163</v>
       </c>
-      <c r="B317" s="11" t="s">
+      <c r="B317" s="17" t="s">
         <v>318</v>
       </c>
       <c r="C317">
@@ -5156,7 +5168,7 @@
       <c r="A318">
         <v>7164</v>
       </c>
-      <c r="B318" s="11" t="s">
+      <c r="B318" s="17" t="s">
         <v>319</v>
       </c>
       <c r="C318">
@@ -5167,7 +5179,7 @@
       <c r="A319">
         <v>7165</v>
       </c>
-      <c r="B319" s="11" t="s">
+      <c r="B319" s="17" t="s">
         <v>320</v>
       </c>
       <c r="C319">
@@ -5178,7 +5190,7 @@
       <c r="A320">
         <v>7166</v>
       </c>
-      <c r="B320" s="11" t="s">
+      <c r="B320" s="17" t="s">
         <v>321</v>
       </c>
       <c r="C320">
@@ -5189,7 +5201,7 @@
       <c r="A321">
         <v>7170</v>
       </c>
-      <c r="B321" s="11" t="s">
+      <c r="B321" s="17" t="s">
         <v>322</v>
       </c>
       <c r="C321">
@@ -5200,7 +5212,7 @@
       <c r="A322">
         <v>7201</v>
       </c>
-      <c r="B322" s="11" t="s">
+      <c r="B322" s="17" t="s">
         <v>323</v>
       </c>
       <c r="C322">
@@ -5211,7 +5223,7 @@
       <c r="A323">
         <v>7202</v>
       </c>
-      <c r="B323" s="11" t="s">
+      <c r="B323" s="17" t="s">
         <v>324</v>
       </c>
       <c r="C323">
@@ -5222,7 +5234,7 @@
       <c r="A324">
         <v>7211</v>
       </c>
-      <c r="B324" s="11" t="s">
+      <c r="B324" s="17" t="s">
         <v>325</v>
       </c>
       <c r="C324">
@@ -5233,7 +5245,7 @@
       <c r="A325">
         <v>7212</v>
       </c>
-      <c r="B325" s="11" t="s">
+      <c r="B325" s="17" t="s">
         <v>326</v>
       </c>
       <c r="C325">
@@ -5244,7 +5256,7 @@
       <c r="A326">
         <v>7213</v>
       </c>
-      <c r="B326" s="11" t="s">
+      <c r="B326" s="17" t="s">
         <v>327</v>
       </c>
       <c r="C326">
@@ -5255,7 +5267,7 @@
       <c r="A327">
         <v>7214</v>
       </c>
-      <c r="B327" s="11" t="s">
+      <c r="B327" s="17" t="s">
         <v>328</v>
       </c>
       <c r="C327">
@@ -5266,7 +5278,7 @@
       <c r="A328">
         <v>7215</v>
       </c>
-      <c r="B328" s="11" t="s">
+      <c r="B328" s="17" t="s">
         <v>329</v>
       </c>
       <c r="C328">
@@ -5277,7 +5289,7 @@
       <c r="A329">
         <v>7221</v>
       </c>
-      <c r="B329" s="11" t="s">
+      <c r="B329" s="17" t="s">
         <v>330</v>
       </c>
       <c r="C329">
@@ -5288,7 +5300,7 @@
       <c r="A330">
         <v>7222</v>
       </c>
-      <c r="B330" s="11" t="s">
+      <c r="B330" s="17" t="s">
         <v>331</v>
       </c>
       <c r="C330">
@@ -5299,7 +5311,7 @@
       <c r="A331">
         <v>7223</v>
       </c>
-      <c r="B331" s="11" t="s">
+      <c r="B331" s="17" t="s">
         <v>332</v>
       </c>
       <c r="C331">
@@ -5310,7 +5322,7 @@
       <c r="A332">
         <v>7224</v>
       </c>
-      <c r="B332" s="11" t="s">
+      <c r="B332" s="17" t="s">
         <v>333</v>
       </c>
       <c r="C332">
@@ -5321,7 +5333,7 @@
       <c r="A333">
         <v>7231</v>
       </c>
-      <c r="B333" s="11" t="s">
+      <c r="B333" s="17" t="s">
         <v>334</v>
       </c>
       <c r="C333">
@@ -5332,7 +5344,7 @@
       <c r="A334">
         <v>7232</v>
       </c>
-      <c r="B334" s="11" t="s">
+      <c r="B334" s="17" t="s">
         <v>335</v>
       </c>
       <c r="C334">
@@ -5343,7 +5355,7 @@
       <c r="A335">
         <v>7233</v>
       </c>
-      <c r="B335" s="11" t="s">
+      <c r="B335" s="17" t="s">
         <v>336</v>
       </c>
       <c r="C335">
@@ -5354,7 +5366,7 @@
       <c r="A336">
         <v>7241</v>
       </c>
-      <c r="B336" s="11" t="s">
+      <c r="B336" s="17" t="s">
         <v>337</v>
       </c>
       <c r="C336">
@@ -5365,7 +5377,7 @@
       <c r="A337">
         <v>7242</v>
       </c>
-      <c r="B337" s="11" t="s">
+      <c r="B337" s="17" t="s">
         <v>338</v>
       </c>
       <c r="C337">
@@ -5376,7 +5388,7 @@
       <c r="A338">
         <v>7243</v>
       </c>
-      <c r="B338" s="11" t="s">
+      <c r="B338" s="17" t="s">
         <v>339</v>
       </c>
       <c r="C338">
@@ -5387,7 +5399,7 @@
       <c r="A339">
         <v>7244</v>
       </c>
-      <c r="B339" s="11" t="s">
+      <c r="B339" s="17" t="s">
         <v>340</v>
       </c>
       <c r="C339">
@@ -5398,7 +5410,7 @@
       <c r="A340">
         <v>7245</v>
       </c>
-      <c r="B340" s="11" t="s">
+      <c r="B340" s="17" t="s">
         <v>341</v>
       </c>
       <c r="C340">
@@ -5409,7 +5421,7 @@
       <c r="A341">
         <v>7246</v>
       </c>
-      <c r="B341" s="11" t="s">
+      <c r="B341" s="17" t="s">
         <v>342</v>
       </c>
       <c r="C341">
@@ -5420,7 +5432,7 @@
       <c r="A342">
         <v>7250</v>
       </c>
-      <c r="B342" s="11" t="s">
+      <c r="B342" s="17" t="s">
         <v>343</v>
       </c>
       <c r="C342">
@@ -5431,7 +5443,7 @@
       <c r="A343">
         <v>7251</v>
       </c>
-      <c r="B343" s="11" t="s">
+      <c r="B343" s="17" t="s">
         <v>344</v>
       </c>
       <c r="C343">
@@ -5442,7 +5454,7 @@
       <c r="A344">
         <v>7252</v>
       </c>
-      <c r="B344" s="11" t="s">
+      <c r="B344" s="17" t="s">
         <v>345</v>
       </c>
       <c r="C344">
@@ -5453,7 +5465,7 @@
       <c r="A345">
         <v>7253</v>
       </c>
-      <c r="B345" s="11" t="s">
+      <c r="B345" s="17" t="s">
         <v>346</v>
       </c>
       <c r="C345">
@@ -5464,7 +5476,7 @@
       <c r="A346">
         <v>7254</v>
       </c>
-      <c r="B346" s="11" t="s">
+      <c r="B346" s="17" t="s">
         <v>347</v>
       </c>
       <c r="C346">
@@ -5475,7 +5487,7 @@
       <c r="A347">
         <v>7255</v>
       </c>
-      <c r="B347" s="11" t="s">
+      <c r="B347" s="17" t="s">
         <v>348</v>
       </c>
       <c r="C347">
@@ -5486,7 +5498,7 @@
       <c r="A348">
         <v>7256</v>
       </c>
-      <c r="B348" s="11" t="s">
+      <c r="B348" s="17" t="s">
         <v>349</v>
       </c>
       <c r="C348">
@@ -5497,7 +5509,7 @@
       <c r="A349">
         <v>7257</v>
       </c>
-      <c r="B349" s="11" t="s">
+      <c r="B349" s="17" t="s">
         <v>350</v>
       </c>
       <c r="C349">
@@ -5508,7 +5520,7 @@
       <c r="A350">
         <v>7301</v>
       </c>
-      <c r="B350" s="11" t="s">
+      <c r="B350" s="17" t="s">
         <v>351</v>
       </c>
       <c r="C350">
@@ -5519,7 +5531,7 @@
       <c r="A351">
         <v>7311</v>
       </c>
-      <c r="B351" s="11" t="s">
+      <c r="B351" s="17" t="s">
         <v>352</v>
       </c>
       <c r="C351">
@@ -5530,7 +5542,7 @@
       <c r="A352">
         <v>7312</v>
       </c>
-      <c r="B352" s="11" t="s">
+      <c r="B352" s="17" t="s">
         <v>353</v>
       </c>
       <c r="C352">
@@ -5541,7 +5553,7 @@
       <c r="A353">
         <v>7313</v>
       </c>
-      <c r="B353" s="11" t="s">
+      <c r="B353" s="17" t="s">
         <v>354</v>
       </c>
       <c r="C353">
@@ -5552,7 +5564,7 @@
       <c r="A354">
         <v>7321</v>
       </c>
-      <c r="B354" s="11" t="s">
+      <c r="B354" s="17" t="s">
         <v>355</v>
       </c>
       <c r="C354">
@@ -5563,7 +5575,7 @@
       <c r="A355">
         <v>7401</v>
       </c>
-      <c r="B355" s="11" t="s">
+      <c r="B355" s="17" t="s">
         <v>356</v>
       </c>
       <c r="C355">
@@ -5574,7 +5586,7 @@
       <c r="A356">
         <v>7411</v>
       </c>
-      <c r="B356" s="11" t="s">
+      <c r="B356" s="17" t="s">
         <v>357</v>
       </c>
       <c r="C356">
@@ -5585,7 +5597,7 @@
       <c r="A357">
         <v>7421</v>
       </c>
-      <c r="B357" s="11" t="s">
+      <c r="B357" s="17" t="s">
         <v>358</v>
       </c>
       <c r="C357">
@@ -5596,7 +5608,7 @@
       <c r="A358">
         <v>7501</v>
       </c>
-      <c r="B358" s="11" t="s">
+      <c r="B358" s="17" t="s">
         <v>359</v>
       </c>
       <c r="C358">
@@ -5607,7 +5619,7 @@
       <c r="A359">
         <v>7502</v>
       </c>
-      <c r="B359" s="11" t="s">
+      <c r="B359" s="17" t="s">
         <v>360</v>
       </c>
       <c r="C359">
@@ -5618,7 +5630,7 @@
       <c r="A360">
         <v>7519</v>
       </c>
-      <c r="B360" s="11" t="s">
+      <c r="B360" s="17" t="s">
         <v>361</v>
       </c>
       <c r="C360">
@@ -5629,7 +5641,7 @@
       <c r="A361">
         <v>7521</v>
       </c>
-      <c r="B361" s="11" t="s">
+      <c r="B361" s="17" t="s">
         <v>362</v>
       </c>
       <c r="C361">
@@ -5640,7 +5652,7 @@
       <c r="A362">
         <v>7522</v>
       </c>
-      <c r="B362" s="11" t="s">
+      <c r="B362" s="17" t="s">
         <v>363</v>
       </c>
       <c r="C362">
@@ -5651,7 +5663,7 @@
       <c r="A363">
         <v>7523</v>
       </c>
-      <c r="B363" s="11" t="s">
+      <c r="B363" s="17" t="s">
         <v>364</v>
       </c>
       <c r="C363">
@@ -5662,7 +5674,7 @@
       <c r="A364">
         <v>7524</v>
       </c>
-      <c r="B364" s="11" t="s">
+      <c r="B364" s="17" t="s">
         <v>365</v>
       </c>
       <c r="C364">
@@ -5673,7 +5685,7 @@
       <c r="A365">
         <v>7601</v>
       </c>
-      <c r="B365" s="11" t="s">
+      <c r="B365" s="17" t="s">
         <v>366</v>
       </c>
       <c r="C365">
@@ -5684,7 +5696,7 @@
       <c r="A366">
         <v>7602</v>
       </c>
-      <c r="B366" s="11" t="s">
+      <c r="B366" s="17" t="s">
         <v>367</v>
       </c>
       <c r="C366">
@@ -5695,7 +5707,7 @@
       <c r="A367">
         <v>7603</v>
       </c>
-      <c r="B367" s="11" t="s">
+      <c r="B367" s="17" t="s">
         <v>368</v>
       </c>
       <c r="C367">
@@ -5706,7 +5718,7 @@
       <c r="A368">
         <v>7604</v>
       </c>
-      <c r="B368" s="11" t="s">
+      <c r="B368" s="17" t="s">
         <v>369</v>
       </c>
       <c r="C368">
@@ -5717,7 +5729,7 @@
       <c r="A369">
         <v>7605</v>
       </c>
-      <c r="B369" s="11" t="s">
+      <c r="B369" s="17" t="s">
         <v>370</v>
       </c>
       <c r="C369">
@@ -5728,7 +5740,7 @@
       <c r="A370">
         <v>7606</v>
       </c>
-      <c r="B370" s="11" t="s">
+      <c r="B370" s="17" t="s">
         <v>371</v>
       </c>
       <c r="C370">
@@ -5739,7 +5751,7 @@
       <c r="A371">
         <v>7610</v>
       </c>
-      <c r="B371" s="11" t="s">
+      <c r="B371" s="17" t="s">
         <v>372</v>
       </c>
       <c r="C371">
@@ -5750,7 +5762,7 @@
       <c r="A372">
         <v>7611</v>
       </c>
-      <c r="B372" s="11" t="s">
+      <c r="B372" s="17" t="s">
         <v>373</v>
       </c>
       <c r="C372">
@@ -5761,7 +5773,7 @@
       <c r="A373">
         <v>7612</v>
       </c>
-      <c r="B373" s="11" t="s">
+      <c r="B373" s="17" t="s">
         <v>374</v>
       </c>
       <c r="C373">
@@ -5772,7 +5784,7 @@
       <c r="A374">
         <v>7613</v>
       </c>
-      <c r="B374" s="11" t="s">
+      <c r="B374" s="17" t="s">
         <v>375</v>
       </c>
       <c r="C374">
@@ -5783,7 +5795,7 @@
       <c r="A375">
         <v>7614</v>
       </c>
-      <c r="B375" s="11" t="s">
+      <c r="B375" s="17" t="s">
         <v>376</v>
       </c>
       <c r="C375">
@@ -5794,7 +5806,7 @@
       <c r="A376">
         <v>7618</v>
       </c>
-      <c r="B376" s="11" t="s">
+      <c r="B376" s="17" t="s">
         <v>377</v>
       </c>
       <c r="C376">
@@ -5805,7 +5817,7 @@
       <c r="A377">
         <v>7620</v>
       </c>
-      <c r="B377" s="11" t="s">
+      <c r="B377" s="17" t="s">
         <v>378</v>
       </c>
       <c r="C377">
@@ -5816,7 +5828,7 @@
       <c r="A378">
         <v>7621</v>
       </c>
-      <c r="B378" s="11" t="s">
+      <c r="B378" s="17" t="s">
         <v>379</v>
       </c>
       <c r="C378">
@@ -5827,7 +5839,7 @@
       <c r="A379">
         <v>7622</v>
       </c>
-      <c r="B379" s="11" t="s">
+      <c r="B379" s="17" t="s">
         <v>380</v>
       </c>
       <c r="C379">
@@ -5838,7 +5850,7 @@
       <c r="A380">
         <v>7623</v>
       </c>
-      <c r="B380" s="11" t="s">
+      <c r="B380" s="17" t="s">
         <v>381</v>
       </c>
       <c r="C380">
@@ -5849,7 +5861,7 @@
       <c r="A381">
         <v>7630</v>
       </c>
-      <c r="B381" s="11" t="s">
+      <c r="B381" s="17" t="s">
         <v>382</v>
       </c>
       <c r="C381">
@@ -5860,7 +5872,7 @@
       <c r="A382">
         <v>7631</v>
       </c>
-      <c r="B382" s="11" t="s">
+      <c r="B382" s="17" t="s">
         <v>383</v>
       </c>
       <c r="C382">
@@ -5871,7 +5883,7 @@
       <c r="A383">
         <v>7632</v>
       </c>
-      <c r="B383" s="11" t="s">
+      <c r="B383" s="17" t="s">
         <v>384</v>
       </c>
       <c r="C383">
@@ -5882,7 +5894,7 @@
       <c r="A384">
         <v>7633</v>
       </c>
-      <c r="B384" s="11" t="s">
+      <c r="B384" s="17" t="s">
         <v>385</v>
       </c>
       <c r="C384">
@@ -5893,7 +5905,7 @@
       <c r="A385">
         <v>7640</v>
       </c>
-      <c r="B385" s="11" t="s">
+      <c r="B385" s="17" t="s">
         <v>386</v>
       </c>
       <c r="C385">
@@ -5904,7 +5916,7 @@
       <c r="A386">
         <v>7641</v>
       </c>
-      <c r="B386" s="11" t="s">
+      <c r="B386" s="17" t="s">
         <v>387</v>
       </c>
       <c r="C386">
@@ -5915,7 +5927,7 @@
       <c r="A387">
         <v>7642</v>
       </c>
-      <c r="B387" s="11" t="s">
+      <c r="B387" s="17" t="s">
         <v>388</v>
       </c>
       <c r="C387">
@@ -5926,7 +5938,7 @@
       <c r="A388">
         <v>7643</v>
       </c>
-      <c r="B388" s="11" t="s">
+      <c r="B388" s="17" t="s">
         <v>389</v>
       </c>
       <c r="C388">
@@ -5937,7 +5949,7 @@
       <c r="A389">
         <v>7650</v>
       </c>
-      <c r="B389" s="11" t="s">
+      <c r="B389" s="17" t="s">
         <v>390</v>
       </c>
       <c r="C389">
@@ -5948,7 +5960,7 @@
       <c r="A390">
         <v>7651</v>
       </c>
-      <c r="B390" s="11" t="s">
+      <c r="B390" s="17" t="s">
         <v>391</v>
       </c>
       <c r="C390">
@@ -5959,7 +5971,7 @@
       <c r="A391">
         <v>7652</v>
       </c>
-      <c r="B391" s="11" t="s">
+      <c r="B391" s="17" t="s">
         <v>392</v>
       </c>
       <c r="C391">
@@ -5970,7 +5982,7 @@
       <c r="A392">
         <v>7653</v>
       </c>
-      <c r="B392" s="11" t="s">
+      <c r="B392" s="17" t="s">
         <v>393</v>
       </c>
       <c r="C392">
@@ -5981,7 +5993,7 @@
       <c r="A393">
         <v>7654</v>
       </c>
-      <c r="B393" s="11" t="s">
+      <c r="B393" s="17" t="s">
         <v>394</v>
       </c>
       <c r="C393">
@@ -5992,7 +6004,7 @@
       <c r="A394">
         <v>7660</v>
       </c>
-      <c r="B394" s="11" t="s">
+      <c r="B394" s="17" t="s">
         <v>395</v>
       </c>
       <c r="C394">
@@ -6003,7 +6015,7 @@
       <c r="A395">
         <v>7661</v>
       </c>
-      <c r="B395" s="11" t="s">
+      <c r="B395" s="17" t="s">
         <v>396</v>
       </c>
       <c r="C395">
@@ -6014,7 +6026,7 @@
       <c r="A396">
         <v>7662</v>
       </c>
-      <c r="B396" s="11" t="s">
+      <c r="B396" s="17" t="s">
         <v>397</v>
       </c>
       <c r="C396">
@@ -6025,7 +6037,7 @@
       <c r="A397">
         <v>7663</v>
       </c>
-      <c r="B397" s="11" t="s">
+      <c r="B397" s="17" t="s">
         <v>398</v>
       </c>
       <c r="C397">
@@ -6036,7 +6048,7 @@
       <c r="A398">
         <v>7664</v>
       </c>
-      <c r="B398" s="11" t="s">
+      <c r="B398" s="17" t="s">
         <v>399</v>
       </c>
       <c r="C398">
@@ -6047,7 +6059,7 @@
       <c r="A399">
         <v>7681</v>
       </c>
-      <c r="B399" s="11" t="s">
+      <c r="B399" s="17" t="s">
         <v>400</v>
       </c>
       <c r="C399">
@@ -6058,7 +6070,7 @@
       <c r="A400">
         <v>7682</v>
       </c>
-      <c r="B400" s="11" t="s">
+      <c r="B400" s="17" t="s">
         <v>401</v>
       </c>
       <c r="C400">
@@ -6069,7 +6081,7 @@
       <c r="A401">
         <v>7683</v>
       </c>
-      <c r="B401" s="11" t="s">
+      <c r="B401" s="17" t="s">
         <v>402</v>
       </c>
       <c r="C401">
@@ -6080,7 +6092,7 @@
       <c r="A402">
         <v>7686</v>
       </c>
-      <c r="B402" s="11" t="s">
+      <c r="B402" s="17" t="s">
         <v>403</v>
       </c>
       <c r="C402">
@@ -6091,7 +6103,7 @@
       <c r="A403">
         <v>7687</v>
       </c>
-      <c r="B403" s="11" t="s">
+      <c r="B403" s="17" t="s">
         <v>404</v>
       </c>
       <c r="C403">
@@ -6102,7 +6114,7 @@
       <c r="A404">
         <v>7701</v>
       </c>
-      <c r="B404" s="11" t="s">
+      <c r="B404" s="17" t="s">
         <v>405</v>
       </c>
       <c r="C404">
@@ -6113,7 +6125,7 @@
       <c r="A405">
         <v>7711</v>
       </c>
-      <c r="B405" s="11" t="s">
+      <c r="B405" s="17" t="s">
         <v>406</v>
       </c>
       <c r="C405">
@@ -6124,7 +6136,7 @@
       <c r="A406">
         <v>7721</v>
       </c>
-      <c r="B406" s="11" t="s">
+      <c r="B406" s="17" t="s">
         <v>407</v>
       </c>
       <c r="C406">
@@ -6135,7 +6147,7 @@
       <c r="A407">
         <v>7731</v>
       </c>
-      <c r="B407" s="11" t="s">
+      <c r="B407" s="17" t="s">
         <v>408</v>
       </c>
       <c r="C407">
@@ -6146,7 +6158,7 @@
       <c r="A408">
         <v>7732</v>
       </c>
-      <c r="B408" s="11" t="s">
+      <c r="B408" s="17" t="s">
         <v>409</v>
       </c>
       <c r="C408">
@@ -6157,7 +6169,7 @@
       <c r="A409">
         <v>7733</v>
       </c>
-      <c r="B409" s="11" t="s">
+      <c r="B409" s="17" t="s">
         <v>410</v>
       </c>
       <c r="C409">
@@ -6168,7 +6180,7 @@
       <c r="A410">
         <v>7734</v>
       </c>
-      <c r="B410" s="11" t="s">
+      <c r="B410" s="17" t="s">
         <v>411</v>
       </c>
       <c r="C410">
@@ -6179,7 +6191,7 @@
       <c r="A411">
         <v>7735</v>
       </c>
-      <c r="B411" s="11" t="s">
+      <c r="B411" s="17" t="s">
         <v>412</v>
       </c>
       <c r="C411">
@@ -6190,7 +6202,7 @@
       <c r="A412">
         <v>7741</v>
       </c>
-      <c r="B412" s="11" t="s">
+      <c r="B412" s="17" t="s">
         <v>413</v>
       </c>
       <c r="C412">
@@ -6201,7 +6213,7 @@
       <c r="A413">
         <v>7751</v>
       </c>
-      <c r="B413" s="11" t="s">
+      <c r="B413" s="17" t="s">
         <v>414</v>
       </c>
       <c r="C413">
@@ -6212,7 +6224,7 @@
       <c r="A414">
         <v>7764</v>
       </c>
-      <c r="B414" s="11" t="s">
+      <c r="B414" s="17" t="s">
         <v>415</v>
       </c>
       <c r="C414">
@@ -6223,7 +6235,7 @@
       <c r="A415">
         <v>7771</v>
       </c>
-      <c r="B415" s="11" t="s">
+      <c r="B415" s="17" t="s">
         <v>416</v>
       </c>
       <c r="C415">
@@ -6234,7 +6246,7 @@
       <c r="A416">
         <v>7772</v>
       </c>
-      <c r="B416" s="11" t="s">
+      <c r="B416" s="17" t="s">
         <v>417</v>
       </c>
       <c r="C416">
@@ -6245,7 +6257,7 @@
       <c r="A417">
         <v>7801</v>
       </c>
-      <c r="B417" s="11" t="s">
+      <c r="B417" s="17" t="s">
         <v>418</v>
       </c>
       <c r="C417">
@@ -6256,7 +6268,7 @@
       <c r="A418">
         <v>7811</v>
       </c>
-      <c r="B418" s="11" t="s">
+      <c r="B418" s="17" t="s">
         <v>419</v>
       </c>
       <c r="C418">
@@ -6267,7 +6279,7 @@
       <c r="A419">
         <v>7813</v>
       </c>
-      <c r="B419" s="11" t="s">
+      <c r="B419" s="17" t="s">
         <v>420</v>
       </c>
       <c r="C419">
@@ -6278,7 +6290,7 @@
       <c r="A420">
         <v>7817</v>
       </c>
-      <c r="B420" s="11" t="s">
+      <c r="B420" s="17" t="s">
         <v>421</v>
       </c>
       <c r="C420">
@@ -6289,7 +6301,7 @@
       <c r="A421">
         <v>7820</v>
       </c>
-      <c r="B421" s="11" t="s">
+      <c r="B421" s="17" t="s">
         <v>422</v>
       </c>
       <c r="C421">
@@ -6300,7 +6312,7 @@
       <c r="A422">
         <v>7821</v>
       </c>
-      <c r="B422" s="11" t="s">
+      <c r="B422" s="17" t="s">
         <v>423</v>
       </c>
       <c r="C422">
@@ -6311,7 +6323,7 @@
       <c r="A423">
         <v>7822</v>
       </c>
-      <c r="B423" s="11" t="s">
+      <c r="B423" s="17" t="s">
         <v>424</v>
       </c>
       <c r="C423">
@@ -6322,7 +6334,7 @@
       <c r="A424">
         <v>7823</v>
       </c>
-      <c r="B424" s="11" t="s">
+      <c r="B424" s="17" t="s">
         <v>425</v>
       </c>
       <c r="C424">
@@ -6333,7 +6345,7 @@
       <c r="A425">
         <v>7824</v>
       </c>
-      <c r="B425" s="11" t="s">
+      <c r="B425" s="17" t="s">
         <v>426</v>
       </c>
       <c r="C425">
@@ -6344,7 +6356,7 @@
       <c r="A426">
         <v>7825</v>
       </c>
-      <c r="B426" s="11" t="s">
+      <c r="B426" s="17" t="s">
         <v>427</v>
       </c>
       <c r="C426">
@@ -6355,7 +6367,7 @@
       <c r="A427">
         <v>7826</v>
       </c>
-      <c r="B427" s="11" t="s">
+      <c r="B427" s="17" t="s">
         <v>428</v>
       </c>
       <c r="C427">
@@ -6366,7 +6378,7 @@
       <c r="A428">
         <v>7827</v>
       </c>
-      <c r="B428" s="11" t="s">
+      <c r="B428" s="17" t="s">
         <v>429</v>
       </c>
       <c r="C428">
@@ -6377,7 +6389,7 @@
       <c r="A429">
         <v>7828</v>
       </c>
-      <c r="B429" s="11" t="s">
+      <c r="B429" s="17" t="s">
         <v>430</v>
       </c>
       <c r="C429">
@@ -6388,7 +6400,7 @@
       <c r="A430">
         <v>7831</v>
       </c>
-      <c r="B430" s="11" t="s">
+      <c r="B430" s="17" t="s">
         <v>431</v>
       </c>
       <c r="C430">
@@ -6399,7 +6411,7 @@
       <c r="A431">
         <v>7832</v>
       </c>
-      <c r="B431" s="11" t="s">
+      <c r="B431" s="17" t="s">
         <v>432</v>
       </c>
       <c r="C431">
@@ -6410,7 +6422,7 @@
       <c r="A432">
         <v>7841</v>
       </c>
-      <c r="B432" s="11" t="s">
+      <c r="B432" s="17" t="s">
         <v>433</v>
       </c>
       <c r="C432">
@@ -6421,7 +6433,7 @@
       <c r="A433">
         <v>7842</v>
       </c>
-      <c r="B433" s="11" t="s">
+      <c r="B433" s="17" t="s">
         <v>434</v>
       </c>
       <c r="C433">
@@ -6432,7 +6444,7 @@
       <c r="A434">
         <v>-1</v>
       </c>
-      <c r="B434" s="11" t="s">
+      <c r="B434" s="17" t="s">
         <v>300</v>
       </c>
       <c r="C434">
@@ -6443,7 +6455,7 @@
       <c r="A435">
         <v>8101</v>
       </c>
-      <c r="B435" s="11" t="s">
+      <c r="B435" s="17" t="s">
         <v>435</v>
       </c>
       <c r="C435">
@@ -6454,7 +6466,7 @@
       <c r="A436">
         <v>8102</v>
       </c>
-      <c r="B436" s="11" t="s">
+      <c r="B436" s="17" t="s">
         <v>436</v>
       </c>
       <c r="C436">
@@ -6465,7 +6477,7 @@
       <c r="A437">
         <v>8103</v>
       </c>
-      <c r="B437" s="11" t="s">
+      <c r="B437" s="17" t="s">
         <v>437</v>
       </c>
       <c r="C437">
@@ -6476,7 +6488,7 @@
       <c r="A438">
         <v>8110</v>
       </c>
-      <c r="B438" s="11" t="s">
+      <c r="B438" s="17" t="s">
         <v>438</v>
       </c>
       <c r="C438">
@@ -6487,7 +6499,7 @@
       <c r="A439">
         <v>8111</v>
       </c>
-      <c r="B439" s="11" t="s">
+      <c r="B439" s="17" t="s">
         <v>439</v>
       </c>
       <c r="C439">
@@ -6498,7 +6510,7 @@
       <c r="A440">
         <v>8112</v>
       </c>
-      <c r="B440" s="11" t="s">
+      <c r="B440" s="17" t="s">
         <v>440</v>
       </c>
       <c r="C440">
@@ -6509,7 +6521,7 @@
       <c r="A441">
         <v>8113</v>
       </c>
-      <c r="B441" s="11" t="s">
+      <c r="B441" s="17" t="s">
         <v>441</v>
       </c>
       <c r="C441">
@@ -6520,7 +6532,7 @@
       <c r="A442">
         <v>8114</v>
       </c>
-      <c r="B442" s="11" t="s">
+      <c r="B442" s="17" t="s">
         <v>442</v>
       </c>
       <c r="C442">
@@ -6531,7 +6543,7 @@
       <c r="A443">
         <v>8115</v>
       </c>
-      <c r="B443" s="11" t="s">
+      <c r="B443" s="17" t="s">
         <v>443</v>
       </c>
       <c r="C443">
@@ -6542,7 +6554,7 @@
       <c r="A444">
         <v>8116</v>
       </c>
-      <c r="B444" s="11" t="s">
+      <c r="B444" s="17" t="s">
         <v>444</v>
       </c>
       <c r="C444">
@@ -6553,7 +6565,7 @@
       <c r="A445">
         <v>8117</v>
       </c>
-      <c r="B445" s="11" t="s">
+      <c r="B445" s="17" t="s">
         <v>445</v>
       </c>
       <c r="C445">
@@ -6564,7 +6576,7 @@
       <c r="A446">
         <v>8118</v>
       </c>
-      <c r="B446" s="11" t="s">
+      <c r="B446" s="17" t="s">
         <v>446</v>
       </c>
       <c r="C446">
@@ -6575,7 +6587,7 @@
       <c r="A447">
         <v>8121</v>
       </c>
-      <c r="B447" s="11" t="s">
+      <c r="B447" s="17" t="s">
         <v>447</v>
       </c>
       <c r="C447">
@@ -6586,7 +6598,7 @@
       <c r="A448">
         <v>8131</v>
       </c>
-      <c r="B448" s="11" t="s">
+      <c r="B448" s="17" t="s">
         <v>448</v>
       </c>
       <c r="C448">
@@ -6597,7 +6609,7 @@
       <c r="A449">
         <v>8181</v>
       </c>
-      <c r="B449" s="11" t="s">
+      <c r="B449" s="17" t="s">
         <v>449</v>
       </c>
       <c r="C449">
@@ -6608,7 +6620,7 @@
       <c r="A450">
         <v>8201</v>
       </c>
-      <c r="B450" s="11" t="s">
+      <c r="B450" s="17" t="s">
         <v>450</v>
       </c>
       <c r="C450">
@@ -6619,7 +6631,7 @@
       <c r="A451">
         <v>8202</v>
       </c>
-      <c r="B451" s="11" t="s">
+      <c r="B451" s="17" t="s">
         <v>451</v>
       </c>
       <c r="C451">
@@ -6630,7 +6642,7 @@
       <c r="A452">
         <v>8211</v>
       </c>
-      <c r="B452" s="11" t="s">
+      <c r="B452" s="17" t="s">
         <v>452</v>
       </c>
       <c r="C452">
@@ -6641,7 +6653,7 @@
       <c r="A453">
         <v>8212</v>
       </c>
-      <c r="B453" s="11" t="s">
+      <c r="B453" s="17" t="s">
         <v>453</v>
       </c>
       <c r="C453">
@@ -6652,7 +6664,7 @@
       <c r="A454">
         <v>8213</v>
       </c>
-      <c r="B454" s="11" t="s">
+      <c r="B454" s="17" t="s">
         <v>454</v>
       </c>
       <c r="C454">
@@ -6663,7 +6675,7 @@
       <c r="A455">
         <v>8214</v>
       </c>
-      <c r="B455" s="11" t="s">
+      <c r="B455" s="17" t="s">
         <v>455</v>
       </c>
       <c r="C455">
@@ -6674,7 +6686,7 @@
       <c r="A456">
         <v>8221</v>
       </c>
-      <c r="B456" s="11" t="s">
+      <c r="B456" s="17" t="s">
         <v>456</v>
       </c>
       <c r="C456">
@@ -6685,7 +6697,7 @@
       <c r="A457">
         <v>8231</v>
       </c>
-      <c r="B457" s="11" t="s">
+      <c r="B457" s="17" t="s">
         <v>457</v>
       </c>
       <c r="C457">
@@ -6696,7 +6708,7 @@
       <c r="A458">
         <v>8232</v>
       </c>
-      <c r="B458" s="11" t="s">
+      <c r="B458" s="17" t="s">
         <v>458</v>
       </c>
       <c r="C458">
@@ -6707,7 +6719,7 @@
       <c r="A459">
         <v>8233</v>
       </c>
-      <c r="B459" s="11" t="s">
+      <c r="B459" s="17" t="s">
         <v>459</v>
       </c>
       <c r="C459">
@@ -6718,7 +6730,7 @@
       <c r="A460">
         <v>8281</v>
       </c>
-      <c r="B460" s="11" t="s">
+      <c r="B460" s="17" t="s">
         <v>460</v>
       </c>
       <c r="C460">
@@ -6729,7 +6741,7 @@
       <c r="A461">
         <v>8301</v>
       </c>
-      <c r="B461" s="11" t="s">
+      <c r="B461" s="17" t="s">
         <v>461</v>
       </c>
       <c r="C461">
@@ -6740,7 +6752,7 @@
       <c r="A462">
         <v>8311</v>
       </c>
-      <c r="B462" s="11" t="s">
+      <c r="B462" s="17" t="s">
         <v>462</v>
       </c>
       <c r="C462">
@@ -6751,7 +6763,7 @@
       <c r="A463">
         <v>8321</v>
       </c>
-      <c r="B463" s="11" t="s">
+      <c r="B463" s="17" t="s">
         <v>463</v>
       </c>
       <c r="C463">
@@ -6762,7 +6774,7 @@
       <c r="A464">
         <v>8339</v>
       </c>
-      <c r="B464" s="11" t="s">
+      <c r="B464" s="17" t="s">
         <v>464</v>
       </c>
       <c r="C464">
@@ -6773,7 +6785,7 @@
       <c r="A465">
         <v>8401</v>
       </c>
-      <c r="B465" s="11" t="s">
+      <c r="B465" s="17" t="s">
         <v>465</v>
       </c>
       <c r="C465">
@@ -6784,7 +6796,7 @@
       <c r="A466">
         <v>8411</v>
       </c>
-      <c r="B466" s="11" t="s">
+      <c r="B466" s="17" t="s">
         <v>466</v>
       </c>
       <c r="C466">
@@ -6795,7 +6807,7 @@
       <c r="A467">
         <v>8412</v>
       </c>
-      <c r="B467" s="11" t="s">
+      <c r="B467" s="17" t="s">
         <v>467</v>
       </c>
       <c r="C467">
@@ -6806,7 +6818,7 @@
       <c r="A468">
         <v>8413</v>
       </c>
-      <c r="B468" s="11" t="s">
+      <c r="B468" s="17" t="s">
         <v>468</v>
       </c>
       <c r="C468">
@@ -6817,7 +6829,7 @@
       <c r="A469">
         <v>8416</v>
       </c>
-      <c r="B469" s="11" t="s">
+      <c r="B469" s="17" t="s">
         <v>469</v>
       </c>
       <c r="C469">
@@ -6828,7 +6840,7 @@
       <c r="A470">
         <v>8417</v>
       </c>
-      <c r="B470" s="11" t="s">
+      <c r="B470" s="17" t="s">
         <v>470</v>
       </c>
       <c r="C470">
@@ -6839,7 +6851,7 @@
       <c r="A471">
         <v>8421</v>
       </c>
-      <c r="B471" s="11" t="s">
+      <c r="B471" s="17" t="s">
         <v>471</v>
       </c>
       <c r="C471">
@@ -6850,7 +6862,7 @@
       <c r="A472">
         <v>8423</v>
       </c>
-      <c r="B472" s="11" t="s">
+      <c r="B472" s="17" t="s">
         <v>472</v>
       </c>
       <c r="C472">
@@ -6861,7 +6873,7 @@
       <c r="A473">
         <v>8429</v>
       </c>
-      <c r="B473" s="11" t="s">
+      <c r="B473" s="17" t="s">
         <v>473</v>
       </c>
       <c r="C473">
@@ -6872,7 +6884,7 @@
       <c r="A474">
         <v>8484</v>
       </c>
-      <c r="B474" s="11" t="s">
+      <c r="B474" s="17" t="s">
         <v>474</v>
       </c>
       <c r="C474">
@@ -6883,7 +6895,7 @@
       <c r="A475">
         <v>8485</v>
       </c>
-      <c r="B475" s="11" t="s">
+      <c r="B475" s="17" t="s">
         <v>475</v>
       </c>
       <c r="C475">
@@ -6894,7 +6906,7 @@
       <c r="A476">
         <v>8491</v>
       </c>
-      <c r="B476" s="11" t="s">
+      <c r="B476" s="17" t="s">
         <v>476</v>
       </c>
       <c r="C476">
@@ -6905,7 +6917,7 @@
       <c r="A477">
         <v>8492</v>
       </c>
-      <c r="B477" s="11" t="s">
+      <c r="B477" s="17" t="s">
         <v>477</v>
       </c>
       <c r="C477">
@@ -6916,7 +6928,7 @@
       <c r="A478">
         <v>8493</v>
       </c>
-      <c r="B478" s="11" t="s">
+      <c r="B478" s="17" t="s">
         <v>478</v>
       </c>
       <c r="C478">
@@ -6927,7 +6939,7 @@
       <c r="A479">
         <v>8601</v>
       </c>
-      <c r="B479" s="11" t="s">
+      <c r="B479" s="17" t="s">
         <v>479</v>
       </c>
       <c r="C479">
@@ -6938,7 +6950,7 @@
       <c r="A480">
         <v>8611</v>
       </c>
-      <c r="B480" s="11" t="s">
+      <c r="B480" s="17" t="s">
         <v>480</v>
       </c>
       <c r="C480">
@@ -6949,7 +6961,7 @@
       <c r="A481">
         <v>8612</v>
       </c>
-      <c r="B481" s="11" t="s">
+      <c r="B481" s="17" t="s">
         <v>481</v>
       </c>
       <c r="C481">
@@ -6960,7 +6972,7 @@
       <c r="A482">
         <v>8621</v>
       </c>
-      <c r="B482" s="11" t="s">
+      <c r="B482" s="17" t="s">
         <v>482</v>
       </c>
       <c r="C482">
@@ -6971,7 +6983,7 @@
       <c r="A483">
         <v>8622</v>
       </c>
-      <c r="B483" s="11" t="s">
+      <c r="B483" s="17" t="s">
         <v>483</v>
       </c>
       <c r="C483">
@@ -6982,7 +6994,7 @@
       <c r="A484">
         <v>8623</v>
       </c>
-      <c r="B484" s="11" t="s">
+      <c r="B484" s="17" t="s">
         <v>484</v>
       </c>
       <c r="C484">
@@ -6993,7 +7005,7 @@
       <c r="A485">
         <v>8624</v>
       </c>
-      <c r="B485" s="11" t="s">
+      <c r="B485" s="17" t="s">
         <v>485</v>
       </c>
       <c r="C485">
@@ -7004,7 +7016,7 @@
       <c r="A486">
         <v>8625</v>
       </c>
-      <c r="B486" s="11" t="s">
+      <c r="B486" s="17" t="s">
         <v>486</v>
       </c>
       <c r="C486">
@@ -7015,7 +7027,7 @@
       <c r="A487">
         <v>8711</v>
       </c>
-      <c r="B487" s="11" t="s">
+      <c r="B487" s="17" t="s">
         <v>487</v>
       </c>
       <c r="C487">
@@ -7026,7 +7038,7 @@
       <c r="A488">
         <v>-1</v>
       </c>
-      <c r="B488" s="11" t="s">
+      <c r="B488" s="17" t="s">
         <v>488</v>
       </c>
       <c r="C488">
@@ -7037,7 +7049,7 @@
       <c r="A489">
         <v>9101</v>
       </c>
-      <c r="B489" s="11" t="s">
+      <c r="B489" s="17" t="s">
         <v>489</v>
       </c>
       <c r="C489">
@@ -7048,7 +7060,7 @@
       <c r="A490">
         <v>9102</v>
       </c>
-      <c r="B490" s="11" t="s">
+      <c r="B490" s="17" t="s">
         <v>490</v>
       </c>
       <c r="C490">
@@ -7059,7 +7071,7 @@
       <c r="A491">
         <v>9109</v>
       </c>
-      <c r="B491" s="11" t="s">
+      <c r="B491" s="17" t="s">
         <v>491</v>
       </c>
       <c r="C491">
@@ -7070,7 +7082,7 @@
       <c r="A492">
         <v>9111</v>
       </c>
-      <c r="B492" s="11" t="s">
+      <c r="B492" s="17" t="s">
         <v>492</v>
       </c>
       <c r="C492">
@@ -7081,7 +7093,7 @@
       <c r="A493">
         <v>9112</v>
       </c>
-      <c r="B493" s="11" t="s">
+      <c r="B493" s="17" t="s">
         <v>493</v>
       </c>
       <c r="C493">
@@ -7092,7 +7104,7 @@
       <c r="A494">
         <v>9113</v>
       </c>
-      <c r="B494" s="11" t="s">
+      <c r="B494" s="17" t="s">
         <v>494</v>
       </c>
       <c r="C494">
@@ -7103,7 +7115,7 @@
       <c r="A495">
         <v>9131</v>
       </c>
-      <c r="B495" s="11" t="s">
+      <c r="B495" s="17" t="s">
         <v>495</v>
       </c>
       <c r="C495">
@@ -7114,7 +7126,7 @@
       <c r="A496">
         <v>9141</v>
       </c>
-      <c r="B496" s="11" t="s">
+      <c r="B496" s="17" t="s">
         <v>496</v>
       </c>
       <c r="C496">
@@ -7125,7 +7137,7 @@
       <c r="A497">
         <v>9142</v>
       </c>
-      <c r="B497" s="11" t="s">
+      <c r="B497" s="17" t="s">
         <v>497</v>
       </c>
       <c r="C497">
@@ -7136,7 +7148,7 @@
       <c r="A498">
         <v>9143</v>
       </c>
-      <c r="B498" s="11" t="s">
+      <c r="B498" s="17" t="s">
         <v>498</v>
       </c>
       <c r="C498">
@@ -7147,7 +7159,7 @@
       <c r="A499">
         <v>9144</v>
       </c>
-      <c r="B499" s="11" t="s">
+      <c r="B499" s="17" t="s">
         <v>499</v>
       </c>
       <c r="C499">
@@ -7158,7 +7170,7 @@
       <c r="A500">
         <v>9151</v>
       </c>
-      <c r="B500" s="11" t="s">
+      <c r="B500" s="17" t="s">
         <v>500</v>
       </c>
       <c r="C500">
@@ -7169,7 +7181,7 @@
       <c r="A501">
         <v>9152</v>
       </c>
-      <c r="B501" s="11" t="s">
+      <c r="B501" s="17" t="s">
         <v>501</v>
       </c>
       <c r="C501">
@@ -7180,7 +7192,7 @@
       <c r="A502">
         <v>9153</v>
       </c>
-      <c r="B502" s="11" t="s">
+      <c r="B502" s="17" t="s">
         <v>502</v>
       </c>
       <c r="C502">
@@ -7191,7 +7203,7 @@
       <c r="A503">
         <v>9154</v>
       </c>
-      <c r="B503" s="11" t="s">
+      <c r="B503" s="17" t="s">
         <v>503</v>
       </c>
       <c r="C503">
@@ -7202,7 +7214,7 @@
       <c r="A504">
         <v>9191</v>
       </c>
-      <c r="B504" s="11" t="s">
+      <c r="B504" s="17" t="s">
         <v>504</v>
       </c>
       <c r="C504">
@@ -7213,7 +7225,7 @@
       <c r="A505">
         <v>9192</v>
       </c>
-      <c r="B505" s="11" t="s">
+      <c r="B505" s="17" t="s">
         <v>505</v>
       </c>
       <c r="C505">
@@ -7224,7 +7236,7 @@
       <c r="A506">
         <v>9193</v>
       </c>
-      <c r="B506" s="11" t="s">
+      <c r="B506" s="17" t="s">
         <v>506</v>
       </c>
       <c r="C506">
@@ -7235,7 +7247,7 @@
       <c r="A507">
         <v>9501</v>
       </c>
-      <c r="B507" s="11" t="s">
+      <c r="B507" s="17" t="s">
         <v>507</v>
       </c>
       <c r="C507">
@@ -7246,7 +7258,7 @@
       <c r="A508">
         <v>9502</v>
       </c>
-      <c r="B508" s="11" t="s">
+      <c r="B508" s="17" t="s">
         <v>508</v>
       </c>
       <c r="C508">
@@ -7257,7 +7269,7 @@
       <c r="A509">
         <v>9503</v>
       </c>
-      <c r="B509" s="11" t="s">
+      <c r="B509" s="17" t="s">
         <v>509</v>
       </c>
       <c r="C509">
@@ -7268,7 +7280,7 @@
       <c r="A510">
         <v>9511</v>
       </c>
-      <c r="B510" s="11" t="s">
+      <c r="B510" s="17" t="s">
         <v>510</v>
       </c>
       <c r="C510">
@@ -7279,7 +7291,7 @@
       <c r="A511">
         <v>9513</v>
       </c>
-      <c r="B511" s="11" t="s">
+      <c r="B511" s="17" t="s">
         <v>511</v>
       </c>
       <c r="C511">
@@ -7290,7 +7302,7 @@
       <c r="A512">
         <v>9531</v>
       </c>
-      <c r="B512" s="11" t="s">
+      <c r="B512" s="17" t="s">
         <v>512</v>
       </c>
       <c r="C512">
@@ -7301,7 +7313,7 @@
       <c r="A513">
         <v>9541</v>
       </c>
-      <c r="B513" s="11" t="s">
+      <c r="B513" s="17" t="s">
         <v>513</v>
       </c>
       <c r="C513">
@@ -7312,7 +7324,7 @@
       <c r="A514">
         <v>9542</v>
       </c>
-      <c r="B514" s="11" t="s">
+      <c r="B514" s="17" t="s">
         <v>514</v>
       </c>
       <c r="C514">
@@ -7323,7 +7335,7 @@
       <c r="A515">
         <v>9543</v>
       </c>
-      <c r="B515" s="11" t="s">
+      <c r="B515" s="17" t="s">
         <v>515</v>
       </c>
       <c r="C515">
@@ -7334,7 +7346,7 @@
       <c r="A516">
         <v>9911</v>
       </c>
-      <c r="B516" s="11" t="s">
+      <c r="B516" s="17" t="s">
         <v>516</v>
       </c>
       <c r="C516">
@@ -7345,7 +7357,7 @@
       <c r="A517">
         <v>9912</v>
       </c>
-      <c r="B517" s="11" t="s">
+      <c r="B517" s="17" t="s">
         <v>517</v>
       </c>
       <c r="C517">
@@ -7356,7 +7368,7 @@
       <c r="A518">
         <v>9913</v>
       </c>
-      <c r="B518" s="11" t="s">
+      <c r="B518" s="17" t="s">
         <v>518</v>
       </c>
       <c r="C518">
@@ -7367,7 +7379,7 @@
       <c r="A519">
         <v>9914</v>
       </c>
-      <c r="B519" s="11" t="s">
+      <c r="B519" s="17" t="s">
         <v>519</v>
       </c>
       <c r="C519">
@@ -7378,7 +7390,7 @@
       <c r="A520">
         <v>9921</v>
       </c>
-      <c r="B520" s="11" t="s">
+      <c r="B520" s="17" t="s">
         <v>520</v>
       </c>
       <c r="C520">
@@ -7389,7 +7401,7 @@
       <c r="A521">
         <v>9922</v>
       </c>
-      <c r="B521" s="11" t="s">
+      <c r="B521" s="17" t="s">
         <v>521</v>
       </c>
       <c r="C521">
@@ -7400,7 +7412,7 @@
       <c r="A522">
         <v>-1</v>
       </c>
-      <c r="B522" s="11" t="s">
+      <c r="B522" s="17" t="s">
         <v>522</v>
       </c>
       <c r="C522">
@@ -7411,7 +7423,7 @@
       <c r="A523">
         <v>9999</v>
       </c>
-      <c r="B523" s="11" t="s">
+      <c r="B523" s="17" t="s">
         <v>523</v>
       </c>
       <c r="C523">

--- a/+dataLH/test_files/readTest.xlsx
+++ b/+dataLH/test_files/readTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4745" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7370" uniqueCount="525">
   <si>
     <t>Code</t>
   </si>
@@ -1610,7 +1610,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1636,11 +1636,21 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1660,6 +1670,16 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1678,13 +1698,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="27" t="s">
         <v>524</v>
       </c>
     </row>
@@ -1692,7 +1712,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C2">
@@ -1703,7 +1723,7 @@
       <c r="A3">
         <v>-1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -1714,7 +1734,7 @@
       <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -1725,7 +1745,7 @@
       <c r="A5">
         <v>200</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C5">
@@ -1736,7 +1756,7 @@
       <c r="A6">
         <v>300</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C6">
@@ -1747,7 +1767,7 @@
       <c r="A7">
         <v>401</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C7">
@@ -1758,7 +1778,7 @@
       <c r="A8">
         <v>402</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C8">
@@ -1769,7 +1789,7 @@
       <c r="A9">
         <v>403</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C9">
@@ -1780,7 +1800,7 @@
       <c r="A10">
         <v>411</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C10">
@@ -1791,7 +1811,7 @@
       <c r="A11">
         <v>412</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C11">
@@ -1802,7 +1822,7 @@
       <c r="A12">
         <v>413</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C12">
@@ -1813,7 +1833,7 @@
       <c r="A13">
         <v>501</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C13">
@@ -1824,7 +1844,7 @@
       <c r="A14">
         <v>502</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C14">
@@ -1835,7 +1855,7 @@
       <c r="A15">
         <v>503</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C15">
@@ -1846,7 +1866,7 @@
       <c r="A16">
         <v>511</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C16">
@@ -1857,7 +1877,7 @@
       <c r="A17">
         <v>512</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C17">
@@ -1868,7 +1888,7 @@
       <c r="A18">
         <v>513</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C18">
@@ -1879,7 +1899,7 @@
       <c r="A19">
         <v>-1</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C19">
@@ -1890,7 +1910,7 @@
       <c r="A20">
         <v>1111</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C20">
@@ -1901,7 +1921,7 @@
       <c r="A21">
         <v>1112</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C21">
@@ -1912,7 +1932,7 @@
       <c r="A22">
         <v>1113</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="27" t="s">
         <v>22</v>
       </c>
       <c r="C22">
@@ -1923,7 +1943,7 @@
       <c r="A23">
         <v>1122</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C23">
@@ -1934,7 +1954,7 @@
       <c r="A24">
         <v>1123</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C24">
@@ -1945,7 +1965,7 @@
       <c r="A25">
         <v>1130</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C25">
@@ -1956,7 +1976,7 @@
       <c r="A26">
         <v>1140</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="27" t="s">
         <v>27</v>
       </c>
       <c r="C26">
@@ -1967,7 +1987,7 @@
       <c r="A27">
         <v>1210</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C27">
@@ -1978,7 +1998,7 @@
       <c r="A28">
         <v>1219</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C28">
@@ -1989,7 +2009,7 @@
       <c r="A29">
         <v>1220</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C29">
@@ -2000,7 +2020,7 @@
       <c r="A30">
         <v>1230</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C30">
@@ -2011,7 +2031,7 @@
       <c r="A31">
         <v>1310</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="27" t="s">
         <v>32</v>
       </c>
       <c r="C31">
@@ -2022,7 +2042,7 @@
       <c r="A32">
         <v>1320</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="27" t="s">
         <v>33</v>
       </c>
       <c r="C32">
@@ -2033,7 +2053,7 @@
       <c r="A33">
         <v>-1</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C33">
@@ -2044,7 +2064,7 @@
       <c r="A34">
         <v>2011</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C34">
@@ -2055,7 +2075,7 @@
       <c r="A35">
         <v>2012</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C35">
@@ -2066,7 +2086,7 @@
       <c r="A36">
         <v>2021</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C36">
@@ -2077,7 +2097,7 @@
       <c r="A37">
         <v>2111</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="27" t="s">
         <v>38</v>
       </c>
       <c r="C37">
@@ -2088,7 +2108,7 @@
       <c r="A38">
         <v>2112</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="27" t="s">
         <v>39</v>
       </c>
       <c r="C38">
@@ -2099,7 +2119,7 @@
       <c r="A39">
         <v>2121</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C39">
@@ -2110,7 +2130,7 @@
       <c r="A40">
         <v>2122</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="27" t="s">
         <v>41</v>
       </c>
       <c r="C40">
@@ -2121,7 +2141,7 @@
       <c r="A41">
         <v>2123</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="27" t="s">
         <v>42</v>
       </c>
       <c r="C41">
@@ -2132,7 +2152,7 @@
       <c r="A42">
         <v>2124</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="27" t="s">
         <v>43</v>
       </c>
       <c r="C42">
@@ -2143,7 +2163,7 @@
       <c r="A43">
         <v>2125</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="27" t="s">
         <v>44</v>
       </c>
       <c r="C43">
@@ -2154,7 +2174,7 @@
       <c r="A44">
         <v>2131</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="27" t="s">
         <v>45</v>
       </c>
       <c r="C44">
@@ -2165,7 +2185,7 @@
       <c r="A45">
         <v>2132</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="27" t="s">
         <v>46</v>
       </c>
       <c r="C45">
@@ -2176,7 +2196,7 @@
       <c r="A46">
         <v>2133</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="27" t="s">
         <v>47</v>
       </c>
       <c r="C46">
@@ -2187,7 +2207,7 @@
       <c r="A47">
         <v>2134</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="27" t="s">
         <v>48</v>
       </c>
       <c r="C47">
@@ -2198,7 +2218,7 @@
       <c r="A48">
         <v>2140</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C48">
@@ -2209,7 +2229,7 @@
       <c r="A49">
         <v>2141</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C49">
@@ -2220,7 +2240,7 @@
       <c r="A50">
         <v>2142</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="27" t="s">
         <v>51</v>
       </c>
       <c r="C50">
@@ -2231,7 +2251,7 @@
       <c r="A51">
         <v>2143</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="27" t="s">
         <v>52</v>
       </c>
       <c r="C51">
@@ -2242,7 +2262,7 @@
       <c r="A52">
         <v>2144</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C52">
@@ -2253,7 +2273,7 @@
       <c r="A53">
         <v>2145</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="27" t="s">
         <v>54</v>
       </c>
       <c r="C53">
@@ -2264,7 +2284,7 @@
       <c r="A54">
         <v>2146</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="27" t="s">
         <v>55</v>
       </c>
       <c r="C54">
@@ -2275,7 +2295,7 @@
       <c r="A55">
         <v>2147</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="27" t="s">
         <v>56</v>
       </c>
       <c r="C55">
@@ -2286,7 +2306,7 @@
       <c r="A56">
         <v>2148</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C56">
@@ -2297,7 +2317,7 @@
       <c r="A57">
         <v>2149</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="27" t="s">
         <v>58</v>
       </c>
       <c r="C57">
@@ -2308,7 +2328,7 @@
       <c r="A58">
         <v>2151</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="27" t="s">
         <v>59</v>
       </c>
       <c r="C58">
@@ -2319,7 +2339,7 @@
       <c r="A59">
         <v>2152</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="27" t="s">
         <v>60</v>
       </c>
       <c r="C59">
@@ -2330,7 +2350,7 @@
       <c r="A60">
         <v>2153</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="27" t="s">
         <v>61</v>
       </c>
       <c r="C60">
@@ -2341,7 +2361,7 @@
       <c r="A61">
         <v>2211</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="27" t="s">
         <v>62</v>
       </c>
       <c r="C61">
@@ -2352,7 +2372,7 @@
       <c r="A62">
         <v>2221</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="27" t="s">
         <v>63</v>
       </c>
       <c r="C62">
@@ -2363,7 +2383,7 @@
       <c r="A63">
         <v>2231</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="27" t="s">
         <v>64</v>
       </c>
       <c r="C63">
@@ -2374,7 +2394,7 @@
       <c r="A64">
         <v>2232</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="27" t="s">
         <v>65</v>
       </c>
       <c r="C64">
@@ -2385,7 +2405,7 @@
       <c r="A65">
         <v>2233</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="27" t="s">
         <v>66</v>
       </c>
       <c r="C65">
@@ -2396,7 +2416,7 @@
       <c r="A66">
         <v>2234</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C66">
@@ -2407,7 +2427,7 @@
       <c r="A67">
         <v>2235</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="27" t="s">
         <v>68</v>
       </c>
       <c r="C67">
@@ -2418,7 +2438,7 @@
       <c r="A68">
         <v>2236</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="27" t="s">
         <v>69</v>
       </c>
       <c r="C68">
@@ -2429,7 +2449,7 @@
       <c r="A69">
         <v>2237</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="27" t="s">
         <v>70</v>
       </c>
       <c r="C69">
@@ -2440,7 +2460,7 @@
       <c r="A70">
         <v>2311</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="27" t="s">
         <v>71</v>
       </c>
       <c r="C70">
@@ -2451,7 +2471,7 @@
       <c r="A71">
         <v>2312</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="27" t="s">
         <v>72</v>
       </c>
       <c r="C71">
@@ -2462,7 +2482,7 @@
       <c r="A72">
         <v>2313</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="27" t="s">
         <v>73</v>
       </c>
       <c r="C72">
@@ -2473,7 +2493,7 @@
       <c r="A73">
         <v>2321</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="27" t="s">
         <v>74</v>
       </c>
       <c r="C73">
@@ -2484,7 +2504,7 @@
       <c r="A74">
         <v>2330</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="27" t="s">
         <v>75</v>
       </c>
       <c r="C74">
@@ -2495,7 +2515,7 @@
       <c r="A75">
         <v>2340</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="27" t="s">
         <v>76</v>
       </c>
       <c r="C75">
@@ -2506,7 +2526,7 @@
       <c r="A76">
         <v>2391</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="27" t="s">
         <v>77</v>
       </c>
       <c r="C76">
@@ -2517,7 +2537,7 @@
       <c r="A77">
         <v>2392</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="27" t="s">
         <v>78</v>
       </c>
       <c r="C77">
@@ -2528,7 +2548,7 @@
       <c r="A78">
         <v>2394</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="27" t="s">
         <v>79</v>
       </c>
       <c r="C78">
@@ -2539,7 +2559,7 @@
       <c r="A79">
         <v>2410</v>
       </c>
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="27" t="s">
         <v>80</v>
       </c>
       <c r="C79">
@@ -2550,7 +2570,7 @@
       <c r="A80">
         <v>2412</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="27" t="s">
         <v>81</v>
       </c>
       <c r="C80">
@@ -2561,7 +2581,7 @@
       <c r="A81">
         <v>2419</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="27" t="s">
         <v>82</v>
       </c>
       <c r="C81">
@@ -2572,7 +2592,7 @@
       <c r="A82">
         <v>2421</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B82" s="27" t="s">
         <v>83</v>
       </c>
       <c r="C82">
@@ -2583,7 +2603,7 @@
       <c r="A83">
         <v>2422</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="27" t="s">
         <v>84</v>
       </c>
       <c r="C83">
@@ -2594,7 +2614,7 @@
       <c r="A84">
         <v>2423</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="27" t="s">
         <v>85</v>
       </c>
       <c r="C84">
@@ -2605,7 +2625,7 @@
       <c r="A85">
         <v>2511</v>
       </c>
-      <c r="B85" s="17" t="s">
+      <c r="B85" s="27" t="s">
         <v>86</v>
       </c>
       <c r="C85">
@@ -2616,7 +2636,7 @@
       <c r="A86">
         <v>2512</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="27" t="s">
         <v>87</v>
       </c>
       <c r="C86">
@@ -2627,7 +2647,7 @@
       <c r="A87">
         <v>2513</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="B87" s="27" t="s">
         <v>88</v>
       </c>
       <c r="C87">
@@ -2638,7 +2658,7 @@
       <c r="A88">
         <v>2514</v>
       </c>
-      <c r="B88" s="17" t="s">
+      <c r="B88" s="27" t="s">
         <v>89</v>
       </c>
       <c r="C88">
@@ -2649,7 +2669,7 @@
       <c r="A89">
         <v>2515</v>
       </c>
-      <c r="B89" s="17" t="s">
+      <c r="B89" s="27" t="s">
         <v>90</v>
       </c>
       <c r="C89">
@@ -2660,7 +2680,7 @@
       <c r="A90">
         <v>2516</v>
       </c>
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="27" t="s">
         <v>91</v>
       </c>
       <c r="C90">
@@ -2671,7 +2691,7 @@
       <c r="A91">
         <v>2521</v>
       </c>
-      <c r="B91" s="17" t="s">
+      <c r="B91" s="27" t="s">
         <v>92</v>
       </c>
       <c r="C91">
@@ -2682,7 +2702,7 @@
       <c r="A92">
         <v>2522</v>
       </c>
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="27" t="s">
         <v>93</v>
       </c>
       <c r="C92">
@@ -2693,7 +2713,7 @@
       <c r="A93">
         <v>2523</v>
       </c>
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="27" t="s">
         <v>94</v>
       </c>
       <c r="C93">
@@ -2704,7 +2724,7 @@
       <c r="A94">
         <v>2524</v>
       </c>
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="27" t="s">
         <v>95</v>
       </c>
       <c r="C94">
@@ -2715,7 +2735,7 @@
       <c r="A95">
         <v>2525</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="27" t="s">
         <v>96</v>
       </c>
       <c r="C95">
@@ -2726,7 +2746,7 @@
       <c r="A96">
         <v>2531</v>
       </c>
-      <c r="B96" s="17" t="s">
+      <c r="B96" s="27" t="s">
         <v>97</v>
       </c>
       <c r="C96">
@@ -2737,7 +2757,7 @@
       <c r="A97">
         <v>2611</v>
       </c>
-      <c r="B97" s="17" t="s">
+      <c r="B97" s="27" t="s">
         <v>98</v>
       </c>
       <c r="C97">
@@ -2748,7 +2768,7 @@
       <c r="A98">
         <v>2612</v>
       </c>
-      <c r="B98" s="17" t="s">
+      <c r="B98" s="27" t="s">
         <v>99</v>
       </c>
       <c r="C98">
@@ -2759,7 +2779,7 @@
       <c r="A99">
         <v>2613</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="27" t="s">
         <v>100</v>
       </c>
       <c r="C99">
@@ -2770,7 +2790,7 @@
       <c r="A100">
         <v>2614</v>
       </c>
-      <c r="B100" s="17" t="s">
+      <c r="B100" s="27" t="s">
         <v>101</v>
       </c>
       <c r="C100">
@@ -2781,7 +2801,7 @@
       <c r="A101">
         <v>2615</v>
       </c>
-      <c r="B101" s="17" t="s">
+      <c r="B101" s="27" t="s">
         <v>102</v>
       </c>
       <c r="C101">
@@ -2792,7 +2812,7 @@
       <c r="A102">
         <v>2616</v>
       </c>
-      <c r="B102" s="17" t="s">
+      <c r="B102" s="27" t="s">
         <v>103</v>
       </c>
       <c r="C102">
@@ -2803,7 +2823,7 @@
       <c r="A103">
         <v>2617</v>
       </c>
-      <c r="B103" s="17" t="s">
+      <c r="B103" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C103">
@@ -2814,7 +2834,7 @@
       <c r="A104">
         <v>2621</v>
       </c>
-      <c r="B104" s="17" t="s">
+      <c r="B104" s="27" t="s">
         <v>105</v>
       </c>
       <c r="C104">
@@ -2825,7 +2845,7 @@
       <c r="A105">
         <v>2622</v>
       </c>
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="27" t="s">
         <v>106</v>
       </c>
       <c r="C105">
@@ -2836,7 +2856,7 @@
       <c r="A106">
         <v>2623</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="B106" s="27" t="s">
         <v>107</v>
       </c>
       <c r="C106">
@@ -2847,7 +2867,7 @@
       <c r="A107">
         <v>2624</v>
       </c>
-      <c r="B107" s="17" t="s">
+      <c r="B107" s="27" t="s">
         <v>108</v>
       </c>
       <c r="C107">
@@ -2858,7 +2878,7 @@
       <c r="A108">
         <v>2625</v>
       </c>
-      <c r="B108" s="17" t="s">
+      <c r="B108" s="27" t="s">
         <v>109</v>
       </c>
       <c r="C108">
@@ -2869,7 +2889,7 @@
       <c r="A109">
         <v>2627</v>
       </c>
-      <c r="B109" s="17" t="s">
+      <c r="B109" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C109">
@@ -2880,7 +2900,7 @@
       <c r="A110">
         <v>2631</v>
       </c>
-      <c r="B110" s="17" t="s">
+      <c r="B110" s="27" t="s">
         <v>111</v>
       </c>
       <c r="C110">
@@ -2891,7 +2911,7 @@
       <c r="A111">
         <v>-1</v>
       </c>
-      <c r="B111" s="17" t="s">
+      <c r="B111" s="27" t="s">
         <v>112</v>
       </c>
       <c r="C111">
@@ -2902,7 +2922,7 @@
       <c r="A112">
         <v>3001</v>
       </c>
-      <c r="B112" s="17" t="s">
+      <c r="B112" s="27" t="s">
         <v>113</v>
       </c>
       <c r="C112">
@@ -2913,7 +2933,7 @@
       <c r="A113">
         <v>3003</v>
       </c>
-      <c r="B113" s="17" t="s">
+      <c r="B113" s="27" t="s">
         <v>114</v>
       </c>
       <c r="C113">
@@ -2924,7 +2944,7 @@
       <c r="A114">
         <v>3011</v>
       </c>
-      <c r="B114" s="17" t="s">
+      <c r="B114" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C114">
@@ -2935,7 +2955,7 @@
       <c r="A115">
         <v>3012</v>
       </c>
-      <c r="B115" s="17" t="s">
+      <c r="B115" s="27" t="s">
         <v>116</v>
       </c>
       <c r="C115">
@@ -2946,7 +2966,7 @@
       <c r="A116">
         <v>3111</v>
       </c>
-      <c r="B116" s="17" t="s">
+      <c r="B116" s="27" t="s">
         <v>117</v>
       </c>
       <c r="C116">
@@ -2957,7 +2977,7 @@
       <c r="A117">
         <v>3112</v>
       </c>
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="27" t="s">
         <v>118</v>
       </c>
       <c r="C117">
@@ -2968,7 +2988,7 @@
       <c r="A118">
         <v>3113</v>
       </c>
-      <c r="B118" s="17" t="s">
+      <c r="B118" s="27" t="s">
         <v>119</v>
       </c>
       <c r="C118">
@@ -2979,7 +2999,7 @@
       <c r="A119">
         <v>3114</v>
       </c>
-      <c r="B119" s="17" t="s">
+      <c r="B119" s="27" t="s">
         <v>120</v>
       </c>
       <c r="C119">
@@ -2990,7 +3010,7 @@
       <c r="A120">
         <v>3115</v>
       </c>
-      <c r="B120" s="17" t="s">
+      <c r="B120" s="27" t="s">
         <v>121</v>
       </c>
       <c r="C120">
@@ -3001,7 +3021,7 @@
       <c r="A121">
         <v>3116</v>
       </c>
-      <c r="B121" s="17" t="s">
+      <c r="B121" s="27" t="s">
         <v>122</v>
       </c>
       <c r="C121">
@@ -3012,7 +3032,7 @@
       <c r="A122">
         <v>3117</v>
       </c>
-      <c r="B122" s="17" t="s">
+      <c r="B122" s="27" t="s">
         <v>123</v>
       </c>
       <c r="C122">
@@ -3023,7 +3043,7 @@
       <c r="A123">
         <v>3121</v>
       </c>
-      <c r="B123" s="17" t="s">
+      <c r="B123" s="27" t="s">
         <v>124</v>
       </c>
       <c r="C123">
@@ -3034,7 +3054,7 @@
       <c r="A124">
         <v>3122</v>
       </c>
-      <c r="B124" s="17" t="s">
+      <c r="B124" s="27" t="s">
         <v>125</v>
       </c>
       <c r="C124">
@@ -3045,7 +3065,7 @@
       <c r="A125">
         <v>3123</v>
       </c>
-      <c r="B125" s="17" t="s">
+      <c r="B125" s="27" t="s">
         <v>126</v>
       </c>
       <c r="C125">
@@ -3056,7 +3076,7 @@
       <c r="A126">
         <v>3131</v>
       </c>
-      <c r="B126" s="17" t="s">
+      <c r="B126" s="27" t="s">
         <v>127</v>
       </c>
       <c r="C126">
@@ -3067,7 +3087,7 @@
       <c r="A127">
         <v>3132</v>
       </c>
-      <c r="B127" s="17" t="s">
+      <c r="B127" s="27" t="s">
         <v>128</v>
       </c>
       <c r="C127">
@@ -3078,7 +3098,7 @@
       <c r="A128">
         <v>3134</v>
       </c>
-      <c r="B128" s="17" t="s">
+      <c r="B128" s="27" t="s">
         <v>129</v>
       </c>
       <c r="C128">
@@ -3089,7 +3109,7 @@
       <c r="A129">
         <v>3135</v>
       </c>
-      <c r="B129" s="17" t="s">
+      <c r="B129" s="27" t="s">
         <v>130</v>
       </c>
       <c r="C129">
@@ -3100,7 +3120,7 @@
       <c r="A130">
         <v>3136</v>
       </c>
-      <c r="B130" s="17" t="s">
+      <c r="B130" s="27" t="s">
         <v>131</v>
       </c>
       <c r="C130">
@@ -3111,7 +3131,7 @@
       <c r="A131">
         <v>3141</v>
       </c>
-      <c r="B131" s="17" t="s">
+      <c r="B131" s="27" t="s">
         <v>132</v>
       </c>
       <c r="C131">
@@ -3122,7 +3142,7 @@
       <c r="A132">
         <v>3142</v>
       </c>
-      <c r="B132" s="17" t="s">
+      <c r="B132" s="27" t="s">
         <v>133</v>
       </c>
       <c r="C132">
@@ -3133,7 +3153,7 @@
       <c r="A133">
         <v>3143</v>
       </c>
-      <c r="B133" s="17" t="s">
+      <c r="B133" s="27" t="s">
         <v>134</v>
       </c>
       <c r="C133">
@@ -3144,7 +3164,7 @@
       <c r="A134">
         <v>3144</v>
       </c>
-      <c r="B134" s="17" t="s">
+      <c r="B134" s="27" t="s">
         <v>135</v>
       </c>
       <c r="C134">
@@ -3155,7 +3175,7 @@
       <c r="A135">
         <v>3146</v>
       </c>
-      <c r="B135" s="17" t="s">
+      <c r="B135" s="27" t="s">
         <v>136</v>
       </c>
       <c r="C135">
@@ -3166,7 +3186,7 @@
       <c r="A136">
         <v>3147</v>
       </c>
-      <c r="B136" s="17" t="s">
+      <c r="B136" s="27" t="s">
         <v>137</v>
       </c>
       <c r="C136">
@@ -3177,7 +3197,7 @@
       <c r="A137">
         <v>3161</v>
       </c>
-      <c r="B137" s="17" t="s">
+      <c r="B137" s="27" t="s">
         <v>138</v>
       </c>
       <c r="C137">
@@ -3188,7 +3208,7 @@
       <c r="A138">
         <v>3162</v>
       </c>
-      <c r="B138" s="17" t="s">
+      <c r="B138" s="27" t="s">
         <v>139</v>
       </c>
       <c r="C138">
@@ -3199,7 +3219,7 @@
       <c r="A139">
         <v>3163</v>
       </c>
-      <c r="B139" s="17" t="s">
+      <c r="B139" s="27" t="s">
         <v>140</v>
       </c>
       <c r="C139">
@@ -3210,7 +3230,7 @@
       <c r="A140">
         <v>3171</v>
       </c>
-      <c r="B140" s="17" t="s">
+      <c r="B140" s="27" t="s">
         <v>141</v>
       </c>
       <c r="C140">
@@ -3221,7 +3241,7 @@
       <c r="A141">
         <v>3172</v>
       </c>
-      <c r="B141" s="17" t="s">
+      <c r="B141" s="27" t="s">
         <v>142</v>
       </c>
       <c r="C141">
@@ -3232,7 +3252,7 @@
       <c r="A142">
         <v>3189</v>
       </c>
-      <c r="B142" s="17" t="s">
+      <c r="B142" s="27" t="s">
         <v>143</v>
       </c>
       <c r="C142">
@@ -3243,7 +3263,7 @@
       <c r="A143">
         <v>3191</v>
       </c>
-      <c r="B143" s="17" t="s">
+      <c r="B143" s="27" t="s">
         <v>144</v>
       </c>
       <c r="C143">
@@ -3254,7 +3274,7 @@
       <c r="A144">
         <v>3192</v>
       </c>
-      <c r="B144" s="17" t="s">
+      <c r="B144" s="27" t="s">
         <v>145</v>
       </c>
       <c r="C144">
@@ -3265,7 +3285,7 @@
       <c r="A145">
         <v>3201</v>
       </c>
-      <c r="B145" s="17" t="s">
+      <c r="B145" s="27" t="s">
         <v>146</v>
       </c>
       <c r="C145">
@@ -3276,7 +3296,7 @@
       <c r="A146">
         <v>3210</v>
       </c>
-      <c r="B146" s="17" t="s">
+      <c r="B146" s="27" t="s">
         <v>147</v>
       </c>
       <c r="C146">
@@ -3287,7 +3307,7 @@
       <c r="A147">
         <v>3211</v>
       </c>
-      <c r="B147" s="17" t="s">
+      <c r="B147" s="27" t="s">
         <v>148</v>
       </c>
       <c r="C147">
@@ -3298,7 +3318,7 @@
       <c r="A148">
         <v>3212</v>
       </c>
-      <c r="B148" s="17" t="s">
+      <c r="B148" s="27" t="s">
         <v>149</v>
       </c>
       <c r="C148">
@@ -3309,7 +3329,7 @@
       <c r="A149">
         <v>3213</v>
       </c>
-      <c r="B149" s="17" t="s">
+      <c r="B149" s="27" t="s">
         <v>150</v>
       </c>
       <c r="C149">
@@ -3320,7 +3340,7 @@
       <c r="A150">
         <v>3214</v>
       </c>
-      <c r="B150" s="17" t="s">
+      <c r="B150" s="27" t="s">
         <v>151</v>
       </c>
       <c r="C150">
@@ -3331,7 +3351,7 @@
       <c r="A151">
         <v>3221</v>
       </c>
-      <c r="B151" s="17" t="s">
+      <c r="B151" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C151">
@@ -3342,7 +3362,7 @@
       <c r="A152">
         <v>3222</v>
       </c>
-      <c r="B152" s="17" t="s">
+      <c r="B152" s="27" t="s">
         <v>153</v>
       </c>
       <c r="C152">
@@ -3353,7 +3373,7 @@
       <c r="A153">
         <v>3223</v>
       </c>
-      <c r="B153" s="17" t="s">
+      <c r="B153" s="27" t="s">
         <v>154</v>
       </c>
       <c r="C153">
@@ -3364,7 +3384,7 @@
       <c r="A154">
         <v>3224</v>
       </c>
-      <c r="B154" s="17" t="s">
+      <c r="B154" s="27" t="s">
         <v>155</v>
       </c>
       <c r="C154">
@@ -3375,7 +3395,7 @@
       <c r="A155">
         <v>3225</v>
       </c>
-      <c r="B155" s="17" t="s">
+      <c r="B155" s="27" t="s">
         <v>156</v>
       </c>
       <c r="C155">
@@ -3386,7 +3406,7 @@
       <c r="A156">
         <v>3231</v>
       </c>
-      <c r="B156" s="17" t="s">
+      <c r="B156" s="27" t="s">
         <v>157</v>
       </c>
       <c r="C156">
@@ -3397,7 +3417,7 @@
       <c r="A157">
         <v>3232</v>
       </c>
-      <c r="B157" s="17" t="s">
+      <c r="B157" s="27" t="s">
         <v>158</v>
       </c>
       <c r="C157">
@@ -3408,7 +3428,7 @@
       <c r="A158">
         <v>3241</v>
       </c>
-      <c r="B158" s="17" t="s">
+      <c r="B158" s="27" t="s">
         <v>159</v>
       </c>
       <c r="C158">
@@ -3419,7 +3439,7 @@
       <c r="A159">
         <v>3242</v>
       </c>
-      <c r="B159" s="17" t="s">
+      <c r="B159" s="27" t="s">
         <v>160</v>
       </c>
       <c r="C159">
@@ -3430,7 +3450,7 @@
       <c r="A160">
         <v>3250</v>
       </c>
-      <c r="B160" s="17" t="s">
+      <c r="B160" s="27" t="s">
         <v>161</v>
       </c>
       <c r="C160">
@@ -3441,7 +3461,7 @@
       <c r="A161">
         <v>3251</v>
       </c>
-      <c r="B161" s="17" t="s">
+      <c r="B161" s="27" t="s">
         <v>162</v>
       </c>
       <c r="C161">
@@ -3452,7 +3472,7 @@
       <c r="A162">
         <v>3252</v>
       </c>
-      <c r="B162" s="17" t="s">
+      <c r="B162" s="27" t="s">
         <v>163</v>
       </c>
       <c r="C162">
@@ -3463,7 +3483,7 @@
       <c r="A163">
         <v>3253</v>
       </c>
-      <c r="B163" s="17" t="s">
+      <c r="B163" s="27" t="s">
         <v>164</v>
       </c>
       <c r="C163">
@@ -3474,7 +3494,7 @@
       <c r="A164">
         <v>3281</v>
       </c>
-      <c r="B164" s="17" t="s">
+      <c r="B164" s="27" t="s">
         <v>165</v>
       </c>
       <c r="C164">
@@ -3485,7 +3505,7 @@
       <c r="A165">
         <v>3311</v>
       </c>
-      <c r="B165" s="17" t="s">
+      <c r="B165" s="27" t="s">
         <v>166</v>
       </c>
       <c r="C165">
@@ -3496,7 +3516,7 @@
       <c r="A166">
         <v>3312</v>
       </c>
-      <c r="B166" s="17" t="s">
+      <c r="B166" s="27" t="s">
         <v>167</v>
       </c>
       <c r="C166">
@@ -3507,7 +3527,7 @@
       <c r="A167">
         <v>3313</v>
       </c>
-      <c r="B167" s="17" t="s">
+      <c r="B167" s="27" t="s">
         <v>168</v>
       </c>
       <c r="C167">
@@ -3518,7 +3538,7 @@
       <c r="A168">
         <v>3321</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="B168" s="27" t="s">
         <v>169</v>
       </c>
       <c r="C168">
@@ -3529,7 +3549,7 @@
       <c r="A169">
         <v>3322</v>
       </c>
-      <c r="B169" s="17" t="s">
+      <c r="B169" s="27" t="s">
         <v>170</v>
       </c>
       <c r="C169">
@@ -3540,7 +3560,7 @@
       <c r="A170">
         <v>3331</v>
       </c>
-      <c r="B170" s="17" t="s">
+      <c r="B170" s="27" t="s">
         <v>171</v>
       </c>
       <c r="C170">
@@ -3551,7 +3571,7 @@
       <c r="A171">
         <v>3341</v>
       </c>
-      <c r="B171" s="17" t="s">
+      <c r="B171" s="27" t="s">
         <v>172</v>
       </c>
       <c r="C171">
@@ -3562,7 +3582,7 @@
       <c r="A172">
         <v>3411</v>
       </c>
-      <c r="B172" s="17" t="s">
+      <c r="B172" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C172">
@@ -3573,7 +3593,7 @@
       <c r="A173">
         <v>3412</v>
       </c>
-      <c r="B173" s="17" t="s">
+      <c r="B173" s="27" t="s">
         <v>174</v>
       </c>
       <c r="C173">
@@ -3584,7 +3604,7 @@
       <c r="A174">
         <v>3413</v>
       </c>
-      <c r="B174" s="17" t="s">
+      <c r="B174" s="27" t="s">
         <v>175</v>
       </c>
       <c r="C174">
@@ -3595,7 +3615,7 @@
       <c r="A175">
         <v>3421</v>
       </c>
-      <c r="B175" s="17" t="s">
+      <c r="B175" s="27" t="s">
         <v>176</v>
       </c>
       <c r="C175">
@@ -3606,7 +3626,7 @@
       <c r="A176">
         <v>3422</v>
       </c>
-      <c r="B176" s="17" t="s">
+      <c r="B176" s="27" t="s">
         <v>177</v>
       </c>
       <c r="C176">
@@ -3617,7 +3637,7 @@
       <c r="A177">
         <v>3423</v>
       </c>
-      <c r="B177" s="17" t="s">
+      <c r="B177" s="27" t="s">
         <v>178</v>
       </c>
       <c r="C177">
@@ -3628,7 +3648,7 @@
       <c r="A178">
         <v>3424</v>
       </c>
-      <c r="B178" s="17" t="s">
+      <c r="B178" s="27" t="s">
         <v>179</v>
       </c>
       <c r="C178">
@@ -3639,7 +3659,7 @@
       <c r="A179">
         <v>3425</v>
       </c>
-      <c r="B179" s="17" t="s">
+      <c r="B179" s="27" t="s">
         <v>180</v>
       </c>
       <c r="C179">
@@ -3650,7 +3670,7 @@
       <c r="A180">
         <v>3426</v>
       </c>
-      <c r="B180" s="17" t="s">
+      <c r="B180" s="27" t="s">
         <v>181</v>
       </c>
       <c r="C180">
@@ -3661,7 +3681,7 @@
       <c r="A181">
         <v>3511</v>
       </c>
-      <c r="B181" s="17" t="s">
+      <c r="B181" s="27" t="s">
         <v>182</v>
       </c>
       <c r="C181">
@@ -3672,7 +3692,7 @@
       <c r="A182">
         <v>3512</v>
       </c>
-      <c r="B182" s="17" t="s">
+      <c r="B182" s="27" t="s">
         <v>183</v>
       </c>
       <c r="C182">
@@ -3683,7 +3703,7 @@
       <c r="A183">
         <v>3513</v>
       </c>
-      <c r="B183" s="17" t="s">
+      <c r="B183" s="27" t="s">
         <v>184</v>
       </c>
       <c r="C183">
@@ -3694,7 +3714,7 @@
       <c r="A184">
         <v>3514</v>
       </c>
-      <c r="B184" s="17" t="s">
+      <c r="B184" s="27" t="s">
         <v>185</v>
       </c>
       <c r="C184">
@@ -3705,7 +3725,7 @@
       <c r="A185">
         <v>3515</v>
       </c>
-      <c r="B185" s="17" t="s">
+      <c r="B185" s="27" t="s">
         <v>186</v>
       </c>
       <c r="C185">
@@ -3716,7 +3736,7 @@
       <c r="A186">
         <v>3516</v>
       </c>
-      <c r="B186" s="17" t="s">
+      <c r="B186" s="27" t="s">
         <v>187</v>
       </c>
       <c r="C186">
@@ -3727,7 +3747,7 @@
       <c r="A187">
         <v>3517</v>
       </c>
-      <c r="B187" s="17" t="s">
+      <c r="B187" s="27" t="s">
         <v>188</v>
       </c>
       <c r="C187">
@@ -3738,7 +3758,7 @@
       <c r="A188">
         <v>3518</v>
       </c>
-      <c r="B188" s="17" t="s">
+      <c r="B188" s="27" t="s">
         <v>189</v>
       </c>
       <c r="C188">
@@ -3749,7 +3769,7 @@
       <c r="A189">
         <v>3522</v>
       </c>
-      <c r="B189" s="17" t="s">
+      <c r="B189" s="27" t="s">
         <v>190</v>
       </c>
       <c r="C189">
@@ -3760,7 +3780,7 @@
       <c r="A190">
         <v>3523</v>
       </c>
-      <c r="B190" s="17" t="s">
+      <c r="B190" s="27" t="s">
         <v>191</v>
       </c>
       <c r="C190">
@@ -3771,7 +3791,7 @@
       <c r="A191">
         <v>3524</v>
       </c>
-      <c r="B191" s="17" t="s">
+      <c r="B191" s="27" t="s">
         <v>192</v>
       </c>
       <c r="C191">
@@ -3782,7 +3802,7 @@
       <c r="A192">
         <v>3525</v>
       </c>
-      <c r="B192" s="17" t="s">
+      <c r="B192" s="27" t="s">
         <v>193</v>
       </c>
       <c r="C192">
@@ -3793,7 +3813,7 @@
       <c r="A193">
         <v>3531</v>
       </c>
-      <c r="B193" s="17" t="s">
+      <c r="B193" s="27" t="s">
         <v>194</v>
       </c>
       <c r="C193">
@@ -3804,7 +3824,7 @@
       <c r="A194">
         <v>3532</v>
       </c>
-      <c r="B194" s="17" t="s">
+      <c r="B194" s="27" t="s">
         <v>195</v>
       </c>
       <c r="C194">
@@ -3815,7 +3835,7 @@
       <c r="A195">
         <v>3541</v>
       </c>
-      <c r="B195" s="17" t="s">
+      <c r="B195" s="27" t="s">
         <v>196</v>
       </c>
       <c r="C195">
@@ -3826,7 +3846,7 @@
       <c r="A196">
         <v>3542</v>
       </c>
-      <c r="B196" s="17" t="s">
+      <c r="B196" s="27" t="s">
         <v>197</v>
       </c>
       <c r="C196">
@@ -3837,7 +3857,7 @@
       <c r="A197">
         <v>3543</v>
       </c>
-      <c r="B197" s="17" t="s">
+      <c r="B197" s="27" t="s">
         <v>198</v>
       </c>
       <c r="C197">
@@ -3848,7 +3868,7 @@
       <c r="A198">
         <v>3544</v>
       </c>
-      <c r="B198" s="17" t="s">
+      <c r="B198" s="27" t="s">
         <v>199</v>
       </c>
       <c r="C198">
@@ -3859,7 +3879,7 @@
       <c r="A199">
         <v>3545</v>
       </c>
-      <c r="B199" s="17" t="s">
+      <c r="B199" s="27" t="s">
         <v>200</v>
       </c>
       <c r="C199">
@@ -3870,7 +3890,7 @@
       <c r="A200">
         <v>3546</v>
       </c>
-      <c r="B200" s="17" t="s">
+      <c r="B200" s="27" t="s">
         <v>201</v>
       </c>
       <c r="C200">
@@ -3881,7 +3901,7 @@
       <c r="A201">
         <v>3547</v>
       </c>
-      <c r="B201" s="17" t="s">
+      <c r="B201" s="27" t="s">
         <v>202</v>
       </c>
       <c r="C201">
@@ -3892,7 +3912,7 @@
       <c r="A202">
         <v>3548</v>
       </c>
-      <c r="B202" s="17" t="s">
+      <c r="B202" s="27" t="s">
         <v>203</v>
       </c>
       <c r="C202">
@@ -3903,7 +3923,7 @@
       <c r="A203">
         <v>3711</v>
       </c>
-      <c r="B203" s="17" t="s">
+      <c r="B203" s="27" t="s">
         <v>204</v>
       </c>
       <c r="C203">
@@ -3914,7 +3934,7 @@
       <c r="A204">
         <v>3712</v>
       </c>
-      <c r="B204" s="17" t="s">
+      <c r="B204" s="27" t="s">
         <v>205</v>
       </c>
       <c r="C204">
@@ -3925,7 +3945,7 @@
       <c r="A205">
         <v>3713</v>
       </c>
-      <c r="B205" s="17" t="s">
+      <c r="B205" s="27" t="s">
         <v>206</v>
       </c>
       <c r="C205">
@@ -3936,7 +3956,7 @@
       <c r="A206">
         <v>3721</v>
       </c>
-      <c r="B206" s="17" t="s">
+      <c r="B206" s="27" t="s">
         <v>207</v>
       </c>
       <c r="C206">
@@ -3947,7 +3967,7 @@
       <c r="A207">
         <v>3722</v>
       </c>
-      <c r="B207" s="17" t="s">
+      <c r="B207" s="27" t="s">
         <v>208</v>
       </c>
       <c r="C207">
@@ -3958,7 +3978,7 @@
       <c r="A208">
         <v>3723</v>
       </c>
-      <c r="B208" s="17" t="s">
+      <c r="B208" s="27" t="s">
         <v>209</v>
       </c>
       <c r="C208">
@@ -3969,7 +3989,7 @@
       <c r="A209">
         <v>3731</v>
       </c>
-      <c r="B209" s="17" t="s">
+      <c r="B209" s="27" t="s">
         <v>210</v>
       </c>
       <c r="C209">
@@ -3980,7 +4000,7 @@
       <c r="A210">
         <v>3732</v>
       </c>
-      <c r="B210" s="17" t="s">
+      <c r="B210" s="27" t="s">
         <v>211</v>
       </c>
       <c r="C210">
@@ -3991,7 +4011,7 @@
       <c r="A211">
         <v>3741</v>
       </c>
-      <c r="B211" s="17" t="s">
+      <c r="B211" s="27" t="s">
         <v>212</v>
       </c>
       <c r="C211">
@@ -4002,7 +4022,7 @@
       <c r="A212">
         <v>3742</v>
       </c>
-      <c r="B212" s="17" t="s">
+      <c r="B212" s="27" t="s">
         <v>213</v>
       </c>
       <c r="C212">
@@ -4013,7 +4033,7 @@
       <c r="A213">
         <v>3743</v>
       </c>
-      <c r="B213" s="17" t="s">
+      <c r="B213" s="27" t="s">
         <v>214</v>
       </c>
       <c r="C213">
@@ -4024,7 +4044,7 @@
       <c r="A214">
         <v>3751</v>
       </c>
-      <c r="B214" s="17" t="s">
+      <c r="B214" s="27" t="s">
         <v>215</v>
       </c>
       <c r="C214">
@@ -4035,7 +4055,7 @@
       <c r="A215">
         <v>3761</v>
       </c>
-      <c r="B215" s="17" t="s">
+      <c r="B215" s="27" t="s">
         <v>216</v>
       </c>
       <c r="C215">
@@ -4046,7 +4066,7 @@
       <c r="A216">
         <v>3762</v>
       </c>
-      <c r="B216" s="17" t="s">
+      <c r="B216" s="27" t="s">
         <v>217</v>
       </c>
       <c r="C216">
@@ -4057,7 +4077,7 @@
       <c r="A217">
         <v>3763</v>
       </c>
-      <c r="B217" s="17" t="s">
+      <c r="B217" s="27" t="s">
         <v>218</v>
       </c>
       <c r="C217">
@@ -4068,7 +4088,7 @@
       <c r="A218">
         <v>3764</v>
       </c>
-      <c r="B218" s="17" t="s">
+      <c r="B218" s="27" t="s">
         <v>219</v>
       </c>
       <c r="C218">
@@ -4079,7 +4099,7 @@
       <c r="A219">
         <v>3765</v>
       </c>
-      <c r="B219" s="17" t="s">
+      <c r="B219" s="27" t="s">
         <v>220</v>
       </c>
       <c r="C219">
@@ -4090,7 +4110,7 @@
       <c r="A220">
         <v>3771</v>
       </c>
-      <c r="B220" s="17" t="s">
+      <c r="B220" s="27" t="s">
         <v>221</v>
       </c>
       <c r="C220">
@@ -4101,7 +4121,7 @@
       <c r="A221">
         <v>3772</v>
       </c>
-      <c r="B221" s="17" t="s">
+      <c r="B221" s="27" t="s">
         <v>222</v>
       </c>
       <c r="C221">
@@ -4112,7 +4132,7 @@
       <c r="A222">
         <v>3773</v>
       </c>
-      <c r="B222" s="17" t="s">
+      <c r="B222" s="27" t="s">
         <v>223</v>
       </c>
       <c r="C222">
@@ -4123,7 +4143,7 @@
       <c r="A223">
         <v>3911</v>
       </c>
-      <c r="B223" s="17" t="s">
+      <c r="B223" s="27" t="s">
         <v>224</v>
       </c>
       <c r="C223">
@@ -4134,7 +4154,7 @@
       <c r="A224">
         <v>3912</v>
       </c>
-      <c r="B224" s="17" t="s">
+      <c r="B224" s="27" t="s">
         <v>225</v>
       </c>
       <c r="C224">
@@ -4145,7 +4165,7 @@
       <c r="A225">
         <v>-1</v>
       </c>
-      <c r="B225" s="17" t="s">
+      <c r="B225" s="27" t="s">
         <v>226</v>
       </c>
       <c r="C225">
@@ -4156,7 +4176,7 @@
       <c r="A226">
         <v>4101</v>
       </c>
-      <c r="B226" s="17" t="s">
+      <c r="B226" s="27" t="s">
         <v>227</v>
       </c>
       <c r="C226">
@@ -4167,7 +4187,7 @@
       <c r="A227">
         <v>4102</v>
       </c>
-      <c r="B227" s="17" t="s">
+      <c r="B227" s="27" t="s">
         <v>228</v>
       </c>
       <c r="C227">
@@ -4178,7 +4198,7 @@
       <c r="A228">
         <v>4110</v>
       </c>
-      <c r="B228" s="17" t="s">
+      <c r="B228" s="27" t="s">
         <v>229</v>
       </c>
       <c r="C228">
@@ -4189,7 +4209,7 @@
       <c r="A229">
         <v>4121</v>
       </c>
-      <c r="B229" s="17" t="s">
+      <c r="B229" s="27" t="s">
         <v>230</v>
       </c>
       <c r="C229">
@@ -4200,7 +4220,7 @@
       <c r="A230">
         <v>4122</v>
       </c>
-      <c r="B230" s="17" t="s">
+      <c r="B230" s="27" t="s">
         <v>231</v>
       </c>
       <c r="C230">
@@ -4211,7 +4231,7 @@
       <c r="A231">
         <v>4123</v>
       </c>
-      <c r="B231" s="17" t="s">
+      <c r="B231" s="27" t="s">
         <v>232</v>
       </c>
       <c r="C231">
@@ -4222,7 +4242,7 @@
       <c r="A232">
         <v>4131</v>
       </c>
-      <c r="B232" s="17" t="s">
+      <c r="B232" s="27" t="s">
         <v>233</v>
       </c>
       <c r="C232">
@@ -4233,7 +4253,7 @@
       <c r="A233">
         <v>4132</v>
       </c>
-      <c r="B233" s="17" t="s">
+      <c r="B233" s="27" t="s">
         <v>234</v>
       </c>
       <c r="C233">
@@ -4244,7 +4264,7 @@
       <c r="A234">
         <v>4141</v>
       </c>
-      <c r="B234" s="17" t="s">
+      <c r="B234" s="27" t="s">
         <v>235</v>
       </c>
       <c r="C234">
@@ -4255,7 +4275,7 @@
       <c r="A235">
         <v>4142</v>
       </c>
-      <c r="B235" s="17" t="s">
+      <c r="B235" s="27" t="s">
         <v>236</v>
       </c>
       <c r="C235">
@@ -4266,7 +4286,7 @@
       <c r="A236">
         <v>4151</v>
       </c>
-      <c r="B236" s="17" t="s">
+      <c r="B236" s="27" t="s">
         <v>237</v>
       </c>
       <c r="C236">
@@ -4277,7 +4297,7 @@
       <c r="A237">
         <v>4152</v>
       </c>
-      <c r="B237" s="17" t="s">
+      <c r="B237" s="27" t="s">
         <v>238</v>
       </c>
       <c r="C237">
@@ -4288,7 +4308,7 @@
       <c r="A238">
         <v>4201</v>
       </c>
-      <c r="B238" s="17" t="s">
+      <c r="B238" s="27" t="s">
         <v>239</v>
       </c>
       <c r="C238">
@@ -4299,7 +4319,7 @@
       <c r="A239">
         <v>4211</v>
       </c>
-      <c r="B239" s="17" t="s">
+      <c r="B239" s="27" t="s">
         <v>240</v>
       </c>
       <c r="C239">
@@ -4310,7 +4330,7 @@
       <c r="A240">
         <v>4212</v>
       </c>
-      <c r="B240" s="17" t="s">
+      <c r="B240" s="27" t="s">
         <v>241</v>
       </c>
       <c r="C240">
@@ -4321,7 +4341,7 @@
       <c r="A241">
         <v>4213</v>
       </c>
-      <c r="B241" s="17" t="s">
+      <c r="B241" s="27" t="s">
         <v>242</v>
       </c>
       <c r="C241">
@@ -4332,7 +4352,7 @@
       <c r="A242">
         <v>4214</v>
       </c>
-      <c r="B242" s="17" t="s">
+      <c r="B242" s="27" t="s">
         <v>243</v>
       </c>
       <c r="C242">
@@ -4343,7 +4363,7 @@
       <c r="A243">
         <v>4221</v>
       </c>
-      <c r="B243" s="17" t="s">
+      <c r="B243" s="27" t="s">
         <v>244</v>
       </c>
       <c r="C243">
@@ -4354,7 +4374,7 @@
       <c r="A244">
         <v>4222</v>
       </c>
-      <c r="B244" s="17" t="s">
+      <c r="B244" s="27" t="s">
         <v>245</v>
       </c>
       <c r="C244">
@@ -4365,7 +4385,7 @@
       <c r="A245">
         <v>4223</v>
       </c>
-      <c r="B245" s="17" t="s">
+      <c r="B245" s="27" t="s">
         <v>246</v>
       </c>
       <c r="C245">
@@ -4376,7 +4396,7 @@
       <c r="A246">
         <v>4231</v>
       </c>
-      <c r="B246" s="17" t="s">
+      <c r="B246" s="27" t="s">
         <v>247</v>
       </c>
       <c r="C246">
@@ -4387,7 +4407,7 @@
       <c r="A247">
         <v>4241</v>
       </c>
-      <c r="B247" s="17" t="s">
+      <c r="B247" s="27" t="s">
         <v>248</v>
       </c>
       <c r="C247">
@@ -4398,7 +4418,7 @@
       <c r="A248">
         <v>-1</v>
       </c>
-      <c r="B248" s="17" t="s">
+      <c r="B248" s="27" t="s">
         <v>249</v>
       </c>
       <c r="C248">
@@ -4409,7 +4429,7 @@
       <c r="A249">
         <v>5101</v>
       </c>
-      <c r="B249" s="17" t="s">
+      <c r="B249" s="27" t="s">
         <v>250</v>
       </c>
       <c r="C249">
@@ -4420,7 +4440,7 @@
       <c r="A250">
         <v>5102</v>
       </c>
-      <c r="B250" s="17" t="s">
+      <c r="B250" s="27" t="s">
         <v>251</v>
       </c>
       <c r="C250">
@@ -4431,7 +4451,7 @@
       <c r="A251">
         <v>5103</v>
       </c>
-      <c r="B251" s="17" t="s">
+      <c r="B251" s="27" t="s">
         <v>252</v>
       </c>
       <c r="C251">
@@ -4442,7 +4462,7 @@
       <c r="A252">
         <v>5111</v>
       </c>
-      <c r="B252" s="17" t="s">
+      <c r="B252" s="27" t="s">
         <v>253</v>
       </c>
       <c r="C252">
@@ -4453,7 +4473,7 @@
       <c r="A253">
         <v>5112</v>
       </c>
-      <c r="B253" s="17" t="s">
+      <c r="B253" s="27" t="s">
         <v>254</v>
       </c>
       <c r="C253">
@@ -4464,7 +4484,7 @@
       <c r="A254">
         <v>5114</v>
       </c>
-      <c r="B254" s="17" t="s">
+      <c r="B254" s="27" t="s">
         <v>255</v>
       </c>
       <c r="C254">
@@ -4475,7 +4495,7 @@
       <c r="A255">
         <v>5121</v>
       </c>
-      <c r="B255" s="17" t="s">
+      <c r="B255" s="27" t="s">
         <v>256</v>
       </c>
       <c r="C255">
@@ -4486,7 +4506,7 @@
       <c r="A256">
         <v>5131</v>
       </c>
-      <c r="B256" s="17" t="s">
+      <c r="B256" s="27" t="s">
         <v>257</v>
       </c>
       <c r="C256">
@@ -4497,7 +4517,7 @@
       <c r="A257">
         <v>5132</v>
       </c>
-      <c r="B257" s="17" t="s">
+      <c r="B257" s="27" t="s">
         <v>258</v>
       </c>
       <c r="C257">
@@ -4508,7 +4528,7 @@
       <c r="A258">
         <v>5133</v>
       </c>
-      <c r="B258" s="17" t="s">
+      <c r="B258" s="27" t="s">
         <v>259</v>
       </c>
       <c r="C258">
@@ -4519,7 +4539,7 @@
       <c r="A259">
         <v>5134</v>
       </c>
-      <c r="B259" s="17" t="s">
+      <c r="B259" s="27" t="s">
         <v>260</v>
       </c>
       <c r="C259">
@@ -4530,7 +4550,7 @@
       <c r="A260">
         <v>5141</v>
       </c>
-      <c r="B260" s="17" t="s">
+      <c r="B260" s="27" t="s">
         <v>261</v>
       </c>
       <c r="C260">
@@ -4541,7 +4561,7 @@
       <c r="A261">
         <v>5142</v>
       </c>
-      <c r="B261" s="17" t="s">
+      <c r="B261" s="27" t="s">
         <v>262</v>
       </c>
       <c r="C261">
@@ -4552,7 +4572,7 @@
       <c r="A262">
         <v>5151</v>
       </c>
-      <c r="B262" s="17" t="s">
+      <c r="B262" s="27" t="s">
         <v>263</v>
       </c>
       <c r="C262">
@@ -4563,7 +4583,7 @@
       <c r="A263">
         <v>5152</v>
       </c>
-      <c r="B263" s="17" t="s">
+      <c r="B263" s="27" t="s">
         <v>264</v>
       </c>
       <c r="C263">
@@ -4574,7 +4594,7 @@
       <c r="A264">
         <v>5161</v>
       </c>
-      <c r="B264" s="17" t="s">
+      <c r="B264" s="27" t="s">
         <v>265</v>
       </c>
       <c r="C264">
@@ -4585,7 +4605,7 @@
       <c r="A265">
         <v>5162</v>
       </c>
-      <c r="B265" s="17" t="s">
+      <c r="B265" s="27" t="s">
         <v>266</v>
       </c>
       <c r="C265">
@@ -4596,7 +4616,7 @@
       <c r="A266">
         <v>5165</v>
       </c>
-      <c r="B266" s="17" t="s">
+      <c r="B266" s="27" t="s">
         <v>267</v>
       </c>
       <c r="C266">
@@ -4607,7 +4627,7 @@
       <c r="A267">
         <v>5166</v>
       </c>
-      <c r="B267" s="17" t="s">
+      <c r="B267" s="27" t="s">
         <v>268</v>
       </c>
       <c r="C267">
@@ -4618,7 +4638,7 @@
       <c r="A268">
         <v>5167</v>
       </c>
-      <c r="B268" s="17" t="s">
+      <c r="B268" s="27" t="s">
         <v>269</v>
       </c>
       <c r="C268">
@@ -4629,7 +4649,7 @@
       <c r="A269">
         <v>5169</v>
       </c>
-      <c r="B269" s="17" t="s">
+      <c r="B269" s="27" t="s">
         <v>270</v>
       </c>
       <c r="C269">
@@ -4640,7 +4660,7 @@
       <c r="A270">
         <v>5171</v>
       </c>
-      <c r="B270" s="17" t="s">
+      <c r="B270" s="27" t="s">
         <v>271</v>
       </c>
       <c r="C270">
@@ -4651,7 +4671,7 @@
       <c r="A271">
         <v>5172</v>
       </c>
-      <c r="B271" s="17" t="s">
+      <c r="B271" s="27" t="s">
         <v>272</v>
       </c>
       <c r="C271">
@@ -4662,7 +4682,7 @@
       <c r="A272">
         <v>5173</v>
       </c>
-      <c r="B272" s="17" t="s">
+      <c r="B272" s="27" t="s">
         <v>273</v>
       </c>
       <c r="C272">
@@ -4673,7 +4693,7 @@
       <c r="A273">
         <v>5174</v>
       </c>
-      <c r="B273" s="17" t="s">
+      <c r="B273" s="27" t="s">
         <v>274</v>
       </c>
       <c r="C273">
@@ -4684,7 +4704,7 @@
       <c r="A274">
         <v>5191</v>
       </c>
-      <c r="B274" s="17" t="s">
+      <c r="B274" s="27" t="s">
         <v>275</v>
       </c>
       <c r="C274">
@@ -4695,7 +4715,7 @@
       <c r="A275">
         <v>5192</v>
       </c>
-      <c r="B275" s="17" t="s">
+      <c r="B275" s="27" t="s">
         <v>276</v>
       </c>
       <c r="C275">
@@ -4706,7 +4726,7 @@
       <c r="A276">
         <v>5198</v>
       </c>
-      <c r="B276" s="17" t="s">
+      <c r="B276" s="27" t="s">
         <v>277</v>
       </c>
       <c r="C276">
@@ -4717,7 +4737,7 @@
       <c r="A277">
         <v>5199</v>
       </c>
-      <c r="B277" s="17" t="s">
+      <c r="B277" s="27" t="s">
         <v>278</v>
       </c>
       <c r="C277">
@@ -4728,7 +4748,7 @@
       <c r="A278">
         <v>5201</v>
       </c>
-      <c r="B278" s="17" t="s">
+      <c r="B278" s="27" t="s">
         <v>279</v>
       </c>
       <c r="C278">
@@ -4739,7 +4759,7 @@
       <c r="A279">
         <v>5211</v>
       </c>
-      <c r="B279" s="17" t="s">
+      <c r="B279" s="27" t="s">
         <v>280</v>
       </c>
       <c r="C279">
@@ -4750,7 +4770,7 @@
       <c r="A280">
         <v>5221</v>
       </c>
-      <c r="B280" s="17" t="s">
+      <c r="B280" s="27" t="s">
         <v>281</v>
       </c>
       <c r="C280">
@@ -4761,7 +4781,7 @@
       <c r="A281">
         <v>5231</v>
       </c>
-      <c r="B281" s="17" t="s">
+      <c r="B281" s="27" t="s">
         <v>282</v>
       </c>
       <c r="C281">
@@ -4772,7 +4792,7 @@
       <c r="A282">
         <v>5241</v>
       </c>
-      <c r="B282" s="17" t="s">
+      <c r="B282" s="27" t="s">
         <v>283</v>
       </c>
       <c r="C282">
@@ -4783,7 +4803,7 @@
       <c r="A283">
         <v>5242</v>
       </c>
-      <c r="B283" s="17" t="s">
+      <c r="B283" s="27" t="s">
         <v>284</v>
       </c>
       <c r="C283">
@@ -4794,7 +4814,7 @@
       <c r="A284">
         <v>5243</v>
       </c>
-      <c r="B284" s="17" t="s">
+      <c r="B284" s="27" t="s">
         <v>285</v>
       </c>
       <c r="C284">
@@ -4805,7 +4825,7 @@
       <c r="A285">
         <v>-1</v>
       </c>
-      <c r="B285" s="17" t="s">
+      <c r="B285" s="27" t="s">
         <v>286</v>
       </c>
       <c r="C285">
@@ -4816,7 +4836,7 @@
       <c r="A286">
         <v>6110</v>
       </c>
-      <c r="B286" s="17" t="s">
+      <c r="B286" s="27" t="s">
         <v>287</v>
       </c>
       <c r="C286">
@@ -4827,7 +4847,7 @@
       <c r="A287">
         <v>6129</v>
       </c>
-      <c r="B287" s="17" t="s">
+      <c r="B287" s="27" t="s">
         <v>288</v>
       </c>
       <c r="C287">
@@ -4838,7 +4858,7 @@
       <c r="A288">
         <v>6139</v>
       </c>
-      <c r="B288" s="17" t="s">
+      <c r="B288" s="27" t="s">
         <v>289</v>
       </c>
       <c r="C288">
@@ -4849,7 +4869,7 @@
       <c r="A289">
         <v>6201</v>
       </c>
-      <c r="B289" s="17" t="s">
+      <c r="B289" s="27" t="s">
         <v>290</v>
       </c>
       <c r="C289">
@@ -4860,7 +4880,7 @@
       <c r="A290">
         <v>6210</v>
       </c>
-      <c r="B290" s="17" t="s">
+      <c r="B290" s="27" t="s">
         <v>291</v>
       </c>
       <c r="C290">
@@ -4871,7 +4891,7 @@
       <c r="A291">
         <v>6229</v>
       </c>
-      <c r="B291" s="17" t="s">
+      <c r="B291" s="27" t="s">
         <v>292</v>
       </c>
       <c r="C291">
@@ -4882,7 +4902,7 @@
       <c r="A292">
         <v>6239</v>
       </c>
-      <c r="B292" s="17" t="s">
+      <c r="B292" s="27" t="s">
         <v>293</v>
       </c>
       <c r="C292">
@@ -4893,7 +4913,7 @@
       <c r="A293">
         <v>6301</v>
       </c>
-      <c r="B293" s="17" t="s">
+      <c r="B293" s="27" t="s">
         <v>294</v>
       </c>
       <c r="C293">
@@ -4904,7 +4924,7 @@
       <c r="A294">
         <v>6319</v>
       </c>
-      <c r="B294" s="17" t="s">
+      <c r="B294" s="27" t="s">
         <v>295</v>
       </c>
       <c r="C294">
@@ -4915,7 +4935,7 @@
       <c r="A295">
         <v>6329</v>
       </c>
-      <c r="B295" s="17" t="s">
+      <c r="B295" s="27" t="s">
         <v>296</v>
       </c>
       <c r="C295">
@@ -4926,7 +4946,7 @@
       <c r="A296">
         <v>6410</v>
       </c>
-      <c r="B296" s="17" t="s">
+      <c r="B296" s="27" t="s">
         <v>297</v>
       </c>
       <c r="C296">
@@ -4937,7 +4957,7 @@
       <c r="A297">
         <v>6420</v>
       </c>
-      <c r="B297" s="17" t="s">
+      <c r="B297" s="27" t="s">
         <v>298</v>
       </c>
       <c r="C297">
@@ -4948,7 +4968,7 @@
       <c r="A298">
         <v>6430</v>
       </c>
-      <c r="B298" s="17" t="s">
+      <c r="B298" s="27" t="s">
         <v>299</v>
       </c>
       <c r="C298">
@@ -4959,7 +4979,7 @@
       <c r="A299">
         <v>-1</v>
       </c>
-      <c r="B299" s="17" t="s">
+      <c r="B299" s="27" t="s">
         <v>300</v>
       </c>
       <c r="C299">
@@ -4970,7 +4990,7 @@
       <c r="A300">
         <v>7101</v>
       </c>
-      <c r="B300" s="17" t="s">
+      <c r="B300" s="27" t="s">
         <v>301</v>
       </c>
       <c r="C300">
@@ -4981,7 +5001,7 @@
       <c r="A301">
         <v>7102</v>
       </c>
-      <c r="B301" s="17" t="s">
+      <c r="B301" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C301">
@@ -4992,7 +5012,7 @@
       <c r="A302">
         <v>7111</v>
       </c>
-      <c r="B302" s="17" t="s">
+      <c r="B302" s="27" t="s">
         <v>303</v>
       </c>
       <c r="C302">
@@ -5003,7 +5023,7 @@
       <c r="A303">
         <v>7112</v>
       </c>
-      <c r="B303" s="17" t="s">
+      <c r="B303" s="27" t="s">
         <v>304</v>
       </c>
       <c r="C303">
@@ -5014,7 +5034,7 @@
       <c r="A304">
         <v>7113</v>
       </c>
-      <c r="B304" s="17" t="s">
+      <c r="B304" s="27" t="s">
         <v>305</v>
       </c>
       <c r="C304">
@@ -5025,7 +5045,7 @@
       <c r="A305">
         <v>7114</v>
       </c>
-      <c r="B305" s="17" t="s">
+      <c r="B305" s="27" t="s">
         <v>306</v>
       </c>
       <c r="C305">
@@ -5036,7 +5056,7 @@
       <c r="A306">
         <v>7121</v>
       </c>
-      <c r="B306" s="17" t="s">
+      <c r="B306" s="27" t="s">
         <v>307</v>
       </c>
       <c r="C306">
@@ -5047,7 +5067,7 @@
       <c r="A307">
         <v>7122</v>
       </c>
-      <c r="B307" s="17" t="s">
+      <c r="B307" s="27" t="s">
         <v>308</v>
       </c>
       <c r="C307">
@@ -5058,7 +5078,7 @@
       <c r="A308">
         <v>7151</v>
       </c>
-      <c r="B308" s="17" t="s">
+      <c r="B308" s="27" t="s">
         <v>309</v>
       </c>
       <c r="C308">
@@ -5069,7 +5089,7 @@
       <c r="A309">
         <v>7152</v>
       </c>
-      <c r="B309" s="17" t="s">
+      <c r="B309" s="27" t="s">
         <v>310</v>
       </c>
       <c r="C309">
@@ -5080,7 +5100,7 @@
       <c r="A310">
         <v>7153</v>
       </c>
-      <c r="B310" s="17" t="s">
+      <c r="B310" s="27" t="s">
         <v>311</v>
       </c>
       <c r="C310">
@@ -5091,7 +5111,7 @@
       <c r="A311">
         <v>7154</v>
       </c>
-      <c r="B311" s="17" t="s">
+      <c r="B311" s="27" t="s">
         <v>312</v>
       </c>
       <c r="C311">
@@ -5102,7 +5122,7 @@
       <c r="A312">
         <v>7155</v>
       </c>
-      <c r="B312" s="17" t="s">
+      <c r="B312" s="27" t="s">
         <v>313</v>
       </c>
       <c r="C312">
@@ -5113,7 +5133,7 @@
       <c r="A313">
         <v>7156</v>
       </c>
-      <c r="B313" s="17" t="s">
+      <c r="B313" s="27" t="s">
         <v>314</v>
       </c>
       <c r="C313">
@@ -5124,7 +5144,7 @@
       <c r="A314">
         <v>7157</v>
       </c>
-      <c r="B314" s="17" t="s">
+      <c r="B314" s="27" t="s">
         <v>315</v>
       </c>
       <c r="C314">
@@ -5135,7 +5155,7 @@
       <c r="A315">
         <v>7161</v>
       </c>
-      <c r="B315" s="17" t="s">
+      <c r="B315" s="27" t="s">
         <v>316</v>
       </c>
       <c r="C315">
@@ -5146,7 +5166,7 @@
       <c r="A316">
         <v>7162</v>
       </c>
-      <c r="B316" s="17" t="s">
+      <c r="B316" s="27" t="s">
         <v>317</v>
       </c>
       <c r="C316">
@@ -5157,7 +5177,7 @@
       <c r="A317">
         <v>7163</v>
       </c>
-      <c r="B317" s="17" t="s">
+      <c r="B317" s="27" t="s">
         <v>318</v>
       </c>
       <c r="C317">
@@ -5168,7 +5188,7 @@
       <c r="A318">
         <v>7164</v>
       </c>
-      <c r="B318" s="17" t="s">
+      <c r="B318" s="27" t="s">
         <v>319</v>
       </c>
       <c r="C318">
@@ -5179,7 +5199,7 @@
       <c r="A319">
         <v>7165</v>
       </c>
-      <c r="B319" s="17" t="s">
+      <c r="B319" s="27" t="s">
         <v>320</v>
       </c>
       <c r="C319">
@@ -5190,7 +5210,7 @@
       <c r="A320">
         <v>7166</v>
       </c>
-      <c r="B320" s="17" t="s">
+      <c r="B320" s="27" t="s">
         <v>321</v>
       </c>
       <c r="C320">
@@ -5201,7 +5221,7 @@
       <c r="A321">
         <v>7170</v>
       </c>
-      <c r="B321" s="17" t="s">
+      <c r="B321" s="27" t="s">
         <v>322</v>
       </c>
       <c r="C321">
@@ -5212,7 +5232,7 @@
       <c r="A322">
         <v>7201</v>
       </c>
-      <c r="B322" s="17" t="s">
+      <c r="B322" s="27" t="s">
         <v>323</v>
       </c>
       <c r="C322">
@@ -5223,7 +5243,7 @@
       <c r="A323">
         <v>7202</v>
       </c>
-      <c r="B323" s="17" t="s">
+      <c r="B323" s="27" t="s">
         <v>324</v>
       </c>
       <c r="C323">
@@ -5234,7 +5254,7 @@
       <c r="A324">
         <v>7211</v>
       </c>
-      <c r="B324" s="17" t="s">
+      <c r="B324" s="27" t="s">
         <v>325</v>
       </c>
       <c r="C324">
@@ -5245,7 +5265,7 @@
       <c r="A325">
         <v>7212</v>
       </c>
-      <c r="B325" s="17" t="s">
+      <c r="B325" s="27" t="s">
         <v>326</v>
       </c>
       <c r="C325">
@@ -5256,7 +5276,7 @@
       <c r="A326">
         <v>7213</v>
       </c>
-      <c r="B326" s="17" t="s">
+      <c r="B326" s="27" t="s">
         <v>327</v>
       </c>
       <c r="C326">
@@ -5267,7 +5287,7 @@
       <c r="A327">
         <v>7214</v>
       </c>
-      <c r="B327" s="17" t="s">
+      <c r="B327" s="27" t="s">
         <v>328</v>
       </c>
       <c r="C327">
@@ -5278,7 +5298,7 @@
       <c r="A328">
         <v>7215</v>
       </c>
-      <c r="B328" s="17" t="s">
+      <c r="B328" s="27" t="s">
         <v>329</v>
       </c>
       <c r="C328">
@@ -5289,7 +5309,7 @@
       <c r="A329">
         <v>7221</v>
       </c>
-      <c r="B329" s="17" t="s">
+      <c r="B329" s="27" t="s">
         <v>330</v>
       </c>
       <c r="C329">
@@ -5300,7 +5320,7 @@
       <c r="A330">
         <v>7222</v>
       </c>
-      <c r="B330" s="17" t="s">
+      <c r="B330" s="27" t="s">
         <v>331</v>
       </c>
       <c r="C330">
@@ -5311,7 +5331,7 @@
       <c r="A331">
         <v>7223</v>
       </c>
-      <c r="B331" s="17" t="s">
+      <c r="B331" s="27" t="s">
         <v>332</v>
       </c>
       <c r="C331">
@@ -5322,7 +5342,7 @@
       <c r="A332">
         <v>7224</v>
       </c>
-      <c r="B332" s="17" t="s">
+      <c r="B332" s="27" t="s">
         <v>333</v>
       </c>
       <c r="C332">
@@ -5333,7 +5353,7 @@
       <c r="A333">
         <v>7231</v>
       </c>
-      <c r="B333" s="17" t="s">
+      <c r="B333" s="27" t="s">
         <v>334</v>
       </c>
       <c r="C333">
@@ -5344,7 +5364,7 @@
       <c r="A334">
         <v>7232</v>
       </c>
-      <c r="B334" s="17" t="s">
+      <c r="B334" s="27" t="s">
         <v>335</v>
       </c>
       <c r="C334">
@@ -5355,7 +5375,7 @@
       <c r="A335">
         <v>7233</v>
       </c>
-      <c r="B335" s="17" t="s">
+      <c r="B335" s="27" t="s">
         <v>336</v>
       </c>
       <c r="C335">
@@ -5366,7 +5386,7 @@
       <c r="A336">
         <v>7241</v>
       </c>
-      <c r="B336" s="17" t="s">
+      <c r="B336" s="27" t="s">
         <v>337</v>
       </c>
       <c r="C336">
@@ -5377,7 +5397,7 @@
       <c r="A337">
         <v>7242</v>
       </c>
-      <c r="B337" s="17" t="s">
+      <c r="B337" s="27" t="s">
         <v>338</v>
       </c>
       <c r="C337">
@@ -5388,7 +5408,7 @@
       <c r="A338">
         <v>7243</v>
       </c>
-      <c r="B338" s="17" t="s">
+      <c r="B338" s="27" t="s">
         <v>339</v>
       </c>
       <c r="C338">
@@ -5399,7 +5419,7 @@
       <c r="A339">
         <v>7244</v>
       </c>
-      <c r="B339" s="17" t="s">
+      <c r="B339" s="27" t="s">
         <v>340</v>
       </c>
       <c r="C339">
@@ -5410,7 +5430,7 @@
       <c r="A340">
         <v>7245</v>
       </c>
-      <c r="B340" s="17" t="s">
+      <c r="B340" s="27" t="s">
         <v>341</v>
       </c>
       <c r="C340">
@@ -5421,7 +5441,7 @@
       <c r="A341">
         <v>7246</v>
       </c>
-      <c r="B341" s="17" t="s">
+      <c r="B341" s="27" t="s">
         <v>342</v>
       </c>
       <c r="C341">
@@ -5432,7 +5452,7 @@
       <c r="A342">
         <v>7250</v>
       </c>
-      <c r="B342" s="17" t="s">
+      <c r="B342" s="27" t="s">
         <v>343</v>
       </c>
       <c r="C342">
@@ -5443,7 +5463,7 @@
       <c r="A343">
         <v>7251</v>
       </c>
-      <c r="B343" s="17" t="s">
+      <c r="B343" s="27" t="s">
         <v>344</v>
       </c>
       <c r="C343">
@@ -5454,7 +5474,7 @@
       <c r="A344">
         <v>7252</v>
       </c>
-      <c r="B344" s="17" t="s">
+      <c r="B344" s="27" t="s">
         <v>345</v>
       </c>
       <c r="C344">
@@ -5465,7 +5485,7 @@
       <c r="A345">
         <v>7253</v>
       </c>
-      <c r="B345" s="17" t="s">
+      <c r="B345" s="27" t="s">
         <v>346</v>
       </c>
       <c r="C345">
@@ -5476,7 +5496,7 @@
       <c r="A346">
         <v>7254</v>
       </c>
-      <c r="B346" s="17" t="s">
+      <c r="B346" s="27" t="s">
         <v>347</v>
       </c>
       <c r="C346">
@@ -5487,7 +5507,7 @@
       <c r="A347">
         <v>7255</v>
       </c>
-      <c r="B347" s="17" t="s">
+      <c r="B347" s="27" t="s">
         <v>348</v>
       </c>
       <c r="C347">
@@ -5498,7 +5518,7 @@
       <c r="A348">
         <v>7256</v>
       </c>
-      <c r="B348" s="17" t="s">
+      <c r="B348" s="27" t="s">
         <v>349</v>
       </c>
       <c r="C348">
@@ -5509,7 +5529,7 @@
       <c r="A349">
         <v>7257</v>
       </c>
-      <c r="B349" s="17" t="s">
+      <c r="B349" s="27" t="s">
         <v>350</v>
       </c>
       <c r="C349">
@@ -5520,7 +5540,7 @@
       <c r="A350">
         <v>7301</v>
       </c>
-      <c r="B350" s="17" t="s">
+      <c r="B350" s="27" t="s">
         <v>351</v>
       </c>
       <c r="C350">
@@ -5531,7 +5551,7 @@
       <c r="A351">
         <v>7311</v>
       </c>
-      <c r="B351" s="17" t="s">
+      <c r="B351" s="27" t="s">
         <v>352</v>
       </c>
       <c r="C351">
@@ -5542,7 +5562,7 @@
       <c r="A352">
         <v>7312</v>
       </c>
-      <c r="B352" s="17" t="s">
+      <c r="B352" s="27" t="s">
         <v>353</v>
       </c>
       <c r="C352">
@@ -5553,7 +5573,7 @@
       <c r="A353">
         <v>7313</v>
       </c>
-      <c r="B353" s="17" t="s">
+      <c r="B353" s="27" t="s">
         <v>354</v>
       </c>
       <c r="C353">
@@ -5564,7 +5584,7 @@
       <c r="A354">
         <v>7321</v>
       </c>
-      <c r="B354" s="17" t="s">
+      <c r="B354" s="27" t="s">
         <v>355</v>
       </c>
       <c r="C354">
@@ -5575,7 +5595,7 @@
       <c r="A355">
         <v>7401</v>
       </c>
-      <c r="B355" s="17" t="s">
+      <c r="B355" s="27" t="s">
         <v>356</v>
       </c>
       <c r="C355">
@@ -5586,7 +5606,7 @@
       <c r="A356">
         <v>7411</v>
       </c>
-      <c r="B356" s="17" t="s">
+      <c r="B356" s="27" t="s">
         <v>357</v>
       </c>
       <c r="C356">
@@ -5597,7 +5617,7 @@
       <c r="A357">
         <v>7421</v>
       </c>
-      <c r="B357" s="17" t="s">
+      <c r="B357" s="27" t="s">
         <v>358</v>
       </c>
       <c r="C357">
@@ -5608,7 +5628,7 @@
       <c r="A358">
         <v>7501</v>
       </c>
-      <c r="B358" s="17" t="s">
+      <c r="B358" s="27" t="s">
         <v>359</v>
       </c>
       <c r="C358">
@@ -5619,7 +5639,7 @@
       <c r="A359">
         <v>7502</v>
       </c>
-      <c r="B359" s="17" t="s">
+      <c r="B359" s="27" t="s">
         <v>360</v>
       </c>
       <c r="C359">
@@ -5630,7 +5650,7 @@
       <c r="A360">
         <v>7519</v>
       </c>
-      <c r="B360" s="17" t="s">
+      <c r="B360" s="27" t="s">
         <v>361</v>
       </c>
       <c r="C360">
@@ -5641,7 +5661,7 @@
       <c r="A361">
         <v>7521</v>
       </c>
-      <c r="B361" s="17" t="s">
+      <c r="B361" s="27" t="s">
         <v>362</v>
       </c>
       <c r="C361">
@@ -5652,7 +5672,7 @@
       <c r="A362">
         <v>7522</v>
       </c>
-      <c r="B362" s="17" t="s">
+      <c r="B362" s="27" t="s">
         <v>363</v>
       </c>
       <c r="C362">
@@ -5663,7 +5683,7 @@
       <c r="A363">
         <v>7523</v>
       </c>
-      <c r="B363" s="17" t="s">
+      <c r="B363" s="27" t="s">
         <v>364</v>
       </c>
       <c r="C363">
@@ -5674,7 +5694,7 @@
       <c r="A364">
         <v>7524</v>
       </c>
-      <c r="B364" s="17" t="s">
+      <c r="B364" s="27" t="s">
         <v>365</v>
       </c>
       <c r="C364">
@@ -5685,7 +5705,7 @@
       <c r="A365">
         <v>7601</v>
       </c>
-      <c r="B365" s="17" t="s">
+      <c r="B365" s="27" t="s">
         <v>366</v>
       </c>
       <c r="C365">
@@ -5696,7 +5716,7 @@
       <c r="A366">
         <v>7602</v>
       </c>
-      <c r="B366" s="17" t="s">
+      <c r="B366" s="27" t="s">
         <v>367</v>
       </c>
       <c r="C366">
@@ -5707,7 +5727,7 @@
       <c r="A367">
         <v>7603</v>
       </c>
-      <c r="B367" s="17" t="s">
+      <c r="B367" s="27" t="s">
         <v>368</v>
       </c>
       <c r="C367">
@@ -5718,7 +5738,7 @@
       <c r="A368">
         <v>7604</v>
       </c>
-      <c r="B368" s="17" t="s">
+      <c r="B368" s="27" t="s">
         <v>369</v>
       </c>
       <c r="C368">
@@ -5729,7 +5749,7 @@
       <c r="A369">
         <v>7605</v>
       </c>
-      <c r="B369" s="17" t="s">
+      <c r="B369" s="27" t="s">
         <v>370</v>
       </c>
       <c r="C369">
@@ -5740,7 +5760,7 @@
       <c r="A370">
         <v>7606</v>
       </c>
-      <c r="B370" s="17" t="s">
+      <c r="B370" s="27" t="s">
         <v>371</v>
       </c>
       <c r="C370">
@@ -5751,7 +5771,7 @@
       <c r="A371">
         <v>7610</v>
       </c>
-      <c r="B371" s="17" t="s">
+      <c r="B371" s="27" t="s">
         <v>372</v>
       </c>
       <c r="C371">
@@ -5762,7 +5782,7 @@
       <c r="A372">
         <v>7611</v>
       </c>
-      <c r="B372" s="17" t="s">
+      <c r="B372" s="27" t="s">
         <v>373</v>
       </c>
       <c r="C372">
@@ -5773,7 +5793,7 @@
       <c r="A373">
         <v>7612</v>
       </c>
-      <c r="B373" s="17" t="s">
+      <c r="B373" s="27" t="s">
         <v>374</v>
       </c>
       <c r="C373">
@@ -5784,7 +5804,7 @@
       <c r="A374">
         <v>7613</v>
       </c>
-      <c r="B374" s="17" t="s">
+      <c r="B374" s="27" t="s">
         <v>375</v>
       </c>
       <c r="C374">
@@ -5795,7 +5815,7 @@
       <c r="A375">
         <v>7614</v>
       </c>
-      <c r="B375" s="17" t="s">
+      <c r="B375" s="27" t="s">
         <v>376</v>
       </c>
       <c r="C375">
@@ -5806,7 +5826,7 @@
       <c r="A376">
         <v>7618</v>
       </c>
-      <c r="B376" s="17" t="s">
+      <c r="B376" s="27" t="s">
         <v>377</v>
       </c>
       <c r="C376">
@@ -5817,7 +5837,7 @@
       <c r="A377">
         <v>7620</v>
       </c>
-      <c r="B377" s="17" t="s">
+      <c r="B377" s="27" t="s">
         <v>378</v>
       </c>
       <c r="C377">
@@ -5828,7 +5848,7 @@
       <c r="A378">
         <v>7621</v>
       </c>
-      <c r="B378" s="17" t="s">
+      <c r="B378" s="27" t="s">
         <v>379</v>
       </c>
       <c r="C378">
@@ -5839,7 +5859,7 @@
       <c r="A379">
         <v>7622</v>
       </c>
-      <c r="B379" s="17" t="s">
+      <c r="B379" s="27" t="s">
         <v>380</v>
       </c>
       <c r="C379">
@@ -5850,7 +5870,7 @@
       <c r="A380">
         <v>7623</v>
       </c>
-      <c r="B380" s="17" t="s">
+      <c r="B380" s="27" t="s">
         <v>381</v>
       </c>
       <c r="C380">
@@ -5861,7 +5881,7 @@
       <c r="A381">
         <v>7630</v>
       </c>
-      <c r="B381" s="17" t="s">
+      <c r="B381" s="27" t="s">
         <v>382</v>
       </c>
       <c r="C381">
@@ -5872,7 +5892,7 @@
       <c r="A382">
         <v>7631</v>
       </c>
-      <c r="B382" s="17" t="s">
+      <c r="B382" s="27" t="s">
         <v>383</v>
       </c>
       <c r="C382">
@@ -5883,7 +5903,7 @@
       <c r="A383">
         <v>7632</v>
       </c>
-      <c r="B383" s="17" t="s">
+      <c r="B383" s="27" t="s">
         <v>384</v>
       </c>
       <c r="C383">
@@ -5894,7 +5914,7 @@
       <c r="A384">
         <v>7633</v>
       </c>
-      <c r="B384" s="17" t="s">
+      <c r="B384" s="27" t="s">
         <v>385</v>
       </c>
       <c r="C384">
@@ -5905,7 +5925,7 @@
       <c r="A385">
         <v>7640</v>
       </c>
-      <c r="B385" s="17" t="s">
+      <c r="B385" s="27" t="s">
         <v>386</v>
       </c>
       <c r="C385">
@@ -5916,7 +5936,7 @@
       <c r="A386">
         <v>7641</v>
       </c>
-      <c r="B386" s="17" t="s">
+      <c r="B386" s="27" t="s">
         <v>387</v>
       </c>
       <c r="C386">
@@ -5927,7 +5947,7 @@
       <c r="A387">
         <v>7642</v>
       </c>
-      <c r="B387" s="17" t="s">
+      <c r="B387" s="27" t="s">
         <v>388</v>
       </c>
       <c r="C387">
@@ -5938,7 +5958,7 @@
       <c r="A388">
         <v>7643</v>
       </c>
-      <c r="B388" s="17" t="s">
+      <c r="B388" s="27" t="s">
         <v>389</v>
       </c>
       <c r="C388">
@@ -5949,7 +5969,7 @@
       <c r="A389">
         <v>7650</v>
       </c>
-      <c r="B389" s="17" t="s">
+      <c r="B389" s="27" t="s">
         <v>390</v>
       </c>
       <c r="C389">
@@ -5960,7 +5980,7 @@
       <c r="A390">
         <v>7651</v>
       </c>
-      <c r="B390" s="17" t="s">
+      <c r="B390" s="27" t="s">
         <v>391</v>
       </c>
       <c r="C390">
@@ -5971,7 +5991,7 @@
       <c r="A391">
         <v>7652</v>
       </c>
-      <c r="B391" s="17" t="s">
+      <c r="B391" s="27" t="s">
         <v>392</v>
       </c>
       <c r="C391">
@@ -5982,7 +6002,7 @@
       <c r="A392">
         <v>7653</v>
       </c>
-      <c r="B392" s="17" t="s">
+      <c r="B392" s="27" t="s">
         <v>393</v>
       </c>
       <c r="C392">
@@ -5993,7 +6013,7 @@
       <c r="A393">
         <v>7654</v>
       </c>
-      <c r="B393" s="17" t="s">
+      <c r="B393" s="27" t="s">
         <v>394</v>
       </c>
       <c r="C393">
@@ -6004,7 +6024,7 @@
       <c r="A394">
         <v>7660</v>
       </c>
-      <c r="B394" s="17" t="s">
+      <c r="B394" s="27" t="s">
         <v>395</v>
       </c>
       <c r="C394">
@@ -6015,7 +6035,7 @@
       <c r="A395">
         <v>7661</v>
       </c>
-      <c r="B395" s="17" t="s">
+      <c r="B395" s="27" t="s">
         <v>396</v>
       </c>
       <c r="C395">
@@ -6026,7 +6046,7 @@
       <c r="A396">
         <v>7662</v>
       </c>
-      <c r="B396" s="17" t="s">
+      <c r="B396" s="27" t="s">
         <v>397</v>
       </c>
       <c r="C396">
@@ -6037,7 +6057,7 @@
       <c r="A397">
         <v>7663</v>
       </c>
-      <c r="B397" s="17" t="s">
+      <c r="B397" s="27" t="s">
         <v>398</v>
       </c>
       <c r="C397">
@@ -6048,7 +6068,7 @@
       <c r="A398">
         <v>7664</v>
       </c>
-      <c r="B398" s="17" t="s">
+      <c r="B398" s="27" t="s">
         <v>399</v>
       </c>
       <c r="C398">
@@ -6059,7 +6079,7 @@
       <c r="A399">
         <v>7681</v>
       </c>
-      <c r="B399" s="17" t="s">
+      <c r="B399" s="27" t="s">
         <v>400</v>
       </c>
       <c r="C399">
@@ -6070,7 +6090,7 @@
       <c r="A400">
         <v>7682</v>
       </c>
-      <c r="B400" s="17" t="s">
+      <c r="B400" s="27" t="s">
         <v>401</v>
       </c>
       <c r="C400">
@@ -6081,7 +6101,7 @@
       <c r="A401">
         <v>7683</v>
       </c>
-      <c r="B401" s="17" t="s">
+      <c r="B401" s="27" t="s">
         <v>402</v>
       </c>
       <c r="C401">
@@ -6092,7 +6112,7 @@
       <c r="A402">
         <v>7686</v>
       </c>
-      <c r="B402" s="17" t="s">
+      <c r="B402" s="27" t="s">
         <v>403</v>
       </c>
       <c r="C402">
@@ -6103,7 +6123,7 @@
       <c r="A403">
         <v>7687</v>
       </c>
-      <c r="B403" s="17" t="s">
+      <c r="B403" s="27" t="s">
         <v>404</v>
       </c>
       <c r="C403">
@@ -6114,7 +6134,7 @@
       <c r="A404">
         <v>7701</v>
       </c>
-      <c r="B404" s="17" t="s">
+      <c r="B404" s="27" t="s">
         <v>405</v>
       </c>
       <c r="C404">
@@ -6125,7 +6145,7 @@
       <c r="A405">
         <v>7711</v>
       </c>
-      <c r="B405" s="17" t="s">
+      <c r="B405" s="27" t="s">
         <v>406</v>
       </c>
       <c r="C405">
@@ -6136,7 +6156,7 @@
       <c r="A406">
         <v>7721</v>
       </c>
-      <c r="B406" s="17" t="s">
+      <c r="B406" s="27" t="s">
         <v>407</v>
       </c>
       <c r="C406">
@@ -6147,7 +6167,7 @@
       <c r="A407">
         <v>7731</v>
       </c>
-      <c r="B407" s="17" t="s">
+      <c r="B407" s="27" t="s">
         <v>408</v>
       </c>
       <c r="C407">
@@ -6158,7 +6178,7 @@
       <c r="A408">
         <v>7732</v>
       </c>
-      <c r="B408" s="17" t="s">
+      <c r="B408" s="27" t="s">
         <v>409</v>
       </c>
       <c r="C408">
@@ -6169,7 +6189,7 @@
       <c r="A409">
         <v>7733</v>
       </c>
-      <c r="B409" s="17" t="s">
+      <c r="B409" s="27" t="s">
         <v>410</v>
       </c>
       <c r="C409">
@@ -6180,7 +6200,7 @@
       <c r="A410">
         <v>7734</v>
       </c>
-      <c r="B410" s="17" t="s">
+      <c r="B410" s="27" t="s">
         <v>411</v>
       </c>
       <c r="C410">
@@ -6191,7 +6211,7 @@
       <c r="A411">
         <v>7735</v>
       </c>
-      <c r="B411" s="17" t="s">
+      <c r="B411" s="27" t="s">
         <v>412</v>
       </c>
       <c r="C411">
@@ -6202,7 +6222,7 @@
       <c r="A412">
         <v>7741</v>
       </c>
-      <c r="B412" s="17" t="s">
+      <c r="B412" s="27" t="s">
         <v>413</v>
       </c>
       <c r="C412">
@@ -6213,7 +6233,7 @@
       <c r="A413">
         <v>7751</v>
       </c>
-      <c r="B413" s="17" t="s">
+      <c r="B413" s="27" t="s">
         <v>414</v>
       </c>
       <c r="C413">
@@ -6224,7 +6244,7 @@
       <c r="A414">
         <v>7764</v>
       </c>
-      <c r="B414" s="17" t="s">
+      <c r="B414" s="27" t="s">
         <v>415</v>
       </c>
       <c r="C414">
@@ -6235,7 +6255,7 @@
       <c r="A415">
         <v>7771</v>
       </c>
-      <c r="B415" s="17" t="s">
+      <c r="B415" s="27" t="s">
         <v>416</v>
       </c>
       <c r="C415">
@@ -6246,7 +6266,7 @@
       <c r="A416">
         <v>7772</v>
       </c>
-      <c r="B416" s="17" t="s">
+      <c r="B416" s="27" t="s">
         <v>417</v>
       </c>
       <c r="C416">
@@ -6257,7 +6277,7 @@
       <c r="A417">
         <v>7801</v>
       </c>
-      <c r="B417" s="17" t="s">
+      <c r="B417" s="27" t="s">
         <v>418</v>
       </c>
       <c r="C417">
@@ -6268,7 +6288,7 @@
       <c r="A418">
         <v>7811</v>
       </c>
-      <c r="B418" s="17" t="s">
+      <c r="B418" s="27" t="s">
         <v>419</v>
       </c>
       <c r="C418">
@@ -6279,7 +6299,7 @@
       <c r="A419">
         <v>7813</v>
       </c>
-      <c r="B419" s="17" t="s">
+      <c r="B419" s="27" t="s">
         <v>420</v>
       </c>
       <c r="C419">
@@ -6290,7 +6310,7 @@
       <c r="A420">
         <v>7817</v>
       </c>
-      <c r="B420" s="17" t="s">
+      <c r="B420" s="27" t="s">
         <v>421</v>
       </c>
       <c r="C420">
@@ -6301,7 +6321,7 @@
       <c r="A421">
         <v>7820</v>
       </c>
-      <c r="B421" s="17" t="s">
+      <c r="B421" s="27" t="s">
         <v>422</v>
       </c>
       <c r="C421">
@@ -6312,7 +6332,7 @@
       <c r="A422">
         <v>7821</v>
       </c>
-      <c r="B422" s="17" t="s">
+      <c r="B422" s="27" t="s">
         <v>423</v>
       </c>
       <c r="C422">
@@ -6323,7 +6343,7 @@
       <c r="A423">
         <v>7822</v>
       </c>
-      <c r="B423" s="17" t="s">
+      <c r="B423" s="27" t="s">
         <v>424</v>
       </c>
       <c r="C423">
@@ -6334,7 +6354,7 @@
       <c r="A424">
         <v>7823</v>
       </c>
-      <c r="B424" s="17" t="s">
+      <c r="B424" s="27" t="s">
         <v>425</v>
       </c>
       <c r="C424">
@@ -6345,7 +6365,7 @@
       <c r="A425">
         <v>7824</v>
       </c>
-      <c r="B425" s="17" t="s">
+      <c r="B425" s="27" t="s">
         <v>426</v>
       </c>
       <c r="C425">
@@ -6356,7 +6376,7 @@
       <c r="A426">
         <v>7825</v>
       </c>
-      <c r="B426" s="17" t="s">
+      <c r="B426" s="27" t="s">
         <v>427</v>
       </c>
       <c r="C426">
@@ -6367,7 +6387,7 @@
       <c r="A427">
         <v>7826</v>
       </c>
-      <c r="B427" s="17" t="s">
+      <c r="B427" s="27" t="s">
         <v>428</v>
       </c>
       <c r="C427">
@@ -6378,7 +6398,7 @@
       <c r="A428">
         <v>7827</v>
       </c>
-      <c r="B428" s="17" t="s">
+      <c r="B428" s="27" t="s">
         <v>429</v>
       </c>
       <c r="C428">
@@ -6389,7 +6409,7 @@
       <c r="A429">
         <v>7828</v>
       </c>
-      <c r="B429" s="17" t="s">
+      <c r="B429" s="27" t="s">
         <v>430</v>
       </c>
       <c r="C429">
@@ -6400,7 +6420,7 @@
       <c r="A430">
         <v>7831</v>
       </c>
-      <c r="B430" s="17" t="s">
+      <c r="B430" s="27" t="s">
         <v>431</v>
       </c>
       <c r="C430">
@@ -6411,7 +6431,7 @@
       <c r="A431">
         <v>7832</v>
       </c>
-      <c r="B431" s="17" t="s">
+      <c r="B431" s="27" t="s">
         <v>432</v>
       </c>
       <c r="C431">
@@ -6422,7 +6442,7 @@
       <c r="A432">
         <v>7841</v>
       </c>
-      <c r="B432" s="17" t="s">
+      <c r="B432" s="27" t="s">
         <v>433</v>
       </c>
       <c r="C432">
@@ -6433,7 +6453,7 @@
       <c r="A433">
         <v>7842</v>
       </c>
-      <c r="B433" s="17" t="s">
+      <c r="B433" s="27" t="s">
         <v>434</v>
       </c>
       <c r="C433">
@@ -6444,7 +6464,7 @@
       <c r="A434">
         <v>-1</v>
       </c>
-      <c r="B434" s="17" t="s">
+      <c r="B434" s="27" t="s">
         <v>300</v>
       </c>
       <c r="C434">
@@ -6455,7 +6475,7 @@
       <c r="A435">
         <v>8101</v>
       </c>
-      <c r="B435" s="17" t="s">
+      <c r="B435" s="27" t="s">
         <v>435</v>
       </c>
       <c r="C435">
@@ -6466,7 +6486,7 @@
       <c r="A436">
         <v>8102</v>
       </c>
-      <c r="B436" s="17" t="s">
+      <c r="B436" s="27" t="s">
         <v>436</v>
       </c>
       <c r="C436">
@@ -6477,7 +6497,7 @@
       <c r="A437">
         <v>8103</v>
       </c>
-      <c r="B437" s="17" t="s">
+      <c r="B437" s="27" t="s">
         <v>437</v>
       </c>
       <c r="C437">
@@ -6488,7 +6508,7 @@
       <c r="A438">
         <v>8110</v>
       </c>
-      <c r="B438" s="17" t="s">
+      <c r="B438" s="27" t="s">
         <v>438</v>
       </c>
       <c r="C438">
@@ -6499,7 +6519,7 @@
       <c r="A439">
         <v>8111</v>
       </c>
-      <c r="B439" s="17" t="s">
+      <c r="B439" s="27" t="s">
         <v>439</v>
       </c>
       <c r="C439">
@@ -6510,7 +6530,7 @@
       <c r="A440">
         <v>8112</v>
       </c>
-      <c r="B440" s="17" t="s">
+      <c r="B440" s="27" t="s">
         <v>440</v>
       </c>
       <c r="C440">
@@ -6521,7 +6541,7 @@
       <c r="A441">
         <v>8113</v>
       </c>
-      <c r="B441" s="17" t="s">
+      <c r="B441" s="27" t="s">
         <v>441</v>
       </c>
       <c r="C441">
@@ -6532,7 +6552,7 @@
       <c r="A442">
         <v>8114</v>
       </c>
-      <c r="B442" s="17" t="s">
+      <c r="B442" s="27" t="s">
         <v>442</v>
       </c>
       <c r="C442">
@@ -6543,7 +6563,7 @@
       <c r="A443">
         <v>8115</v>
       </c>
-      <c r="B443" s="17" t="s">
+      <c r="B443" s="27" t="s">
         <v>443</v>
       </c>
       <c r="C443">
@@ -6554,7 +6574,7 @@
       <c r="A444">
         <v>8116</v>
       </c>
-      <c r="B444" s="17" t="s">
+      <c r="B444" s="27" t="s">
         <v>444</v>
       </c>
       <c r="C444">
@@ -6565,7 +6585,7 @@
       <c r="A445">
         <v>8117</v>
       </c>
-      <c r="B445" s="17" t="s">
+      <c r="B445" s="27" t="s">
         <v>445</v>
       </c>
       <c r="C445">
@@ -6576,7 +6596,7 @@
       <c r="A446">
         <v>8118</v>
       </c>
-      <c r="B446" s="17" t="s">
+      <c r="B446" s="27" t="s">
         <v>446</v>
       </c>
       <c r="C446">
@@ -6587,7 +6607,7 @@
       <c r="A447">
         <v>8121</v>
       </c>
-      <c r="B447" s="17" t="s">
+      <c r="B447" s="27" t="s">
         <v>447</v>
       </c>
       <c r="C447">
@@ -6598,7 +6618,7 @@
       <c r="A448">
         <v>8131</v>
       </c>
-      <c r="B448" s="17" t="s">
+      <c r="B448" s="27" t="s">
         <v>448</v>
       </c>
       <c r="C448">
@@ -6609,7 +6629,7 @@
       <c r="A449">
         <v>8181</v>
       </c>
-      <c r="B449" s="17" t="s">
+      <c r="B449" s="27" t="s">
         <v>449</v>
       </c>
       <c r="C449">
@@ -6620,7 +6640,7 @@
       <c r="A450">
         <v>8201</v>
       </c>
-      <c r="B450" s="17" t="s">
+      <c r="B450" s="27" t="s">
         <v>450</v>
       </c>
       <c r="C450">
@@ -6631,7 +6651,7 @@
       <c r="A451">
         <v>8202</v>
       </c>
-      <c r="B451" s="17" t="s">
+      <c r="B451" s="27" t="s">
         <v>451</v>
       </c>
       <c r="C451">
@@ -6642,7 +6662,7 @@
       <c r="A452">
         <v>8211</v>
       </c>
-      <c r="B452" s="17" t="s">
+      <c r="B452" s="27" t="s">
         <v>452</v>
       </c>
       <c r="C452">
@@ -6653,7 +6673,7 @@
       <c r="A453">
         <v>8212</v>
       </c>
-      <c r="B453" s="17" t="s">
+      <c r="B453" s="27" t="s">
         <v>453</v>
       </c>
       <c r="C453">
@@ -6664,7 +6684,7 @@
       <c r="A454">
         <v>8213</v>
       </c>
-      <c r="B454" s="17" t="s">
+      <c r="B454" s="27" t="s">
         <v>454</v>
       </c>
       <c r="C454">
@@ -6675,7 +6695,7 @@
       <c r="A455">
         <v>8214</v>
       </c>
-      <c r="B455" s="17" t="s">
+      <c r="B455" s="27" t="s">
         <v>455</v>
       </c>
       <c r="C455">
@@ -6686,7 +6706,7 @@
       <c r="A456">
         <v>8221</v>
       </c>
-      <c r="B456" s="17" t="s">
+      <c r="B456" s="27" t="s">
         <v>456</v>
       </c>
       <c r="C456">
@@ -6697,7 +6717,7 @@
       <c r="A457">
         <v>8231</v>
       </c>
-      <c r="B457" s="17" t="s">
+      <c r="B457" s="27" t="s">
         <v>457</v>
       </c>
       <c r="C457">
@@ -6708,7 +6728,7 @@
       <c r="A458">
         <v>8232</v>
       </c>
-      <c r="B458" s="17" t="s">
+      <c r="B458" s="27" t="s">
         <v>458</v>
       </c>
       <c r="C458">
@@ -6719,7 +6739,7 @@
       <c r="A459">
         <v>8233</v>
       </c>
-      <c r="B459" s="17" t="s">
+      <c r="B459" s="27" t="s">
         <v>459</v>
       </c>
       <c r="C459">
@@ -6730,7 +6750,7 @@
       <c r="A460">
         <v>8281</v>
       </c>
-      <c r="B460" s="17" t="s">
+      <c r="B460" s="27" t="s">
         <v>460</v>
       </c>
       <c r="C460">
@@ -6741,7 +6761,7 @@
       <c r="A461">
         <v>8301</v>
       </c>
-      <c r="B461" s="17" t="s">
+      <c r="B461" s="27" t="s">
         <v>461</v>
       </c>
       <c r="C461">
@@ -6752,7 +6772,7 @@
       <c r="A462">
         <v>8311</v>
       </c>
-      <c r="B462" s="17" t="s">
+      <c r="B462" s="27" t="s">
         <v>462</v>
       </c>
       <c r="C462">
@@ -6763,7 +6783,7 @@
       <c r="A463">
         <v>8321</v>
       </c>
-      <c r="B463" s="17" t="s">
+      <c r="B463" s="27" t="s">
         <v>463</v>
       </c>
       <c r="C463">
@@ -6774,7 +6794,7 @@
       <c r="A464">
         <v>8339</v>
       </c>
-      <c r="B464" s="17" t="s">
+      <c r="B464" s="27" t="s">
         <v>464</v>
       </c>
       <c r="C464">
@@ -6785,7 +6805,7 @@
       <c r="A465">
         <v>8401</v>
       </c>
-      <c r="B465" s="17" t="s">
+      <c r="B465" s="27" t="s">
         <v>465</v>
       </c>
       <c r="C465">
@@ -6796,7 +6816,7 @@
       <c r="A466">
         <v>8411</v>
       </c>
-      <c r="B466" s="17" t="s">
+      <c r="B466" s="27" t="s">
         <v>466</v>
       </c>
       <c r="C466">
@@ -6807,7 +6827,7 @@
       <c r="A467">
         <v>8412</v>
       </c>
-      <c r="B467" s="17" t="s">
+      <c r="B467" s="27" t="s">
         <v>467</v>
       </c>
       <c r="C467">
@@ -6818,7 +6838,7 @@
       <c r="A468">
         <v>8413</v>
       </c>
-      <c r="B468" s="17" t="s">
+      <c r="B468" s="27" t="s">
         <v>468</v>
       </c>
       <c r="C468">
@@ -6829,7 +6849,7 @@
       <c r="A469">
         <v>8416</v>
       </c>
-      <c r="B469" s="17" t="s">
+      <c r="B469" s="27" t="s">
         <v>469</v>
       </c>
       <c r="C469">
@@ -6840,7 +6860,7 @@
       <c r="A470">
         <v>8417</v>
       </c>
-      <c r="B470" s="17" t="s">
+      <c r="B470" s="27" t="s">
         <v>470</v>
       </c>
       <c r="C470">
@@ -6851,7 +6871,7 @@
       <c r="A471">
         <v>8421</v>
       </c>
-      <c r="B471" s="17" t="s">
+      <c r="B471" s="27" t="s">
         <v>471</v>
       </c>
       <c r="C471">
@@ -6862,7 +6882,7 @@
       <c r="A472">
         <v>8423</v>
       </c>
-      <c r="B472" s="17" t="s">
+      <c r="B472" s="27" t="s">
         <v>472</v>
       </c>
       <c r="C472">
@@ -6873,7 +6893,7 @@
       <c r="A473">
         <v>8429</v>
       </c>
-      <c r="B473" s="17" t="s">
+      <c r="B473" s="27" t="s">
         <v>473</v>
       </c>
       <c r="C473">
@@ -6884,7 +6904,7 @@
       <c r="A474">
         <v>8484</v>
       </c>
-      <c r="B474" s="17" t="s">
+      <c r="B474" s="27" t="s">
         <v>474</v>
       </c>
       <c r="C474">
@@ -6895,7 +6915,7 @@
       <c r="A475">
         <v>8485</v>
       </c>
-      <c r="B475" s="17" t="s">
+      <c r="B475" s="27" t="s">
         <v>475</v>
       </c>
       <c r="C475">
@@ -6906,7 +6926,7 @@
       <c r="A476">
         <v>8491</v>
       </c>
-      <c r="B476" s="17" t="s">
+      <c r="B476" s="27" t="s">
         <v>476</v>
       </c>
       <c r="C476">
@@ -6917,7 +6937,7 @@
       <c r="A477">
         <v>8492</v>
       </c>
-      <c r="B477" s="17" t="s">
+      <c r="B477" s="27" t="s">
         <v>477</v>
       </c>
       <c r="C477">
@@ -6928,7 +6948,7 @@
       <c r="A478">
         <v>8493</v>
       </c>
-      <c r="B478" s="17" t="s">
+      <c r="B478" s="27" t="s">
         <v>478</v>
       </c>
       <c r="C478">
@@ -6939,7 +6959,7 @@
       <c r="A479">
         <v>8601</v>
       </c>
-      <c r="B479" s="17" t="s">
+      <c r="B479" s="27" t="s">
         <v>479</v>
       </c>
       <c r="C479">
@@ -6950,7 +6970,7 @@
       <c r="A480">
         <v>8611</v>
       </c>
-      <c r="B480" s="17" t="s">
+      <c r="B480" s="27" t="s">
         <v>480</v>
       </c>
       <c r="C480">
@@ -6961,7 +6981,7 @@
       <c r="A481">
         <v>8612</v>
       </c>
-      <c r="B481" s="17" t="s">
+      <c r="B481" s="27" t="s">
         <v>481</v>
       </c>
       <c r="C481">
@@ -6972,7 +6992,7 @@
       <c r="A482">
         <v>8621</v>
       </c>
-      <c r="B482" s="17" t="s">
+      <c r="B482" s="27" t="s">
         <v>482</v>
       </c>
       <c r="C482">
@@ -6983,7 +7003,7 @@
       <c r="A483">
         <v>8622</v>
       </c>
-      <c r="B483" s="17" t="s">
+      <c r="B483" s="27" t="s">
         <v>483</v>
       </c>
       <c r="C483">
@@ -6994,7 +7014,7 @@
       <c r="A484">
         <v>8623</v>
       </c>
-      <c r="B484" s="17" t="s">
+      <c r="B484" s="27" t="s">
         <v>484</v>
       </c>
       <c r="C484">
@@ -7005,7 +7025,7 @@
       <c r="A485">
         <v>8624</v>
       </c>
-      <c r="B485" s="17" t="s">
+      <c r="B485" s="27" t="s">
         <v>485</v>
       </c>
       <c r="C485">
@@ -7016,7 +7036,7 @@
       <c r="A486">
         <v>8625</v>
       </c>
-      <c r="B486" s="17" t="s">
+      <c r="B486" s="27" t="s">
         <v>486</v>
       </c>
       <c r="C486">
@@ -7027,7 +7047,7 @@
       <c r="A487">
         <v>8711</v>
       </c>
-      <c r="B487" s="17" t="s">
+      <c r="B487" s="27" t="s">
         <v>487</v>
       </c>
       <c r="C487">
@@ -7038,7 +7058,7 @@
       <c r="A488">
         <v>-1</v>
       </c>
-      <c r="B488" s="17" t="s">
+      <c r="B488" s="27" t="s">
         <v>488</v>
       </c>
       <c r="C488">
@@ -7049,7 +7069,7 @@
       <c r="A489">
         <v>9101</v>
       </c>
-      <c r="B489" s="17" t="s">
+      <c r="B489" s="27" t="s">
         <v>489</v>
       </c>
       <c r="C489">
@@ -7060,7 +7080,7 @@
       <c r="A490">
         <v>9102</v>
       </c>
-      <c r="B490" s="17" t="s">
+      <c r="B490" s="27" t="s">
         <v>490</v>
       </c>
       <c r="C490">
@@ -7071,7 +7091,7 @@
       <c r="A491">
         <v>9109</v>
       </c>
-      <c r="B491" s="17" t="s">
+      <c r="B491" s="27" t="s">
         <v>491</v>
       </c>
       <c r="C491">
@@ -7082,7 +7102,7 @@
       <c r="A492">
         <v>9111</v>
       </c>
-      <c r="B492" s="17" t="s">
+      <c r="B492" s="27" t="s">
         <v>492</v>
       </c>
       <c r="C492">
@@ -7093,7 +7113,7 @@
       <c r="A493">
         <v>9112</v>
       </c>
-      <c r="B493" s="17" t="s">
+      <c r="B493" s="27" t="s">
         <v>493</v>
       </c>
       <c r="C493">
@@ -7104,7 +7124,7 @@
       <c r="A494">
         <v>9113</v>
       </c>
-      <c r="B494" s="17" t="s">
+      <c r="B494" s="27" t="s">
         <v>494</v>
       </c>
       <c r="C494">
@@ -7115,7 +7135,7 @@
       <c r="A495">
         <v>9131</v>
       </c>
-      <c r="B495" s="17" t="s">
+      <c r="B495" s="27" t="s">
         <v>495</v>
       </c>
       <c r="C495">
@@ -7126,7 +7146,7 @@
       <c r="A496">
         <v>9141</v>
       </c>
-      <c r="B496" s="17" t="s">
+      <c r="B496" s="27" t="s">
         <v>496</v>
       </c>
       <c r="C496">
@@ -7137,7 +7157,7 @@
       <c r="A497">
         <v>9142</v>
       </c>
-      <c r="B497" s="17" t="s">
+      <c r="B497" s="27" t="s">
         <v>497</v>
       </c>
       <c r="C497">
@@ -7148,7 +7168,7 @@
       <c r="A498">
         <v>9143</v>
       </c>
-      <c r="B498" s="17" t="s">
+      <c r="B498" s="27" t="s">
         <v>498</v>
       </c>
       <c r="C498">
@@ -7159,7 +7179,7 @@
       <c r="A499">
         <v>9144</v>
       </c>
-      <c r="B499" s="17" t="s">
+      <c r="B499" s="27" t="s">
         <v>499</v>
       </c>
       <c r="C499">
@@ -7170,7 +7190,7 @@
       <c r="A500">
         <v>9151</v>
       </c>
-      <c r="B500" s="17" t="s">
+      <c r="B500" s="27" t="s">
         <v>500</v>
       </c>
       <c r="C500">
@@ -7181,7 +7201,7 @@
       <c r="A501">
         <v>9152</v>
       </c>
-      <c r="B501" s="17" t="s">
+      <c r="B501" s="27" t="s">
         <v>501</v>
       </c>
       <c r="C501">
@@ -7192,7 +7212,7 @@
       <c r="A502">
         <v>9153</v>
       </c>
-      <c r="B502" s="17" t="s">
+      <c r="B502" s="27" t="s">
         <v>502</v>
       </c>
       <c r="C502">
@@ -7203,7 +7223,7 @@
       <c r="A503">
         <v>9154</v>
       </c>
-      <c r="B503" s="17" t="s">
+      <c r="B503" s="27" t="s">
         <v>503</v>
       </c>
       <c r="C503">
@@ -7214,7 +7234,7 @@
       <c r="A504">
         <v>9191</v>
       </c>
-      <c r="B504" s="17" t="s">
+      <c r="B504" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C504">
@@ -7225,7 +7245,7 @@
       <c r="A505">
         <v>9192</v>
       </c>
-      <c r="B505" s="17" t="s">
+      <c r="B505" s="27" t="s">
         <v>505</v>
       </c>
       <c r="C505">
@@ -7236,7 +7256,7 @@
       <c r="A506">
         <v>9193</v>
       </c>
-      <c r="B506" s="17" t="s">
+      <c r="B506" s="27" t="s">
         <v>506</v>
       </c>
       <c r="C506">
@@ -7247,7 +7267,7 @@
       <c r="A507">
         <v>9501</v>
       </c>
-      <c r="B507" s="17" t="s">
+      <c r="B507" s="27" t="s">
         <v>507</v>
       </c>
       <c r="C507">
@@ -7258,7 +7278,7 @@
       <c r="A508">
         <v>9502</v>
       </c>
-      <c r="B508" s="17" t="s">
+      <c r="B508" s="27" t="s">
         <v>508</v>
       </c>
       <c r="C508">
@@ -7269,7 +7289,7 @@
       <c r="A509">
         <v>9503</v>
       </c>
-      <c r="B509" s="17" t="s">
+      <c r="B509" s="27" t="s">
         <v>509</v>
       </c>
       <c r="C509">
@@ -7280,7 +7300,7 @@
       <c r="A510">
         <v>9511</v>
       </c>
-      <c r="B510" s="17" t="s">
+      <c r="B510" s="27" t="s">
         <v>510</v>
       </c>
       <c r="C510">
@@ -7291,7 +7311,7 @@
       <c r="A511">
         <v>9513</v>
       </c>
-      <c r="B511" s="17" t="s">
+      <c r="B511" s="27" t="s">
         <v>511</v>
       </c>
       <c r="C511">
@@ -7302,7 +7322,7 @@
       <c r="A512">
         <v>9531</v>
       </c>
-      <c r="B512" s="17" t="s">
+      <c r="B512" s="27" t="s">
         <v>512</v>
       </c>
       <c r="C512">
@@ -7313,7 +7333,7 @@
       <c r="A513">
         <v>9541</v>
       </c>
-      <c r="B513" s="17" t="s">
+      <c r="B513" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C513">
@@ -7324,7 +7344,7 @@
       <c r="A514">
         <v>9542</v>
       </c>
-      <c r="B514" s="17" t="s">
+      <c r="B514" s="27" t="s">
         <v>514</v>
       </c>
       <c r="C514">
@@ -7335,7 +7355,7 @@
       <c r="A515">
         <v>9543</v>
       </c>
-      <c r="B515" s="17" t="s">
+      <c r="B515" s="27" t="s">
         <v>515</v>
       </c>
       <c r="C515">
@@ -7346,7 +7366,7 @@
       <c r="A516">
         <v>9911</v>
       </c>
-      <c r="B516" s="17" t="s">
+      <c r="B516" s="27" t="s">
         <v>516</v>
       </c>
       <c r="C516">
@@ -7357,7 +7377,7 @@
       <c r="A517">
         <v>9912</v>
       </c>
-      <c r="B517" s="17" t="s">
+      <c r="B517" s="27" t="s">
         <v>517</v>
       </c>
       <c r="C517">
@@ -7368,7 +7388,7 @@
       <c r="A518">
         <v>9913</v>
       </c>
-      <c r="B518" s="17" t="s">
+      <c r="B518" s="27" t="s">
         <v>518</v>
       </c>
       <c r="C518">
@@ -7379,7 +7399,7 @@
       <c r="A519">
         <v>9914</v>
       </c>
-      <c r="B519" s="17" t="s">
+      <c r="B519" s="27" t="s">
         <v>519</v>
       </c>
       <c r="C519">
@@ -7390,7 +7410,7 @@
       <c r="A520">
         <v>9921</v>
       </c>
-      <c r="B520" s="17" t="s">
+      <c r="B520" s="27" t="s">
         <v>520</v>
       </c>
       <c r="C520">
@@ -7401,7 +7421,7 @@
       <c r="A521">
         <v>9922</v>
       </c>
-      <c r="B521" s="17" t="s">
+      <c r="B521" s="27" t="s">
         <v>521</v>
       </c>
       <c r="C521">
@@ -7412,7 +7432,7 @@
       <c r="A522">
         <v>-1</v>
       </c>
-      <c r="B522" s="17" t="s">
+      <c r="B522" s="27" t="s">
         <v>522</v>
       </c>
       <c r="C522">
@@ -7423,7 +7443,7 @@
       <c r="A523">
         <v>9999</v>
       </c>
-      <c r="B523" s="17" t="s">
+      <c r="B523" s="27" t="s">
         <v>523</v>
       </c>
       <c r="C523">

--- a/+dataLH/test_files/readTest.xlsx
+++ b/+dataLH/test_files/readTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7370" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8420" uniqueCount="525">
   <si>
     <t>Code</t>
   </si>
@@ -1610,7 +1610,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1646,11 +1646,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1680,6 +1684,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1698,13 +1706,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="31" t="s">
         <v>524</v>
       </c>
     </row>
@@ -1712,7 +1720,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C2">
@@ -1723,7 +1731,7 @@
       <c r="A3">
         <v>-1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -1734,7 +1742,7 @@
       <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -1745,7 +1753,7 @@
       <c r="A5">
         <v>200</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C5">
@@ -1756,7 +1764,7 @@
       <c r="A6">
         <v>300</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C6">
@@ -1767,7 +1775,7 @@
       <c r="A7">
         <v>401</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C7">
@@ -1778,7 +1786,7 @@
       <c r="A8">
         <v>402</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C8">
@@ -1789,7 +1797,7 @@
       <c r="A9">
         <v>403</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="31" t="s">
         <v>9</v>
       </c>
       <c r="C9">
@@ -1800,7 +1808,7 @@
       <c r="A10">
         <v>411</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C10">
@@ -1811,7 +1819,7 @@
       <c r="A11">
         <v>412</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C11">
@@ -1822,7 +1830,7 @@
       <c r="A12">
         <v>413</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C12">
@@ -1833,7 +1841,7 @@
       <c r="A13">
         <v>501</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C13">
@@ -1844,7 +1852,7 @@
       <c r="A14">
         <v>502</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C14">
@@ -1855,7 +1863,7 @@
       <c r="A15">
         <v>503</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C15">
@@ -1866,7 +1874,7 @@
       <c r="A16">
         <v>511</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C16">
@@ -1877,7 +1885,7 @@
       <c r="A17">
         <v>512</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C17">
@@ -1888,7 +1896,7 @@
       <c r="A18">
         <v>513</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C18">
@@ -1899,7 +1907,7 @@
       <c r="A19">
         <v>-1</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C19">
@@ -1910,7 +1918,7 @@
       <c r="A20">
         <v>1111</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C20">
@@ -1921,7 +1929,7 @@
       <c r="A21">
         <v>1112</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C21">
@@ -1932,7 +1940,7 @@
       <c r="A22">
         <v>1113</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C22">
@@ -1943,7 +1951,7 @@
       <c r="A23">
         <v>1122</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C23">
@@ -1954,7 +1962,7 @@
       <c r="A24">
         <v>1123</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C24">
@@ -1965,7 +1973,7 @@
       <c r="A25">
         <v>1130</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="31" t="s">
         <v>25</v>
       </c>
       <c r="C25">
@@ -1976,7 +1984,7 @@
       <c r="A26">
         <v>1140</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="31" t="s">
         <v>27</v>
       </c>
       <c r="C26">
@@ -1987,7 +1995,7 @@
       <c r="A27">
         <v>1210</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C27">
@@ -1998,7 +2006,7 @@
       <c r="A28">
         <v>1219</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C28">
@@ -2009,7 +2017,7 @@
       <c r="A29">
         <v>1220</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C29">
@@ -2020,7 +2028,7 @@
       <c r="A30">
         <v>1230</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C30">
@@ -2031,7 +2039,7 @@
       <c r="A31">
         <v>1310</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C31">
@@ -2042,7 +2050,7 @@
       <c r="A32">
         <v>1320</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C32">
@@ -2053,7 +2061,7 @@
       <c r="A33">
         <v>-1</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="31" t="s">
         <v>34</v>
       </c>
       <c r="C33">
@@ -2064,7 +2072,7 @@
       <c r="A34">
         <v>2011</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="31" t="s">
         <v>35</v>
       </c>
       <c r="C34">
@@ -2075,7 +2083,7 @@
       <c r="A35">
         <v>2012</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C35">
@@ -2086,7 +2094,7 @@
       <c r="A36">
         <v>2021</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C36">
@@ -2097,7 +2105,7 @@
       <c r="A37">
         <v>2111</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="31" t="s">
         <v>38</v>
       </c>
       <c r="C37">
@@ -2108,7 +2116,7 @@
       <c r="A38">
         <v>2112</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="31" t="s">
         <v>39</v>
       </c>
       <c r="C38">
@@ -2119,7 +2127,7 @@
       <c r="A39">
         <v>2121</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C39">
@@ -2130,7 +2138,7 @@
       <c r="A40">
         <v>2122</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C40">
@@ -2141,7 +2149,7 @@
       <c r="A41">
         <v>2123</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="31" t="s">
         <v>42</v>
       </c>
       <c r="C41">
@@ -2152,7 +2160,7 @@
       <c r="A42">
         <v>2124</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="31" t="s">
         <v>43</v>
       </c>
       <c r="C42">
@@ -2163,7 +2171,7 @@
       <c r="A43">
         <v>2125</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="31" t="s">
         <v>44</v>
       </c>
       <c r="C43">
@@ -2174,7 +2182,7 @@
       <c r="A44">
         <v>2131</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="31" t="s">
         <v>45</v>
       </c>
       <c r="C44">
@@ -2185,7 +2193,7 @@
       <c r="A45">
         <v>2132</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="31" t="s">
         <v>46</v>
       </c>
       <c r="C45">
@@ -2196,7 +2204,7 @@
       <c r="A46">
         <v>2133</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C46">
@@ -2207,7 +2215,7 @@
       <c r="A47">
         <v>2134</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="31" t="s">
         <v>48</v>
       </c>
       <c r="C47">
@@ -2218,7 +2226,7 @@
       <c r="A48">
         <v>2140</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C48">
@@ -2229,7 +2237,7 @@
       <c r="A49">
         <v>2141</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="31" t="s">
         <v>50</v>
       </c>
       <c r="C49">
@@ -2240,7 +2248,7 @@
       <c r="A50">
         <v>2142</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="31" t="s">
         <v>51</v>
       </c>
       <c r="C50">
@@ -2251,7 +2259,7 @@
       <c r="A51">
         <v>2143</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="31" t="s">
         <v>52</v>
       </c>
       <c r="C51">
@@ -2262,7 +2270,7 @@
       <c r="A52">
         <v>2144</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="31" t="s">
         <v>53</v>
       </c>
       <c r="C52">
@@ -2273,7 +2281,7 @@
       <c r="A53">
         <v>2145</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="31" t="s">
         <v>54</v>
       </c>
       <c r="C53">
@@ -2284,7 +2292,7 @@
       <c r="A54">
         <v>2146</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="31" t="s">
         <v>55</v>
       </c>
       <c r="C54">
@@ -2295,7 +2303,7 @@
       <c r="A55">
         <v>2147</v>
       </c>
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C55">
@@ -2306,7 +2314,7 @@
       <c r="A56">
         <v>2148</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="31" t="s">
         <v>57</v>
       </c>
       <c r="C56">
@@ -2317,7 +2325,7 @@
       <c r="A57">
         <v>2149</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="31" t="s">
         <v>58</v>
       </c>
       <c r="C57">
@@ -2328,7 +2336,7 @@
       <c r="A58">
         <v>2151</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="31" t="s">
         <v>59</v>
       </c>
       <c r="C58">
@@ -2339,7 +2347,7 @@
       <c r="A59">
         <v>2152</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="31" t="s">
         <v>60</v>
       </c>
       <c r="C59">
@@ -2350,7 +2358,7 @@
       <c r="A60">
         <v>2153</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="31" t="s">
         <v>61</v>
       </c>
       <c r="C60">
@@ -2361,7 +2369,7 @@
       <c r="A61">
         <v>2211</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="31" t="s">
         <v>62</v>
       </c>
       <c r="C61">
@@ -2372,7 +2380,7 @@
       <c r="A62">
         <v>2221</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="31" t="s">
         <v>63</v>
       </c>
       <c r="C62">
@@ -2383,7 +2391,7 @@
       <c r="A63">
         <v>2231</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="31" t="s">
         <v>64</v>
       </c>
       <c r="C63">
@@ -2394,7 +2402,7 @@
       <c r="A64">
         <v>2232</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="31" t="s">
         <v>65</v>
       </c>
       <c r="C64">
@@ -2405,7 +2413,7 @@
       <c r="A65">
         <v>2233</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="31" t="s">
         <v>66</v>
       </c>
       <c r="C65">
@@ -2416,7 +2424,7 @@
       <c r="A66">
         <v>2234</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="31" t="s">
         <v>67</v>
       </c>
       <c r="C66">
@@ -2427,7 +2435,7 @@
       <c r="A67">
         <v>2235</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C67">
@@ -2438,7 +2446,7 @@
       <c r="A68">
         <v>2236</v>
       </c>
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="31" t="s">
         <v>69</v>
       </c>
       <c r="C68">
@@ -2449,7 +2457,7 @@
       <c r="A69">
         <v>2237</v>
       </c>
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="31" t="s">
         <v>70</v>
       </c>
       <c r="C69">
@@ -2460,7 +2468,7 @@
       <c r="A70">
         <v>2311</v>
       </c>
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="31" t="s">
         <v>71</v>
       </c>
       <c r="C70">
@@ -2471,7 +2479,7 @@
       <c r="A71">
         <v>2312</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="31" t="s">
         <v>72</v>
       </c>
       <c r="C71">
@@ -2482,7 +2490,7 @@
       <c r="A72">
         <v>2313</v>
       </c>
-      <c r="B72" s="27" t="s">
+      <c r="B72" s="31" t="s">
         <v>73</v>
       </c>
       <c r="C72">
@@ -2493,7 +2501,7 @@
       <c r="A73">
         <v>2321</v>
       </c>
-      <c r="B73" s="27" t="s">
+      <c r="B73" s="31" t="s">
         <v>74</v>
       </c>
       <c r="C73">
@@ -2504,7 +2512,7 @@
       <c r="A74">
         <v>2330</v>
       </c>
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="31" t="s">
         <v>75</v>
       </c>
       <c r="C74">
@@ -2515,7 +2523,7 @@
       <c r="A75">
         <v>2340</v>
       </c>
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="31" t="s">
         <v>76</v>
       </c>
       <c r="C75">
@@ -2526,7 +2534,7 @@
       <c r="A76">
         <v>2391</v>
       </c>
-      <c r="B76" s="27" t="s">
+      <c r="B76" s="31" t="s">
         <v>77</v>
       </c>
       <c r="C76">
@@ -2537,7 +2545,7 @@
       <c r="A77">
         <v>2392</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="31" t="s">
         <v>78</v>
       </c>
       <c r="C77">
@@ -2548,7 +2556,7 @@
       <c r="A78">
         <v>2394</v>
       </c>
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="31" t="s">
         <v>79</v>
       </c>
       <c r="C78">
@@ -2559,7 +2567,7 @@
       <c r="A79">
         <v>2410</v>
       </c>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="31" t="s">
         <v>80</v>
       </c>
       <c r="C79">
@@ -2570,7 +2578,7 @@
       <c r="A80">
         <v>2412</v>
       </c>
-      <c r="B80" s="27" t="s">
+      <c r="B80" s="31" t="s">
         <v>81</v>
       </c>
       <c r="C80">
@@ -2581,7 +2589,7 @@
       <c r="A81">
         <v>2419</v>
       </c>
-      <c r="B81" s="27" t="s">
+      <c r="B81" s="31" t="s">
         <v>82</v>
       </c>
       <c r="C81">
@@ -2592,7 +2600,7 @@
       <c r="A82">
         <v>2421</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="31" t="s">
         <v>83</v>
       </c>
       <c r="C82">
@@ -2603,7 +2611,7 @@
       <c r="A83">
         <v>2422</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="31" t="s">
         <v>84</v>
       </c>
       <c r="C83">
@@ -2614,7 +2622,7 @@
       <c r="A84">
         <v>2423</v>
       </c>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="31" t="s">
         <v>85</v>
       </c>
       <c r="C84">
@@ -2625,7 +2633,7 @@
       <c r="A85">
         <v>2511</v>
       </c>
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="31" t="s">
         <v>86</v>
       </c>
       <c r="C85">
@@ -2636,7 +2644,7 @@
       <c r="A86">
         <v>2512</v>
       </c>
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="31" t="s">
         <v>87</v>
       </c>
       <c r="C86">
@@ -2647,7 +2655,7 @@
       <c r="A87">
         <v>2513</v>
       </c>
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="31" t="s">
         <v>88</v>
       </c>
       <c r="C87">
@@ -2658,7 +2666,7 @@
       <c r="A88">
         <v>2514</v>
       </c>
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="31" t="s">
         <v>89</v>
       </c>
       <c r="C88">
@@ -2669,7 +2677,7 @@
       <c r="A89">
         <v>2515</v>
       </c>
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="31" t="s">
         <v>90</v>
       </c>
       <c r="C89">
@@ -2680,7 +2688,7 @@
       <c r="A90">
         <v>2516</v>
       </c>
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="31" t="s">
         <v>91</v>
       </c>
       <c r="C90">
@@ -2691,7 +2699,7 @@
       <c r="A91">
         <v>2521</v>
       </c>
-      <c r="B91" s="27" t="s">
+      <c r="B91" s="31" t="s">
         <v>92</v>
       </c>
       <c r="C91">
@@ -2702,7 +2710,7 @@
       <c r="A92">
         <v>2522</v>
       </c>
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="31" t="s">
         <v>93</v>
       </c>
       <c r="C92">
@@ -2713,7 +2721,7 @@
       <c r="A93">
         <v>2523</v>
       </c>
-      <c r="B93" s="27" t="s">
+      <c r="B93" s="31" t="s">
         <v>94</v>
       </c>
       <c r="C93">
@@ -2724,7 +2732,7 @@
       <c r="A94">
         <v>2524</v>
       </c>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="31" t="s">
         <v>95</v>
       </c>
       <c r="C94">
@@ -2735,7 +2743,7 @@
       <c r="A95">
         <v>2525</v>
       </c>
-      <c r="B95" s="27" t="s">
+      <c r="B95" s="31" t="s">
         <v>96</v>
       </c>
       <c r="C95">
@@ -2746,7 +2754,7 @@
       <c r="A96">
         <v>2531</v>
       </c>
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="31" t="s">
         <v>97</v>
       </c>
       <c r="C96">
@@ -2757,7 +2765,7 @@
       <c r="A97">
         <v>2611</v>
       </c>
-      <c r="B97" s="27" t="s">
+      <c r="B97" s="31" t="s">
         <v>98</v>
       </c>
       <c r="C97">
@@ -2768,7 +2776,7 @@
       <c r="A98">
         <v>2612</v>
       </c>
-      <c r="B98" s="27" t="s">
+      <c r="B98" s="31" t="s">
         <v>99</v>
       </c>
       <c r="C98">
@@ -2779,7 +2787,7 @@
       <c r="A99">
         <v>2613</v>
       </c>
-      <c r="B99" s="27" t="s">
+      <c r="B99" s="31" t="s">
         <v>100</v>
       </c>
       <c r="C99">
@@ -2790,7 +2798,7 @@
       <c r="A100">
         <v>2614</v>
       </c>
-      <c r="B100" s="27" t="s">
+      <c r="B100" s="31" t="s">
         <v>101</v>
       </c>
       <c r="C100">
@@ -2801,7 +2809,7 @@
       <c r="A101">
         <v>2615</v>
       </c>
-      <c r="B101" s="27" t="s">
+      <c r="B101" s="31" t="s">
         <v>102</v>
       </c>
       <c r="C101">
@@ -2812,7 +2820,7 @@
       <c r="A102">
         <v>2616</v>
       </c>
-      <c r="B102" s="27" t="s">
+      <c r="B102" s="31" t="s">
         <v>103</v>
       </c>
       <c r="C102">
@@ -2823,7 +2831,7 @@
       <c r="A103">
         <v>2617</v>
       </c>
-      <c r="B103" s="27" t="s">
+      <c r="B103" s="31" t="s">
         <v>104</v>
       </c>
       <c r="C103">
@@ -2834,7 +2842,7 @@
       <c r="A104">
         <v>2621</v>
       </c>
-      <c r="B104" s="27" t="s">
+      <c r="B104" s="31" t="s">
         <v>105</v>
       </c>
       <c r="C104">
@@ -2845,7 +2853,7 @@
       <c r="A105">
         <v>2622</v>
       </c>
-      <c r="B105" s="27" t="s">
+      <c r="B105" s="31" t="s">
         <v>106</v>
       </c>
       <c r="C105">
@@ -2856,7 +2864,7 @@
       <c r="A106">
         <v>2623</v>
       </c>
-      <c r="B106" s="27" t="s">
+      <c r="B106" s="31" t="s">
         <v>107</v>
       </c>
       <c r="C106">
@@ -2867,7 +2875,7 @@
       <c r="A107">
         <v>2624</v>
       </c>
-      <c r="B107" s="27" t="s">
+      <c r="B107" s="31" t="s">
         <v>108</v>
       </c>
       <c r="C107">
@@ -2878,7 +2886,7 @@
       <c r="A108">
         <v>2625</v>
       </c>
-      <c r="B108" s="27" t="s">
+      <c r="B108" s="31" t="s">
         <v>109</v>
       </c>
       <c r="C108">
@@ -2889,7 +2897,7 @@
       <c r="A109">
         <v>2627</v>
       </c>
-      <c r="B109" s="27" t="s">
+      <c r="B109" s="31" t="s">
         <v>110</v>
       </c>
       <c r="C109">
@@ -2900,7 +2908,7 @@
       <c r="A110">
         <v>2631</v>
       </c>
-      <c r="B110" s="27" t="s">
+      <c r="B110" s="31" t="s">
         <v>111</v>
       </c>
       <c r="C110">
@@ -2911,7 +2919,7 @@
       <c r="A111">
         <v>-1</v>
       </c>
-      <c r="B111" s="27" t="s">
+      <c r="B111" s="31" t="s">
         <v>112</v>
       </c>
       <c r="C111">
@@ -2922,7 +2930,7 @@
       <c r="A112">
         <v>3001</v>
       </c>
-      <c r="B112" s="27" t="s">
+      <c r="B112" s="31" t="s">
         <v>113</v>
       </c>
       <c r="C112">
@@ -2933,7 +2941,7 @@
       <c r="A113">
         <v>3003</v>
       </c>
-      <c r="B113" s="27" t="s">
+      <c r="B113" s="31" t="s">
         <v>114</v>
       </c>
       <c r="C113">
@@ -2944,7 +2952,7 @@
       <c r="A114">
         <v>3011</v>
       </c>
-      <c r="B114" s="27" t="s">
+      <c r="B114" s="31" t="s">
         <v>115</v>
       </c>
       <c r="C114">
@@ -2955,7 +2963,7 @@
       <c r="A115">
         <v>3012</v>
       </c>
-      <c r="B115" s="27" t="s">
+      <c r="B115" s="31" t="s">
         <v>116</v>
       </c>
       <c r="C115">
@@ -2966,7 +2974,7 @@
       <c r="A116">
         <v>3111</v>
       </c>
-      <c r="B116" s="27" t="s">
+      <c r="B116" s="31" t="s">
         <v>117</v>
       </c>
       <c r="C116">
@@ -2977,7 +2985,7 @@
       <c r="A117">
         <v>3112</v>
       </c>
-      <c r="B117" s="27" t="s">
+      <c r="B117" s="31" t="s">
         <v>118</v>
       </c>
       <c r="C117">
@@ -2988,7 +2996,7 @@
       <c r="A118">
         <v>3113</v>
       </c>
-      <c r="B118" s="27" t="s">
+      <c r="B118" s="31" t="s">
         <v>119</v>
       </c>
       <c r="C118">
@@ -2999,7 +3007,7 @@
       <c r="A119">
         <v>3114</v>
       </c>
-      <c r="B119" s="27" t="s">
+      <c r="B119" s="31" t="s">
         <v>120</v>
       </c>
       <c r="C119">
@@ -3010,7 +3018,7 @@
       <c r="A120">
         <v>3115</v>
       </c>
-      <c r="B120" s="27" t="s">
+      <c r="B120" s="31" t="s">
         <v>121</v>
       </c>
       <c r="C120">
@@ -3021,7 +3029,7 @@
       <c r="A121">
         <v>3116</v>
       </c>
-      <c r="B121" s="27" t="s">
+      <c r="B121" s="31" t="s">
         <v>122</v>
       </c>
       <c r="C121">
@@ -3032,7 +3040,7 @@
       <c r="A122">
         <v>3117</v>
       </c>
-      <c r="B122" s="27" t="s">
+      <c r="B122" s="31" t="s">
         <v>123</v>
       </c>
       <c r="C122">
@@ -3043,7 +3051,7 @@
       <c r="A123">
         <v>3121</v>
       </c>
-      <c r="B123" s="27" t="s">
+      <c r="B123" s="31" t="s">
         <v>124</v>
       </c>
       <c r="C123">
@@ -3054,7 +3062,7 @@
       <c r="A124">
         <v>3122</v>
       </c>
-      <c r="B124" s="27" t="s">
+      <c r="B124" s="31" t="s">
         <v>125</v>
       </c>
       <c r="C124">
@@ -3065,7 +3073,7 @@
       <c r="A125">
         <v>3123</v>
       </c>
-      <c r="B125" s="27" t="s">
+      <c r="B125" s="31" t="s">
         <v>126</v>
       </c>
       <c r="C125">
@@ -3076,7 +3084,7 @@
       <c r="A126">
         <v>3131</v>
       </c>
-      <c r="B126" s="27" t="s">
+      <c r="B126" s="31" t="s">
         <v>127</v>
       </c>
       <c r="C126">
@@ -3087,7 +3095,7 @@
       <c r="A127">
         <v>3132</v>
       </c>
-      <c r="B127" s="27" t="s">
+      <c r="B127" s="31" t="s">
         <v>128</v>
       </c>
       <c r="C127">
@@ -3098,7 +3106,7 @@
       <c r="A128">
         <v>3134</v>
       </c>
-      <c r="B128" s="27" t="s">
+      <c r="B128" s="31" t="s">
         <v>129</v>
       </c>
       <c r="C128">
@@ -3109,7 +3117,7 @@
       <c r="A129">
         <v>3135</v>
       </c>
-      <c r="B129" s="27" t="s">
+      <c r="B129" s="31" t="s">
         <v>130</v>
       </c>
       <c r="C129">
@@ -3120,7 +3128,7 @@
       <c r="A130">
         <v>3136</v>
       </c>
-      <c r="B130" s="27" t="s">
+      <c r="B130" s="31" t="s">
         <v>131</v>
       </c>
       <c r="C130">
@@ -3131,7 +3139,7 @@
       <c r="A131">
         <v>3141</v>
       </c>
-      <c r="B131" s="27" t="s">
+      <c r="B131" s="31" t="s">
         <v>132</v>
       </c>
       <c r="C131">
@@ -3142,7 +3150,7 @@
       <c r="A132">
         <v>3142</v>
       </c>
-      <c r="B132" s="27" t="s">
+      <c r="B132" s="31" t="s">
         <v>133</v>
       </c>
       <c r="C132">
@@ -3153,7 +3161,7 @@
       <c r="A133">
         <v>3143</v>
       </c>
-      <c r="B133" s="27" t="s">
+      <c r="B133" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C133">
@@ -3164,7 +3172,7 @@
       <c r="A134">
         <v>3144</v>
       </c>
-      <c r="B134" s="27" t="s">
+      <c r="B134" s="31" t="s">
         <v>135</v>
       </c>
       <c r="C134">
@@ -3175,7 +3183,7 @@
       <c r="A135">
         <v>3146</v>
       </c>
-      <c r="B135" s="27" t="s">
+      <c r="B135" s="31" t="s">
         <v>136</v>
       </c>
       <c r="C135">
@@ -3186,7 +3194,7 @@
       <c r="A136">
         <v>3147</v>
       </c>
-      <c r="B136" s="27" t="s">
+      <c r="B136" s="31" t="s">
         <v>137</v>
       </c>
       <c r="C136">
@@ -3197,7 +3205,7 @@
       <c r="A137">
         <v>3161</v>
       </c>
-      <c r="B137" s="27" t="s">
+      <c r="B137" s="31" t="s">
         <v>138</v>
       </c>
       <c r="C137">
@@ -3208,7 +3216,7 @@
       <c r="A138">
         <v>3162</v>
       </c>
-      <c r="B138" s="27" t="s">
+      <c r="B138" s="31" t="s">
         <v>139</v>
       </c>
       <c r="C138">
@@ -3219,7 +3227,7 @@
       <c r="A139">
         <v>3163</v>
       </c>
-      <c r="B139" s="27" t="s">
+      <c r="B139" s="31" t="s">
         <v>140</v>
       </c>
       <c r="C139">
@@ -3230,7 +3238,7 @@
       <c r="A140">
         <v>3171</v>
       </c>
-      <c r="B140" s="27" t="s">
+      <c r="B140" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C140">
@@ -3241,7 +3249,7 @@
       <c r="A141">
         <v>3172</v>
       </c>
-      <c r="B141" s="27" t="s">
+      <c r="B141" s="31" t="s">
         <v>142</v>
       </c>
       <c r="C141">
@@ -3252,7 +3260,7 @@
       <c r="A142">
         <v>3189</v>
       </c>
-      <c r="B142" s="27" t="s">
+      <c r="B142" s="31" t="s">
         <v>143</v>
       </c>
       <c r="C142">
@@ -3263,7 +3271,7 @@
       <c r="A143">
         <v>3191</v>
       </c>
-      <c r="B143" s="27" t="s">
+      <c r="B143" s="31" t="s">
         <v>144</v>
       </c>
       <c r="C143">
@@ -3274,7 +3282,7 @@
       <c r="A144">
         <v>3192</v>
       </c>
-      <c r="B144" s="27" t="s">
+      <c r="B144" s="31" t="s">
         <v>145</v>
       </c>
       <c r="C144">
@@ -3285,7 +3293,7 @@
       <c r="A145">
         <v>3201</v>
       </c>
-      <c r="B145" s="27" t="s">
+      <c r="B145" s="31" t="s">
         <v>146</v>
       </c>
       <c r="C145">
@@ -3296,7 +3304,7 @@
       <c r="A146">
         <v>3210</v>
       </c>
-      <c r="B146" s="27" t="s">
+      <c r="B146" s="31" t="s">
         <v>147</v>
       </c>
       <c r="C146">
@@ -3307,7 +3315,7 @@
       <c r="A147">
         <v>3211</v>
       </c>
-      <c r="B147" s="27" t="s">
+      <c r="B147" s="31" t="s">
         <v>148</v>
       </c>
       <c r="C147">
@@ -3318,7 +3326,7 @@
       <c r="A148">
         <v>3212</v>
       </c>
-      <c r="B148" s="27" t="s">
+      <c r="B148" s="31" t="s">
         <v>149</v>
       </c>
       <c r="C148">
@@ -3329,7 +3337,7 @@
       <c r="A149">
         <v>3213</v>
       </c>
-      <c r="B149" s="27" t="s">
+      <c r="B149" s="31" t="s">
         <v>150</v>
       </c>
       <c r="C149">
@@ -3340,7 +3348,7 @@
       <c r="A150">
         <v>3214</v>
       </c>
-      <c r="B150" s="27" t="s">
+      <c r="B150" s="31" t="s">
         <v>151</v>
       </c>
       <c r="C150">
@@ -3351,7 +3359,7 @@
       <c r="A151">
         <v>3221</v>
       </c>
-      <c r="B151" s="27" t="s">
+      <c r="B151" s="31" t="s">
         <v>152</v>
       </c>
       <c r="C151">
@@ -3362,7 +3370,7 @@
       <c r="A152">
         <v>3222</v>
       </c>
-      <c r="B152" s="27" t="s">
+      <c r="B152" s="31" t="s">
         <v>153</v>
       </c>
       <c r="C152">
@@ -3373,7 +3381,7 @@
       <c r="A153">
         <v>3223</v>
       </c>
-      <c r="B153" s="27" t="s">
+      <c r="B153" s="31" t="s">
         <v>154</v>
       </c>
       <c r="C153">
@@ -3384,7 +3392,7 @@
       <c r="A154">
         <v>3224</v>
       </c>
-      <c r="B154" s="27" t="s">
+      <c r="B154" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C154">
@@ -3395,7 +3403,7 @@
       <c r="A155">
         <v>3225</v>
       </c>
-      <c r="B155" s="27" t="s">
+      <c r="B155" s="31" t="s">
         <v>156</v>
       </c>
       <c r="C155">
@@ -3406,7 +3414,7 @@
       <c r="A156">
         <v>3231</v>
       </c>
-      <c r="B156" s="27" t="s">
+      <c r="B156" s="31" t="s">
         <v>157</v>
       </c>
       <c r="C156">
@@ -3417,7 +3425,7 @@
       <c r="A157">
         <v>3232</v>
       </c>
-      <c r="B157" s="27" t="s">
+      <c r="B157" s="31" t="s">
         <v>158</v>
       </c>
       <c r="C157">
@@ -3428,7 +3436,7 @@
       <c r="A158">
         <v>3241</v>
       </c>
-      <c r="B158" s="27" t="s">
+      <c r="B158" s="31" t="s">
         <v>159</v>
       </c>
       <c r="C158">
@@ -3439,7 +3447,7 @@
       <c r="A159">
         <v>3242</v>
       </c>
-      <c r="B159" s="27" t="s">
+      <c r="B159" s="31" t="s">
         <v>160</v>
       </c>
       <c r="C159">
@@ -3450,7 +3458,7 @@
       <c r="A160">
         <v>3250</v>
       </c>
-      <c r="B160" s="27" t="s">
+      <c r="B160" s="31" t="s">
         <v>161</v>
       </c>
       <c r="C160">
@@ -3461,7 +3469,7 @@
       <c r="A161">
         <v>3251</v>
       </c>
-      <c r="B161" s="27" t="s">
+      <c r="B161" s="31" t="s">
         <v>162</v>
       </c>
       <c r="C161">
@@ -3472,7 +3480,7 @@
       <c r="A162">
         <v>3252</v>
       </c>
-      <c r="B162" s="27" t="s">
+      <c r="B162" s="31" t="s">
         <v>163</v>
       </c>
       <c r="C162">
@@ -3483,7 +3491,7 @@
       <c r="A163">
         <v>3253</v>
       </c>
-      <c r="B163" s="27" t="s">
+      <c r="B163" s="31" t="s">
         <v>164</v>
       </c>
       <c r="C163">
@@ -3494,7 +3502,7 @@
       <c r="A164">
         <v>3281</v>
       </c>
-      <c r="B164" s="27" t="s">
+      <c r="B164" s="31" t="s">
         <v>165</v>
       </c>
       <c r="C164">
@@ -3505,7 +3513,7 @@
       <c r="A165">
         <v>3311</v>
       </c>
-      <c r="B165" s="27" t="s">
+      <c r="B165" s="31" t="s">
         <v>166</v>
       </c>
       <c r="C165">
@@ -3516,7 +3524,7 @@
       <c r="A166">
         <v>3312</v>
       </c>
-      <c r="B166" s="27" t="s">
+      <c r="B166" s="31" t="s">
         <v>167</v>
       </c>
       <c r="C166">
@@ -3527,7 +3535,7 @@
       <c r="A167">
         <v>3313</v>
       </c>
-      <c r="B167" s="27" t="s">
+      <c r="B167" s="31" t="s">
         <v>168</v>
       </c>
       <c r="C167">
@@ -3538,7 +3546,7 @@
       <c r="A168">
         <v>3321</v>
       </c>
-      <c r="B168" s="27" t="s">
+      <c r="B168" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C168">
@@ -3549,7 +3557,7 @@
       <c r="A169">
         <v>3322</v>
       </c>
-      <c r="B169" s="27" t="s">
+      <c r="B169" s="31" t="s">
         <v>170</v>
       </c>
       <c r="C169">
@@ -3560,7 +3568,7 @@
       <c r="A170">
         <v>3331</v>
       </c>
-      <c r="B170" s="27" t="s">
+      <c r="B170" s="31" t="s">
         <v>171</v>
       </c>
       <c r="C170">
@@ -3571,7 +3579,7 @@
       <c r="A171">
         <v>3341</v>
       </c>
-      <c r="B171" s="27" t="s">
+      <c r="B171" s="31" t="s">
         <v>172</v>
       </c>
       <c r="C171">
@@ -3582,7 +3590,7 @@
       <c r="A172">
         <v>3411</v>
       </c>
-      <c r="B172" s="27" t="s">
+      <c r="B172" s="31" t="s">
         <v>173</v>
       </c>
       <c r="C172">
@@ -3593,7 +3601,7 @@
       <c r="A173">
         <v>3412</v>
       </c>
-      <c r="B173" s="27" t="s">
+      <c r="B173" s="31" t="s">
         <v>174</v>
       </c>
       <c r="C173">
@@ -3604,7 +3612,7 @@
       <c r="A174">
         <v>3413</v>
       </c>
-      <c r="B174" s="27" t="s">
+      <c r="B174" s="31" t="s">
         <v>175</v>
       </c>
       <c r="C174">
@@ -3615,7 +3623,7 @@
       <c r="A175">
         <v>3421</v>
       </c>
-      <c r="B175" s="27" t="s">
+      <c r="B175" s="31" t="s">
         <v>176</v>
       </c>
       <c r="C175">
@@ -3626,7 +3634,7 @@
       <c r="A176">
         <v>3422</v>
       </c>
-      <c r="B176" s="27" t="s">
+      <c r="B176" s="31" t="s">
         <v>177</v>
       </c>
       <c r="C176">
@@ -3637,7 +3645,7 @@
       <c r="A177">
         <v>3423</v>
       </c>
-      <c r="B177" s="27" t="s">
+      <c r="B177" s="31" t="s">
         <v>178</v>
       </c>
       <c r="C177">
@@ -3648,7 +3656,7 @@
       <c r="A178">
         <v>3424</v>
       </c>
-      <c r="B178" s="27" t="s">
+      <c r="B178" s="31" t="s">
         <v>179</v>
       </c>
       <c r="C178">
@@ -3659,7 +3667,7 @@
       <c r="A179">
         <v>3425</v>
       </c>
-      <c r="B179" s="27" t="s">
+      <c r="B179" s="31" t="s">
         <v>180</v>
       </c>
       <c r="C179">
@@ -3670,7 +3678,7 @@
       <c r="A180">
         <v>3426</v>
       </c>
-      <c r="B180" s="27" t="s">
+      <c r="B180" s="31" t="s">
         <v>181</v>
       </c>
       <c r="C180">
@@ -3681,7 +3689,7 @@
       <c r="A181">
         <v>3511</v>
       </c>
-      <c r="B181" s="27" t="s">
+      <c r="B181" s="31" t="s">
         <v>182</v>
       </c>
       <c r="C181">
@@ -3692,7 +3700,7 @@
       <c r="A182">
         <v>3512</v>
       </c>
-      <c r="B182" s="27" t="s">
+      <c r="B182" s="31" t="s">
         <v>183</v>
       </c>
       <c r="C182">
@@ -3703,7 +3711,7 @@
       <c r="A183">
         <v>3513</v>
       </c>
-      <c r="B183" s="27" t="s">
+      <c r="B183" s="31" t="s">
         <v>184</v>
       </c>
       <c r="C183">
@@ -3714,7 +3722,7 @@
       <c r="A184">
         <v>3514</v>
       </c>
-      <c r="B184" s="27" t="s">
+      <c r="B184" s="31" t="s">
         <v>185</v>
       </c>
       <c r="C184">
@@ -3725,7 +3733,7 @@
       <c r="A185">
         <v>3515</v>
       </c>
-      <c r="B185" s="27" t="s">
+      <c r="B185" s="31" t="s">
         <v>186</v>
       </c>
       <c r="C185">
@@ -3736,7 +3744,7 @@
       <c r="A186">
         <v>3516</v>
       </c>
-      <c r="B186" s="27" t="s">
+      <c r="B186" s="31" t="s">
         <v>187</v>
       </c>
       <c r="C186">
@@ -3747,7 +3755,7 @@
       <c r="A187">
         <v>3517</v>
       </c>
-      <c r="B187" s="27" t="s">
+      <c r="B187" s="31" t="s">
         <v>188</v>
       </c>
       <c r="C187">
@@ -3758,7 +3766,7 @@
       <c r="A188">
         <v>3518</v>
       </c>
-      <c r="B188" s="27" t="s">
+      <c r="B188" s="31" t="s">
         <v>189</v>
       </c>
       <c r="C188">
@@ -3769,7 +3777,7 @@
       <c r="A189">
         <v>3522</v>
       </c>
-      <c r="B189" s="27" t="s">
+      <c r="B189" s="31" t="s">
         <v>190</v>
       </c>
       <c r="C189">
@@ -3780,7 +3788,7 @@
       <c r="A190">
         <v>3523</v>
       </c>
-      <c r="B190" s="27" t="s">
+      <c r="B190" s="31" t="s">
         <v>191</v>
       </c>
       <c r="C190">
@@ -3791,7 +3799,7 @@
       <c r="A191">
         <v>3524</v>
       </c>
-      <c r="B191" s="27" t="s">
+      <c r="B191" s="31" t="s">
         <v>192</v>
       </c>
       <c r="C191">
@@ -3802,7 +3810,7 @@
       <c r="A192">
         <v>3525</v>
       </c>
-      <c r="B192" s="27" t="s">
+      <c r="B192" s="31" t="s">
         <v>193</v>
       </c>
       <c r="C192">
@@ -3813,7 +3821,7 @@
       <c r="A193">
         <v>3531</v>
       </c>
-      <c r="B193" s="27" t="s">
+      <c r="B193" s="31" t="s">
         <v>194</v>
       </c>
       <c r="C193">
@@ -3824,7 +3832,7 @@
       <c r="A194">
         <v>3532</v>
       </c>
-      <c r="B194" s="27" t="s">
+      <c r="B194" s="31" t="s">
         <v>195</v>
       </c>
       <c r="C194">
@@ -3835,7 +3843,7 @@
       <c r="A195">
         <v>3541</v>
       </c>
-      <c r="B195" s="27" t="s">
+      <c r="B195" s="31" t="s">
         <v>196</v>
       </c>
       <c r="C195">
@@ -3846,7 +3854,7 @@
       <c r="A196">
         <v>3542</v>
       </c>
-      <c r="B196" s="27" t="s">
+      <c r="B196" s="31" t="s">
         <v>197</v>
       </c>
       <c r="C196">
@@ -3857,7 +3865,7 @@
       <c r="A197">
         <v>3543</v>
       </c>
-      <c r="B197" s="27" t="s">
+      <c r="B197" s="31" t="s">
         <v>198</v>
       </c>
       <c r="C197">
@@ -3868,7 +3876,7 @@
       <c r="A198">
         <v>3544</v>
       </c>
-      <c r="B198" s="27" t="s">
+      <c r="B198" s="31" t="s">
         <v>199</v>
       </c>
       <c r="C198">
@@ -3879,7 +3887,7 @@
       <c r="A199">
         <v>3545</v>
       </c>
-      <c r="B199" s="27" t="s">
+      <c r="B199" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C199">
@@ -3890,7 +3898,7 @@
       <c r="A200">
         <v>3546</v>
       </c>
-      <c r="B200" s="27" t="s">
+      <c r="B200" s="31" t="s">
         <v>201</v>
       </c>
       <c r="C200">
@@ -3901,7 +3909,7 @@
       <c r="A201">
         <v>3547</v>
       </c>
-      <c r="B201" s="27" t="s">
+      <c r="B201" s="31" t="s">
         <v>202</v>
       </c>
       <c r="C201">
@@ -3912,7 +3920,7 @@
       <c r="A202">
         <v>3548</v>
       </c>
-      <c r="B202" s="27" t="s">
+      <c r="B202" s="31" t="s">
         <v>203</v>
       </c>
       <c r="C202">
@@ -3923,7 +3931,7 @@
       <c r="A203">
         <v>3711</v>
       </c>
-      <c r="B203" s="27" t="s">
+      <c r="B203" s="31" t="s">
         <v>204</v>
       </c>
       <c r="C203">
@@ -3934,7 +3942,7 @@
       <c r="A204">
         <v>3712</v>
       </c>
-      <c r="B204" s="27" t="s">
+      <c r="B204" s="31" t="s">
         <v>205</v>
       </c>
       <c r="C204">
@@ -3945,7 +3953,7 @@
       <c r="A205">
         <v>3713</v>
       </c>
-      <c r="B205" s="27" t="s">
+      <c r="B205" s="31" t="s">
         <v>206</v>
       </c>
       <c r="C205">
@@ -3956,7 +3964,7 @@
       <c r="A206">
         <v>3721</v>
       </c>
-      <c r="B206" s="27" t="s">
+      <c r="B206" s="31" t="s">
         <v>207</v>
       </c>
       <c r="C206">
@@ -3967,7 +3975,7 @@
       <c r="A207">
         <v>3722</v>
       </c>
-      <c r="B207" s="27" t="s">
+      <c r="B207" s="31" t="s">
         <v>208</v>
       </c>
       <c r="C207">
@@ -3978,7 +3986,7 @@
       <c r="A208">
         <v>3723</v>
       </c>
-      <c r="B208" s="27" t="s">
+      <c r="B208" s="31" t="s">
         <v>209</v>
       </c>
       <c r="C208">
@@ -3989,7 +3997,7 @@
       <c r="A209">
         <v>3731</v>
       </c>
-      <c r="B209" s="27" t="s">
+      <c r="B209" s="31" t="s">
         <v>210</v>
       </c>
       <c r="C209">
@@ -4000,7 +4008,7 @@
       <c r="A210">
         <v>3732</v>
       </c>
-      <c r="B210" s="27" t="s">
+      <c r="B210" s="31" t="s">
         <v>211</v>
       </c>
       <c r="C210">
@@ -4011,7 +4019,7 @@
       <c r="A211">
         <v>3741</v>
       </c>
-      <c r="B211" s="27" t="s">
+      <c r="B211" s="31" t="s">
         <v>212</v>
       </c>
       <c r="C211">
@@ -4022,7 +4030,7 @@
       <c r="A212">
         <v>3742</v>
       </c>
-      <c r="B212" s="27" t="s">
+      <c r="B212" s="31" t="s">
         <v>213</v>
       </c>
       <c r="C212">
@@ -4033,7 +4041,7 @@
       <c r="A213">
         <v>3743</v>
       </c>
-      <c r="B213" s="27" t="s">
+      <c r="B213" s="31" t="s">
         <v>214</v>
       </c>
       <c r="C213">
@@ -4044,7 +4052,7 @@
       <c r="A214">
         <v>3751</v>
       </c>
-      <c r="B214" s="27" t="s">
+      <c r="B214" s="31" t="s">
         <v>215</v>
       </c>
       <c r="C214">
@@ -4055,7 +4063,7 @@
       <c r="A215">
         <v>3761</v>
       </c>
-      <c r="B215" s="27" t="s">
+      <c r="B215" s="31" t="s">
         <v>216</v>
       </c>
       <c r="C215">
@@ -4066,7 +4074,7 @@
       <c r="A216">
         <v>3762</v>
       </c>
-      <c r="B216" s="27" t="s">
+      <c r="B216" s="31" t="s">
         <v>217</v>
       </c>
       <c r="C216">
@@ -4077,7 +4085,7 @@
       <c r="A217">
         <v>3763</v>
       </c>
-      <c r="B217" s="27" t="s">
+      <c r="B217" s="31" t="s">
         <v>218</v>
       </c>
       <c r="C217">
@@ -4088,7 +4096,7 @@
       <c r="A218">
         <v>3764</v>
       </c>
-      <c r="B218" s="27" t="s">
+      <c r="B218" s="31" t="s">
         <v>219</v>
       </c>
       <c r="C218">
@@ -4099,7 +4107,7 @@
       <c r="A219">
         <v>3765</v>
       </c>
-      <c r="B219" s="27" t="s">
+      <c r="B219" s="31" t="s">
         <v>220</v>
       </c>
       <c r="C219">
@@ -4110,7 +4118,7 @@
       <c r="A220">
         <v>3771</v>
       </c>
-      <c r="B220" s="27" t="s">
+      <c r="B220" s="31" t="s">
         <v>221</v>
       </c>
       <c r="C220">
@@ -4121,7 +4129,7 @@
       <c r="A221">
         <v>3772</v>
       </c>
-      <c r="B221" s="27" t="s">
+      <c r="B221" s="31" t="s">
         <v>222</v>
       </c>
       <c r="C221">
@@ -4132,7 +4140,7 @@
       <c r="A222">
         <v>3773</v>
       </c>
-      <c r="B222" s="27" t="s">
+      <c r="B222" s="31" t="s">
         <v>223</v>
       </c>
       <c r="C222">
@@ -4143,7 +4151,7 @@
       <c r="A223">
         <v>3911</v>
       </c>
-      <c r="B223" s="27" t="s">
+      <c r="B223" s="31" t="s">
         <v>224</v>
       </c>
       <c r="C223">
@@ -4154,7 +4162,7 @@
       <c r="A224">
         <v>3912</v>
       </c>
-      <c r="B224" s="27" t="s">
+      <c r="B224" s="31" t="s">
         <v>225</v>
       </c>
       <c r="C224">
@@ -4165,7 +4173,7 @@
       <c r="A225">
         <v>-1</v>
       </c>
-      <c r="B225" s="27" t="s">
+      <c r="B225" s="31" t="s">
         <v>226</v>
       </c>
       <c r="C225">
@@ -4176,7 +4184,7 @@
       <c r="A226">
         <v>4101</v>
       </c>
-      <c r="B226" s="27" t="s">
+      <c r="B226" s="31" t="s">
         <v>227</v>
       </c>
       <c r="C226">
@@ -4187,7 +4195,7 @@
       <c r="A227">
         <v>4102</v>
       </c>
-      <c r="B227" s="27" t="s">
+      <c r="B227" s="31" t="s">
         <v>228</v>
       </c>
       <c r="C227">
@@ -4198,7 +4206,7 @@
       <c r="A228">
         <v>4110</v>
       </c>
-      <c r="B228" s="27" t="s">
+      <c r="B228" s="31" t="s">
         <v>229</v>
       </c>
       <c r="C228">
@@ -4209,7 +4217,7 @@
       <c r="A229">
         <v>4121</v>
       </c>
-      <c r="B229" s="27" t="s">
+      <c r="B229" s="31" t="s">
         <v>230</v>
       </c>
       <c r="C229">
@@ -4220,7 +4228,7 @@
       <c r="A230">
         <v>4122</v>
       </c>
-      <c r="B230" s="27" t="s">
+      <c r="B230" s="31" t="s">
         <v>231</v>
       </c>
       <c r="C230">
@@ -4231,7 +4239,7 @@
       <c r="A231">
         <v>4123</v>
       </c>
-      <c r="B231" s="27" t="s">
+      <c r="B231" s="31" t="s">
         <v>232</v>
       </c>
       <c r="C231">
@@ -4242,7 +4250,7 @@
       <c r="A232">
         <v>4131</v>
       </c>
-      <c r="B232" s="27" t="s">
+      <c r="B232" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C232">
@@ -4253,7 +4261,7 @@
       <c r="A233">
         <v>4132</v>
       </c>
-      <c r="B233" s="27" t="s">
+      <c r="B233" s="31" t="s">
         <v>234</v>
       </c>
       <c r="C233">
@@ -4264,7 +4272,7 @@
       <c r="A234">
         <v>4141</v>
       </c>
-      <c r="B234" s="27" t="s">
+      <c r="B234" s="31" t="s">
         <v>235</v>
       </c>
       <c r="C234">
@@ -4275,7 +4283,7 @@
       <c r="A235">
         <v>4142</v>
       </c>
-      <c r="B235" s="27" t="s">
+      <c r="B235" s="31" t="s">
         <v>236</v>
       </c>
       <c r="C235">
@@ -4286,7 +4294,7 @@
       <c r="A236">
         <v>4151</v>
       </c>
-      <c r="B236" s="27" t="s">
+      <c r="B236" s="31" t="s">
         <v>237</v>
       </c>
       <c r="C236">
@@ -4297,7 +4305,7 @@
       <c r="A237">
         <v>4152</v>
       </c>
-      <c r="B237" s="27" t="s">
+      <c r="B237" s="31" t="s">
         <v>238</v>
       </c>
       <c r="C237">
@@ -4308,7 +4316,7 @@
       <c r="A238">
         <v>4201</v>
       </c>
-      <c r="B238" s="27" t="s">
+      <c r="B238" s="31" t="s">
         <v>239</v>
       </c>
       <c r="C238">
@@ -4319,7 +4327,7 @@
       <c r="A239">
         <v>4211</v>
       </c>
-      <c r="B239" s="27" t="s">
+      <c r="B239" s="31" t="s">
         <v>240</v>
       </c>
       <c r="C239">
@@ -4330,7 +4338,7 @@
       <c r="A240">
         <v>4212</v>
       </c>
-      <c r="B240" s="27" t="s">
+      <c r="B240" s="31" t="s">
         <v>241</v>
       </c>
       <c r="C240">
@@ -4341,7 +4349,7 @@
       <c r="A241">
         <v>4213</v>
       </c>
-      <c r="B241" s="27" t="s">
+      <c r="B241" s="31" t="s">
         <v>242</v>
       </c>
       <c r="C241">
@@ -4352,7 +4360,7 @@
       <c r="A242">
         <v>4214</v>
       </c>
-      <c r="B242" s="27" t="s">
+      <c r="B242" s="31" t="s">
         <v>243</v>
       </c>
       <c r="C242">
@@ -4363,7 +4371,7 @@
       <c r="A243">
         <v>4221</v>
       </c>
-      <c r="B243" s="27" t="s">
+      <c r="B243" s="31" t="s">
         <v>244</v>
       </c>
       <c r="C243">
@@ -4374,7 +4382,7 @@
       <c r="A244">
         <v>4222</v>
       </c>
-      <c r="B244" s="27" t="s">
+      <c r="B244" s="31" t="s">
         <v>245</v>
       </c>
       <c r="C244">
@@ -4385,7 +4393,7 @@
       <c r="A245">
         <v>4223</v>
       </c>
-      <c r="B245" s="27" t="s">
+      <c r="B245" s="31" t="s">
         <v>246</v>
       </c>
       <c r="C245">
@@ -4396,7 +4404,7 @@
       <c r="A246">
         <v>4231</v>
       </c>
-      <c r="B246" s="27" t="s">
+      <c r="B246" s="31" t="s">
         <v>247</v>
       </c>
       <c r="C246">
@@ -4407,7 +4415,7 @@
       <c r="A247">
         <v>4241</v>
       </c>
-      <c r="B247" s="27" t="s">
+      <c r="B247" s="31" t="s">
         <v>248</v>
       </c>
       <c r="C247">
@@ -4418,7 +4426,7 @@
       <c r="A248">
         <v>-1</v>
       </c>
-      <c r="B248" s="27" t="s">
+      <c r="B248" s="31" t="s">
         <v>249</v>
       </c>
       <c r="C248">
@@ -4429,7 +4437,7 @@
       <c r="A249">
         <v>5101</v>
       </c>
-      <c r="B249" s="27" t="s">
+      <c r="B249" s="31" t="s">
         <v>250</v>
       </c>
       <c r="C249">
@@ -4440,7 +4448,7 @@
       <c r="A250">
         <v>5102</v>
       </c>
-      <c r="B250" s="27" t="s">
+      <c r="B250" s="31" t="s">
         <v>251</v>
       </c>
       <c r="C250">
@@ -4451,7 +4459,7 @@
       <c r="A251">
         <v>5103</v>
       </c>
-      <c r="B251" s="27" t="s">
+      <c r="B251" s="31" t="s">
         <v>252</v>
       </c>
       <c r="C251">
@@ -4462,7 +4470,7 @@
       <c r="A252">
         <v>5111</v>
       </c>
-      <c r="B252" s="27" t="s">
+      <c r="B252" s="31" t="s">
         <v>253</v>
       </c>
       <c r="C252">
@@ -4473,7 +4481,7 @@
       <c r="A253">
         <v>5112</v>
       </c>
-      <c r="B253" s="27" t="s">
+      <c r="B253" s="31" t="s">
         <v>254</v>
       </c>
       <c r="C253">
@@ -4484,7 +4492,7 @@
       <c r="A254">
         <v>5114</v>
       </c>
-      <c r="B254" s="27" t="s">
+      <c r="B254" s="31" t="s">
         <v>255</v>
       </c>
       <c r="C254">
@@ -4495,7 +4503,7 @@
       <c r="A255">
         <v>5121</v>
       </c>
-      <c r="B255" s="27" t="s">
+      <c r="B255" s="31" t="s">
         <v>256</v>
       </c>
       <c r="C255">
@@ -4506,7 +4514,7 @@
       <c r="A256">
         <v>5131</v>
       </c>
-      <c r="B256" s="27" t="s">
+      <c r="B256" s="31" t="s">
         <v>257</v>
       </c>
       <c r="C256">
@@ -4517,7 +4525,7 @@
       <c r="A257">
         <v>5132</v>
       </c>
-      <c r="B257" s="27" t="s">
+      <c r="B257" s="31" t="s">
         <v>258</v>
       </c>
       <c r="C257">
@@ -4528,7 +4536,7 @@
       <c r="A258">
         <v>5133</v>
       </c>
-      <c r="B258" s="27" t="s">
+      <c r="B258" s="31" t="s">
         <v>259</v>
       </c>
       <c r="C258">
@@ -4539,7 +4547,7 @@
       <c r="A259">
         <v>5134</v>
       </c>
-      <c r="B259" s="27" t="s">
+      <c r="B259" s="31" t="s">
         <v>260</v>
       </c>
       <c r="C259">
@@ -4550,7 +4558,7 @@
       <c r="A260">
         <v>5141</v>
       </c>
-      <c r="B260" s="27" t="s">
+      <c r="B260" s="31" t="s">
         <v>261</v>
       </c>
       <c r="C260">
@@ -4561,7 +4569,7 @@
       <c r="A261">
         <v>5142</v>
       </c>
-      <c r="B261" s="27" t="s">
+      <c r="B261" s="31" t="s">
         <v>262</v>
       </c>
       <c r="C261">
@@ -4572,7 +4580,7 @@
       <c r="A262">
         <v>5151</v>
       </c>
-      <c r="B262" s="27" t="s">
+      <c r="B262" s="31" t="s">
         <v>263</v>
       </c>
       <c r="C262">
@@ -4583,7 +4591,7 @@
       <c r="A263">
         <v>5152</v>
       </c>
-      <c r="B263" s="27" t="s">
+      <c r="B263" s="31" t="s">
         <v>264</v>
       </c>
       <c r="C263">
@@ -4594,7 +4602,7 @@
       <c r="A264">
         <v>5161</v>
       </c>
-      <c r="B264" s="27" t="s">
+      <c r="B264" s="31" t="s">
         <v>265</v>
       </c>
       <c r="C264">
@@ -4605,7 +4613,7 @@
       <c r="A265">
         <v>5162</v>
       </c>
-      <c r="B265" s="27" t="s">
+      <c r="B265" s="31" t="s">
         <v>266</v>
       </c>
       <c r="C265">
@@ -4616,7 +4624,7 @@
       <c r="A266">
         <v>5165</v>
       </c>
-      <c r="B266" s="27" t="s">
+      <c r="B266" s="31" t="s">
         <v>267</v>
       </c>
       <c r="C266">
@@ -4627,7 +4635,7 @@
       <c r="A267">
         <v>5166</v>
       </c>
-      <c r="B267" s="27" t="s">
+      <c r="B267" s="31" t="s">
         <v>268</v>
       </c>
       <c r="C267">
@@ -4638,7 +4646,7 @@
       <c r="A268">
         <v>5167</v>
       </c>
-      <c r="B268" s="27" t="s">
+      <c r="B268" s="31" t="s">
         <v>269</v>
       </c>
       <c r="C268">
@@ -4649,7 +4657,7 @@
       <c r="A269">
         <v>5169</v>
       </c>
-      <c r="B269" s="27" t="s">
+      <c r="B269" s="31" t="s">
         <v>270</v>
       </c>
       <c r="C269">
@@ -4660,7 +4668,7 @@
       <c r="A270">
         <v>5171</v>
       </c>
-      <c r="B270" s="27" t="s">
+      <c r="B270" s="31" t="s">
         <v>271</v>
       </c>
       <c r="C270">
@@ -4671,7 +4679,7 @@
       <c r="A271">
         <v>5172</v>
       </c>
-      <c r="B271" s="27" t="s">
+      <c r="B271" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C271">
@@ -4682,7 +4690,7 @@
       <c r="A272">
         <v>5173</v>
       </c>
-      <c r="B272" s="27" t="s">
+      <c r="B272" s="31" t="s">
         <v>273</v>
       </c>
       <c r="C272">
@@ -4693,7 +4701,7 @@
       <c r="A273">
         <v>5174</v>
       </c>
-      <c r="B273" s="27" t="s">
+      <c r="B273" s="31" t="s">
         <v>274</v>
       </c>
       <c r="C273">
@@ -4704,7 +4712,7 @@
       <c r="A274">
         <v>5191</v>
       </c>
-      <c r="B274" s="27" t="s">
+      <c r="B274" s="31" t="s">
         <v>275</v>
       </c>
       <c r="C274">
@@ -4715,7 +4723,7 @@
       <c r="A275">
         <v>5192</v>
       </c>
-      <c r="B275" s="27" t="s">
+      <c r="B275" s="31" t="s">
         <v>276</v>
       </c>
       <c r="C275">
@@ -4726,7 +4734,7 @@
       <c r="A276">
         <v>5198</v>
       </c>
-      <c r="B276" s="27" t="s">
+      <c r="B276" s="31" t="s">
         <v>277</v>
       </c>
       <c r="C276">
@@ -4737,7 +4745,7 @@
       <c r="A277">
         <v>5199</v>
       </c>
-      <c r="B277" s="27" t="s">
+      <c r="B277" s="31" t="s">
         <v>278</v>
       </c>
       <c r="C277">
@@ -4748,7 +4756,7 @@
       <c r="A278">
         <v>5201</v>
       </c>
-      <c r="B278" s="27" t="s">
+      <c r="B278" s="31" t="s">
         <v>279</v>
       </c>
       <c r="C278">
@@ -4759,7 +4767,7 @@
       <c r="A279">
         <v>5211</v>
       </c>
-      <c r="B279" s="27" t="s">
+      <c r="B279" s="31" t="s">
         <v>280</v>
       </c>
       <c r="C279">
@@ -4770,7 +4778,7 @@
       <c r="A280">
         <v>5221</v>
       </c>
-      <c r="B280" s="27" t="s">
+      <c r="B280" s="31" t="s">
         <v>281</v>
       </c>
       <c r="C280">
@@ -4781,7 +4789,7 @@
       <c r="A281">
         <v>5231</v>
       </c>
-      <c r="B281" s="27" t="s">
+      <c r="B281" s="31" t="s">
         <v>282</v>
       </c>
       <c r="C281">
@@ -4792,7 +4800,7 @@
       <c r="A282">
         <v>5241</v>
       </c>
-      <c r="B282" s="27" t="s">
+      <c r="B282" s="31" t="s">
         <v>283</v>
       </c>
       <c r="C282">
@@ -4803,7 +4811,7 @@
       <c r="A283">
         <v>5242</v>
       </c>
-      <c r="B283" s="27" t="s">
+      <c r="B283" s="31" t="s">
         <v>284</v>
       </c>
       <c r="C283">
@@ -4814,7 +4822,7 @@
       <c r="A284">
         <v>5243</v>
       </c>
-      <c r="B284" s="27" t="s">
+      <c r="B284" s="31" t="s">
         <v>285</v>
       </c>
       <c r="C284">
@@ -4825,7 +4833,7 @@
       <c r="A285">
         <v>-1</v>
       </c>
-      <c r="B285" s="27" t="s">
+      <c r="B285" s="31" t="s">
         <v>286</v>
       </c>
       <c r="C285">
@@ -4836,7 +4844,7 @@
       <c r="A286">
         <v>6110</v>
       </c>
-      <c r="B286" s="27" t="s">
+      <c r="B286" s="31" t="s">
         <v>287</v>
       </c>
       <c r="C286">
@@ -4847,7 +4855,7 @@
       <c r="A287">
         <v>6129</v>
       </c>
-      <c r="B287" s="27" t="s">
+      <c r="B287" s="31" t="s">
         <v>288</v>
       </c>
       <c r="C287">
@@ -4858,7 +4866,7 @@
       <c r="A288">
         <v>6139</v>
       </c>
-      <c r="B288" s="27" t="s">
+      <c r="B288" s="31" t="s">
         <v>289</v>
       </c>
       <c r="C288">
@@ -4869,7 +4877,7 @@
       <c r="A289">
         <v>6201</v>
       </c>
-      <c r="B289" s="27" t="s">
+      <c r="B289" s="31" t="s">
         <v>290</v>
       </c>
       <c r="C289">
@@ -4880,7 +4888,7 @@
       <c r="A290">
         <v>6210</v>
       </c>
-      <c r="B290" s="27" t="s">
+      <c r="B290" s="31" t="s">
         <v>291</v>
       </c>
       <c r="C290">
@@ -4891,7 +4899,7 @@
       <c r="A291">
         <v>6229</v>
       </c>
-      <c r="B291" s="27" t="s">
+      <c r="B291" s="31" t="s">
         <v>292</v>
       </c>
       <c r="C291">
@@ -4902,7 +4910,7 @@
       <c r="A292">
         <v>6239</v>
       </c>
-      <c r="B292" s="27" t="s">
+      <c r="B292" s="31" t="s">
         <v>293</v>
       </c>
       <c r="C292">
@@ -4913,7 +4921,7 @@
       <c r="A293">
         <v>6301</v>
       </c>
-      <c r="B293" s="27" t="s">
+      <c r="B293" s="31" t="s">
         <v>294</v>
       </c>
       <c r="C293">
@@ -4924,7 +4932,7 @@
       <c r="A294">
         <v>6319</v>
       </c>
-      <c r="B294" s="27" t="s">
+      <c r="B294" s="31" t="s">
         <v>295</v>
       </c>
       <c r="C294">
@@ -4935,7 +4943,7 @@
       <c r="A295">
         <v>6329</v>
       </c>
-      <c r="B295" s="27" t="s">
+      <c r="B295" s="31" t="s">
         <v>296</v>
       </c>
       <c r="C295">
@@ -4946,7 +4954,7 @@
       <c r="A296">
         <v>6410</v>
       </c>
-      <c r="B296" s="27" t="s">
+      <c r="B296" s="31" t="s">
         <v>297</v>
       </c>
       <c r="C296">
@@ -4957,7 +4965,7 @@
       <c r="A297">
         <v>6420</v>
       </c>
-      <c r="B297" s="27" t="s">
+      <c r="B297" s="31" t="s">
         <v>298</v>
       </c>
       <c r="C297">
@@ -4968,7 +4976,7 @@
       <c r="A298">
         <v>6430</v>
       </c>
-      <c r="B298" s="27" t="s">
+      <c r="B298" s="31" t="s">
         <v>299</v>
       </c>
       <c r="C298">
@@ -4979,7 +4987,7 @@
       <c r="A299">
         <v>-1</v>
       </c>
-      <c r="B299" s="27" t="s">
+      <c r="B299" s="31" t="s">
         <v>300</v>
       </c>
       <c r="C299">
@@ -4990,7 +4998,7 @@
       <c r="A300">
         <v>7101</v>
       </c>
-      <c r="B300" s="27" t="s">
+      <c r="B300" s="31" t="s">
         <v>301</v>
       </c>
       <c r="C300">
@@ -5001,7 +5009,7 @@
       <c r="A301">
         <v>7102</v>
       </c>
-      <c r="B301" s="27" t="s">
+      <c r="B301" s="31" t="s">
         <v>302</v>
       </c>
       <c r="C301">
@@ -5012,7 +5020,7 @@
       <c r="A302">
         <v>7111</v>
       </c>
-      <c r="B302" s="27" t="s">
+      <c r="B302" s="31" t="s">
         <v>303</v>
       </c>
       <c r="C302">
@@ -5023,7 +5031,7 @@
       <c r="A303">
         <v>7112</v>
       </c>
-      <c r="B303" s="27" t="s">
+      <c r="B303" s="31" t="s">
         <v>304</v>
       </c>
       <c r="C303">
@@ -5034,7 +5042,7 @@
       <c r="A304">
         <v>7113</v>
       </c>
-      <c r="B304" s="27" t="s">
+      <c r="B304" s="31" t="s">
         <v>305</v>
       </c>
       <c r="C304">
@@ -5045,7 +5053,7 @@
       <c r="A305">
         <v>7114</v>
       </c>
-      <c r="B305" s="27" t="s">
+      <c r="B305" s="31" t="s">
         <v>306</v>
       </c>
       <c r="C305">
@@ -5056,7 +5064,7 @@
       <c r="A306">
         <v>7121</v>
       </c>
-      <c r="B306" s="27" t="s">
+      <c r="B306" s="31" t="s">
         <v>307</v>
       </c>
       <c r="C306">
@@ -5067,7 +5075,7 @@
       <c r="A307">
         <v>7122</v>
       </c>
-      <c r="B307" s="27" t="s">
+      <c r="B307" s="31" t="s">
         <v>308</v>
       </c>
       <c r="C307">
@@ -5078,7 +5086,7 @@
       <c r="A308">
         <v>7151</v>
       </c>
-      <c r="B308" s="27" t="s">
+      <c r="B308" s="31" t="s">
         <v>309</v>
       </c>
       <c r="C308">
@@ -5089,7 +5097,7 @@
       <c r="A309">
         <v>7152</v>
       </c>
-      <c r="B309" s="27" t="s">
+      <c r="B309" s="31" t="s">
         <v>310</v>
       </c>
       <c r="C309">
@@ -5100,7 +5108,7 @@
       <c r="A310">
         <v>7153</v>
       </c>
-      <c r="B310" s="27" t="s">
+      <c r="B310" s="31" t="s">
         <v>311</v>
       </c>
       <c r="C310">
@@ -5111,7 +5119,7 @@
       <c r="A311">
         <v>7154</v>
       </c>
-      <c r="B311" s="27" t="s">
+      <c r="B311" s="31" t="s">
         <v>312</v>
       </c>
       <c r="C311">
@@ -5122,7 +5130,7 @@
       <c r="A312">
         <v>7155</v>
       </c>
-      <c r="B312" s="27" t="s">
+      <c r="B312" s="31" t="s">
         <v>313</v>
       </c>
       <c r="C312">
@@ -5133,7 +5141,7 @@
       <c r="A313">
         <v>7156</v>
       </c>
-      <c r="B313" s="27" t="s">
+      <c r="B313" s="31" t="s">
         <v>314</v>
       </c>
       <c r="C313">
@@ -5144,7 +5152,7 @@
       <c r="A314">
         <v>7157</v>
       </c>
-      <c r="B314" s="27" t="s">
+      <c r="B314" s="31" t="s">
         <v>315</v>
       </c>
       <c r="C314">
@@ -5155,7 +5163,7 @@
       <c r="A315">
         <v>7161</v>
       </c>
-      <c r="B315" s="27" t="s">
+      <c r="B315" s="31" t="s">
         <v>316</v>
       </c>
       <c r="C315">
@@ -5166,7 +5174,7 @@
       <c r="A316">
         <v>7162</v>
       </c>
-      <c r="B316" s="27" t="s">
+      <c r="B316" s="31" t="s">
         <v>317</v>
       </c>
       <c r="C316">
@@ -5177,7 +5185,7 @@
       <c r="A317">
         <v>7163</v>
       </c>
-      <c r="B317" s="27" t="s">
+      <c r="B317" s="31" t="s">
         <v>318</v>
       </c>
       <c r="C317">
@@ -5188,7 +5196,7 @@
       <c r="A318">
         <v>7164</v>
       </c>
-      <c r="B318" s="27" t="s">
+      <c r="B318" s="31" t="s">
         <v>319</v>
       </c>
       <c r="C318">
@@ -5199,7 +5207,7 @@
       <c r="A319">
         <v>7165</v>
       </c>
-      <c r="B319" s="27" t="s">
+      <c r="B319" s="31" t="s">
         <v>320</v>
       </c>
       <c r="C319">
@@ -5210,7 +5218,7 @@
       <c r="A320">
         <v>7166</v>
       </c>
-      <c r="B320" s="27" t="s">
+      <c r="B320" s="31" t="s">
         <v>321</v>
       </c>
       <c r="C320">
@@ -5221,7 +5229,7 @@
       <c r="A321">
         <v>7170</v>
       </c>
-      <c r="B321" s="27" t="s">
+      <c r="B321" s="31" t="s">
         <v>322</v>
       </c>
       <c r="C321">
@@ -5232,7 +5240,7 @@
       <c r="A322">
         <v>7201</v>
       </c>
-      <c r="B322" s="27" t="s">
+      <c r="B322" s="31" t="s">
         <v>323</v>
       </c>
       <c r="C322">
@@ -5243,7 +5251,7 @@
       <c r="A323">
         <v>7202</v>
       </c>
-      <c r="B323" s="27" t="s">
+      <c r="B323" s="31" t="s">
         <v>324</v>
       </c>
       <c r="C323">
@@ -5254,7 +5262,7 @@
       <c r="A324">
         <v>7211</v>
       </c>
-      <c r="B324" s="27" t="s">
+      <c r="B324" s="31" t="s">
         <v>325</v>
       </c>
       <c r="C324">
@@ -5265,7 +5273,7 @@
       <c r="A325">
         <v>7212</v>
       </c>
-      <c r="B325" s="27" t="s">
+      <c r="B325" s="31" t="s">
         <v>326</v>
       </c>
       <c r="C325">
@@ -5276,7 +5284,7 @@
       <c r="A326">
         <v>7213</v>
       </c>
-      <c r="B326" s="27" t="s">
+      <c r="B326" s="31" t="s">
         <v>327</v>
       </c>
       <c r="C326">
@@ -5287,7 +5295,7 @@
       <c r="A327">
         <v>7214</v>
       </c>
-      <c r="B327" s="27" t="s">
+      <c r="B327" s="31" t="s">
         <v>328</v>
       </c>
       <c r="C327">
@@ -5298,7 +5306,7 @@
       <c r="A328">
         <v>7215</v>
       </c>
-      <c r="B328" s="27" t="s">
+      <c r="B328" s="31" t="s">
         <v>329</v>
       </c>
       <c r="C328">
@@ -5309,7 +5317,7 @@
       <c r="A329">
         <v>7221</v>
       </c>
-      <c r="B329" s="27" t="s">
+      <c r="B329" s="31" t="s">
         <v>330</v>
       </c>
       <c r="C329">
@@ -5320,7 +5328,7 @@
       <c r="A330">
         <v>7222</v>
       </c>
-      <c r="B330" s="27" t="s">
+      <c r="B330" s="31" t="s">
         <v>331</v>
       </c>
       <c r="C330">
@@ -5331,7 +5339,7 @@
       <c r="A331">
         <v>7223</v>
       </c>
-      <c r="B331" s="27" t="s">
+      <c r="B331" s="31" t="s">
         <v>332</v>
       </c>
       <c r="C331">
@@ -5342,7 +5350,7 @@
       <c r="A332">
         <v>7224</v>
       </c>
-      <c r="B332" s="27" t="s">
+      <c r="B332" s="31" t="s">
         <v>333</v>
       </c>
       <c r="C332">
@@ -5353,7 +5361,7 @@
       <c r="A333">
         <v>7231</v>
       </c>
-      <c r="B333" s="27" t="s">
+      <c r="B333" s="31" t="s">
         <v>334</v>
       </c>
       <c r="C333">
@@ -5364,7 +5372,7 @@
       <c r="A334">
         <v>7232</v>
       </c>
-      <c r="B334" s="27" t="s">
+      <c r="B334" s="31" t="s">
         <v>335</v>
       </c>
       <c r="C334">
@@ -5375,7 +5383,7 @@
       <c r="A335">
         <v>7233</v>
       </c>
-      <c r="B335" s="27" t="s">
+      <c r="B335" s="31" t="s">
         <v>336</v>
       </c>
       <c r="C335">
@@ -5386,7 +5394,7 @@
       <c r="A336">
         <v>7241</v>
       </c>
-      <c r="B336" s="27" t="s">
+      <c r="B336" s="31" t="s">
         <v>337</v>
       </c>
       <c r="C336">
@@ -5397,7 +5405,7 @@
       <c r="A337">
         <v>7242</v>
       </c>
-      <c r="B337" s="27" t="s">
+      <c r="B337" s="31" t="s">
         <v>338</v>
       </c>
       <c r="C337">
@@ -5408,7 +5416,7 @@
       <c r="A338">
         <v>7243</v>
       </c>
-      <c r="B338" s="27" t="s">
+      <c r="B338" s="31" t="s">
         <v>339</v>
       </c>
       <c r="C338">
@@ -5419,7 +5427,7 @@
       <c r="A339">
         <v>7244</v>
       </c>
-      <c r="B339" s="27" t="s">
+      <c r="B339" s="31" t="s">
         <v>340</v>
       </c>
       <c r="C339">
@@ -5430,7 +5438,7 @@
       <c r="A340">
         <v>7245</v>
       </c>
-      <c r="B340" s="27" t="s">
+      <c r="B340" s="31" t="s">
         <v>341</v>
       </c>
       <c r="C340">
@@ -5441,7 +5449,7 @@
       <c r="A341">
         <v>7246</v>
       </c>
-      <c r="B341" s="27" t="s">
+      <c r="B341" s="31" t="s">
         <v>342</v>
       </c>
       <c r="C341">
@@ -5452,7 +5460,7 @@
       <c r="A342">
         <v>7250</v>
       </c>
-      <c r="B342" s="27" t="s">
+      <c r="B342" s="31" t="s">
         <v>343</v>
       </c>
       <c r="C342">
@@ -5463,7 +5471,7 @@
       <c r="A343">
         <v>7251</v>
       </c>
-      <c r="B343" s="27" t="s">
+      <c r="B343" s="31" t="s">
         <v>344</v>
       </c>
       <c r="C343">
@@ -5474,7 +5482,7 @@
       <c r="A344">
         <v>7252</v>
       </c>
-      <c r="B344" s="27" t="s">
+      <c r="B344" s="31" t="s">
         <v>345</v>
       </c>
       <c r="C344">
@@ -5485,7 +5493,7 @@
       <c r="A345">
         <v>7253</v>
       </c>
-      <c r="B345" s="27" t="s">
+      <c r="B345" s="31" t="s">
         <v>346</v>
       </c>
       <c r="C345">
@@ -5496,7 +5504,7 @@
       <c r="A346">
         <v>7254</v>
       </c>
-      <c r="B346" s="27" t="s">
+      <c r="B346" s="31" t="s">
         <v>347</v>
       </c>
       <c r="C346">
@@ -5507,7 +5515,7 @@
       <c r="A347">
         <v>7255</v>
       </c>
-      <c r="B347" s="27" t="s">
+      <c r="B347" s="31" t="s">
         <v>348</v>
       </c>
       <c r="C347">
@@ -5518,7 +5526,7 @@
       <c r="A348">
         <v>7256</v>
       </c>
-      <c r="B348" s="27" t="s">
+      <c r="B348" s="31" t="s">
         <v>349</v>
       </c>
       <c r="C348">
@@ -5529,7 +5537,7 @@
       <c r="A349">
         <v>7257</v>
       </c>
-      <c r="B349" s="27" t="s">
+      <c r="B349" s="31" t="s">
         <v>350</v>
       </c>
       <c r="C349">
@@ -5540,7 +5548,7 @@
       <c r="A350">
         <v>7301</v>
       </c>
-      <c r="B350" s="27" t="s">
+      <c r="B350" s="31" t="s">
         <v>351</v>
       </c>
       <c r="C350">
@@ -5551,7 +5559,7 @@
       <c r="A351">
         <v>7311</v>
       </c>
-      <c r="B351" s="27" t="s">
+      <c r="B351" s="31" t="s">
         <v>352</v>
       </c>
       <c r="C351">
@@ -5562,7 +5570,7 @@
       <c r="A352">
         <v>7312</v>
       </c>
-      <c r="B352" s="27" t="s">
+      <c r="B352" s="31" t="s">
         <v>353</v>
       </c>
       <c r="C352">
@@ -5573,7 +5581,7 @@
       <c r="A353">
         <v>7313</v>
       </c>
-      <c r="B353" s="27" t="s">
+      <c r="B353" s="31" t="s">
         <v>354</v>
       </c>
       <c r="C353">
@@ -5584,7 +5592,7 @@
       <c r="A354">
         <v>7321</v>
       </c>
-      <c r="B354" s="27" t="s">
+      <c r="B354" s="31" t="s">
         <v>355</v>
       </c>
       <c r="C354">
@@ -5595,7 +5603,7 @@
       <c r="A355">
         <v>7401</v>
       </c>
-      <c r="B355" s="27" t="s">
+      <c r="B355" s="31" t="s">
         <v>356</v>
       </c>
       <c r="C355">
@@ -5606,7 +5614,7 @@
       <c r="A356">
         <v>7411</v>
       </c>
-      <c r="B356" s="27" t="s">
+      <c r="B356" s="31" t="s">
         <v>357</v>
       </c>
       <c r="C356">
@@ -5617,7 +5625,7 @@
       <c r="A357">
         <v>7421</v>
       </c>
-      <c r="B357" s="27" t="s">
+      <c r="B357" s="31" t="s">
         <v>358</v>
       </c>
       <c r="C357">
@@ -5628,7 +5636,7 @@
       <c r="A358">
         <v>7501</v>
       </c>
-      <c r="B358" s="27" t="s">
+      <c r="B358" s="31" t="s">
         <v>359</v>
       </c>
       <c r="C358">
@@ -5639,7 +5647,7 @@
       <c r="A359">
         <v>7502</v>
       </c>
-      <c r="B359" s="27" t="s">
+      <c r="B359" s="31" t="s">
         <v>360</v>
       </c>
       <c r="C359">
@@ -5650,7 +5658,7 @@
       <c r="A360">
         <v>7519</v>
       </c>
-      <c r="B360" s="27" t="s">
+      <c r="B360" s="31" t="s">
         <v>361</v>
       </c>
       <c r="C360">
@@ -5661,7 +5669,7 @@
       <c r="A361">
         <v>7521</v>
       </c>
-      <c r="B361" s="27" t="s">
+      <c r="B361" s="31" t="s">
         <v>362</v>
       </c>
       <c r="C361">
@@ -5672,7 +5680,7 @@
       <c r="A362">
         <v>7522</v>
       </c>
-      <c r="B362" s="27" t="s">
+      <c r="B362" s="31" t="s">
         <v>363</v>
       </c>
       <c r="C362">
@@ -5683,7 +5691,7 @@
       <c r="A363">
         <v>7523</v>
       </c>
-      <c r="B363" s="27" t="s">
+      <c r="B363" s="31" t="s">
         <v>364</v>
       </c>
       <c r="C363">
@@ -5694,7 +5702,7 @@
       <c r="A364">
         <v>7524</v>
       </c>
-      <c r="B364" s="27" t="s">
+      <c r="B364" s="31" t="s">
         <v>365</v>
       </c>
       <c r="C364">
@@ -5705,7 +5713,7 @@
       <c r="A365">
         <v>7601</v>
       </c>
-      <c r="B365" s="27" t="s">
+      <c r="B365" s="31" t="s">
         <v>366</v>
       </c>
       <c r="C365">
@@ -5716,7 +5724,7 @@
       <c r="A366">
         <v>7602</v>
       </c>
-      <c r="B366" s="27" t="s">
+      <c r="B366" s="31" t="s">
         <v>367</v>
       </c>
       <c r="C366">
@@ -5727,7 +5735,7 @@
       <c r="A367">
         <v>7603</v>
       </c>
-      <c r="B367" s="27" t="s">
+      <c r="B367" s="31" t="s">
         <v>368</v>
       </c>
       <c r="C367">
@@ -5738,7 +5746,7 @@
       <c r="A368">
         <v>7604</v>
       </c>
-      <c r="B368" s="27" t="s">
+      <c r="B368" s="31" t="s">
         <v>369</v>
       </c>
       <c r="C368">
@@ -5749,7 +5757,7 @@
       <c r="A369">
         <v>7605</v>
       </c>
-      <c r="B369" s="27" t="s">
+      <c r="B369" s="31" t="s">
         <v>370</v>
       </c>
       <c r="C369">
@@ -5760,7 +5768,7 @@
       <c r="A370">
         <v>7606</v>
       </c>
-      <c r="B370" s="27" t="s">
+      <c r="B370" s="31" t="s">
         <v>371</v>
       </c>
       <c r="C370">
@@ -5771,7 +5779,7 @@
       <c r="A371">
         <v>7610</v>
       </c>
-      <c r="B371" s="27" t="s">
+      <c r="B371" s="31" t="s">
         <v>372</v>
       </c>
       <c r="C371">
@@ -5782,7 +5790,7 @@
       <c r="A372">
         <v>7611</v>
       </c>
-      <c r="B372" s="27" t="s">
+      <c r="B372" s="31" t="s">
         <v>373</v>
       </c>
       <c r="C372">
@@ -5793,7 +5801,7 @@
       <c r="A373">
         <v>7612</v>
       </c>
-      <c r="B373" s="27" t="s">
+      <c r="B373" s="31" t="s">
         <v>374</v>
       </c>
       <c r="C373">
@@ -5804,7 +5812,7 @@
       <c r="A374">
         <v>7613</v>
       </c>
-      <c r="B374" s="27" t="s">
+      <c r="B374" s="31" t="s">
         <v>375</v>
       </c>
       <c r="C374">
@@ -5815,7 +5823,7 @@
       <c r="A375">
         <v>7614</v>
       </c>
-      <c r="B375" s="27" t="s">
+      <c r="B375" s="31" t="s">
         <v>376</v>
       </c>
       <c r="C375">
@@ -5826,7 +5834,7 @@
       <c r="A376">
         <v>7618</v>
       </c>
-      <c r="B376" s="27" t="s">
+      <c r="B376" s="31" t="s">
         <v>377</v>
       </c>
       <c r="C376">
@@ -5837,7 +5845,7 @@
       <c r="A377">
         <v>7620</v>
       </c>
-      <c r="B377" s="27" t="s">
+      <c r="B377" s="31" t="s">
         <v>378</v>
       </c>
       <c r="C377">
@@ -5848,7 +5856,7 @@
       <c r="A378">
         <v>7621</v>
       </c>
-      <c r="B378" s="27" t="s">
+      <c r="B378" s="31" t="s">
         <v>379</v>
       </c>
       <c r="C378">
@@ -5859,7 +5867,7 @@
       <c r="A379">
         <v>7622</v>
       </c>
-      <c r="B379" s="27" t="s">
+      <c r="B379" s="31" t="s">
         <v>380</v>
       </c>
       <c r="C379">
@@ -5870,7 +5878,7 @@
       <c r="A380">
         <v>7623</v>
       </c>
-      <c r="B380" s="27" t="s">
+      <c r="B380" s="31" t="s">
         <v>381</v>
       </c>
       <c r="C380">
@@ -5881,7 +5889,7 @@
       <c r="A381">
         <v>7630</v>
       </c>
-      <c r="B381" s="27" t="s">
+      <c r="B381" s="31" t="s">
         <v>382</v>
       </c>
       <c r="C381">
@@ -5892,7 +5900,7 @@
       <c r="A382">
         <v>7631</v>
       </c>
-      <c r="B382" s="27" t="s">
+      <c r="B382" s="31" t="s">
         <v>383</v>
       </c>
       <c r="C382">
@@ -5903,7 +5911,7 @@
       <c r="A383">
         <v>7632</v>
       </c>
-      <c r="B383" s="27" t="s">
+      <c r="B383" s="31" t="s">
         <v>384</v>
       </c>
       <c r="C383">
@@ -5914,7 +5922,7 @@
       <c r="A384">
         <v>7633</v>
       </c>
-      <c r="B384" s="27" t="s">
+      <c r="B384" s="31" t="s">
         <v>385</v>
       </c>
       <c r="C384">
@@ -5925,7 +5933,7 @@
       <c r="A385">
         <v>7640</v>
       </c>
-      <c r="B385" s="27" t="s">
+      <c r="B385" s="31" t="s">
         <v>386</v>
       </c>
       <c r="C385">
@@ -5936,7 +5944,7 @@
       <c r="A386">
         <v>7641</v>
       </c>
-      <c r="B386" s="27" t="s">
+      <c r="B386" s="31" t="s">
         <v>387</v>
       </c>
       <c r="C386">
@@ -5947,7 +5955,7 @@
       <c r="A387">
         <v>7642</v>
       </c>
-      <c r="B387" s="27" t="s">
+      <c r="B387" s="31" t="s">
         <v>388</v>
       </c>
       <c r="C387">
@@ -5958,7 +5966,7 @@
       <c r="A388">
         <v>7643</v>
       </c>
-      <c r="B388" s="27" t="s">
+      <c r="B388" s="31" t="s">
         <v>389</v>
       </c>
       <c r="C388">
@@ -5969,7 +5977,7 @@
       <c r="A389">
         <v>7650</v>
       </c>
-      <c r="B389" s="27" t="s">
+      <c r="B389" s="31" t="s">
         <v>390</v>
       </c>
       <c r="C389">
@@ -5980,7 +5988,7 @@
       <c r="A390">
         <v>7651</v>
       </c>
-      <c r="B390" s="27" t="s">
+      <c r="B390" s="31" t="s">
         <v>391</v>
       </c>
       <c r="C390">
@@ -5991,7 +5999,7 @@
       <c r="A391">
         <v>7652</v>
       </c>
-      <c r="B391" s="27" t="s">
+      <c r="B391" s="31" t="s">
         <v>392</v>
       </c>
       <c r="C391">
@@ -6002,7 +6010,7 @@
       <c r="A392">
         <v>7653</v>
       </c>
-      <c r="B392" s="27" t="s">
+      <c r="B392" s="31" t="s">
         <v>393</v>
       </c>
       <c r="C392">
@@ -6013,7 +6021,7 @@
       <c r="A393">
         <v>7654</v>
       </c>
-      <c r="B393" s="27" t="s">
+      <c r="B393" s="31" t="s">
         <v>394</v>
       </c>
       <c r="C393">
@@ -6024,7 +6032,7 @@
       <c r="A394">
         <v>7660</v>
       </c>
-      <c r="B394" s="27" t="s">
+      <c r="B394" s="31" t="s">
         <v>395</v>
       </c>
       <c r="C394">
@@ -6035,7 +6043,7 @@
       <c r="A395">
         <v>7661</v>
       </c>
-      <c r="B395" s="27" t="s">
+      <c r="B395" s="31" t="s">
         <v>396</v>
       </c>
       <c r="C395">
@@ -6046,7 +6054,7 @@
       <c r="A396">
         <v>7662</v>
       </c>
-      <c r="B396" s="27" t="s">
+      <c r="B396" s="31" t="s">
         <v>397</v>
       </c>
       <c r="C396">
@@ -6057,7 +6065,7 @@
       <c r="A397">
         <v>7663</v>
       </c>
-      <c r="B397" s="27" t="s">
+      <c r="B397" s="31" t="s">
         <v>398</v>
       </c>
       <c r="C397">
@@ -6068,7 +6076,7 @@
       <c r="A398">
         <v>7664</v>
       </c>
-      <c r="B398" s="27" t="s">
+      <c r="B398" s="31" t="s">
         <v>399</v>
       </c>
       <c r="C398">
@@ -6079,7 +6087,7 @@
       <c r="A399">
         <v>7681</v>
       </c>
-      <c r="B399" s="27" t="s">
+      <c r="B399" s="31" t="s">
         <v>400</v>
       </c>
       <c r="C399">
@@ -6090,7 +6098,7 @@
       <c r="A400">
         <v>7682</v>
       </c>
-      <c r="B400" s="27" t="s">
+      <c r="B400" s="31" t="s">
         <v>401</v>
       </c>
       <c r="C400">
@@ -6101,7 +6109,7 @@
       <c r="A401">
         <v>7683</v>
       </c>
-      <c r="B401" s="27" t="s">
+      <c r="B401" s="31" t="s">
         <v>402</v>
       </c>
       <c r="C401">
@@ -6112,7 +6120,7 @@
       <c r="A402">
         <v>7686</v>
       </c>
-      <c r="B402" s="27" t="s">
+      <c r="B402" s="31" t="s">
         <v>403</v>
       </c>
       <c r="C402">
@@ -6123,7 +6131,7 @@
       <c r="A403">
         <v>7687</v>
       </c>
-      <c r="B403" s="27" t="s">
+      <c r="B403" s="31" t="s">
         <v>404</v>
       </c>
       <c r="C403">
@@ -6134,7 +6142,7 @@
       <c r="A404">
         <v>7701</v>
       </c>
-      <c r="B404" s="27" t="s">
+      <c r="B404" s="31" t="s">
         <v>405</v>
       </c>
       <c r="C404">
@@ -6145,7 +6153,7 @@
       <c r="A405">
         <v>7711</v>
       </c>
-      <c r="B405" s="27" t="s">
+      <c r="B405" s="31" t="s">
         <v>406</v>
       </c>
       <c r="C405">
@@ -6156,7 +6164,7 @@
       <c r="A406">
         <v>7721</v>
       </c>
-      <c r="B406" s="27" t="s">
+      <c r="B406" s="31" t="s">
         <v>407</v>
       </c>
       <c r="C406">
@@ -6167,7 +6175,7 @@
       <c r="A407">
         <v>7731</v>
       </c>
-      <c r="B407" s="27" t="s">
+      <c r="B407" s="31" t="s">
         <v>408</v>
       </c>
       <c r="C407">
@@ -6178,7 +6186,7 @@
       <c r="A408">
         <v>7732</v>
       </c>
-      <c r="B408" s="27" t="s">
+      <c r="B408" s="31" t="s">
         <v>409</v>
       </c>
       <c r="C408">
@@ -6189,7 +6197,7 @@
       <c r="A409">
         <v>7733</v>
       </c>
-      <c r="B409" s="27" t="s">
+      <c r="B409" s="31" t="s">
         <v>410</v>
       </c>
       <c r="C409">
@@ -6200,7 +6208,7 @@
       <c r="A410">
         <v>7734</v>
       </c>
-      <c r="B410" s="27" t="s">
+      <c r="B410" s="31" t="s">
         <v>411</v>
       </c>
       <c r="C410">
@@ -6211,7 +6219,7 @@
       <c r="A411">
         <v>7735</v>
       </c>
-      <c r="B411" s="27" t="s">
+      <c r="B411" s="31" t="s">
         <v>412</v>
       </c>
       <c r="C411">
@@ -6222,7 +6230,7 @@
       <c r="A412">
         <v>7741</v>
       </c>
-      <c r="B412" s="27" t="s">
+      <c r="B412" s="31" t="s">
         <v>413</v>
       </c>
       <c r="C412">
@@ -6233,7 +6241,7 @@
       <c r="A413">
         <v>7751</v>
       </c>
-      <c r="B413" s="27" t="s">
+      <c r="B413" s="31" t="s">
         <v>414</v>
       </c>
       <c r="C413">
@@ -6244,7 +6252,7 @@
       <c r="A414">
         <v>7764</v>
       </c>
-      <c r="B414" s="27" t="s">
+      <c r="B414" s="31" t="s">
         <v>415</v>
       </c>
       <c r="C414">
@@ -6255,7 +6263,7 @@
       <c r="A415">
         <v>7771</v>
       </c>
-      <c r="B415" s="27" t="s">
+      <c r="B415" s="31" t="s">
         <v>416</v>
       </c>
       <c r="C415">
@@ -6266,7 +6274,7 @@
       <c r="A416">
         <v>7772</v>
       </c>
-      <c r="B416" s="27" t="s">
+      <c r="B416" s="31" t="s">
         <v>417</v>
       </c>
       <c r="C416">
@@ -6277,7 +6285,7 @@
       <c r="A417">
         <v>7801</v>
       </c>
-      <c r="B417" s="27" t="s">
+      <c r="B417" s="31" t="s">
         <v>418</v>
       </c>
       <c r="C417">
@@ -6288,7 +6296,7 @@
       <c r="A418">
         <v>7811</v>
       </c>
-      <c r="B418" s="27" t="s">
+      <c r="B418" s="31" t="s">
         <v>419</v>
       </c>
       <c r="C418">
@@ -6299,7 +6307,7 @@
       <c r="A419">
         <v>7813</v>
       </c>
-      <c r="B419" s="27" t="s">
+      <c r="B419" s="31" t="s">
         <v>420</v>
       </c>
       <c r="C419">
@@ -6310,7 +6318,7 @@
       <c r="A420">
         <v>7817</v>
       </c>
-      <c r="B420" s="27" t="s">
+      <c r="B420" s="31" t="s">
         <v>421</v>
       </c>
       <c r="C420">
@@ -6321,7 +6329,7 @@
       <c r="A421">
         <v>7820</v>
       </c>
-      <c r="B421" s="27" t="s">
+      <c r="B421" s="31" t="s">
         <v>422</v>
       </c>
       <c r="C421">
@@ -6332,7 +6340,7 @@
       <c r="A422">
         <v>7821</v>
       </c>
-      <c r="B422" s="27" t="s">
+      <c r="B422" s="31" t="s">
         <v>423</v>
       </c>
       <c r="C422">
@@ -6343,7 +6351,7 @@
       <c r="A423">
         <v>7822</v>
       </c>
-      <c r="B423" s="27" t="s">
+      <c r="B423" s="31" t="s">
         <v>424</v>
       </c>
       <c r="C423">
@@ -6354,7 +6362,7 @@
       <c r="A424">
         <v>7823</v>
       </c>
-      <c r="B424" s="27" t="s">
+      <c r="B424" s="31" t="s">
         <v>425</v>
       </c>
       <c r="C424">
@@ -6365,7 +6373,7 @@
       <c r="A425">
         <v>7824</v>
       </c>
-      <c r="B425" s="27" t="s">
+      <c r="B425" s="31" t="s">
         <v>426</v>
       </c>
       <c r="C425">
@@ -6376,7 +6384,7 @@
       <c r="A426">
         <v>7825</v>
       </c>
-      <c r="B426" s="27" t="s">
+      <c r="B426" s="31" t="s">
         <v>427</v>
       </c>
       <c r="C426">
@@ -6387,7 +6395,7 @@
       <c r="A427">
         <v>7826</v>
       </c>
-      <c r="B427" s="27" t="s">
+      <c r="B427" s="31" t="s">
         <v>428</v>
       </c>
       <c r="C427">
@@ -6398,7 +6406,7 @@
       <c r="A428">
         <v>7827</v>
       </c>
-      <c r="B428" s="27" t="s">
+      <c r="B428" s="31" t="s">
         <v>429</v>
       </c>
       <c r="C428">
@@ -6409,7 +6417,7 @@
       <c r="A429">
         <v>7828</v>
       </c>
-      <c r="B429" s="27" t="s">
+      <c r="B429" s="31" t="s">
         <v>430</v>
       </c>
       <c r="C429">
@@ -6420,7 +6428,7 @@
       <c r="A430">
         <v>7831</v>
       </c>
-      <c r="B430" s="27" t="s">
+      <c r="B430" s="31" t="s">
         <v>431</v>
       </c>
       <c r="C430">
@@ -6431,7 +6439,7 @@
       <c r="A431">
         <v>7832</v>
       </c>
-      <c r="B431" s="27" t="s">
+      <c r="B431" s="31" t="s">
         <v>432</v>
       </c>
       <c r="C431">
@@ -6442,7 +6450,7 @@
       <c r="A432">
         <v>7841</v>
       </c>
-      <c r="B432" s="27" t="s">
+      <c r="B432" s="31" t="s">
         <v>433</v>
       </c>
       <c r="C432">
@@ -6453,7 +6461,7 @@
       <c r="A433">
         <v>7842</v>
       </c>
-      <c r="B433" s="27" t="s">
+      <c r="B433" s="31" t="s">
         <v>434</v>
       </c>
       <c r="C433">
@@ -6464,7 +6472,7 @@
       <c r="A434">
         <v>-1</v>
       </c>
-      <c r="B434" s="27" t="s">
+      <c r="B434" s="31" t="s">
         <v>300</v>
       </c>
       <c r="C434">
@@ -6475,7 +6483,7 @@
       <c r="A435">
         <v>8101</v>
       </c>
-      <c r="B435" s="27" t="s">
+      <c r="B435" s="31" t="s">
         <v>435</v>
       </c>
       <c r="C435">
@@ -6486,7 +6494,7 @@
       <c r="A436">
         <v>8102</v>
       </c>
-      <c r="B436" s="27" t="s">
+      <c r="B436" s="31" t="s">
         <v>436</v>
       </c>
       <c r="C436">
@@ -6497,7 +6505,7 @@
       <c r="A437">
         <v>8103</v>
       </c>
-      <c r="B437" s="27" t="s">
+      <c r="B437" s="31" t="s">
         <v>437</v>
       </c>
       <c r="C437">
@@ -6508,7 +6516,7 @@
       <c r="A438">
         <v>8110</v>
       </c>
-      <c r="B438" s="27" t="s">
+      <c r="B438" s="31" t="s">
         <v>438</v>
       </c>
       <c r="C438">
@@ -6519,7 +6527,7 @@
       <c r="A439">
         <v>8111</v>
       </c>
-      <c r="B439" s="27" t="s">
+      <c r="B439" s="31" t="s">
         <v>439</v>
       </c>
       <c r="C439">
@@ -6530,7 +6538,7 @@
       <c r="A440">
         <v>8112</v>
       </c>
-      <c r="B440" s="27" t="s">
+      <c r="B440" s="31" t="s">
         <v>440</v>
       </c>
       <c r="C440">
@@ -6541,7 +6549,7 @@
       <c r="A441">
         <v>8113</v>
       </c>
-      <c r="B441" s="27" t="s">
+      <c r="B441" s="31" t="s">
         <v>441</v>
       </c>
       <c r="C441">
@@ -6552,7 +6560,7 @@
       <c r="A442">
         <v>8114</v>
       </c>
-      <c r="B442" s="27" t="s">
+      <c r="B442" s="31" t="s">
         <v>442</v>
       </c>
       <c r="C442">
@@ -6563,7 +6571,7 @@
       <c r="A443">
         <v>8115</v>
       </c>
-      <c r="B443" s="27" t="s">
+      <c r="B443" s="31" t="s">
         <v>443</v>
       </c>
       <c r="C443">
@@ -6574,7 +6582,7 @@
       <c r="A444">
         <v>8116</v>
       </c>
-      <c r="B444" s="27" t="s">
+      <c r="B444" s="31" t="s">
         <v>444</v>
       </c>
       <c r="C444">
@@ -6585,7 +6593,7 @@
       <c r="A445">
         <v>8117</v>
       </c>
-      <c r="B445" s="27" t="s">
+      <c r="B445" s="31" t="s">
         <v>445</v>
       </c>
       <c r="C445">
@@ -6596,7 +6604,7 @@
       <c r="A446">
         <v>8118</v>
       </c>
-      <c r="B446" s="27" t="s">
+      <c r="B446" s="31" t="s">
         <v>446</v>
       </c>
       <c r="C446">
@@ -6607,7 +6615,7 @@
       <c r="A447">
         <v>8121</v>
       </c>
-      <c r="B447" s="27" t="s">
+      <c r="B447" s="31" t="s">
         <v>447</v>
       </c>
       <c r="C447">
@@ -6618,7 +6626,7 @@
       <c r="A448">
         <v>8131</v>
       </c>
-      <c r="B448" s="27" t="s">
+      <c r="B448" s="31" t="s">
         <v>448</v>
       </c>
       <c r="C448">
@@ -6629,7 +6637,7 @@
       <c r="A449">
         <v>8181</v>
       </c>
-      <c r="B449" s="27" t="s">
+      <c r="B449" s="31" t="s">
         <v>449</v>
       </c>
       <c r="C449">
@@ -6640,7 +6648,7 @@
       <c r="A450">
         <v>8201</v>
       </c>
-      <c r="B450" s="27" t="s">
+      <c r="B450" s="31" t="s">
         <v>450</v>
       </c>
       <c r="C450">
@@ -6651,7 +6659,7 @@
       <c r="A451">
         <v>8202</v>
       </c>
-      <c r="B451" s="27" t="s">
+      <c r="B451" s="31" t="s">
         <v>451</v>
       </c>
       <c r="C451">
@@ -6662,7 +6670,7 @@
       <c r="A452">
         <v>8211</v>
       </c>
-      <c r="B452" s="27" t="s">
+      <c r="B452" s="31" t="s">
         <v>452</v>
       </c>
       <c r="C452">
@@ -6673,7 +6681,7 @@
       <c r="A453">
         <v>8212</v>
       </c>
-      <c r="B453" s="27" t="s">
+      <c r="B453" s="31" t="s">
         <v>453</v>
       </c>
       <c r="C453">
@@ -6684,7 +6692,7 @@
       <c r="A454">
         <v>8213</v>
       </c>
-      <c r="B454" s="27" t="s">
+      <c r="B454" s="31" t="s">
         <v>454</v>
       </c>
       <c r="C454">
@@ -6695,7 +6703,7 @@
       <c r="A455">
         <v>8214</v>
       </c>
-      <c r="B455" s="27" t="s">
+      <c r="B455" s="31" t="s">
         <v>455</v>
       </c>
       <c r="C455">
@@ -6706,7 +6714,7 @@
       <c r="A456">
         <v>8221</v>
       </c>
-      <c r="B456" s="27" t="s">
+      <c r="B456" s="31" t="s">
         <v>456</v>
       </c>
       <c r="C456">
@@ -6717,7 +6725,7 @@
       <c r="A457">
         <v>8231</v>
       </c>
-      <c r="B457" s="27" t="s">
+      <c r="B457" s="31" t="s">
         <v>457</v>
       </c>
       <c r="C457">
@@ -6728,7 +6736,7 @@
       <c r="A458">
         <v>8232</v>
       </c>
-      <c r="B458" s="27" t="s">
+      <c r="B458" s="31" t="s">
         <v>458</v>
       </c>
       <c r="C458">
@@ -6739,7 +6747,7 @@
       <c r="A459">
         <v>8233</v>
       </c>
-      <c r="B459" s="27" t="s">
+      <c r="B459" s="31" t="s">
         <v>459</v>
       </c>
       <c r="C459">
@@ -6750,7 +6758,7 @@
       <c r="A460">
         <v>8281</v>
       </c>
-      <c r="B460" s="27" t="s">
+      <c r="B460" s="31" t="s">
         <v>460</v>
       </c>
       <c r="C460">
@@ -6761,7 +6769,7 @@
       <c r="A461">
         <v>8301</v>
       </c>
-      <c r="B461" s="27" t="s">
+      <c r="B461" s="31" t="s">
         <v>461</v>
       </c>
       <c r="C461">
@@ -6772,7 +6780,7 @@
       <c r="A462">
         <v>8311</v>
       </c>
-      <c r="B462" s="27" t="s">
+      <c r="B462" s="31" t="s">
         <v>462</v>
       </c>
       <c r="C462">
@@ -6783,7 +6791,7 @@
       <c r="A463">
         <v>8321</v>
       </c>
-      <c r="B463" s="27" t="s">
+      <c r="B463" s="31" t="s">
         <v>463</v>
       </c>
       <c r="C463">
@@ -6794,7 +6802,7 @@
       <c r="A464">
         <v>8339</v>
       </c>
-      <c r="B464" s="27" t="s">
+      <c r="B464" s="31" t="s">
         <v>464</v>
       </c>
       <c r="C464">
@@ -6805,7 +6813,7 @@
       <c r="A465">
         <v>8401</v>
       </c>
-      <c r="B465" s="27" t="s">
+      <c r="B465" s="31" t="s">
         <v>465</v>
       </c>
       <c r="C465">
@@ -6816,7 +6824,7 @@
       <c r="A466">
         <v>8411</v>
       </c>
-      <c r="B466" s="27" t="s">
+      <c r="B466" s="31" t="s">
         <v>466</v>
       </c>
       <c r="C466">
@@ -6827,7 +6835,7 @@
       <c r="A467">
         <v>8412</v>
       </c>
-      <c r="B467" s="27" t="s">
+      <c r="B467" s="31" t="s">
         <v>467</v>
       </c>
       <c r="C467">
@@ -6838,7 +6846,7 @@
       <c r="A468">
         <v>8413</v>
       </c>
-      <c r="B468" s="27" t="s">
+      <c r="B468" s="31" t="s">
         <v>468</v>
       </c>
       <c r="C468">
@@ -6849,7 +6857,7 @@
       <c r="A469">
         <v>8416</v>
       </c>
-      <c r="B469" s="27" t="s">
+      <c r="B469" s="31" t="s">
         <v>469</v>
       </c>
       <c r="C469">
@@ -6860,7 +6868,7 @@
       <c r="A470">
         <v>8417</v>
       </c>
-      <c r="B470" s="27" t="s">
+      <c r="B470" s="31" t="s">
         <v>470</v>
       </c>
       <c r="C470">
@@ -6871,7 +6879,7 @@
       <c r="A471">
         <v>8421</v>
       </c>
-      <c r="B471" s="27" t="s">
+      <c r="B471" s="31" t="s">
         <v>471</v>
       </c>
       <c r="C471">
@@ -6882,7 +6890,7 @@
       <c r="A472">
         <v>8423</v>
       </c>
-      <c r="B472" s="27" t="s">
+      <c r="B472" s="31" t="s">
         <v>472</v>
       </c>
       <c r="C472">
@@ -6893,7 +6901,7 @@
       <c r="A473">
         <v>8429</v>
       </c>
-      <c r="B473" s="27" t="s">
+      <c r="B473" s="31" t="s">
         <v>473</v>
       </c>
       <c r="C473">
@@ -6904,7 +6912,7 @@
       <c r="A474">
         <v>8484</v>
       </c>
-      <c r="B474" s="27" t="s">
+      <c r="B474" s="31" t="s">
         <v>474</v>
       </c>
       <c r="C474">
@@ -6915,7 +6923,7 @@
       <c r="A475">
         <v>8485</v>
       </c>
-      <c r="B475" s="27" t="s">
+      <c r="B475" s="31" t="s">
         <v>475</v>
       </c>
       <c r="C475">
@@ -6926,7 +6934,7 @@
       <c r="A476">
         <v>8491</v>
       </c>
-      <c r="B476" s="27" t="s">
+      <c r="B476" s="31" t="s">
         <v>476</v>
       </c>
       <c r="C476">
@@ -6937,7 +6945,7 @@
       <c r="A477">
         <v>8492</v>
       </c>
-      <c r="B477" s="27" t="s">
+      <c r="B477" s="31" t="s">
         <v>477</v>
       </c>
       <c r="C477">
@@ -6948,7 +6956,7 @@
       <c r="A478">
         <v>8493</v>
       </c>
-      <c r="B478" s="27" t="s">
+      <c r="B478" s="31" t="s">
         <v>478</v>
       </c>
       <c r="C478">
@@ -6959,7 +6967,7 @@
       <c r="A479">
         <v>8601</v>
       </c>
-      <c r="B479" s="27" t="s">
+      <c r="B479" s="31" t="s">
         <v>479</v>
       </c>
       <c r="C479">
@@ -6970,7 +6978,7 @@
       <c r="A480">
         <v>8611</v>
       </c>
-      <c r="B480" s="27" t="s">
+      <c r="B480" s="31" t="s">
         <v>480</v>
       </c>
       <c r="C480">
@@ -6981,7 +6989,7 @@
       <c r="A481">
         <v>8612</v>
       </c>
-      <c r="B481" s="27" t="s">
+      <c r="B481" s="31" t="s">
         <v>481</v>
       </c>
       <c r="C481">
@@ -6992,7 +7000,7 @@
       <c r="A482">
         <v>8621</v>
       </c>
-      <c r="B482" s="27" t="s">
+      <c r="B482" s="31" t="s">
         <v>482</v>
       </c>
       <c r="C482">
@@ -7003,7 +7011,7 @@
       <c r="A483">
         <v>8622</v>
       </c>
-      <c r="B483" s="27" t="s">
+      <c r="B483" s="31" t="s">
         <v>483</v>
       </c>
       <c r="C483">
@@ -7014,7 +7022,7 @@
       <c r="A484">
         <v>8623</v>
       </c>
-      <c r="B484" s="27" t="s">
+      <c r="B484" s="31" t="s">
         <v>484</v>
       </c>
       <c r="C484">
@@ -7025,7 +7033,7 @@
       <c r="A485">
         <v>8624</v>
       </c>
-      <c r="B485" s="27" t="s">
+      <c r="B485" s="31" t="s">
         <v>485</v>
       </c>
       <c r="C485">
@@ -7036,7 +7044,7 @@
       <c r="A486">
         <v>8625</v>
       </c>
-      <c r="B486" s="27" t="s">
+      <c r="B486" s="31" t="s">
         <v>486</v>
       </c>
       <c r="C486">
@@ -7047,7 +7055,7 @@
       <c r="A487">
         <v>8711</v>
       </c>
-      <c r="B487" s="27" t="s">
+      <c r="B487" s="31" t="s">
         <v>487</v>
       </c>
       <c r="C487">
@@ -7058,7 +7066,7 @@
       <c r="A488">
         <v>-1</v>
       </c>
-      <c r="B488" s="27" t="s">
+      <c r="B488" s="31" t="s">
         <v>488</v>
       </c>
       <c r="C488">
@@ -7069,7 +7077,7 @@
       <c r="A489">
         <v>9101</v>
       </c>
-      <c r="B489" s="27" t="s">
+      <c r="B489" s="31" t="s">
         <v>489</v>
       </c>
       <c r="C489">
@@ -7080,7 +7088,7 @@
       <c r="A490">
         <v>9102</v>
       </c>
-      <c r="B490" s="27" t="s">
+      <c r="B490" s="31" t="s">
         <v>490</v>
       </c>
       <c r="C490">
@@ -7091,7 +7099,7 @@
       <c r="A491">
         <v>9109</v>
       </c>
-      <c r="B491" s="27" t="s">
+      <c r="B491" s="31" t="s">
         <v>491</v>
       </c>
       <c r="C491">
@@ -7102,7 +7110,7 @@
       <c r="A492">
         <v>9111</v>
       </c>
-      <c r="B492" s="27" t="s">
+      <c r="B492" s="31" t="s">
         <v>492</v>
       </c>
       <c r="C492">
@@ -7113,7 +7121,7 @@
       <c r="A493">
         <v>9112</v>
       </c>
-      <c r="B493" s="27" t="s">
+      <c r="B493" s="31" t="s">
         <v>493</v>
       </c>
       <c r="C493">
@@ -7124,7 +7132,7 @@
       <c r="A494">
         <v>9113</v>
       </c>
-      <c r="B494" s="27" t="s">
+      <c r="B494" s="31" t="s">
         <v>494</v>
       </c>
       <c r="C494">
@@ -7135,7 +7143,7 @@
       <c r="A495">
         <v>9131</v>
       </c>
-      <c r="B495" s="27" t="s">
+      <c r="B495" s="31" t="s">
         <v>495</v>
       </c>
       <c r="C495">
@@ -7146,7 +7154,7 @@
       <c r="A496">
         <v>9141</v>
       </c>
-      <c r="B496" s="27" t="s">
+      <c r="B496" s="31" t="s">
         <v>496</v>
       </c>
       <c r="C496">
@@ -7157,7 +7165,7 @@
       <c r="A497">
         <v>9142</v>
       </c>
-      <c r="B497" s="27" t="s">
+      <c r="B497" s="31" t="s">
         <v>497</v>
       </c>
       <c r="C497">
@@ -7168,7 +7176,7 @@
       <c r="A498">
         <v>9143</v>
       </c>
-      <c r="B498" s="27" t="s">
+      <c r="B498" s="31" t="s">
         <v>498</v>
       </c>
       <c r="C498">
@@ -7179,7 +7187,7 @@
       <c r="A499">
         <v>9144</v>
       </c>
-      <c r="B499" s="27" t="s">
+      <c r="B499" s="31" t="s">
         <v>499</v>
       </c>
       <c r="C499">
@@ -7190,7 +7198,7 @@
       <c r="A500">
         <v>9151</v>
       </c>
-      <c r="B500" s="27" t="s">
+      <c r="B500" s="31" t="s">
         <v>500</v>
       </c>
       <c r="C500">
@@ -7201,7 +7209,7 @@
       <c r="A501">
         <v>9152</v>
       </c>
-      <c r="B501" s="27" t="s">
+      <c r="B501" s="31" t="s">
         <v>501</v>
       </c>
       <c r="C501">
@@ -7212,7 +7220,7 @@
       <c r="A502">
         <v>9153</v>
       </c>
-      <c r="B502" s="27" t="s">
+      <c r="B502" s="31" t="s">
         <v>502</v>
       </c>
       <c r="C502">
@@ -7223,7 +7231,7 @@
       <c r="A503">
         <v>9154</v>
       </c>
-      <c r="B503" s="27" t="s">
+      <c r="B503" s="31" t="s">
         <v>503</v>
       </c>
       <c r="C503">
@@ -7234,7 +7242,7 @@
       <c r="A504">
         <v>9191</v>
       </c>
-      <c r="B504" s="27" t="s">
+      <c r="B504" s="31" t="s">
         <v>504</v>
       </c>
       <c r="C504">
@@ -7245,7 +7253,7 @@
       <c r="A505">
         <v>9192</v>
       </c>
-      <c r="B505" s="27" t="s">
+      <c r="B505" s="31" t="s">
         <v>505</v>
       </c>
       <c r="C505">
@@ -7256,7 +7264,7 @@
       <c r="A506">
         <v>9193</v>
       </c>
-      <c r="B506" s="27" t="s">
+      <c r="B506" s="31" t="s">
         <v>506</v>
       </c>
       <c r="C506">
@@ -7267,7 +7275,7 @@
       <c r="A507">
         <v>9501</v>
       </c>
-      <c r="B507" s="27" t="s">
+      <c r="B507" s="31" t="s">
         <v>507</v>
       </c>
       <c r="C507">
@@ -7278,7 +7286,7 @@
       <c r="A508">
         <v>9502</v>
       </c>
-      <c r="B508" s="27" t="s">
+      <c r="B508" s="31" t="s">
         <v>508</v>
       </c>
       <c r="C508">
@@ -7289,7 +7297,7 @@
       <c r="A509">
         <v>9503</v>
       </c>
-      <c r="B509" s="27" t="s">
+      <c r="B509" s="31" t="s">
         <v>509</v>
       </c>
       <c r="C509">
@@ -7300,7 +7308,7 @@
       <c r="A510">
         <v>9511</v>
       </c>
-      <c r="B510" s="27" t="s">
+      <c r="B510" s="31" t="s">
         <v>510</v>
       </c>
       <c r="C510">
@@ -7311,7 +7319,7 @@
       <c r="A511">
         <v>9513</v>
       </c>
-      <c r="B511" s="27" t="s">
+      <c r="B511" s="31" t="s">
         <v>511</v>
       </c>
       <c r="C511">
@@ -7322,7 +7330,7 @@
       <c r="A512">
         <v>9531</v>
       </c>
-      <c r="B512" s="27" t="s">
+      <c r="B512" s="31" t="s">
         <v>512</v>
       </c>
       <c r="C512">
@@ -7333,7 +7341,7 @@
       <c r="A513">
         <v>9541</v>
       </c>
-      <c r="B513" s="27" t="s">
+      <c r="B513" s="31" t="s">
         <v>513</v>
       </c>
       <c r="C513">
@@ -7344,7 +7352,7 @@
       <c r="A514">
         <v>9542</v>
       </c>
-      <c r="B514" s="27" t="s">
+      <c r="B514" s="31" t="s">
         <v>514</v>
       </c>
       <c r="C514">
@@ -7355,7 +7363,7 @@
       <c r="A515">
         <v>9543</v>
       </c>
-      <c r="B515" s="27" t="s">
+      <c r="B515" s="31" t="s">
         <v>515</v>
       </c>
       <c r="C515">
@@ -7366,7 +7374,7 @@
       <c r="A516">
         <v>9911</v>
       </c>
-      <c r="B516" s="27" t="s">
+      <c r="B516" s="31" t="s">
         <v>516</v>
       </c>
       <c r="C516">
@@ -7377,7 +7385,7 @@
       <c r="A517">
         <v>9912</v>
       </c>
-      <c r="B517" s="27" t="s">
+      <c r="B517" s="31" t="s">
         <v>517</v>
       </c>
       <c r="C517">
@@ -7388,7 +7396,7 @@
       <c r="A518">
         <v>9913</v>
       </c>
-      <c r="B518" s="27" t="s">
+      <c r="B518" s="31" t="s">
         <v>518</v>
       </c>
       <c r="C518">
@@ -7399,7 +7407,7 @@
       <c r="A519">
         <v>9914</v>
       </c>
-      <c r="B519" s="27" t="s">
+      <c r="B519" s="31" t="s">
         <v>519</v>
       </c>
       <c r="C519">
@@ -7410,7 +7418,7 @@
       <c r="A520">
         <v>9921</v>
       </c>
-      <c r="B520" s="27" t="s">
+      <c r="B520" s="31" t="s">
         <v>520</v>
       </c>
       <c r="C520">
@@ -7421,7 +7429,7 @@
       <c r="A521">
         <v>9922</v>
       </c>
-      <c r="B521" s="27" t="s">
+      <c r="B521" s="31" t="s">
         <v>521</v>
       </c>
       <c r="C521">
@@ -7432,7 +7440,7 @@
       <c r="A522">
         <v>-1</v>
       </c>
-      <c r="B522" s="27" t="s">
+      <c r="B522" s="31" t="s">
         <v>522</v>
       </c>
       <c r="C522">
@@ -7443,7 +7451,7 @@
       <c r="A523">
         <v>9999</v>
       </c>
-      <c r="B523" s="27" t="s">
+      <c r="B523" s="31" t="s">
         <v>523</v>
       </c>
       <c r="C523">

--- a/+dataLH/test_files/readTest.xlsx
+++ b/+dataLH/test_files/readTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8420" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9995" uniqueCount="525">
   <si>
     <t>Code</t>
   </si>
@@ -1610,7 +1610,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1650,11 +1650,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1688,6 +1694,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1706,13 +1718,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="37" t="s">
         <v>524</v>
       </c>
     </row>
@@ -1720,7 +1732,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C2">
@@ -1731,7 +1743,7 @@
       <c r="A3">
         <v>-1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="37" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -1742,7 +1754,7 @@
       <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -1753,7 +1765,7 @@
       <c r="A5">
         <v>200</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C5">
@@ -1764,7 +1776,7 @@
       <c r="A6">
         <v>300</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C6">
@@ -1775,7 +1787,7 @@
       <c r="A7">
         <v>401</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C7">
@@ -1786,7 +1798,7 @@
       <c r="A8">
         <v>402</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C8">
@@ -1797,7 +1809,7 @@
       <c r="A9">
         <v>403</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C9">
@@ -1808,7 +1820,7 @@
       <c r="A10">
         <v>411</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="37" t="s">
         <v>10</v>
       </c>
       <c r="C10">
@@ -1819,7 +1831,7 @@
       <c r="A11">
         <v>412</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C11">
@@ -1830,7 +1842,7 @@
       <c r="A12">
         <v>413</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="37" t="s">
         <v>12</v>
       </c>
       <c r="C12">
@@ -1841,7 +1853,7 @@
       <c r="A13">
         <v>501</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C13">
@@ -1852,7 +1864,7 @@
       <c r="A14">
         <v>502</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="37" t="s">
         <v>14</v>
       </c>
       <c r="C14">
@@ -1863,7 +1875,7 @@
       <c r="A15">
         <v>503</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="37" t="s">
         <v>15</v>
       </c>
       <c r="C15">
@@ -1874,7 +1886,7 @@
       <c r="A16">
         <v>511</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="37" t="s">
         <v>16</v>
       </c>
       <c r="C16">
@@ -1885,7 +1897,7 @@
       <c r="A17">
         <v>512</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C17">
@@ -1896,7 +1908,7 @@
       <c r="A18">
         <v>513</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="37" t="s">
         <v>18</v>
       </c>
       <c r="C18">
@@ -1907,7 +1919,7 @@
       <c r="A19">
         <v>-1</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="37" t="s">
         <v>19</v>
       </c>
       <c r="C19">
@@ -1918,7 +1930,7 @@
       <c r="A20">
         <v>1111</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="37" t="s">
         <v>20</v>
       </c>
       <c r="C20">
@@ -1929,7 +1941,7 @@
       <c r="A21">
         <v>1112</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="37" t="s">
         <v>21</v>
       </c>
       <c r="C21">
@@ -1940,7 +1952,7 @@
       <c r="A22">
         <v>1113</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="37" t="s">
         <v>22</v>
       </c>
       <c r="C22">
@@ -1951,7 +1963,7 @@
       <c r="A23">
         <v>1122</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="37" t="s">
         <v>23</v>
       </c>
       <c r="C23">
@@ -1962,7 +1974,7 @@
       <c r="A24">
         <v>1123</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="37" t="s">
         <v>24</v>
       </c>
       <c r="C24">
@@ -1973,7 +1985,7 @@
       <c r="A25">
         <v>1130</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="37" t="s">
         <v>25</v>
       </c>
       <c r="C25">
@@ -1984,7 +1996,7 @@
       <c r="A26">
         <v>1140</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="37" t="s">
         <v>27</v>
       </c>
       <c r="C26">
@@ -1995,7 +2007,7 @@
       <c r="A27">
         <v>1210</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C27">
@@ -2006,7 +2018,7 @@
       <c r="A28">
         <v>1219</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C28">
@@ -2017,7 +2029,7 @@
       <c r="A29">
         <v>1220</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C29">
@@ -2028,7 +2040,7 @@
       <c r="A30">
         <v>1230</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="37" t="s">
         <v>31</v>
       </c>
       <c r="C30">
@@ -2039,7 +2051,7 @@
       <c r="A31">
         <v>1310</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C31">
@@ -2050,7 +2062,7 @@
       <c r="A32">
         <v>1320</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C32">
@@ -2061,7 +2073,7 @@
       <c r="A33">
         <v>-1</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C33">
@@ -2072,7 +2084,7 @@
       <c r="A34">
         <v>2011</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C34">
@@ -2083,7 +2095,7 @@
       <c r="A35">
         <v>2012</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C35">
@@ -2094,7 +2106,7 @@
       <c r="A36">
         <v>2021</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="37" t="s">
         <v>37</v>
       </c>
       <c r="C36">
@@ -2105,7 +2117,7 @@
       <c r="A37">
         <v>2111</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C37">
@@ -2116,7 +2128,7 @@
       <c r="A38">
         <v>2112</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="37" t="s">
         <v>39</v>
       </c>
       <c r="C38">
@@ -2127,7 +2139,7 @@
       <c r="A39">
         <v>2121</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C39">
@@ -2138,7 +2150,7 @@
       <c r="A40">
         <v>2122</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C40">
@@ -2149,7 +2161,7 @@
       <c r="A41">
         <v>2123</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="37" t="s">
         <v>42</v>
       </c>
       <c r="C41">
@@ -2160,7 +2172,7 @@
       <c r="A42">
         <v>2124</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C42">
@@ -2171,7 +2183,7 @@
       <c r="A43">
         <v>2125</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C43">
@@ -2182,7 +2194,7 @@
       <c r="A44">
         <v>2131</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C44">
@@ -2193,7 +2205,7 @@
       <c r="A45">
         <v>2132</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C45">
@@ -2204,7 +2216,7 @@
       <c r="A46">
         <v>2133</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C46">
@@ -2215,7 +2227,7 @@
       <c r="A47">
         <v>2134</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C47">
@@ -2226,7 +2238,7 @@
       <c r="A48">
         <v>2140</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C48">
@@ -2237,7 +2249,7 @@
       <c r="A49">
         <v>2141</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="37" t="s">
         <v>50</v>
       </c>
       <c r="C49">
@@ -2248,7 +2260,7 @@
       <c r="A50">
         <v>2142</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="37" t="s">
         <v>51</v>
       </c>
       <c r="C50">
@@ -2259,7 +2271,7 @@
       <c r="A51">
         <v>2143</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C51">
@@ -2270,7 +2282,7 @@
       <c r="A52">
         <v>2144</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="37" t="s">
         <v>53</v>
       </c>
       <c r="C52">
@@ -2281,7 +2293,7 @@
       <c r="A53">
         <v>2145</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="37" t="s">
         <v>54</v>
       </c>
       <c r="C53">
@@ -2292,7 +2304,7 @@
       <c r="A54">
         <v>2146</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C54">
@@ -2303,7 +2315,7 @@
       <c r="A55">
         <v>2147</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C55">
@@ -2314,7 +2326,7 @@
       <c r="A56">
         <v>2148</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C56">
@@ -2325,7 +2337,7 @@
       <c r="A57">
         <v>2149</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="37" t="s">
         <v>58</v>
       </c>
       <c r="C57">
@@ -2336,7 +2348,7 @@
       <c r="A58">
         <v>2151</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C58">
@@ -2347,7 +2359,7 @@
       <c r="A59">
         <v>2152</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="37" t="s">
         <v>60</v>
       </c>
       <c r="C59">
@@ -2358,7 +2370,7 @@
       <c r="A60">
         <v>2153</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="37" t="s">
         <v>61</v>
       </c>
       <c r="C60">
@@ -2369,7 +2381,7 @@
       <c r="A61">
         <v>2211</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C61">
@@ -2380,7 +2392,7 @@
       <c r="A62">
         <v>2221</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C62">
@@ -2391,7 +2403,7 @@
       <c r="A63">
         <v>2231</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C63">
@@ -2402,7 +2414,7 @@
       <c r="A64">
         <v>2232</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C64">
@@ -2413,7 +2425,7 @@
       <c r="A65">
         <v>2233</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C65">
@@ -2424,7 +2436,7 @@
       <c r="A66">
         <v>2234</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="37" t="s">
         <v>67</v>
       </c>
       <c r="C66">
@@ -2435,7 +2447,7 @@
       <c r="A67">
         <v>2235</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="37" t="s">
         <v>68</v>
       </c>
       <c r="C67">
@@ -2446,7 +2458,7 @@
       <c r="A68">
         <v>2236</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C68">
@@ -2457,7 +2469,7 @@
       <c r="A69">
         <v>2237</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="37" t="s">
         <v>70</v>
       </c>
       <c r="C69">
@@ -2468,7 +2480,7 @@
       <c r="A70">
         <v>2311</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C70">
@@ -2479,7 +2491,7 @@
       <c r="A71">
         <v>2312</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C71">
@@ -2490,7 +2502,7 @@
       <c r="A72">
         <v>2313</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C72">
@@ -2501,7 +2513,7 @@
       <c r="A73">
         <v>2321</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="37" t="s">
         <v>74</v>
       </c>
       <c r="C73">
@@ -2512,7 +2524,7 @@
       <c r="A74">
         <v>2330</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="37" t="s">
         <v>75</v>
       </c>
       <c r="C74">
@@ -2523,7 +2535,7 @@
       <c r="A75">
         <v>2340</v>
       </c>
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C75">
@@ -2534,7 +2546,7 @@
       <c r="A76">
         <v>2391</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C76">
@@ -2545,7 +2557,7 @@
       <c r="A77">
         <v>2392</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C77">
@@ -2556,7 +2568,7 @@
       <c r="A78">
         <v>2394</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="37" t="s">
         <v>79</v>
       </c>
       <c r="C78">
@@ -2567,7 +2579,7 @@
       <c r="A79">
         <v>2410</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="37" t="s">
         <v>80</v>
       </c>
       <c r="C79">
@@ -2578,7 +2590,7 @@
       <c r="A80">
         <v>2412</v>
       </c>
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="37" t="s">
         <v>81</v>
       </c>
       <c r="C80">
@@ -2589,7 +2601,7 @@
       <c r="A81">
         <v>2419</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="37" t="s">
         <v>82</v>
       </c>
       <c r="C81">
@@ -2600,7 +2612,7 @@
       <c r="A82">
         <v>2421</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="37" t="s">
         <v>83</v>
       </c>
       <c r="C82">
@@ -2611,7 +2623,7 @@
       <c r="A83">
         <v>2422</v>
       </c>
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="37" t="s">
         <v>84</v>
       </c>
       <c r="C83">
@@ -2622,7 +2634,7 @@
       <c r="A84">
         <v>2423</v>
       </c>
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="37" t="s">
         <v>85</v>
       </c>
       <c r="C84">
@@ -2633,7 +2645,7 @@
       <c r="A85">
         <v>2511</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="37" t="s">
         <v>86</v>
       </c>
       <c r="C85">
@@ -2644,7 +2656,7 @@
       <c r="A86">
         <v>2512</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="37" t="s">
         <v>87</v>
       </c>
       <c r="C86">
@@ -2655,7 +2667,7 @@
       <c r="A87">
         <v>2513</v>
       </c>
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="37" t="s">
         <v>88</v>
       </c>
       <c r="C87">
@@ -2666,7 +2678,7 @@
       <c r="A88">
         <v>2514</v>
       </c>
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="37" t="s">
         <v>89</v>
       </c>
       <c r="C88">
@@ -2677,7 +2689,7 @@
       <c r="A89">
         <v>2515</v>
       </c>
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="37" t="s">
         <v>90</v>
       </c>
       <c r="C89">
@@ -2688,7 +2700,7 @@
       <c r="A90">
         <v>2516</v>
       </c>
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="37" t="s">
         <v>91</v>
       </c>
       <c r="C90">
@@ -2699,7 +2711,7 @@
       <c r="A91">
         <v>2521</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="37" t="s">
         <v>92</v>
       </c>
       <c r="C91">
@@ -2710,7 +2722,7 @@
       <c r="A92">
         <v>2522</v>
       </c>
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="37" t="s">
         <v>93</v>
       </c>
       <c r="C92">
@@ -2721,7 +2733,7 @@
       <c r="A93">
         <v>2523</v>
       </c>
-      <c r="B93" s="31" t="s">
+      <c r="B93" s="37" t="s">
         <v>94</v>
       </c>
       <c r="C93">
@@ -2732,7 +2744,7 @@
       <c r="A94">
         <v>2524</v>
       </c>
-      <c r="B94" s="31" t="s">
+      <c r="B94" s="37" t="s">
         <v>95</v>
       </c>
       <c r="C94">
@@ -2743,7 +2755,7 @@
       <c r="A95">
         <v>2525</v>
       </c>
-      <c r="B95" s="31" t="s">
+      <c r="B95" s="37" t="s">
         <v>96</v>
       </c>
       <c r="C95">
@@ -2754,7 +2766,7 @@
       <c r="A96">
         <v>2531</v>
       </c>
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="37" t="s">
         <v>97</v>
       </c>
       <c r="C96">
@@ -2765,7 +2777,7 @@
       <c r="A97">
         <v>2611</v>
       </c>
-      <c r="B97" s="31" t="s">
+      <c r="B97" s="37" t="s">
         <v>98</v>
       </c>
       <c r="C97">
@@ -2776,7 +2788,7 @@
       <c r="A98">
         <v>2612</v>
       </c>
-      <c r="B98" s="31" t="s">
+      <c r="B98" s="37" t="s">
         <v>99</v>
       </c>
       <c r="C98">
@@ -2787,7 +2799,7 @@
       <c r="A99">
         <v>2613</v>
       </c>
-      <c r="B99" s="31" t="s">
+      <c r="B99" s="37" t="s">
         <v>100</v>
       </c>
       <c r="C99">
@@ -2798,7 +2810,7 @@
       <c r="A100">
         <v>2614</v>
       </c>
-      <c r="B100" s="31" t="s">
+      <c r="B100" s="37" t="s">
         <v>101</v>
       </c>
       <c r="C100">
@@ -2809,7 +2821,7 @@
       <c r="A101">
         <v>2615</v>
       </c>
-      <c r="B101" s="31" t="s">
+      <c r="B101" s="37" t="s">
         <v>102</v>
       </c>
       <c r="C101">
@@ -2820,7 +2832,7 @@
       <c r="A102">
         <v>2616</v>
       </c>
-      <c r="B102" s="31" t="s">
+      <c r="B102" s="37" t="s">
         <v>103</v>
       </c>
       <c r="C102">
@@ -2831,7 +2843,7 @@
       <c r="A103">
         <v>2617</v>
       </c>
-      <c r="B103" s="31" t="s">
+      <c r="B103" s="37" t="s">
         <v>104</v>
       </c>
       <c r="C103">
@@ -2842,7 +2854,7 @@
       <c r="A104">
         <v>2621</v>
       </c>
-      <c r="B104" s="31" t="s">
+      <c r="B104" s="37" t="s">
         <v>105</v>
       </c>
       <c r="C104">
@@ -2853,7 +2865,7 @@
       <c r="A105">
         <v>2622</v>
       </c>
-      <c r="B105" s="31" t="s">
+      <c r="B105" s="37" t="s">
         <v>106</v>
       </c>
       <c r="C105">
@@ -2864,7 +2876,7 @@
       <c r="A106">
         <v>2623</v>
       </c>
-      <c r="B106" s="31" t="s">
+      <c r="B106" s="37" t="s">
         <v>107</v>
       </c>
       <c r="C106">
@@ -2875,7 +2887,7 @@
       <c r="A107">
         <v>2624</v>
       </c>
-      <c r="B107" s="31" t="s">
+      <c r="B107" s="37" t="s">
         <v>108</v>
       </c>
       <c r="C107">
@@ -2886,7 +2898,7 @@
       <c r="A108">
         <v>2625</v>
       </c>
-      <c r="B108" s="31" t="s">
+      <c r="B108" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C108">
@@ -2897,7 +2909,7 @@
       <c r="A109">
         <v>2627</v>
       </c>
-      <c r="B109" s="31" t="s">
+      <c r="B109" s="37" t="s">
         <v>110</v>
       </c>
       <c r="C109">
@@ -2908,7 +2920,7 @@
       <c r="A110">
         <v>2631</v>
       </c>
-      <c r="B110" s="31" t="s">
+      <c r="B110" s="37" t="s">
         <v>111</v>
       </c>
       <c r="C110">
@@ -2919,7 +2931,7 @@
       <c r="A111">
         <v>-1</v>
       </c>
-      <c r="B111" s="31" t="s">
+      <c r="B111" s="37" t="s">
         <v>112</v>
       </c>
       <c r="C111">
@@ -2930,7 +2942,7 @@
       <c r="A112">
         <v>3001</v>
       </c>
-      <c r="B112" s="31" t="s">
+      <c r="B112" s="37" t="s">
         <v>113</v>
       </c>
       <c r="C112">
@@ -2941,7 +2953,7 @@
       <c r="A113">
         <v>3003</v>
       </c>
-      <c r="B113" s="31" t="s">
+      <c r="B113" s="37" t="s">
         <v>114</v>
       </c>
       <c r="C113">
@@ -2952,7 +2964,7 @@
       <c r="A114">
         <v>3011</v>
       </c>
-      <c r="B114" s="31" t="s">
+      <c r="B114" s="37" t="s">
         <v>115</v>
       </c>
       <c r="C114">
@@ -2963,7 +2975,7 @@
       <c r="A115">
         <v>3012</v>
       </c>
-      <c r="B115" s="31" t="s">
+      <c r="B115" s="37" t="s">
         <v>116</v>
       </c>
       <c r="C115">
@@ -2974,7 +2986,7 @@
       <c r="A116">
         <v>3111</v>
       </c>
-      <c r="B116" s="31" t="s">
+      <c r="B116" s="37" t="s">
         <v>117</v>
       </c>
       <c r="C116">
@@ -2985,7 +2997,7 @@
       <c r="A117">
         <v>3112</v>
       </c>
-      <c r="B117" s="31" t="s">
+      <c r="B117" s="37" t="s">
         <v>118</v>
       </c>
       <c r="C117">
@@ -2996,7 +3008,7 @@
       <c r="A118">
         <v>3113</v>
       </c>
-      <c r="B118" s="31" t="s">
+      <c r="B118" s="37" t="s">
         <v>119</v>
       </c>
       <c r="C118">
@@ -3007,7 +3019,7 @@
       <c r="A119">
         <v>3114</v>
       </c>
-      <c r="B119" s="31" t="s">
+      <c r="B119" s="37" t="s">
         <v>120</v>
       </c>
       <c r="C119">
@@ -3018,7 +3030,7 @@
       <c r="A120">
         <v>3115</v>
       </c>
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="37" t="s">
         <v>121</v>
       </c>
       <c r="C120">
@@ -3029,7 +3041,7 @@
       <c r="A121">
         <v>3116</v>
       </c>
-      <c r="B121" s="31" t="s">
+      <c r="B121" s="37" t="s">
         <v>122</v>
       </c>
       <c r="C121">
@@ -3040,7 +3052,7 @@
       <c r="A122">
         <v>3117</v>
       </c>
-      <c r="B122" s="31" t="s">
+      <c r="B122" s="37" t="s">
         <v>123</v>
       </c>
       <c r="C122">
@@ -3051,7 +3063,7 @@
       <c r="A123">
         <v>3121</v>
       </c>
-      <c r="B123" s="31" t="s">
+      <c r="B123" s="37" t="s">
         <v>124</v>
       </c>
       <c r="C123">
@@ -3062,7 +3074,7 @@
       <c r="A124">
         <v>3122</v>
       </c>
-      <c r="B124" s="31" t="s">
+      <c r="B124" s="37" t="s">
         <v>125</v>
       </c>
       <c r="C124">
@@ -3073,7 +3085,7 @@
       <c r="A125">
         <v>3123</v>
       </c>
-      <c r="B125" s="31" t="s">
+      <c r="B125" s="37" t="s">
         <v>126</v>
       </c>
       <c r="C125">
@@ -3084,7 +3096,7 @@
       <c r="A126">
         <v>3131</v>
       </c>
-      <c r="B126" s="31" t="s">
+      <c r="B126" s="37" t="s">
         <v>127</v>
       </c>
       <c r="C126">
@@ -3095,7 +3107,7 @@
       <c r="A127">
         <v>3132</v>
       </c>
-      <c r="B127" s="31" t="s">
+      <c r="B127" s="37" t="s">
         <v>128</v>
       </c>
       <c r="C127">
@@ -3106,7 +3118,7 @@
       <c r="A128">
         <v>3134</v>
       </c>
-      <c r="B128" s="31" t="s">
+      <c r="B128" s="37" t="s">
         <v>129</v>
       </c>
       <c r="C128">
@@ -3117,7 +3129,7 @@
       <c r="A129">
         <v>3135</v>
       </c>
-      <c r="B129" s="31" t="s">
+      <c r="B129" s="37" t="s">
         <v>130</v>
       </c>
       <c r="C129">
@@ -3128,7 +3140,7 @@
       <c r="A130">
         <v>3136</v>
       </c>
-      <c r="B130" s="31" t="s">
+      <c r="B130" s="37" t="s">
         <v>131</v>
       </c>
       <c r="C130">
@@ -3139,7 +3151,7 @@
       <c r="A131">
         <v>3141</v>
       </c>
-      <c r="B131" s="31" t="s">
+      <c r="B131" s="37" t="s">
         <v>132</v>
       </c>
       <c r="C131">
@@ -3150,7 +3162,7 @@
       <c r="A132">
         <v>3142</v>
       </c>
-      <c r="B132" s="31" t="s">
+      <c r="B132" s="37" t="s">
         <v>133</v>
       </c>
       <c r="C132">
@@ -3161,7 +3173,7 @@
       <c r="A133">
         <v>3143</v>
       </c>
-      <c r="B133" s="31" t="s">
+      <c r="B133" s="37" t="s">
         <v>134</v>
       </c>
       <c r="C133">
@@ -3172,7 +3184,7 @@
       <c r="A134">
         <v>3144</v>
       </c>
-      <c r="B134" s="31" t="s">
+      <c r="B134" s="37" t="s">
         <v>135</v>
       </c>
       <c r="C134">
@@ -3183,7 +3195,7 @@
       <c r="A135">
         <v>3146</v>
       </c>
-      <c r="B135" s="31" t="s">
+      <c r="B135" s="37" t="s">
         <v>136</v>
       </c>
       <c r="C135">
@@ -3194,7 +3206,7 @@
       <c r="A136">
         <v>3147</v>
       </c>
-      <c r="B136" s="31" t="s">
+      <c r="B136" s="37" t="s">
         <v>137</v>
       </c>
       <c r="C136">
@@ -3205,7 +3217,7 @@
       <c r="A137">
         <v>3161</v>
       </c>
-      <c r="B137" s="31" t="s">
+      <c r="B137" s="37" t="s">
         <v>138</v>
       </c>
       <c r="C137">
@@ -3216,7 +3228,7 @@
       <c r="A138">
         <v>3162</v>
       </c>
-      <c r="B138" s="31" t="s">
+      <c r="B138" s="37" t="s">
         <v>139</v>
       </c>
       <c r="C138">
@@ -3227,7 +3239,7 @@
       <c r="A139">
         <v>3163</v>
       </c>
-      <c r="B139" s="31" t="s">
+      <c r="B139" s="37" t="s">
         <v>140</v>
       </c>
       <c r="C139">
@@ -3238,7 +3250,7 @@
       <c r="A140">
         <v>3171</v>
       </c>
-      <c r="B140" s="31" t="s">
+      <c r="B140" s="37" t="s">
         <v>141</v>
       </c>
       <c r="C140">
@@ -3249,7 +3261,7 @@
       <c r="A141">
         <v>3172</v>
       </c>
-      <c r="B141" s="31" t="s">
+      <c r="B141" s="37" t="s">
         <v>142</v>
       </c>
       <c r="C141">
@@ -3260,7 +3272,7 @@
       <c r="A142">
         <v>3189</v>
       </c>
-      <c r="B142" s="31" t="s">
+      <c r="B142" s="37" t="s">
         <v>143</v>
       </c>
       <c r="C142">
@@ -3271,7 +3283,7 @@
       <c r="A143">
         <v>3191</v>
       </c>
-      <c r="B143" s="31" t="s">
+      <c r="B143" s="37" t="s">
         <v>144</v>
       </c>
       <c r="C143">
@@ -3282,7 +3294,7 @@
       <c r="A144">
         <v>3192</v>
       </c>
-      <c r="B144" s="31" t="s">
+      <c r="B144" s="37" t="s">
         <v>145</v>
       </c>
       <c r="C144">
@@ -3293,7 +3305,7 @@
       <c r="A145">
         <v>3201</v>
       </c>
-      <c r="B145" s="31" t="s">
+      <c r="B145" s="37" t="s">
         <v>146</v>
       </c>
       <c r="C145">
@@ -3304,7 +3316,7 @@
       <c r="A146">
         <v>3210</v>
       </c>
-      <c r="B146" s="31" t="s">
+      <c r="B146" s="37" t="s">
         <v>147</v>
       </c>
       <c r="C146">
@@ -3315,7 +3327,7 @@
       <c r="A147">
         <v>3211</v>
       </c>
-      <c r="B147" s="31" t="s">
+      <c r="B147" s="37" t="s">
         <v>148</v>
       </c>
       <c r="C147">
@@ -3326,7 +3338,7 @@
       <c r="A148">
         <v>3212</v>
       </c>
-      <c r="B148" s="31" t="s">
+      <c r="B148" s="37" t="s">
         <v>149</v>
       </c>
       <c r="C148">
@@ -3337,7 +3349,7 @@
       <c r="A149">
         <v>3213</v>
       </c>
-      <c r="B149" s="31" t="s">
+      <c r="B149" s="37" t="s">
         <v>150</v>
       </c>
       <c r="C149">
@@ -3348,7 +3360,7 @@
       <c r="A150">
         <v>3214</v>
       </c>
-      <c r="B150" s="31" t="s">
+      <c r="B150" s="37" t="s">
         <v>151</v>
       </c>
       <c r="C150">
@@ -3359,7 +3371,7 @@
       <c r="A151">
         <v>3221</v>
       </c>
-      <c r="B151" s="31" t="s">
+      <c r="B151" s="37" t="s">
         <v>152</v>
       </c>
       <c r="C151">
@@ -3370,7 +3382,7 @@
       <c r="A152">
         <v>3222</v>
       </c>
-      <c r="B152" s="31" t="s">
+      <c r="B152" s="37" t="s">
         <v>153</v>
       </c>
       <c r="C152">
@@ -3381,7 +3393,7 @@
       <c r="A153">
         <v>3223</v>
       </c>
-      <c r="B153" s="31" t="s">
+      <c r="B153" s="37" t="s">
         <v>154</v>
       </c>
       <c r="C153">
@@ -3392,7 +3404,7 @@
       <c r="A154">
         <v>3224</v>
       </c>
-      <c r="B154" s="31" t="s">
+      <c r="B154" s="37" t="s">
         <v>155</v>
       </c>
       <c r="C154">
@@ -3403,7 +3415,7 @@
       <c r="A155">
         <v>3225</v>
       </c>
-      <c r="B155" s="31" t="s">
+      <c r="B155" s="37" t="s">
         <v>156</v>
       </c>
       <c r="C155">
@@ -3414,7 +3426,7 @@
       <c r="A156">
         <v>3231</v>
       </c>
-      <c r="B156" s="31" t="s">
+      <c r="B156" s="37" t="s">
         <v>157</v>
       </c>
       <c r="C156">
@@ -3425,7 +3437,7 @@
       <c r="A157">
         <v>3232</v>
       </c>
-      <c r="B157" s="31" t="s">
+      <c r="B157" s="37" t="s">
         <v>158</v>
       </c>
       <c r="C157">
@@ -3436,7 +3448,7 @@
       <c r="A158">
         <v>3241</v>
       </c>
-      <c r="B158" s="31" t="s">
+      <c r="B158" s="37" t="s">
         <v>159</v>
       </c>
       <c r="C158">
@@ -3447,7 +3459,7 @@
       <c r="A159">
         <v>3242</v>
       </c>
-      <c r="B159" s="31" t="s">
+      <c r="B159" s="37" t="s">
         <v>160</v>
       </c>
       <c r="C159">
@@ -3458,7 +3470,7 @@
       <c r="A160">
         <v>3250</v>
       </c>
-      <c r="B160" s="31" t="s">
+      <c r="B160" s="37" t="s">
         <v>161</v>
       </c>
       <c r="C160">
@@ -3469,7 +3481,7 @@
       <c r="A161">
         <v>3251</v>
       </c>
-      <c r="B161" s="31" t="s">
+      <c r="B161" s="37" t="s">
         <v>162</v>
       </c>
       <c r="C161">
@@ -3480,7 +3492,7 @@
       <c r="A162">
         <v>3252</v>
       </c>
-      <c r="B162" s="31" t="s">
+      <c r="B162" s="37" t="s">
         <v>163</v>
       </c>
       <c r="C162">
@@ -3491,7 +3503,7 @@
       <c r="A163">
         <v>3253</v>
       </c>
-      <c r="B163" s="31" t="s">
+      <c r="B163" s="37" t="s">
         <v>164</v>
       </c>
       <c r="C163">
@@ -3502,7 +3514,7 @@
       <c r="A164">
         <v>3281</v>
       </c>
-      <c r="B164" s="31" t="s">
+      <c r="B164" s="37" t="s">
         <v>165</v>
       </c>
       <c r="C164">
@@ -3513,7 +3525,7 @@
       <c r="A165">
         <v>3311</v>
       </c>
-      <c r="B165" s="31" t="s">
+      <c r="B165" s="37" t="s">
         <v>166</v>
       </c>
       <c r="C165">
@@ -3524,7 +3536,7 @@
       <c r="A166">
         <v>3312</v>
       </c>
-      <c r="B166" s="31" t="s">
+      <c r="B166" s="37" t="s">
         <v>167</v>
       </c>
       <c r="C166">
@@ -3535,7 +3547,7 @@
       <c r="A167">
         <v>3313</v>
       </c>
-      <c r="B167" s="31" t="s">
+      <c r="B167" s="37" t="s">
         <v>168</v>
       </c>
       <c r="C167">
@@ -3546,7 +3558,7 @@
       <c r="A168">
         <v>3321</v>
       </c>
-      <c r="B168" s="31" t="s">
+      <c r="B168" s="37" t="s">
         <v>169</v>
       </c>
       <c r="C168">
@@ -3557,7 +3569,7 @@
       <c r="A169">
         <v>3322</v>
       </c>
-      <c r="B169" s="31" t="s">
+      <c r="B169" s="37" t="s">
         <v>170</v>
       </c>
       <c r="C169">
@@ -3568,7 +3580,7 @@
       <c r="A170">
         <v>3331</v>
       </c>
-      <c r="B170" s="31" t="s">
+      <c r="B170" s="37" t="s">
         <v>171</v>
       </c>
       <c r="C170">
@@ -3579,7 +3591,7 @@
       <c r="A171">
         <v>3341</v>
       </c>
-      <c r="B171" s="31" t="s">
+      <c r="B171" s="37" t="s">
         <v>172</v>
       </c>
       <c r="C171">
@@ -3590,7 +3602,7 @@
       <c r="A172">
         <v>3411</v>
       </c>
-      <c r="B172" s="31" t="s">
+      <c r="B172" s="37" t="s">
         <v>173</v>
       </c>
       <c r="C172">
@@ -3601,7 +3613,7 @@
       <c r="A173">
         <v>3412</v>
       </c>
-      <c r="B173" s="31" t="s">
+      <c r="B173" s="37" t="s">
         <v>174</v>
       </c>
       <c r="C173">
@@ -3612,7 +3624,7 @@
       <c r="A174">
         <v>3413</v>
       </c>
-      <c r="B174" s="31" t="s">
+      <c r="B174" s="37" t="s">
         <v>175</v>
       </c>
       <c r="C174">
@@ -3623,7 +3635,7 @@
       <c r="A175">
         <v>3421</v>
       </c>
-      <c r="B175" s="31" t="s">
+      <c r="B175" s="37" t="s">
         <v>176</v>
       </c>
       <c r="C175">
@@ -3634,7 +3646,7 @@
       <c r="A176">
         <v>3422</v>
       </c>
-      <c r="B176" s="31" t="s">
+      <c r="B176" s="37" t="s">
         <v>177</v>
       </c>
       <c r="C176">
@@ -3645,7 +3657,7 @@
       <c r="A177">
         <v>3423</v>
       </c>
-      <c r="B177" s="31" t="s">
+      <c r="B177" s="37" t="s">
         <v>178</v>
       </c>
       <c r="C177">
@@ -3656,7 +3668,7 @@
       <c r="A178">
         <v>3424</v>
       </c>
-      <c r="B178" s="31" t="s">
+      <c r="B178" s="37" t="s">
         <v>179</v>
       </c>
       <c r="C178">
@@ -3667,7 +3679,7 @@
       <c r="A179">
         <v>3425</v>
       </c>
-      <c r="B179" s="31" t="s">
+      <c r="B179" s="37" t="s">
         <v>180</v>
       </c>
       <c r="C179">
@@ -3678,7 +3690,7 @@
       <c r="A180">
         <v>3426</v>
       </c>
-      <c r="B180" s="31" t="s">
+      <c r="B180" s="37" t="s">
         <v>181</v>
       </c>
       <c r="C180">
@@ -3689,7 +3701,7 @@
       <c r="A181">
         <v>3511</v>
       </c>
-      <c r="B181" s="31" t="s">
+      <c r="B181" s="37" t="s">
         <v>182</v>
       </c>
       <c r="C181">
@@ -3700,7 +3712,7 @@
       <c r="A182">
         <v>3512</v>
       </c>
-      <c r="B182" s="31" t="s">
+      <c r="B182" s="37" t="s">
         <v>183</v>
       </c>
       <c r="C182">
@@ -3711,7 +3723,7 @@
       <c r="A183">
         <v>3513</v>
       </c>
-      <c r="B183" s="31" t="s">
+      <c r="B183" s="37" t="s">
         <v>184</v>
       </c>
       <c r="C183">
@@ -3722,7 +3734,7 @@
       <c r="A184">
         <v>3514</v>
       </c>
-      <c r="B184" s="31" t="s">
+      <c r="B184" s="37" t="s">
         <v>185</v>
       </c>
       <c r="C184">
@@ -3733,7 +3745,7 @@
       <c r="A185">
         <v>3515</v>
       </c>
-      <c r="B185" s="31" t="s">
+      <c r="B185" s="37" t="s">
         <v>186</v>
       </c>
       <c r="C185">
@@ -3744,7 +3756,7 @@
       <c r="A186">
         <v>3516</v>
       </c>
-      <c r="B186" s="31" t="s">
+      <c r="B186" s="37" t="s">
         <v>187</v>
       </c>
       <c r="C186">
@@ -3755,7 +3767,7 @@
       <c r="A187">
         <v>3517</v>
       </c>
-      <c r="B187" s="31" t="s">
+      <c r="B187" s="37" t="s">
         <v>188</v>
       </c>
       <c r="C187">
@@ -3766,7 +3778,7 @@
       <c r="A188">
         <v>3518</v>
       </c>
-      <c r="B188" s="31" t="s">
+      <c r="B188" s="37" t="s">
         <v>189</v>
       </c>
       <c r="C188">
@@ -3777,7 +3789,7 @@
       <c r="A189">
         <v>3522</v>
       </c>
-      <c r="B189" s="31" t="s">
+      <c r="B189" s="37" t="s">
         <v>190</v>
       </c>
       <c r="C189">
@@ -3788,7 +3800,7 @@
       <c r="A190">
         <v>3523</v>
       </c>
-      <c r="B190" s="31" t="s">
+      <c r="B190" s="37" t="s">
         <v>191</v>
       </c>
       <c r="C190">
@@ -3799,7 +3811,7 @@
       <c r="A191">
         <v>3524</v>
       </c>
-      <c r="B191" s="31" t="s">
+      <c r="B191" s="37" t="s">
         <v>192</v>
       </c>
       <c r="C191">
@@ -3810,7 +3822,7 @@
       <c r="A192">
         <v>3525</v>
       </c>
-      <c r="B192" s="31" t="s">
+      <c r="B192" s="37" t="s">
         <v>193</v>
       </c>
       <c r="C192">
@@ -3821,7 +3833,7 @@
       <c r="A193">
         <v>3531</v>
       </c>
-      <c r="B193" s="31" t="s">
+      <c r="B193" s="37" t="s">
         <v>194</v>
       </c>
       <c r="C193">
@@ -3832,7 +3844,7 @@
       <c r="A194">
         <v>3532</v>
       </c>
-      <c r="B194" s="31" t="s">
+      <c r="B194" s="37" t="s">
         <v>195</v>
       </c>
       <c r="C194">
@@ -3843,7 +3855,7 @@
       <c r="A195">
         <v>3541</v>
       </c>
-      <c r="B195" s="31" t="s">
+      <c r="B195" s="37" t="s">
         <v>196</v>
       </c>
       <c r="C195">
@@ -3854,7 +3866,7 @@
       <c r="A196">
         <v>3542</v>
       </c>
-      <c r="B196" s="31" t="s">
+      <c r="B196" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C196">
@@ -3865,7 +3877,7 @@
       <c r="A197">
         <v>3543</v>
       </c>
-      <c r="B197" s="31" t="s">
+      <c r="B197" s="37" t="s">
         <v>198</v>
       </c>
       <c r="C197">
@@ -3876,7 +3888,7 @@
       <c r="A198">
         <v>3544</v>
       </c>
-      <c r="B198" s="31" t="s">
+      <c r="B198" s="37" t="s">
         <v>199</v>
       </c>
       <c r="C198">
@@ -3887,7 +3899,7 @@
       <c r="A199">
         <v>3545</v>
       </c>
-      <c r="B199" s="31" t="s">
+      <c r="B199" s="37" t="s">
         <v>200</v>
       </c>
       <c r="C199">
@@ -3898,7 +3910,7 @@
       <c r="A200">
         <v>3546</v>
       </c>
-      <c r="B200" s="31" t="s">
+      <c r="B200" s="37" t="s">
         <v>201</v>
       </c>
       <c r="C200">
@@ -3909,7 +3921,7 @@
       <c r="A201">
         <v>3547</v>
       </c>
-      <c r="B201" s="31" t="s">
+      <c r="B201" s="37" t="s">
         <v>202</v>
       </c>
       <c r="C201">
@@ -3920,7 +3932,7 @@
       <c r="A202">
         <v>3548</v>
       </c>
-      <c r="B202" s="31" t="s">
+      <c r="B202" s="37" t="s">
         <v>203</v>
       </c>
       <c r="C202">
@@ -3931,7 +3943,7 @@
       <c r="A203">
         <v>3711</v>
       </c>
-      <c r="B203" s="31" t="s">
+      <c r="B203" s="37" t="s">
         <v>204</v>
       </c>
       <c r="C203">
@@ -3942,7 +3954,7 @@
       <c r="A204">
         <v>3712</v>
       </c>
-      <c r="B204" s="31" t="s">
+      <c r="B204" s="37" t="s">
         <v>205</v>
       </c>
       <c r="C204">
@@ -3953,7 +3965,7 @@
       <c r="A205">
         <v>3713</v>
       </c>
-      <c r="B205" s="31" t="s">
+      <c r="B205" s="37" t="s">
         <v>206</v>
       </c>
       <c r="C205">
@@ -3964,7 +3976,7 @@
       <c r="A206">
         <v>3721</v>
       </c>
-      <c r="B206" s="31" t="s">
+      <c r="B206" s="37" t="s">
         <v>207</v>
       </c>
       <c r="C206">
@@ -3975,7 +3987,7 @@
       <c r="A207">
         <v>3722</v>
       </c>
-      <c r="B207" s="31" t="s">
+      <c r="B207" s="37" t="s">
         <v>208</v>
       </c>
       <c r="C207">
@@ -3986,7 +3998,7 @@
       <c r="A208">
         <v>3723</v>
       </c>
-      <c r="B208" s="31" t="s">
+      <c r="B208" s="37" t="s">
         <v>209</v>
       </c>
       <c r="C208">
@@ -3997,7 +4009,7 @@
       <c r="A209">
         <v>3731</v>
       </c>
-      <c r="B209" s="31" t="s">
+      <c r="B209" s="37" t="s">
         <v>210</v>
       </c>
       <c r="C209">
@@ -4008,7 +4020,7 @@
       <c r="A210">
         <v>3732</v>
       </c>
-      <c r="B210" s="31" t="s">
+      <c r="B210" s="37" t="s">
         <v>211</v>
       </c>
       <c r="C210">
@@ -4019,7 +4031,7 @@
       <c r="A211">
         <v>3741</v>
       </c>
-      <c r="B211" s="31" t="s">
+      <c r="B211" s="37" t="s">
         <v>212</v>
       </c>
       <c r="C211">
@@ -4030,7 +4042,7 @@
       <c r="A212">
         <v>3742</v>
       </c>
-      <c r="B212" s="31" t="s">
+      <c r="B212" s="37" t="s">
         <v>213</v>
       </c>
       <c r="C212">
@@ -4041,7 +4053,7 @@
       <c r="A213">
         <v>3743</v>
       </c>
-      <c r="B213" s="31" t="s">
+      <c r="B213" s="37" t="s">
         <v>214</v>
       </c>
       <c r="C213">
@@ -4052,7 +4064,7 @@
       <c r="A214">
         <v>3751</v>
       </c>
-      <c r="B214" s="31" t="s">
+      <c r="B214" s="37" t="s">
         <v>215</v>
       </c>
       <c r="C214">
@@ -4063,7 +4075,7 @@
       <c r="A215">
         <v>3761</v>
       </c>
-      <c r="B215" s="31" t="s">
+      <c r="B215" s="37" t="s">
         <v>216</v>
       </c>
       <c r="C215">
@@ -4074,7 +4086,7 @@
       <c r="A216">
         <v>3762</v>
       </c>
-      <c r="B216" s="31" t="s">
+      <c r="B216" s="37" t="s">
         <v>217</v>
       </c>
       <c r="C216">
@@ -4085,7 +4097,7 @@
       <c r="A217">
         <v>3763</v>
       </c>
-      <c r="B217" s="31" t="s">
+      <c r="B217" s="37" t="s">
         <v>218</v>
       </c>
       <c r="C217">
@@ -4096,7 +4108,7 @@
       <c r="A218">
         <v>3764</v>
       </c>
-      <c r="B218" s="31" t="s">
+      <c r="B218" s="37" t="s">
         <v>219</v>
       </c>
       <c r="C218">
@@ -4107,7 +4119,7 @@
       <c r="A219">
         <v>3765</v>
       </c>
-      <c r="B219" s="31" t="s">
+      <c r="B219" s="37" t="s">
         <v>220</v>
       </c>
       <c r="C219">
@@ -4118,7 +4130,7 @@
       <c r="A220">
         <v>3771</v>
       </c>
-      <c r="B220" s="31" t="s">
+      <c r="B220" s="37" t="s">
         <v>221</v>
       </c>
       <c r="C220">
@@ -4129,7 +4141,7 @@
       <c r="A221">
         <v>3772</v>
       </c>
-      <c r="B221" s="31" t="s">
+      <c r="B221" s="37" t="s">
         <v>222</v>
       </c>
       <c r="C221">
@@ -4140,7 +4152,7 @@
       <c r="A222">
         <v>3773</v>
       </c>
-      <c r="B222" s="31" t="s">
+      <c r="B222" s="37" t="s">
         <v>223</v>
       </c>
       <c r="C222">
@@ -4151,7 +4163,7 @@
       <c r="A223">
         <v>3911</v>
       </c>
-      <c r="B223" s="31" t="s">
+      <c r="B223" s="37" t="s">
         <v>224</v>
       </c>
       <c r="C223">
@@ -4162,7 +4174,7 @@
       <c r="A224">
         <v>3912</v>
       </c>
-      <c r="B224" s="31" t="s">
+      <c r="B224" s="37" t="s">
         <v>225</v>
       </c>
       <c r="C224">
@@ -4173,7 +4185,7 @@
       <c r="A225">
         <v>-1</v>
       </c>
-      <c r="B225" s="31" t="s">
+      <c r="B225" s="37" t="s">
         <v>226</v>
       </c>
       <c r="C225">
@@ -4184,7 +4196,7 @@
       <c r="A226">
         <v>4101</v>
       </c>
-      <c r="B226" s="31" t="s">
+      <c r="B226" s="37" t="s">
         <v>227</v>
       </c>
       <c r="C226">
@@ -4195,7 +4207,7 @@
       <c r="A227">
         <v>4102</v>
       </c>
-      <c r="B227" s="31" t="s">
+      <c r="B227" s="37" t="s">
         <v>228</v>
       </c>
       <c r="C227">
@@ -4206,7 +4218,7 @@
       <c r="A228">
         <v>4110</v>
       </c>
-      <c r="B228" s="31" t="s">
+      <c r="B228" s="37" t="s">
         <v>229</v>
       </c>
       <c r="C228">
@@ -4217,7 +4229,7 @@
       <c r="A229">
         <v>4121</v>
       </c>
-      <c r="B229" s="31" t="s">
+      <c r="B229" s="37" t="s">
         <v>230</v>
       </c>
       <c r="C229">
@@ -4228,7 +4240,7 @@
       <c r="A230">
         <v>4122</v>
       </c>
-      <c r="B230" s="31" t="s">
+      <c r="B230" s="37" t="s">
         <v>231</v>
       </c>
       <c r="C230">
@@ -4239,7 +4251,7 @@
       <c r="A231">
         <v>4123</v>
       </c>
-      <c r="B231" s="31" t="s">
+      <c r="B231" s="37" t="s">
         <v>232</v>
       </c>
       <c r="C231">
@@ -4250,7 +4262,7 @@
       <c r="A232">
         <v>4131</v>
       </c>
-      <c r="B232" s="31" t="s">
+      <c r="B232" s="37" t="s">
         <v>233</v>
       </c>
       <c r="C232">
@@ -4261,7 +4273,7 @@
       <c r="A233">
         <v>4132</v>
       </c>
-      <c r="B233" s="31" t="s">
+      <c r="B233" s="37" t="s">
         <v>234</v>
       </c>
       <c r="C233">
@@ -4272,7 +4284,7 @@
       <c r="A234">
         <v>4141</v>
       </c>
-      <c r="B234" s="31" t="s">
+      <c r="B234" s="37" t="s">
         <v>235</v>
       </c>
       <c r="C234">
@@ -4283,7 +4295,7 @@
       <c r="A235">
         <v>4142</v>
       </c>
-      <c r="B235" s="31" t="s">
+      <c r="B235" s="37" t="s">
         <v>236</v>
       </c>
       <c r="C235">
@@ -4294,7 +4306,7 @@
       <c r="A236">
         <v>4151</v>
       </c>
-      <c r="B236" s="31" t="s">
+      <c r="B236" s="37" t="s">
         <v>237</v>
       </c>
       <c r="C236">
@@ -4305,7 +4317,7 @@
       <c r="A237">
         <v>4152</v>
       </c>
-      <c r="B237" s="31" t="s">
+      <c r="B237" s="37" t="s">
         <v>238</v>
       </c>
       <c r="C237">
@@ -4316,7 +4328,7 @@
       <c r="A238">
         <v>4201</v>
       </c>
-      <c r="B238" s="31" t="s">
+      <c r="B238" s="37" t="s">
         <v>239</v>
       </c>
       <c r="C238">
@@ -4327,7 +4339,7 @@
       <c r="A239">
         <v>4211</v>
       </c>
-      <c r="B239" s="31" t="s">
+      <c r="B239" s="37" t="s">
         <v>240</v>
       </c>
       <c r="C239">
@@ -4338,7 +4350,7 @@
       <c r="A240">
         <v>4212</v>
       </c>
-      <c r="B240" s="31" t="s">
+      <c r="B240" s="37" t="s">
         <v>241</v>
       </c>
       <c r="C240">
@@ -4349,7 +4361,7 @@
       <c r="A241">
         <v>4213</v>
       </c>
-      <c r="B241" s="31" t="s">
+      <c r="B241" s="37" t="s">
         <v>242</v>
       </c>
       <c r="C241">
@@ -4360,7 +4372,7 @@
       <c r="A242">
         <v>4214</v>
       </c>
-      <c r="B242" s="31" t="s">
+      <c r="B242" s="37" t="s">
         <v>243</v>
       </c>
       <c r="C242">
@@ -4371,7 +4383,7 @@
       <c r="A243">
         <v>4221</v>
       </c>
-      <c r="B243" s="31" t="s">
+      <c r="B243" s="37" t="s">
         <v>244</v>
       </c>
       <c r="C243">
@@ -4382,7 +4394,7 @@
       <c r="A244">
         <v>4222</v>
       </c>
-      <c r="B244" s="31" t="s">
+      <c r="B244" s="37" t="s">
         <v>245</v>
       </c>
       <c r="C244">
@@ -4393,7 +4405,7 @@
       <c r="A245">
         <v>4223</v>
       </c>
-      <c r="B245" s="31" t="s">
+      <c r="B245" s="37" t="s">
         <v>246</v>
       </c>
       <c r="C245">
@@ -4404,7 +4416,7 @@
       <c r="A246">
         <v>4231</v>
       </c>
-      <c r="B246" s="31" t="s">
+      <c r="B246" s="37" t="s">
         <v>247</v>
       </c>
       <c r="C246">
@@ -4415,7 +4427,7 @@
       <c r="A247">
         <v>4241</v>
       </c>
-      <c r="B247" s="31" t="s">
+      <c r="B247" s="37" t="s">
         <v>248</v>
       </c>
       <c r="C247">
@@ -4426,7 +4438,7 @@
       <c r="A248">
         <v>-1</v>
       </c>
-      <c r="B248" s="31" t="s">
+      <c r="B248" s="37" t="s">
         <v>249</v>
       </c>
       <c r="C248">
@@ -4437,7 +4449,7 @@
       <c r="A249">
         <v>5101</v>
       </c>
-      <c r="B249" s="31" t="s">
+      <c r="B249" s="37" t="s">
         <v>250</v>
       </c>
       <c r="C249">
@@ -4448,7 +4460,7 @@
       <c r="A250">
         <v>5102</v>
       </c>
-      <c r="B250" s="31" t="s">
+      <c r="B250" s="37" t="s">
         <v>251</v>
       </c>
       <c r="C250">
@@ -4459,7 +4471,7 @@
       <c r="A251">
         <v>5103</v>
       </c>
-      <c r="B251" s="31" t="s">
+      <c r="B251" s="37" t="s">
         <v>252</v>
       </c>
       <c r="C251">
@@ -4470,7 +4482,7 @@
       <c r="A252">
         <v>5111</v>
       </c>
-      <c r="B252" s="31" t="s">
+      <c r="B252" s="37" t="s">
         <v>253</v>
       </c>
       <c r="C252">
@@ -4481,7 +4493,7 @@
       <c r="A253">
         <v>5112</v>
       </c>
-      <c r="B253" s="31" t="s">
+      <c r="B253" s="37" t="s">
         <v>254</v>
       </c>
       <c r="C253">
@@ -4492,7 +4504,7 @@
       <c r="A254">
         <v>5114</v>
       </c>
-      <c r="B254" s="31" t="s">
+      <c r="B254" s="37" t="s">
         <v>255</v>
       </c>
       <c r="C254">
@@ -4503,7 +4515,7 @@
       <c r="A255">
         <v>5121</v>
       </c>
-      <c r="B255" s="31" t="s">
+      <c r="B255" s="37" t="s">
         <v>256</v>
       </c>
       <c r="C255">
@@ -4514,7 +4526,7 @@
       <c r="A256">
         <v>5131</v>
       </c>
-      <c r="B256" s="31" t="s">
+      <c r="B256" s="37" t="s">
         <v>257</v>
       </c>
       <c r="C256">
@@ -4525,7 +4537,7 @@
       <c r="A257">
         <v>5132</v>
       </c>
-      <c r="B257" s="31" t="s">
+      <c r="B257" s="37" t="s">
         <v>258</v>
       </c>
       <c r="C257">
@@ -4536,7 +4548,7 @@
       <c r="A258">
         <v>5133</v>
       </c>
-      <c r="B258" s="31" t="s">
+      <c r="B258" s="37" t="s">
         <v>259</v>
       </c>
       <c r="C258">
@@ -4547,7 +4559,7 @@
       <c r="A259">
         <v>5134</v>
       </c>
-      <c r="B259" s="31" t="s">
+      <c r="B259" s="37" t="s">
         <v>260</v>
       </c>
       <c r="C259">
@@ -4558,7 +4570,7 @@
       <c r="A260">
         <v>5141</v>
       </c>
-      <c r="B260" s="31" t="s">
+      <c r="B260" s="37" t="s">
         <v>261</v>
       </c>
       <c r="C260">
@@ -4569,7 +4581,7 @@
       <c r="A261">
         <v>5142</v>
       </c>
-      <c r="B261" s="31" t="s">
+      <c r="B261" s="37" t="s">
         <v>262</v>
       </c>
       <c r="C261">
@@ -4580,7 +4592,7 @@
       <c r="A262">
         <v>5151</v>
       </c>
-      <c r="B262" s="31" t="s">
+      <c r="B262" s="37" t="s">
         <v>263</v>
       </c>
       <c r="C262">
@@ -4591,7 +4603,7 @@
       <c r="A263">
         <v>5152</v>
       </c>
-      <c r="B263" s="31" t="s">
+      <c r="B263" s="37" t="s">
         <v>264</v>
       </c>
       <c r="C263">
@@ -4602,7 +4614,7 @@
       <c r="A264">
         <v>5161</v>
       </c>
-      <c r="B264" s="31" t="s">
+      <c r="B264" s="37" t="s">
         <v>265</v>
       </c>
       <c r="C264">
@@ -4613,7 +4625,7 @@
       <c r="A265">
         <v>5162</v>
       </c>
-      <c r="B265" s="31" t="s">
+      <c r="B265" s="37" t="s">
         <v>266</v>
       </c>
       <c r="C265">
@@ -4624,7 +4636,7 @@
       <c r="A266">
         <v>5165</v>
       </c>
-      <c r="B266" s="31" t="s">
+      <c r="B266" s="37" t="s">
         <v>267</v>
       </c>
       <c r="C266">
@@ -4635,7 +4647,7 @@
       <c r="A267">
         <v>5166</v>
       </c>
-      <c r="B267" s="31" t="s">
+      <c r="B267" s="37" t="s">
         <v>268</v>
       </c>
       <c r="C267">
@@ -4646,7 +4658,7 @@
       <c r="A268">
         <v>5167</v>
       </c>
-      <c r="B268" s="31" t="s">
+      <c r="B268" s="37" t="s">
         <v>269</v>
       </c>
       <c r="C268">
@@ -4657,7 +4669,7 @@
       <c r="A269">
         <v>5169</v>
       </c>
-      <c r="B269" s="31" t="s">
+      <c r="B269" s="37" t="s">
         <v>270</v>
       </c>
       <c r="C269">
@@ -4668,7 +4680,7 @@
       <c r="A270">
         <v>5171</v>
       </c>
-      <c r="B270" s="31" t="s">
+      <c r="B270" s="37" t="s">
         <v>271</v>
       </c>
       <c r="C270">
@@ -4679,7 +4691,7 @@
       <c r="A271">
         <v>5172</v>
       </c>
-      <c r="B271" s="31" t="s">
+      <c r="B271" s="37" t="s">
         <v>272</v>
       </c>
       <c r="C271">
@@ -4690,7 +4702,7 @@
       <c r="A272">
         <v>5173</v>
       </c>
-      <c r="B272" s="31" t="s">
+      <c r="B272" s="37" t="s">
         <v>273</v>
       </c>
       <c r="C272">
@@ -4701,7 +4713,7 @@
       <c r="A273">
         <v>5174</v>
       </c>
-      <c r="B273" s="31" t="s">
+      <c r="B273" s="37" t="s">
         <v>274</v>
       </c>
       <c r="C273">
@@ -4712,7 +4724,7 @@
       <c r="A274">
         <v>5191</v>
       </c>
-      <c r="B274" s="31" t="s">
+      <c r="B274" s="37" t="s">
         <v>275</v>
       </c>
       <c r="C274">
@@ -4723,7 +4735,7 @@
       <c r="A275">
         <v>5192</v>
       </c>
-      <c r="B275" s="31" t="s">
+      <c r="B275" s="37" t="s">
         <v>276</v>
       </c>
       <c r="C275">
@@ -4734,7 +4746,7 @@
       <c r="A276">
         <v>5198</v>
       </c>
-      <c r="B276" s="31" t="s">
+      <c r="B276" s="37" t="s">
         <v>277</v>
       </c>
       <c r="C276">
@@ -4745,7 +4757,7 @@
       <c r="A277">
         <v>5199</v>
       </c>
-      <c r="B277" s="31" t="s">
+      <c r="B277" s="37" t="s">
         <v>278</v>
       </c>
       <c r="C277">
@@ -4756,7 +4768,7 @@
       <c r="A278">
         <v>5201</v>
       </c>
-      <c r="B278" s="31" t="s">
+      <c r="B278" s="37" t="s">
         <v>279</v>
       </c>
       <c r="C278">
@@ -4767,7 +4779,7 @@
       <c r="A279">
         <v>5211</v>
       </c>
-      <c r="B279" s="31" t="s">
+      <c r="B279" s="37" t="s">
         <v>280</v>
       </c>
       <c r="C279">
@@ -4778,7 +4790,7 @@
       <c r="A280">
         <v>5221</v>
       </c>
-      <c r="B280" s="31" t="s">
+      <c r="B280" s="37" t="s">
         <v>281</v>
       </c>
       <c r="C280">
@@ -4789,7 +4801,7 @@
       <c r="A281">
         <v>5231</v>
       </c>
-      <c r="B281" s="31" t="s">
+      <c r="B281" s="37" t="s">
         <v>282</v>
       </c>
       <c r="C281">
@@ -4800,7 +4812,7 @@
       <c r="A282">
         <v>5241</v>
       </c>
-      <c r="B282" s="31" t="s">
+      <c r="B282" s="37" t="s">
         <v>283</v>
       </c>
       <c r="C282">
@@ -4811,7 +4823,7 @@
       <c r="A283">
         <v>5242</v>
       </c>
-      <c r="B283" s="31" t="s">
+      <c r="B283" s="37" t="s">
         <v>284</v>
       </c>
       <c r="C283">
@@ -4822,7 +4834,7 @@
       <c r="A284">
         <v>5243</v>
       </c>
-      <c r="B284" s="31" t="s">
+      <c r="B284" s="37" t="s">
         <v>285</v>
       </c>
       <c r="C284">
@@ -4833,7 +4845,7 @@
       <c r="A285">
         <v>-1</v>
       </c>
-      <c r="B285" s="31" t="s">
+      <c r="B285" s="37" t="s">
         <v>286</v>
       </c>
       <c r="C285">
@@ -4844,7 +4856,7 @@
       <c r="A286">
         <v>6110</v>
       </c>
-      <c r="B286" s="31" t="s">
+      <c r="B286" s="37" t="s">
         <v>287</v>
       </c>
       <c r="C286">
@@ -4855,7 +4867,7 @@
       <c r="A287">
         <v>6129</v>
       </c>
-      <c r="B287" s="31" t="s">
+      <c r="B287" s="37" t="s">
         <v>288</v>
       </c>
       <c r="C287">
@@ -4866,7 +4878,7 @@
       <c r="A288">
         <v>6139</v>
       </c>
-      <c r="B288" s="31" t="s">
+      <c r="B288" s="37" t="s">
         <v>289</v>
       </c>
       <c r="C288">
@@ -4877,7 +4889,7 @@
       <c r="A289">
         <v>6201</v>
       </c>
-      <c r="B289" s="31" t="s">
+      <c r="B289" s="37" t="s">
         <v>290</v>
       </c>
       <c r="C289">
@@ -4888,7 +4900,7 @@
       <c r="A290">
         <v>6210</v>
       </c>
-      <c r="B290" s="31" t="s">
+      <c r="B290" s="37" t="s">
         <v>291</v>
       </c>
       <c r="C290">
@@ -4899,7 +4911,7 @@
       <c r="A291">
         <v>6229</v>
       </c>
-      <c r="B291" s="31" t="s">
+      <c r="B291" s="37" t="s">
         <v>292</v>
       </c>
       <c r="C291">
@@ -4910,7 +4922,7 @@
       <c r="A292">
         <v>6239</v>
       </c>
-      <c r="B292" s="31" t="s">
+      <c r="B292" s="37" t="s">
         <v>293</v>
       </c>
       <c r="C292">
@@ -4921,7 +4933,7 @@
       <c r="A293">
         <v>6301</v>
       </c>
-      <c r="B293" s="31" t="s">
+      <c r="B293" s="37" t="s">
         <v>294</v>
       </c>
       <c r="C293">
@@ -4932,7 +4944,7 @@
       <c r="A294">
         <v>6319</v>
       </c>
-      <c r="B294" s="31" t="s">
+      <c r="B294" s="37" t="s">
         <v>295</v>
       </c>
       <c r="C294">
@@ -4943,7 +4955,7 @@
       <c r="A295">
         <v>6329</v>
       </c>
-      <c r="B295" s="31" t="s">
+      <c r="B295" s="37" t="s">
         <v>296</v>
       </c>
       <c r="C295">
@@ -4954,7 +4966,7 @@
       <c r="A296">
         <v>6410</v>
       </c>
-      <c r="B296" s="31" t="s">
+      <c r="B296" s="37" t="s">
         <v>297</v>
       </c>
       <c r="C296">
@@ -4965,7 +4977,7 @@
       <c r="A297">
         <v>6420</v>
       </c>
-      <c r="B297" s="31" t="s">
+      <c r="B297" s="37" t="s">
         <v>298</v>
       </c>
       <c r="C297">
@@ -4976,7 +4988,7 @@
       <c r="A298">
         <v>6430</v>
       </c>
-      <c r="B298" s="31" t="s">
+      <c r="B298" s="37" t="s">
         <v>299</v>
       </c>
       <c r="C298">
@@ -4987,7 +4999,7 @@
       <c r="A299">
         <v>-1</v>
       </c>
-      <c r="B299" s="31" t="s">
+      <c r="B299" s="37" t="s">
         <v>300</v>
       </c>
       <c r="C299">
@@ -4998,7 +5010,7 @@
       <c r="A300">
         <v>7101</v>
       </c>
-      <c r="B300" s="31" t="s">
+      <c r="B300" s="37" t="s">
         <v>301</v>
       </c>
       <c r="C300">
@@ -5009,7 +5021,7 @@
       <c r="A301">
         <v>7102</v>
       </c>
-      <c r="B301" s="31" t="s">
+      <c r="B301" s="37" t="s">
         <v>302</v>
       </c>
       <c r="C301">
@@ -5020,7 +5032,7 @@
       <c r="A302">
         <v>7111</v>
       </c>
-      <c r="B302" s="31" t="s">
+      <c r="B302" s="37" t="s">
         <v>303</v>
       </c>
       <c r="C302">
@@ -5031,7 +5043,7 @@
       <c r="A303">
         <v>7112</v>
       </c>
-      <c r="B303" s="31" t="s">
+      <c r="B303" s="37" t="s">
         <v>304</v>
       </c>
       <c r="C303">
@@ -5042,7 +5054,7 @@
       <c r="A304">
         <v>7113</v>
       </c>
-      <c r="B304" s="31" t="s">
+      <c r="B304" s="37" t="s">
         <v>305</v>
       </c>
       <c r="C304">
@@ -5053,7 +5065,7 @@
       <c r="A305">
         <v>7114</v>
       </c>
-      <c r="B305" s="31" t="s">
+      <c r="B305" s="37" t="s">
         <v>306</v>
       </c>
       <c r="C305">
@@ -5064,7 +5076,7 @@
       <c r="A306">
         <v>7121</v>
       </c>
-      <c r="B306" s="31" t="s">
+      <c r="B306" s="37" t="s">
         <v>307</v>
       </c>
       <c r="C306">
@@ -5075,7 +5087,7 @@
       <c r="A307">
         <v>7122</v>
       </c>
-      <c r="B307" s="31" t="s">
+      <c r="B307" s="37" t="s">
         <v>308</v>
       </c>
       <c r="C307">
@@ -5086,7 +5098,7 @@
       <c r="A308">
         <v>7151</v>
       </c>
-      <c r="B308" s="31" t="s">
+      <c r="B308" s="37" t="s">
         <v>309</v>
       </c>
       <c r="C308">
@@ -5097,7 +5109,7 @@
       <c r="A309">
         <v>7152</v>
       </c>
-      <c r="B309" s="31" t="s">
+      <c r="B309" s="37" t="s">
         <v>310</v>
       </c>
       <c r="C309">
@@ -5108,7 +5120,7 @@
       <c r="A310">
         <v>7153</v>
       </c>
-      <c r="B310" s="31" t="s">
+      <c r="B310" s="37" t="s">
         <v>311</v>
       </c>
       <c r="C310">
@@ -5119,7 +5131,7 @@
       <c r="A311">
         <v>7154</v>
       </c>
-      <c r="B311" s="31" t="s">
+      <c r="B311" s="37" t="s">
         <v>312</v>
       </c>
       <c r="C311">
@@ -5130,7 +5142,7 @@
       <c r="A312">
         <v>7155</v>
       </c>
-      <c r="B312" s="31" t="s">
+      <c r="B312" s="37" t="s">
         <v>313</v>
       </c>
       <c r="C312">
@@ -5141,7 +5153,7 @@
       <c r="A313">
         <v>7156</v>
       </c>
-      <c r="B313" s="31" t="s">
+      <c r="B313" s="37" t="s">
         <v>314</v>
       </c>
       <c r="C313">
@@ -5152,7 +5164,7 @@
       <c r="A314">
         <v>7157</v>
       </c>
-      <c r="B314" s="31" t="s">
+      <c r="B314" s="37" t="s">
         <v>315</v>
       </c>
       <c r="C314">
@@ -5163,7 +5175,7 @@
       <c r="A315">
         <v>7161</v>
       </c>
-      <c r="B315" s="31" t="s">
+      <c r="B315" s="37" t="s">
         <v>316</v>
       </c>
       <c r="C315">
@@ -5174,7 +5186,7 @@
       <c r="A316">
         <v>7162</v>
       </c>
-      <c r="B316" s="31" t="s">
+      <c r="B316" s="37" t="s">
         <v>317</v>
       </c>
       <c r="C316">
@@ -5185,7 +5197,7 @@
       <c r="A317">
         <v>7163</v>
       </c>
-      <c r="B317" s="31" t="s">
+      <c r="B317" s="37" t="s">
         <v>318</v>
       </c>
       <c r="C317">
@@ -5196,7 +5208,7 @@
       <c r="A318">
         <v>7164</v>
       </c>
-      <c r="B318" s="31" t="s">
+      <c r="B318" s="37" t="s">
         <v>319</v>
       </c>
       <c r="C318">
@@ -5207,7 +5219,7 @@
       <c r="A319">
         <v>7165</v>
       </c>
-      <c r="B319" s="31" t="s">
+      <c r="B319" s="37" t="s">
         <v>320</v>
       </c>
       <c r="C319">
@@ -5218,7 +5230,7 @@
       <c r="A320">
         <v>7166</v>
       </c>
-      <c r="B320" s="31" t="s">
+      <c r="B320" s="37" t="s">
         <v>321</v>
       </c>
       <c r="C320">
@@ -5229,7 +5241,7 @@
       <c r="A321">
         <v>7170</v>
       </c>
-      <c r="B321" s="31" t="s">
+      <c r="B321" s="37" t="s">
         <v>322</v>
       </c>
       <c r="C321">
@@ -5240,7 +5252,7 @@
       <c r="A322">
         <v>7201</v>
       </c>
-      <c r="B322" s="31" t="s">
+      <c r="B322" s="37" t="s">
         <v>323</v>
       </c>
       <c r="C322">
@@ -5251,7 +5263,7 @@
       <c r="A323">
         <v>7202</v>
       </c>
-      <c r="B323" s="31" t="s">
+      <c r="B323" s="37" t="s">
         <v>324</v>
       </c>
       <c r="C323">
@@ -5262,7 +5274,7 @@
       <c r="A324">
         <v>7211</v>
       </c>
-      <c r="B324" s="31" t="s">
+      <c r="B324" s="37" t="s">
         <v>325</v>
       </c>
       <c r="C324">
@@ -5273,7 +5285,7 @@
       <c r="A325">
         <v>7212</v>
       </c>
-      <c r="B325" s="31" t="s">
+      <c r="B325" s="37" t="s">
         <v>326</v>
       </c>
       <c r="C325">
@@ -5284,7 +5296,7 @@
       <c r="A326">
         <v>7213</v>
       </c>
-      <c r="B326" s="31" t="s">
+      <c r="B326" s="37" t="s">
         <v>327</v>
       </c>
       <c r="C326">
@@ -5295,7 +5307,7 @@
       <c r="A327">
         <v>7214</v>
       </c>
-      <c r="B327" s="31" t="s">
+      <c r="B327" s="37" t="s">
         <v>328</v>
       </c>
       <c r="C327">
@@ -5306,7 +5318,7 @@
       <c r="A328">
         <v>7215</v>
       </c>
-      <c r="B328" s="31" t="s">
+      <c r="B328" s="37" t="s">
         <v>329</v>
       </c>
       <c r="C328">
@@ -5317,7 +5329,7 @@
       <c r="A329">
         <v>7221</v>
       </c>
-      <c r="B329" s="31" t="s">
+      <c r="B329" s="37" t="s">
         <v>330</v>
       </c>
       <c r="C329">
@@ -5328,7 +5340,7 @@
       <c r="A330">
         <v>7222</v>
       </c>
-      <c r="B330" s="31" t="s">
+      <c r="B330" s="37" t="s">
         <v>331</v>
       </c>
       <c r="C330">
@@ -5339,7 +5351,7 @@
       <c r="A331">
         <v>7223</v>
       </c>
-      <c r="B331" s="31" t="s">
+      <c r="B331" s="37" t="s">
         <v>332</v>
       </c>
       <c r="C331">
@@ -5350,7 +5362,7 @@
       <c r="A332">
         <v>7224</v>
       </c>
-      <c r="B332" s="31" t="s">
+      <c r="B332" s="37" t="s">
         <v>333</v>
       </c>
       <c r="C332">
@@ -5361,7 +5373,7 @@
       <c r="A333">
         <v>7231</v>
       </c>
-      <c r="B333" s="31" t="s">
+      <c r="B333" s="37" t="s">
         <v>334</v>
       </c>
       <c r="C333">
@@ -5372,7 +5384,7 @@
       <c r="A334">
         <v>7232</v>
       </c>
-      <c r="B334" s="31" t="s">
+      <c r="B334" s="37" t="s">
         <v>335</v>
       </c>
       <c r="C334">
@@ -5383,7 +5395,7 @@
       <c r="A335">
         <v>7233</v>
       </c>
-      <c r="B335" s="31" t="s">
+      <c r="B335" s="37" t="s">
         <v>336</v>
       </c>
       <c r="C335">
@@ -5394,7 +5406,7 @@
       <c r="A336">
         <v>7241</v>
       </c>
-      <c r="B336" s="31" t="s">
+      <c r="B336" s="37" t="s">
         <v>337</v>
       </c>
       <c r="C336">
@@ -5405,7 +5417,7 @@
       <c r="A337">
         <v>7242</v>
       </c>
-      <c r="B337" s="31" t="s">
+      <c r="B337" s="37" t="s">
         <v>338</v>
       </c>
       <c r="C337">
@@ -5416,7 +5428,7 @@
       <c r="A338">
         <v>7243</v>
       </c>
-      <c r="B338" s="31" t="s">
+      <c r="B338" s="37" t="s">
         <v>339</v>
       </c>
       <c r="C338">
@@ -5427,7 +5439,7 @@
       <c r="A339">
         <v>7244</v>
       </c>
-      <c r="B339" s="31" t="s">
+      <c r="B339" s="37" t="s">
         <v>340</v>
       </c>
       <c r="C339">
@@ -5438,7 +5450,7 @@
       <c r="A340">
         <v>7245</v>
       </c>
-      <c r="B340" s="31" t="s">
+      <c r="B340" s="37" t="s">
         <v>341</v>
       </c>
       <c r="C340">
@@ -5449,7 +5461,7 @@
       <c r="A341">
         <v>7246</v>
       </c>
-      <c r="B341" s="31" t="s">
+      <c r="B341" s="37" t="s">
         <v>342</v>
       </c>
       <c r="C341">
@@ -5460,7 +5472,7 @@
       <c r="A342">
         <v>7250</v>
       </c>
-      <c r="B342" s="31" t="s">
+      <c r="B342" s="37" t="s">
         <v>343</v>
       </c>
       <c r="C342">
@@ -5471,7 +5483,7 @@
       <c r="A343">
         <v>7251</v>
       </c>
-      <c r="B343" s="31" t="s">
+      <c r="B343" s="37" t="s">
         <v>344</v>
       </c>
       <c r="C343">
@@ -5482,7 +5494,7 @@
       <c r="A344">
         <v>7252</v>
       </c>
-      <c r="B344" s="31" t="s">
+      <c r="B344" s="37" t="s">
         <v>345</v>
       </c>
       <c r="C344">
@@ -5493,7 +5505,7 @@
       <c r="A345">
         <v>7253</v>
       </c>
-      <c r="B345" s="31" t="s">
+      <c r="B345" s="37" t="s">
         <v>346</v>
       </c>
       <c r="C345">
@@ -5504,7 +5516,7 @@
       <c r="A346">
         <v>7254</v>
       </c>
-      <c r="B346" s="31" t="s">
+      <c r="B346" s="37" t="s">
         <v>347</v>
       </c>
       <c r="C346">
@@ -5515,7 +5527,7 @@
       <c r="A347">
         <v>7255</v>
       </c>
-      <c r="B347" s="31" t="s">
+      <c r="B347" s="37" t="s">
         <v>348</v>
       </c>
       <c r="C347">
@@ -5526,7 +5538,7 @@
       <c r="A348">
         <v>7256</v>
       </c>
-      <c r="B348" s="31" t="s">
+      <c r="B348" s="37" t="s">
         <v>349</v>
       </c>
       <c r="C348">
@@ -5537,7 +5549,7 @@
       <c r="A349">
         <v>7257</v>
       </c>
-      <c r="B349" s="31" t="s">
+      <c r="B349" s="37" t="s">
         <v>350</v>
       </c>
       <c r="C349">
@@ -5548,7 +5560,7 @@
       <c r="A350">
         <v>7301</v>
       </c>
-      <c r="B350" s="31" t="s">
+      <c r="B350" s="37" t="s">
         <v>351</v>
       </c>
       <c r="C350">
@@ -5559,7 +5571,7 @@
       <c r="A351">
         <v>7311</v>
       </c>
-      <c r="B351" s="31" t="s">
+      <c r="B351" s="37" t="s">
         <v>352</v>
       </c>
       <c r="C351">
@@ -5570,7 +5582,7 @@
       <c r="A352">
         <v>7312</v>
       </c>
-      <c r="B352" s="31" t="s">
+      <c r="B352" s="37" t="s">
         <v>353</v>
       </c>
       <c r="C352">
@@ -5581,7 +5593,7 @@
       <c r="A353">
         <v>7313</v>
       </c>
-      <c r="B353" s="31" t="s">
+      <c r="B353" s="37" t="s">
         <v>354</v>
       </c>
       <c r="C353">
@@ -5592,7 +5604,7 @@
       <c r="A354">
         <v>7321</v>
       </c>
-      <c r="B354" s="31" t="s">
+      <c r="B354" s="37" t="s">
         <v>355</v>
       </c>
       <c r="C354">
@@ -5603,7 +5615,7 @@
       <c r="A355">
         <v>7401</v>
       </c>
-      <c r="B355" s="31" t="s">
+      <c r="B355" s="37" t="s">
         <v>356</v>
       </c>
       <c r="C355">
@@ -5614,7 +5626,7 @@
       <c r="A356">
         <v>7411</v>
       </c>
-      <c r="B356" s="31" t="s">
+      <c r="B356" s="37" t="s">
         <v>357</v>
       </c>
       <c r="C356">
@@ -5625,7 +5637,7 @@
       <c r="A357">
         <v>7421</v>
       </c>
-      <c r="B357" s="31" t="s">
+      <c r="B357" s="37" t="s">
         <v>358</v>
       </c>
       <c r="C357">
@@ -5636,7 +5648,7 @@
       <c r="A358">
         <v>7501</v>
       </c>
-      <c r="B358" s="31" t="s">
+      <c r="B358" s="37" t="s">
         <v>359</v>
       </c>
       <c r="C358">
@@ -5647,7 +5659,7 @@
       <c r="A359">
         <v>7502</v>
       </c>
-      <c r="B359" s="31" t="s">
+      <c r="B359" s="37" t="s">
         <v>360</v>
       </c>
       <c r="C359">
@@ -5658,7 +5670,7 @@
       <c r="A360">
         <v>7519</v>
       </c>
-      <c r="B360" s="31" t="s">
+      <c r="B360" s="37" t="s">
         <v>361</v>
       </c>
       <c r="C360">
@@ -5669,7 +5681,7 @@
       <c r="A361">
         <v>7521</v>
       </c>
-      <c r="B361" s="31" t="s">
+      <c r="B361" s="37" t="s">
         <v>362</v>
       </c>
       <c r="C361">
@@ -5680,7 +5692,7 @@
       <c r="A362">
         <v>7522</v>
       </c>
-      <c r="B362" s="31" t="s">
+      <c r="B362" s="37" t="s">
         <v>363</v>
       </c>
       <c r="C362">
@@ -5691,7 +5703,7 @@
       <c r="A363">
         <v>7523</v>
       </c>
-      <c r="B363" s="31" t="s">
+      <c r="B363" s="37" t="s">
         <v>364</v>
       </c>
       <c r="C363">
@@ -5702,7 +5714,7 @@
       <c r="A364">
         <v>7524</v>
       </c>
-      <c r="B364" s="31" t="s">
+      <c r="B364" s="37" t="s">
         <v>365</v>
       </c>
       <c r="C364">
@@ -5713,7 +5725,7 @@
       <c r="A365">
         <v>7601</v>
       </c>
-      <c r="B365" s="31" t="s">
+      <c r="B365" s="37" t="s">
         <v>366</v>
       </c>
       <c r="C365">
@@ -5724,7 +5736,7 @@
       <c r="A366">
         <v>7602</v>
       </c>
-      <c r="B366" s="31" t="s">
+      <c r="B366" s="37" t="s">
         <v>367</v>
       </c>
       <c r="C366">
@@ -5735,7 +5747,7 @@
       <c r="A367">
         <v>7603</v>
       </c>
-      <c r="B367" s="31" t="s">
+      <c r="B367" s="37" t="s">
         <v>368</v>
       </c>
       <c r="C367">
@@ -5746,7 +5758,7 @@
       <c r="A368">
         <v>7604</v>
       </c>
-      <c r="B368" s="31" t="s">
+      <c r="B368" s="37" t="s">
         <v>369</v>
       </c>
       <c r="C368">
@@ -5757,7 +5769,7 @@
       <c r="A369">
         <v>7605</v>
       </c>
-      <c r="B369" s="31" t="s">
+      <c r="B369" s="37" t="s">
         <v>370</v>
       </c>
       <c r="C369">
@@ -5768,7 +5780,7 @@
       <c r="A370">
         <v>7606</v>
       </c>
-      <c r="B370" s="31" t="s">
+      <c r="B370" s="37" t="s">
         <v>371</v>
       </c>
       <c r="C370">
@@ -5779,7 +5791,7 @@
       <c r="A371">
         <v>7610</v>
       </c>
-      <c r="B371" s="31" t="s">
+      <c r="B371" s="37" t="s">
         <v>372</v>
       </c>
       <c r="C371">
@@ -5790,7 +5802,7 @@
       <c r="A372">
         <v>7611</v>
       </c>
-      <c r="B372" s="31" t="s">
+      <c r="B372" s="37" t="s">
         <v>373</v>
       </c>
       <c r="C372">
@@ -5801,7 +5813,7 @@
       <c r="A373">
         <v>7612</v>
       </c>
-      <c r="B373" s="31" t="s">
+      <c r="B373" s="37" t="s">
         <v>374</v>
       </c>
       <c r="C373">
@@ -5812,7 +5824,7 @@
       <c r="A374">
         <v>7613</v>
       </c>
-      <c r="B374" s="31" t="s">
+      <c r="B374" s="37" t="s">
         <v>375</v>
       </c>
       <c r="C374">
@@ -5823,7 +5835,7 @@
       <c r="A375">
         <v>7614</v>
       </c>
-      <c r="B375" s="31" t="s">
+      <c r="B375" s="37" t="s">
         <v>376</v>
       </c>
       <c r="C375">
@@ -5834,7 +5846,7 @@
       <c r="A376">
         <v>7618</v>
       </c>
-      <c r="B376" s="31" t="s">
+      <c r="B376" s="37" t="s">
         <v>377</v>
       </c>
       <c r="C376">
@@ -5845,7 +5857,7 @@
       <c r="A377">
         <v>7620</v>
       </c>
-      <c r="B377" s="31" t="s">
+      <c r="B377" s="37" t="s">
         <v>378</v>
       </c>
       <c r="C377">
@@ -5856,7 +5868,7 @@
       <c r="A378">
         <v>7621</v>
       </c>
-      <c r="B378" s="31" t="s">
+      <c r="B378" s="37" t="s">
         <v>379</v>
       </c>
       <c r="C378">
@@ -5867,7 +5879,7 @@
       <c r="A379">
         <v>7622</v>
       </c>
-      <c r="B379" s="31" t="s">
+      <c r="B379" s="37" t="s">
         <v>380</v>
       </c>
       <c r="C379">
@@ -5878,7 +5890,7 @@
       <c r="A380">
         <v>7623</v>
       </c>
-      <c r="B380" s="31" t="s">
+      <c r="B380" s="37" t="s">
         <v>381</v>
       </c>
       <c r="C380">
@@ -5889,7 +5901,7 @@
       <c r="A381">
         <v>7630</v>
       </c>
-      <c r="B381" s="31" t="s">
+      <c r="B381" s="37" t="s">
         <v>382</v>
       </c>
       <c r="C381">
@@ -5900,7 +5912,7 @@
       <c r="A382">
         <v>7631</v>
       </c>
-      <c r="B382" s="31" t="s">
+      <c r="B382" s="37" t="s">
         <v>383</v>
       </c>
       <c r="C382">
@@ -5911,7 +5923,7 @@
       <c r="A383">
         <v>7632</v>
       </c>
-      <c r="B383" s="31" t="s">
+      <c r="B383" s="37" t="s">
         <v>384</v>
       </c>
       <c r="C383">
@@ -5922,7 +5934,7 @@
       <c r="A384">
         <v>7633</v>
       </c>
-      <c r="B384" s="31" t="s">
+      <c r="B384" s="37" t="s">
         <v>385</v>
       </c>
       <c r="C384">
@@ -5933,7 +5945,7 @@
       <c r="A385">
         <v>7640</v>
       </c>
-      <c r="B385" s="31" t="s">
+      <c r="B385" s="37" t="s">
         <v>386</v>
       </c>
       <c r="C385">
@@ -5944,7 +5956,7 @@
       <c r="A386">
         <v>7641</v>
       </c>
-      <c r="B386" s="31" t="s">
+      <c r="B386" s="37" t="s">
         <v>387</v>
       </c>
       <c r="C386">
@@ -5955,7 +5967,7 @@
       <c r="A387">
         <v>7642</v>
       </c>
-      <c r="B387" s="31" t="s">
+      <c r="B387" s="37" t="s">
         <v>388</v>
       </c>
       <c r="C387">
@@ -5966,7 +5978,7 @@
       <c r="A388">
         <v>7643</v>
       </c>
-      <c r="B388" s="31" t="s">
+      <c r="B388" s="37" t="s">
         <v>389</v>
       </c>
       <c r="C388">
@@ -5977,7 +5989,7 @@
       <c r="A389">
         <v>7650</v>
       </c>
-      <c r="B389" s="31" t="s">
+      <c r="B389" s="37" t="s">
         <v>390</v>
       </c>
       <c r="C389">
@@ -5988,7 +6000,7 @@
       <c r="A390">
         <v>7651</v>
       </c>
-      <c r="B390" s="31" t="s">
+      <c r="B390" s="37" t="s">
         <v>391</v>
       </c>
       <c r="C390">
@@ -5999,7 +6011,7 @@
       <c r="A391">
         <v>7652</v>
       </c>
-      <c r="B391" s="31" t="s">
+      <c r="B391" s="37" t="s">
         <v>392</v>
       </c>
       <c r="C391">
@@ -6010,7 +6022,7 @@
       <c r="A392">
         <v>7653</v>
       </c>
-      <c r="B392" s="31" t="s">
+      <c r="B392" s="37" t="s">
         <v>393</v>
       </c>
       <c r="C392">
@@ -6021,7 +6033,7 @@
       <c r="A393">
         <v>7654</v>
       </c>
-      <c r="B393" s="31" t="s">
+      <c r="B393" s="37" t="s">
         <v>394</v>
       </c>
       <c r="C393">
@@ -6032,7 +6044,7 @@
       <c r="A394">
         <v>7660</v>
       </c>
-      <c r="B394" s="31" t="s">
+      <c r="B394" s="37" t="s">
         <v>395</v>
       </c>
       <c r="C394">
@@ -6043,7 +6055,7 @@
       <c r="A395">
         <v>7661</v>
       </c>
-      <c r="B395" s="31" t="s">
+      <c r="B395" s="37" t="s">
         <v>396</v>
       </c>
       <c r="C395">
@@ -6054,7 +6066,7 @@
       <c r="A396">
         <v>7662</v>
       </c>
-      <c r="B396" s="31" t="s">
+      <c r="B396" s="37" t="s">
         <v>397</v>
       </c>
       <c r="C396">
@@ -6065,7 +6077,7 @@
       <c r="A397">
         <v>7663</v>
       </c>
-      <c r="B397" s="31" t="s">
+      <c r="B397" s="37" t="s">
         <v>398</v>
       </c>
       <c r="C397">
@@ -6076,7 +6088,7 @@
       <c r="A398">
         <v>7664</v>
       </c>
-      <c r="B398" s="31" t="s">
+      <c r="B398" s="37" t="s">
         <v>399</v>
       </c>
       <c r="C398">
@@ -6087,7 +6099,7 @@
       <c r="A399">
         <v>7681</v>
       </c>
-      <c r="B399" s="31" t="s">
+      <c r="B399" s="37" t="s">
         <v>400</v>
       </c>
       <c r="C399">
@@ -6098,7 +6110,7 @@
       <c r="A400">
         <v>7682</v>
       </c>
-      <c r="B400" s="31" t="s">
+      <c r="B400" s="37" t="s">
         <v>401</v>
       </c>
       <c r="C400">
@@ -6109,7 +6121,7 @@
       <c r="A401">
         <v>7683</v>
       </c>
-      <c r="B401" s="31" t="s">
+      <c r="B401" s="37" t="s">
         <v>402</v>
       </c>
       <c r="C401">
@@ -6120,7 +6132,7 @@
       <c r="A402">
         <v>7686</v>
       </c>
-      <c r="B402" s="31" t="s">
+      <c r="B402" s="37" t="s">
         <v>403</v>
       </c>
       <c r="C402">
@@ -6131,7 +6143,7 @@
       <c r="A403">
         <v>7687</v>
       </c>
-      <c r="B403" s="31" t="s">
+      <c r="B403" s="37" t="s">
         <v>404</v>
       </c>
       <c r="C403">
@@ -6142,7 +6154,7 @@
       <c r="A404">
         <v>7701</v>
       </c>
-      <c r="B404" s="31" t="s">
+      <c r="B404" s="37" t="s">
         <v>405</v>
       </c>
       <c r="C404">
@@ -6153,7 +6165,7 @@
       <c r="A405">
         <v>7711</v>
       </c>
-      <c r="B405" s="31" t="s">
+      <c r="B405" s="37" t="s">
         <v>406</v>
       </c>
       <c r="C405">
@@ -6164,7 +6176,7 @@
       <c r="A406">
         <v>7721</v>
       </c>
-      <c r="B406" s="31" t="s">
+      <c r="B406" s="37" t="s">
         <v>407</v>
       </c>
       <c r="C406">
@@ -6175,7 +6187,7 @@
       <c r="A407">
         <v>7731</v>
       </c>
-      <c r="B407" s="31" t="s">
+      <c r="B407" s="37" t="s">
         <v>408</v>
       </c>
       <c r="C407">
@@ -6186,7 +6198,7 @@
       <c r="A408">
         <v>7732</v>
       </c>
-      <c r="B408" s="31" t="s">
+      <c r="B408" s="37" t="s">
         <v>409</v>
       </c>
       <c r="C408">
@@ -6197,7 +6209,7 @@
       <c r="A409">
         <v>7733</v>
       </c>
-      <c r="B409" s="31" t="s">
+      <c r="B409" s="37" t="s">
         <v>410</v>
       </c>
       <c r="C409">
@@ -6208,7 +6220,7 @@
       <c r="A410">
         <v>7734</v>
       </c>
-      <c r="B410" s="31" t="s">
+      <c r="B410" s="37" t="s">
         <v>411</v>
       </c>
       <c r="C410">
@@ -6219,7 +6231,7 @@
       <c r="A411">
         <v>7735</v>
       </c>
-      <c r="B411" s="31" t="s">
+      <c r="B411" s="37" t="s">
         <v>412</v>
       </c>
       <c r="C411">
@@ -6230,7 +6242,7 @@
       <c r="A412">
         <v>7741</v>
       </c>
-      <c r="B412" s="31" t="s">
+      <c r="B412" s="37" t="s">
         <v>413</v>
       </c>
       <c r="C412">
@@ -6241,7 +6253,7 @@
       <c r="A413">
         <v>7751</v>
       </c>
-      <c r="B413" s="31" t="s">
+      <c r="B413" s="37" t="s">
         <v>414</v>
       </c>
       <c r="C413">
@@ -6252,7 +6264,7 @@
       <c r="A414">
         <v>7764</v>
       </c>
-      <c r="B414" s="31" t="s">
+      <c r="B414" s="37" t="s">
         <v>415</v>
       </c>
       <c r="C414">
@@ -6263,7 +6275,7 @@
       <c r="A415">
         <v>7771</v>
       </c>
-      <c r="B415" s="31" t="s">
+      <c r="B415" s="37" t="s">
         <v>416</v>
       </c>
       <c r="C415">
@@ -6274,7 +6286,7 @@
       <c r="A416">
         <v>7772</v>
       </c>
-      <c r="B416" s="31" t="s">
+      <c r="B416" s="37" t="s">
         <v>417</v>
       </c>
       <c r="C416">
@@ -6285,7 +6297,7 @@
       <c r="A417">
         <v>7801</v>
       </c>
-      <c r="B417" s="31" t="s">
+      <c r="B417" s="37" t="s">
         <v>418</v>
       </c>
       <c r="C417">
@@ -6296,7 +6308,7 @@
       <c r="A418">
         <v>7811</v>
       </c>
-      <c r="B418" s="31" t="s">
+      <c r="B418" s="37" t="s">
         <v>419</v>
       </c>
       <c r="C418">
@@ -6307,7 +6319,7 @@
       <c r="A419">
         <v>7813</v>
       </c>
-      <c r="B419" s="31" t="s">
+      <c r="B419" s="37" t="s">
         <v>420</v>
       </c>
       <c r="C419">
@@ -6318,7 +6330,7 @@
       <c r="A420">
         <v>7817</v>
       </c>
-      <c r="B420" s="31" t="s">
+      <c r="B420" s="37" t="s">
         <v>421</v>
       </c>
       <c r="C420">
@@ -6329,7 +6341,7 @@
       <c r="A421">
         <v>7820</v>
       </c>
-      <c r="B421" s="31" t="s">
+      <c r="B421" s="37" t="s">
         <v>422</v>
       </c>
       <c r="C421">
@@ -6340,7 +6352,7 @@
       <c r="A422">
         <v>7821</v>
       </c>
-      <c r="B422" s="31" t="s">
+      <c r="B422" s="37" t="s">
         <v>423</v>
       </c>
       <c r="C422">
@@ -6351,7 +6363,7 @@
       <c r="A423">
         <v>7822</v>
       </c>
-      <c r="B423" s="31" t="s">
+      <c r="B423" s="37" t="s">
         <v>424</v>
       </c>
       <c r="C423">
@@ -6362,7 +6374,7 @@
       <c r="A424">
         <v>7823</v>
       </c>
-      <c r="B424" s="31" t="s">
+      <c r="B424" s="37" t="s">
         <v>425</v>
       </c>
       <c r="C424">
@@ -6373,7 +6385,7 @@
       <c r="A425">
         <v>7824</v>
       </c>
-      <c r="B425" s="31" t="s">
+      <c r="B425" s="37" t="s">
         <v>426</v>
       </c>
       <c r="C425">
@@ -6384,7 +6396,7 @@
       <c r="A426">
         <v>7825</v>
       </c>
-      <c r="B426" s="31" t="s">
+      <c r="B426" s="37" t="s">
         <v>427</v>
       </c>
       <c r="C426">
@@ -6395,7 +6407,7 @@
       <c r="A427">
         <v>7826</v>
       </c>
-      <c r="B427" s="31" t="s">
+      <c r="B427" s="37" t="s">
         <v>428</v>
       </c>
       <c r="C427">
@@ -6406,7 +6418,7 @@
       <c r="A428">
         <v>7827</v>
       </c>
-      <c r="B428" s="31" t="s">
+      <c r="B428" s="37" t="s">
         <v>429</v>
       </c>
       <c r="C428">
@@ -6417,7 +6429,7 @@
       <c r="A429">
         <v>7828</v>
       </c>
-      <c r="B429" s="31" t="s">
+      <c r="B429" s="37" t="s">
         <v>430</v>
       </c>
       <c r="C429">
@@ -6428,7 +6440,7 @@
       <c r="A430">
         <v>7831</v>
       </c>
-      <c r="B430" s="31" t="s">
+      <c r="B430" s="37" t="s">
         <v>431</v>
       </c>
       <c r="C430">
@@ -6439,7 +6451,7 @@
       <c r="A431">
         <v>7832</v>
       </c>
-      <c r="B431" s="31" t="s">
+      <c r="B431" s="37" t="s">
         <v>432</v>
       </c>
       <c r="C431">
@@ -6450,7 +6462,7 @@
       <c r="A432">
         <v>7841</v>
       </c>
-      <c r="B432" s="31" t="s">
+      <c r="B432" s="37" t="s">
         <v>433</v>
       </c>
       <c r="C432">
@@ -6461,7 +6473,7 @@
       <c r="A433">
         <v>7842</v>
       </c>
-      <c r="B433" s="31" t="s">
+      <c r="B433" s="37" t="s">
         <v>434</v>
       </c>
       <c r="C433">
@@ -6472,7 +6484,7 @@
       <c r="A434">
         <v>-1</v>
       </c>
-      <c r="B434" s="31" t="s">
+      <c r="B434" s="37" t="s">
         <v>300</v>
       </c>
       <c r="C434">
@@ -6483,7 +6495,7 @@
       <c r="A435">
         <v>8101</v>
       </c>
-      <c r="B435" s="31" t="s">
+      <c r="B435" s="37" t="s">
         <v>435</v>
       </c>
       <c r="C435">
@@ -6494,7 +6506,7 @@
       <c r="A436">
         <v>8102</v>
       </c>
-      <c r="B436" s="31" t="s">
+      <c r="B436" s="37" t="s">
         <v>436</v>
       </c>
       <c r="C436">
@@ -6505,7 +6517,7 @@
       <c r="A437">
         <v>8103</v>
       </c>
-      <c r="B437" s="31" t="s">
+      <c r="B437" s="37" t="s">
         <v>437</v>
       </c>
       <c r="C437">
@@ -6516,7 +6528,7 @@
       <c r="A438">
         <v>8110</v>
       </c>
-      <c r="B438" s="31" t="s">
+      <c r="B438" s="37" t="s">
         <v>438</v>
       </c>
       <c r="C438">
@@ -6527,7 +6539,7 @@
       <c r="A439">
         <v>8111</v>
       </c>
-      <c r="B439" s="31" t="s">
+      <c r="B439" s="37" t="s">
         <v>439</v>
       </c>
       <c r="C439">
@@ -6538,7 +6550,7 @@
       <c r="A440">
         <v>8112</v>
       </c>
-      <c r="B440" s="31" t="s">
+      <c r="B440" s="37" t="s">
         <v>440</v>
       </c>
       <c r="C440">
@@ -6549,7 +6561,7 @@
       <c r="A441">
         <v>8113</v>
       </c>
-      <c r="B441" s="31" t="s">
+      <c r="B441" s="37" t="s">
         <v>441</v>
       </c>
       <c r="C441">
@@ -6560,7 +6572,7 @@
       <c r="A442">
         <v>8114</v>
       </c>
-      <c r="B442" s="31" t="s">
+      <c r="B442" s="37" t="s">
         <v>442</v>
       </c>
       <c r="C442">
@@ -6571,7 +6583,7 @@
       <c r="A443">
         <v>8115</v>
       </c>
-      <c r="B443" s="31" t="s">
+      <c r="B443" s="37" t="s">
         <v>443</v>
       </c>
       <c r="C443">
@@ -6582,7 +6594,7 @@
       <c r="A444">
         <v>8116</v>
       </c>
-      <c r="B444" s="31" t="s">
+      <c r="B444" s="37" t="s">
         <v>444</v>
       </c>
       <c r="C444">
@@ -6593,7 +6605,7 @@
       <c r="A445">
         <v>8117</v>
       </c>
-      <c r="B445" s="31" t="s">
+      <c r="B445" s="37" t="s">
         <v>445</v>
       </c>
       <c r="C445">
@@ -6604,7 +6616,7 @@
       <c r="A446">
         <v>8118</v>
       </c>
-      <c r="B446" s="31" t="s">
+      <c r="B446" s="37" t="s">
         <v>446</v>
       </c>
       <c r="C446">
@@ -6615,7 +6627,7 @@
       <c r="A447">
         <v>8121</v>
       </c>
-      <c r="B447" s="31" t="s">
+      <c r="B447" s="37" t="s">
         <v>447</v>
       </c>
       <c r="C447">
@@ -6626,7 +6638,7 @@
       <c r="A448">
         <v>8131</v>
       </c>
-      <c r="B448" s="31" t="s">
+      <c r="B448" s="37" t="s">
         <v>448</v>
       </c>
       <c r="C448">
@@ -6637,7 +6649,7 @@
       <c r="A449">
         <v>8181</v>
       </c>
-      <c r="B449" s="31" t="s">
+      <c r="B449" s="37" t="s">
         <v>449</v>
       </c>
       <c r="C449">
@@ -6648,7 +6660,7 @@
       <c r="A450">
         <v>8201</v>
       </c>
-      <c r="B450" s="31" t="s">
+      <c r="B450" s="37" t="s">
         <v>450</v>
       </c>
       <c r="C450">
@@ -6659,7 +6671,7 @@
       <c r="A451">
         <v>8202</v>
       </c>
-      <c r="B451" s="31" t="s">
+      <c r="B451" s="37" t="s">
         <v>451</v>
       </c>
       <c r="C451">
@@ -6670,7 +6682,7 @@
       <c r="A452">
         <v>8211</v>
       </c>
-      <c r="B452" s="31" t="s">
+      <c r="B452" s="37" t="s">
         <v>452</v>
       </c>
       <c r="C452">
@@ -6681,7 +6693,7 @@
       <c r="A453">
         <v>8212</v>
       </c>
-      <c r="B453" s="31" t="s">
+      <c r="B453" s="37" t="s">
         <v>453</v>
       </c>
       <c r="C453">
@@ -6692,7 +6704,7 @@
       <c r="A454">
         <v>8213</v>
       </c>
-      <c r="B454" s="31" t="s">
+      <c r="B454" s="37" t="s">
         <v>454</v>
       </c>
       <c r="C454">
@@ -6703,7 +6715,7 @@
       <c r="A455">
         <v>8214</v>
       </c>
-      <c r="B455" s="31" t="s">
+      <c r="B455" s="37" t="s">
         <v>455</v>
       </c>
       <c r="C455">
@@ -6714,7 +6726,7 @@
       <c r="A456">
         <v>8221</v>
       </c>
-      <c r="B456" s="31" t="s">
+      <c r="B456" s="37" t="s">
         <v>456</v>
       </c>
       <c r="C456">
@@ -6725,7 +6737,7 @@
       <c r="A457">
         <v>8231</v>
       </c>
-      <c r="B457" s="31" t="s">
+      <c r="B457" s="37" t="s">
         <v>457</v>
       </c>
       <c r="C457">
@@ -6736,7 +6748,7 @@
       <c r="A458">
         <v>8232</v>
       </c>
-      <c r="B458" s="31" t="s">
+      <c r="B458" s="37" t="s">
         <v>458</v>
       </c>
       <c r="C458">
@@ -6747,7 +6759,7 @@
       <c r="A459">
         <v>8233</v>
       </c>
-      <c r="B459" s="31" t="s">
+      <c r="B459" s="37" t="s">
         <v>459</v>
       </c>
       <c r="C459">
@@ -6758,7 +6770,7 @@
       <c r="A460">
         <v>8281</v>
       </c>
-      <c r="B460" s="31" t="s">
+      <c r="B460" s="37" t="s">
         <v>460</v>
       </c>
       <c r="C460">
@@ -6769,7 +6781,7 @@
       <c r="A461">
         <v>8301</v>
       </c>
-      <c r="B461" s="31" t="s">
+      <c r="B461" s="37" t="s">
         <v>461</v>
       </c>
       <c r="C461">
@@ -6780,7 +6792,7 @@
       <c r="A462">
         <v>8311</v>
       </c>
-      <c r="B462" s="31" t="s">
+      <c r="B462" s="37" t="s">
         <v>462</v>
       </c>
       <c r="C462">
@@ -6791,7 +6803,7 @@
       <c r="A463">
         <v>8321</v>
       </c>
-      <c r="B463" s="31" t="s">
+      <c r="B463" s="37" t="s">
         <v>463</v>
       </c>
       <c r="C463">
@@ -6802,7 +6814,7 @@
       <c r="A464">
         <v>8339</v>
       </c>
-      <c r="B464" s="31" t="s">
+      <c r="B464" s="37" t="s">
         <v>464</v>
       </c>
       <c r="C464">
@@ -6813,7 +6825,7 @@
       <c r="A465">
         <v>8401</v>
       </c>
-      <c r="B465" s="31" t="s">
+      <c r="B465" s="37" t="s">
         <v>465</v>
       </c>
       <c r="C465">
@@ -6824,7 +6836,7 @@
       <c r="A466">
         <v>8411</v>
       </c>
-      <c r="B466" s="31" t="s">
+      <c r="B466" s="37" t="s">
         <v>466</v>
       </c>
       <c r="C466">
@@ -6835,7 +6847,7 @@
       <c r="A467">
         <v>8412</v>
       </c>
-      <c r="B467" s="31" t="s">
+      <c r="B467" s="37" t="s">
         <v>467</v>
       </c>
       <c r="C467">
@@ -6846,7 +6858,7 @@
       <c r="A468">
         <v>8413</v>
       </c>
-      <c r="B468" s="31" t="s">
+      <c r="B468" s="37" t="s">
         <v>468</v>
       </c>
       <c r="C468">
@@ -6857,7 +6869,7 @@
       <c r="A469">
         <v>8416</v>
       </c>
-      <c r="B469" s="31" t="s">
+      <c r="B469" s="37" t="s">
         <v>469</v>
       </c>
       <c r="C469">
@@ -6868,7 +6880,7 @@
       <c r="A470">
         <v>8417</v>
       </c>
-      <c r="B470" s="31" t="s">
+      <c r="B470" s="37" t="s">
         <v>470</v>
       </c>
       <c r="C470">
@@ -6879,7 +6891,7 @@
       <c r="A471">
         <v>8421</v>
       </c>
-      <c r="B471" s="31" t="s">
+      <c r="B471" s="37" t="s">
         <v>471</v>
       </c>
       <c r="C471">
@@ -6890,7 +6902,7 @@
       <c r="A472">
         <v>8423</v>
       </c>
-      <c r="B472" s="31" t="s">
+      <c r="B472" s="37" t="s">
         <v>472</v>
       </c>
       <c r="C472">
@@ -6901,7 +6913,7 @@
       <c r="A473">
         <v>8429</v>
       </c>
-      <c r="B473" s="31" t="s">
+      <c r="B473" s="37" t="s">
         <v>473</v>
       </c>
       <c r="C473">
@@ -6912,7 +6924,7 @@
       <c r="A474">
         <v>8484</v>
       </c>
-      <c r="B474" s="31" t="s">
+      <c r="B474" s="37" t="s">
         <v>474</v>
       </c>
       <c r="C474">
@@ -6923,7 +6935,7 @@
       <c r="A475">
         <v>8485</v>
       </c>
-      <c r="B475" s="31" t="s">
+      <c r="B475" s="37" t="s">
         <v>475</v>
       </c>
       <c r="C475">
@@ -6934,7 +6946,7 @@
       <c r="A476">
         <v>8491</v>
       </c>
-      <c r="B476" s="31" t="s">
+      <c r="B476" s="37" t="s">
         <v>476</v>
       </c>
       <c r="C476">
@@ -6945,7 +6957,7 @@
       <c r="A477">
         <v>8492</v>
       </c>
-      <c r="B477" s="31" t="s">
+      <c r="B477" s="37" t="s">
         <v>477</v>
       </c>
       <c r="C477">
@@ -6956,7 +6968,7 @@
       <c r="A478">
         <v>8493</v>
       </c>
-      <c r="B478" s="31" t="s">
+      <c r="B478" s="37" t="s">
         <v>478</v>
       </c>
       <c r="C478">
@@ -6967,7 +6979,7 @@
       <c r="A479">
         <v>8601</v>
       </c>
-      <c r="B479" s="31" t="s">
+      <c r="B479" s="37" t="s">
         <v>479</v>
       </c>
       <c r="C479">
@@ -6978,7 +6990,7 @@
       <c r="A480">
         <v>8611</v>
       </c>
-      <c r="B480" s="31" t="s">
+      <c r="B480" s="37" t="s">
         <v>480</v>
       </c>
       <c r="C480">
@@ -6989,7 +7001,7 @@
       <c r="A481">
         <v>8612</v>
       </c>
-      <c r="B481" s="31" t="s">
+      <c r="B481" s="37" t="s">
         <v>481</v>
       </c>
       <c r="C481">
@@ -7000,7 +7012,7 @@
       <c r="A482">
         <v>8621</v>
       </c>
-      <c r="B482" s="31" t="s">
+      <c r="B482" s="37" t="s">
         <v>482</v>
       </c>
       <c r="C482">
@@ -7011,7 +7023,7 @@
       <c r="A483">
         <v>8622</v>
       </c>
-      <c r="B483" s="31" t="s">
+      <c r="B483" s="37" t="s">
         <v>483</v>
       </c>
       <c r="C483">
@@ -7022,7 +7034,7 @@
       <c r="A484">
         <v>8623</v>
       </c>
-      <c r="B484" s="31" t="s">
+      <c r="B484" s="37" t="s">
         <v>484</v>
       </c>
       <c r="C484">
@@ -7033,7 +7045,7 @@
       <c r="A485">
         <v>8624</v>
       </c>
-      <c r="B485" s="31" t="s">
+      <c r="B485" s="37" t="s">
         <v>485</v>
       </c>
       <c r="C485">
@@ -7044,7 +7056,7 @@
       <c r="A486">
         <v>8625</v>
       </c>
-      <c r="B486" s="31" t="s">
+      <c r="B486" s="37" t="s">
         <v>486</v>
       </c>
       <c r="C486">
@@ -7055,7 +7067,7 @@
       <c r="A487">
         <v>8711</v>
       </c>
-      <c r="B487" s="31" t="s">
+      <c r="B487" s="37" t="s">
         <v>487</v>
       </c>
       <c r="C487">
@@ -7066,7 +7078,7 @@
       <c r="A488">
         <v>-1</v>
       </c>
-      <c r="B488" s="31" t="s">
+      <c r="B488" s="37" t="s">
         <v>488</v>
       </c>
       <c r="C488">
@@ -7077,7 +7089,7 @@
       <c r="A489">
         <v>9101</v>
       </c>
-      <c r="B489" s="31" t="s">
+      <c r="B489" s="37" t="s">
         <v>489</v>
       </c>
       <c r="C489">
@@ -7088,7 +7100,7 @@
       <c r="A490">
         <v>9102</v>
       </c>
-      <c r="B490" s="31" t="s">
+      <c r="B490" s="37" t="s">
         <v>490</v>
       </c>
       <c r="C490">
@@ -7099,7 +7111,7 @@
       <c r="A491">
         <v>9109</v>
       </c>
-      <c r="B491" s="31" t="s">
+      <c r="B491" s="37" t="s">
         <v>491</v>
       </c>
       <c r="C491">
@@ -7110,7 +7122,7 @@
       <c r="A492">
         <v>9111</v>
       </c>
-      <c r="B492" s="31" t="s">
+      <c r="B492" s="37" t="s">
         <v>492</v>
       </c>
       <c r="C492">
@@ -7121,7 +7133,7 @@
       <c r="A493">
         <v>9112</v>
       </c>
-      <c r="B493" s="31" t="s">
+      <c r="B493" s="37" t="s">
         <v>493</v>
       </c>
       <c r="C493">
@@ -7132,7 +7144,7 @@
       <c r="A494">
         <v>9113</v>
       </c>
-      <c r="B494" s="31" t="s">
+      <c r="B494" s="37" t="s">
         <v>494</v>
       </c>
       <c r="C494">
@@ -7143,7 +7155,7 @@
       <c r="A495">
         <v>9131</v>
       </c>
-      <c r="B495" s="31" t="s">
+      <c r="B495" s="37" t="s">
         <v>495</v>
       </c>
       <c r="C495">
@@ -7154,7 +7166,7 @@
       <c r="A496">
         <v>9141</v>
       </c>
-      <c r="B496" s="31" t="s">
+      <c r="B496" s="37" t="s">
         <v>496</v>
       </c>
       <c r="C496">
@@ -7165,7 +7177,7 @@
       <c r="A497">
         <v>9142</v>
       </c>
-      <c r="B497" s="31" t="s">
+      <c r="B497" s="37" t="s">
         <v>497</v>
       </c>
       <c r="C497">
@@ -7176,7 +7188,7 @@
       <c r="A498">
         <v>9143</v>
       </c>
-      <c r="B498" s="31" t="s">
+      <c r="B498" s="37" t="s">
         <v>498</v>
       </c>
       <c r="C498">
@@ -7187,7 +7199,7 @@
       <c r="A499">
         <v>9144</v>
       </c>
-      <c r="B499" s="31" t="s">
+      <c r="B499" s="37" t="s">
         <v>499</v>
       </c>
       <c r="C499">
@@ -7198,7 +7210,7 @@
       <c r="A500">
         <v>9151</v>
       </c>
-      <c r="B500" s="31" t="s">
+      <c r="B500" s="37" t="s">
         <v>500</v>
       </c>
       <c r="C500">
@@ -7209,7 +7221,7 @@
       <c r="A501">
         <v>9152</v>
       </c>
-      <c r="B501" s="31" t="s">
+      <c r="B501" s="37" t="s">
         <v>501</v>
       </c>
       <c r="C501">
@@ -7220,7 +7232,7 @@
       <c r="A502">
         <v>9153</v>
       </c>
-      <c r="B502" s="31" t="s">
+      <c r="B502" s="37" t="s">
         <v>502</v>
       </c>
       <c r="C502">
@@ -7231,7 +7243,7 @@
       <c r="A503">
         <v>9154</v>
       </c>
-      <c r="B503" s="31" t="s">
+      <c r="B503" s="37" t="s">
         <v>503</v>
       </c>
       <c r="C503">
@@ -7242,7 +7254,7 @@
       <c r="A504">
         <v>9191</v>
       </c>
-      <c r="B504" s="31" t="s">
+      <c r="B504" s="37" t="s">
         <v>504</v>
       </c>
       <c r="C504">
@@ -7253,7 +7265,7 @@
       <c r="A505">
         <v>9192</v>
       </c>
-      <c r="B505" s="31" t="s">
+      <c r="B505" s="37" t="s">
         <v>505</v>
       </c>
       <c r="C505">
@@ -7264,7 +7276,7 @@
       <c r="A506">
         <v>9193</v>
       </c>
-      <c r="B506" s="31" t="s">
+      <c r="B506" s="37" t="s">
         <v>506</v>
       </c>
       <c r="C506">
@@ -7275,7 +7287,7 @@
       <c r="A507">
         <v>9501</v>
       </c>
-      <c r="B507" s="31" t="s">
+      <c r="B507" s="37" t="s">
         <v>507</v>
       </c>
       <c r="C507">
@@ -7286,7 +7298,7 @@
       <c r="A508">
         <v>9502</v>
       </c>
-      <c r="B508" s="31" t="s">
+      <c r="B508" s="37" t="s">
         <v>508</v>
       </c>
       <c r="C508">
@@ -7297,7 +7309,7 @@
       <c r="A509">
         <v>9503</v>
       </c>
-      <c r="B509" s="31" t="s">
+      <c r="B509" s="37" t="s">
         <v>509</v>
       </c>
       <c r="C509">
@@ -7308,7 +7320,7 @@
       <c r="A510">
         <v>9511</v>
       </c>
-      <c r="B510" s="31" t="s">
+      <c r="B510" s="37" t="s">
         <v>510</v>
       </c>
       <c r="C510">
@@ -7319,7 +7331,7 @@
       <c r="A511">
         <v>9513</v>
       </c>
-      <c r="B511" s="31" t="s">
+      <c r="B511" s="37" t="s">
         <v>511</v>
       </c>
       <c r="C511">
@@ -7330,7 +7342,7 @@
       <c r="A512">
         <v>9531</v>
       </c>
-      <c r="B512" s="31" t="s">
+      <c r="B512" s="37" t="s">
         <v>512</v>
       </c>
       <c r="C512">
@@ -7341,7 +7353,7 @@
       <c r="A513">
         <v>9541</v>
       </c>
-      <c r="B513" s="31" t="s">
+      <c r="B513" s="37" t="s">
         <v>513</v>
       </c>
       <c r="C513">
@@ -7352,7 +7364,7 @@
       <c r="A514">
         <v>9542</v>
       </c>
-      <c r="B514" s="31" t="s">
+      <c r="B514" s="37" t="s">
         <v>514</v>
       </c>
       <c r="C514">
@@ -7363,7 +7375,7 @@
       <c r="A515">
         <v>9543</v>
       </c>
-      <c r="B515" s="31" t="s">
+      <c r="B515" s="37" t="s">
         <v>515</v>
       </c>
       <c r="C515">
@@ -7374,7 +7386,7 @@
       <c r="A516">
         <v>9911</v>
       </c>
-      <c r="B516" s="31" t="s">
+      <c r="B516" s="37" t="s">
         <v>516</v>
       </c>
       <c r="C516">
@@ -7385,7 +7397,7 @@
       <c r="A517">
         <v>9912</v>
       </c>
-      <c r="B517" s="31" t="s">
+      <c r="B517" s="37" t="s">
         <v>517</v>
       </c>
       <c r="C517">
@@ -7396,7 +7408,7 @@
       <c r="A518">
         <v>9913</v>
       </c>
-      <c r="B518" s="31" t="s">
+      <c r="B518" s="37" t="s">
         <v>518</v>
       </c>
       <c r="C518">
@@ -7407,7 +7419,7 @@
       <c r="A519">
         <v>9914</v>
       </c>
-      <c r="B519" s="31" t="s">
+      <c r="B519" s="37" t="s">
         <v>519</v>
       </c>
       <c r="C519">
@@ -7418,7 +7430,7 @@
       <c r="A520">
         <v>9921</v>
       </c>
-      <c r="B520" s="31" t="s">
+      <c r="B520" s="37" t="s">
         <v>520</v>
       </c>
       <c r="C520">
@@ -7429,7 +7441,7 @@
       <c r="A521">
         <v>9922</v>
       </c>
-      <c r="B521" s="31" t="s">
+      <c r="B521" s="37" t="s">
         <v>521</v>
       </c>
       <c r="C521">
@@ -7440,7 +7452,7 @@
       <c r="A522">
         <v>-1</v>
       </c>
-      <c r="B522" s="31" t="s">
+      <c r="B522" s="37" t="s">
         <v>522</v>
       </c>
       <c r="C522">
@@ -7451,7 +7463,7 @@
       <c r="A523">
         <v>9999</v>
       </c>
-      <c r="B523" s="31" t="s">
+      <c r="B523" s="37" t="s">
         <v>523</v>
       </c>
       <c r="C523">

--- a/+dataLH/test_files/readTest.xlsx
+++ b/+dataLH/test_files/readTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9995" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10520" uniqueCount="525">
   <si>
     <t>Code</t>
   </si>
@@ -1610,7 +1610,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1656,11 +1656,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1700,6 +1702,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1718,13 +1722,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="39" t="s">
         <v>524</v>
       </c>
     </row>
@@ -1732,7 +1736,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C2">
@@ -1743,7 +1747,7 @@
       <c r="A3">
         <v>-1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -1754,7 +1758,7 @@
       <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="39" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -1765,7 +1769,7 @@
       <c r="A5">
         <v>200</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C5">
@@ -1776,7 +1780,7 @@
       <c r="A6">
         <v>300</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C6">
@@ -1787,7 +1791,7 @@
       <c r="A7">
         <v>401</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C7">
@@ -1798,7 +1802,7 @@
       <c r="A8">
         <v>402</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C8">
@@ -1809,7 +1813,7 @@
       <c r="A9">
         <v>403</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="39" t="s">
         <v>9</v>
       </c>
       <c r="C9">
@@ -1820,7 +1824,7 @@
       <c r="A10">
         <v>411</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="39" t="s">
         <v>10</v>
       </c>
       <c r="C10">
@@ -1831,7 +1835,7 @@
       <c r="A11">
         <v>412</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="39" t="s">
         <v>11</v>
       </c>
       <c r="C11">
@@ -1842,7 +1846,7 @@
       <c r="A12">
         <v>413</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="39" t="s">
         <v>12</v>
       </c>
       <c r="C12">
@@ -1853,7 +1857,7 @@
       <c r="A13">
         <v>501</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="39" t="s">
         <v>13</v>
       </c>
       <c r="C13">
@@ -1864,7 +1868,7 @@
       <c r="A14">
         <v>502</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="39" t="s">
         <v>14</v>
       </c>
       <c r="C14">
@@ -1875,7 +1879,7 @@
       <c r="A15">
         <v>503</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="39" t="s">
         <v>15</v>
       </c>
       <c r="C15">
@@ -1886,7 +1890,7 @@
       <c r="A16">
         <v>511</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="39" t="s">
         <v>16</v>
       </c>
       <c r="C16">
@@ -1897,7 +1901,7 @@
       <c r="A17">
         <v>512</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="39" t="s">
         <v>17</v>
       </c>
       <c r="C17">
@@ -1908,7 +1912,7 @@
       <c r="A18">
         <v>513</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="39" t="s">
         <v>18</v>
       </c>
       <c r="C18">
@@ -1919,7 +1923,7 @@
       <c r="A19">
         <v>-1</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="39" t="s">
         <v>19</v>
       </c>
       <c r="C19">
@@ -1930,7 +1934,7 @@
       <c r="A20">
         <v>1111</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="39" t="s">
         <v>20</v>
       </c>
       <c r="C20">
@@ -1941,7 +1945,7 @@
       <c r="A21">
         <v>1112</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="39" t="s">
         <v>21</v>
       </c>
       <c r="C21">
@@ -1952,7 +1956,7 @@
       <c r="A22">
         <v>1113</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="39" t="s">
         <v>22</v>
       </c>
       <c r="C22">
@@ -1963,7 +1967,7 @@
       <c r="A23">
         <v>1122</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C23">
@@ -1974,7 +1978,7 @@
       <c r="A24">
         <v>1123</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="39" t="s">
         <v>24</v>
       </c>
       <c r="C24">
@@ -1985,7 +1989,7 @@
       <c r="A25">
         <v>1130</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="39" t="s">
         <v>25</v>
       </c>
       <c r="C25">
@@ -1996,7 +2000,7 @@
       <c r="A26">
         <v>1140</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="39" t="s">
         <v>27</v>
       </c>
       <c r="C26">
@@ -2007,7 +2011,7 @@
       <c r="A27">
         <v>1210</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="39" t="s">
         <v>28</v>
       </c>
       <c r="C27">
@@ -2018,7 +2022,7 @@
       <c r="A28">
         <v>1219</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="39" t="s">
         <v>29</v>
       </c>
       <c r="C28">
@@ -2029,7 +2033,7 @@
       <c r="A29">
         <v>1220</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C29">
@@ -2040,7 +2044,7 @@
       <c r="A30">
         <v>1230</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="39" t="s">
         <v>31</v>
       </c>
       <c r="C30">
@@ -2051,7 +2055,7 @@
       <c r="A31">
         <v>1310</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="39" t="s">
         <v>32</v>
       </c>
       <c r="C31">
@@ -2062,7 +2066,7 @@
       <c r="A32">
         <v>1320</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="39" t="s">
         <v>33</v>
       </c>
       <c r="C32">
@@ -2073,7 +2077,7 @@
       <c r="A33">
         <v>-1</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C33">
@@ -2084,7 +2088,7 @@
       <c r="A34">
         <v>2011</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="39" t="s">
         <v>35</v>
       </c>
       <c r="C34">
@@ -2095,7 +2099,7 @@
       <c r="A35">
         <v>2012</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C35">
@@ -2106,7 +2110,7 @@
       <c r="A36">
         <v>2021</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="39" t="s">
         <v>37</v>
       </c>
       <c r="C36">
@@ -2117,7 +2121,7 @@
       <c r="A37">
         <v>2111</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="39" t="s">
         <v>38</v>
       </c>
       <c r="C37">
@@ -2128,7 +2132,7 @@
       <c r="A38">
         <v>2112</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="39" t="s">
         <v>39</v>
       </c>
       <c r="C38">
@@ -2139,7 +2143,7 @@
       <c r="A39">
         <v>2121</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="39" t="s">
         <v>40</v>
       </c>
       <c r="C39">
@@ -2150,7 +2154,7 @@
       <c r="A40">
         <v>2122</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="39" t="s">
         <v>41</v>
       </c>
       <c r="C40">
@@ -2161,7 +2165,7 @@
       <c r="A41">
         <v>2123</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="39" t="s">
         <v>42</v>
       </c>
       <c r="C41">
@@ -2172,7 +2176,7 @@
       <c r="A42">
         <v>2124</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="39" t="s">
         <v>43</v>
       </c>
       <c r="C42">
@@ -2183,7 +2187,7 @@
       <c r="A43">
         <v>2125</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="39" t="s">
         <v>44</v>
       </c>
       <c r="C43">
@@ -2194,7 +2198,7 @@
       <c r="A44">
         <v>2131</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="39" t="s">
         <v>45</v>
       </c>
       <c r="C44">
@@ -2205,7 +2209,7 @@
       <c r="A45">
         <v>2132</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C45">
@@ -2216,7 +2220,7 @@
       <c r="A46">
         <v>2133</v>
       </c>
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="39" t="s">
         <v>47</v>
       </c>
       <c r="C46">
@@ -2227,7 +2231,7 @@
       <c r="A47">
         <v>2134</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="39" t="s">
         <v>48</v>
       </c>
       <c r="C47">
@@ -2238,7 +2242,7 @@
       <c r="A48">
         <v>2140</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C48">
@@ -2249,7 +2253,7 @@
       <c r="A49">
         <v>2141</v>
       </c>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="39" t="s">
         <v>50</v>
       </c>
       <c r="C49">
@@ -2260,7 +2264,7 @@
       <c r="A50">
         <v>2142</v>
       </c>
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="39" t="s">
         <v>51</v>
       </c>
       <c r="C50">
@@ -2271,7 +2275,7 @@
       <c r="A51">
         <v>2143</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="39" t="s">
         <v>52</v>
       </c>
       <c r="C51">
@@ -2282,7 +2286,7 @@
       <c r="A52">
         <v>2144</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="39" t="s">
         <v>53</v>
       </c>
       <c r="C52">
@@ -2293,7 +2297,7 @@
       <c r="A53">
         <v>2145</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="39" t="s">
         <v>54</v>
       </c>
       <c r="C53">
@@ -2304,7 +2308,7 @@
       <c r="A54">
         <v>2146</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="39" t="s">
         <v>55</v>
       </c>
       <c r="C54">
@@ -2315,7 +2319,7 @@
       <c r="A55">
         <v>2147</v>
       </c>
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="39" t="s">
         <v>56</v>
       </c>
       <c r="C55">
@@ -2326,7 +2330,7 @@
       <c r="A56">
         <v>2148</v>
       </c>
-      <c r="B56" s="37" t="s">
+      <c r="B56" s="39" t="s">
         <v>57</v>
       </c>
       <c r="C56">
@@ -2337,7 +2341,7 @@
       <c r="A57">
         <v>2149</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="39" t="s">
         <v>58</v>
       </c>
       <c r="C57">
@@ -2348,7 +2352,7 @@
       <c r="A58">
         <v>2151</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="39" t="s">
         <v>59</v>
       </c>
       <c r="C58">
@@ -2359,7 +2363,7 @@
       <c r="A59">
         <v>2152</v>
       </c>
-      <c r="B59" s="37" t="s">
+      <c r="B59" s="39" t="s">
         <v>60</v>
       </c>
       <c r="C59">
@@ -2370,7 +2374,7 @@
       <c r="A60">
         <v>2153</v>
       </c>
-      <c r="B60" s="37" t="s">
+      <c r="B60" s="39" t="s">
         <v>61</v>
       </c>
       <c r="C60">
@@ -2381,7 +2385,7 @@
       <c r="A61">
         <v>2211</v>
       </c>
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="39" t="s">
         <v>62</v>
       </c>
       <c r="C61">
@@ -2392,7 +2396,7 @@
       <c r="A62">
         <v>2221</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C62">
@@ -2403,7 +2407,7 @@
       <c r="A63">
         <v>2231</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="39" t="s">
         <v>64</v>
       </c>
       <c r="C63">
@@ -2414,7 +2418,7 @@
       <c r="A64">
         <v>2232</v>
       </c>
-      <c r="B64" s="37" t="s">
+      <c r="B64" s="39" t="s">
         <v>65</v>
       </c>
       <c r="C64">
@@ -2425,7 +2429,7 @@
       <c r="A65">
         <v>2233</v>
       </c>
-      <c r="B65" s="37" t="s">
+      <c r="B65" s="39" t="s">
         <v>66</v>
       </c>
       <c r="C65">
@@ -2436,7 +2440,7 @@
       <c r="A66">
         <v>2234</v>
       </c>
-      <c r="B66" s="37" t="s">
+      <c r="B66" s="39" t="s">
         <v>67</v>
       </c>
       <c r="C66">
@@ -2447,7 +2451,7 @@
       <c r="A67">
         <v>2235</v>
       </c>
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C67">
@@ -2458,7 +2462,7 @@
       <c r="A68">
         <v>2236</v>
       </c>
-      <c r="B68" s="37" t="s">
+      <c r="B68" s="39" t="s">
         <v>69</v>
       </c>
       <c r="C68">
@@ -2469,7 +2473,7 @@
       <c r="A69">
         <v>2237</v>
       </c>
-      <c r="B69" s="37" t="s">
+      <c r="B69" s="39" t="s">
         <v>70</v>
       </c>
       <c r="C69">
@@ -2480,7 +2484,7 @@
       <c r="A70">
         <v>2311</v>
       </c>
-      <c r="B70" s="37" t="s">
+      <c r="B70" s="39" t="s">
         <v>71</v>
       </c>
       <c r="C70">
@@ -2491,7 +2495,7 @@
       <c r="A71">
         <v>2312</v>
       </c>
-      <c r="B71" s="37" t="s">
+      <c r="B71" s="39" t="s">
         <v>72</v>
       </c>
       <c r="C71">
@@ -2502,7 +2506,7 @@
       <c r="A72">
         <v>2313</v>
       </c>
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="39" t="s">
         <v>73</v>
       </c>
       <c r="C72">
@@ -2513,7 +2517,7 @@
       <c r="A73">
         <v>2321</v>
       </c>
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="39" t="s">
         <v>74</v>
       </c>
       <c r="C73">
@@ -2524,7 +2528,7 @@
       <c r="A74">
         <v>2330</v>
       </c>
-      <c r="B74" s="37" t="s">
+      <c r="B74" s="39" t="s">
         <v>75</v>
       </c>
       <c r="C74">
@@ -2535,7 +2539,7 @@
       <c r="A75">
         <v>2340</v>
       </c>
-      <c r="B75" s="37" t="s">
+      <c r="B75" s="39" t="s">
         <v>76</v>
       </c>
       <c r="C75">
@@ -2546,7 +2550,7 @@
       <c r="A76">
         <v>2391</v>
       </c>
-      <c r="B76" s="37" t="s">
+      <c r="B76" s="39" t="s">
         <v>77</v>
       </c>
       <c r="C76">
@@ -2557,7 +2561,7 @@
       <c r="A77">
         <v>2392</v>
       </c>
-      <c r="B77" s="37" t="s">
+      <c r="B77" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C77">
@@ -2568,7 +2572,7 @@
       <c r="A78">
         <v>2394</v>
       </c>
-      <c r="B78" s="37" t="s">
+      <c r="B78" s="39" t="s">
         <v>79</v>
       </c>
       <c r="C78">
@@ -2579,7 +2583,7 @@
       <c r="A79">
         <v>2410</v>
       </c>
-      <c r="B79" s="37" t="s">
+      <c r="B79" s="39" t="s">
         <v>80</v>
       </c>
       <c r="C79">
@@ -2590,7 +2594,7 @@
       <c r="A80">
         <v>2412</v>
       </c>
-      <c r="B80" s="37" t="s">
+      <c r="B80" s="39" t="s">
         <v>81</v>
       </c>
       <c r="C80">
@@ -2601,7 +2605,7 @@
       <c r="A81">
         <v>2419</v>
       </c>
-      <c r="B81" s="37" t="s">
+      <c r="B81" s="39" t="s">
         <v>82</v>
       </c>
       <c r="C81">
@@ -2612,7 +2616,7 @@
       <c r="A82">
         <v>2421</v>
       </c>
-      <c r="B82" s="37" t="s">
+      <c r="B82" s="39" t="s">
         <v>83</v>
       </c>
       <c r="C82">
@@ -2623,7 +2627,7 @@
       <c r="A83">
         <v>2422</v>
       </c>
-      <c r="B83" s="37" t="s">
+      <c r="B83" s="39" t="s">
         <v>84</v>
       </c>
       <c r="C83">
@@ -2634,7 +2638,7 @@
       <c r="A84">
         <v>2423</v>
       </c>
-      <c r="B84" s="37" t="s">
+      <c r="B84" s="39" t="s">
         <v>85</v>
       </c>
       <c r="C84">
@@ -2645,7 +2649,7 @@
       <c r="A85">
         <v>2511</v>
       </c>
-      <c r="B85" s="37" t="s">
+      <c r="B85" s="39" t="s">
         <v>86</v>
       </c>
       <c r="C85">
@@ -2656,7 +2660,7 @@
       <c r="A86">
         <v>2512</v>
       </c>
-      <c r="B86" s="37" t="s">
+      <c r="B86" s="39" t="s">
         <v>87</v>
       </c>
       <c r="C86">
@@ -2667,7 +2671,7 @@
       <c r="A87">
         <v>2513</v>
       </c>
-      <c r="B87" s="37" t="s">
+      <c r="B87" s="39" t="s">
         <v>88</v>
       </c>
       <c r="C87">
@@ -2678,7 +2682,7 @@
       <c r="A88">
         <v>2514</v>
       </c>
-      <c r="B88" s="37" t="s">
+      <c r="B88" s="39" t="s">
         <v>89</v>
       </c>
       <c r="C88">
@@ -2689,7 +2693,7 @@
       <c r="A89">
         <v>2515</v>
       </c>
-      <c r="B89" s="37" t="s">
+      <c r="B89" s="39" t="s">
         <v>90</v>
       </c>
       <c r="C89">
@@ -2700,7 +2704,7 @@
       <c r="A90">
         <v>2516</v>
       </c>
-      <c r="B90" s="37" t="s">
+      <c r="B90" s="39" t="s">
         <v>91</v>
       </c>
       <c r="C90">
@@ -2711,7 +2715,7 @@
       <c r="A91">
         <v>2521</v>
       </c>
-      <c r="B91" s="37" t="s">
+      <c r="B91" s="39" t="s">
         <v>92</v>
       </c>
       <c r="C91">
@@ -2722,7 +2726,7 @@
       <c r="A92">
         <v>2522</v>
       </c>
-      <c r="B92" s="37" t="s">
+      <c r="B92" s="39" t="s">
         <v>93</v>
       </c>
       <c r="C92">
@@ -2733,7 +2737,7 @@
       <c r="A93">
         <v>2523</v>
       </c>
-      <c r="B93" s="37" t="s">
+      <c r="B93" s="39" t="s">
         <v>94</v>
       </c>
       <c r="C93">
@@ -2744,7 +2748,7 @@
       <c r="A94">
         <v>2524</v>
       </c>
-      <c r="B94" s="37" t="s">
+      <c r="B94" s="39" t="s">
         <v>95</v>
       </c>
       <c r="C94">
@@ -2755,7 +2759,7 @@
       <c r="A95">
         <v>2525</v>
       </c>
-      <c r="B95" s="37" t="s">
+      <c r="B95" s="39" t="s">
         <v>96</v>
       </c>
       <c r="C95">
@@ -2766,7 +2770,7 @@
       <c r="A96">
         <v>2531</v>
       </c>
-      <c r="B96" s="37" t="s">
+      <c r="B96" s="39" t="s">
         <v>97</v>
       </c>
       <c r="C96">
@@ -2777,7 +2781,7 @@
       <c r="A97">
         <v>2611</v>
       </c>
-      <c r="B97" s="37" t="s">
+      <c r="B97" s="39" t="s">
         <v>98</v>
       </c>
       <c r="C97">
@@ -2788,7 +2792,7 @@
       <c r="A98">
         <v>2612</v>
       </c>
-      <c r="B98" s="37" t="s">
+      <c r="B98" s="39" t="s">
         <v>99</v>
       </c>
       <c r="C98">
@@ -2799,7 +2803,7 @@
       <c r="A99">
         <v>2613</v>
       </c>
-      <c r="B99" s="37" t="s">
+      <c r="B99" s="39" t="s">
         <v>100</v>
       </c>
       <c r="C99">
@@ -2810,7 +2814,7 @@
       <c r="A100">
         <v>2614</v>
       </c>
-      <c r="B100" s="37" t="s">
+      <c r="B100" s="39" t="s">
         <v>101</v>
       </c>
       <c r="C100">
@@ -2821,7 +2825,7 @@
       <c r="A101">
         <v>2615</v>
       </c>
-      <c r="B101" s="37" t="s">
+      <c r="B101" s="39" t="s">
         <v>102</v>
       </c>
       <c r="C101">
@@ -2832,7 +2836,7 @@
       <c r="A102">
         <v>2616</v>
       </c>
-      <c r="B102" s="37" t="s">
+      <c r="B102" s="39" t="s">
         <v>103</v>
       </c>
       <c r="C102">
@@ -2843,7 +2847,7 @@
       <c r="A103">
         <v>2617</v>
       </c>
-      <c r="B103" s="37" t="s">
+      <c r="B103" s="39" t="s">
         <v>104</v>
       </c>
       <c r="C103">
@@ -2854,7 +2858,7 @@
       <c r="A104">
         <v>2621</v>
       </c>
-      <c r="B104" s="37" t="s">
+      <c r="B104" s="39" t="s">
         <v>105</v>
       </c>
       <c r="C104">
@@ -2865,7 +2869,7 @@
       <c r="A105">
         <v>2622</v>
       </c>
-      <c r="B105" s="37" t="s">
+      <c r="B105" s="39" t="s">
         <v>106</v>
       </c>
       <c r="C105">
@@ -2876,7 +2880,7 @@
       <c r="A106">
         <v>2623</v>
       </c>
-      <c r="B106" s="37" t="s">
+      <c r="B106" s="39" t="s">
         <v>107</v>
       </c>
       <c r="C106">
@@ -2887,7 +2891,7 @@
       <c r="A107">
         <v>2624</v>
       </c>
-      <c r="B107" s="37" t="s">
+      <c r="B107" s="39" t="s">
         <v>108</v>
       </c>
       <c r="C107">
@@ -2898,7 +2902,7 @@
       <c r="A108">
         <v>2625</v>
       </c>
-      <c r="B108" s="37" t="s">
+      <c r="B108" s="39" t="s">
         <v>109</v>
       </c>
       <c r="C108">
@@ -2909,7 +2913,7 @@
       <c r="A109">
         <v>2627</v>
       </c>
-      <c r="B109" s="37" t="s">
+      <c r="B109" s="39" t="s">
         <v>110</v>
       </c>
       <c r="C109">
@@ -2920,7 +2924,7 @@
       <c r="A110">
         <v>2631</v>
       </c>
-      <c r="B110" s="37" t="s">
+      <c r="B110" s="39" t="s">
         <v>111</v>
       </c>
       <c r="C110">
@@ -2931,7 +2935,7 @@
       <c r="A111">
         <v>-1</v>
       </c>
-      <c r="B111" s="37" t="s">
+      <c r="B111" s="39" t="s">
         <v>112</v>
       </c>
       <c r="C111">
@@ -2942,7 +2946,7 @@
       <c r="A112">
         <v>3001</v>
       </c>
-      <c r="B112" s="37" t="s">
+      <c r="B112" s="39" t="s">
         <v>113</v>
       </c>
       <c r="C112">
@@ -2953,7 +2957,7 @@
       <c r="A113">
         <v>3003</v>
       </c>
-      <c r="B113" s="37" t="s">
+      <c r="B113" s="39" t="s">
         <v>114</v>
       </c>
       <c r="C113">
@@ -2964,7 +2968,7 @@
       <c r="A114">
         <v>3011</v>
       </c>
-      <c r="B114" s="37" t="s">
+      <c r="B114" s="39" t="s">
         <v>115</v>
       </c>
       <c r="C114">
@@ -2975,7 +2979,7 @@
       <c r="A115">
         <v>3012</v>
       </c>
-      <c r="B115" s="37" t="s">
+      <c r="B115" s="39" t="s">
         <v>116</v>
       </c>
       <c r="C115">
@@ -2986,7 +2990,7 @@
       <c r="A116">
         <v>3111</v>
       </c>
-      <c r="B116" s="37" t="s">
+      <c r="B116" s="39" t="s">
         <v>117</v>
       </c>
       <c r="C116">
@@ -2997,7 +3001,7 @@
       <c r="A117">
         <v>3112</v>
       </c>
-      <c r="B117" s="37" t="s">
+      <c r="B117" s="39" t="s">
         <v>118</v>
       </c>
       <c r="C117">
@@ -3008,7 +3012,7 @@
       <c r="A118">
         <v>3113</v>
       </c>
-      <c r="B118" s="37" t="s">
+      <c r="B118" s="39" t="s">
         <v>119</v>
       </c>
       <c r="C118">
@@ -3019,7 +3023,7 @@
       <c r="A119">
         <v>3114</v>
       </c>
-      <c r="B119" s="37" t="s">
+      <c r="B119" s="39" t="s">
         <v>120</v>
       </c>
       <c r="C119">
@@ -3030,7 +3034,7 @@
       <c r="A120">
         <v>3115</v>
       </c>
-      <c r="B120" s="37" t="s">
+      <c r="B120" s="39" t="s">
         <v>121</v>
       </c>
       <c r="C120">
@@ -3041,7 +3045,7 @@
       <c r="A121">
         <v>3116</v>
       </c>
-      <c r="B121" s="37" t="s">
+      <c r="B121" s="39" t="s">
         <v>122</v>
       </c>
       <c r="C121">
@@ -3052,7 +3056,7 @@
       <c r="A122">
         <v>3117</v>
       </c>
-      <c r="B122" s="37" t="s">
+      <c r="B122" s="39" t="s">
         <v>123</v>
       </c>
       <c r="C122">
@@ -3063,7 +3067,7 @@
       <c r="A123">
         <v>3121</v>
       </c>
-      <c r="B123" s="37" t="s">
+      <c r="B123" s="39" t="s">
         <v>124</v>
       </c>
       <c r="C123">
@@ -3074,7 +3078,7 @@
       <c r="A124">
         <v>3122</v>
       </c>
-      <c r="B124" s="37" t="s">
+      <c r="B124" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C124">
@@ -3085,7 +3089,7 @@
       <c r="A125">
         <v>3123</v>
       </c>
-      <c r="B125" s="37" t="s">
+      <c r="B125" s="39" t="s">
         <v>126</v>
       </c>
       <c r="C125">
@@ -3096,7 +3100,7 @@
       <c r="A126">
         <v>3131</v>
       </c>
-      <c r="B126" s="37" t="s">
+      <c r="B126" s="39" t="s">
         <v>127</v>
       </c>
       <c r="C126">
@@ -3107,7 +3111,7 @@
       <c r="A127">
         <v>3132</v>
       </c>
-      <c r="B127" s="37" t="s">
+      <c r="B127" s="39" t="s">
         <v>128</v>
       </c>
       <c r="C127">
@@ -3118,7 +3122,7 @@
       <c r="A128">
         <v>3134</v>
       </c>
-      <c r="B128" s="37" t="s">
+      <c r="B128" s="39" t="s">
         <v>129</v>
       </c>
       <c r="C128">
@@ -3129,7 +3133,7 @@
       <c r="A129">
         <v>3135</v>
       </c>
-      <c r="B129" s="37" t="s">
+      <c r="B129" s="39" t="s">
         <v>130</v>
       </c>
       <c r="C129">
@@ -3140,7 +3144,7 @@
       <c r="A130">
         <v>3136</v>
       </c>
-      <c r="B130" s="37" t="s">
+      <c r="B130" s="39" t="s">
         <v>131</v>
       </c>
       <c r="C130">
@@ -3151,7 +3155,7 @@
       <c r="A131">
         <v>3141</v>
       </c>
-      <c r="B131" s="37" t="s">
+      <c r="B131" s="39" t="s">
         <v>132</v>
       </c>
       <c r="C131">
@@ -3162,7 +3166,7 @@
       <c r="A132">
         <v>3142</v>
       </c>
-      <c r="B132" s="37" t="s">
+      <c r="B132" s="39" t="s">
         <v>133</v>
       </c>
       <c r="C132">
@@ -3173,7 +3177,7 @@
       <c r="A133">
         <v>3143</v>
       </c>
-      <c r="B133" s="37" t="s">
+      <c r="B133" s="39" t="s">
         <v>134</v>
       </c>
       <c r="C133">
@@ -3184,7 +3188,7 @@
       <c r="A134">
         <v>3144</v>
       </c>
-      <c r="B134" s="37" t="s">
+      <c r="B134" s="39" t="s">
         <v>135</v>
       </c>
       <c r="C134">
@@ -3195,7 +3199,7 @@
       <c r="A135">
         <v>3146</v>
       </c>
-      <c r="B135" s="37" t="s">
+      <c r="B135" s="39" t="s">
         <v>136</v>
       </c>
       <c r="C135">
@@ -3206,7 +3210,7 @@
       <c r="A136">
         <v>3147</v>
       </c>
-      <c r="B136" s="37" t="s">
+      <c r="B136" s="39" t="s">
         <v>137</v>
       </c>
       <c r="C136">
@@ -3217,7 +3221,7 @@
       <c r="A137">
         <v>3161</v>
       </c>
-      <c r="B137" s="37" t="s">
+      <c r="B137" s="39" t="s">
         <v>138</v>
       </c>
       <c r="C137">
@@ -3228,7 +3232,7 @@
       <c r="A138">
         <v>3162</v>
       </c>
-      <c r="B138" s="37" t="s">
+      <c r="B138" s="39" t="s">
         <v>139</v>
       </c>
       <c r="C138">
@@ -3239,7 +3243,7 @@
       <c r="A139">
         <v>3163</v>
       </c>
-      <c r="B139" s="37" t="s">
+      <c r="B139" s="39" t="s">
         <v>140</v>
       </c>
       <c r="C139">
@@ -3250,7 +3254,7 @@
       <c r="A140">
         <v>3171</v>
       </c>
-      <c r="B140" s="37" t="s">
+      <c r="B140" s="39" t="s">
         <v>141</v>
       </c>
       <c r="C140">
@@ -3261,7 +3265,7 @@
       <c r="A141">
         <v>3172</v>
       </c>
-      <c r="B141" s="37" t="s">
+      <c r="B141" s="39" t="s">
         <v>142</v>
       </c>
       <c r="C141">
@@ -3272,7 +3276,7 @@
       <c r="A142">
         <v>3189</v>
       </c>
-      <c r="B142" s="37" t="s">
+      <c r="B142" s="39" t="s">
         <v>143</v>
       </c>
       <c r="C142">
@@ -3283,7 +3287,7 @@
       <c r="A143">
         <v>3191</v>
       </c>
-      <c r="B143" s="37" t="s">
+      <c r="B143" s="39" t="s">
         <v>144</v>
       </c>
       <c r="C143">
@@ -3294,7 +3298,7 @@
       <c r="A144">
         <v>3192</v>
       </c>
-      <c r="B144" s="37" t="s">
+      <c r="B144" s="39" t="s">
         <v>145</v>
       </c>
       <c r="C144">
@@ -3305,7 +3309,7 @@
       <c r="A145">
         <v>3201</v>
       </c>
-      <c r="B145" s="37" t="s">
+      <c r="B145" s="39" t="s">
         <v>146</v>
       </c>
       <c r="C145">
@@ -3316,7 +3320,7 @@
       <c r="A146">
         <v>3210</v>
       </c>
-      <c r="B146" s="37" t="s">
+      <c r="B146" s="39" t="s">
         <v>147</v>
       </c>
       <c r="C146">
@@ -3327,7 +3331,7 @@
       <c r="A147">
         <v>3211</v>
       </c>
-      <c r="B147" s="37" t="s">
+      <c r="B147" s="39" t="s">
         <v>148</v>
       </c>
       <c r="C147">
@@ -3338,7 +3342,7 @@
       <c r="A148">
         <v>3212</v>
       </c>
-      <c r="B148" s="37" t="s">
+      <c r="B148" s="39" t="s">
         <v>149</v>
       </c>
       <c r="C148">
@@ -3349,7 +3353,7 @@
       <c r="A149">
         <v>3213</v>
       </c>
-      <c r="B149" s="37" t="s">
+      <c r="B149" s="39" t="s">
         <v>150</v>
       </c>
       <c r="C149">
@@ -3360,7 +3364,7 @@
       <c r="A150">
         <v>3214</v>
       </c>
-      <c r="B150" s="37" t="s">
+      <c r="B150" s="39" t="s">
         <v>151</v>
       </c>
       <c r="C150">
@@ -3371,7 +3375,7 @@
       <c r="A151">
         <v>3221</v>
       </c>
-      <c r="B151" s="37" t="s">
+      <c r="B151" s="39" t="s">
         <v>152</v>
       </c>
       <c r="C151">
@@ -3382,7 +3386,7 @@
       <c r="A152">
         <v>3222</v>
       </c>
-      <c r="B152" s="37" t="s">
+      <c r="B152" s="39" t="s">
         <v>153</v>
       </c>
       <c r="C152">
@@ -3393,7 +3397,7 @@
       <c r="A153">
         <v>3223</v>
       </c>
-      <c r="B153" s="37" t="s">
+      <c r="B153" s="39" t="s">
         <v>154</v>
       </c>
       <c r="C153">
@@ -3404,7 +3408,7 @@
       <c r="A154">
         <v>3224</v>
       </c>
-      <c r="B154" s="37" t="s">
+      <c r="B154" s="39" t="s">
         <v>155</v>
       </c>
       <c r="C154">
@@ -3415,7 +3419,7 @@
       <c r="A155">
         <v>3225</v>
       </c>
-      <c r="B155" s="37" t="s">
+      <c r="B155" s="39" t="s">
         <v>156</v>
       </c>
       <c r="C155">
@@ -3426,7 +3430,7 @@
       <c r="A156">
         <v>3231</v>
       </c>
-      <c r="B156" s="37" t="s">
+      <c r="B156" s="39" t="s">
         <v>157</v>
       </c>
       <c r="C156">
@@ -3437,7 +3441,7 @@
       <c r="A157">
         <v>3232</v>
       </c>
-      <c r="B157" s="37" t="s">
+      <c r="B157" s="39" t="s">
         <v>158</v>
       </c>
       <c r="C157">
@@ -3448,7 +3452,7 @@
       <c r="A158">
         <v>3241</v>
       </c>
-      <c r="B158" s="37" t="s">
+      <c r="B158" s="39" t="s">
         <v>159</v>
       </c>
       <c r="C158">
@@ -3459,7 +3463,7 @@
       <c r="A159">
         <v>3242</v>
       </c>
-      <c r="B159" s="37" t="s">
+      <c r="B159" s="39" t="s">
         <v>160</v>
       </c>
       <c r="C159">
@@ -3470,7 +3474,7 @@
       <c r="A160">
         <v>3250</v>
       </c>
-      <c r="B160" s="37" t="s">
+      <c r="B160" s="39" t="s">
         <v>161</v>
       </c>
       <c r="C160">
@@ -3481,7 +3485,7 @@
       <c r="A161">
         <v>3251</v>
       </c>
-      <c r="B161" s="37" t="s">
+      <c r="B161" s="39" t="s">
         <v>162</v>
       </c>
       <c r="C161">
@@ -3492,7 +3496,7 @@
       <c r="A162">
         <v>3252</v>
       </c>
-      <c r="B162" s="37" t="s">
+      <c r="B162" s="39" t="s">
         <v>163</v>
       </c>
       <c r="C162">
@@ -3503,7 +3507,7 @@
       <c r="A163">
         <v>3253</v>
       </c>
-      <c r="B163" s="37" t="s">
+      <c r="B163" s="39" t="s">
         <v>164</v>
       </c>
       <c r="C163">
@@ -3514,7 +3518,7 @@
       <c r="A164">
         <v>3281</v>
       </c>
-      <c r="B164" s="37" t="s">
+      <c r="B164" s="39" t="s">
         <v>165</v>
       </c>
       <c r="C164">
@@ -3525,7 +3529,7 @@
       <c r="A165">
         <v>3311</v>
       </c>
-      <c r="B165" s="37" t="s">
+      <c r="B165" s="39" t="s">
         <v>166</v>
       </c>
       <c r="C165">
@@ -3536,7 +3540,7 @@
       <c r="A166">
         <v>3312</v>
       </c>
-      <c r="B166" s="37" t="s">
+      <c r="B166" s="39" t="s">
         <v>167</v>
       </c>
       <c r="C166">
@@ -3547,7 +3551,7 @@
       <c r="A167">
         <v>3313</v>
       </c>
-      <c r="B167" s="37" t="s">
+      <c r="B167" s="39" t="s">
         <v>168</v>
       </c>
       <c r="C167">
@@ -3558,7 +3562,7 @@
       <c r="A168">
         <v>3321</v>
       </c>
-      <c r="B168" s="37" t="s">
+      <c r="B168" s="39" t="s">
         <v>169</v>
       </c>
       <c r="C168">
@@ -3569,7 +3573,7 @@
       <c r="A169">
         <v>3322</v>
       </c>
-      <c r="B169" s="37" t="s">
+      <c r="B169" s="39" t="s">
         <v>170</v>
       </c>
       <c r="C169">
@@ -3580,7 +3584,7 @@
       <c r="A170">
         <v>3331</v>
       </c>
-      <c r="B170" s="37" t="s">
+      <c r="B170" s="39" t="s">
         <v>171</v>
       </c>
       <c r="C170">
@@ -3591,7 +3595,7 @@
       <c r="A171">
         <v>3341</v>
       </c>
-      <c r="B171" s="37" t="s">
+      <c r="B171" s="39" t="s">
         <v>172</v>
       </c>
       <c r="C171">
@@ -3602,7 +3606,7 @@
       <c r="A172">
         <v>3411</v>
       </c>
-      <c r="B172" s="37" t="s">
+      <c r="B172" s="39" t="s">
         <v>173</v>
       </c>
       <c r="C172">
@@ -3613,7 +3617,7 @@
       <c r="A173">
         <v>3412</v>
       </c>
-      <c r="B173" s="37" t="s">
+      <c r="B173" s="39" t="s">
         <v>174</v>
       </c>
       <c r="C173">
@@ -3624,7 +3628,7 @@
       <c r="A174">
         <v>3413</v>
       </c>
-      <c r="B174" s="37" t="s">
+      <c r="B174" s="39" t="s">
         <v>175</v>
       </c>
       <c r="C174">
@@ -3635,7 +3639,7 @@
       <c r="A175">
         <v>3421</v>
       </c>
-      <c r="B175" s="37" t="s">
+      <c r="B175" s="39" t="s">
         <v>176</v>
       </c>
       <c r="C175">
@@ -3646,7 +3650,7 @@
       <c r="A176">
         <v>3422</v>
       </c>
-      <c r="B176" s="37" t="s">
+      <c r="B176" s="39" t="s">
         <v>177</v>
       </c>
       <c r="C176">
@@ -3657,7 +3661,7 @@
       <c r="A177">
         <v>3423</v>
       </c>
-      <c r="B177" s="37" t="s">
+      <c r="B177" s="39" t="s">
         <v>178</v>
       </c>
       <c r="C177">
@@ -3668,7 +3672,7 @@
       <c r="A178">
         <v>3424</v>
       </c>
-      <c r="B178" s="37" t="s">
+      <c r="B178" s="39" t="s">
         <v>179</v>
       </c>
       <c r="C178">
@@ -3679,7 +3683,7 @@
       <c r="A179">
         <v>3425</v>
       </c>
-      <c r="B179" s="37" t="s">
+      <c r="B179" s="39" t="s">
         <v>180</v>
       </c>
       <c r="C179">
@@ -3690,7 +3694,7 @@
       <c r="A180">
         <v>3426</v>
       </c>
-      <c r="B180" s="37" t="s">
+      <c r="B180" s="39" t="s">
         <v>181</v>
       </c>
       <c r="C180">
@@ -3701,7 +3705,7 @@
       <c r="A181">
         <v>3511</v>
       </c>
-      <c r="B181" s="37" t="s">
+      <c r="B181" s="39" t="s">
         <v>182</v>
       </c>
       <c r="C181">
@@ -3712,7 +3716,7 @@
       <c r="A182">
         <v>3512</v>
       </c>
-      <c r="B182" s="37" t="s">
+      <c r="B182" s="39" t="s">
         <v>183</v>
       </c>
       <c r="C182">
@@ -3723,7 +3727,7 @@
       <c r="A183">
         <v>3513</v>
       </c>
-      <c r="B183" s="37" t="s">
+      <c r="B183" s="39" t="s">
         <v>184</v>
       </c>
       <c r="C183">
@@ -3734,7 +3738,7 @@
       <c r="A184">
         <v>3514</v>
       </c>
-      <c r="B184" s="37" t="s">
+      <c r="B184" s="39" t="s">
         <v>185</v>
       </c>
       <c r="C184">
@@ -3745,7 +3749,7 @@
       <c r="A185">
         <v>3515</v>
       </c>
-      <c r="B185" s="37" t="s">
+      <c r="B185" s="39" t="s">
         <v>186</v>
       </c>
       <c r="C185">
@@ -3756,7 +3760,7 @@
       <c r="A186">
         <v>3516</v>
       </c>
-      <c r="B186" s="37" t="s">
+      <c r="B186" s="39" t="s">
         <v>187</v>
       </c>
       <c r="C186">
@@ -3767,7 +3771,7 @@
       <c r="A187">
         <v>3517</v>
       </c>
-      <c r="B187" s="37" t="s">
+      <c r="B187" s="39" t="s">
         <v>188</v>
       </c>
       <c r="C187">
@@ -3778,7 +3782,7 @@
       <c r="A188">
         <v>3518</v>
       </c>
-      <c r="B188" s="37" t="s">
+      <c r="B188" s="39" t="s">
         <v>189</v>
       </c>
       <c r="C188">
@@ -3789,7 +3793,7 @@
       <c r="A189">
         <v>3522</v>
       </c>
-      <c r="B189" s="37" t="s">
+      <c r="B189" s="39" t="s">
         <v>190</v>
       </c>
       <c r="C189">
@@ -3800,7 +3804,7 @@
       <c r="A190">
         <v>3523</v>
       </c>
-      <c r="B190" s="37" t="s">
+      <c r="B190" s="39" t="s">
         <v>191</v>
       </c>
       <c r="C190">
@@ -3811,7 +3815,7 @@
       <c r="A191">
         <v>3524</v>
       </c>
-      <c r="B191" s="37" t="s">
+      <c r="B191" s="39" t="s">
         <v>192</v>
       </c>
       <c r="C191">
@@ -3822,7 +3826,7 @@
       <c r="A192">
         <v>3525</v>
       </c>
-      <c r="B192" s="37" t="s">
+      <c r="B192" s="39" t="s">
         <v>193</v>
       </c>
       <c r="C192">
@@ -3833,7 +3837,7 @@
       <c r="A193">
         <v>3531</v>
       </c>
-      <c r="B193" s="37" t="s">
+      <c r="B193" s="39" t="s">
         <v>194</v>
       </c>
       <c r="C193">
@@ -3844,7 +3848,7 @@
       <c r="A194">
         <v>3532</v>
       </c>
-      <c r="B194" s="37" t="s">
+      <c r="B194" s="39" t="s">
         <v>195</v>
       </c>
       <c r="C194">
@@ -3855,7 +3859,7 @@
       <c r="A195">
         <v>3541</v>
       </c>
-      <c r="B195" s="37" t="s">
+      <c r="B195" s="39" t="s">
         <v>196</v>
       </c>
       <c r="C195">
@@ -3866,7 +3870,7 @@
       <c r="A196">
         <v>3542</v>
       </c>
-      <c r="B196" s="37" t="s">
+      <c r="B196" s="39" t="s">
         <v>197</v>
       </c>
       <c r="C196">
@@ -3877,7 +3881,7 @@
       <c r="A197">
         <v>3543</v>
       </c>
-      <c r="B197" s="37" t="s">
+      <c r="B197" s="39" t="s">
         <v>198</v>
       </c>
       <c r="C197">
@@ -3888,7 +3892,7 @@
       <c r="A198">
         <v>3544</v>
       </c>
-      <c r="B198" s="37" t="s">
+      <c r="B198" s="39" t="s">
         <v>199</v>
       </c>
       <c r="C198">
@@ -3899,7 +3903,7 @@
       <c r="A199">
         <v>3545</v>
       </c>
-      <c r="B199" s="37" t="s">
+      <c r="B199" s="39" t="s">
         <v>200</v>
       </c>
       <c r="C199">
@@ -3910,7 +3914,7 @@
       <c r="A200">
         <v>3546</v>
       </c>
-      <c r="B200" s="37" t="s">
+      <c r="B200" s="39" t="s">
         <v>201</v>
       </c>
       <c r="C200">
@@ -3921,7 +3925,7 @@
       <c r="A201">
         <v>3547</v>
       </c>
-      <c r="B201" s="37" t="s">
+      <c r="B201" s="39" t="s">
         <v>202</v>
       </c>
       <c r="C201">
@@ -3932,7 +3936,7 @@
       <c r="A202">
         <v>3548</v>
       </c>
-      <c r="B202" s="37" t="s">
+      <c r="B202" s="39" t="s">
         <v>203</v>
       </c>
       <c r="C202">
@@ -3943,7 +3947,7 @@
       <c r="A203">
         <v>3711</v>
       </c>
-      <c r="B203" s="37" t="s">
+      <c r="B203" s="39" t="s">
         <v>204</v>
       </c>
       <c r="C203">
@@ -3954,7 +3958,7 @@
       <c r="A204">
         <v>3712</v>
       </c>
-      <c r="B204" s="37" t="s">
+      <c r="B204" s="39" t="s">
         <v>205</v>
       </c>
       <c r="C204">
@@ -3965,7 +3969,7 @@
       <c r="A205">
         <v>3713</v>
       </c>
-      <c r="B205" s="37" t="s">
+      <c r="B205" s="39" t="s">
         <v>206</v>
       </c>
       <c r="C205">
@@ -3976,7 +3980,7 @@
       <c r="A206">
         <v>3721</v>
       </c>
-      <c r="B206" s="37" t="s">
+      <c r="B206" s="39" t="s">
         <v>207</v>
       </c>
       <c r="C206">
@@ -3987,7 +3991,7 @@
       <c r="A207">
         <v>3722</v>
       </c>
-      <c r="B207" s="37" t="s">
+      <c r="B207" s="39" t="s">
         <v>208</v>
       </c>
       <c r="C207">
@@ -3998,7 +4002,7 @@
       <c r="A208">
         <v>3723</v>
       </c>
-      <c r="B208" s="37" t="s">
+      <c r="B208" s="39" t="s">
         <v>209</v>
       </c>
       <c r="C208">
@@ -4009,7 +4013,7 @@
       <c r="A209">
         <v>3731</v>
       </c>
-      <c r="B209" s="37" t="s">
+      <c r="B209" s="39" t="s">
         <v>210</v>
       </c>
       <c r="C209">
@@ -4020,7 +4024,7 @@
       <c r="A210">
         <v>3732</v>
       </c>
-      <c r="B210" s="37" t="s">
+      <c r="B210" s="39" t="s">
         <v>211</v>
       </c>
       <c r="C210">
@@ -4031,7 +4035,7 @@
       <c r="A211">
         <v>3741</v>
       </c>
-      <c r="B211" s="37" t="s">
+      <c r="B211" s="39" t="s">
         <v>212</v>
       </c>
       <c r="C211">
@@ -4042,7 +4046,7 @@
       <c r="A212">
         <v>3742</v>
       </c>
-      <c r="B212" s="37" t="s">
+      <c r="B212" s="39" t="s">
         <v>213</v>
       </c>
       <c r="C212">
@@ -4053,7 +4057,7 @@
       <c r="A213">
         <v>3743</v>
       </c>
-      <c r="B213" s="37" t="s">
+      <c r="B213" s="39" t="s">
         <v>214</v>
       </c>
       <c r="C213">
@@ -4064,7 +4068,7 @@
       <c r="A214">
         <v>3751</v>
       </c>
-      <c r="B214" s="37" t="s">
+      <c r="B214" s="39" t="s">
         <v>215</v>
       </c>
       <c r="C214">
@@ -4075,7 +4079,7 @@
       <c r="A215">
         <v>3761</v>
       </c>
-      <c r="B215" s="37" t="s">
+      <c r="B215" s="39" t="s">
         <v>216</v>
       </c>
       <c r="C215">
@@ -4086,7 +4090,7 @@
       <c r="A216">
         <v>3762</v>
       </c>
-      <c r="B216" s="37" t="s">
+      <c r="B216" s="39" t="s">
         <v>217</v>
       </c>
       <c r="C216">
@@ -4097,7 +4101,7 @@
       <c r="A217">
         <v>3763</v>
       </c>
-      <c r="B217" s="37" t="s">
+      <c r="B217" s="39" t="s">
         <v>218</v>
       </c>
       <c r="C217">
@@ -4108,7 +4112,7 @@
       <c r="A218">
         <v>3764</v>
       </c>
-      <c r="B218" s="37" t="s">
+      <c r="B218" s="39" t="s">
         <v>219</v>
       </c>
       <c r="C218">
@@ -4119,7 +4123,7 @@
       <c r="A219">
         <v>3765</v>
       </c>
-      <c r="B219" s="37" t="s">
+      <c r="B219" s="39" t="s">
         <v>220</v>
       </c>
       <c r="C219">
@@ -4130,7 +4134,7 @@
       <c r="A220">
         <v>3771</v>
       </c>
-      <c r="B220" s="37" t="s">
+      <c r="B220" s="39" t="s">
         <v>221</v>
       </c>
       <c r="C220">
@@ -4141,7 +4145,7 @@
       <c r="A221">
         <v>3772</v>
       </c>
-      <c r="B221" s="37" t="s">
+      <c r="B221" s="39" t="s">
         <v>222</v>
       </c>
       <c r="C221">
@@ -4152,7 +4156,7 @@
       <c r="A222">
         <v>3773</v>
       </c>
-      <c r="B222" s="37" t="s">
+      <c r="B222" s="39" t="s">
         <v>223</v>
       </c>
       <c r="C222">
@@ -4163,7 +4167,7 @@
       <c r="A223">
         <v>3911</v>
       </c>
-      <c r="B223" s="37" t="s">
+      <c r="B223" s="39" t="s">
         <v>224</v>
       </c>
       <c r="C223">
@@ -4174,7 +4178,7 @@
       <c r="A224">
         <v>3912</v>
       </c>
-      <c r="B224" s="37" t="s">
+      <c r="B224" s="39" t="s">
         <v>225</v>
       </c>
       <c r="C224">
@@ -4185,7 +4189,7 @@
       <c r="A225">
         <v>-1</v>
       </c>
-      <c r="B225" s="37" t="s">
+      <c r="B225" s="39" t="s">
         <v>226</v>
       </c>
       <c r="C225">
@@ -4196,7 +4200,7 @@
       <c r="A226">
         <v>4101</v>
       </c>
-      <c r="B226" s="37" t="s">
+      <c r="B226" s="39" t="s">
         <v>227</v>
       </c>
       <c r="C226">
@@ -4207,7 +4211,7 @@
       <c r="A227">
         <v>4102</v>
       </c>
-      <c r="B227" s="37" t="s">
+      <c r="B227" s="39" t="s">
         <v>228</v>
       </c>
       <c r="C227">
@@ -4218,7 +4222,7 @@
       <c r="A228">
         <v>4110</v>
       </c>
-      <c r="B228" s="37" t="s">
+      <c r="B228" s="39" t="s">
         <v>229</v>
       </c>
       <c r="C228">
@@ -4229,7 +4233,7 @@
       <c r="A229">
         <v>4121</v>
       </c>
-      <c r="B229" s="37" t="s">
+      <c r="B229" s="39" t="s">
         <v>230</v>
       </c>
       <c r="C229">
@@ -4240,7 +4244,7 @@
       <c r="A230">
         <v>4122</v>
       </c>
-      <c r="B230" s="37" t="s">
+      <c r="B230" s="39" t="s">
         <v>231</v>
       </c>
       <c r="C230">
@@ -4251,7 +4255,7 @@
       <c r="A231">
         <v>4123</v>
       </c>
-      <c r="B231" s="37" t="s">
+      <c r="B231" s="39" t="s">
         <v>232</v>
       </c>
       <c r="C231">
@@ -4262,7 +4266,7 @@
       <c r="A232">
         <v>4131</v>
       </c>
-      <c r="B232" s="37" t="s">
+      <c r="B232" s="39" t="s">
         <v>233</v>
       </c>
       <c r="C232">
@@ -4273,7 +4277,7 @@
       <c r="A233">
         <v>4132</v>
       </c>
-      <c r="B233" s="37" t="s">
+      <c r="B233" s="39" t="s">
         <v>234</v>
       </c>
       <c r="C233">
@@ -4284,7 +4288,7 @@
       <c r="A234">
         <v>4141</v>
       </c>
-      <c r="B234" s="37" t="s">
+      <c r="B234" s="39" t="s">
         <v>235</v>
       </c>
       <c r="C234">
@@ -4295,7 +4299,7 @@
       <c r="A235">
         <v>4142</v>
       </c>
-      <c r="B235" s="37" t="s">
+      <c r="B235" s="39" t="s">
         <v>236</v>
       </c>
       <c r="C235">
@@ -4306,7 +4310,7 @@
       <c r="A236">
         <v>4151</v>
       </c>
-      <c r="B236" s="37" t="s">
+      <c r="B236" s="39" t="s">
         <v>237</v>
       </c>
       <c r="C236">
@@ -4317,7 +4321,7 @@
       <c r="A237">
         <v>4152</v>
       </c>
-      <c r="B237" s="37" t="s">
+      <c r="B237" s="39" t="s">
         <v>238</v>
       </c>
       <c r="C237">
@@ -4328,7 +4332,7 @@
       <c r="A238">
         <v>4201</v>
       </c>
-      <c r="B238" s="37" t="s">
+      <c r="B238" s="39" t="s">
         <v>239</v>
       </c>
       <c r="C238">
@@ -4339,7 +4343,7 @@
       <c r="A239">
         <v>4211</v>
       </c>
-      <c r="B239" s="37" t="s">
+      <c r="B239" s="39" t="s">
         <v>240</v>
       </c>
       <c r="C239">
@@ -4350,7 +4354,7 @@
       <c r="A240">
         <v>4212</v>
       </c>
-      <c r="B240" s="37" t="s">
+      <c r="B240" s="39" t="s">
         <v>241</v>
       </c>
       <c r="C240">
@@ -4361,7 +4365,7 @@
       <c r="A241">
         <v>4213</v>
       </c>
-      <c r="B241" s="37" t="s">
+      <c r="B241" s="39" t="s">
         <v>242</v>
       </c>
       <c r="C241">
@@ -4372,7 +4376,7 @@
       <c r="A242">
         <v>4214</v>
       </c>
-      <c r="B242" s="37" t="s">
+      <c r="B242" s="39" t="s">
         <v>243</v>
       </c>
       <c r="C242">
@@ -4383,7 +4387,7 @@
       <c r="A243">
         <v>4221</v>
       </c>
-      <c r="B243" s="37" t="s">
+      <c r="B243" s="39" t="s">
         <v>244</v>
       </c>
       <c r="C243">
@@ -4394,7 +4398,7 @@
       <c r="A244">
         <v>4222</v>
       </c>
-      <c r="B244" s="37" t="s">
+      <c r="B244" s="39" t="s">
         <v>245</v>
       </c>
       <c r="C244">
@@ -4405,7 +4409,7 @@
       <c r="A245">
         <v>4223</v>
       </c>
-      <c r="B245" s="37" t="s">
+      <c r="B245" s="39" t="s">
         <v>246</v>
       </c>
       <c r="C245">
@@ -4416,7 +4420,7 @@
       <c r="A246">
         <v>4231</v>
       </c>
-      <c r="B246" s="37" t="s">
+      <c r="B246" s="39" t="s">
         <v>247</v>
       </c>
       <c r="C246">
@@ -4427,7 +4431,7 @@
       <c r="A247">
         <v>4241</v>
       </c>
-      <c r="B247" s="37" t="s">
+      <c r="B247" s="39" t="s">
         <v>248</v>
       </c>
       <c r="C247">
@@ -4438,7 +4442,7 @@
       <c r="A248">
         <v>-1</v>
       </c>
-      <c r="B248" s="37" t="s">
+      <c r="B248" s="39" t="s">
         <v>249</v>
       </c>
       <c r="C248">
@@ -4449,7 +4453,7 @@
       <c r="A249">
         <v>5101</v>
       </c>
-      <c r="B249" s="37" t="s">
+      <c r="B249" s="39" t="s">
         <v>250</v>
       </c>
       <c r="C249">
@@ -4460,7 +4464,7 @@
       <c r="A250">
         <v>5102</v>
       </c>
-      <c r="B250" s="37" t="s">
+      <c r="B250" s="39" t="s">
         <v>251</v>
       </c>
       <c r="C250">
@@ -4471,7 +4475,7 @@
       <c r="A251">
         <v>5103</v>
       </c>
-      <c r="B251" s="37" t="s">
+      <c r="B251" s="39" t="s">
         <v>252</v>
       </c>
       <c r="C251">
@@ -4482,7 +4486,7 @@
       <c r="A252">
         <v>5111</v>
       </c>
-      <c r="B252" s="37" t="s">
+      <c r="B252" s="39" t="s">
         <v>253</v>
       </c>
       <c r="C252">
@@ -4493,7 +4497,7 @@
       <c r="A253">
         <v>5112</v>
       </c>
-      <c r="B253" s="37" t="s">
+      <c r="B253" s="39" t="s">
         <v>254</v>
       </c>
       <c r="C253">
@@ -4504,7 +4508,7 @@
       <c r="A254">
         <v>5114</v>
       </c>
-      <c r="B254" s="37" t="s">
+      <c r="B254" s="39" t="s">
         <v>255</v>
       </c>
       <c r="C254">
@@ -4515,7 +4519,7 @@
       <c r="A255">
         <v>5121</v>
       </c>
-      <c r="B255" s="37" t="s">
+      <c r="B255" s="39" t="s">
         <v>256</v>
       </c>
       <c r="C255">
@@ -4526,7 +4530,7 @@
       <c r="A256">
         <v>5131</v>
       </c>
-      <c r="B256" s="37" t="s">
+      <c r="B256" s="39" t="s">
         <v>257</v>
       </c>
       <c r="C256">
@@ -4537,7 +4541,7 @@
       <c r="A257">
         <v>5132</v>
       </c>
-      <c r="B257" s="37" t="s">
+      <c r="B257" s="39" t="s">
         <v>258</v>
       </c>
       <c r="C257">
@@ -4548,7 +4552,7 @@
       <c r="A258">
         <v>5133</v>
       </c>
-      <c r="B258" s="37" t="s">
+      <c r="B258" s="39" t="s">
         <v>259</v>
       </c>
       <c r="C258">
@@ -4559,7 +4563,7 @@
       <c r="A259">
         <v>5134</v>
       </c>
-      <c r="B259" s="37" t="s">
+      <c r="B259" s="39" t="s">
         <v>260</v>
       </c>
       <c r="C259">
@@ -4570,7 +4574,7 @@
       <c r="A260">
         <v>5141</v>
       </c>
-      <c r="B260" s="37" t="s">
+      <c r="B260" s="39" t="s">
         <v>261</v>
       </c>
       <c r="C260">
@@ -4581,7 +4585,7 @@
       <c r="A261">
         <v>5142</v>
       </c>
-      <c r="B261" s="37" t="s">
+      <c r="B261" s="39" t="s">
         <v>262</v>
       </c>
       <c r="C261">
@@ -4592,7 +4596,7 @@
       <c r="A262">
         <v>5151</v>
       </c>
-      <c r="B262" s="37" t="s">
+      <c r="B262" s="39" t="s">
         <v>263</v>
       </c>
       <c r="C262">
@@ -4603,7 +4607,7 @@
       <c r="A263">
         <v>5152</v>
       </c>
-      <c r="B263" s="37" t="s">
+      <c r="B263" s="39" t="s">
         <v>264</v>
       </c>
       <c r="C263">
@@ -4614,7 +4618,7 @@
       <c r="A264">
         <v>5161</v>
       </c>
-      <c r="B264" s="37" t="s">
+      <c r="B264" s="39" t="s">
         <v>265</v>
       </c>
       <c r="C264">
@@ -4625,7 +4629,7 @@
       <c r="A265">
         <v>5162</v>
       </c>
-      <c r="B265" s="37" t="s">
+      <c r="B265" s="39" t="s">
         <v>266</v>
       </c>
       <c r="C265">
@@ -4636,7 +4640,7 @@
       <c r="A266">
         <v>5165</v>
       </c>
-      <c r="B266" s="37" t="s">
+      <c r="B266" s="39" t="s">
         <v>267</v>
       </c>
       <c r="C266">
@@ -4647,7 +4651,7 @@
       <c r="A267">
         <v>5166</v>
       </c>
-      <c r="B267" s="37" t="s">
+      <c r="B267" s="39" t="s">
         <v>268</v>
       </c>
       <c r="C267">
@@ -4658,7 +4662,7 @@
       <c r="A268">
         <v>5167</v>
       </c>
-      <c r="B268" s="37" t="s">
+      <c r="B268" s="39" t="s">
         <v>269</v>
       </c>
       <c r="C268">
@@ -4669,7 +4673,7 @@
       <c r="A269">
         <v>5169</v>
       </c>
-      <c r="B269" s="37" t="s">
+      <c r="B269" s="39" t="s">
         <v>270</v>
       </c>
       <c r="C269">
@@ -4680,7 +4684,7 @@
       <c r="A270">
         <v>5171</v>
       </c>
-      <c r="B270" s="37" t="s">
+      <c r="B270" s="39" t="s">
         <v>271</v>
       </c>
       <c r="C270">
@@ -4691,7 +4695,7 @@
       <c r="A271">
         <v>5172</v>
       </c>
-      <c r="B271" s="37" t="s">
+      <c r="B271" s="39" t="s">
         <v>272</v>
       </c>
       <c r="C271">
@@ -4702,7 +4706,7 @@
       <c r="A272">
         <v>5173</v>
       </c>
-      <c r="B272" s="37" t="s">
+      <c r="B272" s="39" t="s">
         <v>273</v>
       </c>
       <c r="C272">
@@ -4713,7 +4717,7 @@
       <c r="A273">
         <v>5174</v>
       </c>
-      <c r="B273" s="37" t="s">
+      <c r="B273" s="39" t="s">
         <v>274</v>
       </c>
       <c r="C273">
@@ -4724,7 +4728,7 @@
       <c r="A274">
         <v>5191</v>
       </c>
-      <c r="B274" s="37" t="s">
+      <c r="B274" s="39" t="s">
         <v>275</v>
       </c>
       <c r="C274">
@@ -4735,7 +4739,7 @@
       <c r="A275">
         <v>5192</v>
       </c>
-      <c r="B275" s="37" t="s">
+      <c r="B275" s="39" t="s">
         <v>276</v>
       </c>
       <c r="C275">
@@ -4746,7 +4750,7 @@
       <c r="A276">
         <v>5198</v>
       </c>
-      <c r="B276" s="37" t="s">
+      <c r="B276" s="39" t="s">
         <v>277</v>
       </c>
       <c r="C276">
@@ -4757,7 +4761,7 @@
       <c r="A277">
         <v>5199</v>
       </c>
-      <c r="B277" s="37" t="s">
+      <c r="B277" s="39" t="s">
         <v>278</v>
       </c>
       <c r="C277">
@@ -4768,7 +4772,7 @@
       <c r="A278">
         <v>5201</v>
       </c>
-      <c r="B278" s="37" t="s">
+      <c r="B278" s="39" t="s">
         <v>279</v>
       </c>
       <c r="C278">
@@ -4779,7 +4783,7 @@
       <c r="A279">
         <v>5211</v>
       </c>
-      <c r="B279" s="37" t="s">
+      <c r="B279" s="39" t="s">
         <v>280</v>
       </c>
       <c r="C279">
@@ -4790,7 +4794,7 @@
       <c r="A280">
         <v>5221</v>
       </c>
-      <c r="B280" s="37" t="s">
+      <c r="B280" s="39" t="s">
         <v>281</v>
       </c>
       <c r="C280">
@@ -4801,7 +4805,7 @@
       <c r="A281">
         <v>5231</v>
       </c>
-      <c r="B281" s="37" t="s">
+      <c r="B281" s="39" t="s">
         <v>282</v>
       </c>
       <c r="C281">
@@ -4812,7 +4816,7 @@
       <c r="A282">
         <v>5241</v>
       </c>
-      <c r="B282" s="37" t="s">
+      <c r="B282" s="39" t="s">
         <v>283</v>
       </c>
       <c r="C282">
@@ -4823,7 +4827,7 @@
       <c r="A283">
         <v>5242</v>
       </c>
-      <c r="B283" s="37" t="s">
+      <c r="B283" s="39" t="s">
         <v>284</v>
       </c>
       <c r="C283">
@@ -4834,7 +4838,7 @@
       <c r="A284">
         <v>5243</v>
       </c>
-      <c r="B284" s="37" t="s">
+      <c r="B284" s="39" t="s">
         <v>285</v>
       </c>
       <c r="C284">
@@ -4845,7 +4849,7 @@
       <c r="A285">
         <v>-1</v>
       </c>
-      <c r="B285" s="37" t="s">
+      <c r="B285" s="39" t="s">
         <v>286</v>
       </c>
       <c r="C285">
@@ -4856,7 +4860,7 @@
       <c r="A286">
         <v>6110</v>
       </c>
-      <c r="B286" s="37" t="s">
+      <c r="B286" s="39" t="s">
         <v>287</v>
       </c>
       <c r="C286">
@@ -4867,7 +4871,7 @@
       <c r="A287">
         <v>6129</v>
       </c>
-      <c r="B287" s="37" t="s">
+      <c r="B287" s="39" t="s">
         <v>288</v>
       </c>
       <c r="C287">
@@ -4878,7 +4882,7 @@
       <c r="A288">
         <v>6139</v>
       </c>
-      <c r="B288" s="37" t="s">
+      <c r="B288" s="39" t="s">
         <v>289</v>
       </c>
       <c r="C288">
@@ -4889,7 +4893,7 @@
       <c r="A289">
         <v>6201</v>
       </c>
-      <c r="B289" s="37" t="s">
+      <c r="B289" s="39" t="s">
         <v>290</v>
       </c>
       <c r="C289">
@@ -4900,7 +4904,7 @@
       <c r="A290">
         <v>6210</v>
       </c>
-      <c r="B290" s="37" t="s">
+      <c r="B290" s="39" t="s">
         <v>291</v>
       </c>
       <c r="C290">
@@ -4911,7 +4915,7 @@
       <c r="A291">
         <v>6229</v>
       </c>
-      <c r="B291" s="37" t="s">
+      <c r="B291" s="39" t="s">
         <v>292</v>
       </c>
       <c r="C291">
@@ -4922,7 +4926,7 @@
       <c r="A292">
         <v>6239</v>
       </c>
-      <c r="B292" s="37" t="s">
+      <c r="B292" s="39" t="s">
         <v>293</v>
       </c>
       <c r="C292">
@@ -4933,7 +4937,7 @@
       <c r="A293">
         <v>6301</v>
       </c>
-      <c r="B293" s="37" t="s">
+      <c r="B293" s="39" t="s">
         <v>294</v>
       </c>
       <c r="C293">
@@ -4944,7 +4948,7 @@
       <c r="A294">
         <v>6319</v>
       </c>
-      <c r="B294" s="37" t="s">
+      <c r="B294" s="39" t="s">
         <v>295</v>
       </c>
       <c r="C294">
@@ -4955,7 +4959,7 @@
       <c r="A295">
         <v>6329</v>
       </c>
-      <c r="B295" s="37" t="s">
+      <c r="B295" s="39" t="s">
         <v>296</v>
       </c>
       <c r="C295">
@@ -4966,7 +4970,7 @@
       <c r="A296">
         <v>6410</v>
       </c>
-      <c r="B296" s="37" t="s">
+      <c r="B296" s="39" t="s">
         <v>297</v>
       </c>
       <c r="C296">
@@ -4977,7 +4981,7 @@
       <c r="A297">
         <v>6420</v>
       </c>
-      <c r="B297" s="37" t="s">
+      <c r="B297" s="39" t="s">
         <v>298</v>
       </c>
       <c r="C297">
@@ -4988,7 +4992,7 @@
       <c r="A298">
         <v>6430</v>
       </c>
-      <c r="B298" s="37" t="s">
+      <c r="B298" s="39" t="s">
         <v>299</v>
       </c>
       <c r="C298">
@@ -4999,7 +5003,7 @@
       <c r="A299">
         <v>-1</v>
       </c>
-      <c r="B299" s="37" t="s">
+      <c r="B299" s="39" t="s">
         <v>300</v>
       </c>
       <c r="C299">
@@ -5010,7 +5014,7 @@
       <c r="A300">
         <v>7101</v>
       </c>
-      <c r="B300" s="37" t="s">
+      <c r="B300" s="39" t="s">
         <v>301</v>
       </c>
       <c r="C300">
@@ -5021,7 +5025,7 @@
       <c r="A301">
         <v>7102</v>
       </c>
-      <c r="B301" s="37" t="s">
+      <c r="B301" s="39" t="s">
         <v>302</v>
       </c>
       <c r="C301">
@@ -5032,7 +5036,7 @@
       <c r="A302">
         <v>7111</v>
       </c>
-      <c r="B302" s="37" t="s">
+      <c r="B302" s="39" t="s">
         <v>303</v>
       </c>
       <c r="C302">
@@ -5043,7 +5047,7 @@
       <c r="A303">
         <v>7112</v>
       </c>
-      <c r="B303" s="37" t="s">
+      <c r="B303" s="39" t="s">
         <v>304</v>
       </c>
       <c r="C303">
@@ -5054,7 +5058,7 @@
       <c r="A304">
         <v>7113</v>
       </c>
-      <c r="B304" s="37" t="s">
+      <c r="B304" s="39" t="s">
         <v>305</v>
       </c>
       <c r="C304">
@@ -5065,7 +5069,7 @@
       <c r="A305">
         <v>7114</v>
       </c>
-      <c r="B305" s="37" t="s">
+      <c r="B305" s="39" t="s">
         <v>306</v>
       </c>
       <c r="C305">
@@ -5076,7 +5080,7 @@
       <c r="A306">
         <v>7121</v>
       </c>
-      <c r="B306" s="37" t="s">
+      <c r="B306" s="39" t="s">
         <v>307</v>
       </c>
       <c r="C306">
@@ -5087,7 +5091,7 @@
       <c r="A307">
         <v>7122</v>
       </c>
-      <c r="B307" s="37" t="s">
+      <c r="B307" s="39" t="s">
         <v>308</v>
       </c>
       <c r="C307">
@@ -5098,7 +5102,7 @@
       <c r="A308">
         <v>7151</v>
       </c>
-      <c r="B308" s="37" t="s">
+      <c r="B308" s="39" t="s">
         <v>309</v>
       </c>
       <c r="C308">
@@ -5109,7 +5113,7 @@
       <c r="A309">
         <v>7152</v>
       </c>
-      <c r="B309" s="37" t="s">
+      <c r="B309" s="39" t="s">
         <v>310</v>
       </c>
       <c r="C309">
@@ -5120,7 +5124,7 @@
       <c r="A310">
         <v>7153</v>
       </c>
-      <c r="B310" s="37" t="s">
+      <c r="B310" s="39" t="s">
         <v>311</v>
       </c>
       <c r="C310">
@@ -5131,7 +5135,7 @@
       <c r="A311">
         <v>7154</v>
       </c>
-      <c r="B311" s="37" t="s">
+      <c r="B311" s="39" t="s">
         <v>312</v>
       </c>
       <c r="C311">
@@ -5142,7 +5146,7 @@
       <c r="A312">
         <v>7155</v>
       </c>
-      <c r="B312" s="37" t="s">
+      <c r="B312" s="39" t="s">
         <v>313</v>
       </c>
       <c r="C312">
@@ -5153,7 +5157,7 @@
       <c r="A313">
         <v>7156</v>
       </c>
-      <c r="B313" s="37" t="s">
+      <c r="B313" s="39" t="s">
         <v>314</v>
       </c>
       <c r="C313">
@@ -5164,7 +5168,7 @@
       <c r="A314">
         <v>7157</v>
       </c>
-      <c r="B314" s="37" t="s">
+      <c r="B314" s="39" t="s">
         <v>315</v>
       </c>
       <c r="C314">
@@ -5175,7 +5179,7 @@
       <c r="A315">
         <v>7161</v>
       </c>
-      <c r="B315" s="37" t="s">
+      <c r="B315" s="39" t="s">
         <v>316</v>
       </c>
       <c r="C315">
@@ -5186,7 +5190,7 @@
       <c r="A316">
         <v>7162</v>
       </c>
-      <c r="B316" s="37" t="s">
+      <c r="B316" s="39" t="s">
         <v>317</v>
       </c>
       <c r="C316">
@@ -5197,7 +5201,7 @@
       <c r="A317">
         <v>7163</v>
       </c>
-      <c r="B317" s="37" t="s">
+      <c r="B317" s="39" t="s">
         <v>318</v>
       </c>
       <c r="C317">
@@ -5208,7 +5212,7 @@
       <c r="A318">
         <v>7164</v>
       </c>
-      <c r="B318" s="37" t="s">
+      <c r="B318" s="39" t="s">
         <v>319</v>
       </c>
       <c r="C318">
@@ -5219,7 +5223,7 @@
       <c r="A319">
         <v>7165</v>
       </c>
-      <c r="B319" s="37" t="s">
+      <c r="B319" s="39" t="s">
         <v>320</v>
       </c>
       <c r="C319">
@@ -5230,7 +5234,7 @@
       <c r="A320">
         <v>7166</v>
       </c>
-      <c r="B320" s="37" t="s">
+      <c r="B320" s="39" t="s">
         <v>321</v>
       </c>
       <c r="C320">
@@ -5241,7 +5245,7 @@
       <c r="A321">
         <v>7170</v>
       </c>
-      <c r="B321" s="37" t="s">
+      <c r="B321" s="39" t="s">
         <v>322</v>
       </c>
       <c r="C321">
@@ -5252,7 +5256,7 @@
       <c r="A322">
         <v>7201</v>
       </c>
-      <c r="B322" s="37" t="s">
+      <c r="B322" s="39" t="s">
         <v>323</v>
       </c>
       <c r="C322">
@@ -5263,7 +5267,7 @@
       <c r="A323">
         <v>7202</v>
       </c>
-      <c r="B323" s="37" t="s">
+      <c r="B323" s="39" t="s">
         <v>324</v>
       </c>
       <c r="C323">
@@ -5274,7 +5278,7 @@
       <c r="A324">
         <v>7211</v>
       </c>
-      <c r="B324" s="37" t="s">
+      <c r="B324" s="39" t="s">
         <v>325</v>
       </c>
       <c r="C324">
@@ -5285,7 +5289,7 @@
       <c r="A325">
         <v>7212</v>
       </c>
-      <c r="B325" s="37" t="s">
+      <c r="B325" s="39" t="s">
         <v>326</v>
       </c>
       <c r="C325">
@@ -5296,7 +5300,7 @@
       <c r="A326">
         <v>7213</v>
       </c>
-      <c r="B326" s="37" t="s">
+      <c r="B326" s="39" t="s">
         <v>327</v>
       </c>
       <c r="C326">
@@ -5307,7 +5311,7 @@
       <c r="A327">
         <v>7214</v>
       </c>
-      <c r="B327" s="37" t="s">
+      <c r="B327" s="39" t="s">
         <v>328</v>
       </c>
       <c r="C327">
@@ -5318,7 +5322,7 @@
       <c r="A328">
         <v>7215</v>
       </c>
-      <c r="B328" s="37" t="s">
+      <c r="B328" s="39" t="s">
         <v>329</v>
       </c>
       <c r="C328">
@@ -5329,7 +5333,7 @@
       <c r="A329">
         <v>7221</v>
       </c>
-      <c r="B329" s="37" t="s">
+      <c r="B329" s="39" t="s">
         <v>330</v>
       </c>
       <c r="C329">
@@ -5340,7 +5344,7 @@
       <c r="A330">
         <v>7222</v>
       </c>
-      <c r="B330" s="37" t="s">
+      <c r="B330" s="39" t="s">
         <v>331</v>
       </c>
       <c r="C330">
@@ -5351,7 +5355,7 @@
       <c r="A331">
         <v>7223</v>
       </c>
-      <c r="B331" s="37" t="s">
+      <c r="B331" s="39" t="s">
         <v>332</v>
       </c>
       <c r="C331">
@@ -5362,7 +5366,7 @@
       <c r="A332">
         <v>7224</v>
       </c>
-      <c r="B332" s="37" t="s">
+      <c r="B332" s="39" t="s">
         <v>333</v>
       </c>
       <c r="C332">
@@ -5373,7 +5377,7 @@
       <c r="A333">
         <v>7231</v>
       </c>
-      <c r="B333" s="37" t="s">
+      <c r="B333" s="39" t="s">
         <v>334</v>
       </c>
       <c r="C333">
@@ -5384,7 +5388,7 @@
       <c r="A334">
         <v>7232</v>
       </c>
-      <c r="B334" s="37" t="s">
+      <c r="B334" s="39" t="s">
         <v>335</v>
       </c>
       <c r="C334">
@@ -5395,7 +5399,7 @@
       <c r="A335">
         <v>7233</v>
       </c>
-      <c r="B335" s="37" t="s">
+      <c r="B335" s="39" t="s">
         <v>336</v>
       </c>
       <c r="C335">
@@ -5406,7 +5410,7 @@
       <c r="A336">
         <v>7241</v>
       </c>
-      <c r="B336" s="37" t="s">
+      <c r="B336" s="39" t="s">
         <v>337</v>
       </c>
       <c r="C336">
@@ -5417,7 +5421,7 @@
       <c r="A337">
         <v>7242</v>
       </c>
-      <c r="B337" s="37" t="s">
+      <c r="B337" s="39" t="s">
         <v>338</v>
       </c>
       <c r="C337">
@@ -5428,7 +5432,7 @@
       <c r="A338">
         <v>7243</v>
       </c>
-      <c r="B338" s="37" t="s">
+      <c r="B338" s="39" t="s">
         <v>339</v>
       </c>
       <c r="C338">
@@ -5439,7 +5443,7 @@
       <c r="A339">
         <v>7244</v>
       </c>
-      <c r="B339" s="37" t="s">
+      <c r="B339" s="39" t="s">
         <v>340</v>
       </c>
       <c r="C339">
@@ -5450,7 +5454,7 @@
       <c r="A340">
         <v>7245</v>
       </c>
-      <c r="B340" s="37" t="s">
+      <c r="B340" s="39" t="s">
         <v>341</v>
       </c>
       <c r="C340">
@@ -5461,7 +5465,7 @@
       <c r="A341">
         <v>7246</v>
       </c>
-      <c r="B341" s="37" t="s">
+      <c r="B341" s="39" t="s">
         <v>342</v>
       </c>
       <c r="C341">
@@ -5472,7 +5476,7 @@
       <c r="A342">
         <v>7250</v>
       </c>
-      <c r="B342" s="37" t="s">
+      <c r="B342" s="39" t="s">
         <v>343</v>
       </c>
       <c r="C342">
@@ -5483,7 +5487,7 @@
       <c r="A343">
         <v>7251</v>
       </c>
-      <c r="B343" s="37" t="s">
+      <c r="B343" s="39" t="s">
         <v>344</v>
       </c>
       <c r="C343">
@@ -5494,7 +5498,7 @@
       <c r="A344">
         <v>7252</v>
       </c>
-      <c r="B344" s="37" t="s">
+      <c r="B344" s="39" t="s">
         <v>345</v>
       </c>
       <c r="C344">
@@ -5505,7 +5509,7 @@
       <c r="A345">
         <v>7253</v>
       </c>
-      <c r="B345" s="37" t="s">
+      <c r="B345" s="39" t="s">
         <v>346</v>
       </c>
       <c r="C345">
@@ -5516,7 +5520,7 @@
       <c r="A346">
         <v>7254</v>
       </c>
-      <c r="B346" s="37" t="s">
+      <c r="B346" s="39" t="s">
         <v>347</v>
       </c>
       <c r="C346">
@@ -5527,7 +5531,7 @@
       <c r="A347">
         <v>7255</v>
       </c>
-      <c r="B347" s="37" t="s">
+      <c r="B347" s="39" t="s">
         <v>348</v>
       </c>
       <c r="C347">
@@ -5538,7 +5542,7 @@
       <c r="A348">
         <v>7256</v>
       </c>
-      <c r="B348" s="37" t="s">
+      <c r="B348" s="39" t="s">
         <v>349</v>
       </c>
       <c r="C348">
@@ -5549,7 +5553,7 @@
       <c r="A349">
         <v>7257</v>
       </c>
-      <c r="B349" s="37" t="s">
+      <c r="B349" s="39" t="s">
         <v>350</v>
       </c>
       <c r="C349">
@@ -5560,7 +5564,7 @@
       <c r="A350">
         <v>7301</v>
       </c>
-      <c r="B350" s="37" t="s">
+      <c r="B350" s="39" t="s">
         <v>351</v>
       </c>
       <c r="C350">
@@ -5571,7 +5575,7 @@
       <c r="A351">
         <v>7311</v>
       </c>
-      <c r="B351" s="37" t="s">
+      <c r="B351" s="39" t="s">
         <v>352</v>
       </c>
       <c r="C351">
@@ -5582,7 +5586,7 @@
       <c r="A352">
         <v>7312</v>
       </c>
-      <c r="B352" s="37" t="s">
+      <c r="B352" s="39" t="s">
         <v>353</v>
       </c>
       <c r="C352">
@@ -5593,7 +5597,7 @@
       <c r="A353">
         <v>7313</v>
       </c>
-      <c r="B353" s="37" t="s">
+      <c r="B353" s="39" t="s">
         <v>354</v>
       </c>
       <c r="C353">
@@ -5604,7 +5608,7 @@
       <c r="A354">
         <v>7321</v>
       </c>
-      <c r="B354" s="37" t="s">
+      <c r="B354" s="39" t="s">
         <v>355</v>
       </c>
       <c r="C354">
@@ -5615,7 +5619,7 @@
       <c r="A355">
         <v>7401</v>
       </c>
-      <c r="B355" s="37" t="s">
+      <c r="B355" s="39" t="s">
         <v>356</v>
       </c>
       <c r="C355">
@@ -5626,7 +5630,7 @@
       <c r="A356">
         <v>7411</v>
       </c>
-      <c r="B356" s="37" t="s">
+      <c r="B356" s="39" t="s">
         <v>357</v>
       </c>
       <c r="C356">
@@ -5637,7 +5641,7 @@
       <c r="A357">
         <v>7421</v>
       </c>
-      <c r="B357" s="37" t="s">
+      <c r="B357" s="39" t="s">
         <v>358</v>
       </c>
       <c r="C357">
@@ -5648,7 +5652,7 @@
       <c r="A358">
         <v>7501</v>
       </c>
-      <c r="B358" s="37" t="s">
+      <c r="B358" s="39" t="s">
         <v>359</v>
       </c>
       <c r="C358">
@@ -5659,7 +5663,7 @@
       <c r="A359">
         <v>7502</v>
       </c>
-      <c r="B359" s="37" t="s">
+      <c r="B359" s="39" t="s">
         <v>360</v>
       </c>
       <c r="C359">
@@ -5670,7 +5674,7 @@
       <c r="A360">
         <v>7519</v>
       </c>
-      <c r="B360" s="37" t="s">
+      <c r="B360" s="39" t="s">
         <v>361</v>
       </c>
       <c r="C360">
@@ -5681,7 +5685,7 @@
       <c r="A361">
         <v>7521</v>
       </c>
-      <c r="B361" s="37" t="s">
+      <c r="B361" s="39" t="s">
         <v>362</v>
       </c>
       <c r="C361">
@@ -5692,7 +5696,7 @@
       <c r="A362">
         <v>7522</v>
       </c>
-      <c r="B362" s="37" t="s">
+      <c r="B362" s="39" t="s">
         <v>363</v>
       </c>
       <c r="C362">
@@ -5703,7 +5707,7 @@
       <c r="A363">
         <v>7523</v>
       </c>
-      <c r="B363" s="37" t="s">
+      <c r="B363" s="39" t="s">
         <v>364</v>
       </c>
       <c r="C363">
@@ -5714,7 +5718,7 @@
       <c r="A364">
         <v>7524</v>
       </c>
-      <c r="B364" s="37" t="s">
+      <c r="B364" s="39" t="s">
         <v>365</v>
       </c>
       <c r="C364">
@@ -5725,7 +5729,7 @@
       <c r="A365">
         <v>7601</v>
       </c>
-      <c r="B365" s="37" t="s">
+      <c r="B365" s="39" t="s">
         <v>366</v>
       </c>
       <c r="C365">
@@ -5736,7 +5740,7 @@
       <c r="A366">
         <v>7602</v>
       </c>
-      <c r="B366" s="37" t="s">
+      <c r="B366" s="39" t="s">
         <v>367</v>
       </c>
       <c r="C366">
@@ -5747,7 +5751,7 @@
       <c r="A367">
         <v>7603</v>
       </c>
-      <c r="B367" s="37" t="s">
+      <c r="B367" s="39" t="s">
         <v>368</v>
       </c>
       <c r="C367">
@@ -5758,7 +5762,7 @@
       <c r="A368">
         <v>7604</v>
       </c>
-      <c r="B368" s="37" t="s">
+      <c r="B368" s="39" t="s">
         <v>369</v>
       </c>
       <c r="C368">
@@ -5769,7 +5773,7 @@
       <c r="A369">
         <v>7605</v>
       </c>
-      <c r="B369" s="37" t="s">
+      <c r="B369" s="39" t="s">
         <v>370</v>
       </c>
       <c r="C369">
@@ -5780,7 +5784,7 @@
       <c r="A370">
         <v>7606</v>
       </c>
-      <c r="B370" s="37" t="s">
+      <c r="B370" s="39" t="s">
         <v>371</v>
       </c>
       <c r="C370">
@@ -5791,7 +5795,7 @@
       <c r="A371">
         <v>7610</v>
       </c>
-      <c r="B371" s="37" t="s">
+      <c r="B371" s="39" t="s">
         <v>372</v>
       </c>
       <c r="C371">
@@ -5802,7 +5806,7 @@
       <c r="A372">
         <v>7611</v>
       </c>
-      <c r="B372" s="37" t="s">
+      <c r="B372" s="39" t="s">
         <v>373</v>
       </c>
       <c r="C372">
@@ -5813,7 +5817,7 @@
       <c r="A373">
         <v>7612</v>
       </c>
-      <c r="B373" s="37" t="s">
+      <c r="B373" s="39" t="s">
         <v>374</v>
       </c>
       <c r="C373">
@@ -5824,7 +5828,7 @@
       <c r="A374">
         <v>7613</v>
       </c>
-      <c r="B374" s="37" t="s">
+      <c r="B374" s="39" t="s">
         <v>375</v>
       </c>
       <c r="C374">
@@ -5835,7 +5839,7 @@
       <c r="A375">
         <v>7614</v>
       </c>
-      <c r="B375" s="37" t="s">
+      <c r="B375" s="39" t="s">
         <v>376</v>
       </c>
       <c r="C375">
@@ -5846,7 +5850,7 @@
       <c r="A376">
         <v>7618</v>
       </c>
-      <c r="B376" s="37" t="s">
+      <c r="B376" s="39" t="s">
         <v>377</v>
       </c>
       <c r="C376">
@@ -5857,7 +5861,7 @@
       <c r="A377">
         <v>7620</v>
       </c>
-      <c r="B377" s="37" t="s">
+      <c r="B377" s="39" t="s">
         <v>378</v>
       </c>
       <c r="C377">
@@ -5868,7 +5872,7 @@
       <c r="A378">
         <v>7621</v>
       </c>
-      <c r="B378" s="37" t="s">
+      <c r="B378" s="39" t="s">
         <v>379</v>
       </c>
       <c r="C378">
@@ -5879,7 +5883,7 @@
       <c r="A379">
         <v>7622</v>
       </c>
-      <c r="B379" s="37" t="s">
+      <c r="B379" s="39" t="s">
         <v>380</v>
       </c>
       <c r="C379">
@@ -5890,7 +5894,7 @@
       <c r="A380">
         <v>7623</v>
       </c>
-      <c r="B380" s="37" t="s">
+      <c r="B380" s="39" t="s">
         <v>381</v>
       </c>
       <c r="C380">
@@ -5901,7 +5905,7 @@
       <c r="A381">
         <v>7630</v>
       </c>
-      <c r="B381" s="37" t="s">
+      <c r="B381" s="39" t="s">
         <v>382</v>
       </c>
       <c r="C381">
@@ -5912,7 +5916,7 @@
       <c r="A382">
         <v>7631</v>
       </c>
-      <c r="B382" s="37" t="s">
+      <c r="B382" s="39" t="s">
         <v>383</v>
       </c>
       <c r="C382">
@@ -5923,7 +5927,7 @@
       <c r="A383">
         <v>7632</v>
       </c>
-      <c r="B383" s="37" t="s">
+      <c r="B383" s="39" t="s">
         <v>384</v>
       </c>
       <c r="C383">
@@ -5934,7 +5938,7 @@
       <c r="A384">
         <v>7633</v>
       </c>
-      <c r="B384" s="37" t="s">
+      <c r="B384" s="39" t="s">
         <v>385</v>
       </c>
       <c r="C384">
@@ -5945,7 +5949,7 @@
       <c r="A385">
         <v>7640</v>
       </c>
-      <c r="B385" s="37" t="s">
+      <c r="B385" s="39" t="s">
         <v>386</v>
       </c>
       <c r="C385">
@@ -5956,7 +5960,7 @@
       <c r="A386">
         <v>7641</v>
       </c>
-      <c r="B386" s="37" t="s">
+      <c r="B386" s="39" t="s">
         <v>387</v>
       </c>
       <c r="C386">
@@ -5967,7 +5971,7 @@
       <c r="A387">
         <v>7642</v>
       </c>
-      <c r="B387" s="37" t="s">
+      <c r="B387" s="39" t="s">
         <v>388</v>
       </c>
       <c r="C387">
@@ -5978,7 +5982,7 @@
       <c r="A388">
         <v>7643</v>
       </c>
-      <c r="B388" s="37" t="s">
+      <c r="B388" s="39" t="s">
         <v>389</v>
       </c>
       <c r="C388">
@@ -5989,7 +5993,7 @@
       <c r="A389">
         <v>7650</v>
       </c>
-      <c r="B389" s="37" t="s">
+      <c r="B389" s="39" t="s">
         <v>390</v>
       </c>
       <c r="C389">
@@ -6000,7 +6004,7 @@
       <c r="A390">
         <v>7651</v>
       </c>
-      <c r="B390" s="37" t="s">
+      <c r="B390" s="39" t="s">
         <v>391</v>
       </c>
       <c r="C390">
@@ -6011,7 +6015,7 @@
       <c r="A391">
         <v>7652</v>
       </c>
-      <c r="B391" s="37" t="s">
+      <c r="B391" s="39" t="s">
         <v>392</v>
       </c>
       <c r="C391">
@@ -6022,7 +6026,7 @@
       <c r="A392">
         <v>7653</v>
       </c>
-      <c r="B392" s="37" t="s">
+      <c r="B392" s="39" t="s">
         <v>393</v>
       </c>
       <c r="C392">
@@ -6033,7 +6037,7 @@
       <c r="A393">
         <v>7654</v>
       </c>
-      <c r="B393" s="37" t="s">
+      <c r="B393" s="39" t="s">
         <v>394</v>
       </c>
       <c r="C393">
@@ -6044,7 +6048,7 @@
       <c r="A394">
         <v>7660</v>
       </c>
-      <c r="B394" s="37" t="s">
+      <c r="B394" s="39" t="s">
         <v>395</v>
       </c>
       <c r="C394">
@@ -6055,7 +6059,7 @@
       <c r="A395">
         <v>7661</v>
       </c>
-      <c r="B395" s="37" t="s">
+      <c r="B395" s="39" t="s">
         <v>396</v>
       </c>
       <c r="C395">
@@ -6066,7 +6070,7 @@
       <c r="A396">
         <v>7662</v>
       </c>
-      <c r="B396" s="37" t="s">
+      <c r="B396" s="39" t="s">
         <v>397</v>
       </c>
       <c r="C396">
@@ -6077,7 +6081,7 @@
       <c r="A397">
         <v>7663</v>
       </c>
-      <c r="B397" s="37" t="s">
+      <c r="B397" s="39" t="s">
         <v>398</v>
       </c>
       <c r="C397">
@@ -6088,7 +6092,7 @@
       <c r="A398">
         <v>7664</v>
       </c>
-      <c r="B398" s="37" t="s">
+      <c r="B398" s="39" t="s">
         <v>399</v>
       </c>
       <c r="C398">
@@ -6099,7 +6103,7 @@
       <c r="A399">
         <v>7681</v>
       </c>
-      <c r="B399" s="37" t="s">
+      <c r="B399" s="39" t="s">
         <v>400</v>
       </c>
       <c r="C399">
@@ -6110,7 +6114,7 @@
       <c r="A400">
         <v>7682</v>
       </c>
-      <c r="B400" s="37" t="s">
+      <c r="B400" s="39" t="s">
         <v>401</v>
       </c>
       <c r="C400">
@@ -6121,7 +6125,7 @@
       <c r="A401">
         <v>7683</v>
       </c>
-      <c r="B401" s="37" t="s">
+      <c r="B401" s="39" t="s">
         <v>402</v>
       </c>
       <c r="C401">
@@ -6132,7 +6136,7 @@
       <c r="A402">
         <v>7686</v>
       </c>
-      <c r="B402" s="37" t="s">
+      <c r="B402" s="39" t="s">
         <v>403</v>
       </c>
       <c r="C402">
@@ -6143,7 +6147,7 @@
       <c r="A403">
         <v>7687</v>
       </c>
-      <c r="B403" s="37" t="s">
+      <c r="B403" s="39" t="s">
         <v>404</v>
       </c>
       <c r="C403">
@@ -6154,7 +6158,7 @@
       <c r="A404">
         <v>7701</v>
       </c>
-      <c r="B404" s="37" t="s">
+      <c r="B404" s="39" t="s">
         <v>405</v>
       </c>
       <c r="C404">
@@ -6165,7 +6169,7 @@
       <c r="A405">
         <v>7711</v>
       </c>
-      <c r="B405" s="37" t="s">
+      <c r="B405" s="39" t="s">
         <v>406</v>
       </c>
       <c r="C405">
@@ -6176,7 +6180,7 @@
       <c r="A406">
         <v>7721</v>
       </c>
-      <c r="B406" s="37" t="s">
+      <c r="B406" s="39" t="s">
         <v>407</v>
       </c>
       <c r="C406">
@@ -6187,7 +6191,7 @@
       <c r="A407">
         <v>7731</v>
       </c>
-      <c r="B407" s="37" t="s">
+      <c r="B407" s="39" t="s">
         <v>408</v>
       </c>
       <c r="C407">
@@ -6198,7 +6202,7 @@
       <c r="A408">
         <v>7732</v>
       </c>
-      <c r="B408" s="37" t="s">
+      <c r="B408" s="39" t="s">
         <v>409</v>
       </c>
       <c r="C408">
@@ -6209,7 +6213,7 @@
       <c r="A409">
         <v>7733</v>
       </c>
-      <c r="B409" s="37" t="s">
+      <c r="B409" s="39" t="s">
         <v>410</v>
       </c>
       <c r="C409">
@@ -6220,7 +6224,7 @@
       <c r="A410">
         <v>7734</v>
       </c>
-      <c r="B410" s="37" t="s">
+      <c r="B410" s="39" t="s">
         <v>411</v>
       </c>
       <c r="C410">
@@ -6231,7 +6235,7 @@
       <c r="A411">
         <v>7735</v>
       </c>
-      <c r="B411" s="37" t="s">
+      <c r="B411" s="39" t="s">
         <v>412</v>
       </c>
       <c r="C411">
@@ -6242,7 +6246,7 @@
       <c r="A412">
         <v>7741</v>
       </c>
-      <c r="B412" s="37" t="s">
+      <c r="B412" s="39" t="s">
         <v>413</v>
       </c>
       <c r="C412">
@@ -6253,7 +6257,7 @@
       <c r="A413">
         <v>7751</v>
       </c>
-      <c r="B413" s="37" t="s">
+      <c r="B413" s="39" t="s">
         <v>414</v>
       </c>
       <c r="C413">
@@ -6264,7 +6268,7 @@
       <c r="A414">
         <v>7764</v>
       </c>
-      <c r="B414" s="37" t="s">
+      <c r="B414" s="39" t="s">
         <v>415</v>
       </c>
       <c r="C414">
@@ -6275,7 +6279,7 @@
       <c r="A415">
         <v>7771</v>
       </c>
-      <c r="B415" s="37" t="s">
+      <c r="B415" s="39" t="s">
         <v>416</v>
       </c>
       <c r="C415">
@@ -6286,7 +6290,7 @@
       <c r="A416">
         <v>7772</v>
       </c>
-      <c r="B416" s="37" t="s">
+      <c r="B416" s="39" t="s">
         <v>417</v>
       </c>
       <c r="C416">
@@ -6297,7 +6301,7 @@
       <c r="A417">
         <v>7801</v>
       </c>
-      <c r="B417" s="37" t="s">
+      <c r="B417" s="39" t="s">
         <v>418</v>
       </c>
       <c r="C417">
@@ -6308,7 +6312,7 @@
       <c r="A418">
         <v>7811</v>
       </c>
-      <c r="B418" s="37" t="s">
+      <c r="B418" s="39" t="s">
         <v>419</v>
       </c>
       <c r="C418">
@@ -6319,7 +6323,7 @@
       <c r="A419">
         <v>7813</v>
       </c>
-      <c r="B419" s="37" t="s">
+      <c r="B419" s="39" t="s">
         <v>420</v>
       </c>
       <c r="C419">
@@ -6330,7 +6334,7 @@
       <c r="A420">
         <v>7817</v>
       </c>
-      <c r="B420" s="37" t="s">
+      <c r="B420" s="39" t="s">
         <v>421</v>
       </c>
       <c r="C420">
@@ -6341,7 +6345,7 @@
       <c r="A421">
         <v>7820</v>
       </c>
-      <c r="B421" s="37" t="s">
+      <c r="B421" s="39" t="s">
         <v>422</v>
       </c>
       <c r="C421">
@@ -6352,7 +6356,7 @@
       <c r="A422">
         <v>7821</v>
       </c>
-      <c r="B422" s="37" t="s">
+      <c r="B422" s="39" t="s">
         <v>423</v>
       </c>
       <c r="C422">
@@ -6363,7 +6367,7 @@
       <c r="A423">
         <v>7822</v>
       </c>
-      <c r="B423" s="37" t="s">
+      <c r="B423" s="39" t="s">
         <v>424</v>
       </c>
       <c r="C423">
@@ -6374,7 +6378,7 @@
       <c r="A424">
         <v>7823</v>
       </c>
-      <c r="B424" s="37" t="s">
+      <c r="B424" s="39" t="s">
         <v>425</v>
       </c>
       <c r="C424">
@@ -6385,7 +6389,7 @@
       <c r="A425">
         <v>7824</v>
       </c>
-      <c r="B425" s="37" t="s">
+      <c r="B425" s="39" t="s">
         <v>426</v>
       </c>
       <c r="C425">
@@ -6396,7 +6400,7 @@
       <c r="A426">
         <v>7825</v>
       </c>
-      <c r="B426" s="37" t="s">
+      <c r="B426" s="39" t="s">
         <v>427</v>
       </c>
       <c r="C426">
@@ -6407,7 +6411,7 @@
       <c r="A427">
         <v>7826</v>
       </c>
-      <c r="B427" s="37" t="s">
+      <c r="B427" s="39" t="s">
         <v>428</v>
       </c>
       <c r="C427">
@@ -6418,7 +6422,7 @@
       <c r="A428">
         <v>7827</v>
       </c>
-      <c r="B428" s="37" t="s">
+      <c r="B428" s="39" t="s">
         <v>429</v>
       </c>
       <c r="C428">
@@ -6429,7 +6433,7 @@
       <c r="A429">
         <v>7828</v>
       </c>
-      <c r="B429" s="37" t="s">
+      <c r="B429" s="39" t="s">
         <v>430</v>
       </c>
       <c r="C429">
@@ -6440,7 +6444,7 @@
       <c r="A430">
         <v>7831</v>
       </c>
-      <c r="B430" s="37" t="s">
+      <c r="B430" s="39" t="s">
         <v>431</v>
       </c>
       <c r="C430">
@@ -6451,7 +6455,7 @@
       <c r="A431">
         <v>7832</v>
       </c>
-      <c r="B431" s="37" t="s">
+      <c r="B431" s="39" t="s">
         <v>432</v>
       </c>
       <c r="C431">
@@ -6462,7 +6466,7 @@
       <c r="A432">
         <v>7841</v>
       </c>
-      <c r="B432" s="37" t="s">
+      <c r="B432" s="39" t="s">
         <v>433</v>
       </c>
       <c r="C432">
@@ -6473,7 +6477,7 @@
       <c r="A433">
         <v>7842</v>
       </c>
-      <c r="B433" s="37" t="s">
+      <c r="B433" s="39" t="s">
         <v>434</v>
       </c>
       <c r="C433">
@@ -6484,7 +6488,7 @@
       <c r="A434">
         <v>-1</v>
       </c>
-      <c r="B434" s="37" t="s">
+      <c r="B434" s="39" t="s">
         <v>300</v>
       </c>
       <c r="C434">
@@ -6495,7 +6499,7 @@
       <c r="A435">
         <v>8101</v>
       </c>
-      <c r="B435" s="37" t="s">
+      <c r="B435" s="39" t="s">
         <v>435</v>
       </c>
       <c r="C435">
@@ -6506,7 +6510,7 @@
       <c r="A436">
         <v>8102</v>
       </c>
-      <c r="B436" s="37" t="s">
+      <c r="B436" s="39" t="s">
         <v>436</v>
       </c>
       <c r="C436">
@@ -6517,7 +6521,7 @@
       <c r="A437">
         <v>8103</v>
       </c>
-      <c r="B437" s="37" t="s">
+      <c r="B437" s="39" t="s">
         <v>437</v>
       </c>
       <c r="C437">
@@ -6528,7 +6532,7 @@
       <c r="A438">
         <v>8110</v>
       </c>
-      <c r="B438" s="37" t="s">
+      <c r="B438" s="39" t="s">
         <v>438</v>
       </c>
       <c r="C438">
@@ -6539,7 +6543,7 @@
       <c r="A439">
         <v>8111</v>
       </c>
-      <c r="B439" s="37" t="s">
+      <c r="B439" s="39" t="s">
         <v>439</v>
       </c>
       <c r="C439">
@@ -6550,7 +6554,7 @@
       <c r="A440">
         <v>8112</v>
       </c>
-      <c r="B440" s="37" t="s">
+      <c r="B440" s="39" t="s">
         <v>440</v>
       </c>
       <c r="C440">
@@ -6561,7 +6565,7 @@
       <c r="A441">
         <v>8113</v>
       </c>
-      <c r="B441" s="37" t="s">
+      <c r="B441" s="39" t="s">
         <v>441</v>
       </c>
       <c r="C441">
@@ -6572,7 +6576,7 @@
       <c r="A442">
         <v>8114</v>
       </c>
-      <c r="B442" s="37" t="s">
+      <c r="B442" s="39" t="s">
         <v>442</v>
       </c>
       <c r="C442">
@@ -6583,7 +6587,7 @@
       <c r="A443">
         <v>8115</v>
       </c>
-      <c r="B443" s="37" t="s">
+      <c r="B443" s="39" t="s">
         <v>443</v>
       </c>
       <c r="C443">
@@ -6594,7 +6598,7 @@
       <c r="A444">
         <v>8116</v>
       </c>
-      <c r="B444" s="37" t="s">
+      <c r="B444" s="39" t="s">
         <v>444</v>
       </c>
       <c r="C444">
@@ -6605,7 +6609,7 @@
       <c r="A445">
         <v>8117</v>
       </c>
-      <c r="B445" s="37" t="s">
+      <c r="B445" s="39" t="s">
         <v>445</v>
       </c>
       <c r="C445">
@@ -6616,7 +6620,7 @@
       <c r="A446">
         <v>8118</v>
       </c>
-      <c r="B446" s="37" t="s">
+      <c r="B446" s="39" t="s">
         <v>446</v>
       </c>
       <c r="C446">
@@ -6627,7 +6631,7 @@
       <c r="A447">
         <v>8121</v>
       </c>
-      <c r="B447" s="37" t="s">
+      <c r="B447" s="39" t="s">
         <v>447</v>
       </c>
       <c r="C447">
@@ -6638,7 +6642,7 @@
       <c r="A448">
         <v>8131</v>
       </c>
-      <c r="B448" s="37" t="s">
+      <c r="B448" s="39" t="s">
         <v>448</v>
       </c>
       <c r="C448">
@@ -6649,7 +6653,7 @@
       <c r="A449">
         <v>8181</v>
       </c>
-      <c r="B449" s="37" t="s">
+      <c r="B449" s="39" t="s">
         <v>449</v>
       </c>
       <c r="C449">
@@ -6660,7 +6664,7 @@
       <c r="A450">
         <v>8201</v>
       </c>
-      <c r="B450" s="37" t="s">
+      <c r="B450" s="39" t="s">
         <v>450</v>
       </c>
       <c r="C450">
@@ -6671,7 +6675,7 @@
       <c r="A451">
         <v>8202</v>
       </c>
-      <c r="B451" s="37" t="s">
+      <c r="B451" s="39" t="s">
         <v>451</v>
       </c>
       <c r="C451">
@@ -6682,7 +6686,7 @@
       <c r="A452">
         <v>8211</v>
       </c>
-      <c r="B452" s="37" t="s">
+      <c r="B452" s="39" t="s">
         <v>452</v>
       </c>
       <c r="C452">
@@ -6693,7 +6697,7 @@
       <c r="A453">
         <v>8212</v>
       </c>
-      <c r="B453" s="37" t="s">
+      <c r="B453" s="39" t="s">
         <v>453</v>
       </c>
       <c r="C453">
@@ -6704,7 +6708,7 @@
       <c r="A454">
         <v>8213</v>
       </c>
-      <c r="B454" s="37" t="s">
+      <c r="B454" s="39" t="s">
         <v>454</v>
       </c>
       <c r="C454">
@@ -6715,7 +6719,7 @@
       <c r="A455">
         <v>8214</v>
       </c>
-      <c r="B455" s="37" t="s">
+      <c r="B455" s="39" t="s">
         <v>455</v>
       </c>
       <c r="C455">
@@ -6726,7 +6730,7 @@
       <c r="A456">
         <v>8221</v>
       </c>
-      <c r="B456" s="37" t="s">
+      <c r="B456" s="39" t="s">
         <v>456</v>
       </c>
       <c r="C456">
@@ -6737,7 +6741,7 @@
       <c r="A457">
         <v>8231</v>
       </c>
-      <c r="B457" s="37" t="s">
+      <c r="B457" s="39" t="s">
         <v>457</v>
       </c>
       <c r="C457">
@@ -6748,7 +6752,7 @@
       <c r="A458">
         <v>8232</v>
       </c>
-      <c r="B458" s="37" t="s">
+      <c r="B458" s="39" t="s">
         <v>458</v>
       </c>
       <c r="C458">
@@ -6759,7 +6763,7 @@
       <c r="A459">
         <v>8233</v>
       </c>
-      <c r="B459" s="37" t="s">
+      <c r="B459" s="39" t="s">
         <v>459</v>
       </c>
       <c r="C459">
@@ -6770,7 +6774,7 @@
       <c r="A460">
         <v>8281</v>
       </c>
-      <c r="B460" s="37" t="s">
+      <c r="B460" s="39" t="s">
         <v>460</v>
       </c>
       <c r="C460">
@@ -6781,7 +6785,7 @@
       <c r="A461">
         <v>8301</v>
       </c>
-      <c r="B461" s="37" t="s">
+      <c r="B461" s="39" t="s">
         <v>461</v>
       </c>
       <c r="C461">
@@ -6792,7 +6796,7 @@
       <c r="A462">
         <v>8311</v>
       </c>
-      <c r="B462" s="37" t="s">
+      <c r="B462" s="39" t="s">
         <v>462</v>
       </c>
       <c r="C462">
@@ -6803,7 +6807,7 @@
       <c r="A463">
         <v>8321</v>
       </c>
-      <c r="B463" s="37" t="s">
+      <c r="B463" s="39" t="s">
         <v>463</v>
       </c>
       <c r="C463">
@@ -6814,7 +6818,7 @@
       <c r="A464">
         <v>8339</v>
       </c>
-      <c r="B464" s="37" t="s">
+      <c r="B464" s="39" t="s">
         <v>464</v>
       </c>
       <c r="C464">
@@ -6825,7 +6829,7 @@
       <c r="A465">
         <v>8401</v>
       </c>
-      <c r="B465" s="37" t="s">
+      <c r="B465" s="39" t="s">
         <v>465</v>
       </c>
       <c r="C465">
@@ -6836,7 +6840,7 @@
       <c r="A466">
         <v>8411</v>
       </c>
-      <c r="B466" s="37" t="s">
+      <c r="B466" s="39" t="s">
         <v>466</v>
       </c>
       <c r="C466">
@@ -6847,7 +6851,7 @@
       <c r="A467">
         <v>8412</v>
       </c>
-      <c r="B467" s="37" t="s">
+      <c r="B467" s="39" t="s">
         <v>467</v>
       </c>
       <c r="C467">
@@ -6858,7 +6862,7 @@
       <c r="A468">
         <v>8413</v>
       </c>
-      <c r="B468" s="37" t="s">
+      <c r="B468" s="39" t="s">
         <v>468</v>
       </c>
       <c r="C468">
@@ -6869,7 +6873,7 @@
       <c r="A469">
         <v>8416</v>
       </c>
-      <c r="B469" s="37" t="s">
+      <c r="B469" s="39" t="s">
         <v>469</v>
       </c>
       <c r="C469">
@@ -6880,7 +6884,7 @@
       <c r="A470">
         <v>8417</v>
       </c>
-      <c r="B470" s="37" t="s">
+      <c r="B470" s="39" t="s">
         <v>470</v>
       </c>
       <c r="C470">
@@ -6891,7 +6895,7 @@
       <c r="A471">
         <v>8421</v>
       </c>
-      <c r="B471" s="37" t="s">
+      <c r="B471" s="39" t="s">
         <v>471</v>
       </c>
       <c r="C471">
@@ -6902,7 +6906,7 @@
       <c r="A472">
         <v>8423</v>
       </c>
-      <c r="B472" s="37" t="s">
+      <c r="B472" s="39" t="s">
         <v>472</v>
       </c>
       <c r="C472">
@@ -6913,7 +6917,7 @@
       <c r="A473">
         <v>8429</v>
       </c>
-      <c r="B473" s="37" t="s">
+      <c r="B473" s="39" t="s">
         <v>473</v>
       </c>
       <c r="C473">
@@ -6924,7 +6928,7 @@
       <c r="A474">
         <v>8484</v>
       </c>
-      <c r="B474" s="37" t="s">
+      <c r="B474" s="39" t="s">
         <v>474</v>
       </c>
       <c r="C474">
@@ -6935,7 +6939,7 @@
       <c r="A475">
         <v>8485</v>
       </c>
-      <c r="B475" s="37" t="s">
+      <c r="B475" s="39" t="s">
         <v>475</v>
       </c>
       <c r="C475">
@@ -6946,7 +6950,7 @@
       <c r="A476">
         <v>8491</v>
       </c>
-      <c r="B476" s="37" t="s">
+      <c r="B476" s="39" t="s">
         <v>476</v>
       </c>
       <c r="C476">
@@ -6957,7 +6961,7 @@
       <c r="A477">
         <v>8492</v>
       </c>
-      <c r="B477" s="37" t="s">
+      <c r="B477" s="39" t="s">
         <v>477</v>
       </c>
       <c r="C477">
@@ -6968,7 +6972,7 @@
       <c r="A478">
         <v>8493</v>
       </c>
-      <c r="B478" s="37" t="s">
+      <c r="B478" s="39" t="s">
         <v>478</v>
       </c>
       <c r="C478">
@@ -6979,7 +6983,7 @@
       <c r="A479">
         <v>8601</v>
       </c>
-      <c r="B479" s="37" t="s">
+      <c r="B479" s="39" t="s">
         <v>479</v>
       </c>
       <c r="C479">
@@ -6990,7 +6994,7 @@
       <c r="A480">
         <v>8611</v>
       </c>
-      <c r="B480" s="37" t="s">
+      <c r="B480" s="39" t="s">
         <v>480</v>
       </c>
       <c r="C480">
@@ -7001,7 +7005,7 @@
       <c r="A481">
         <v>8612</v>
       </c>
-      <c r="B481" s="37" t="s">
+      <c r="B481" s="39" t="s">
         <v>481</v>
       </c>
       <c r="C481">
@@ -7012,7 +7016,7 @@
       <c r="A482">
         <v>8621</v>
       </c>
-      <c r="B482" s="37" t="s">
+      <c r="B482" s="39" t="s">
         <v>482</v>
       </c>
       <c r="C482">
@@ -7023,7 +7027,7 @@
       <c r="A483">
         <v>8622</v>
       </c>
-      <c r="B483" s="37" t="s">
+      <c r="B483" s="39" t="s">
         <v>483</v>
       </c>
       <c r="C483">
@@ -7034,7 +7038,7 @@
       <c r="A484">
         <v>8623</v>
       </c>
-      <c r="B484" s="37" t="s">
+      <c r="B484" s="39" t="s">
         <v>484</v>
       </c>
       <c r="C484">
@@ -7045,7 +7049,7 @@
       <c r="A485">
         <v>8624</v>
       </c>
-      <c r="B485" s="37" t="s">
+      <c r="B485" s="39" t="s">
         <v>485</v>
       </c>
       <c r="C485">
@@ -7056,7 +7060,7 @@
       <c r="A486">
         <v>8625</v>
       </c>
-      <c r="B486" s="37" t="s">
+      <c r="B486" s="39" t="s">
         <v>486</v>
       </c>
       <c r="C486">
@@ -7067,7 +7071,7 @@
       <c r="A487">
         <v>8711</v>
       </c>
-      <c r="B487" s="37" t="s">
+      <c r="B487" s="39" t="s">
         <v>487</v>
       </c>
       <c r="C487">
@@ -7078,7 +7082,7 @@
       <c r="A488">
         <v>-1</v>
       </c>
-      <c r="B488" s="37" t="s">
+      <c r="B488" s="39" t="s">
         <v>488</v>
       </c>
       <c r="C488">
@@ -7089,7 +7093,7 @@
       <c r="A489">
         <v>9101</v>
       </c>
-      <c r="B489" s="37" t="s">
+      <c r="B489" s="39" t="s">
         <v>489</v>
       </c>
       <c r="C489">
@@ -7100,7 +7104,7 @@
       <c r="A490">
         <v>9102</v>
       </c>
-      <c r="B490" s="37" t="s">
+      <c r="B490" s="39" t="s">
         <v>490</v>
       </c>
       <c r="C490">
@@ -7111,7 +7115,7 @@
       <c r="A491">
         <v>9109</v>
       </c>
-      <c r="B491" s="37" t="s">
+      <c r="B491" s="39" t="s">
         <v>491</v>
       </c>
       <c r="C491">
@@ -7122,7 +7126,7 @@
       <c r="A492">
         <v>9111</v>
       </c>
-      <c r="B492" s="37" t="s">
+      <c r="B492" s="39" t="s">
         <v>492</v>
       </c>
       <c r="C492">
@@ -7133,7 +7137,7 @@
       <c r="A493">
         <v>9112</v>
       </c>
-      <c r="B493" s="37" t="s">
+      <c r="B493" s="39" t="s">
         <v>493</v>
       </c>
       <c r="C493">
@@ -7144,7 +7148,7 @@
       <c r="A494">
         <v>9113</v>
       </c>
-      <c r="B494" s="37" t="s">
+      <c r="B494" s="39" t="s">
         <v>494</v>
       </c>
       <c r="C494">
@@ -7155,7 +7159,7 @@
       <c r="A495">
         <v>9131</v>
       </c>
-      <c r="B495" s="37" t="s">
+      <c r="B495" s="39" t="s">
         <v>495</v>
       </c>
       <c r="C495">
@@ -7166,7 +7170,7 @@
       <c r="A496">
         <v>9141</v>
       </c>
-      <c r="B496" s="37" t="s">
+      <c r="B496" s="39" t="s">
         <v>496</v>
       </c>
       <c r="C496">
@@ -7177,7 +7181,7 @@
       <c r="A497">
         <v>9142</v>
       </c>
-      <c r="B497" s="37" t="s">
+      <c r="B497" s="39" t="s">
         <v>497</v>
       </c>
       <c r="C497">
@@ -7188,7 +7192,7 @@
       <c r="A498">
         <v>9143</v>
       </c>
-      <c r="B498" s="37" t="s">
+      <c r="B498" s="39" t="s">
         <v>498</v>
       </c>
       <c r="C498">
@@ -7199,7 +7203,7 @@
       <c r="A499">
         <v>9144</v>
       </c>
-      <c r="B499" s="37" t="s">
+      <c r="B499" s="39" t="s">
         <v>499</v>
       </c>
       <c r="C499">
@@ -7210,7 +7214,7 @@
       <c r="A500">
         <v>9151</v>
       </c>
-      <c r="B500" s="37" t="s">
+      <c r="B500" s="39" t="s">
         <v>500</v>
       </c>
       <c r="C500">
@@ -7221,7 +7225,7 @@
       <c r="A501">
         <v>9152</v>
       </c>
-      <c r="B501" s="37" t="s">
+      <c r="B501" s="39" t="s">
         <v>501</v>
       </c>
       <c r="C501">
@@ -7232,7 +7236,7 @@
       <c r="A502">
         <v>9153</v>
       </c>
-      <c r="B502" s="37" t="s">
+      <c r="B502" s="39" t="s">
         <v>502</v>
       </c>
       <c r="C502">
@@ -7243,7 +7247,7 @@
       <c r="A503">
         <v>9154</v>
       </c>
-      <c r="B503" s="37" t="s">
+      <c r="B503" s="39" t="s">
         <v>503</v>
       </c>
       <c r="C503">
@@ -7254,7 +7258,7 @@
       <c r="A504">
         <v>9191</v>
       </c>
-      <c r="B504" s="37" t="s">
+      <c r="B504" s="39" t="s">
         <v>504</v>
       </c>
       <c r="C504">
@@ -7265,7 +7269,7 @@
       <c r="A505">
         <v>9192</v>
       </c>
-      <c r="B505" s="37" t="s">
+      <c r="B505" s="39" t="s">
         <v>505</v>
       </c>
       <c r="C505">
@@ -7276,7 +7280,7 @@
       <c r="A506">
         <v>9193</v>
       </c>
-      <c r="B506" s="37" t="s">
+      <c r="B506" s="39" t="s">
         <v>506</v>
       </c>
       <c r="C506">
@@ -7287,7 +7291,7 @@
       <c r="A507">
         <v>9501</v>
       </c>
-      <c r="B507" s="37" t="s">
+      <c r="B507" s="39" t="s">
         <v>507</v>
       </c>
       <c r="C507">
@@ -7298,7 +7302,7 @@
       <c r="A508">
         <v>9502</v>
       </c>
-      <c r="B508" s="37" t="s">
+      <c r="B508" s="39" t="s">
         <v>508</v>
       </c>
       <c r="C508">
@@ -7309,7 +7313,7 @@
       <c r="A509">
         <v>9503</v>
       </c>
-      <c r="B509" s="37" t="s">
+      <c r="B509" s="39" t="s">
         <v>509</v>
       </c>
       <c r="C509">
@@ -7320,7 +7324,7 @@
       <c r="A510">
         <v>9511</v>
       </c>
-      <c r="B510" s="37" t="s">
+      <c r="B510" s="39" t="s">
         <v>510</v>
       </c>
       <c r="C510">
@@ -7331,7 +7335,7 @@
       <c r="A511">
         <v>9513</v>
       </c>
-      <c r="B511" s="37" t="s">
+      <c r="B511" s="39" t="s">
         <v>511</v>
       </c>
       <c r="C511">
@@ -7342,7 +7346,7 @@
       <c r="A512">
         <v>9531</v>
       </c>
-      <c r="B512" s="37" t="s">
+      <c r="B512" s="39" t="s">
         <v>512</v>
       </c>
       <c r="C512">
@@ -7353,7 +7357,7 @@
       <c r="A513">
         <v>9541</v>
       </c>
-      <c r="B513" s="37" t="s">
+      <c r="B513" s="39" t="s">
         <v>513</v>
       </c>
       <c r="C513">
@@ -7364,7 +7368,7 @@
       <c r="A514">
         <v>9542</v>
       </c>
-      <c r="B514" s="37" t="s">
+      <c r="B514" s="39" t="s">
         <v>514</v>
       </c>
       <c r="C514">
@@ -7375,7 +7379,7 @@
       <c r="A515">
         <v>9543</v>
       </c>
-      <c r="B515" s="37" t="s">
+      <c r="B515" s="39" t="s">
         <v>515</v>
       </c>
       <c r="C515">
@@ -7386,7 +7390,7 @@
       <c r="A516">
         <v>9911</v>
       </c>
-      <c r="B516" s="37" t="s">
+      <c r="B516" s="39" t="s">
         <v>516</v>
       </c>
       <c r="C516">
@@ -7397,7 +7401,7 @@
       <c r="A517">
         <v>9912</v>
       </c>
-      <c r="B517" s="37" t="s">
+      <c r="B517" s="39" t="s">
         <v>517</v>
       </c>
       <c r="C517">
@@ -7408,7 +7412,7 @@
       <c r="A518">
         <v>9913</v>
       </c>
-      <c r="B518" s="37" t="s">
+      <c r="B518" s="39" t="s">
         <v>518</v>
       </c>
       <c r="C518">
@@ -7419,7 +7423,7 @@
       <c r="A519">
         <v>9914</v>
       </c>
-      <c r="B519" s="37" t="s">
+      <c r="B519" s="39" t="s">
         <v>519</v>
       </c>
       <c r="C519">
@@ -7430,7 +7434,7 @@
       <c r="A520">
         <v>9921</v>
       </c>
-      <c r="B520" s="37" t="s">
+      <c r="B520" s="39" t="s">
         <v>520</v>
       </c>
       <c r="C520">
@@ -7441,7 +7445,7 @@
       <c r="A521">
         <v>9922</v>
       </c>
-      <c r="B521" s="37" t="s">
+      <c r="B521" s="39" t="s">
         <v>521</v>
       </c>
       <c r="C521">
@@ -7452,7 +7456,7 @@
       <c r="A522">
         <v>-1</v>
       </c>
-      <c r="B522" s="37" t="s">
+      <c r="B522" s="39" t="s">
         <v>522</v>
       </c>
       <c r="C522">
@@ -7463,7 +7467,7 @@
       <c r="A523">
         <v>9999</v>
       </c>
-      <c r="B523" s="37" t="s">
+      <c r="B523" s="39" t="s">
         <v>523</v>
       </c>
       <c r="C523">

--- a/+dataLH/test_files/readTest.xlsx
+++ b/+dataLH/test_files/readTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10520" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11045" uniqueCount="525">
   <si>
     <t>Code</t>
   </si>
@@ -1610,7 +1610,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1658,11 +1658,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1704,6 +1706,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1722,13 +1726,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="41" t="s">
         <v>524</v>
       </c>
     </row>
@@ -1736,7 +1740,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
       <c r="C2">
@@ -1747,7 +1751,7 @@
       <c r="A3">
         <v>-1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -1758,7 +1762,7 @@
       <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -1769,7 +1773,7 @@
       <c r="A5">
         <v>200</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C5">
@@ -1780,7 +1784,7 @@
       <c r="A6">
         <v>300</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C6">
@@ -1791,7 +1795,7 @@
       <c r="A7">
         <v>401</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C7">
@@ -1802,7 +1806,7 @@
       <c r="A8">
         <v>402</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C8">
@@ -1813,7 +1817,7 @@
       <c r="A9">
         <v>403</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="41" t="s">
         <v>9</v>
       </c>
       <c r="C9">
@@ -1824,7 +1828,7 @@
       <c r="A10">
         <v>411</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="41" t="s">
         <v>10</v>
       </c>
       <c r="C10">
@@ -1835,7 +1839,7 @@
       <c r="A11">
         <v>412</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C11">
@@ -1846,7 +1850,7 @@
       <c r="A12">
         <v>413</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C12">
@@ -1857,7 +1861,7 @@
       <c r="A13">
         <v>501</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="41" t="s">
         <v>13</v>
       </c>
       <c r="C13">
@@ -1868,7 +1872,7 @@
       <c r="A14">
         <v>502</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C14">
@@ -1879,7 +1883,7 @@
       <c r="A15">
         <v>503</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C15">
@@ -1890,7 +1894,7 @@
       <c r="A16">
         <v>511</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C16">
@@ -1901,7 +1905,7 @@
       <c r="A17">
         <v>512</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C17">
@@ -1912,7 +1916,7 @@
       <c r="A18">
         <v>513</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C18">
@@ -1923,7 +1927,7 @@
       <c r="A19">
         <v>-1</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="41" t="s">
         <v>19</v>
       </c>
       <c r="C19">
@@ -1934,7 +1938,7 @@
       <c r="A20">
         <v>1111</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="41" t="s">
         <v>20</v>
       </c>
       <c r="C20">
@@ -1945,7 +1949,7 @@
       <c r="A21">
         <v>1112</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C21">
@@ -1956,7 +1960,7 @@
       <c r="A22">
         <v>1113</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C22">
@@ -1967,7 +1971,7 @@
       <c r="A23">
         <v>1122</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="41" t="s">
         <v>23</v>
       </c>
       <c r="C23">
@@ -1978,7 +1982,7 @@
       <c r="A24">
         <v>1123</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C24">
@@ -1989,7 +1993,7 @@
       <c r="A25">
         <v>1130</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="41" t="s">
         <v>25</v>
       </c>
       <c r="C25">
@@ -2000,7 +2004,7 @@
       <c r="A26">
         <v>1140</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="41" t="s">
         <v>27</v>
       </c>
       <c r="C26">
@@ -2011,7 +2015,7 @@
       <c r="A27">
         <v>1210</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="41" t="s">
         <v>28</v>
       </c>
       <c r="C27">
@@ -2022,7 +2026,7 @@
       <c r="A28">
         <v>1219</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C28">
@@ -2033,7 +2037,7 @@
       <c r="A29">
         <v>1220</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="41" t="s">
         <v>30</v>
       </c>
       <c r="C29">
@@ -2044,7 +2048,7 @@
       <c r="A30">
         <v>1230</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="41" t="s">
         <v>31</v>
       </c>
       <c r="C30">
@@ -2055,7 +2059,7 @@
       <c r="A31">
         <v>1310</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="41" t="s">
         <v>32</v>
       </c>
       <c r="C31">
@@ -2066,7 +2070,7 @@
       <c r="A32">
         <v>1320</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="41" t="s">
         <v>33</v>
       </c>
       <c r="C32">
@@ -2077,7 +2081,7 @@
       <c r="A33">
         <v>-1</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="41" t="s">
         <v>34</v>
       </c>
       <c r="C33">
@@ -2088,7 +2092,7 @@
       <c r="A34">
         <v>2011</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C34">
@@ -2099,7 +2103,7 @@
       <c r="A35">
         <v>2012</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="41" t="s">
         <v>36</v>
       </c>
       <c r="C35">
@@ -2110,7 +2114,7 @@
       <c r="A36">
         <v>2021</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="41" t="s">
         <v>37</v>
       </c>
       <c r="C36">
@@ -2121,7 +2125,7 @@
       <c r="A37">
         <v>2111</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="41" t="s">
         <v>38</v>
       </c>
       <c r="C37">
@@ -2132,7 +2136,7 @@
       <c r="A38">
         <v>2112</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="41" t="s">
         <v>39</v>
       </c>
       <c r="C38">
@@ -2143,7 +2147,7 @@
       <c r="A39">
         <v>2121</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="41" t="s">
         <v>40</v>
       </c>
       <c r="C39">
@@ -2154,7 +2158,7 @@
       <c r="A40">
         <v>2122</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="41" t="s">
         <v>41</v>
       </c>
       <c r="C40">
@@ -2165,7 +2169,7 @@
       <c r="A41">
         <v>2123</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="41" t="s">
         <v>42</v>
       </c>
       <c r="C41">
@@ -2176,7 +2180,7 @@
       <c r="A42">
         <v>2124</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="41" t="s">
         <v>43</v>
       </c>
       <c r="C42">
@@ -2187,7 +2191,7 @@
       <c r="A43">
         <v>2125</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="41" t="s">
         <v>44</v>
       </c>
       <c r="C43">
@@ -2198,7 +2202,7 @@
       <c r="A44">
         <v>2131</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="41" t="s">
         <v>45</v>
       </c>
       <c r="C44">
@@ -2209,7 +2213,7 @@
       <c r="A45">
         <v>2132</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C45">
@@ -2220,7 +2224,7 @@
       <c r="A46">
         <v>2133</v>
       </c>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="41" t="s">
         <v>47</v>
       </c>
       <c r="C46">
@@ -2231,7 +2235,7 @@
       <c r="A47">
         <v>2134</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="41" t="s">
         <v>48</v>
       </c>
       <c r="C47">
@@ -2242,7 +2246,7 @@
       <c r="A48">
         <v>2140</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="41" t="s">
         <v>49</v>
       </c>
       <c r="C48">
@@ -2253,7 +2257,7 @@
       <c r="A49">
         <v>2141</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="41" t="s">
         <v>50</v>
       </c>
       <c r="C49">
@@ -2264,7 +2268,7 @@
       <c r="A50">
         <v>2142</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C50">
@@ -2275,7 +2279,7 @@
       <c r="A51">
         <v>2143</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="41" t="s">
         <v>52</v>
       </c>
       <c r="C51">
@@ -2286,7 +2290,7 @@
       <c r="A52">
         <v>2144</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="41" t="s">
         <v>53</v>
       </c>
       <c r="C52">
@@ -2297,7 +2301,7 @@
       <c r="A53">
         <v>2145</v>
       </c>
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="41" t="s">
         <v>54</v>
       </c>
       <c r="C53">
@@ -2308,7 +2312,7 @@
       <c r="A54">
         <v>2146</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="41" t="s">
         <v>55</v>
       </c>
       <c r="C54">
@@ -2319,7 +2323,7 @@
       <c r="A55">
         <v>2147</v>
       </c>
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="41" t="s">
         <v>56</v>
       </c>
       <c r="C55">
@@ -2330,7 +2334,7 @@
       <c r="A56">
         <v>2148</v>
       </c>
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="41" t="s">
         <v>57</v>
       </c>
       <c r="C56">
@@ -2341,7 +2345,7 @@
       <c r="A57">
         <v>2149</v>
       </c>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="41" t="s">
         <v>58</v>
       </c>
       <c r="C57">
@@ -2352,7 +2356,7 @@
       <c r="A58">
         <v>2151</v>
       </c>
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="41" t="s">
         <v>59</v>
       </c>
       <c r="C58">
@@ -2363,7 +2367,7 @@
       <c r="A59">
         <v>2152</v>
       </c>
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="41" t="s">
         <v>60</v>
       </c>
       <c r="C59">
@@ -2374,7 +2378,7 @@
       <c r="A60">
         <v>2153</v>
       </c>
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="41" t="s">
         <v>61</v>
       </c>
       <c r="C60">
@@ -2385,7 +2389,7 @@
       <c r="A61">
         <v>2211</v>
       </c>
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="41" t="s">
         <v>62</v>
       </c>
       <c r="C61">
@@ -2396,7 +2400,7 @@
       <c r="A62">
         <v>2221</v>
       </c>
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="41" t="s">
         <v>63</v>
       </c>
       <c r="C62">
@@ -2407,7 +2411,7 @@
       <c r="A63">
         <v>2231</v>
       </c>
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="41" t="s">
         <v>64</v>
       </c>
       <c r="C63">
@@ -2418,7 +2422,7 @@
       <c r="A64">
         <v>2232</v>
       </c>
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="41" t="s">
         <v>65</v>
       </c>
       <c r="C64">
@@ -2429,7 +2433,7 @@
       <c r="A65">
         <v>2233</v>
       </c>
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="41" t="s">
         <v>66</v>
       </c>
       <c r="C65">
@@ -2440,7 +2444,7 @@
       <c r="A66">
         <v>2234</v>
       </c>
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="41" t="s">
         <v>67</v>
       </c>
       <c r="C66">
@@ -2451,7 +2455,7 @@
       <c r="A67">
         <v>2235</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="41" t="s">
         <v>68</v>
       </c>
       <c r="C67">
@@ -2462,7 +2466,7 @@
       <c r="A68">
         <v>2236</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="41" t="s">
         <v>69</v>
       </c>
       <c r="C68">
@@ -2473,7 +2477,7 @@
       <c r="A69">
         <v>2237</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="41" t="s">
         <v>70</v>
       </c>
       <c r="C69">
@@ -2484,7 +2488,7 @@
       <c r="A70">
         <v>2311</v>
       </c>
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="41" t="s">
         <v>71</v>
       </c>
       <c r="C70">
@@ -2495,7 +2499,7 @@
       <c r="A71">
         <v>2312</v>
       </c>
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="41" t="s">
         <v>72</v>
       </c>
       <c r="C71">
@@ -2506,7 +2510,7 @@
       <c r="A72">
         <v>2313</v>
       </c>
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="41" t="s">
         <v>73</v>
       </c>
       <c r="C72">
@@ -2517,7 +2521,7 @@
       <c r="A73">
         <v>2321</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="41" t="s">
         <v>74</v>
       </c>
       <c r="C73">
@@ -2528,7 +2532,7 @@
       <c r="A74">
         <v>2330</v>
       </c>
-      <c r="B74" s="39" t="s">
+      <c r="B74" s="41" t="s">
         <v>75</v>
       </c>
       <c r="C74">
@@ -2539,7 +2543,7 @@
       <c r="A75">
         <v>2340</v>
       </c>
-      <c r="B75" s="39" t="s">
+      <c r="B75" s="41" t="s">
         <v>76</v>
       </c>
       <c r="C75">
@@ -2550,7 +2554,7 @@
       <c r="A76">
         <v>2391</v>
       </c>
-      <c r="B76" s="39" t="s">
+      <c r="B76" s="41" t="s">
         <v>77</v>
       </c>
       <c r="C76">
@@ -2561,7 +2565,7 @@
       <c r="A77">
         <v>2392</v>
       </c>
-      <c r="B77" s="39" t="s">
+      <c r="B77" s="41" t="s">
         <v>78</v>
       </c>
       <c r="C77">
@@ -2572,7 +2576,7 @@
       <c r="A78">
         <v>2394</v>
       </c>
-      <c r="B78" s="39" t="s">
+      <c r="B78" s="41" t="s">
         <v>79</v>
       </c>
       <c r="C78">
@@ -2583,7 +2587,7 @@
       <c r="A79">
         <v>2410</v>
       </c>
-      <c r="B79" s="39" t="s">
+      <c r="B79" s="41" t="s">
         <v>80</v>
       </c>
       <c r="C79">
@@ -2594,7 +2598,7 @@
       <c r="A80">
         <v>2412</v>
       </c>
-      <c r="B80" s="39" t="s">
+      <c r="B80" s="41" t="s">
         <v>81</v>
       </c>
       <c r="C80">
@@ -2605,7 +2609,7 @@
       <c r="A81">
         <v>2419</v>
       </c>
-      <c r="B81" s="39" t="s">
+      <c r="B81" s="41" t="s">
         <v>82</v>
       </c>
       <c r="C81">
@@ -2616,7 +2620,7 @@
       <c r="A82">
         <v>2421</v>
       </c>
-      <c r="B82" s="39" t="s">
+      <c r="B82" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C82">
@@ -2627,7 +2631,7 @@
       <c r="A83">
         <v>2422</v>
       </c>
-      <c r="B83" s="39" t="s">
+      <c r="B83" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C83">
@@ -2638,7 +2642,7 @@
       <c r="A84">
         <v>2423</v>
       </c>
-      <c r="B84" s="39" t="s">
+      <c r="B84" s="41" t="s">
         <v>85</v>
       </c>
       <c r="C84">
@@ -2649,7 +2653,7 @@
       <c r="A85">
         <v>2511</v>
       </c>
-      <c r="B85" s="39" t="s">
+      <c r="B85" s="41" t="s">
         <v>86</v>
       </c>
       <c r="C85">
@@ -2660,7 +2664,7 @@
       <c r="A86">
         <v>2512</v>
       </c>
-      <c r="B86" s="39" t="s">
+      <c r="B86" s="41" t="s">
         <v>87</v>
       </c>
       <c r="C86">
@@ -2671,7 +2675,7 @@
       <c r="A87">
         <v>2513</v>
       </c>
-      <c r="B87" s="39" t="s">
+      <c r="B87" s="41" t="s">
         <v>88</v>
       </c>
       <c r="C87">
@@ -2682,7 +2686,7 @@
       <c r="A88">
         <v>2514</v>
       </c>
-      <c r="B88" s="39" t="s">
+      <c r="B88" s="41" t="s">
         <v>89</v>
       </c>
       <c r="C88">
@@ -2693,7 +2697,7 @@
       <c r="A89">
         <v>2515</v>
       </c>
-      <c r="B89" s="39" t="s">
+      <c r="B89" s="41" t="s">
         <v>90</v>
       </c>
       <c r="C89">
@@ -2704,7 +2708,7 @@
       <c r="A90">
         <v>2516</v>
       </c>
-      <c r="B90" s="39" t="s">
+      <c r="B90" s="41" t="s">
         <v>91</v>
       </c>
       <c r="C90">
@@ -2715,7 +2719,7 @@
       <c r="A91">
         <v>2521</v>
       </c>
-      <c r="B91" s="39" t="s">
+      <c r="B91" s="41" t="s">
         <v>92</v>
       </c>
       <c r="C91">
@@ -2726,7 +2730,7 @@
       <c r="A92">
         <v>2522</v>
       </c>
-      <c r="B92" s="39" t="s">
+      <c r="B92" s="41" t="s">
         <v>93</v>
       </c>
       <c r="C92">
@@ -2737,7 +2741,7 @@
       <c r="A93">
         <v>2523</v>
       </c>
-      <c r="B93" s="39" t="s">
+      <c r="B93" s="41" t="s">
         <v>94</v>
       </c>
       <c r="C93">
@@ -2748,7 +2752,7 @@
       <c r="A94">
         <v>2524</v>
       </c>
-      <c r="B94" s="39" t="s">
+      <c r="B94" s="41" t="s">
         <v>95</v>
       </c>
       <c r="C94">
@@ -2759,7 +2763,7 @@
       <c r="A95">
         <v>2525</v>
       </c>
-      <c r="B95" s="39" t="s">
+      <c r="B95" s="41" t="s">
         <v>96</v>
       </c>
       <c r="C95">
@@ -2770,7 +2774,7 @@
       <c r="A96">
         <v>2531</v>
       </c>
-      <c r="B96" s="39" t="s">
+      <c r="B96" s="41" t="s">
         <v>97</v>
       </c>
       <c r="C96">
@@ -2781,7 +2785,7 @@
       <c r="A97">
         <v>2611</v>
       </c>
-      <c r="B97" s="39" t="s">
+      <c r="B97" s="41" t="s">
         <v>98</v>
       </c>
       <c r="C97">
@@ -2792,7 +2796,7 @@
       <c r="A98">
         <v>2612</v>
       </c>
-      <c r="B98" s="39" t="s">
+      <c r="B98" s="41" t="s">
         <v>99</v>
       </c>
       <c r="C98">
@@ -2803,7 +2807,7 @@
       <c r="A99">
         <v>2613</v>
       </c>
-      <c r="B99" s="39" t="s">
+      <c r="B99" s="41" t="s">
         <v>100</v>
       </c>
       <c r="C99">
@@ -2814,7 +2818,7 @@
       <c r="A100">
         <v>2614</v>
       </c>
-      <c r="B100" s="39" t="s">
+      <c r="B100" s="41" t="s">
         <v>101</v>
       </c>
       <c r="C100">
@@ -2825,7 +2829,7 @@
       <c r="A101">
         <v>2615</v>
       </c>
-      <c r="B101" s="39" t="s">
+      <c r="B101" s="41" t="s">
         <v>102</v>
       </c>
       <c r="C101">
@@ -2836,7 +2840,7 @@
       <c r="A102">
         <v>2616</v>
       </c>
-      <c r="B102" s="39" t="s">
+      <c r="B102" s="41" t="s">
         <v>103</v>
       </c>
       <c r="C102">
@@ -2847,7 +2851,7 @@
       <c r="A103">
         <v>2617</v>
       </c>
-      <c r="B103" s="39" t="s">
+      <c r="B103" s="41" t="s">
         <v>104</v>
       </c>
       <c r="C103">
@@ -2858,7 +2862,7 @@
       <c r="A104">
         <v>2621</v>
       </c>
-      <c r="B104" s="39" t="s">
+      <c r="B104" s="41" t="s">
         <v>105</v>
       </c>
       <c r="C104">
@@ -2869,7 +2873,7 @@
       <c r="A105">
         <v>2622</v>
       </c>
-      <c r="B105" s="39" t="s">
+      <c r="B105" s="41" t="s">
         <v>106</v>
       </c>
       <c r="C105">
@@ -2880,7 +2884,7 @@
       <c r="A106">
         <v>2623</v>
       </c>
-      <c r="B106" s="39" t="s">
+      <c r="B106" s="41" t="s">
         <v>107</v>
       </c>
       <c r="C106">
@@ -2891,7 +2895,7 @@
       <c r="A107">
         <v>2624</v>
       </c>
-      <c r="B107" s="39" t="s">
+      <c r="B107" s="41" t="s">
         <v>108</v>
       </c>
       <c r="C107">
@@ -2902,7 +2906,7 @@
       <c r="A108">
         <v>2625</v>
       </c>
-      <c r="B108" s="39" t="s">
+      <c r="B108" s="41" t="s">
         <v>109</v>
       </c>
       <c r="C108">
@@ -2913,7 +2917,7 @@
       <c r="A109">
         <v>2627</v>
       </c>
-      <c r="B109" s="39" t="s">
+      <c r="B109" s="41" t="s">
         <v>110</v>
       </c>
       <c r="C109">
@@ -2924,7 +2928,7 @@
       <c r="A110">
         <v>2631</v>
       </c>
-      <c r="B110" s="39" t="s">
+      <c r="B110" s="41" t="s">
         <v>111</v>
       </c>
       <c r="C110">
@@ -2935,7 +2939,7 @@
       <c r="A111">
         <v>-1</v>
       </c>
-      <c r="B111" s="39" t="s">
+      <c r="B111" s="41" t="s">
         <v>112</v>
       </c>
       <c r="C111">
@@ -2946,7 +2950,7 @@
       <c r="A112">
         <v>3001</v>
       </c>
-      <c r="B112" s="39" t="s">
+      <c r="B112" s="41" t="s">
         <v>113</v>
       </c>
       <c r="C112">
@@ -2957,7 +2961,7 @@
       <c r="A113">
         <v>3003</v>
       </c>
-      <c r="B113" s="39" t="s">
+      <c r="B113" s="41" t="s">
         <v>114</v>
       </c>
       <c r="C113">
@@ -2968,7 +2972,7 @@
       <c r="A114">
         <v>3011</v>
       </c>
-      <c r="B114" s="39" t="s">
+      <c r="B114" s="41" t="s">
         <v>115</v>
       </c>
       <c r="C114">
@@ -2979,7 +2983,7 @@
       <c r="A115">
         <v>3012</v>
       </c>
-      <c r="B115" s="39" t="s">
+      <c r="B115" s="41" t="s">
         <v>116</v>
       </c>
       <c r="C115">
@@ -2990,7 +2994,7 @@
       <c r="A116">
         <v>3111</v>
       </c>
-      <c r="B116" s="39" t="s">
+      <c r="B116" s="41" t="s">
         <v>117</v>
       </c>
       <c r="C116">
@@ -3001,7 +3005,7 @@
       <c r="A117">
         <v>3112</v>
       </c>
-      <c r="B117" s="39" t="s">
+      <c r="B117" s="41" t="s">
         <v>118</v>
       </c>
       <c r="C117">
@@ -3012,7 +3016,7 @@
       <c r="A118">
         <v>3113</v>
       </c>
-      <c r="B118" s="39" t="s">
+      <c r="B118" s="41" t="s">
         <v>119</v>
       </c>
       <c r="C118">
@@ -3023,7 +3027,7 @@
       <c r="A119">
         <v>3114</v>
       </c>
-      <c r="B119" s="39" t="s">
+      <c r="B119" s="41" t="s">
         <v>120</v>
       </c>
       <c r="C119">
@@ -3034,7 +3038,7 @@
       <c r="A120">
         <v>3115</v>
       </c>
-      <c r="B120" s="39" t="s">
+      <c r="B120" s="41" t="s">
         <v>121</v>
       </c>
       <c r="C120">
@@ -3045,7 +3049,7 @@
       <c r="A121">
         <v>3116</v>
       </c>
-      <c r="B121" s="39" t="s">
+      <c r="B121" s="41" t="s">
         <v>122</v>
       </c>
       <c r="C121">
@@ -3056,7 +3060,7 @@
       <c r="A122">
         <v>3117</v>
       </c>
-      <c r="B122" s="39" t="s">
+      <c r="B122" s="41" t="s">
         <v>123</v>
       </c>
       <c r="C122">
@@ -3067,7 +3071,7 @@
       <c r="A123">
         <v>3121</v>
       </c>
-      <c r="B123" s="39" t="s">
+      <c r="B123" s="41" t="s">
         <v>124</v>
       </c>
       <c r="C123">
@@ -3078,7 +3082,7 @@
       <c r="A124">
         <v>3122</v>
       </c>
-      <c r="B124" s="39" t="s">
+      <c r="B124" s="41" t="s">
         <v>125</v>
       </c>
       <c r="C124">
@@ -3089,7 +3093,7 @@
       <c r="A125">
         <v>3123</v>
       </c>
-      <c r="B125" s="39" t="s">
+      <c r="B125" s="41" t="s">
         <v>126</v>
       </c>
       <c r="C125">
@@ -3100,7 +3104,7 @@
       <c r="A126">
         <v>3131</v>
       </c>
-      <c r="B126" s="39" t="s">
+      <c r="B126" s="41" t="s">
         <v>127</v>
       </c>
       <c r="C126">
@@ -3111,7 +3115,7 @@
       <c r="A127">
         <v>3132</v>
       </c>
-      <c r="B127" s="39" t="s">
+      <c r="B127" s="41" t="s">
         <v>128</v>
       </c>
       <c r="C127">
@@ -3122,7 +3126,7 @@
       <c r="A128">
         <v>3134</v>
       </c>
-      <c r="B128" s="39" t="s">
+      <c r="B128" s="41" t="s">
         <v>129</v>
       </c>
       <c r="C128">
@@ -3133,7 +3137,7 @@
       <c r="A129">
         <v>3135</v>
       </c>
-      <c r="B129" s="39" t="s">
+      <c r="B129" s="41" t="s">
         <v>130</v>
       </c>
       <c r="C129">
@@ -3144,7 +3148,7 @@
       <c r="A130">
         <v>3136</v>
       </c>
-      <c r="B130" s="39" t="s">
+      <c r="B130" s="41" t="s">
         <v>131</v>
       </c>
       <c r="C130">
@@ -3155,7 +3159,7 @@
       <c r="A131">
         <v>3141</v>
       </c>
-      <c r="B131" s="39" t="s">
+      <c r="B131" s="41" t="s">
         <v>132</v>
       </c>
       <c r="C131">
@@ -3166,7 +3170,7 @@
       <c r="A132">
         <v>3142</v>
       </c>
-      <c r="B132" s="39" t="s">
+      <c r="B132" s="41" t="s">
         <v>133</v>
       </c>
       <c r="C132">
@@ -3177,7 +3181,7 @@
       <c r="A133">
         <v>3143</v>
       </c>
-      <c r="B133" s="39" t="s">
+      <c r="B133" s="41" t="s">
         <v>134</v>
       </c>
       <c r="C133">
@@ -3188,7 +3192,7 @@
       <c r="A134">
         <v>3144</v>
       </c>
-      <c r="B134" s="39" t="s">
+      <c r="B134" s="41" t="s">
         <v>135</v>
       </c>
       <c r="C134">
@@ -3199,7 +3203,7 @@
       <c r="A135">
         <v>3146</v>
       </c>
-      <c r="B135" s="39" t="s">
+      <c r="B135" s="41" t="s">
         <v>136</v>
       </c>
       <c r="C135">
@@ -3210,7 +3214,7 @@
       <c r="A136">
         <v>3147</v>
       </c>
-      <c r="B136" s="39" t="s">
+      <c r="B136" s="41" t="s">
         <v>137</v>
       </c>
       <c r="C136">
@@ -3221,7 +3225,7 @@
       <c r="A137">
         <v>3161</v>
       </c>
-      <c r="B137" s="39" t="s">
+      <c r="B137" s="41" t="s">
         <v>138</v>
       </c>
       <c r="C137">
@@ -3232,7 +3236,7 @@
       <c r="A138">
         <v>3162</v>
       </c>
-      <c r="B138" s="39" t="s">
+      <c r="B138" s="41" t="s">
         <v>139</v>
       </c>
       <c r="C138">
@@ -3243,7 +3247,7 @@
       <c r="A139">
         <v>3163</v>
       </c>
-      <c r="B139" s="39" t="s">
+      <c r="B139" s="41" t="s">
         <v>140</v>
       </c>
       <c r="C139">
@@ -3254,7 +3258,7 @@
       <c r="A140">
         <v>3171</v>
       </c>
-      <c r="B140" s="39" t="s">
+      <c r="B140" s="41" t="s">
         <v>141</v>
       </c>
       <c r="C140">
@@ -3265,7 +3269,7 @@
       <c r="A141">
         <v>3172</v>
       </c>
-      <c r="B141" s="39" t="s">
+      <c r="B141" s="41" t="s">
         <v>142</v>
       </c>
       <c r="C141">
@@ -3276,7 +3280,7 @@
       <c r="A142">
         <v>3189</v>
       </c>
-      <c r="B142" s="39" t="s">
+      <c r="B142" s="41" t="s">
         <v>143</v>
       </c>
       <c r="C142">
@@ -3287,7 +3291,7 @@
       <c r="A143">
         <v>3191</v>
       </c>
-      <c r="B143" s="39" t="s">
+      <c r="B143" s="41" t="s">
         <v>144</v>
       </c>
       <c r="C143">
@@ -3298,7 +3302,7 @@
       <c r="A144">
         <v>3192</v>
       </c>
-      <c r="B144" s="39" t="s">
+      <c r="B144" s="41" t="s">
         <v>145</v>
       </c>
       <c r="C144">
@@ -3309,7 +3313,7 @@
       <c r="A145">
         <v>3201</v>
       </c>
-      <c r="B145" s="39" t="s">
+      <c r="B145" s="41" t="s">
         <v>146</v>
       </c>
       <c r="C145">
@@ -3320,7 +3324,7 @@
       <c r="A146">
         <v>3210</v>
       </c>
-      <c r="B146" s="39" t="s">
+      <c r="B146" s="41" t="s">
         <v>147</v>
       </c>
       <c r="C146">
@@ -3331,7 +3335,7 @@
       <c r="A147">
         <v>3211</v>
       </c>
-      <c r="B147" s="39" t="s">
+      <c r="B147" s="41" t="s">
         <v>148</v>
       </c>
       <c r="C147">
@@ -3342,7 +3346,7 @@
       <c r="A148">
         <v>3212</v>
       </c>
-      <c r="B148" s="39" t="s">
+      <c r="B148" s="41" t="s">
         <v>149</v>
       </c>
       <c r="C148">
@@ -3353,7 +3357,7 @@
       <c r="A149">
         <v>3213</v>
       </c>
-      <c r="B149" s="39" t="s">
+      <c r="B149" s="41" t="s">
         <v>150</v>
       </c>
       <c r="C149">
@@ -3364,7 +3368,7 @@
       <c r="A150">
         <v>3214</v>
       </c>
-      <c r="B150" s="39" t="s">
+      <c r="B150" s="41" t="s">
         <v>151</v>
       </c>
       <c r="C150">
@@ -3375,7 +3379,7 @@
       <c r="A151">
         <v>3221</v>
       </c>
-      <c r="B151" s="39" t="s">
+      <c r="B151" s="41" t="s">
         <v>152</v>
       </c>
       <c r="C151">
@@ -3386,7 +3390,7 @@
       <c r="A152">
         <v>3222</v>
       </c>
-      <c r="B152" s="39" t="s">
+      <c r="B152" s="41" t="s">
         <v>153</v>
       </c>
       <c r="C152">
@@ -3397,7 +3401,7 @@
       <c r="A153">
         <v>3223</v>
       </c>
-      <c r="B153" s="39" t="s">
+      <c r="B153" s="41" t="s">
         <v>154</v>
       </c>
       <c r="C153">
@@ -3408,7 +3412,7 @@
       <c r="A154">
         <v>3224</v>
       </c>
-      <c r="B154" s="39" t="s">
+      <c r="B154" s="41" t="s">
         <v>155</v>
       </c>
       <c r="C154">
@@ -3419,7 +3423,7 @@
       <c r="A155">
         <v>3225</v>
       </c>
-      <c r="B155" s="39" t="s">
+      <c r="B155" s="41" t="s">
         <v>156</v>
       </c>
       <c r="C155">
@@ -3430,7 +3434,7 @@
       <c r="A156">
         <v>3231</v>
       </c>
-      <c r="B156" s="39" t="s">
+      <c r="B156" s="41" t="s">
         <v>157</v>
       </c>
       <c r="C156">
@@ -3441,7 +3445,7 @@
       <c r="A157">
         <v>3232</v>
       </c>
-      <c r="B157" s="39" t="s">
+      <c r="B157" s="41" t="s">
         <v>158</v>
       </c>
       <c r="C157">
@@ -3452,7 +3456,7 @@
       <c r="A158">
         <v>3241</v>
       </c>
-      <c r="B158" s="39" t="s">
+      <c r="B158" s="41" t="s">
         <v>159</v>
       </c>
       <c r="C158">
@@ -3463,7 +3467,7 @@
       <c r="A159">
         <v>3242</v>
       </c>
-      <c r="B159" s="39" t="s">
+      <c r="B159" s="41" t="s">
         <v>160</v>
       </c>
       <c r="C159">
@@ -3474,7 +3478,7 @@
       <c r="A160">
         <v>3250</v>
       </c>
-      <c r="B160" s="39" t="s">
+      <c r="B160" s="41" t="s">
         <v>161</v>
       </c>
       <c r="C160">
@@ -3485,7 +3489,7 @@
       <c r="A161">
         <v>3251</v>
       </c>
-      <c r="B161" s="39" t="s">
+      <c r="B161" s="41" t="s">
         <v>162</v>
       </c>
       <c r="C161">
@@ -3496,7 +3500,7 @@
       <c r="A162">
         <v>3252</v>
       </c>
-      <c r="B162" s="39" t="s">
+      <c r="B162" s="41" t="s">
         <v>163</v>
       </c>
       <c r="C162">
@@ -3507,7 +3511,7 @@
       <c r="A163">
         <v>3253</v>
       </c>
-      <c r="B163" s="39" t="s">
+      <c r="B163" s="41" t="s">
         <v>164</v>
       </c>
       <c r="C163">
@@ -3518,7 +3522,7 @@
       <c r="A164">
         <v>3281</v>
       </c>
-      <c r="B164" s="39" t="s">
+      <c r="B164" s="41" t="s">
         <v>165</v>
       </c>
       <c r="C164">
@@ -3529,7 +3533,7 @@
       <c r="A165">
         <v>3311</v>
       </c>
-      <c r="B165" s="39" t="s">
+      <c r="B165" s="41" t="s">
         <v>166</v>
       </c>
       <c r="C165">
@@ -3540,7 +3544,7 @@
       <c r="A166">
         <v>3312</v>
       </c>
-      <c r="B166" s="39" t="s">
+      <c r="B166" s="41" t="s">
         <v>167</v>
       </c>
       <c r="C166">
@@ -3551,7 +3555,7 @@
       <c r="A167">
         <v>3313</v>
       </c>
-      <c r="B167" s="39" t="s">
+      <c r="B167" s="41" t="s">
         <v>168</v>
       </c>
       <c r="C167">
@@ -3562,7 +3566,7 @@
       <c r="A168">
         <v>3321</v>
       </c>
-      <c r="B168" s="39" t="s">
+      <c r="B168" s="41" t="s">
         <v>169</v>
       </c>
       <c r="C168">
@@ -3573,7 +3577,7 @@
       <c r="A169">
         <v>3322</v>
       </c>
-      <c r="B169" s="39" t="s">
+      <c r="B169" s="41" t="s">
         <v>170</v>
       </c>
       <c r="C169">
@@ -3584,7 +3588,7 @@
       <c r="A170">
         <v>3331</v>
       </c>
-      <c r="B170" s="39" t="s">
+      <c r="B170" s="41" t="s">
         <v>171</v>
       </c>
       <c r="C170">
@@ -3595,7 +3599,7 @@
       <c r="A171">
         <v>3341</v>
       </c>
-      <c r="B171" s="39" t="s">
+      <c r="B171" s="41" t="s">
         <v>172</v>
       </c>
       <c r="C171">
@@ -3606,7 +3610,7 @@
       <c r="A172">
         <v>3411</v>
       </c>
-      <c r="B172" s="39" t="s">
+      <c r="B172" s="41" t="s">
         <v>173</v>
       </c>
       <c r="C172">
@@ -3617,7 +3621,7 @@
       <c r="A173">
         <v>3412</v>
       </c>
-      <c r="B173" s="39" t="s">
+      <c r="B173" s="41" t="s">
         <v>174</v>
       </c>
       <c r="C173">
@@ -3628,7 +3632,7 @@
       <c r="A174">
         <v>3413</v>
       </c>
-      <c r="B174" s="39" t="s">
+      <c r="B174" s="41" t="s">
         <v>175</v>
       </c>
       <c r="C174">
@@ -3639,7 +3643,7 @@
       <c r="A175">
         <v>3421</v>
       </c>
-      <c r="B175" s="39" t="s">
+      <c r="B175" s="41" t="s">
         <v>176</v>
       </c>
       <c r="C175">
@@ -3650,7 +3654,7 @@
       <c r="A176">
         <v>3422</v>
       </c>
-      <c r="B176" s="39" t="s">
+      <c r="B176" s="41" t="s">
         <v>177</v>
       </c>
       <c r="C176">
@@ -3661,7 +3665,7 @@
       <c r="A177">
         <v>3423</v>
       </c>
-      <c r="B177" s="39" t="s">
+      <c r="B177" s="41" t="s">
         <v>178</v>
       </c>
       <c r="C177">
@@ -3672,7 +3676,7 @@
       <c r="A178">
         <v>3424</v>
       </c>
-      <c r="B178" s="39" t="s">
+      <c r="B178" s="41" t="s">
         <v>179</v>
       </c>
       <c r="C178">
@@ -3683,7 +3687,7 @@
       <c r="A179">
         <v>3425</v>
       </c>
-      <c r="B179" s="39" t="s">
+      <c r="B179" s="41" t="s">
         <v>180</v>
       </c>
       <c r="C179">
@@ -3694,7 +3698,7 @@
       <c r="A180">
         <v>3426</v>
       </c>
-      <c r="B180" s="39" t="s">
+      <c r="B180" s="41" t="s">
         <v>181</v>
       </c>
       <c r="C180">
@@ -3705,7 +3709,7 @@
       <c r="A181">
         <v>3511</v>
       </c>
-      <c r="B181" s="39" t="s">
+      <c r="B181" s="41" t="s">
         <v>182</v>
       </c>
       <c r="C181">
@@ -3716,7 +3720,7 @@
       <c r="A182">
         <v>3512</v>
       </c>
-      <c r="B182" s="39" t="s">
+      <c r="B182" s="41" t="s">
         <v>183</v>
       </c>
       <c r="C182">
@@ -3727,7 +3731,7 @@
       <c r="A183">
         <v>3513</v>
       </c>
-      <c r="B183" s="39" t="s">
+      <c r="B183" s="41" t="s">
         <v>184</v>
       </c>
       <c r="C183">
@@ -3738,7 +3742,7 @@
       <c r="A184">
         <v>3514</v>
       </c>
-      <c r="B184" s="39" t="s">
+      <c r="B184" s="41" t="s">
         <v>185</v>
       </c>
       <c r="C184">
@@ -3749,7 +3753,7 @@
       <c r="A185">
         <v>3515</v>
       </c>
-      <c r="B185" s="39" t="s">
+      <c r="B185" s="41" t="s">
         <v>186</v>
       </c>
       <c r="C185">
@@ -3760,7 +3764,7 @@
       <c r="A186">
         <v>3516</v>
       </c>
-      <c r="B186" s="39" t="s">
+      <c r="B186" s="41" t="s">
         <v>187</v>
       </c>
       <c r="C186">
@@ -3771,7 +3775,7 @@
       <c r="A187">
         <v>3517</v>
       </c>
-      <c r="B187" s="39" t="s">
+      <c r="B187" s="41" t="s">
         <v>188</v>
       </c>
       <c r="C187">
@@ -3782,7 +3786,7 @@
       <c r="A188">
         <v>3518</v>
       </c>
-      <c r="B188" s="39" t="s">
+      <c r="B188" s="41" t="s">
         <v>189</v>
       </c>
       <c r="C188">
@@ -3793,7 +3797,7 @@
       <c r="A189">
         <v>3522</v>
       </c>
-      <c r="B189" s="39" t="s">
+      <c r="B189" s="41" t="s">
         <v>190</v>
       </c>
       <c r="C189">
@@ -3804,7 +3808,7 @@
       <c r="A190">
         <v>3523</v>
       </c>
-      <c r="B190" s="39" t="s">
+      <c r="B190" s="41" t="s">
         <v>191</v>
       </c>
       <c r="C190">
@@ -3815,7 +3819,7 @@
       <c r="A191">
         <v>3524</v>
       </c>
-      <c r="B191" s="39" t="s">
+      <c r="B191" s="41" t="s">
         <v>192</v>
       </c>
       <c r="C191">
@@ -3826,7 +3830,7 @@
       <c r="A192">
         <v>3525</v>
       </c>
-      <c r="B192" s="39" t="s">
+      <c r="B192" s="41" t="s">
         <v>193</v>
       </c>
       <c r="C192">
@@ -3837,7 +3841,7 @@
       <c r="A193">
         <v>3531</v>
       </c>
-      <c r="B193" s="39" t="s">
+      <c r="B193" s="41" t="s">
         <v>194</v>
       </c>
       <c r="C193">
@@ -3848,7 +3852,7 @@
       <c r="A194">
         <v>3532</v>
       </c>
-      <c r="B194" s="39" t="s">
+      <c r="B194" s="41" t="s">
         <v>195</v>
       </c>
       <c r="C194">
@@ -3859,7 +3863,7 @@
       <c r="A195">
         <v>3541</v>
       </c>
-      <c r="B195" s="39" t="s">
+      <c r="B195" s="41" t="s">
         <v>196</v>
       </c>
       <c r="C195">
@@ -3870,7 +3874,7 @@
       <c r="A196">
         <v>3542</v>
       </c>
-      <c r="B196" s="39" t="s">
+      <c r="B196" s="41" t="s">
         <v>197</v>
       </c>
       <c r="C196">
@@ -3881,7 +3885,7 @@
       <c r="A197">
         <v>3543</v>
       </c>
-      <c r="B197" s="39" t="s">
+      <c r="B197" s="41" t="s">
         <v>198</v>
       </c>
       <c r="C197">
@@ -3892,7 +3896,7 @@
       <c r="A198">
         <v>3544</v>
       </c>
-      <c r="B198" s="39" t="s">
+      <c r="B198" s="41" t="s">
         <v>199</v>
       </c>
       <c r="C198">
@@ -3903,7 +3907,7 @@
       <c r="A199">
         <v>3545</v>
       </c>
-      <c r="B199" s="39" t="s">
+      <c r="B199" s="41" t="s">
         <v>200</v>
       </c>
       <c r="C199">
@@ -3914,7 +3918,7 @@
       <c r="A200">
         <v>3546</v>
       </c>
-      <c r="B200" s="39" t="s">
+      <c r="B200" s="41" t="s">
         <v>201</v>
       </c>
       <c r="C200">
@@ -3925,7 +3929,7 @@
       <c r="A201">
         <v>3547</v>
       </c>
-      <c r="B201" s="39" t="s">
+      <c r="B201" s="41" t="s">
         <v>202</v>
       </c>
       <c r="C201">
@@ -3936,7 +3940,7 @@
       <c r="A202">
         <v>3548</v>
       </c>
-      <c r="B202" s="39" t="s">
+      <c r="B202" s="41" t="s">
         <v>203</v>
       </c>
       <c r="C202">
@@ -3947,7 +3951,7 @@
       <c r="A203">
         <v>3711</v>
       </c>
-      <c r="B203" s="39" t="s">
+      <c r="B203" s="41" t="s">
         <v>204</v>
       </c>
       <c r="C203">
@@ -3958,7 +3962,7 @@
       <c r="A204">
         <v>3712</v>
       </c>
-      <c r="B204" s="39" t="s">
+      <c r="B204" s="41" t="s">
         <v>205</v>
       </c>
       <c r="C204">
@@ -3969,7 +3973,7 @@
       <c r="A205">
         <v>3713</v>
       </c>
-      <c r="B205" s="39" t="s">
+      <c r="B205" s="41" t="s">
         <v>206</v>
       </c>
       <c r="C205">
@@ -3980,7 +3984,7 @@
       <c r="A206">
         <v>3721</v>
       </c>
-      <c r="B206" s="39" t="s">
+      <c r="B206" s="41" t="s">
         <v>207</v>
       </c>
       <c r="C206">
@@ -3991,7 +3995,7 @@
       <c r="A207">
         <v>3722</v>
       </c>
-      <c r="B207" s="39" t="s">
+      <c r="B207" s="41" t="s">
         <v>208</v>
       </c>
       <c r="C207">
@@ -4002,7 +4006,7 @@
       <c r="A208">
         <v>3723</v>
       </c>
-      <c r="B208" s="39" t="s">
+      <c r="B208" s="41" t="s">
         <v>209</v>
       </c>
       <c r="C208">
@@ -4013,7 +4017,7 @@
       <c r="A209">
         <v>3731</v>
       </c>
-      <c r="B209" s="39" t="s">
+      <c r="B209" s="41" t="s">
         <v>210</v>
       </c>
       <c r="C209">
@@ -4024,7 +4028,7 @@
       <c r="A210">
         <v>3732</v>
       </c>
-      <c r="B210" s="39" t="s">
+      <c r="B210" s="41" t="s">
         <v>211</v>
       </c>
       <c r="C210">
@@ -4035,7 +4039,7 @@
       <c r="A211">
         <v>3741</v>
       </c>
-      <c r="B211" s="39" t="s">
+      <c r="B211" s="41" t="s">
         <v>212</v>
       </c>
       <c r="C211">
@@ -4046,7 +4050,7 @@
       <c r="A212">
         <v>3742</v>
       </c>
-      <c r="B212" s="39" t="s">
+      <c r="B212" s="41" t="s">
         <v>213</v>
       </c>
       <c r="C212">
@@ -4057,7 +4061,7 @@
       <c r="A213">
         <v>3743</v>
       </c>
-      <c r="B213" s="39" t="s">
+      <c r="B213" s="41" t="s">
         <v>214</v>
       </c>
       <c r="C213">
@@ -4068,7 +4072,7 @@
       <c r="A214">
         <v>3751</v>
       </c>
-      <c r="B214" s="39" t="s">
+      <c r="B214" s="41" t="s">
         <v>215</v>
       </c>
       <c r="C214">
@@ -4079,7 +4083,7 @@
       <c r="A215">
         <v>3761</v>
       </c>
-      <c r="B215" s="39" t="s">
+      <c r="B215" s="41" t="s">
         <v>216</v>
       </c>
       <c r="C215">
@@ -4090,7 +4094,7 @@
       <c r="A216">
         <v>3762</v>
       </c>
-      <c r="B216" s="39" t="s">
+      <c r="B216" s="41" t="s">
         <v>217</v>
       </c>
       <c r="C216">
@@ -4101,7 +4105,7 @@
       <c r="A217">
         <v>3763</v>
       </c>
-      <c r="B217" s="39" t="s">
+      <c r="B217" s="41" t="s">
         <v>218</v>
       </c>
       <c r="C217">
@@ -4112,7 +4116,7 @@
       <c r="A218">
         <v>3764</v>
       </c>
-      <c r="B218" s="39" t="s">
+      <c r="B218" s="41" t="s">
         <v>219</v>
       </c>
       <c r="C218">
@@ -4123,7 +4127,7 @@
       <c r="A219">
         <v>3765</v>
       </c>
-      <c r="B219" s="39" t="s">
+      <c r="B219" s="41" t="s">
         <v>220</v>
       </c>
       <c r="C219">
@@ -4134,7 +4138,7 @@
       <c r="A220">
         <v>3771</v>
       </c>
-      <c r="B220" s="39" t="s">
+      <c r="B220" s="41" t="s">
         <v>221</v>
       </c>
       <c r="C220">
@@ -4145,7 +4149,7 @@
       <c r="A221">
         <v>3772</v>
       </c>
-      <c r="B221" s="39" t="s">
+      <c r="B221" s="41" t="s">
         <v>222</v>
       </c>
       <c r="C221">
@@ -4156,7 +4160,7 @@
       <c r="A222">
         <v>3773</v>
       </c>
-      <c r="B222" s="39" t="s">
+      <c r="B222" s="41" t="s">
         <v>223</v>
       </c>
       <c r="C222">
@@ -4167,7 +4171,7 @@
       <c r="A223">
         <v>3911</v>
       </c>
-      <c r="B223" s="39" t="s">
+      <c r="B223" s="41" t="s">
         <v>224</v>
       </c>
       <c r="C223">
@@ -4178,7 +4182,7 @@
       <c r="A224">
         <v>3912</v>
       </c>
-      <c r="B224" s="39" t="s">
+      <c r="B224" s="41" t="s">
         <v>225</v>
       </c>
       <c r="C224">
@@ -4189,7 +4193,7 @@
       <c r="A225">
         <v>-1</v>
       </c>
-      <c r="B225" s="39" t="s">
+      <c r="B225" s="41" t="s">
         <v>226</v>
       </c>
       <c r="C225">
@@ -4200,7 +4204,7 @@
       <c r="A226">
         <v>4101</v>
       </c>
-      <c r="B226" s="39" t="s">
+      <c r="B226" s="41" t="s">
         <v>227</v>
       </c>
       <c r="C226">
@@ -4211,7 +4215,7 @@
       <c r="A227">
         <v>4102</v>
       </c>
-      <c r="B227" s="39" t="s">
+      <c r="B227" s="41" t="s">
         <v>228</v>
       </c>
       <c r="C227">
@@ -4222,7 +4226,7 @@
       <c r="A228">
         <v>4110</v>
       </c>
-      <c r="B228" s="39" t="s">
+      <c r="B228" s="41" t="s">
         <v>229</v>
       </c>
       <c r="C228">
@@ -4233,7 +4237,7 @@
       <c r="A229">
         <v>4121</v>
       </c>
-      <c r="B229" s="39" t="s">
+      <c r="B229" s="41" t="s">
         <v>230</v>
       </c>
       <c r="C229">
@@ -4244,7 +4248,7 @@
       <c r="A230">
         <v>4122</v>
       </c>
-      <c r="B230" s="39" t="s">
+      <c r="B230" s="41" t="s">
         <v>231</v>
       </c>
       <c r="C230">
@@ -4255,7 +4259,7 @@
       <c r="A231">
         <v>4123</v>
       </c>
-      <c r="B231" s="39" t="s">
+      <c r="B231" s="41" t="s">
         <v>232</v>
       </c>
       <c r="C231">
@@ -4266,7 +4270,7 @@
       <c r="A232">
         <v>4131</v>
       </c>
-      <c r="B232" s="39" t="s">
+      <c r="B232" s="41" t="s">
         <v>233</v>
       </c>
       <c r="C232">
@@ -4277,7 +4281,7 @@
       <c r="A233">
         <v>4132</v>
       </c>
-      <c r="B233" s="39" t="s">
+      <c r="B233" s="41" t="s">
         <v>234</v>
       </c>
       <c r="C233">
@@ -4288,7 +4292,7 @@
       <c r="A234">
         <v>4141</v>
       </c>
-      <c r="B234" s="39" t="s">
+      <c r="B234" s="41" t="s">
         <v>235</v>
       </c>
       <c r="C234">
@@ -4299,7 +4303,7 @@
       <c r="A235">
         <v>4142</v>
       </c>
-      <c r="B235" s="39" t="s">
+      <c r="B235" s="41" t="s">
         <v>236</v>
       </c>
       <c r="C235">
@@ -4310,7 +4314,7 @@
       <c r="A236">
         <v>4151</v>
       </c>
-      <c r="B236" s="39" t="s">
+      <c r="B236" s="41" t="s">
         <v>237</v>
       </c>
       <c r="C236">
@@ -4321,7 +4325,7 @@
       <c r="A237">
         <v>4152</v>
       </c>
-      <c r="B237" s="39" t="s">
+      <c r="B237" s="41" t="s">
         <v>238</v>
       </c>
       <c r="C237">
@@ -4332,7 +4336,7 @@
       <c r="A238">
         <v>4201</v>
       </c>
-      <c r="B238" s="39" t="s">
+      <c r="B238" s="41" t="s">
         <v>239</v>
       </c>
       <c r="C238">
@@ -4343,7 +4347,7 @@
       <c r="A239">
         <v>4211</v>
       </c>
-      <c r="B239" s="39" t="s">
+      <c r="B239" s="41" t="s">
         <v>240</v>
       </c>
       <c r="C239">
@@ -4354,7 +4358,7 @@
       <c r="A240">
         <v>4212</v>
       </c>
-      <c r="B240" s="39" t="s">
+      <c r="B240" s="41" t="s">
         <v>241</v>
       </c>
       <c r="C240">
@@ -4365,7 +4369,7 @@
       <c r="A241">
         <v>4213</v>
       </c>
-      <c r="B241" s="39" t="s">
+      <c r="B241" s="41" t="s">
         <v>242</v>
       </c>
       <c r="C241">
@@ -4376,7 +4380,7 @@
       <c r="A242">
         <v>4214</v>
       </c>
-      <c r="B242" s="39" t="s">
+      <c r="B242" s="41" t="s">
         <v>243</v>
       </c>
       <c r="C242">
@@ -4387,7 +4391,7 @@
       <c r="A243">
         <v>4221</v>
       </c>
-      <c r="B243" s="39" t="s">
+      <c r="B243" s="41" t="s">
         <v>244</v>
       </c>
       <c r="C243">
@@ -4398,7 +4402,7 @@
       <c r="A244">
         <v>4222</v>
       </c>
-      <c r="B244" s="39" t="s">
+      <c r="B244" s="41" t="s">
         <v>245</v>
       </c>
       <c r="C244">
@@ -4409,7 +4413,7 @@
       <c r="A245">
         <v>4223</v>
       </c>
-      <c r="B245" s="39" t="s">
+      <c r="B245" s="41" t="s">
         <v>246</v>
       </c>
       <c r="C245">
@@ -4420,7 +4424,7 @@
       <c r="A246">
         <v>4231</v>
       </c>
-      <c r="B246" s="39" t="s">
+      <c r="B246" s="41" t="s">
         <v>247</v>
       </c>
       <c r="C246">
@@ -4431,7 +4435,7 @@
       <c r="A247">
         <v>4241</v>
       </c>
-      <c r="B247" s="39" t="s">
+      <c r="B247" s="41" t="s">
         <v>248</v>
       </c>
       <c r="C247">
@@ -4442,7 +4446,7 @@
       <c r="A248">
         <v>-1</v>
       </c>
-      <c r="B248" s="39" t="s">
+      <c r="B248" s="41" t="s">
         <v>249</v>
       </c>
       <c r="C248">
@@ -4453,7 +4457,7 @@
       <c r="A249">
         <v>5101</v>
       </c>
-      <c r="B249" s="39" t="s">
+      <c r="B249" s="41" t="s">
         <v>250</v>
       </c>
       <c r="C249">
@@ -4464,7 +4468,7 @@
       <c r="A250">
         <v>5102</v>
       </c>
-      <c r="B250" s="39" t="s">
+      <c r="B250" s="41" t="s">
         <v>251</v>
       </c>
       <c r="C250">
@@ -4475,7 +4479,7 @@
       <c r="A251">
         <v>5103</v>
       </c>
-      <c r="B251" s="39" t="s">
+      <c r="B251" s="41" t="s">
         <v>252</v>
       </c>
       <c r="C251">
@@ -4486,7 +4490,7 @@
       <c r="A252">
         <v>5111</v>
       </c>
-      <c r="B252" s="39" t="s">
+      <c r="B252" s="41" t="s">
         <v>253</v>
       </c>
       <c r="C252">
@@ -4497,7 +4501,7 @@
       <c r="A253">
         <v>5112</v>
       </c>
-      <c r="B253" s="39" t="s">
+      <c r="B253" s="41" t="s">
         <v>254</v>
       </c>
       <c r="C253">
@@ -4508,7 +4512,7 @@
       <c r="A254">
         <v>5114</v>
       </c>
-      <c r="B254" s="39" t="s">
+      <c r="B254" s="41" t="s">
         <v>255</v>
       </c>
       <c r="C254">
@@ -4519,7 +4523,7 @@
       <c r="A255">
         <v>5121</v>
       </c>
-      <c r="B255" s="39" t="s">
+      <c r="B255" s="41" t="s">
         <v>256</v>
       </c>
       <c r="C255">
@@ -4530,7 +4534,7 @@
       <c r="A256">
         <v>5131</v>
       </c>
-      <c r="B256" s="39" t="s">
+      <c r="B256" s="41" t="s">
         <v>257</v>
       </c>
       <c r="C256">
@@ -4541,7 +4545,7 @@
       <c r="A257">
         <v>5132</v>
       </c>
-      <c r="B257" s="39" t="s">
+      <c r="B257" s="41" t="s">
         <v>258</v>
       </c>
       <c r="C257">
@@ -4552,7 +4556,7 @@
       <c r="A258">
         <v>5133</v>
       </c>
-      <c r="B258" s="39" t="s">
+      <c r="B258" s="41" t="s">
         <v>259</v>
       </c>
       <c r="C258">
@@ -4563,7 +4567,7 @@
       <c r="A259">
         <v>5134</v>
       </c>
-      <c r="B259" s="39" t="s">
+      <c r="B259" s="41" t="s">
         <v>260</v>
       </c>
       <c r="C259">
@@ -4574,7 +4578,7 @@
       <c r="A260">
         <v>5141</v>
       </c>
-      <c r="B260" s="39" t="s">
+      <c r="B260" s="41" t="s">
         <v>261</v>
       </c>
       <c r="C260">
@@ -4585,7 +4589,7 @@
       <c r="A261">
         <v>5142</v>
       </c>
-      <c r="B261" s="39" t="s">
+      <c r="B261" s="41" t="s">
         <v>262</v>
       </c>
       <c r="C261">
@@ -4596,7 +4600,7 @@
       <c r="A262">
         <v>5151</v>
       </c>
-      <c r="B262" s="39" t="s">
+      <c r="B262" s="41" t="s">
         <v>263</v>
       </c>
       <c r="C262">
@@ -4607,7 +4611,7 @@
       <c r="A263">
         <v>5152</v>
       </c>
-      <c r="B263" s="39" t="s">
+      <c r="B263" s="41" t="s">
         <v>264</v>
       </c>
       <c r="C263">
@@ -4618,7 +4622,7 @@
       <c r="A264">
         <v>5161</v>
       </c>
-      <c r="B264" s="39" t="s">
+      <c r="B264" s="41" t="s">
         <v>265</v>
       </c>
       <c r="C264">
@@ -4629,7 +4633,7 @@
       <c r="A265">
         <v>5162</v>
       </c>
-      <c r="B265" s="39" t="s">
+      <c r="B265" s="41" t="s">
         <v>266</v>
       </c>
       <c r="C265">
@@ -4640,7 +4644,7 @@
       <c r="A266">
         <v>5165</v>
       </c>
-      <c r="B266" s="39" t="s">
+      <c r="B266" s="41" t="s">
         <v>267</v>
       </c>
       <c r="C266">
@@ -4651,7 +4655,7 @@
       <c r="A267">
         <v>5166</v>
       </c>
-      <c r="B267" s="39" t="s">
+      <c r="B267" s="41" t="s">
         <v>268</v>
       </c>
       <c r="C267">
@@ -4662,7 +4666,7 @@
       <c r="A268">
         <v>5167</v>
       </c>
-      <c r="B268" s="39" t="s">
+      <c r="B268" s="41" t="s">
         <v>269</v>
       </c>
       <c r="C268">
@@ -4673,7 +4677,7 @@
       <c r="A269">
         <v>5169</v>
       </c>
-      <c r="B269" s="39" t="s">
+      <c r="B269" s="41" t="s">
         <v>270</v>
       </c>
       <c r="C269">
@@ -4684,7 +4688,7 @@
       <c r="A270">
         <v>5171</v>
       </c>
-      <c r="B270" s="39" t="s">
+      <c r="B270" s="41" t="s">
         <v>271</v>
       </c>
       <c r="C270">
@@ -4695,7 +4699,7 @@
       <c r="A271">
         <v>5172</v>
       </c>
-      <c r="B271" s="39" t="s">
+      <c r="B271" s="41" t="s">
         <v>272</v>
       </c>
       <c r="C271">
@@ -4706,7 +4710,7 @@
       <c r="A272">
         <v>5173</v>
       </c>
-      <c r="B272" s="39" t="s">
+      <c r="B272" s="41" t="s">
         <v>273</v>
       </c>
       <c r="C272">
@@ -4717,7 +4721,7 @@
       <c r="A273">
         <v>5174</v>
       </c>
-      <c r="B273" s="39" t="s">
+      <c r="B273" s="41" t="s">
         <v>274</v>
       </c>
       <c r="C273">
@@ -4728,7 +4732,7 @@
       <c r="A274">
         <v>5191</v>
       </c>
-      <c r="B274" s="39" t="s">
+      <c r="B274" s="41" t="s">
         <v>275</v>
       </c>
       <c r="C274">
@@ -4739,7 +4743,7 @@
       <c r="A275">
         <v>5192</v>
       </c>
-      <c r="B275" s="39" t="s">
+      <c r="B275" s="41" t="s">
         <v>276</v>
       </c>
       <c r="C275">
@@ -4750,7 +4754,7 @@
       <c r="A276">
         <v>5198</v>
       </c>
-      <c r="B276" s="39" t="s">
+      <c r="B276" s="41" t="s">
         <v>277</v>
       </c>
       <c r="C276">
@@ -4761,7 +4765,7 @@
       <c r="A277">
         <v>5199</v>
       </c>
-      <c r="B277" s="39" t="s">
+      <c r="B277" s="41" t="s">
         <v>278</v>
       </c>
       <c r="C277">
@@ -4772,7 +4776,7 @@
       <c r="A278">
         <v>5201</v>
       </c>
-      <c r="B278" s="39" t="s">
+      <c r="B278" s="41" t="s">
         <v>279</v>
       </c>
       <c r="C278">
@@ -4783,7 +4787,7 @@
       <c r="A279">
         <v>5211</v>
       </c>
-      <c r="B279" s="39" t="s">
+      <c r="B279" s="41" t="s">
         <v>280</v>
       </c>
       <c r="C279">
@@ -4794,7 +4798,7 @@
       <c r="A280">
         <v>5221</v>
       </c>
-      <c r="B280" s="39" t="s">
+      <c r="B280" s="41" t="s">
         <v>281</v>
       </c>
       <c r="C280">
@@ -4805,7 +4809,7 @@
       <c r="A281">
         <v>5231</v>
       </c>
-      <c r="B281" s="39" t="s">
+      <c r="B281" s="41" t="s">
         <v>282</v>
       </c>
       <c r="C281">
@@ -4816,7 +4820,7 @@
       <c r="A282">
         <v>5241</v>
       </c>
-      <c r="B282" s="39" t="s">
+      <c r="B282" s="41" t="s">
         <v>283</v>
       </c>
       <c r="C282">
@@ -4827,7 +4831,7 @@
       <c r="A283">
         <v>5242</v>
       </c>
-      <c r="B283" s="39" t="s">
+      <c r="B283" s="41" t="s">
         <v>284</v>
       </c>
       <c r="C283">
@@ -4838,7 +4842,7 @@
       <c r="A284">
         <v>5243</v>
       </c>
-      <c r="B284" s="39" t="s">
+      <c r="B284" s="41" t="s">
         <v>285</v>
       </c>
       <c r="C284">
@@ -4849,7 +4853,7 @@
       <c r="A285">
         <v>-1</v>
       </c>
-      <c r="B285" s="39" t="s">
+      <c r="B285" s="41" t="s">
         <v>286</v>
       </c>
       <c r="C285">
@@ -4860,7 +4864,7 @@
       <c r="A286">
         <v>6110</v>
       </c>
-      <c r="B286" s="39" t="s">
+      <c r="B286" s="41" t="s">
         <v>287</v>
       </c>
       <c r="C286">
@@ -4871,7 +4875,7 @@
       <c r="A287">
         <v>6129</v>
       </c>
-      <c r="B287" s="39" t="s">
+      <c r="B287" s="41" t="s">
         <v>288</v>
       </c>
       <c r="C287">
@@ -4882,7 +4886,7 @@
       <c r="A288">
         <v>6139</v>
       </c>
-      <c r="B288" s="39" t="s">
+      <c r="B288" s="41" t="s">
         <v>289</v>
       </c>
       <c r="C288">
@@ -4893,7 +4897,7 @@
       <c r="A289">
         <v>6201</v>
       </c>
-      <c r="B289" s="39" t="s">
+      <c r="B289" s="41" t="s">
         <v>290</v>
       </c>
       <c r="C289">
@@ -4904,7 +4908,7 @@
       <c r="A290">
         <v>6210</v>
       </c>
-      <c r="B290" s="39" t="s">
+      <c r="B290" s="41" t="s">
         <v>291</v>
       </c>
       <c r="C290">
@@ -4915,7 +4919,7 @@
       <c r="A291">
         <v>6229</v>
       </c>
-      <c r="B291" s="39" t="s">
+      <c r="B291" s="41" t="s">
         <v>292</v>
       </c>
       <c r="C291">
@@ -4926,7 +4930,7 @@
       <c r="A292">
         <v>6239</v>
       </c>
-      <c r="B292" s="39" t="s">
+      <c r="B292" s="41" t="s">
         <v>293</v>
       </c>
       <c r="C292">
@@ -4937,7 +4941,7 @@
       <c r="A293">
         <v>6301</v>
       </c>
-      <c r="B293" s="39" t="s">
+      <c r="B293" s="41" t="s">
         <v>294</v>
       </c>
       <c r="C293">
@@ -4948,7 +4952,7 @@
       <c r="A294">
         <v>6319</v>
       </c>
-      <c r="B294" s="39" t="s">
+      <c r="B294" s="41" t="s">
         <v>295</v>
       </c>
       <c r="C294">
@@ -4959,7 +4963,7 @@
       <c r="A295">
         <v>6329</v>
       </c>
-      <c r="B295" s="39" t="s">
+      <c r="B295" s="41" t="s">
         <v>296</v>
       </c>
       <c r="C295">
@@ -4970,7 +4974,7 @@
       <c r="A296">
         <v>6410</v>
       </c>
-      <c r="B296" s="39" t="s">
+      <c r="B296" s="41" t="s">
         <v>297</v>
       </c>
       <c r="C296">
@@ -4981,7 +4985,7 @@
       <c r="A297">
         <v>6420</v>
       </c>
-      <c r="B297" s="39" t="s">
+      <c r="B297" s="41" t="s">
         <v>298</v>
       </c>
       <c r="C297">
@@ -4992,7 +4996,7 @@
       <c r="A298">
         <v>6430</v>
       </c>
-      <c r="B298" s="39" t="s">
+      <c r="B298" s="41" t="s">
         <v>299</v>
       </c>
       <c r="C298">
@@ -5003,7 +5007,7 @@
       <c r="A299">
         <v>-1</v>
       </c>
-      <c r="B299" s="39" t="s">
+      <c r="B299" s="41" t="s">
         <v>300</v>
       </c>
       <c r="C299">
@@ -5014,7 +5018,7 @@
       <c r="A300">
         <v>7101</v>
       </c>
-      <c r="B300" s="39" t="s">
+      <c r="B300" s="41" t="s">
         <v>301</v>
       </c>
       <c r="C300">
@@ -5025,7 +5029,7 @@
       <c r="A301">
         <v>7102</v>
       </c>
-      <c r="B301" s="39" t="s">
+      <c r="B301" s="41" t="s">
         <v>302</v>
       </c>
       <c r="C301">
@@ -5036,7 +5040,7 @@
       <c r="A302">
         <v>7111</v>
       </c>
-      <c r="B302" s="39" t="s">
+      <c r="B302" s="41" t="s">
         <v>303</v>
       </c>
       <c r="C302">
@@ -5047,7 +5051,7 @@
       <c r="A303">
         <v>7112</v>
       </c>
-      <c r="B303" s="39" t="s">
+      <c r="B303" s="41" t="s">
         <v>304</v>
       </c>
       <c r="C303">
@@ -5058,7 +5062,7 @@
       <c r="A304">
         <v>7113</v>
       </c>
-      <c r="B304" s="39" t="s">
+      <c r="B304" s="41" t="s">
         <v>305</v>
       </c>
       <c r="C304">
@@ -5069,7 +5073,7 @@
       <c r="A305">
         <v>7114</v>
       </c>
-      <c r="B305" s="39" t="s">
+      <c r="B305" s="41" t="s">
         <v>306</v>
       </c>
       <c r="C305">
@@ -5080,7 +5084,7 @@
       <c r="A306">
         <v>7121</v>
       </c>
-      <c r="B306" s="39" t="s">
+      <c r="B306" s="41" t="s">
         <v>307</v>
       </c>
       <c r="C306">
@@ -5091,7 +5095,7 @@
       <c r="A307">
         <v>7122</v>
       </c>
-      <c r="B307" s="39" t="s">
+      <c r="B307" s="41" t="s">
         <v>308</v>
       </c>
       <c r="C307">
@@ -5102,7 +5106,7 @@
       <c r="A308">
         <v>7151</v>
       </c>
-      <c r="B308" s="39" t="s">
+      <c r="B308" s="41" t="s">
         <v>309</v>
       </c>
       <c r="C308">
@@ -5113,7 +5117,7 @@
       <c r="A309">
         <v>7152</v>
       </c>
-      <c r="B309" s="39" t="s">
+      <c r="B309" s="41" t="s">
         <v>310</v>
       </c>
       <c r="C309">
@@ -5124,7 +5128,7 @@
       <c r="A310">
         <v>7153</v>
       </c>
-      <c r="B310" s="39" t="s">
+      <c r="B310" s="41" t="s">
         <v>311</v>
       </c>
       <c r="C310">
@@ -5135,7 +5139,7 @@
       <c r="A311">
         <v>7154</v>
       </c>
-      <c r="B311" s="39" t="s">
+      <c r="B311" s="41" t="s">
         <v>312</v>
       </c>
       <c r="C311">
@@ -5146,7 +5150,7 @@
       <c r="A312">
         <v>7155</v>
       </c>
-      <c r="B312" s="39" t="s">
+      <c r="B312" s="41" t="s">
         <v>313</v>
       </c>
       <c r="C312">
@@ -5157,7 +5161,7 @@
       <c r="A313">
         <v>7156</v>
       </c>
-      <c r="B313" s="39" t="s">
+      <c r="B313" s="41" t="s">
         <v>314</v>
       </c>
       <c r="C313">
@@ -5168,7 +5172,7 @@
       <c r="A314">
         <v>7157</v>
       </c>
-      <c r="B314" s="39" t="s">
+      <c r="B314" s="41" t="s">
         <v>315</v>
       </c>
       <c r="C314">
@@ -5179,7 +5183,7 @@
       <c r="A315">
         <v>7161</v>
       </c>
-      <c r="B315" s="39" t="s">
+      <c r="B315" s="41" t="s">
         <v>316</v>
       </c>
       <c r="C315">
@@ -5190,7 +5194,7 @@
       <c r="A316">
         <v>7162</v>
       </c>
-      <c r="B316" s="39" t="s">
+      <c r="B316" s="41" t="s">
         <v>317</v>
       </c>
       <c r="C316">
@@ -5201,7 +5205,7 @@
       <c r="A317">
         <v>7163</v>
       </c>
-      <c r="B317" s="39" t="s">
+      <c r="B317" s="41" t="s">
         <v>318</v>
       </c>
       <c r="C317">
@@ -5212,7 +5216,7 @@
       <c r="A318">
         <v>7164</v>
       </c>
-      <c r="B318" s="39" t="s">
+      <c r="B318" s="41" t="s">
         <v>319</v>
       </c>
       <c r="C318">
@@ -5223,7 +5227,7 @@
       <c r="A319">
         <v>7165</v>
       </c>
-      <c r="B319" s="39" t="s">
+      <c r="B319" s="41" t="s">
         <v>320</v>
       </c>
       <c r="C319">
@@ -5234,7 +5238,7 @@
       <c r="A320">
         <v>7166</v>
       </c>
-      <c r="B320" s="39" t="s">
+      <c r="B320" s="41" t="s">
         <v>321</v>
       </c>
       <c r="C320">
@@ -5245,7 +5249,7 @@
       <c r="A321">
         <v>7170</v>
       </c>
-      <c r="B321" s="39" t="s">
+      <c r="B321" s="41" t="s">
         <v>322</v>
       </c>
       <c r="C321">
@@ -5256,7 +5260,7 @@
       <c r="A322">
         <v>7201</v>
       </c>
-      <c r="B322" s="39" t="s">
+      <c r="B322" s="41" t="s">
         <v>323</v>
       </c>
       <c r="C322">
@@ -5267,7 +5271,7 @@
       <c r="A323">
         <v>7202</v>
       </c>
-      <c r="B323" s="39" t="s">
+      <c r="B323" s="41" t="s">
         <v>324</v>
       </c>
       <c r="C323">
@@ -5278,7 +5282,7 @@
       <c r="A324">
         <v>7211</v>
       </c>
-      <c r="B324" s="39" t="s">
+      <c r="B324" s="41" t="s">
         <v>325</v>
       </c>
       <c r="C324">
@@ -5289,7 +5293,7 @@
       <c r="A325">
         <v>7212</v>
       </c>
-      <c r="B325" s="39" t="s">
+      <c r="B325" s="41" t="s">
         <v>326</v>
       </c>
       <c r="C325">
@@ -5300,7 +5304,7 @@
       <c r="A326">
         <v>7213</v>
       </c>
-      <c r="B326" s="39" t="s">
+      <c r="B326" s="41" t="s">
         <v>327</v>
       </c>
       <c r="C326">
@@ -5311,7 +5315,7 @@
       <c r="A327">
         <v>7214</v>
       </c>
-      <c r="B327" s="39" t="s">
+      <c r="B327" s="41" t="s">
         <v>328</v>
       </c>
       <c r="C327">
@@ -5322,7 +5326,7 @@
       <c r="A328">
         <v>7215</v>
       </c>
-      <c r="B328" s="39" t="s">
+      <c r="B328" s="41" t="s">
         <v>329</v>
       </c>
       <c r="C328">
@@ -5333,7 +5337,7 @@
       <c r="A329">
         <v>7221</v>
       </c>
-      <c r="B329" s="39" t="s">
+      <c r="B329" s="41" t="s">
         <v>330</v>
       </c>
       <c r="C329">
@@ -5344,7 +5348,7 @@
       <c r="A330">
         <v>7222</v>
       </c>
-      <c r="B330" s="39" t="s">
+      <c r="B330" s="41" t="s">
         <v>331</v>
       </c>
       <c r="C330">
@@ -5355,7 +5359,7 @@
       <c r="A331">
         <v>7223</v>
       </c>
-      <c r="B331" s="39" t="s">
+      <c r="B331" s="41" t="s">
         <v>332</v>
       </c>
       <c r="C331">
@@ -5366,7 +5370,7 @@
       <c r="A332">
         <v>7224</v>
       </c>
-      <c r="B332" s="39" t="s">
+      <c r="B332" s="41" t="s">
         <v>333</v>
       </c>
       <c r="C332">
@@ -5377,7 +5381,7 @@
       <c r="A333">
         <v>7231</v>
       </c>
-      <c r="B333" s="39" t="s">
+      <c r="B333" s="41" t="s">
         <v>334</v>
       </c>
       <c r="C333">
@@ -5388,7 +5392,7 @@
       <c r="A334">
         <v>7232</v>
       </c>
-      <c r="B334" s="39" t="s">
+      <c r="B334" s="41" t="s">
         <v>335</v>
       </c>
       <c r="C334">
@@ -5399,7 +5403,7 @@
       <c r="A335">
         <v>7233</v>
       </c>
-      <c r="B335" s="39" t="s">
+      <c r="B335" s="41" t="s">
         <v>336</v>
       </c>
       <c r="C335">
@@ -5410,7 +5414,7 @@
       <c r="A336">
         <v>7241</v>
       </c>
-      <c r="B336" s="39" t="s">
+      <c r="B336" s="41" t="s">
         <v>337</v>
       </c>
       <c r="C336">
@@ -5421,7 +5425,7 @@
       <c r="A337">
         <v>7242</v>
       </c>
-      <c r="B337" s="39" t="s">
+      <c r="B337" s="41" t="s">
         <v>338</v>
       </c>
       <c r="C337">
@@ -5432,7 +5436,7 @@
       <c r="A338">
         <v>7243</v>
       </c>
-      <c r="B338" s="39" t="s">
+      <c r="B338" s="41" t="s">
         <v>339</v>
       </c>
       <c r="C338">
@@ -5443,7 +5447,7 @@
       <c r="A339">
         <v>7244</v>
       </c>
-      <c r="B339" s="39" t="s">
+      <c r="B339" s="41" t="s">
         <v>340</v>
       </c>
       <c r="C339">
@@ -5454,7 +5458,7 @@
       <c r="A340">
         <v>7245</v>
       </c>
-      <c r="B340" s="39" t="s">
+      <c r="B340" s="41" t="s">
         <v>341</v>
       </c>
       <c r="C340">
@@ -5465,7 +5469,7 @@
       <c r="A341">
         <v>7246</v>
       </c>
-      <c r="B341" s="39" t="s">
+      <c r="B341" s="41" t="s">
         <v>342</v>
       </c>
       <c r="C341">
@@ -5476,7 +5480,7 @@
       <c r="A342">
         <v>7250</v>
       </c>
-      <c r="B342" s="39" t="s">
+      <c r="B342" s="41" t="s">
         <v>343</v>
       </c>
       <c r="C342">
@@ -5487,7 +5491,7 @@
       <c r="A343">
         <v>7251</v>
       </c>
-      <c r="B343" s="39" t="s">
+      <c r="B343" s="41" t="s">
         <v>344</v>
       </c>
       <c r="C343">
@@ -5498,7 +5502,7 @@
       <c r="A344">
         <v>7252</v>
       </c>
-      <c r="B344" s="39" t="s">
+      <c r="B344" s="41" t="s">
         <v>345</v>
       </c>
       <c r="C344">
@@ -5509,7 +5513,7 @@
       <c r="A345">
         <v>7253</v>
       </c>
-      <c r="B345" s="39" t="s">
+      <c r="B345" s="41" t="s">
         <v>346</v>
       </c>
       <c r="C345">
@@ -5520,7 +5524,7 @@
       <c r="A346">
         <v>7254</v>
       </c>
-      <c r="B346" s="39" t="s">
+      <c r="B346" s="41" t="s">
         <v>347</v>
       </c>
       <c r="C346">
@@ -5531,7 +5535,7 @@
       <c r="A347">
         <v>7255</v>
       </c>
-      <c r="B347" s="39" t="s">
+      <c r="B347" s="41" t="s">
         <v>348</v>
       </c>
       <c r="C347">
@@ -5542,7 +5546,7 @@
       <c r="A348">
         <v>7256</v>
       </c>
-      <c r="B348" s="39" t="s">
+      <c r="B348" s="41" t="s">
         <v>349</v>
       </c>
       <c r="C348">
@@ -5553,7 +5557,7 @@
       <c r="A349">
         <v>7257</v>
       </c>
-      <c r="B349" s="39" t="s">
+      <c r="B349" s="41" t="s">
         <v>350</v>
       </c>
       <c r="C349">
@@ -5564,7 +5568,7 @@
       <c r="A350">
         <v>7301</v>
       </c>
-      <c r="B350" s="39" t="s">
+      <c r="B350" s="41" t="s">
         <v>351</v>
       </c>
       <c r="C350">
@@ -5575,7 +5579,7 @@
       <c r="A351">
         <v>7311</v>
       </c>
-      <c r="B351" s="39" t="s">
+      <c r="B351" s="41" t="s">
         <v>352</v>
       </c>
       <c r="C351">
@@ -5586,7 +5590,7 @@
       <c r="A352">
         <v>7312</v>
       </c>
-      <c r="B352" s="39" t="s">
+      <c r="B352" s="41" t="s">
         <v>353</v>
       </c>
       <c r="C352">
@@ -5597,7 +5601,7 @@
       <c r="A353">
         <v>7313</v>
       </c>
-      <c r="B353" s="39" t="s">
+      <c r="B353" s="41" t="s">
         <v>354</v>
       </c>
       <c r="C353">
@@ -5608,7 +5612,7 @@
       <c r="A354">
         <v>7321</v>
       </c>
-      <c r="B354" s="39" t="s">
+      <c r="B354" s="41" t="s">
         <v>355</v>
       </c>
       <c r="C354">
@@ -5619,7 +5623,7 @@
       <c r="A355">
         <v>7401</v>
       </c>
-      <c r="B355" s="39" t="s">
+      <c r="B355" s="41" t="s">
         <v>356</v>
       </c>
       <c r="C355">
@@ -5630,7 +5634,7 @@
       <c r="A356">
         <v>7411</v>
       </c>
-      <c r="B356" s="39" t="s">
+      <c r="B356" s="41" t="s">
         <v>357</v>
       </c>
       <c r="C356">
@@ -5641,7 +5645,7 @@
       <c r="A357">
         <v>7421</v>
       </c>
-      <c r="B357" s="39" t="s">
+      <c r="B357" s="41" t="s">
         <v>358</v>
       </c>
       <c r="C357">
@@ -5652,7 +5656,7 @@
       <c r="A358">
         <v>7501</v>
       </c>
-      <c r="B358" s="39" t="s">
+      <c r="B358" s="41" t="s">
         <v>359</v>
       </c>
       <c r="C358">
@@ -5663,7 +5667,7 @@
       <c r="A359">
         <v>7502</v>
       </c>
-      <c r="B359" s="39" t="s">
+      <c r="B359" s="41" t="s">
         <v>360</v>
       </c>
       <c r="C359">
@@ -5674,7 +5678,7 @@
       <c r="A360">
         <v>7519</v>
       </c>
-      <c r="B360" s="39" t="s">
+      <c r="B360" s="41" t="s">
         <v>361</v>
       </c>
       <c r="C360">
@@ -5685,7 +5689,7 @@
       <c r="A361">
         <v>7521</v>
       </c>
-      <c r="B361" s="39" t="s">
+      <c r="B361" s="41" t="s">
         <v>362</v>
       </c>
       <c r="C361">
@@ -5696,7 +5700,7 @@
       <c r="A362">
         <v>7522</v>
       </c>
-      <c r="B362" s="39" t="s">
+      <c r="B362" s="41" t="s">
         <v>363</v>
       </c>
       <c r="C362">
@@ -5707,7 +5711,7 @@
       <c r="A363">
         <v>7523</v>
       </c>
-      <c r="B363" s="39" t="s">
+      <c r="B363" s="41" t="s">
         <v>364</v>
       </c>
       <c r="C363">
@@ -5718,7 +5722,7 @@
       <c r="A364">
         <v>7524</v>
       </c>
-      <c r="B364" s="39" t="s">
+      <c r="B364" s="41" t="s">
         <v>365</v>
       </c>
       <c r="C364">
@@ -5729,7 +5733,7 @@
       <c r="A365">
         <v>7601</v>
       </c>
-      <c r="B365" s="39" t="s">
+      <c r="B365" s="41" t="s">
         <v>366</v>
       </c>
       <c r="C365">
@@ -5740,7 +5744,7 @@
       <c r="A366">
         <v>7602</v>
       </c>
-      <c r="B366" s="39" t="s">
+      <c r="B366" s="41" t="s">
         <v>367</v>
       </c>
       <c r="C366">
@@ -5751,7 +5755,7 @@
       <c r="A367">
         <v>7603</v>
       </c>
-      <c r="B367" s="39" t="s">
+      <c r="B367" s="41" t="s">
         <v>368</v>
       </c>
       <c r="C367">
@@ -5762,7 +5766,7 @@
       <c r="A368">
         <v>7604</v>
       </c>
-      <c r="B368" s="39" t="s">
+      <c r="B368" s="41" t="s">
         <v>369</v>
       </c>
       <c r="C368">
@@ -5773,7 +5777,7 @@
       <c r="A369">
         <v>7605</v>
       </c>
-      <c r="B369" s="39" t="s">
+      <c r="B369" s="41" t="s">
         <v>370</v>
       </c>
       <c r="C369">
@@ -5784,7 +5788,7 @@
       <c r="A370">
         <v>7606</v>
       </c>
-      <c r="B370" s="39" t="s">
+      <c r="B370" s="41" t="s">
         <v>371</v>
       </c>
       <c r="C370">
@@ -5795,7 +5799,7 @@
       <c r="A371">
         <v>7610</v>
       </c>
-      <c r="B371" s="39" t="s">
+      <c r="B371" s="41" t="s">
         <v>372</v>
       </c>
       <c r="C371">
@@ -5806,7 +5810,7 @@
       <c r="A372">
         <v>7611</v>
       </c>
-      <c r="B372" s="39" t="s">
+      <c r="B372" s="41" t="s">
         <v>373</v>
       </c>
       <c r="C372">
@@ -5817,7 +5821,7 @@
       <c r="A373">
         <v>7612</v>
       </c>
-      <c r="B373" s="39" t="s">
+      <c r="B373" s="41" t="s">
         <v>374</v>
       </c>
       <c r="C373">
@@ -5828,7 +5832,7 @@
       <c r="A374">
         <v>7613</v>
       </c>
-      <c r="B374" s="39" t="s">
+      <c r="B374" s="41" t="s">
         <v>375</v>
       </c>
       <c r="C374">
@@ -5839,7 +5843,7 @@
       <c r="A375">
         <v>7614</v>
       </c>
-      <c r="B375" s="39" t="s">
+      <c r="B375" s="41" t="s">
         <v>376</v>
       </c>
       <c r="C375">
@@ -5850,7 +5854,7 @@
       <c r="A376">
         <v>7618</v>
       </c>
-      <c r="B376" s="39" t="s">
+      <c r="B376" s="41" t="s">
         <v>377</v>
       </c>
       <c r="C376">
@@ -5861,7 +5865,7 @@
       <c r="A377">
         <v>7620</v>
       </c>
-      <c r="B377" s="39" t="s">
+      <c r="B377" s="41" t="s">
         <v>378</v>
       </c>
       <c r="C377">
@@ -5872,7 +5876,7 @@
       <c r="A378">
         <v>7621</v>
       </c>
-      <c r="B378" s="39" t="s">
+      <c r="B378" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C378">
@@ -5883,7 +5887,7 @@
       <c r="A379">
         <v>7622</v>
       </c>
-      <c r="B379" s="39" t="s">
+      <c r="B379" s="41" t="s">
         <v>380</v>
       </c>
       <c r="C379">
@@ -5894,7 +5898,7 @@
       <c r="A380">
         <v>7623</v>
       </c>
-      <c r="B380" s="39" t="s">
+      <c r="B380" s="41" t="s">
         <v>381</v>
       </c>
       <c r="C380">
@@ -5905,7 +5909,7 @@
       <c r="A381">
         <v>7630</v>
       </c>
-      <c r="B381" s="39" t="s">
+      <c r="B381" s="41" t="s">
         <v>382</v>
       </c>
       <c r="C381">
@@ -5916,7 +5920,7 @@
       <c r="A382">
         <v>7631</v>
       </c>
-      <c r="B382" s="39" t="s">
+      <c r="B382" s="41" t="s">
         <v>383</v>
       </c>
       <c r="C382">
@@ -5927,7 +5931,7 @@
       <c r="A383">
         <v>7632</v>
       </c>
-      <c r="B383" s="39" t="s">
+      <c r="B383" s="41" t="s">
         <v>384</v>
       </c>
       <c r="C383">
@@ -5938,7 +5942,7 @@
       <c r="A384">
         <v>7633</v>
       </c>
-      <c r="B384" s="39" t="s">
+      <c r="B384" s="41" t="s">
         <v>385</v>
       </c>
       <c r="C384">
@@ -5949,7 +5953,7 @@
       <c r="A385">
         <v>7640</v>
       </c>
-      <c r="B385" s="39" t="s">
+      <c r="B385" s="41" t="s">
         <v>386</v>
       </c>
       <c r="C385">
@@ -5960,7 +5964,7 @@
       <c r="A386">
         <v>7641</v>
       </c>
-      <c r="B386" s="39" t="s">
+      <c r="B386" s="41" t="s">
         <v>387</v>
       </c>
       <c r="C386">
@@ -5971,7 +5975,7 @@
       <c r="A387">
         <v>7642</v>
       </c>
-      <c r="B387" s="39" t="s">
+      <c r="B387" s="41" t="s">
         <v>388</v>
       </c>
       <c r="C387">
@@ -5982,7 +5986,7 @@
       <c r="A388">
         <v>7643</v>
       </c>
-      <c r="B388" s="39" t="s">
+      <c r="B388" s="41" t="s">
         <v>389</v>
       </c>
       <c r="C388">
@@ -5993,7 +5997,7 @@
       <c r="A389">
         <v>7650</v>
       </c>
-      <c r="B389" s="39" t="s">
+      <c r="B389" s="41" t="s">
         <v>390</v>
       </c>
       <c r="C389">
@@ -6004,7 +6008,7 @@
       <c r="A390">
         <v>7651</v>
       </c>
-      <c r="B390" s="39" t="s">
+      <c r="B390" s="41" t="s">
         <v>391</v>
       </c>
       <c r="C390">
@@ -6015,7 +6019,7 @@
       <c r="A391">
         <v>7652</v>
       </c>
-      <c r="B391" s="39" t="s">
+      <c r="B391" s="41" t="s">
         <v>392</v>
       </c>
       <c r="C391">
@@ -6026,7 +6030,7 @@
       <c r="A392">
         <v>7653</v>
       </c>
-      <c r="B392" s="39" t="s">
+      <c r="B392" s="41" t="s">
         <v>393</v>
       </c>
       <c r="C392">
@@ -6037,7 +6041,7 @@
       <c r="A393">
         <v>7654</v>
       </c>
-      <c r="B393" s="39" t="s">
+      <c r="B393" s="41" t="s">
         <v>394</v>
       </c>
       <c r="C393">
@@ -6048,7 +6052,7 @@
       <c r="A394">
         <v>7660</v>
       </c>
-      <c r="B394" s="39" t="s">
+      <c r="B394" s="41" t="s">
         <v>395</v>
       </c>
       <c r="C394">
@@ -6059,7 +6063,7 @@
       <c r="A395">
         <v>7661</v>
       </c>
-      <c r="B395" s="39" t="s">
+      <c r="B395" s="41" t="s">
         <v>396</v>
       </c>
       <c r="C395">
@@ -6070,7 +6074,7 @@
       <c r="A396">
         <v>7662</v>
       </c>
-      <c r="B396" s="39" t="s">
+      <c r="B396" s="41" t="s">
         <v>397</v>
       </c>
       <c r="C396">
@@ -6081,7 +6085,7 @@
       <c r="A397">
         <v>7663</v>
       </c>
-      <c r="B397" s="39" t="s">
+      <c r="B397" s="41" t="s">
         <v>398</v>
       </c>
       <c r="C397">
@@ -6092,7 +6096,7 @@
       <c r="A398">
         <v>7664</v>
       </c>
-      <c r="B398" s="39" t="s">
+      <c r="B398" s="41" t="s">
         <v>399</v>
       </c>
       <c r="C398">
@@ -6103,7 +6107,7 @@
       <c r="A399">
         <v>7681</v>
       </c>
-      <c r="B399" s="39" t="s">
+      <c r="B399" s="41" t="s">
         <v>400</v>
       </c>
       <c r="C399">
@@ -6114,7 +6118,7 @@
       <c r="A400">
         <v>7682</v>
       </c>
-      <c r="B400" s="39" t="s">
+      <c r="B400" s="41" t="s">
         <v>401</v>
       </c>
       <c r="C400">
@@ -6125,7 +6129,7 @@
       <c r="A401">
         <v>7683</v>
       </c>
-      <c r="B401" s="39" t="s">
+      <c r="B401" s="41" t="s">
         <v>402</v>
       </c>
       <c r="C401">
@@ -6136,7 +6140,7 @@
       <c r="A402">
         <v>7686</v>
       </c>
-      <c r="B402" s="39" t="s">
+      <c r="B402" s="41" t="s">
         <v>403</v>
       </c>
       <c r="C402">
@@ -6147,7 +6151,7 @@
       <c r="A403">
         <v>7687</v>
       </c>
-      <c r="B403" s="39" t="s">
+      <c r="B403" s="41" t="s">
         <v>404</v>
       </c>
       <c r="C403">
@@ -6158,7 +6162,7 @@
       <c r="A404">
         <v>7701</v>
       </c>
-      <c r="B404" s="39" t="s">
+      <c r="B404" s="41" t="s">
         <v>405</v>
       </c>
       <c r="C404">
@@ -6169,7 +6173,7 @@
       <c r="A405">
         <v>7711</v>
       </c>
-      <c r="B405" s="39" t="s">
+      <c r="B405" s="41" t="s">
         <v>406</v>
       </c>
       <c r="C405">
@@ -6180,7 +6184,7 @@
       <c r="A406">
         <v>7721</v>
       </c>
-      <c r="B406" s="39" t="s">
+      <c r="B406" s="41" t="s">
         <v>407</v>
       </c>
       <c r="C406">
@@ -6191,7 +6195,7 @@
       <c r="A407">
         <v>7731</v>
       </c>
-      <c r="B407" s="39" t="s">
+      <c r="B407" s="41" t="s">
         <v>408</v>
       </c>
       <c r="C407">
@@ -6202,7 +6206,7 @@
       <c r="A408">
         <v>7732</v>
       </c>
-      <c r="B408" s="39" t="s">
+      <c r="B408" s="41" t="s">
         <v>409</v>
       </c>
       <c r="C408">
@@ -6213,7 +6217,7 @@
       <c r="A409">
         <v>7733</v>
       </c>
-      <c r="B409" s="39" t="s">
+      <c r="B409" s="41" t="s">
         <v>410</v>
       </c>
       <c r="C409">
@@ -6224,7 +6228,7 @@
       <c r="A410">
         <v>7734</v>
       </c>
-      <c r="B410" s="39" t="s">
+      <c r="B410" s="41" t="s">
         <v>411</v>
       </c>
       <c r="C410">
@@ -6235,7 +6239,7 @@
       <c r="A411">
         <v>7735</v>
       </c>
-      <c r="B411" s="39" t="s">
+      <c r="B411" s="41" t="s">
         <v>412</v>
       </c>
       <c r="C411">
@@ -6246,7 +6250,7 @@
       <c r="A412">
         <v>7741</v>
       </c>
-      <c r="B412" s="39" t="s">
+      <c r="B412" s="41" t="s">
         <v>413</v>
       </c>
       <c r="C412">
@@ -6257,7 +6261,7 @@
       <c r="A413">
         <v>7751</v>
       </c>
-      <c r="B413" s="39" t="s">
+      <c r="B413" s="41" t="s">
         <v>414</v>
       </c>
       <c r="C413">
@@ -6268,7 +6272,7 @@
       <c r="A414">
         <v>7764</v>
       </c>
-      <c r="B414" s="39" t="s">
+      <c r="B414" s="41" t="s">
         <v>415</v>
       </c>
       <c r="C414">
@@ -6279,7 +6283,7 @@
       <c r="A415">
         <v>7771</v>
       </c>
-      <c r="B415" s="39" t="s">
+      <c r="B415" s="41" t="s">
         <v>416</v>
       </c>
       <c r="C415">
@@ -6290,7 +6294,7 @@
       <c r="A416">
         <v>7772</v>
       </c>
-      <c r="B416" s="39" t="s">
+      <c r="B416" s="41" t="s">
         <v>417</v>
       </c>
       <c r="C416">
@@ -6301,7 +6305,7 @@
       <c r="A417">
         <v>7801</v>
       </c>
-      <c r="B417" s="39" t="s">
+      <c r="B417" s="41" t="s">
         <v>418</v>
       </c>
       <c r="C417">
@@ -6312,7 +6316,7 @@
       <c r="A418">
         <v>7811</v>
       </c>
-      <c r="B418" s="39" t="s">
+      <c r="B418" s="41" t="s">
         <v>419</v>
       </c>
       <c r="C418">
@@ -6323,7 +6327,7 @@
       <c r="A419">
         <v>7813</v>
       </c>
-      <c r="B419" s="39" t="s">
+      <c r="B419" s="41" t="s">
         <v>420</v>
       </c>
       <c r="C419">
@@ -6334,7 +6338,7 @@
       <c r="A420">
         <v>7817</v>
       </c>
-      <c r="B420" s="39" t="s">
+      <c r="B420" s="41" t="s">
         <v>421</v>
       </c>
       <c r="C420">
@@ -6345,7 +6349,7 @@
       <c r="A421">
         <v>7820</v>
       </c>
-      <c r="B421" s="39" t="s">
+      <c r="B421" s="41" t="s">
         <v>422</v>
       </c>
       <c r="C421">
@@ -6356,7 +6360,7 @@
       <c r="A422">
         <v>7821</v>
       </c>
-      <c r="B422" s="39" t="s">
+      <c r="B422" s="41" t="s">
         <v>423</v>
       </c>
       <c r="C422">
@@ -6367,7 +6371,7 @@
       <c r="A423">
         <v>7822</v>
       </c>
-      <c r="B423" s="39" t="s">
+      <c r="B423" s="41" t="s">
         <v>424</v>
       </c>
       <c r="C423">
@@ -6378,7 +6382,7 @@
       <c r="A424">
         <v>7823</v>
       </c>
-      <c r="B424" s="39" t="s">
+      <c r="B424" s="41" t="s">
         <v>425</v>
       </c>
       <c r="C424">
@@ -6389,7 +6393,7 @@
       <c r="A425">
         <v>7824</v>
       </c>
-      <c r="B425" s="39" t="s">
+      <c r="B425" s="41" t="s">
         <v>426</v>
       </c>
       <c r="C425">
@@ -6400,7 +6404,7 @@
       <c r="A426">
         <v>7825</v>
       </c>
-      <c r="B426" s="39" t="s">
+      <c r="B426" s="41" t="s">
         <v>427</v>
       </c>
       <c r="C426">
@@ -6411,7 +6415,7 @@
       <c r="A427">
         <v>7826</v>
       </c>
-      <c r="B427" s="39" t="s">
+      <c r="B427" s="41" t="s">
         <v>428</v>
       </c>
       <c r="C427">
@@ -6422,7 +6426,7 @@
       <c r="A428">
         <v>7827</v>
       </c>
-      <c r="B428" s="39" t="s">
+      <c r="B428" s="41" t="s">
         <v>429</v>
       </c>
       <c r="C428">
@@ -6433,7 +6437,7 @@
       <c r="A429">
         <v>7828</v>
       </c>
-      <c r="B429" s="39" t="s">
+      <c r="B429" s="41" t="s">
         <v>430</v>
       </c>
       <c r="C429">
@@ -6444,7 +6448,7 @@
       <c r="A430">
         <v>7831</v>
       </c>
-      <c r="B430" s="39" t="s">
+      <c r="B430" s="41" t="s">
         <v>431</v>
       </c>
       <c r="C430">
@@ -6455,7 +6459,7 @@
       <c r="A431">
         <v>7832</v>
       </c>
-      <c r="B431" s="39" t="s">
+      <c r="B431" s="41" t="s">
         <v>432</v>
       </c>
       <c r="C431">
@@ -6466,7 +6470,7 @@
       <c r="A432">
         <v>7841</v>
       </c>
-      <c r="B432" s="39" t="s">
+      <c r="B432" s="41" t="s">
         <v>433</v>
       </c>
       <c r="C432">
@@ -6477,7 +6481,7 @@
       <c r="A433">
         <v>7842</v>
       </c>
-      <c r="B433" s="39" t="s">
+      <c r="B433" s="41" t="s">
         <v>434</v>
       </c>
       <c r="C433">
@@ -6488,7 +6492,7 @@
       <c r="A434">
         <v>-1</v>
       </c>
-      <c r="B434" s="39" t="s">
+      <c r="B434" s="41" t="s">
         <v>300</v>
       </c>
       <c r="C434">
@@ -6499,7 +6503,7 @@
       <c r="A435">
         <v>8101</v>
       </c>
-      <c r="B435" s="39" t="s">
+      <c r="B435" s="41" t="s">
         <v>435</v>
       </c>
       <c r="C435">
@@ -6510,7 +6514,7 @@
       <c r="A436">
         <v>8102</v>
       </c>
-      <c r="B436" s="39" t="s">
+      <c r="B436" s="41" t="s">
         <v>436</v>
       </c>
       <c r="C436">
@@ -6521,7 +6525,7 @@
       <c r="A437">
         <v>8103</v>
       </c>
-      <c r="B437" s="39" t="s">
+      <c r="B437" s="41" t="s">
         <v>437</v>
       </c>
       <c r="C437">
@@ -6532,7 +6536,7 @@
       <c r="A438">
         <v>8110</v>
       </c>
-      <c r="B438" s="39" t="s">
+      <c r="B438" s="41" t="s">
         <v>438</v>
       </c>
       <c r="C438">
@@ -6543,7 +6547,7 @@
       <c r="A439">
         <v>8111</v>
       </c>
-      <c r="B439" s="39" t="s">
+      <c r="B439" s="41" t="s">
         <v>439</v>
       </c>
       <c r="C439">
@@ -6554,7 +6558,7 @@
       <c r="A440">
         <v>8112</v>
       </c>
-      <c r="B440" s="39" t="s">
+      <c r="B440" s="41" t="s">
         <v>440</v>
       </c>
       <c r="C440">
@@ -6565,7 +6569,7 @@
       <c r="A441">
         <v>8113</v>
       </c>
-      <c r="B441" s="39" t="s">
+      <c r="B441" s="41" t="s">
         <v>441</v>
       </c>
       <c r="C441">
@@ -6576,7 +6580,7 @@
       <c r="A442">
         <v>8114</v>
       </c>
-      <c r="B442" s="39" t="s">
+      <c r="B442" s="41" t="s">
         <v>442</v>
       </c>
       <c r="C442">
@@ -6587,7 +6591,7 @@
       <c r="A443">
         <v>8115</v>
       </c>
-      <c r="B443" s="39" t="s">
+      <c r="B443" s="41" t="s">
         <v>443</v>
       </c>
       <c r="C443">
@@ -6598,7 +6602,7 @@
       <c r="A444">
         <v>8116</v>
       </c>
-      <c r="B444" s="39" t="s">
+      <c r="B444" s="41" t="s">
         <v>444</v>
       </c>
       <c r="C444">
@@ -6609,7 +6613,7 @@
       <c r="A445">
         <v>8117</v>
       </c>
-      <c r="B445" s="39" t="s">
+      <c r="B445" s="41" t="s">
         <v>445</v>
       </c>
       <c r="C445">
@@ -6620,7 +6624,7 @@
       <c r="A446">
         <v>8118</v>
       </c>
-      <c r="B446" s="39" t="s">
+      <c r="B446" s="41" t="s">
         <v>446</v>
       </c>
       <c r="C446">
@@ -6631,7 +6635,7 @@
       <c r="A447">
         <v>8121</v>
       </c>
-      <c r="B447" s="39" t="s">
+      <c r="B447" s="41" t="s">
         <v>447</v>
       </c>
       <c r="C447">
@@ -6642,7 +6646,7 @@
       <c r="A448">
         <v>8131</v>
       </c>
-      <c r="B448" s="39" t="s">
+      <c r="B448" s="41" t="s">
         <v>448</v>
       </c>
       <c r="C448">
@@ -6653,7 +6657,7 @@
       <c r="A449">
         <v>8181</v>
       </c>
-      <c r="B449" s="39" t="s">
+      <c r="B449" s="41" t="s">
         <v>449</v>
       </c>
       <c r="C449">
@@ -6664,7 +6668,7 @@
       <c r="A450">
         <v>8201</v>
       </c>
-      <c r="B450" s="39" t="s">
+      <c r="B450" s="41" t="s">
         <v>450</v>
       </c>
       <c r="C450">
@@ -6675,7 +6679,7 @@
       <c r="A451">
         <v>8202</v>
       </c>
-      <c r="B451" s="39" t="s">
+      <c r="B451" s="41" t="s">
         <v>451</v>
       </c>
       <c r="C451">
@@ -6686,7 +6690,7 @@
       <c r="A452">
         <v>8211</v>
       </c>
-      <c r="B452" s="39" t="s">
+      <c r="B452" s="41" t="s">
         <v>452</v>
       </c>
       <c r="C452">
@@ -6697,7 +6701,7 @@
       <c r="A453">
         <v>8212</v>
       </c>
-      <c r="B453" s="39" t="s">
+      <c r="B453" s="41" t="s">
         <v>453</v>
       </c>
       <c r="C453">
@@ -6708,7 +6712,7 @@
       <c r="A454">
         <v>8213</v>
       </c>
-      <c r="B454" s="39" t="s">
+      <c r="B454" s="41" t="s">
         <v>454</v>
       </c>
       <c r="C454">
@@ -6719,7 +6723,7 @@
       <c r="A455">
         <v>8214</v>
       </c>
-      <c r="B455" s="39" t="s">
+      <c r="B455" s="41" t="s">
         <v>455</v>
       </c>
       <c r="C455">
@@ -6730,7 +6734,7 @@
       <c r="A456">
         <v>8221</v>
       </c>
-      <c r="B456" s="39" t="s">
+      <c r="B456" s="41" t="s">
         <v>456</v>
       </c>
       <c r="C456">
@@ -6741,7 +6745,7 @@
       <c r="A457">
         <v>8231</v>
       </c>
-      <c r="B457" s="39" t="s">
+      <c r="B457" s="41" t="s">
         <v>457</v>
       </c>
       <c r="C457">
@@ -6752,7 +6756,7 @@
       <c r="A458">
         <v>8232</v>
       </c>
-      <c r="B458" s="39" t="s">
+      <c r="B458" s="41" t="s">
         <v>458</v>
       </c>
       <c r="C458">
@@ -6763,7 +6767,7 @@
       <c r="A459">
         <v>8233</v>
       </c>
-      <c r="B459" s="39" t="s">
+      <c r="B459" s="41" t="s">
         <v>459</v>
       </c>
       <c r="C459">
@@ -6774,7 +6778,7 @@
       <c r="A460">
         <v>8281</v>
       </c>
-      <c r="B460" s="39" t="s">
+      <c r="B460" s="41" t="s">
         <v>460</v>
       </c>
       <c r="C460">
@@ -6785,7 +6789,7 @@
       <c r="A461">
         <v>8301</v>
       </c>
-      <c r="B461" s="39" t="s">
+      <c r="B461" s="41" t="s">
         <v>461</v>
       </c>
       <c r="C461">
@@ -6796,7 +6800,7 @@
       <c r="A462">
         <v>8311</v>
       </c>
-      <c r="B462" s="39" t="s">
+      <c r="B462" s="41" t="s">
         <v>462</v>
       </c>
       <c r="C462">
@@ -6807,7 +6811,7 @@
       <c r="A463">
         <v>8321</v>
       </c>
-      <c r="B463" s="39" t="s">
+      <c r="B463" s="41" t="s">
         <v>463</v>
       </c>
       <c r="C463">
@@ -6818,7 +6822,7 @@
       <c r="A464">
         <v>8339</v>
       </c>
-      <c r="B464" s="39" t="s">
+      <c r="B464" s="41" t="s">
         <v>464</v>
       </c>
       <c r="C464">
@@ -6829,7 +6833,7 @@
       <c r="A465">
         <v>8401</v>
       </c>
-      <c r="B465" s="39" t="s">
+      <c r="B465" s="41" t="s">
         <v>465</v>
       </c>
       <c r="C465">
@@ -6840,7 +6844,7 @@
       <c r="A466">
         <v>8411</v>
       </c>
-      <c r="B466" s="39" t="s">
+      <c r="B466" s="41" t="s">
         <v>466</v>
       </c>
       <c r="C466">
@@ -6851,7 +6855,7 @@
       <c r="A467">
         <v>8412</v>
       </c>
-      <c r="B467" s="39" t="s">
+      <c r="B467" s="41" t="s">
         <v>467</v>
       </c>
       <c r="C467">
@@ -6862,7 +6866,7 @@
       <c r="A468">
         <v>8413</v>
       </c>
-      <c r="B468" s="39" t="s">
+      <c r="B468" s="41" t="s">
         <v>468</v>
       </c>
       <c r="C468">
@@ -6873,7 +6877,7 @@
       <c r="A469">
         <v>8416</v>
       </c>
-      <c r="B469" s="39" t="s">
+      <c r="B469" s="41" t="s">
         <v>469</v>
       </c>
       <c r="C469">
@@ -6884,7 +6888,7 @@
       <c r="A470">
         <v>8417</v>
       </c>
-      <c r="B470" s="39" t="s">
+      <c r="B470" s="41" t="s">
         <v>470</v>
       </c>
       <c r="C470">
@@ -6895,7 +6899,7 @@
       <c r="A471">
         <v>8421</v>
       </c>
-      <c r="B471" s="39" t="s">
+      <c r="B471" s="41" t="s">
         <v>471</v>
       </c>
       <c r="C471">
@@ -6906,7 +6910,7 @@
       <c r="A472">
         <v>8423</v>
       </c>
-      <c r="B472" s="39" t="s">
+      <c r="B472" s="41" t="s">
         <v>472</v>
       </c>
       <c r="C472">
@@ -6917,7 +6921,7 @@
       <c r="A473">
         <v>8429</v>
       </c>
-      <c r="B473" s="39" t="s">
+      <c r="B473" s="41" t="s">
         <v>473</v>
       </c>
       <c r="C473">
@@ -6928,7 +6932,7 @@
       <c r="A474">
         <v>8484</v>
       </c>
-      <c r="B474" s="39" t="s">
+      <c r="B474" s="41" t="s">
         <v>474</v>
       </c>
       <c r="C474">
@@ -6939,7 +6943,7 @@
       <c r="A475">
         <v>8485</v>
       </c>
-      <c r="B475" s="39" t="s">
+      <c r="B475" s="41" t="s">
         <v>475</v>
       </c>
       <c r="C475">
@@ -6950,7 +6954,7 @@
       <c r="A476">
         <v>8491</v>
       </c>
-      <c r="B476" s="39" t="s">
+      <c r="B476" s="41" t="s">
         <v>476</v>
       </c>
       <c r="C476">
@@ -6961,7 +6965,7 @@
       <c r="A477">
         <v>8492</v>
       </c>
-      <c r="B477" s="39" t="s">
+      <c r="B477" s="41" t="s">
         <v>477</v>
       </c>
       <c r="C477">
@@ -6972,7 +6976,7 @@
       <c r="A478">
         <v>8493</v>
       </c>
-      <c r="B478" s="39" t="s">
+      <c r="B478" s="41" t="s">
         <v>478</v>
       </c>
       <c r="C478">
@@ -6983,7 +6987,7 @@
       <c r="A479">
         <v>8601</v>
       </c>
-      <c r="B479" s="39" t="s">
+      <c r="B479" s="41" t="s">
         <v>479</v>
       </c>
       <c r="C479">
@@ -6994,7 +6998,7 @@
       <c r="A480">
         <v>8611</v>
       </c>
-      <c r="B480" s="39" t="s">
+      <c r="B480" s="41" t="s">
         <v>480</v>
       </c>
       <c r="C480">
@@ -7005,7 +7009,7 @@
       <c r="A481">
         <v>8612</v>
       </c>
-      <c r="B481" s="39" t="s">
+      <c r="B481" s="41" t="s">
         <v>481</v>
       </c>
       <c r="C481">
@@ -7016,7 +7020,7 @@
       <c r="A482">
         <v>8621</v>
       </c>
-      <c r="B482" s="39" t="s">
+      <c r="B482" s="41" t="s">
         <v>482</v>
       </c>
       <c r="C482">
@@ -7027,7 +7031,7 @@
       <c r="A483">
         <v>8622</v>
       </c>
-      <c r="B483" s="39" t="s">
+      <c r="B483" s="41" t="s">
         <v>483</v>
       </c>
       <c r="C483">
@@ -7038,7 +7042,7 @@
       <c r="A484">
         <v>8623</v>
       </c>
-      <c r="B484" s="39" t="s">
+      <c r="B484" s="41" t="s">
         <v>484</v>
       </c>
       <c r="C484">
@@ -7049,7 +7053,7 @@
       <c r="A485">
         <v>8624</v>
       </c>
-      <c r="B485" s="39" t="s">
+      <c r="B485" s="41" t="s">
         <v>485</v>
       </c>
       <c r="C485">
@@ -7060,7 +7064,7 @@
       <c r="A486">
         <v>8625</v>
       </c>
-      <c r="B486" s="39" t="s">
+      <c r="B486" s="41" t="s">
         <v>486</v>
       </c>
       <c r="C486">
@@ -7071,7 +7075,7 @@
       <c r="A487">
         <v>8711</v>
       </c>
-      <c r="B487" s="39" t="s">
+      <c r="B487" s="41" t="s">
         <v>487</v>
       </c>
       <c r="C487">
@@ -7082,7 +7086,7 @@
       <c r="A488">
         <v>-1</v>
       </c>
-      <c r="B488" s="39" t="s">
+      <c r="B488" s="41" t="s">
         <v>488</v>
       </c>
       <c r="C488">
@@ -7093,7 +7097,7 @@
       <c r="A489">
         <v>9101</v>
       </c>
-      <c r="B489" s="39" t="s">
+      <c r="B489" s="41" t="s">
         <v>489</v>
       </c>
       <c r="C489">
@@ -7104,7 +7108,7 @@
       <c r="A490">
         <v>9102</v>
       </c>
-      <c r="B490" s="39" t="s">
+      <c r="B490" s="41" t="s">
         <v>490</v>
       </c>
       <c r="C490">
@@ -7115,7 +7119,7 @@
       <c r="A491">
         <v>9109</v>
       </c>
-      <c r="B491" s="39" t="s">
+      <c r="B491" s="41" t="s">
         <v>491</v>
       </c>
       <c r="C491">
@@ -7126,7 +7130,7 @@
       <c r="A492">
         <v>9111</v>
       </c>
-      <c r="B492" s="39" t="s">
+      <c r="B492" s="41" t="s">
         <v>492</v>
       </c>
       <c r="C492">
@@ -7137,7 +7141,7 @@
       <c r="A493">
         <v>9112</v>
       </c>
-      <c r="B493" s="39" t="s">
+      <c r="B493" s="41" t="s">
         <v>493</v>
       </c>
       <c r="C493">
@@ -7148,7 +7152,7 @@
       <c r="A494">
         <v>9113</v>
       </c>
-      <c r="B494" s="39" t="s">
+      <c r="B494" s="41" t="s">
         <v>494</v>
       </c>
       <c r="C494">
@@ -7159,7 +7163,7 @@
       <c r="A495">
         <v>9131</v>
       </c>
-      <c r="B495" s="39" t="s">
+      <c r="B495" s="41" t="s">
         <v>495</v>
       </c>
       <c r="C495">
@@ -7170,7 +7174,7 @@
       <c r="A496">
         <v>9141</v>
       </c>
-      <c r="B496" s="39" t="s">
+      <c r="B496" s="41" t="s">
         <v>496</v>
       </c>
       <c r="C496">
@@ -7181,7 +7185,7 @@
       <c r="A497">
         <v>9142</v>
       </c>
-      <c r="B497" s="39" t="s">
+      <c r="B497" s="41" t="s">
         <v>497</v>
       </c>
       <c r="C497">
@@ -7192,7 +7196,7 @@
       <c r="A498">
         <v>9143</v>
       </c>
-      <c r="B498" s="39" t="s">
+      <c r="B498" s="41" t="s">
         <v>498</v>
       </c>
       <c r="C498">
@@ -7203,7 +7207,7 @@
       <c r="A499">
         <v>9144</v>
       </c>
-      <c r="B499" s="39" t="s">
+      <c r="B499" s="41" t="s">
         <v>499</v>
       </c>
       <c r="C499">
@@ -7214,7 +7218,7 @@
       <c r="A500">
         <v>9151</v>
       </c>
-      <c r="B500" s="39" t="s">
+      <c r="B500" s="41" t="s">
         <v>500</v>
       </c>
       <c r="C500">
@@ -7225,7 +7229,7 @@
       <c r="A501">
         <v>9152</v>
       </c>
-      <c r="B501" s="39" t="s">
+      <c r="B501" s="41" t="s">
         <v>501</v>
       </c>
       <c r="C501">
@@ -7236,7 +7240,7 @@
       <c r="A502">
         <v>9153</v>
       </c>
-      <c r="B502" s="39" t="s">
+      <c r="B502" s="41" t="s">
         <v>502</v>
       </c>
       <c r="C502">
@@ -7247,7 +7251,7 @@
       <c r="A503">
         <v>9154</v>
       </c>
-      <c r="B503" s="39" t="s">
+      <c r="B503" s="41" t="s">
         <v>503</v>
       </c>
       <c r="C503">
@@ -7258,7 +7262,7 @@
       <c r="A504">
         <v>9191</v>
       </c>
-      <c r="B504" s="39" t="s">
+      <c r="B504" s="41" t="s">
         <v>504</v>
       </c>
       <c r="C504">
@@ -7269,7 +7273,7 @@
       <c r="A505">
         <v>9192</v>
       </c>
-      <c r="B505" s="39" t="s">
+      <c r="B505" s="41" t="s">
         <v>505</v>
       </c>
       <c r="C505">
@@ -7280,7 +7284,7 @@
       <c r="A506">
         <v>9193</v>
       </c>
-      <c r="B506" s="39" t="s">
+      <c r="B506" s="41" t="s">
         <v>506</v>
       </c>
       <c r="C506">
@@ -7291,7 +7295,7 @@
       <c r="A507">
         <v>9501</v>
       </c>
-      <c r="B507" s="39" t="s">
+      <c r="B507" s="41" t="s">
         <v>507</v>
       </c>
       <c r="C507">
@@ -7302,7 +7306,7 @@
       <c r="A508">
         <v>9502</v>
       </c>
-      <c r="B508" s="39" t="s">
+      <c r="B508" s="41" t="s">
         <v>508</v>
       </c>
       <c r="C508">
@@ -7313,7 +7317,7 @@
       <c r="A509">
         <v>9503</v>
       </c>
-      <c r="B509" s="39" t="s">
+      <c r="B509" s="41" t="s">
         <v>509</v>
       </c>
       <c r="C509">
@@ -7324,7 +7328,7 @@
       <c r="A510">
         <v>9511</v>
       </c>
-      <c r="B510" s="39" t="s">
+      <c r="B510" s="41" t="s">
         <v>510</v>
       </c>
       <c r="C510">
@@ -7335,7 +7339,7 @@
       <c r="A511">
         <v>9513</v>
       </c>
-      <c r="B511" s="39" t="s">
+      <c r="B511" s="41" t="s">
         <v>511</v>
       </c>
       <c r="C511">
@@ -7346,7 +7350,7 @@
       <c r="A512">
         <v>9531</v>
       </c>
-      <c r="B512" s="39" t="s">
+      <c r="B512" s="41" t="s">
         <v>512</v>
       </c>
       <c r="C512">
@@ -7357,7 +7361,7 @@
       <c r="A513">
         <v>9541</v>
       </c>
-      <c r="B513" s="39" t="s">
+      <c r="B513" s="41" t="s">
         <v>513</v>
       </c>
       <c r="C513">
@@ -7368,7 +7372,7 @@
       <c r="A514">
         <v>9542</v>
       </c>
-      <c r="B514" s="39" t="s">
+      <c r="B514" s="41" t="s">
         <v>514</v>
       </c>
       <c r="C514">
@@ -7379,7 +7383,7 @@
       <c r="A515">
         <v>9543</v>
       </c>
-      <c r="B515" s="39" t="s">
+      <c r="B515" s="41" t="s">
         <v>515</v>
       </c>
       <c r="C515">
@@ -7390,7 +7394,7 @@
       <c r="A516">
         <v>9911</v>
       </c>
-      <c r="B516" s="39" t="s">
+      <c r="B516" s="41" t="s">
         <v>516</v>
       </c>
       <c r="C516">
@@ -7401,7 +7405,7 @@
       <c r="A517">
         <v>9912</v>
       </c>
-      <c r="B517" s="39" t="s">
+      <c r="B517" s="41" t="s">
         <v>517</v>
       </c>
       <c r="C517">
@@ -7412,7 +7416,7 @@
       <c r="A518">
         <v>9913</v>
       </c>
-      <c r="B518" s="39" t="s">
+      <c r="B518" s="41" t="s">
         <v>518</v>
       </c>
       <c r="C518">
@@ -7423,7 +7427,7 @@
       <c r="A519">
         <v>9914</v>
       </c>
-      <c r="B519" s="39" t="s">
+      <c r="B519" s="41" t="s">
         <v>519</v>
       </c>
       <c r="C519">
@@ -7434,7 +7438,7 @@
       <c r="A520">
         <v>9921</v>
       </c>
-      <c r="B520" s="39" t="s">
+      <c r="B520" s="41" t="s">
         <v>520</v>
       </c>
       <c r="C520">
@@ -7445,7 +7449,7 @@
       <c r="A521">
         <v>9922</v>
       </c>
-      <c r="B521" s="39" t="s">
+      <c r="B521" s="41" t="s">
         <v>521</v>
       </c>
       <c r="C521">
@@ -7456,7 +7460,7 @@
       <c r="A522">
         <v>-1</v>
       </c>
-      <c r="B522" s="39" t="s">
+      <c r="B522" s="41" t="s">
         <v>522</v>
       </c>
       <c r="C522">
@@ -7467,7 +7471,7 @@
       <c r="A523">
         <v>9999</v>
       </c>
-      <c r="B523" s="39" t="s">
+      <c r="B523" s="41" t="s">
         <v>523</v>
       </c>
       <c r="C523">

--- a/+dataLH/test_files/readTest.xlsx
+++ b/+dataLH/test_files/readTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11045" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11570" uniqueCount="525">
   <si>
     <t>Code</t>
   </si>
@@ -1610,7 +1610,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1660,11 +1660,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1708,6 +1710,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1726,13 +1730,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="43" t="s">
         <v>524</v>
       </c>
     </row>
@@ -1740,7 +1744,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
       <c r="C2">
@@ -1751,7 +1755,7 @@
       <c r="A3">
         <v>-1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -1762,7 +1766,7 @@
       <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -1773,7 +1777,7 @@
       <c r="A5">
         <v>200</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C5">
@@ -1784,7 +1788,7 @@
       <c r="A6">
         <v>300</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C6">
@@ -1795,7 +1799,7 @@
       <c r="A7">
         <v>401</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C7">
@@ -1806,7 +1810,7 @@
       <c r="A8">
         <v>402</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="43" t="s">
         <v>8</v>
       </c>
       <c r="C8">
@@ -1817,7 +1821,7 @@
       <c r="A9">
         <v>403</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C9">
@@ -1828,7 +1832,7 @@
       <c r="A10">
         <v>411</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C10">
@@ -1839,7 +1843,7 @@
       <c r="A11">
         <v>412</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C11">
@@ -1850,7 +1854,7 @@
       <c r="A12">
         <v>413</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C12">
@@ -1861,7 +1865,7 @@
       <c r="A13">
         <v>501</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C13">
@@ -1872,7 +1876,7 @@
       <c r="A14">
         <v>502</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C14">
@@ -1883,7 +1887,7 @@
       <c r="A15">
         <v>503</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C15">
@@ -1894,7 +1898,7 @@
       <c r="A16">
         <v>511</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C16">
@@ -1905,7 +1909,7 @@
       <c r="A17">
         <v>512</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="43" t="s">
         <v>17</v>
       </c>
       <c r="C17">
@@ -1916,7 +1920,7 @@
       <c r="A18">
         <v>513</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C18">
@@ -1927,7 +1931,7 @@
       <c r="A19">
         <v>-1</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C19">
@@ -1938,7 +1942,7 @@
       <c r="A20">
         <v>1111</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="43" t="s">
         <v>20</v>
       </c>
       <c r="C20">
@@ -1949,7 +1953,7 @@
       <c r="A21">
         <v>1112</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C21">
@@ -1960,7 +1964,7 @@
       <c r="A22">
         <v>1113</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C22">
@@ -1971,7 +1975,7 @@
       <c r="A23">
         <v>1122</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="43" t="s">
         <v>23</v>
       </c>
       <c r="C23">
@@ -1982,7 +1986,7 @@
       <c r="A24">
         <v>1123</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C24">
@@ -1993,7 +1997,7 @@
       <c r="A25">
         <v>1130</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="43" t="s">
         <v>25</v>
       </c>
       <c r="C25">
@@ -2004,7 +2008,7 @@
       <c r="A26">
         <v>1140</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="43" t="s">
         <v>27</v>
       </c>
       <c r="C26">
@@ -2015,7 +2019,7 @@
       <c r="A27">
         <v>1210</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="43" t="s">
         <v>28</v>
       </c>
       <c r="C27">
@@ -2026,7 +2030,7 @@
       <c r="A28">
         <v>1219</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="43" t="s">
         <v>29</v>
       </c>
       <c r="C28">
@@ -2037,7 +2041,7 @@
       <c r="A29">
         <v>1220</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="43" t="s">
         <v>30</v>
       </c>
       <c r="C29">
@@ -2048,7 +2052,7 @@
       <c r="A30">
         <v>1230</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="43" t="s">
         <v>31</v>
       </c>
       <c r="C30">
@@ -2059,7 +2063,7 @@
       <c r="A31">
         <v>1310</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="43" t="s">
         <v>32</v>
       </c>
       <c r="C31">
@@ -2070,7 +2074,7 @@
       <c r="A32">
         <v>1320</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C32">
@@ -2081,7 +2085,7 @@
       <c r="A33">
         <v>-1</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="43" t="s">
         <v>34</v>
       </c>
       <c r="C33">
@@ -2092,7 +2096,7 @@
       <c r="A34">
         <v>2011</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="43" t="s">
         <v>35</v>
       </c>
       <c r="C34">
@@ -2103,7 +2107,7 @@
       <c r="A35">
         <v>2012</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="43" t="s">
         <v>36</v>
       </c>
       <c r="C35">
@@ -2114,7 +2118,7 @@
       <c r="A36">
         <v>2021</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="43" t="s">
         <v>37</v>
       </c>
       <c r="C36">
@@ -2125,7 +2129,7 @@
       <c r="A37">
         <v>2111</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="43" t="s">
         <v>38</v>
       </c>
       <c r="C37">
@@ -2136,7 +2140,7 @@
       <c r="A38">
         <v>2112</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="43" t="s">
         <v>39</v>
       </c>
       <c r="C38">
@@ -2147,7 +2151,7 @@
       <c r="A39">
         <v>2121</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="43" t="s">
         <v>40</v>
       </c>
       <c r="C39">
@@ -2158,7 +2162,7 @@
       <c r="A40">
         <v>2122</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="43" t="s">
         <v>41</v>
       </c>
       <c r="C40">
@@ -2169,7 +2173,7 @@
       <c r="A41">
         <v>2123</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="43" t="s">
         <v>42</v>
       </c>
       <c r="C41">
@@ -2180,7 +2184,7 @@
       <c r="A42">
         <v>2124</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="43" t="s">
         <v>43</v>
       </c>
       <c r="C42">
@@ -2191,7 +2195,7 @@
       <c r="A43">
         <v>2125</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="43" t="s">
         <v>44</v>
       </c>
       <c r="C43">
@@ -2202,7 +2206,7 @@
       <c r="A44">
         <v>2131</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="43" t="s">
         <v>45</v>
       </c>
       <c r="C44">
@@ -2213,7 +2217,7 @@
       <c r="A45">
         <v>2132</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="43" t="s">
         <v>46</v>
       </c>
       <c r="C45">
@@ -2224,7 +2228,7 @@
       <c r="A46">
         <v>2133</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="43" t="s">
         <v>47</v>
       </c>
       <c r="C46">
@@ -2235,7 +2239,7 @@
       <c r="A47">
         <v>2134</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="43" t="s">
         <v>48</v>
       </c>
       <c r="C47">
@@ -2246,7 +2250,7 @@
       <c r="A48">
         <v>2140</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="43" t="s">
         <v>49</v>
       </c>
       <c r="C48">
@@ -2257,7 +2261,7 @@
       <c r="A49">
         <v>2141</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="43" t="s">
         <v>50</v>
       </c>
       <c r="C49">
@@ -2268,7 +2272,7 @@
       <c r="A50">
         <v>2142</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="43" t="s">
         <v>51</v>
       </c>
       <c r="C50">
@@ -2279,7 +2283,7 @@
       <c r="A51">
         <v>2143</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="43" t="s">
         <v>52</v>
       </c>
       <c r="C51">
@@ -2290,7 +2294,7 @@
       <c r="A52">
         <v>2144</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C52">
@@ -2301,7 +2305,7 @@
       <c r="A53">
         <v>2145</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="43" t="s">
         <v>54</v>
       </c>
       <c r="C53">
@@ -2312,7 +2316,7 @@
       <c r="A54">
         <v>2146</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="43" t="s">
         <v>55</v>
       </c>
       <c r="C54">
@@ -2323,7 +2327,7 @@
       <c r="A55">
         <v>2147</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="43" t="s">
         <v>56</v>
       </c>
       <c r="C55">
@@ -2334,7 +2338,7 @@
       <c r="A56">
         <v>2148</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="43" t="s">
         <v>57</v>
       </c>
       <c r="C56">
@@ -2345,7 +2349,7 @@
       <c r="A57">
         <v>2149</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="43" t="s">
         <v>58</v>
       </c>
       <c r="C57">
@@ -2356,7 +2360,7 @@
       <c r="A58">
         <v>2151</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="43" t="s">
         <v>59</v>
       </c>
       <c r="C58">
@@ -2367,7 +2371,7 @@
       <c r="A59">
         <v>2152</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="43" t="s">
         <v>60</v>
       </c>
       <c r="C59">
@@ -2378,7 +2382,7 @@
       <c r="A60">
         <v>2153</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C60">
@@ -2389,7 +2393,7 @@
       <c r="A61">
         <v>2211</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="43" t="s">
         <v>62</v>
       </c>
       <c r="C61">
@@ -2400,7 +2404,7 @@
       <c r="A62">
         <v>2221</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="43" t="s">
         <v>63</v>
       </c>
       <c r="C62">
@@ -2411,7 +2415,7 @@
       <c r="A63">
         <v>2231</v>
       </c>
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="43" t="s">
         <v>64</v>
       </c>
       <c r="C63">
@@ -2422,7 +2426,7 @@
       <c r="A64">
         <v>2232</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B64" s="43" t="s">
         <v>65</v>
       </c>
       <c r="C64">
@@ -2433,7 +2437,7 @@
       <c r="A65">
         <v>2233</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B65" s="43" t="s">
         <v>66</v>
       </c>
       <c r="C65">
@@ -2444,7 +2448,7 @@
       <c r="A66">
         <v>2234</v>
       </c>
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="43" t="s">
         <v>67</v>
       </c>
       <c r="C66">
@@ -2455,7 +2459,7 @@
       <c r="A67">
         <v>2235</v>
       </c>
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C67">
@@ -2466,7 +2470,7 @@
       <c r="A68">
         <v>2236</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C68">
@@ -2477,7 +2481,7 @@
       <c r="A69">
         <v>2237</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="43" t="s">
         <v>70</v>
       </c>
       <c r="C69">
@@ -2488,7 +2492,7 @@
       <c r="A70">
         <v>2311</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="43" t="s">
         <v>71</v>
       </c>
       <c r="C70">
@@ -2499,7 +2503,7 @@
       <c r="A71">
         <v>2312</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="43" t="s">
         <v>72</v>
       </c>
       <c r="C71">
@@ -2510,7 +2514,7 @@
       <c r="A72">
         <v>2313</v>
       </c>
-      <c r="B72" s="41" t="s">
+      <c r="B72" s="43" t="s">
         <v>73</v>
       </c>
       <c r="C72">
@@ -2521,7 +2525,7 @@
       <c r="A73">
         <v>2321</v>
       </c>
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="43" t="s">
         <v>74</v>
       </c>
       <c r="C73">
@@ -2532,7 +2536,7 @@
       <c r="A74">
         <v>2330</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="43" t="s">
         <v>75</v>
       </c>
       <c r="C74">
@@ -2543,7 +2547,7 @@
       <c r="A75">
         <v>2340</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="43" t="s">
         <v>76</v>
       </c>
       <c r="C75">
@@ -2554,7 +2558,7 @@
       <c r="A76">
         <v>2391</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C76">
@@ -2565,7 +2569,7 @@
       <c r="A77">
         <v>2392</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B77" s="43" t="s">
         <v>78</v>
       </c>
       <c r="C77">
@@ -2576,7 +2580,7 @@
       <c r="A78">
         <v>2394</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="43" t="s">
         <v>79</v>
       </c>
       <c r="C78">
@@ -2587,7 +2591,7 @@
       <c r="A79">
         <v>2410</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="43" t="s">
         <v>80</v>
       </c>
       <c r="C79">
@@ -2598,7 +2602,7 @@
       <c r="A80">
         <v>2412</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="43" t="s">
         <v>81</v>
       </c>
       <c r="C80">
@@ -2609,7 +2613,7 @@
       <c r="A81">
         <v>2419</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="43" t="s">
         <v>82</v>
       </c>
       <c r="C81">
@@ -2620,7 +2624,7 @@
       <c r="A82">
         <v>2421</v>
       </c>
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="43" t="s">
         <v>83</v>
       </c>
       <c r="C82">
@@ -2631,7 +2635,7 @@
       <c r="A83">
         <v>2422</v>
       </c>
-      <c r="B83" s="41" t="s">
+      <c r="B83" s="43" t="s">
         <v>84</v>
       </c>
       <c r="C83">
@@ -2642,7 +2646,7 @@
       <c r="A84">
         <v>2423</v>
       </c>
-      <c r="B84" s="41" t="s">
+      <c r="B84" s="43" t="s">
         <v>85</v>
       </c>
       <c r="C84">
@@ -2653,7 +2657,7 @@
       <c r="A85">
         <v>2511</v>
       </c>
-      <c r="B85" s="41" t="s">
+      <c r="B85" s="43" t="s">
         <v>86</v>
       </c>
       <c r="C85">
@@ -2664,7 +2668,7 @@
       <c r="A86">
         <v>2512</v>
       </c>
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="43" t="s">
         <v>87</v>
       </c>
       <c r="C86">
@@ -2675,7 +2679,7 @@
       <c r="A87">
         <v>2513</v>
       </c>
-      <c r="B87" s="41" t="s">
+      <c r="B87" s="43" t="s">
         <v>88</v>
       </c>
       <c r="C87">
@@ -2686,7 +2690,7 @@
       <c r="A88">
         <v>2514</v>
       </c>
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="43" t="s">
         <v>89</v>
       </c>
       <c r="C88">
@@ -2697,7 +2701,7 @@
       <c r="A89">
         <v>2515</v>
       </c>
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="43" t="s">
         <v>90</v>
       </c>
       <c r="C89">
@@ -2708,7 +2712,7 @@
       <c r="A90">
         <v>2516</v>
       </c>
-      <c r="B90" s="41" t="s">
+      <c r="B90" s="43" t="s">
         <v>91</v>
       </c>
       <c r="C90">
@@ -2719,7 +2723,7 @@
       <c r="A91">
         <v>2521</v>
       </c>
-      <c r="B91" s="41" t="s">
+      <c r="B91" s="43" t="s">
         <v>92</v>
       </c>
       <c r="C91">
@@ -2730,7 +2734,7 @@
       <c r="A92">
         <v>2522</v>
       </c>
-      <c r="B92" s="41" t="s">
+      <c r="B92" s="43" t="s">
         <v>93</v>
       </c>
       <c r="C92">
@@ -2741,7 +2745,7 @@
       <c r="A93">
         <v>2523</v>
       </c>
-      <c r="B93" s="41" t="s">
+      <c r="B93" s="43" t="s">
         <v>94</v>
       </c>
       <c r="C93">
@@ -2752,7 +2756,7 @@
       <c r="A94">
         <v>2524</v>
       </c>
-      <c r="B94" s="41" t="s">
+      <c r="B94" s="43" t="s">
         <v>95</v>
       </c>
       <c r="C94">
@@ -2763,7 +2767,7 @@
       <c r="A95">
         <v>2525</v>
       </c>
-      <c r="B95" s="41" t="s">
+      <c r="B95" s="43" t="s">
         <v>96</v>
       </c>
       <c r="C95">
@@ -2774,7 +2778,7 @@
       <c r="A96">
         <v>2531</v>
       </c>
-      <c r="B96" s="41" t="s">
+      <c r="B96" s="43" t="s">
         <v>97</v>
       </c>
       <c r="C96">
@@ -2785,7 +2789,7 @@
       <c r="A97">
         <v>2611</v>
       </c>
-      <c r="B97" s="41" t="s">
+      <c r="B97" s="43" t="s">
         <v>98</v>
       </c>
       <c r="C97">
@@ -2796,7 +2800,7 @@
       <c r="A98">
         <v>2612</v>
       </c>
-      <c r="B98" s="41" t="s">
+      <c r="B98" s="43" t="s">
         <v>99</v>
       </c>
       <c r="C98">
@@ -2807,7 +2811,7 @@
       <c r="A99">
         <v>2613</v>
       </c>
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="43" t="s">
         <v>100</v>
       </c>
       <c r="C99">
@@ -2818,7 +2822,7 @@
       <c r="A100">
         <v>2614</v>
       </c>
-      <c r="B100" s="41" t="s">
+      <c r="B100" s="43" t="s">
         <v>101</v>
       </c>
       <c r="C100">
@@ -2829,7 +2833,7 @@
       <c r="A101">
         <v>2615</v>
       </c>
-      <c r="B101" s="41" t="s">
+      <c r="B101" s="43" t="s">
         <v>102</v>
       </c>
       <c r="C101">
@@ -2840,7 +2844,7 @@
       <c r="A102">
         <v>2616</v>
       </c>
-      <c r="B102" s="41" t="s">
+      <c r="B102" s="43" t="s">
         <v>103</v>
       </c>
       <c r="C102">
@@ -2851,7 +2855,7 @@
       <c r="A103">
         <v>2617</v>
       </c>
-      <c r="B103" s="41" t="s">
+      <c r="B103" s="43" t="s">
         <v>104</v>
       </c>
       <c r="C103">
@@ -2862,7 +2866,7 @@
       <c r="A104">
         <v>2621</v>
       </c>
-      <c r="B104" s="41" t="s">
+      <c r="B104" s="43" t="s">
         <v>105</v>
       </c>
       <c r="C104">
@@ -2873,7 +2877,7 @@
       <c r="A105">
         <v>2622</v>
       </c>
-      <c r="B105" s="41" t="s">
+      <c r="B105" s="43" t="s">
         <v>106</v>
       </c>
       <c r="C105">
@@ -2884,7 +2888,7 @@
       <c r="A106">
         <v>2623</v>
       </c>
-      <c r="B106" s="41" t="s">
+      <c r="B106" s="43" t="s">
         <v>107</v>
       </c>
       <c r="C106">
@@ -2895,7 +2899,7 @@
       <c r="A107">
         <v>2624</v>
       </c>
-      <c r="B107" s="41" t="s">
+      <c r="B107" s="43" t="s">
         <v>108</v>
       </c>
       <c r="C107">
@@ -2906,7 +2910,7 @@
       <c r="A108">
         <v>2625</v>
       </c>
-      <c r="B108" s="41" t="s">
+      <c r="B108" s="43" t="s">
         <v>109</v>
       </c>
       <c r="C108">
@@ -2917,7 +2921,7 @@
       <c r="A109">
         <v>2627</v>
       </c>
-      <c r="B109" s="41" t="s">
+      <c r="B109" s="43" t="s">
         <v>110</v>
       </c>
       <c r="C109">
@@ -2928,7 +2932,7 @@
       <c r="A110">
         <v>2631</v>
       </c>
-      <c r="B110" s="41" t="s">
+      <c r="B110" s="43" t="s">
         <v>111</v>
       </c>
       <c r="C110">
@@ -2939,7 +2943,7 @@
       <c r="A111">
         <v>-1</v>
       </c>
-      <c r="B111" s="41" t="s">
+      <c r="B111" s="43" t="s">
         <v>112</v>
       </c>
       <c r="C111">
@@ -2950,7 +2954,7 @@
       <c r="A112">
         <v>3001</v>
       </c>
-      <c r="B112" s="41" t="s">
+      <c r="B112" s="43" t="s">
         <v>113</v>
       </c>
       <c r="C112">
@@ -2961,7 +2965,7 @@
       <c r="A113">
         <v>3003</v>
       </c>
-      <c r="B113" s="41" t="s">
+      <c r="B113" s="43" t="s">
         <v>114</v>
       </c>
       <c r="C113">
@@ -2972,7 +2976,7 @@
       <c r="A114">
         <v>3011</v>
       </c>
-      <c r="B114" s="41" t="s">
+      <c r="B114" s="43" t="s">
         <v>115</v>
       </c>
       <c r="C114">
@@ -2983,7 +2987,7 @@
       <c r="A115">
         <v>3012</v>
       </c>
-      <c r="B115" s="41" t="s">
+      <c r="B115" s="43" t="s">
         <v>116</v>
       </c>
       <c r="C115">
@@ -2994,7 +2998,7 @@
       <c r="A116">
         <v>3111</v>
       </c>
-      <c r="B116" s="41" t="s">
+      <c r="B116" s="43" t="s">
         <v>117</v>
       </c>
       <c r="C116">
@@ -3005,7 +3009,7 @@
       <c r="A117">
         <v>3112</v>
       </c>
-      <c r="B117" s="41" t="s">
+      <c r="B117" s="43" t="s">
         <v>118</v>
       </c>
       <c r="C117">
@@ -3016,7 +3020,7 @@
       <c r="A118">
         <v>3113</v>
       </c>
-      <c r="B118" s="41" t="s">
+      <c r="B118" s="43" t="s">
         <v>119</v>
       </c>
       <c r="C118">
@@ -3027,7 +3031,7 @@
       <c r="A119">
         <v>3114</v>
       </c>
-      <c r="B119" s="41" t="s">
+      <c r="B119" s="43" t="s">
         <v>120</v>
       </c>
       <c r="C119">
@@ -3038,7 +3042,7 @@
       <c r="A120">
         <v>3115</v>
       </c>
-      <c r="B120" s="41" t="s">
+      <c r="B120" s="43" t="s">
         <v>121</v>
       </c>
       <c r="C120">
@@ -3049,7 +3053,7 @@
       <c r="A121">
         <v>3116</v>
       </c>
-      <c r="B121" s="41" t="s">
+      <c r="B121" s="43" t="s">
         <v>122</v>
       </c>
       <c r="C121">
@@ -3060,7 +3064,7 @@
       <c r="A122">
         <v>3117</v>
       </c>
-      <c r="B122" s="41" t="s">
+      <c r="B122" s="43" t="s">
         <v>123</v>
       </c>
       <c r="C122">
@@ -3071,7 +3075,7 @@
       <c r="A123">
         <v>3121</v>
       </c>
-      <c r="B123" s="41" t="s">
+      <c r="B123" s="43" t="s">
         <v>124</v>
       </c>
       <c r="C123">
@@ -3082,7 +3086,7 @@
       <c r="A124">
         <v>3122</v>
       </c>
-      <c r="B124" s="41" t="s">
+      <c r="B124" s="43" t="s">
         <v>125</v>
       </c>
       <c r="C124">
@@ -3093,7 +3097,7 @@
       <c r="A125">
         <v>3123</v>
       </c>
-      <c r="B125" s="41" t="s">
+      <c r="B125" s="43" t="s">
         <v>126</v>
       </c>
       <c r="C125">
@@ -3104,7 +3108,7 @@
       <c r="A126">
         <v>3131</v>
       </c>
-      <c r="B126" s="41" t="s">
+      <c r="B126" s="43" t="s">
         <v>127</v>
       </c>
       <c r="C126">
@@ -3115,7 +3119,7 @@
       <c r="A127">
         <v>3132</v>
       </c>
-      <c r="B127" s="41" t="s">
+      <c r="B127" s="43" t="s">
         <v>128</v>
       </c>
       <c r="C127">
@@ -3126,7 +3130,7 @@
       <c r="A128">
         <v>3134</v>
       </c>
-      <c r="B128" s="41" t="s">
+      <c r="B128" s="43" t="s">
         <v>129</v>
       </c>
       <c r="C128">
@@ -3137,7 +3141,7 @@
       <c r="A129">
         <v>3135</v>
       </c>
-      <c r="B129" s="41" t="s">
+      <c r="B129" s="43" t="s">
         <v>130</v>
       </c>
       <c r="C129">
@@ -3148,7 +3152,7 @@
       <c r="A130">
         <v>3136</v>
       </c>
-      <c r="B130" s="41" t="s">
+      <c r="B130" s="43" t="s">
         <v>131</v>
       </c>
       <c r="C130">
@@ -3159,7 +3163,7 @@
       <c r="A131">
         <v>3141</v>
       </c>
-      <c r="B131" s="41" t="s">
+      <c r="B131" s="43" t="s">
         <v>132</v>
       </c>
       <c r="C131">
@@ -3170,7 +3174,7 @@
       <c r="A132">
         <v>3142</v>
       </c>
-      <c r="B132" s="41" t="s">
+      <c r="B132" s="43" t="s">
         <v>133</v>
       </c>
       <c r="C132">
@@ -3181,7 +3185,7 @@
       <c r="A133">
         <v>3143</v>
       </c>
-      <c r="B133" s="41" t="s">
+      <c r="B133" s="43" t="s">
         <v>134</v>
       </c>
       <c r="C133">
@@ -3192,7 +3196,7 @@
       <c r="A134">
         <v>3144</v>
       </c>
-      <c r="B134" s="41" t="s">
+      <c r="B134" s="43" t="s">
         <v>135</v>
       </c>
       <c r="C134">
@@ -3203,7 +3207,7 @@
       <c r="A135">
         <v>3146</v>
       </c>
-      <c r="B135" s="41" t="s">
+      <c r="B135" s="43" t="s">
         <v>136</v>
       </c>
       <c r="C135">
@@ -3214,7 +3218,7 @@
       <c r="A136">
         <v>3147</v>
       </c>
-      <c r="B136" s="41" t="s">
+      <c r="B136" s="43" t="s">
         <v>137</v>
       </c>
       <c r="C136">
@@ -3225,7 +3229,7 @@
       <c r="A137">
         <v>3161</v>
       </c>
-      <c r="B137" s="41" t="s">
+      <c r="B137" s="43" t="s">
         <v>138</v>
       </c>
       <c r="C137">
@@ -3236,7 +3240,7 @@
       <c r="A138">
         <v>3162</v>
       </c>
-      <c r="B138" s="41" t="s">
+      <c r="B138" s="43" t="s">
         <v>139</v>
       </c>
       <c r="C138">
@@ -3247,7 +3251,7 @@
       <c r="A139">
         <v>3163</v>
       </c>
-      <c r="B139" s="41" t="s">
+      <c r="B139" s="43" t="s">
         <v>140</v>
       </c>
       <c r="C139">
@@ -3258,7 +3262,7 @@
       <c r="A140">
         <v>3171</v>
       </c>
-      <c r="B140" s="41" t="s">
+      <c r="B140" s="43" t="s">
         <v>141</v>
       </c>
       <c r="C140">
@@ -3269,7 +3273,7 @@
       <c r="A141">
         <v>3172</v>
       </c>
-      <c r="B141" s="41" t="s">
+      <c r="B141" s="43" t="s">
         <v>142</v>
       </c>
       <c r="C141">
@@ -3280,7 +3284,7 @@
       <c r="A142">
         <v>3189</v>
       </c>
-      <c r="B142" s="41" t="s">
+      <c r="B142" s="43" t="s">
         <v>143</v>
       </c>
       <c r="C142">
@@ -3291,7 +3295,7 @@
       <c r="A143">
         <v>3191</v>
       </c>
-      <c r="B143" s="41" t="s">
+      <c r="B143" s="43" t="s">
         <v>144</v>
       </c>
       <c r="C143">
@@ -3302,7 +3306,7 @@
       <c r="A144">
         <v>3192</v>
       </c>
-      <c r="B144" s="41" t="s">
+      <c r="B144" s="43" t="s">
         <v>145</v>
       </c>
       <c r="C144">
@@ -3313,7 +3317,7 @@
       <c r="A145">
         <v>3201</v>
       </c>
-      <c r="B145" s="41" t="s">
+      <c r="B145" s="43" t="s">
         <v>146</v>
       </c>
       <c r="C145">
@@ -3324,7 +3328,7 @@
       <c r="A146">
         <v>3210</v>
       </c>
-      <c r="B146" s="41" t="s">
+      <c r="B146" s="43" t="s">
         <v>147</v>
       </c>
       <c r="C146">
@@ -3335,7 +3339,7 @@
       <c r="A147">
         <v>3211</v>
       </c>
-      <c r="B147" s="41" t="s">
+      <c r="B147" s="43" t="s">
         <v>148</v>
       </c>
       <c r="C147">
@@ -3346,7 +3350,7 @@
       <c r="A148">
         <v>3212</v>
       </c>
-      <c r="B148" s="41" t="s">
+      <c r="B148" s="43" t="s">
         <v>149</v>
       </c>
       <c r="C148">
@@ -3357,7 +3361,7 @@
       <c r="A149">
         <v>3213</v>
       </c>
-      <c r="B149" s="41" t="s">
+      <c r="B149" s="43" t="s">
         <v>150</v>
       </c>
       <c r="C149">
@@ -3368,7 +3372,7 @@
       <c r="A150">
         <v>3214</v>
       </c>
-      <c r="B150" s="41" t="s">
+      <c r="B150" s="43" t="s">
         <v>151</v>
       </c>
       <c r="C150">
@@ -3379,7 +3383,7 @@
       <c r="A151">
         <v>3221</v>
       </c>
-      <c r="B151" s="41" t="s">
+      <c r="B151" s="43" t="s">
         <v>152</v>
       </c>
       <c r="C151">
@@ -3390,7 +3394,7 @@
       <c r="A152">
         <v>3222</v>
       </c>
-      <c r="B152" s="41" t="s">
+      <c r="B152" s="43" t="s">
         <v>153</v>
       </c>
       <c r="C152">
@@ -3401,7 +3405,7 @@
       <c r="A153">
         <v>3223</v>
       </c>
-      <c r="B153" s="41" t="s">
+      <c r="B153" s="43" t="s">
         <v>154</v>
       </c>
       <c r="C153">
@@ -3412,7 +3416,7 @@
       <c r="A154">
         <v>3224</v>
       </c>
-      <c r="B154" s="41" t="s">
+      <c r="B154" s="43" t="s">
         <v>155</v>
       </c>
       <c r="C154">
@@ -3423,7 +3427,7 @@
       <c r="A155">
         <v>3225</v>
       </c>
-      <c r="B155" s="41" t="s">
+      <c r="B155" s="43" t="s">
         <v>156</v>
       </c>
       <c r="C155">
@@ -3434,7 +3438,7 @@
       <c r="A156">
         <v>3231</v>
       </c>
-      <c r="B156" s="41" t="s">
+      <c r="B156" s="43" t="s">
         <v>157</v>
       </c>
       <c r="C156">
@@ -3445,7 +3449,7 @@
       <c r="A157">
         <v>3232</v>
       </c>
-      <c r="B157" s="41" t="s">
+      <c r="B157" s="43" t="s">
         <v>158</v>
       </c>
       <c r="C157">
@@ -3456,7 +3460,7 @@
       <c r="A158">
         <v>3241</v>
       </c>
-      <c r="B158" s="41" t="s">
+      <c r="B158" s="43" t="s">
         <v>159</v>
       </c>
       <c r="C158">
@@ -3467,7 +3471,7 @@
       <c r="A159">
         <v>3242</v>
       </c>
-      <c r="B159" s="41" t="s">
+      <c r="B159" s="43" t="s">
         <v>160</v>
       </c>
       <c r="C159">
@@ -3478,7 +3482,7 @@
       <c r="A160">
         <v>3250</v>
       </c>
-      <c r="B160" s="41" t="s">
+      <c r="B160" s="43" t="s">
         <v>161</v>
       </c>
       <c r="C160">
@@ -3489,7 +3493,7 @@
       <c r="A161">
         <v>3251</v>
       </c>
-      <c r="B161" s="41" t="s">
+      <c r="B161" s="43" t="s">
         <v>162</v>
       </c>
       <c r="C161">
@@ -3500,7 +3504,7 @@
       <c r="A162">
         <v>3252</v>
       </c>
-      <c r="B162" s="41" t="s">
+      <c r="B162" s="43" t="s">
         <v>163</v>
       </c>
       <c r="C162">
@@ -3511,7 +3515,7 @@
       <c r="A163">
         <v>3253</v>
       </c>
-      <c r="B163" s="41" t="s">
+      <c r="B163" s="43" t="s">
         <v>164</v>
       </c>
       <c r="C163">
@@ -3522,7 +3526,7 @@
       <c r="A164">
         <v>3281</v>
       </c>
-      <c r="B164" s="41" t="s">
+      <c r="B164" s="43" t="s">
         <v>165</v>
       </c>
       <c r="C164">
@@ -3533,7 +3537,7 @@
       <c r="A165">
         <v>3311</v>
       </c>
-      <c r="B165" s="41" t="s">
+      <c r="B165" s="43" t="s">
         <v>166</v>
       </c>
       <c r="C165">
@@ -3544,7 +3548,7 @@
       <c r="A166">
         <v>3312</v>
       </c>
-      <c r="B166" s="41" t="s">
+      <c r="B166" s="43" t="s">
         <v>167</v>
       </c>
       <c r="C166">
@@ -3555,7 +3559,7 @@
       <c r="A167">
         <v>3313</v>
       </c>
-      <c r="B167" s="41" t="s">
+      <c r="B167" s="43" t="s">
         <v>168</v>
       </c>
       <c r="C167">
@@ -3566,7 +3570,7 @@
       <c r="A168">
         <v>3321</v>
       </c>
-      <c r="B168" s="41" t="s">
+      <c r="B168" s="43" t="s">
         <v>169</v>
       </c>
       <c r="C168">
@@ -3577,7 +3581,7 @@
       <c r="A169">
         <v>3322</v>
       </c>
-      <c r="B169" s="41" t="s">
+      <c r="B169" s="43" t="s">
         <v>170</v>
       </c>
       <c r="C169">
@@ -3588,7 +3592,7 @@
       <c r="A170">
         <v>3331</v>
       </c>
-      <c r="B170" s="41" t="s">
+      <c r="B170" s="43" t="s">
         <v>171</v>
       </c>
       <c r="C170">
@@ -3599,7 +3603,7 @@
       <c r="A171">
         <v>3341</v>
       </c>
-      <c r="B171" s="41" t="s">
+      <c r="B171" s="43" t="s">
         <v>172</v>
       </c>
       <c r="C171">
@@ -3610,7 +3614,7 @@
       <c r="A172">
         <v>3411</v>
       </c>
-      <c r="B172" s="41" t="s">
+      <c r="B172" s="43" t="s">
         <v>173</v>
       </c>
       <c r="C172">
@@ -3621,7 +3625,7 @@
       <c r="A173">
         <v>3412</v>
       </c>
-      <c r="B173" s="41" t="s">
+      <c r="B173" s="43" t="s">
         <v>174</v>
       </c>
       <c r="C173">
@@ -3632,7 +3636,7 @@
       <c r="A174">
         <v>3413</v>
       </c>
-      <c r="B174" s="41" t="s">
+      <c r="B174" s="43" t="s">
         <v>175</v>
       </c>
       <c r="C174">
@@ -3643,7 +3647,7 @@
       <c r="A175">
         <v>3421</v>
       </c>
-      <c r="B175" s="41" t="s">
+      <c r="B175" s="43" t="s">
         <v>176</v>
       </c>
       <c r="C175">
@@ -3654,7 +3658,7 @@
       <c r="A176">
         <v>3422</v>
       </c>
-      <c r="B176" s="41" t="s">
+      <c r="B176" s="43" t="s">
         <v>177</v>
       </c>
       <c r="C176">
@@ -3665,7 +3669,7 @@
       <c r="A177">
         <v>3423</v>
       </c>
-      <c r="B177" s="41" t="s">
+      <c r="B177" s="43" t="s">
         <v>178</v>
       </c>
       <c r="C177">
@@ -3676,7 +3680,7 @@
       <c r="A178">
         <v>3424</v>
       </c>
-      <c r="B178" s="41" t="s">
+      <c r="B178" s="43" t="s">
         <v>179</v>
       </c>
       <c r="C178">
@@ -3687,7 +3691,7 @@
       <c r="A179">
         <v>3425</v>
       </c>
-      <c r="B179" s="41" t="s">
+      <c r="B179" s="43" t="s">
         <v>180</v>
       </c>
       <c r="C179">
@@ -3698,7 +3702,7 @@
       <c r="A180">
         <v>3426</v>
       </c>
-      <c r="B180" s="41" t="s">
+      <c r="B180" s="43" t="s">
         <v>181</v>
       </c>
       <c r="C180">
@@ -3709,7 +3713,7 @@
       <c r="A181">
         <v>3511</v>
       </c>
-      <c r="B181" s="41" t="s">
+      <c r="B181" s="43" t="s">
         <v>182</v>
       </c>
       <c r="C181">
@@ -3720,7 +3724,7 @@
       <c r="A182">
         <v>3512</v>
       </c>
-      <c r="B182" s="41" t="s">
+      <c r="B182" s="43" t="s">
         <v>183</v>
       </c>
       <c r="C182">
@@ -3731,7 +3735,7 @@
       <c r="A183">
         <v>3513</v>
       </c>
-      <c r="B183" s="41" t="s">
+      <c r="B183" s="43" t="s">
         <v>184</v>
       </c>
       <c r="C183">
@@ -3742,7 +3746,7 @@
       <c r="A184">
         <v>3514</v>
       </c>
-      <c r="B184" s="41" t="s">
+      <c r="B184" s="43" t="s">
         <v>185</v>
       </c>
       <c r="C184">
@@ -3753,7 +3757,7 @@
       <c r="A185">
         <v>3515</v>
       </c>
-      <c r="B185" s="41" t="s">
+      <c r="B185" s="43" t="s">
         <v>186</v>
       </c>
       <c r="C185">
@@ -3764,7 +3768,7 @@
       <c r="A186">
         <v>3516</v>
       </c>
-      <c r="B186" s="41" t="s">
+      <c r="B186" s="43" t="s">
         <v>187</v>
       </c>
       <c r="C186">
@@ -3775,7 +3779,7 @@
       <c r="A187">
         <v>3517</v>
       </c>
-      <c r="B187" s="41" t="s">
+      <c r="B187" s="43" t="s">
         <v>188</v>
       </c>
       <c r="C187">
@@ -3786,7 +3790,7 @@
       <c r="A188">
         <v>3518</v>
       </c>
-      <c r="B188" s="41" t="s">
+      <c r="B188" s="43" t="s">
         <v>189</v>
       </c>
       <c r="C188">
@@ -3797,7 +3801,7 @@
       <c r="A189">
         <v>3522</v>
       </c>
-      <c r="B189" s="41" t="s">
+      <c r="B189" s="43" t="s">
         <v>190</v>
       </c>
       <c r="C189">
@@ -3808,7 +3812,7 @@
       <c r="A190">
         <v>3523</v>
       </c>
-      <c r="B190" s="41" t="s">
+      <c r="B190" s="43" t="s">
         <v>191</v>
       </c>
       <c r="C190">
@@ -3819,7 +3823,7 @@
       <c r="A191">
         <v>3524</v>
       </c>
-      <c r="B191" s="41" t="s">
+      <c r="B191" s="43" t="s">
         <v>192</v>
       </c>
       <c r="C191">
@@ -3830,7 +3834,7 @@
       <c r="A192">
         <v>3525</v>
       </c>
-      <c r="B192" s="41" t="s">
+      <c r="B192" s="43" t="s">
         <v>193</v>
       </c>
       <c r="C192">
@@ -3841,7 +3845,7 @@
       <c r="A193">
         <v>3531</v>
       </c>
-      <c r="B193" s="41" t="s">
+      <c r="B193" s="43" t="s">
         <v>194</v>
       </c>
       <c r="C193">
@@ -3852,7 +3856,7 @@
       <c r="A194">
         <v>3532</v>
       </c>
-      <c r="B194" s="41" t="s">
+      <c r="B194" s="43" t="s">
         <v>195</v>
       </c>
       <c r="C194">
@@ -3863,7 +3867,7 @@
       <c r="A195">
         <v>3541</v>
       </c>
-      <c r="B195" s="41" t="s">
+      <c r="B195" s="43" t="s">
         <v>196</v>
       </c>
       <c r="C195">
@@ -3874,7 +3878,7 @@
       <c r="A196">
         <v>3542</v>
       </c>
-      <c r="B196" s="41" t="s">
+      <c r="B196" s="43" t="s">
         <v>197</v>
       </c>
       <c r="C196">
@@ -3885,7 +3889,7 @@
       <c r="A197">
         <v>3543</v>
       </c>
-      <c r="B197" s="41" t="s">
+      <c r="B197" s="43" t="s">
         <v>198</v>
       </c>
       <c r="C197">
@@ -3896,7 +3900,7 @@
       <c r="A198">
         <v>3544</v>
       </c>
-      <c r="B198" s="41" t="s">
+      <c r="B198" s="43" t="s">
         <v>199</v>
       </c>
       <c r="C198">
@@ -3907,7 +3911,7 @@
       <c r="A199">
         <v>3545</v>
       </c>
-      <c r="B199" s="41" t="s">
+      <c r="B199" s="43" t="s">
         <v>200</v>
       </c>
       <c r="C199">
@@ -3918,7 +3922,7 @@
       <c r="A200">
         <v>3546</v>
       </c>
-      <c r="B200" s="41" t="s">
+      <c r="B200" s="43" t="s">
         <v>201</v>
       </c>
       <c r="C200">
@@ -3929,7 +3933,7 @@
       <c r="A201">
         <v>3547</v>
       </c>
-      <c r="B201" s="41" t="s">
+      <c r="B201" s="43" t="s">
         <v>202</v>
       </c>
       <c r="C201">
@@ -3940,7 +3944,7 @@
       <c r="A202">
         <v>3548</v>
       </c>
-      <c r="B202" s="41" t="s">
+      <c r="B202" s="43" t="s">
         <v>203</v>
       </c>
       <c r="C202">
@@ -3951,7 +3955,7 @@
       <c r="A203">
         <v>3711</v>
       </c>
-      <c r="B203" s="41" t="s">
+      <c r="B203" s="43" t="s">
         <v>204</v>
       </c>
       <c r="C203">
@@ -3962,7 +3966,7 @@
       <c r="A204">
         <v>3712</v>
       </c>
-      <c r="B204" s="41" t="s">
+      <c r="B204" s="43" t="s">
         <v>205</v>
       </c>
       <c r="C204">
@@ -3973,7 +3977,7 @@
       <c r="A205">
         <v>3713</v>
       </c>
-      <c r="B205" s="41" t="s">
+      <c r="B205" s="43" t="s">
         <v>206</v>
       </c>
       <c r="C205">
@@ -3984,7 +3988,7 @@
       <c r="A206">
         <v>3721</v>
       </c>
-      <c r="B206" s="41" t="s">
+      <c r="B206" s="43" t="s">
         <v>207</v>
       </c>
       <c r="C206">
@@ -3995,7 +3999,7 @@
       <c r="A207">
         <v>3722</v>
       </c>
-      <c r="B207" s="41" t="s">
+      <c r="B207" s="43" t="s">
         <v>208</v>
       </c>
       <c r="C207">
@@ -4006,7 +4010,7 @@
       <c r="A208">
         <v>3723</v>
       </c>
-      <c r="B208" s="41" t="s">
+      <c r="B208" s="43" t="s">
         <v>209</v>
       </c>
       <c r="C208">
@@ -4017,7 +4021,7 @@
       <c r="A209">
         <v>3731</v>
       </c>
-      <c r="B209" s="41" t="s">
+      <c r="B209" s="43" t="s">
         <v>210</v>
       </c>
       <c r="C209">
@@ -4028,7 +4032,7 @@
       <c r="A210">
         <v>3732</v>
       </c>
-      <c r="B210" s="41" t="s">
+      <c r="B210" s="43" t="s">
         <v>211</v>
       </c>
       <c r="C210">
@@ -4039,7 +4043,7 @@
       <c r="A211">
         <v>3741</v>
       </c>
-      <c r="B211" s="41" t="s">
+      <c r="B211" s="43" t="s">
         <v>212</v>
       </c>
       <c r="C211">
@@ -4050,7 +4054,7 @@
       <c r="A212">
         <v>3742</v>
       </c>
-      <c r="B212" s="41" t="s">
+      <c r="B212" s="43" t="s">
         <v>213</v>
       </c>
       <c r="C212">
@@ -4061,7 +4065,7 @@
       <c r="A213">
         <v>3743</v>
       </c>
-      <c r="B213" s="41" t="s">
+      <c r="B213" s="43" t="s">
         <v>214</v>
       </c>
       <c r="C213">
@@ -4072,7 +4076,7 @@
       <c r="A214">
         <v>3751</v>
       </c>
-      <c r="B214" s="41" t="s">
+      <c r="B214" s="43" t="s">
         <v>215</v>
       </c>
       <c r="C214">
@@ -4083,7 +4087,7 @@
       <c r="A215">
         <v>3761</v>
       </c>
-      <c r="B215" s="41" t="s">
+      <c r="B215" s="43" t="s">
         <v>216</v>
       </c>
       <c r="C215">
@@ -4094,7 +4098,7 @@
       <c r="A216">
         <v>3762</v>
       </c>
-      <c r="B216" s="41" t="s">
+      <c r="B216" s="43" t="s">
         <v>217</v>
       </c>
       <c r="C216">
@@ -4105,7 +4109,7 @@
       <c r="A217">
         <v>3763</v>
       </c>
-      <c r="B217" s="41" t="s">
+      <c r="B217" s="43" t="s">
         <v>218</v>
       </c>
       <c r="C217">
@@ -4116,7 +4120,7 @@
       <c r="A218">
         <v>3764</v>
       </c>
-      <c r="B218" s="41" t="s">
+      <c r="B218" s="43" t="s">
         <v>219</v>
       </c>
       <c r="C218">
@@ -4127,7 +4131,7 @@
       <c r="A219">
         <v>3765</v>
       </c>
-      <c r="B219" s="41" t="s">
+      <c r="B219" s="43" t="s">
         <v>220</v>
       </c>
       <c r="C219">
@@ -4138,7 +4142,7 @@
       <c r="A220">
         <v>3771</v>
       </c>
-      <c r="B220" s="41" t="s">
+      <c r="B220" s="43" t="s">
         <v>221</v>
       </c>
       <c r="C220">
@@ -4149,7 +4153,7 @@
       <c r="A221">
         <v>3772</v>
       </c>
-      <c r="B221" s="41" t="s">
+      <c r="B221" s="43" t="s">
         <v>222</v>
       </c>
       <c r="C221">
@@ -4160,7 +4164,7 @@
       <c r="A222">
         <v>3773</v>
       </c>
-      <c r="B222" s="41" t="s">
+      <c r="B222" s="43" t="s">
         <v>223</v>
       </c>
       <c r="C222">
@@ -4171,7 +4175,7 @@
       <c r="A223">
         <v>3911</v>
       </c>
-      <c r="B223" s="41" t="s">
+      <c r="B223" s="43" t="s">
         <v>224</v>
       </c>
       <c r="C223">
@@ -4182,7 +4186,7 @@
       <c r="A224">
         <v>3912</v>
       </c>
-      <c r="B224" s="41" t="s">
+      <c r="B224" s="43" t="s">
         <v>225</v>
       </c>
       <c r="C224">
@@ -4193,7 +4197,7 @@
       <c r="A225">
         <v>-1</v>
       </c>
-      <c r="B225" s="41" t="s">
+      <c r="B225" s="43" t="s">
         <v>226</v>
       </c>
       <c r="C225">
@@ -4204,7 +4208,7 @@
       <c r="A226">
         <v>4101</v>
       </c>
-      <c r="B226" s="41" t="s">
+      <c r="B226" s="43" t="s">
         <v>227</v>
       </c>
       <c r="C226">
@@ -4215,7 +4219,7 @@
       <c r="A227">
         <v>4102</v>
       </c>
-      <c r="B227" s="41" t="s">
+      <c r="B227" s="43" t="s">
         <v>228</v>
       </c>
       <c r="C227">
@@ -4226,7 +4230,7 @@
       <c r="A228">
         <v>4110</v>
       </c>
-      <c r="B228" s="41" t="s">
+      <c r="B228" s="43" t="s">
         <v>229</v>
       </c>
       <c r="C228">
@@ -4237,7 +4241,7 @@
       <c r="A229">
         <v>4121</v>
       </c>
-      <c r="B229" s="41" t="s">
+      <c r="B229" s="43" t="s">
         <v>230</v>
       </c>
       <c r="C229">
@@ -4248,7 +4252,7 @@
       <c r="A230">
         <v>4122</v>
       </c>
-      <c r="B230" s="41" t="s">
+      <c r="B230" s="43" t="s">
         <v>231</v>
       </c>
       <c r="C230">
@@ -4259,7 +4263,7 @@
       <c r="A231">
         <v>4123</v>
       </c>
-      <c r="B231" s="41" t="s">
+      <c r="B231" s="43" t="s">
         <v>232</v>
       </c>
       <c r="C231">
@@ -4270,7 +4274,7 @@
       <c r="A232">
         <v>4131</v>
       </c>
-      <c r="B232" s="41" t="s">
+      <c r="B232" s="43" t="s">
         <v>233</v>
       </c>
       <c r="C232">
@@ -4281,7 +4285,7 @@
       <c r="A233">
         <v>4132</v>
       </c>
-      <c r="B233" s="41" t="s">
+      <c r="B233" s="43" t="s">
         <v>234</v>
       </c>
       <c r="C233">
@@ -4292,7 +4296,7 @@
       <c r="A234">
         <v>4141</v>
       </c>
-      <c r="B234" s="41" t="s">
+      <c r="B234" s="43" t="s">
         <v>235</v>
       </c>
       <c r="C234">
@@ -4303,7 +4307,7 @@
       <c r="A235">
         <v>4142</v>
       </c>
-      <c r="B235" s="41" t="s">
+      <c r="B235" s="43" t="s">
         <v>236</v>
       </c>
       <c r="C235">
@@ -4314,7 +4318,7 @@
       <c r="A236">
         <v>4151</v>
       </c>
-      <c r="B236" s="41" t="s">
+      <c r="B236" s="43" t="s">
         <v>237</v>
       </c>
       <c r="C236">
@@ -4325,7 +4329,7 @@
       <c r="A237">
         <v>4152</v>
       </c>
-      <c r="B237" s="41" t="s">
+      <c r="B237" s="43" t="s">
         <v>238</v>
       </c>
       <c r="C237">
@@ -4336,7 +4340,7 @@
       <c r="A238">
         <v>4201</v>
       </c>
-      <c r="B238" s="41" t="s">
+      <c r="B238" s="43" t="s">
         <v>239</v>
       </c>
       <c r="C238">
@@ -4347,7 +4351,7 @@
       <c r="A239">
         <v>4211</v>
       </c>
-      <c r="B239" s="41" t="s">
+      <c r="B239" s="43" t="s">
         <v>240</v>
       </c>
       <c r="C239">
@@ -4358,7 +4362,7 @@
       <c r="A240">
         <v>4212</v>
       </c>
-      <c r="B240" s="41" t="s">
+      <c r="B240" s="43" t="s">
         <v>241</v>
       </c>
       <c r="C240">
@@ -4369,7 +4373,7 @@
       <c r="A241">
         <v>4213</v>
       </c>
-      <c r="B241" s="41" t="s">
+      <c r="B241" s="43" t="s">
         <v>242</v>
       </c>
       <c r="C241">
@@ -4380,7 +4384,7 @@
       <c r="A242">
         <v>4214</v>
       </c>
-      <c r="B242" s="41" t="s">
+      <c r="B242" s="43" t="s">
         <v>243</v>
       </c>
       <c r="C242">
@@ -4391,7 +4395,7 @@
       <c r="A243">
         <v>4221</v>
       </c>
-      <c r="B243" s="41" t="s">
+      <c r="B243" s="43" t="s">
         <v>244</v>
       </c>
       <c r="C243">
@@ -4402,7 +4406,7 @@
       <c r="A244">
         <v>4222</v>
       </c>
-      <c r="B244" s="41" t="s">
+      <c r="B244" s="43" t="s">
         <v>245</v>
       </c>
       <c r="C244">
@@ -4413,7 +4417,7 @@
       <c r="A245">
         <v>4223</v>
       </c>
-      <c r="B245" s="41" t="s">
+      <c r="B245" s="43" t="s">
         <v>246</v>
       </c>
       <c r="C245">
@@ -4424,7 +4428,7 @@
       <c r="A246">
         <v>4231</v>
       </c>
-      <c r="B246" s="41" t="s">
+      <c r="B246" s="43" t="s">
         <v>247</v>
       </c>
       <c r="C246">
@@ -4435,7 +4439,7 @@
       <c r="A247">
         <v>4241</v>
       </c>
-      <c r="B247" s="41" t="s">
+      <c r="B247" s="43" t="s">
         <v>248</v>
       </c>
       <c r="C247">
@@ -4446,7 +4450,7 @@
       <c r="A248">
         <v>-1</v>
       </c>
-      <c r="B248" s="41" t="s">
+      <c r="B248" s="43" t="s">
         <v>249</v>
       </c>
       <c r="C248">
@@ -4457,7 +4461,7 @@
       <c r="A249">
         <v>5101</v>
       </c>
-      <c r="B249" s="41" t="s">
+      <c r="B249" s="43" t="s">
         <v>250</v>
       </c>
       <c r="C249">
@@ -4468,7 +4472,7 @@
       <c r="A250">
         <v>5102</v>
       </c>
-      <c r="B250" s="41" t="s">
+      <c r="B250" s="43" t="s">
         <v>251</v>
       </c>
       <c r="C250">
@@ -4479,7 +4483,7 @@
       <c r="A251">
         <v>5103</v>
       </c>
-      <c r="B251" s="41" t="s">
+      <c r="B251" s="43" t="s">
         <v>252</v>
       </c>
       <c r="C251">
@@ -4490,7 +4494,7 @@
       <c r="A252">
         <v>5111</v>
       </c>
-      <c r="B252" s="41" t="s">
+      <c r="B252" s="43" t="s">
         <v>253</v>
       </c>
       <c r="C252">
@@ -4501,7 +4505,7 @@
       <c r="A253">
         <v>5112</v>
       </c>
-      <c r="B253" s="41" t="s">
+      <c r="B253" s="43" t="s">
         <v>254</v>
       </c>
       <c r="C253">
@@ -4512,7 +4516,7 @@
       <c r="A254">
         <v>5114</v>
       </c>
-      <c r="B254" s="41" t="s">
+      <c r="B254" s="43" t="s">
         <v>255</v>
       </c>
       <c r="C254">
@@ -4523,7 +4527,7 @@
       <c r="A255">
         <v>5121</v>
       </c>
-      <c r="B255" s="41" t="s">
+      <c r="B255" s="43" t="s">
         <v>256</v>
       </c>
       <c r="C255">
@@ -4534,7 +4538,7 @@
       <c r="A256">
         <v>5131</v>
       </c>
-      <c r="B256" s="41" t="s">
+      <c r="B256" s="43" t="s">
         <v>257</v>
       </c>
       <c r="C256">
@@ -4545,7 +4549,7 @@
       <c r="A257">
         <v>5132</v>
       </c>
-      <c r="B257" s="41" t="s">
+      <c r="B257" s="43" t="s">
         <v>258</v>
       </c>
       <c r="C257">
@@ -4556,7 +4560,7 @@
       <c r="A258">
         <v>5133</v>
       </c>
-      <c r="B258" s="41" t="s">
+      <c r="B258" s="43" t="s">
         <v>259</v>
       </c>
       <c r="C258">
@@ -4567,7 +4571,7 @@
       <c r="A259">
         <v>5134</v>
       </c>
-      <c r="B259" s="41" t="s">
+      <c r="B259" s="43" t="s">
         <v>260</v>
       </c>
       <c r="C259">
@@ -4578,7 +4582,7 @@
       <c r="A260">
         <v>5141</v>
       </c>
-      <c r="B260" s="41" t="s">
+      <c r="B260" s="43" t="s">
         <v>261</v>
       </c>
       <c r="C260">
@@ -4589,7 +4593,7 @@
       <c r="A261">
         <v>5142</v>
       </c>
-      <c r="B261" s="41" t="s">
+      <c r="B261" s="43" t="s">
         <v>262</v>
       </c>
       <c r="C261">
@@ -4600,7 +4604,7 @@
       <c r="A262">
         <v>5151</v>
       </c>
-      <c r="B262" s="41" t="s">
+      <c r="B262" s="43" t="s">
         <v>263</v>
       </c>
       <c r="C262">
@@ -4611,7 +4615,7 @@
       <c r="A263">
         <v>5152</v>
       </c>
-      <c r="B263" s="41" t="s">
+      <c r="B263" s="43" t="s">
         <v>264</v>
       </c>
       <c r="C263">
@@ -4622,7 +4626,7 @@
       <c r="A264">
         <v>5161</v>
       </c>
-      <c r="B264" s="41" t="s">
+      <c r="B264" s="43" t="s">
         <v>265</v>
       </c>
       <c r="C264">
@@ -4633,7 +4637,7 @@
       <c r="A265">
         <v>5162</v>
       </c>
-      <c r="B265" s="41" t="s">
+      <c r="B265" s="43" t="s">
         <v>266</v>
       </c>
       <c r="C265">
@@ -4644,7 +4648,7 @@
       <c r="A266">
         <v>5165</v>
       </c>
-      <c r="B266" s="41" t="s">
+      <c r="B266" s="43" t="s">
         <v>267</v>
       </c>
       <c r="C266">
@@ -4655,7 +4659,7 @@
       <c r="A267">
         <v>5166</v>
       </c>
-      <c r="B267" s="41" t="s">
+      <c r="B267" s="43" t="s">
         <v>268</v>
       </c>
       <c r="C267">
@@ -4666,7 +4670,7 @@
       <c r="A268">
         <v>5167</v>
       </c>
-      <c r="B268" s="41" t="s">
+      <c r="B268" s="43" t="s">
         <v>269</v>
       </c>
       <c r="C268">
@@ -4677,7 +4681,7 @@
       <c r="A269">
         <v>5169</v>
       </c>
-      <c r="B269" s="41" t="s">
+      <c r="B269" s="43" t="s">
         <v>270</v>
       </c>
       <c r="C269">
@@ -4688,7 +4692,7 @@
       <c r="A270">
         <v>5171</v>
       </c>
-      <c r="B270" s="41" t="s">
+      <c r="B270" s="43" t="s">
         <v>271</v>
       </c>
       <c r="C270">
@@ -4699,7 +4703,7 @@
       <c r="A271">
         <v>5172</v>
       </c>
-      <c r="B271" s="41" t="s">
+      <c r="B271" s="43" t="s">
         <v>272</v>
       </c>
       <c r="C271">
@@ -4710,7 +4714,7 @@
       <c r="A272">
         <v>5173</v>
       </c>
-      <c r="B272" s="41" t="s">
+      <c r="B272" s="43" t="s">
         <v>273</v>
       </c>
       <c r="C272">
@@ -4721,7 +4725,7 @@
       <c r="A273">
         <v>5174</v>
       </c>
-      <c r="B273" s="41" t="s">
+      <c r="B273" s="43" t="s">
         <v>274</v>
       </c>
       <c r="C273">
@@ -4732,7 +4736,7 @@
       <c r="A274">
         <v>5191</v>
       </c>
-      <c r="B274" s="41" t="s">
+      <c r="B274" s="43" t="s">
         <v>275</v>
       </c>
       <c r="C274">
@@ -4743,7 +4747,7 @@
       <c r="A275">
         <v>5192</v>
       </c>
-      <c r="B275" s="41" t="s">
+      <c r="B275" s="43" t="s">
         <v>276</v>
       </c>
       <c r="C275">
@@ -4754,7 +4758,7 @@
       <c r="A276">
         <v>5198</v>
       </c>
-      <c r="B276" s="41" t="s">
+      <c r="B276" s="43" t="s">
         <v>277</v>
       </c>
       <c r="C276">
@@ -4765,7 +4769,7 @@
       <c r="A277">
         <v>5199</v>
       </c>
-      <c r="B277" s="41" t="s">
+      <c r="B277" s="43" t="s">
         <v>278</v>
       </c>
       <c r="C277">
@@ -4776,7 +4780,7 @@
       <c r="A278">
         <v>5201</v>
       </c>
-      <c r="B278" s="41" t="s">
+      <c r="B278" s="43" t="s">
         <v>279</v>
       </c>
       <c r="C278">
@@ -4787,7 +4791,7 @@
       <c r="A279">
         <v>5211</v>
       </c>
-      <c r="B279" s="41" t="s">
+      <c r="B279" s="43" t="s">
         <v>280</v>
       </c>
       <c r="C279">
@@ -4798,7 +4802,7 @@
       <c r="A280">
         <v>5221</v>
       </c>
-      <c r="B280" s="41" t="s">
+      <c r="B280" s="43" t="s">
         <v>281</v>
       </c>
       <c r="C280">
@@ -4809,7 +4813,7 @@
       <c r="A281">
         <v>5231</v>
       </c>
-      <c r="B281" s="41" t="s">
+      <c r="B281" s="43" t="s">
         <v>282</v>
       </c>
       <c r="C281">
@@ -4820,7 +4824,7 @@
       <c r="A282">
         <v>5241</v>
       </c>
-      <c r="B282" s="41" t="s">
+      <c r="B282" s="43" t="s">
         <v>283</v>
       </c>
       <c r="C282">
@@ -4831,7 +4835,7 @@
       <c r="A283">
         <v>5242</v>
       </c>
-      <c r="B283" s="41" t="s">
+      <c r="B283" s="43" t="s">
         <v>284</v>
       </c>
       <c r="C283">
@@ -4842,7 +4846,7 @@
       <c r="A284">
         <v>5243</v>
       </c>
-      <c r="B284" s="41" t="s">
+      <c r="B284" s="43" t="s">
         <v>285</v>
       </c>
       <c r="C284">
@@ -4853,7 +4857,7 @@
       <c r="A285">
         <v>-1</v>
       </c>
-      <c r="B285" s="41" t="s">
+      <c r="B285" s="43" t="s">
         <v>286</v>
       </c>
       <c r="C285">
@@ -4864,7 +4868,7 @@
       <c r="A286">
         <v>6110</v>
       </c>
-      <c r="B286" s="41" t="s">
+      <c r="B286" s="43" t="s">
         <v>287</v>
       </c>
       <c r="C286">
@@ -4875,7 +4879,7 @@
       <c r="A287">
         <v>6129</v>
       </c>
-      <c r="B287" s="41" t="s">
+      <c r="B287" s="43" t="s">
         <v>288</v>
       </c>
       <c r="C287">
@@ -4886,7 +4890,7 @@
       <c r="A288">
         <v>6139</v>
       </c>
-      <c r="B288" s="41" t="s">
+      <c r="B288" s="43" t="s">
         <v>289</v>
       </c>
       <c r="C288">
@@ -4897,7 +4901,7 @@
       <c r="A289">
         <v>6201</v>
       </c>
-      <c r="B289" s="41" t="s">
+      <c r="B289" s="43" t="s">
         <v>290</v>
       </c>
       <c r="C289">
@@ -4908,7 +4912,7 @@
       <c r="A290">
         <v>6210</v>
       </c>
-      <c r="B290" s="41" t="s">
+      <c r="B290" s="43" t="s">
         <v>291</v>
       </c>
       <c r="C290">
@@ -4919,7 +4923,7 @@
       <c r="A291">
         <v>6229</v>
       </c>
-      <c r="B291" s="41" t="s">
+      <c r="B291" s="43" t="s">
         <v>292</v>
       </c>
       <c r="C291">
@@ -4930,7 +4934,7 @@
       <c r="A292">
         <v>6239</v>
       </c>
-      <c r="B292" s="41" t="s">
+      <c r="B292" s="43" t="s">
         <v>293</v>
       </c>
       <c r="C292">
@@ -4941,7 +4945,7 @@
       <c r="A293">
         <v>6301</v>
       </c>
-      <c r="B293" s="41" t="s">
+      <c r="B293" s="43" t="s">
         <v>294</v>
       </c>
       <c r="C293">
@@ -4952,7 +4956,7 @@
       <c r="A294">
         <v>6319</v>
       </c>
-      <c r="B294" s="41" t="s">
+      <c r="B294" s="43" t="s">
         <v>295</v>
       </c>
       <c r="C294">
@@ -4963,7 +4967,7 @@
       <c r="A295">
         <v>6329</v>
       </c>
-      <c r="B295" s="41" t="s">
+      <c r="B295" s="43" t="s">
         <v>296</v>
       </c>
       <c r="C295">
@@ -4974,7 +4978,7 @@
       <c r="A296">
         <v>6410</v>
       </c>
-      <c r="B296" s="41" t="s">
+      <c r="B296" s="43" t="s">
         <v>297</v>
       </c>
       <c r="C296">
@@ -4985,7 +4989,7 @@
       <c r="A297">
         <v>6420</v>
       </c>
-      <c r="B297" s="41" t="s">
+      <c r="B297" s="43" t="s">
         <v>298</v>
       </c>
       <c r="C297">
@@ -4996,7 +5000,7 @@
       <c r="A298">
         <v>6430</v>
       </c>
-      <c r="B298" s="41" t="s">
+      <c r="B298" s="43" t="s">
         <v>299</v>
       </c>
       <c r="C298">
@@ -5007,7 +5011,7 @@
       <c r="A299">
         <v>-1</v>
       </c>
-      <c r="B299" s="41" t="s">
+      <c r="B299" s="43" t="s">
         <v>300</v>
       </c>
       <c r="C299">
@@ -5018,7 +5022,7 @@
       <c r="A300">
         <v>7101</v>
       </c>
-      <c r="B300" s="41" t="s">
+      <c r="B300" s="43" t="s">
         <v>301</v>
       </c>
       <c r="C300">
@@ -5029,7 +5033,7 @@
       <c r="A301">
         <v>7102</v>
       </c>
-      <c r="B301" s="41" t="s">
+      <c r="B301" s="43" t="s">
         <v>302</v>
       </c>
       <c r="C301">
@@ -5040,7 +5044,7 @@
       <c r="A302">
         <v>7111</v>
       </c>
-      <c r="B302" s="41" t="s">
+      <c r="B302" s="43" t="s">
         <v>303</v>
       </c>
       <c r="C302">
@@ -5051,7 +5055,7 @@
       <c r="A303">
         <v>7112</v>
       </c>
-      <c r="B303" s="41" t="s">
+      <c r="B303" s="43" t="s">
         <v>304</v>
       </c>
       <c r="C303">
@@ -5062,7 +5066,7 @@
       <c r="A304">
         <v>7113</v>
       </c>
-      <c r="B304" s="41" t="s">
+      <c r="B304" s="43" t="s">
         <v>305</v>
       </c>
       <c r="C304">
@@ -5073,7 +5077,7 @@
       <c r="A305">
         <v>7114</v>
       </c>
-      <c r="B305" s="41" t="s">
+      <c r="B305" s="43" t="s">
         <v>306</v>
       </c>
       <c r="C305">
@@ -5084,7 +5088,7 @@
       <c r="A306">
         <v>7121</v>
       </c>
-      <c r="B306" s="41" t="s">
+      <c r="B306" s="43" t="s">
         <v>307</v>
       </c>
       <c r="C306">
@@ -5095,7 +5099,7 @@
       <c r="A307">
         <v>7122</v>
       </c>
-      <c r="B307" s="41" t="s">
+      <c r="B307" s="43" t="s">
         <v>308</v>
       </c>
       <c r="C307">
@@ -5106,7 +5110,7 @@
       <c r="A308">
         <v>7151</v>
       </c>
-      <c r="B308" s="41" t="s">
+      <c r="B308" s="43" t="s">
         <v>309</v>
       </c>
       <c r="C308">
@@ -5117,7 +5121,7 @@
       <c r="A309">
         <v>7152</v>
       </c>
-      <c r="B309" s="41" t="s">
+      <c r="B309" s="43" t="s">
         <v>310</v>
       </c>
       <c r="C309">
@@ -5128,7 +5132,7 @@
       <c r="A310">
         <v>7153</v>
       </c>
-      <c r="B310" s="41" t="s">
+      <c r="B310" s="43" t="s">
         <v>311</v>
       </c>
       <c r="C310">
@@ -5139,7 +5143,7 @@
       <c r="A311">
         <v>7154</v>
       </c>
-      <c r="B311" s="41" t="s">
+      <c r="B311" s="43" t="s">
         <v>312</v>
       </c>
       <c r="C311">
@@ -5150,7 +5154,7 @@
       <c r="A312">
         <v>7155</v>
       </c>
-      <c r="B312" s="41" t="s">
+      <c r="B312" s="43" t="s">
         <v>313</v>
       </c>
       <c r="C312">
@@ -5161,7 +5165,7 @@
       <c r="A313">
         <v>7156</v>
       </c>
-      <c r="B313" s="41" t="s">
+      <c r="B313" s="43" t="s">
         <v>314</v>
       </c>
       <c r="C313">
@@ -5172,7 +5176,7 @@
       <c r="A314">
         <v>7157</v>
       </c>
-      <c r="B314" s="41" t="s">
+      <c r="B314" s="43" t="s">
         <v>315</v>
       </c>
       <c r="C314">
@@ -5183,7 +5187,7 @@
       <c r="A315">
         <v>7161</v>
       </c>
-      <c r="B315" s="41" t="s">
+      <c r="B315" s="43" t="s">
         <v>316</v>
       </c>
       <c r="C315">
@@ -5194,7 +5198,7 @@
       <c r="A316">
         <v>7162</v>
       </c>
-      <c r="B316" s="41" t="s">
+      <c r="B316" s="43" t="s">
         <v>317</v>
       </c>
       <c r="C316">
@@ -5205,7 +5209,7 @@
       <c r="A317">
         <v>7163</v>
       </c>
-      <c r="B317" s="41" t="s">
+      <c r="B317" s="43" t="s">
         <v>318</v>
       </c>
       <c r="C317">
@@ -5216,7 +5220,7 @@
       <c r="A318">
         <v>7164</v>
       </c>
-      <c r="B318" s="41" t="s">
+      <c r="B318" s="43" t="s">
         <v>319</v>
       </c>
       <c r="C318">
@@ -5227,7 +5231,7 @@
       <c r="A319">
         <v>7165</v>
       </c>
-      <c r="B319" s="41" t="s">
+      <c r="B319" s="43" t="s">
         <v>320</v>
       </c>
       <c r="C319">
@@ -5238,7 +5242,7 @@
       <c r="A320">
         <v>7166</v>
       </c>
-      <c r="B320" s="41" t="s">
+      <c r="B320" s="43" t="s">
         <v>321</v>
       </c>
       <c r="C320">
@@ -5249,7 +5253,7 @@
       <c r="A321">
         <v>7170</v>
       </c>
-      <c r="B321" s="41" t="s">
+      <c r="B321" s="43" t="s">
         <v>322</v>
       </c>
       <c r="C321">
@@ -5260,7 +5264,7 @@
       <c r="A322">
         <v>7201</v>
       </c>
-      <c r="B322" s="41" t="s">
+      <c r="B322" s="43" t="s">
         <v>323</v>
       </c>
       <c r="C322">
@@ -5271,7 +5275,7 @@
       <c r="A323">
         <v>7202</v>
       </c>
-      <c r="B323" s="41" t="s">
+      <c r="B323" s="43" t="s">
         <v>324</v>
       </c>
       <c r="C323">
@@ -5282,7 +5286,7 @@
       <c r="A324">
         <v>7211</v>
       </c>
-      <c r="B324" s="41" t="s">
+      <c r="B324" s="43" t="s">
         <v>325</v>
       </c>
       <c r="C324">
@@ -5293,7 +5297,7 @@
       <c r="A325">
         <v>7212</v>
       </c>
-      <c r="B325" s="41" t="s">
+      <c r="B325" s="43" t="s">
         <v>326</v>
       </c>
       <c r="C325">
@@ -5304,7 +5308,7 @@
       <c r="A326">
         <v>7213</v>
       </c>
-      <c r="B326" s="41" t="s">
+      <c r="B326" s="43" t="s">
         <v>327</v>
       </c>
       <c r="C326">
@@ -5315,7 +5319,7 @@
       <c r="A327">
         <v>7214</v>
       </c>
-      <c r="B327" s="41" t="s">
+      <c r="B327" s="43" t="s">
         <v>328</v>
       </c>
       <c r="C327">
@@ -5326,7 +5330,7 @@
       <c r="A328">
         <v>7215</v>
       </c>
-      <c r="B328" s="41" t="s">
+      <c r="B328" s="43" t="s">
         <v>329</v>
       </c>
       <c r="C328">
@@ -5337,7 +5341,7 @@
       <c r="A329">
         <v>7221</v>
       </c>
-      <c r="B329" s="41" t="s">
+      <c r="B329" s="43" t="s">
         <v>330</v>
       </c>
       <c r="C329">
@@ -5348,7 +5352,7 @@
       <c r="A330">
         <v>7222</v>
       </c>
-      <c r="B330" s="41" t="s">
+      <c r="B330" s="43" t="s">
         <v>331</v>
       </c>
       <c r="C330">
@@ -5359,7 +5363,7 @@
       <c r="A331">
         <v>7223</v>
       </c>
-      <c r="B331" s="41" t="s">
+      <c r="B331" s="43" t="s">
         <v>332</v>
       </c>
       <c r="C331">
@@ -5370,7 +5374,7 @@
       <c r="A332">
         <v>7224</v>
       </c>
-      <c r="B332" s="41" t="s">
+      <c r="B332" s="43" t="s">
         <v>333</v>
       </c>
       <c r="C332">
@@ -5381,7 +5385,7 @@
       <c r="A333">
         <v>7231</v>
       </c>
-      <c r="B333" s="41" t="s">
+      <c r="B333" s="43" t="s">
         <v>334</v>
       </c>
       <c r="C333">
@@ -5392,7 +5396,7 @@
       <c r="A334">
         <v>7232</v>
       </c>
-      <c r="B334" s="41" t="s">
+      <c r="B334" s="43" t="s">
         <v>335</v>
       </c>
       <c r="C334">
@@ -5403,7 +5407,7 @@
       <c r="A335">
         <v>7233</v>
       </c>
-      <c r="B335" s="41" t="s">
+      <c r="B335" s="43" t="s">
         <v>336</v>
       </c>
       <c r="C335">
@@ -5414,7 +5418,7 @@
       <c r="A336">
         <v>7241</v>
       </c>
-      <c r="B336" s="41" t="s">
+      <c r="B336" s="43" t="s">
         <v>337</v>
       </c>
       <c r="C336">
@@ -5425,7 +5429,7 @@
       <c r="A337">
         <v>7242</v>
       </c>
-      <c r="B337" s="41" t="s">
+      <c r="B337" s="43" t="s">
         <v>338</v>
       </c>
       <c r="C337">
@@ -5436,7 +5440,7 @@
       <c r="A338">
         <v>7243</v>
       </c>
-      <c r="B338" s="41" t="s">
+      <c r="B338" s="43" t="s">
         <v>339</v>
       </c>
       <c r="C338">
@@ -5447,7 +5451,7 @@
       <c r="A339">
         <v>7244</v>
       </c>
-      <c r="B339" s="41" t="s">
+      <c r="B339" s="43" t="s">
         <v>340</v>
       </c>
       <c r="C339">
@@ -5458,7 +5462,7 @@
       <c r="A340">
         <v>7245</v>
       </c>
-      <c r="B340" s="41" t="s">
+      <c r="B340" s="43" t="s">
         <v>341</v>
       </c>
       <c r="C340">
@@ -5469,7 +5473,7 @@
       <c r="A341">
         <v>7246</v>
       </c>
-      <c r="B341" s="41" t="s">
+      <c r="B341" s="43" t="s">
         <v>342</v>
       </c>
       <c r="C341">
@@ -5480,7 +5484,7 @@
       <c r="A342">
         <v>7250</v>
       </c>
-      <c r="B342" s="41" t="s">
+      <c r="B342" s="43" t="s">
         <v>343</v>
       </c>
       <c r="C342">
@@ -5491,7 +5495,7 @@
       <c r="A343">
         <v>7251</v>
       </c>
-      <c r="B343" s="41" t="s">
+      <c r="B343" s="43" t="s">
         <v>344</v>
       </c>
       <c r="C343">
@@ -5502,7 +5506,7 @@
       <c r="A344">
         <v>7252</v>
       </c>
-      <c r="B344" s="41" t="s">
+      <c r="B344" s="43" t="s">
         <v>345</v>
       </c>
       <c r="C344">
@@ -5513,7 +5517,7 @@
       <c r="A345">
         <v>7253</v>
       </c>
-      <c r="B345" s="41" t="s">
+      <c r="B345" s="43" t="s">
         <v>346</v>
       </c>
       <c r="C345">
@@ -5524,7 +5528,7 @@
       <c r="A346">
         <v>7254</v>
       </c>
-      <c r="B346" s="41" t="s">
+      <c r="B346" s="43" t="s">
         <v>347</v>
       </c>
       <c r="C346">
@@ -5535,7 +5539,7 @@
       <c r="A347">
         <v>7255</v>
       </c>
-      <c r="B347" s="41" t="s">
+      <c r="B347" s="43" t="s">
         <v>348</v>
       </c>
       <c r="C347">
@@ -5546,7 +5550,7 @@
       <c r="A348">
         <v>7256</v>
       </c>
-      <c r="B348" s="41" t="s">
+      <c r="B348" s="43" t="s">
         <v>349</v>
       </c>
       <c r="C348">
@@ -5557,7 +5561,7 @@
       <c r="A349">
         <v>7257</v>
       </c>
-      <c r="B349" s="41" t="s">
+      <c r="B349" s="43" t="s">
         <v>350</v>
       </c>
       <c r="C349">
@@ -5568,7 +5572,7 @@
       <c r="A350">
         <v>7301</v>
       </c>
-      <c r="B350" s="41" t="s">
+      <c r="B350" s="43" t="s">
         <v>351</v>
       </c>
       <c r="C350">
@@ -5579,7 +5583,7 @@
       <c r="A351">
         <v>7311</v>
       </c>
-      <c r="B351" s="41" t="s">
+      <c r="B351" s="43" t="s">
         <v>352</v>
       </c>
       <c r="C351">
@@ -5590,7 +5594,7 @@
       <c r="A352">
         <v>7312</v>
       </c>
-      <c r="B352" s="41" t="s">
+      <c r="B352" s="43" t="s">
         <v>353</v>
       </c>
       <c r="C352">
@@ -5601,7 +5605,7 @@
       <c r="A353">
         <v>7313</v>
       </c>
-      <c r="B353" s="41" t="s">
+      <c r="B353" s="43" t="s">
         <v>354</v>
       </c>
       <c r="C353">
@@ -5612,7 +5616,7 @@
       <c r="A354">
         <v>7321</v>
       </c>
-      <c r="B354" s="41" t="s">
+      <c r="B354" s="43" t="s">
         <v>355</v>
       </c>
       <c r="C354">
@@ -5623,7 +5627,7 @@
       <c r="A355">
         <v>7401</v>
       </c>
-      <c r="B355" s="41" t="s">
+      <c r="B355" s="43" t="s">
         <v>356</v>
       </c>
       <c r="C355">
@@ -5634,7 +5638,7 @@
       <c r="A356">
         <v>7411</v>
       </c>
-      <c r="B356" s="41" t="s">
+      <c r="B356" s="43" t="s">
         <v>357</v>
       </c>
       <c r="C356">
@@ -5645,7 +5649,7 @@
       <c r="A357">
         <v>7421</v>
       </c>
-      <c r="B357" s="41" t="s">
+      <c r="B357" s="43" t="s">
         <v>358</v>
       </c>
       <c r="C357">
@@ -5656,7 +5660,7 @@
       <c r="A358">
         <v>7501</v>
       </c>
-      <c r="B358" s="41" t="s">
+      <c r="B358" s="43" t="s">
         <v>359</v>
       </c>
       <c r="C358">
@@ -5667,7 +5671,7 @@
       <c r="A359">
         <v>7502</v>
       </c>
-      <c r="B359" s="41" t="s">
+      <c r="B359" s="43" t="s">
         <v>360</v>
       </c>
       <c r="C359">
@@ -5678,7 +5682,7 @@
       <c r="A360">
         <v>7519</v>
       </c>
-      <c r="B360" s="41" t="s">
+      <c r="B360" s="43" t="s">
         <v>361</v>
       </c>
       <c r="C360">
@@ -5689,7 +5693,7 @@
       <c r="A361">
         <v>7521</v>
       </c>
-      <c r="B361" s="41" t="s">
+      <c r="B361" s="43" t="s">
         <v>362</v>
       </c>
       <c r="C361">
@@ -5700,7 +5704,7 @@
       <c r="A362">
         <v>7522</v>
       </c>
-      <c r="B362" s="41" t="s">
+      <c r="B362" s="43" t="s">
         <v>363</v>
       </c>
       <c r="C362">
@@ -5711,7 +5715,7 @@
       <c r="A363">
         <v>7523</v>
       </c>
-      <c r="B363" s="41" t="s">
+      <c r="B363" s="43" t="s">
         <v>364</v>
       </c>
       <c r="C363">
@@ -5722,7 +5726,7 @@
       <c r="A364">
         <v>7524</v>
       </c>
-      <c r="B364" s="41" t="s">
+      <c r="B364" s="43" t="s">
         <v>365</v>
       </c>
       <c r="C364">
@@ -5733,7 +5737,7 @@
       <c r="A365">
         <v>7601</v>
       </c>
-      <c r="B365" s="41" t="s">
+      <c r="B365" s="43" t="s">
         <v>366</v>
       </c>
       <c r="C365">
@@ -5744,7 +5748,7 @@
       <c r="A366">
         <v>7602</v>
       </c>
-      <c r="B366" s="41" t="s">
+      <c r="B366" s="43" t="s">
         <v>367</v>
       </c>
       <c r="C366">
@@ -5755,7 +5759,7 @@
       <c r="A367">
         <v>7603</v>
       </c>
-      <c r="B367" s="41" t="s">
+      <c r="B367" s="43" t="s">
         <v>368</v>
       </c>
       <c r="C367">
@@ -5766,7 +5770,7 @@
       <c r="A368">
         <v>7604</v>
       </c>
-      <c r="B368" s="41" t="s">
+      <c r="B368" s="43" t="s">
         <v>369</v>
       </c>
       <c r="C368">
@@ -5777,7 +5781,7 @@
       <c r="A369">
         <v>7605</v>
       </c>
-      <c r="B369" s="41" t="s">
+      <c r="B369" s="43" t="s">
         <v>370</v>
       </c>
       <c r="C369">
@@ -5788,7 +5792,7 @@
       <c r="A370">
         <v>7606</v>
       </c>
-      <c r="B370" s="41" t="s">
+      <c r="B370" s="43" t="s">
         <v>371</v>
       </c>
       <c r="C370">
@@ -5799,7 +5803,7 @@
       <c r="A371">
         <v>7610</v>
       </c>
-      <c r="B371" s="41" t="s">
+      <c r="B371" s="43" t="s">
         <v>372</v>
       </c>
       <c r="C371">
@@ -5810,7 +5814,7 @@
       <c r="A372">
         <v>7611</v>
       </c>
-      <c r="B372" s="41" t="s">
+      <c r="B372" s="43" t="s">
         <v>373</v>
       </c>
       <c r="C372">
@@ -5821,7 +5825,7 @@
       <c r="A373">
         <v>7612</v>
       </c>
-      <c r="B373" s="41" t="s">
+      <c r="B373" s="43" t="s">
         <v>374</v>
       </c>
       <c r="C373">
@@ -5832,7 +5836,7 @@
       <c r="A374">
         <v>7613</v>
       </c>
-      <c r="B374" s="41" t="s">
+      <c r="B374" s="43" t="s">
         <v>375</v>
       </c>
       <c r="C374">
@@ -5843,7 +5847,7 @@
       <c r="A375">
         <v>7614</v>
       </c>
-      <c r="B375" s="41" t="s">
+      <c r="B375" s="43" t="s">
         <v>376</v>
       </c>
       <c r="C375">
@@ -5854,7 +5858,7 @@
       <c r="A376">
         <v>7618</v>
       </c>
-      <c r="B376" s="41" t="s">
+      <c r="B376" s="43" t="s">
         <v>377</v>
       </c>
       <c r="C376">
@@ -5865,7 +5869,7 @@
       <c r="A377">
         <v>7620</v>
       </c>
-      <c r="B377" s="41" t="s">
+      <c r="B377" s="43" t="s">
         <v>378</v>
       </c>
       <c r="C377">
@@ -5876,7 +5880,7 @@
       <c r="A378">
         <v>7621</v>
       </c>
-      <c r="B378" s="41" t="s">
+      <c r="B378" s="43" t="s">
         <v>379</v>
       </c>
       <c r="C378">
@@ -5887,7 +5891,7 @@
       <c r="A379">
         <v>7622</v>
       </c>
-      <c r="B379" s="41" t="s">
+      <c r="B379" s="43" t="s">
         <v>380</v>
       </c>
       <c r="C379">
@@ -5898,7 +5902,7 @@
       <c r="A380">
         <v>7623</v>
       </c>
-      <c r="B380" s="41" t="s">
+      <c r="B380" s="43" t="s">
         <v>381</v>
       </c>
       <c r="C380">
@@ -5909,7 +5913,7 @@
       <c r="A381">
         <v>7630</v>
       </c>
-      <c r="B381" s="41" t="s">
+      <c r="B381" s="43" t="s">
         <v>382</v>
       </c>
       <c r="C381">
@@ -5920,7 +5924,7 @@
       <c r="A382">
         <v>7631</v>
       </c>
-      <c r="B382" s="41" t="s">
+      <c r="B382" s="43" t="s">
         <v>383</v>
       </c>
       <c r="C382">
@@ -5931,7 +5935,7 @@
       <c r="A383">
         <v>7632</v>
       </c>
-      <c r="B383" s="41" t="s">
+      <c r="B383" s="43" t="s">
         <v>384</v>
       </c>
       <c r="C383">
@@ -5942,7 +5946,7 @@
       <c r="A384">
         <v>7633</v>
       </c>
-      <c r="B384" s="41" t="s">
+      <c r="B384" s="43" t="s">
         <v>385</v>
       </c>
       <c r="C384">
@@ -5953,7 +5957,7 @@
       <c r="A385">
         <v>7640</v>
       </c>
-      <c r="B385" s="41" t="s">
+      <c r="B385" s="43" t="s">
         <v>386</v>
       </c>
       <c r="C385">
@@ -5964,7 +5968,7 @@
       <c r="A386">
         <v>7641</v>
       </c>
-      <c r="B386" s="41" t="s">
+      <c r="B386" s="43" t="s">
         <v>387</v>
       </c>
       <c r="C386">
@@ -5975,7 +5979,7 @@
       <c r="A387">
         <v>7642</v>
       </c>
-      <c r="B387" s="41" t="s">
+      <c r="B387" s="43" t="s">
         <v>388</v>
       </c>
       <c r="C387">
@@ -5986,7 +5990,7 @@
       <c r="A388">
         <v>7643</v>
       </c>
-      <c r="B388" s="41" t="s">
+      <c r="B388" s="43" t="s">
         <v>389</v>
       </c>
       <c r="C388">
@@ -5997,7 +6001,7 @@
       <c r="A389">
         <v>7650</v>
       </c>
-      <c r="B389" s="41" t="s">
+      <c r="B389" s="43" t="s">
         <v>390</v>
       </c>
       <c r="C389">
@@ -6008,7 +6012,7 @@
       <c r="A390">
         <v>7651</v>
       </c>
-      <c r="B390" s="41" t="s">
+      <c r="B390" s="43" t="s">
         <v>391</v>
       </c>
       <c r="C390">
@@ -6019,7 +6023,7 @@
       <c r="A391">
         <v>7652</v>
       </c>
-      <c r="B391" s="41" t="s">
+      <c r="B391" s="43" t="s">
         <v>392</v>
       </c>
       <c r="C391">
@@ -6030,7 +6034,7 @@
       <c r="A392">
         <v>7653</v>
       </c>
-      <c r="B392" s="41" t="s">
+      <c r="B392" s="43" t="s">
         <v>393</v>
       </c>
       <c r="C392">
@@ -6041,7 +6045,7 @@
       <c r="A393">
         <v>7654</v>
       </c>
-      <c r="B393" s="41" t="s">
+      <c r="B393" s="43" t="s">
         <v>394</v>
       </c>
       <c r="C393">
@@ -6052,7 +6056,7 @@
       <c r="A394">
         <v>7660</v>
       </c>
-      <c r="B394" s="41" t="s">
+      <c r="B394" s="43" t="s">
         <v>395</v>
       </c>
       <c r="C394">
@@ -6063,7 +6067,7 @@
       <c r="A395">
         <v>7661</v>
       </c>
-      <c r="B395" s="41" t="s">
+      <c r="B395" s="43" t="s">
         <v>396</v>
       </c>
       <c r="C395">
@@ -6074,7 +6078,7 @@
       <c r="A396">
         <v>7662</v>
       </c>
-      <c r="B396" s="41" t="s">
+      <c r="B396" s="43" t="s">
         <v>397</v>
       </c>
       <c r="C396">
@@ -6085,7 +6089,7 @@
       <c r="A397">
         <v>7663</v>
       </c>
-      <c r="B397" s="41" t="s">
+      <c r="B397" s="43" t="s">
         <v>398</v>
       </c>
       <c r="C397">
@@ -6096,7 +6100,7 @@
       <c r="A398">
         <v>7664</v>
       </c>
-      <c r="B398" s="41" t="s">
+      <c r="B398" s="43" t="s">
         <v>399</v>
       </c>
       <c r="C398">
@@ -6107,7 +6111,7 @@
       <c r="A399">
         <v>7681</v>
       </c>
-      <c r="B399" s="41" t="s">
+      <c r="B399" s="43" t="s">
         <v>400</v>
       </c>
       <c r="C399">
@@ -6118,7 +6122,7 @@
       <c r="A400">
         <v>7682</v>
       </c>
-      <c r="B400" s="41" t="s">
+      <c r="B400" s="43" t="s">
         <v>401</v>
       </c>
       <c r="C400">
@@ -6129,7 +6133,7 @@
       <c r="A401">
         <v>7683</v>
       </c>
-      <c r="B401" s="41" t="s">
+      <c r="B401" s="43" t="s">
         <v>402</v>
       </c>
       <c r="C401">
@@ -6140,7 +6144,7 @@
       <c r="A402">
         <v>7686</v>
       </c>
-      <c r="B402" s="41" t="s">
+      <c r="B402" s="43" t="s">
         <v>403</v>
       </c>
       <c r="C402">
@@ -6151,7 +6155,7 @@
       <c r="A403">
         <v>7687</v>
       </c>
-      <c r="B403" s="41" t="s">
+      <c r="B403" s="43" t="s">
         <v>404</v>
       </c>
       <c r="C403">
@@ -6162,7 +6166,7 @@
       <c r="A404">
         <v>7701</v>
       </c>
-      <c r="B404" s="41" t="s">
+      <c r="B404" s="43" t="s">
         <v>405</v>
       </c>
       <c r="C404">
@@ -6173,7 +6177,7 @@
       <c r="A405">
         <v>7711</v>
       </c>
-      <c r="B405" s="41" t="s">
+      <c r="B405" s="43" t="s">
         <v>406</v>
       </c>
       <c r="C405">
@@ -6184,7 +6188,7 @@
       <c r="A406">
         <v>7721</v>
       </c>
-      <c r="B406" s="41" t="s">
+      <c r="B406" s="43" t="s">
         <v>407</v>
       </c>
       <c r="C406">
@@ -6195,7 +6199,7 @@
       <c r="A407">
         <v>7731</v>
       </c>
-      <c r="B407" s="41" t="s">
+      <c r="B407" s="43" t="s">
         <v>408</v>
       </c>
       <c r="C407">
@@ -6206,7 +6210,7 @@
       <c r="A408">
         <v>7732</v>
       </c>
-      <c r="B408" s="41" t="s">
+      <c r="B408" s="43" t="s">
         <v>409</v>
       </c>
       <c r="C408">
@@ -6217,7 +6221,7 @@
       <c r="A409">
         <v>7733</v>
       </c>
-      <c r="B409" s="41" t="s">
+      <c r="B409" s="43" t="s">
         <v>410</v>
       </c>
       <c r="C409">
@@ -6228,7 +6232,7 @@
       <c r="A410">
         <v>7734</v>
       </c>
-      <c r="B410" s="41" t="s">
+      <c r="B410" s="43" t="s">
         <v>411</v>
       </c>
       <c r="C410">
@@ -6239,7 +6243,7 @@
       <c r="A411">
         <v>7735</v>
       </c>
-      <c r="B411" s="41" t="s">
+      <c r="B411" s="43" t="s">
         <v>412</v>
       </c>
       <c r="C411">
@@ -6250,7 +6254,7 @@
       <c r="A412">
         <v>7741</v>
       </c>
-      <c r="B412" s="41" t="s">
+      <c r="B412" s="43" t="s">
         <v>413</v>
       </c>
       <c r="C412">
@@ -6261,7 +6265,7 @@
       <c r="A413">
         <v>7751</v>
       </c>
-      <c r="B413" s="41" t="s">
+      <c r="B413" s="43" t="s">
         <v>414</v>
       </c>
       <c r="C413">
@@ -6272,7 +6276,7 @@
       <c r="A414">
         <v>7764</v>
       </c>
-      <c r="B414" s="41" t="s">
+      <c r="B414" s="43" t="s">
         <v>415</v>
       </c>
       <c r="C414">
@@ -6283,7 +6287,7 @@
       <c r="A415">
         <v>7771</v>
       </c>
-      <c r="B415" s="41" t="s">
+      <c r="B415" s="43" t="s">
         <v>416</v>
       </c>
       <c r="C415">
@@ -6294,7 +6298,7 @@
       <c r="A416">
         <v>7772</v>
       </c>
-      <c r="B416" s="41" t="s">
+      <c r="B416" s="43" t="s">
         <v>417</v>
       </c>
       <c r="C416">
@@ -6305,7 +6309,7 @@
       <c r="A417">
         <v>7801</v>
       </c>
-      <c r="B417" s="41" t="s">
+      <c r="B417" s="43" t="s">
         <v>418</v>
       </c>
       <c r="C417">
@@ -6316,7 +6320,7 @@
       <c r="A418">
         <v>7811</v>
       </c>
-      <c r="B418" s="41" t="s">
+      <c r="B418" s="43" t="s">
         <v>419</v>
       </c>
       <c r="C418">
@@ -6327,7 +6331,7 @@
       <c r="A419">
         <v>7813</v>
       </c>
-      <c r="B419" s="41" t="s">
+      <c r="B419" s="43" t="s">
         <v>420</v>
       </c>
       <c r="C419">
@@ -6338,7 +6342,7 @@
       <c r="A420">
         <v>7817</v>
       </c>
-      <c r="B420" s="41" t="s">
+      <c r="B420" s="43" t="s">
         <v>421</v>
       </c>
       <c r="C420">
@@ -6349,7 +6353,7 @@
       <c r="A421">
         <v>7820</v>
       </c>
-      <c r="B421" s="41" t="s">
+      <c r="B421" s="43" t="s">
         <v>422</v>
       </c>
       <c r="C421">
@@ -6360,7 +6364,7 @@
       <c r="A422">
         <v>7821</v>
       </c>
-      <c r="B422" s="41" t="s">
+      <c r="B422" s="43" t="s">
         <v>423</v>
       </c>
       <c r="C422">
@@ -6371,7 +6375,7 @@
       <c r="A423">
         <v>7822</v>
       </c>
-      <c r="B423" s="41" t="s">
+      <c r="B423" s="43" t="s">
         <v>424</v>
       </c>
       <c r="C423">
@@ -6382,7 +6386,7 @@
       <c r="A424">
         <v>7823</v>
       </c>
-      <c r="B424" s="41" t="s">
+      <c r="B424" s="43" t="s">
         <v>425</v>
       </c>
       <c r="C424">
@@ -6393,7 +6397,7 @@
       <c r="A425">
         <v>7824</v>
       </c>
-      <c r="B425" s="41" t="s">
+      <c r="B425" s="43" t="s">
         <v>426</v>
       </c>
       <c r="C425">
@@ -6404,7 +6408,7 @@
       <c r="A426">
         <v>7825</v>
       </c>
-      <c r="B426" s="41" t="s">
+      <c r="B426" s="43" t="s">
         <v>427</v>
       </c>
       <c r="C426">
@@ -6415,7 +6419,7 @@
       <c r="A427">
         <v>7826</v>
       </c>
-      <c r="B427" s="41" t="s">
+      <c r="B427" s="43" t="s">
         <v>428</v>
       </c>
       <c r="C427">
@@ -6426,7 +6430,7 @@
       <c r="A428">
         <v>7827</v>
       </c>
-      <c r="B428" s="41" t="s">
+      <c r="B428" s="43" t="s">
         <v>429</v>
       </c>
       <c r="C428">
@@ -6437,7 +6441,7 @@
       <c r="A429">
         <v>7828</v>
       </c>
-      <c r="B429" s="41" t="s">
+      <c r="B429" s="43" t="s">
         <v>430</v>
       </c>
       <c r="C429">
@@ -6448,7 +6452,7 @@
       <c r="A430">
         <v>7831</v>
       </c>
-      <c r="B430" s="41" t="s">
+      <c r="B430" s="43" t="s">
         <v>431</v>
       </c>
       <c r="C430">
@@ -6459,7 +6463,7 @@
       <c r="A431">
         <v>7832</v>
       </c>
-      <c r="B431" s="41" t="s">
+      <c r="B431" s="43" t="s">
         <v>432</v>
       </c>
       <c r="C431">
@@ -6470,7 +6474,7 @@
       <c r="A432">
         <v>7841</v>
       </c>
-      <c r="B432" s="41" t="s">
+      <c r="B432" s="43" t="s">
         <v>433</v>
       </c>
       <c r="C432">
@@ -6481,7 +6485,7 @@
       <c r="A433">
         <v>7842</v>
       </c>
-      <c r="B433" s="41" t="s">
+      <c r="B433" s="43" t="s">
         <v>434</v>
       </c>
       <c r="C433">
@@ -6492,7 +6496,7 @@
       <c r="A434">
         <v>-1</v>
       </c>
-      <c r="B434" s="41" t="s">
+      <c r="B434" s="43" t="s">
         <v>300</v>
       </c>
       <c r="C434">
@@ -6503,7 +6507,7 @@
       <c r="A435">
         <v>8101</v>
       </c>
-      <c r="B435" s="41" t="s">
+      <c r="B435" s="43" t="s">
         <v>435</v>
       </c>
       <c r="C435">
@@ -6514,7 +6518,7 @@
       <c r="A436">
         <v>8102</v>
       </c>
-      <c r="B436" s="41" t="s">
+      <c r="B436" s="43" t="s">
         <v>436</v>
       </c>
       <c r="C436">
@@ -6525,7 +6529,7 @@
       <c r="A437">
         <v>8103</v>
       </c>
-      <c r="B437" s="41" t="s">
+      <c r="B437" s="43" t="s">
         <v>437</v>
       </c>
       <c r="C437">
@@ -6536,7 +6540,7 @@
       <c r="A438">
         <v>8110</v>
       </c>
-      <c r="B438" s="41" t="s">
+      <c r="B438" s="43" t="s">
         <v>438</v>
       </c>
       <c r="C438">
@@ -6547,7 +6551,7 @@
       <c r="A439">
         <v>8111</v>
       </c>
-      <c r="B439" s="41" t="s">
+      <c r="B439" s="43" t="s">
         <v>439</v>
       </c>
       <c r="C439">
@@ -6558,7 +6562,7 @@
       <c r="A440">
         <v>8112</v>
       </c>
-      <c r="B440" s="41" t="s">
+      <c r="B440" s="43" t="s">
         <v>440</v>
       </c>
       <c r="C440">
@@ -6569,7 +6573,7 @@
       <c r="A441">
         <v>8113</v>
       </c>
-      <c r="B441" s="41" t="s">
+      <c r="B441" s="43" t="s">
         <v>441</v>
       </c>
       <c r="C441">
@@ -6580,7 +6584,7 @@
       <c r="A442">
         <v>8114</v>
       </c>
-      <c r="B442" s="41" t="s">
+      <c r="B442" s="43" t="s">
         <v>442</v>
       </c>
       <c r="C442">
@@ -6591,7 +6595,7 @@
       <c r="A443">
         <v>8115</v>
       </c>
-      <c r="B443" s="41" t="s">
+      <c r="B443" s="43" t="s">
         <v>443</v>
       </c>
       <c r="C443">
@@ -6602,7 +6606,7 @@
       <c r="A444">
         <v>8116</v>
       </c>
-      <c r="B444" s="41" t="s">
+      <c r="B444" s="43" t="s">
         <v>444</v>
       </c>
       <c r="C444">
@@ -6613,7 +6617,7 @@
       <c r="A445">
         <v>8117</v>
       </c>
-      <c r="B445" s="41" t="s">
+      <c r="B445" s="43" t="s">
         <v>445</v>
       </c>
       <c r="C445">
@@ -6624,7 +6628,7 @@
       <c r="A446">
         <v>8118</v>
       </c>
-      <c r="B446" s="41" t="s">
+      <c r="B446" s="43" t="s">
         <v>446</v>
       </c>
       <c r="C446">
@@ -6635,7 +6639,7 @@
       <c r="A447">
         <v>8121</v>
       </c>
-      <c r="B447" s="41" t="s">
+      <c r="B447" s="43" t="s">
         <v>447</v>
       </c>
       <c r="C447">
@@ -6646,7 +6650,7 @@
       <c r="A448">
         <v>8131</v>
       </c>
-      <c r="B448" s="41" t="s">
+      <c r="B448" s="43" t="s">
         <v>448</v>
       </c>
       <c r="C448">
@@ -6657,7 +6661,7 @@
       <c r="A449">
         <v>8181</v>
       </c>
-      <c r="B449" s="41" t="s">
+      <c r="B449" s="43" t="s">
         <v>449</v>
       </c>
       <c r="C449">
@@ -6668,7 +6672,7 @@
       <c r="A450">
         <v>8201</v>
       </c>
-      <c r="B450" s="41" t="s">
+      <c r="B450" s="43" t="s">
         <v>450</v>
       </c>
       <c r="C450">
@@ -6679,7 +6683,7 @@
       <c r="A451">
         <v>8202</v>
       </c>
-      <c r="B451" s="41" t="s">
+      <c r="B451" s="43" t="s">
         <v>451</v>
       </c>
       <c r="C451">
@@ -6690,7 +6694,7 @@
       <c r="A452">
         <v>8211</v>
       </c>
-      <c r="B452" s="41" t="s">
+      <c r="B452" s="43" t="s">
         <v>452</v>
       </c>
       <c r="C452">
@@ -6701,7 +6705,7 @@
       <c r="A453">
         <v>8212</v>
       </c>
-      <c r="B453" s="41" t="s">
+      <c r="B453" s="43" t="s">
         <v>453</v>
       </c>
       <c r="C453">
@@ -6712,7 +6716,7 @@
       <c r="A454">
         <v>8213</v>
       </c>
-      <c r="B454" s="41" t="s">
+      <c r="B454" s="43" t="s">
         <v>454</v>
       </c>
       <c r="C454">
@@ -6723,7 +6727,7 @@
       <c r="A455">
         <v>8214</v>
       </c>
-      <c r="B455" s="41" t="s">
+      <c r="B455" s="43" t="s">
         <v>455</v>
       </c>
       <c r="C455">
@@ -6734,7 +6738,7 @@
       <c r="A456">
         <v>8221</v>
       </c>
-      <c r="B456" s="41" t="s">
+      <c r="B456" s="43" t="s">
         <v>456</v>
       </c>
       <c r="C456">
@@ -6745,7 +6749,7 @@
       <c r="A457">
         <v>8231</v>
       </c>
-      <c r="B457" s="41" t="s">
+      <c r="B457" s="43" t="s">
         <v>457</v>
       </c>
       <c r="C457">
@@ -6756,7 +6760,7 @@
       <c r="A458">
         <v>8232</v>
       </c>
-      <c r="B458" s="41" t="s">
+      <c r="B458" s="43" t="s">
         <v>458</v>
       </c>
       <c r="C458">
@@ -6767,7 +6771,7 @@
       <c r="A459">
         <v>8233</v>
       </c>
-      <c r="B459" s="41" t="s">
+      <c r="B459" s="43" t="s">
         <v>459</v>
       </c>
       <c r="C459">
@@ -6778,7 +6782,7 @@
       <c r="A460">
         <v>8281</v>
       </c>
-      <c r="B460" s="41" t="s">
+      <c r="B460" s="43" t="s">
         <v>460</v>
       </c>
       <c r="C460">
@@ -6789,7 +6793,7 @@
       <c r="A461">
         <v>8301</v>
       </c>
-      <c r="B461" s="41" t="s">
+      <c r="B461" s="43" t="s">
         <v>461</v>
       </c>
       <c r="C461">
@@ -6800,7 +6804,7 @@
       <c r="A462">
         <v>8311</v>
       </c>
-      <c r="B462" s="41" t="s">
+      <c r="B462" s="43" t="s">
         <v>462</v>
       </c>
       <c r="C462">
@@ -6811,7 +6815,7 @@
       <c r="A463">
         <v>8321</v>
       </c>
-      <c r="B463" s="41" t="s">
+      <c r="B463" s="43" t="s">
         <v>463</v>
       </c>
       <c r="C463">
@@ -6822,7 +6826,7 @@
       <c r="A464">
         <v>8339</v>
       </c>
-      <c r="B464" s="41" t="s">
+      <c r="B464" s="43" t="s">
         <v>464</v>
       </c>
       <c r="C464">
@@ -6833,7 +6837,7 @@
       <c r="A465">
         <v>8401</v>
       </c>
-      <c r="B465" s="41" t="s">
+      <c r="B465" s="43" t="s">
         <v>465</v>
       </c>
       <c r="C465">
@@ -6844,7 +6848,7 @@
       <c r="A466">
         <v>8411</v>
       </c>
-      <c r="B466" s="41" t="s">
+      <c r="B466" s="43" t="s">
         <v>466</v>
       </c>
       <c r="C466">
@@ -6855,7 +6859,7 @@
       <c r="A467">
         <v>8412</v>
       </c>
-      <c r="B467" s="41" t="s">
+      <c r="B467" s="43" t="s">
         <v>467</v>
       </c>
       <c r="C467">
@@ -6866,7 +6870,7 @@
       <c r="A468">
         <v>8413</v>
       </c>
-      <c r="B468" s="41" t="s">
+      <c r="B468" s="43" t="s">
         <v>468</v>
       </c>
       <c r="C468">
@@ -6877,7 +6881,7 @@
       <c r="A469">
         <v>8416</v>
       </c>
-      <c r="B469" s="41" t="s">
+      <c r="B469" s="43" t="s">
         <v>469</v>
       </c>
       <c r="C469">
@@ -6888,7 +6892,7 @@
       <c r="A470">
         <v>8417</v>
       </c>
-      <c r="B470" s="41" t="s">
+      <c r="B470" s="43" t="s">
         <v>470</v>
       </c>
       <c r="C470">
@@ -6899,7 +6903,7 @@
       <c r="A471">
         <v>8421</v>
       </c>
-      <c r="B471" s="41" t="s">
+      <c r="B471" s="43" t="s">
         <v>471</v>
       </c>
       <c r="C471">
@@ -6910,7 +6914,7 @@
       <c r="A472">
         <v>8423</v>
       </c>
-      <c r="B472" s="41" t="s">
+      <c r="B472" s="43" t="s">
         <v>472</v>
       </c>
       <c r="C472">
@@ -6921,7 +6925,7 @@
       <c r="A473">
         <v>8429</v>
       </c>
-      <c r="B473" s="41" t="s">
+      <c r="B473" s="43" t="s">
         <v>473</v>
       </c>
       <c r="C473">
@@ -6932,7 +6936,7 @@
       <c r="A474">
         <v>8484</v>
       </c>
-      <c r="B474" s="41" t="s">
+      <c r="B474" s="43" t="s">
         <v>474</v>
       </c>
       <c r="C474">
@@ -6943,7 +6947,7 @@
       <c r="A475">
         <v>8485</v>
       </c>
-      <c r="B475" s="41" t="s">
+      <c r="B475" s="43" t="s">
         <v>475</v>
       </c>
       <c r="C475">
@@ -6954,7 +6958,7 @@
       <c r="A476">
         <v>8491</v>
       </c>
-      <c r="B476" s="41" t="s">
+      <c r="B476" s="43" t="s">
         <v>476</v>
       </c>
       <c r="C476">
@@ -6965,7 +6969,7 @@
       <c r="A477">
         <v>8492</v>
       </c>
-      <c r="B477" s="41" t="s">
+      <c r="B477" s="43" t="s">
         <v>477</v>
       </c>
       <c r="C477">
@@ -6976,7 +6980,7 @@
       <c r="A478">
         <v>8493</v>
       </c>
-      <c r="B478" s="41" t="s">
+      <c r="B478" s="43" t="s">
         <v>478</v>
       </c>
       <c r="C478">
@@ -6987,7 +6991,7 @@
       <c r="A479">
         <v>8601</v>
       </c>
-      <c r="B479" s="41" t="s">
+      <c r="B479" s="43" t="s">
         <v>479</v>
       </c>
       <c r="C479">
@@ -6998,7 +7002,7 @@
       <c r="A480">
         <v>8611</v>
       </c>
-      <c r="B480" s="41" t="s">
+      <c r="B480" s="43" t="s">
         <v>480</v>
       </c>
       <c r="C480">
@@ -7009,7 +7013,7 @@
       <c r="A481">
         <v>8612</v>
       </c>
-      <c r="B481" s="41" t="s">
+      <c r="B481" s="43" t="s">
         <v>481</v>
       </c>
       <c r="C481">
@@ -7020,7 +7024,7 @@
       <c r="A482">
         <v>8621</v>
       </c>
-      <c r="B482" s="41" t="s">
+      <c r="B482" s="43" t="s">
         <v>482</v>
       </c>
       <c r="C482">
@@ -7031,7 +7035,7 @@
       <c r="A483">
         <v>8622</v>
       </c>
-      <c r="B483" s="41" t="s">
+      <c r="B483" s="43" t="s">
         <v>483</v>
       </c>
       <c r="C483">
@@ -7042,7 +7046,7 @@
       <c r="A484">
         <v>8623</v>
       </c>
-      <c r="B484" s="41" t="s">
+      <c r="B484" s="43" t="s">
         <v>484</v>
       </c>
       <c r="C484">
@@ -7053,7 +7057,7 @@
       <c r="A485">
         <v>8624</v>
       </c>
-      <c r="B485" s="41" t="s">
+      <c r="B485" s="43" t="s">
         <v>485</v>
       </c>
       <c r="C485">
@@ -7064,7 +7068,7 @@
       <c r="A486">
         <v>8625</v>
       </c>
-      <c r="B486" s="41" t="s">
+      <c r="B486" s="43" t="s">
         <v>486</v>
       </c>
       <c r="C486">
@@ -7075,7 +7079,7 @@
       <c r="A487">
         <v>8711</v>
       </c>
-      <c r="B487" s="41" t="s">
+      <c r="B487" s="43" t="s">
         <v>487</v>
       </c>
       <c r="C487">
@@ -7086,7 +7090,7 @@
       <c r="A488">
         <v>-1</v>
       </c>
-      <c r="B488" s="41" t="s">
+      <c r="B488" s="43" t="s">
         <v>488</v>
       </c>
       <c r="C488">
@@ -7097,7 +7101,7 @@
       <c r="A489">
         <v>9101</v>
       </c>
-      <c r="B489" s="41" t="s">
+      <c r="B489" s="43" t="s">
         <v>489</v>
       </c>
       <c r="C489">
@@ -7108,7 +7112,7 @@
       <c r="A490">
         <v>9102</v>
       </c>
-      <c r="B490" s="41" t="s">
+      <c r="B490" s="43" t="s">
         <v>490</v>
       </c>
       <c r="C490">
@@ -7119,7 +7123,7 @@
       <c r="A491">
         <v>9109</v>
       </c>
-      <c r="B491" s="41" t="s">
+      <c r="B491" s="43" t="s">
         <v>491</v>
       </c>
       <c r="C491">
@@ -7130,7 +7134,7 @@
       <c r="A492">
         <v>9111</v>
       </c>
-      <c r="B492" s="41" t="s">
+      <c r="B492" s="43" t="s">
         <v>492</v>
       </c>
       <c r="C492">
@@ -7141,7 +7145,7 @@
       <c r="A493">
         <v>9112</v>
       </c>
-      <c r="B493" s="41" t="s">
+      <c r="B493" s="43" t="s">
         <v>493</v>
       </c>
       <c r="C493">
@@ -7152,7 +7156,7 @@
       <c r="A494">
         <v>9113</v>
       </c>
-      <c r="B494" s="41" t="s">
+      <c r="B494" s="43" t="s">
         <v>494</v>
       </c>
       <c r="C494">
@@ -7163,7 +7167,7 @@
       <c r="A495">
         <v>9131</v>
       </c>
-      <c r="B495" s="41" t="s">
+      <c r="B495" s="43" t="s">
         <v>495</v>
       </c>
       <c r="C495">
@@ -7174,7 +7178,7 @@
       <c r="A496">
         <v>9141</v>
       </c>
-      <c r="B496" s="41" t="s">
+      <c r="B496" s="43" t="s">
         <v>496</v>
       </c>
       <c r="C496">
@@ -7185,7 +7189,7 @@
       <c r="A497">
         <v>9142</v>
       </c>
-      <c r="B497" s="41" t="s">
+      <c r="B497" s="43" t="s">
         <v>497</v>
       </c>
       <c r="C497">
@@ -7196,7 +7200,7 @@
       <c r="A498">
         <v>9143</v>
       </c>
-      <c r="B498" s="41" t="s">
+      <c r="B498" s="43" t="s">
         <v>498</v>
       </c>
       <c r="C498">
@@ -7207,7 +7211,7 @@
       <c r="A499">
         <v>9144</v>
       </c>
-      <c r="B499" s="41" t="s">
+      <c r="B499" s="43" t="s">
         <v>499</v>
       </c>
       <c r="C499">
@@ -7218,7 +7222,7 @@
       <c r="A500">
         <v>9151</v>
       </c>
-      <c r="B500" s="41" t="s">
+      <c r="B500" s="43" t="s">
         <v>500</v>
       </c>
       <c r="C500">
@@ -7229,7 +7233,7 @@
       <c r="A501">
         <v>9152</v>
       </c>
-      <c r="B501" s="41" t="s">
+      <c r="B501" s="43" t="s">
         <v>501</v>
       </c>
       <c r="C501">
@@ -7240,7 +7244,7 @@
       <c r="A502">
         <v>9153</v>
       </c>
-      <c r="B502" s="41" t="s">
+      <c r="B502" s="43" t="s">
         <v>502</v>
       </c>
       <c r="C502">
@@ -7251,7 +7255,7 @@
       <c r="A503">
         <v>9154</v>
       </c>
-      <c r="B503" s="41" t="s">
+      <c r="B503" s="43" t="s">
         <v>503</v>
       </c>
       <c r="C503">
@@ -7262,7 +7266,7 @@
       <c r="A504">
         <v>9191</v>
       </c>
-      <c r="B504" s="41" t="s">
+      <c r="B504" s="43" t="s">
         <v>504</v>
       </c>
       <c r="C504">
@@ -7273,7 +7277,7 @@
       <c r="A505">
         <v>9192</v>
       </c>
-      <c r="B505" s="41" t="s">
+      <c r="B505" s="43" t="s">
         <v>505</v>
       </c>
       <c r="C505">
@@ -7284,7 +7288,7 @@
       <c r="A506">
         <v>9193</v>
       </c>
-      <c r="B506" s="41" t="s">
+      <c r="B506" s="43" t="s">
         <v>506</v>
       </c>
       <c r="C506">
@@ -7295,7 +7299,7 @@
       <c r="A507">
         <v>9501</v>
       </c>
-      <c r="B507" s="41" t="s">
+      <c r="B507" s="43" t="s">
         <v>507</v>
       </c>
       <c r="C507">
@@ -7306,7 +7310,7 @@
       <c r="A508">
         <v>9502</v>
       </c>
-      <c r="B508" s="41" t="s">
+      <c r="B508" s="43" t="s">
         <v>508</v>
       </c>
       <c r="C508">
@@ -7317,7 +7321,7 @@
       <c r="A509">
         <v>9503</v>
       </c>
-      <c r="B509" s="41" t="s">
+      <c r="B509" s="43" t="s">
         <v>509</v>
       </c>
       <c r="C509">
@@ -7328,7 +7332,7 @@
       <c r="A510">
         <v>9511</v>
       </c>
-      <c r="B510" s="41" t="s">
+      <c r="B510" s="43" t="s">
         <v>510</v>
       </c>
       <c r="C510">
@@ -7339,7 +7343,7 @@
       <c r="A511">
         <v>9513</v>
       </c>
-      <c r="B511" s="41" t="s">
+      <c r="B511" s="43" t="s">
         <v>511</v>
       </c>
       <c r="C511">
@@ -7350,7 +7354,7 @@
       <c r="A512">
         <v>9531</v>
       </c>
-      <c r="B512" s="41" t="s">
+      <c r="B512" s="43" t="s">
         <v>512</v>
       </c>
       <c r="C512">
@@ -7361,7 +7365,7 @@
       <c r="A513">
         <v>9541</v>
       </c>
-      <c r="B513" s="41" t="s">
+      <c r="B513" s="43" t="s">
         <v>513</v>
       </c>
       <c r="C513">
@@ -7372,7 +7376,7 @@
       <c r="A514">
         <v>9542</v>
       </c>
-      <c r="B514" s="41" t="s">
+      <c r="B514" s="43" t="s">
         <v>514</v>
       </c>
       <c r="C514">
@@ -7383,7 +7387,7 @@
       <c r="A515">
         <v>9543</v>
       </c>
-      <c r="B515" s="41" t="s">
+      <c r="B515" s="43" t="s">
         <v>515</v>
       </c>
       <c r="C515">
@@ -7394,7 +7398,7 @@
       <c r="A516">
         <v>9911</v>
       </c>
-      <c r="B516" s="41" t="s">
+      <c r="B516" s="43" t="s">
         <v>516</v>
       </c>
       <c r="C516">
@@ -7405,7 +7409,7 @@
       <c r="A517">
         <v>9912</v>
       </c>
-      <c r="B517" s="41" t="s">
+      <c r="B517" s="43" t="s">
         <v>517</v>
       </c>
       <c r="C517">
@@ -7416,7 +7420,7 @@
       <c r="A518">
         <v>9913</v>
       </c>
-      <c r="B518" s="41" t="s">
+      <c r="B518" s="43" t="s">
         <v>518</v>
       </c>
       <c r="C518">
@@ -7427,7 +7431,7 @@
       <c r="A519">
         <v>9914</v>
       </c>
-      <c r="B519" s="41" t="s">
+      <c r="B519" s="43" t="s">
         <v>519</v>
       </c>
       <c r="C519">
@@ -7438,7 +7442,7 @@
       <c r="A520">
         <v>9921</v>
       </c>
-      <c r="B520" s="41" t="s">
+      <c r="B520" s="43" t="s">
         <v>520</v>
       </c>
       <c r="C520">
@@ -7449,7 +7453,7 @@
       <c r="A521">
         <v>9922</v>
       </c>
-      <c r="B521" s="41" t="s">
+      <c r="B521" s="43" t="s">
         <v>521</v>
       </c>
       <c r="C521">
@@ -7460,7 +7464,7 @@
       <c r="A522">
         <v>-1</v>
       </c>
-      <c r="B522" s="41" t="s">
+      <c r="B522" s="43" t="s">
         <v>522</v>
       </c>
       <c r="C522">
@@ -7471,7 +7475,7 @@
       <c r="A523">
         <v>9999</v>
       </c>
-      <c r="B523" s="41" t="s">
+      <c r="B523" s="43" t="s">
         <v>523</v>
       </c>
       <c r="C523">

--- a/+dataLH/test_files/readTest.xlsx
+++ b/+dataLH/test_files/readTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11570" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12095" uniqueCount="525">
   <si>
     <t>Code</t>
   </si>
@@ -1610,7 +1610,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1662,11 +1662,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1712,6 +1714,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1730,13 +1734,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="45" t="s">
         <v>524</v>
       </c>
     </row>
@@ -1744,7 +1748,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C2">
@@ -1755,7 +1759,7 @@
       <c r="A3">
         <v>-1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -1766,7 +1770,7 @@
       <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -1777,7 +1781,7 @@
       <c r="A5">
         <v>200</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C5">
@@ -1788,7 +1792,7 @@
       <c r="A6">
         <v>300</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C6">
@@ -1799,7 +1803,7 @@
       <c r="A7">
         <v>401</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C7">
@@ -1810,7 +1814,7 @@
       <c r="A8">
         <v>402</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C8">
@@ -1821,7 +1825,7 @@
       <c r="A9">
         <v>403</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C9">
@@ -1832,7 +1836,7 @@
       <c r="A10">
         <v>411</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C10">
@@ -1843,7 +1847,7 @@
       <c r="A11">
         <v>412</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C11">
@@ -1854,7 +1858,7 @@
       <c r="A12">
         <v>413</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C12">
@@ -1865,7 +1869,7 @@
       <c r="A13">
         <v>501</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C13">
@@ -1876,7 +1880,7 @@
       <c r="A14">
         <v>502</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C14">
@@ -1887,7 +1891,7 @@
       <c r="A15">
         <v>503</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C15">
@@ -1898,7 +1902,7 @@
       <c r="A16">
         <v>511</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="45" t="s">
         <v>16</v>
       </c>
       <c r="C16">
@@ -1909,7 +1913,7 @@
       <c r="A17">
         <v>512</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="45" t="s">
         <v>17</v>
       </c>
       <c r="C17">
@@ -1920,7 +1924,7 @@
       <c r="A18">
         <v>513</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="45" t="s">
         <v>18</v>
       </c>
       <c r="C18">
@@ -1931,7 +1935,7 @@
       <c r="A19">
         <v>-1</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C19">
@@ -1942,7 +1946,7 @@
       <c r="A20">
         <v>1111</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="45" t="s">
         <v>20</v>
       </c>
       <c r="C20">
@@ -1953,7 +1957,7 @@
       <c r="A21">
         <v>1112</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="45" t="s">
         <v>21</v>
       </c>
       <c r="C21">
@@ -1964,7 +1968,7 @@
       <c r="A22">
         <v>1113</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="45" t="s">
         <v>22</v>
       </c>
       <c r="C22">
@@ -1975,7 +1979,7 @@
       <c r="A23">
         <v>1122</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="45" t="s">
         <v>23</v>
       </c>
       <c r="C23">
@@ -1986,7 +1990,7 @@
       <c r="A24">
         <v>1123</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="45" t="s">
         <v>24</v>
       </c>
       <c r="C24">
@@ -1997,7 +2001,7 @@
       <c r="A25">
         <v>1130</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="45" t="s">
         <v>25</v>
       </c>
       <c r="C25">
@@ -2008,7 +2012,7 @@
       <c r="A26">
         <v>1140</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="45" t="s">
         <v>27</v>
       </c>
       <c r="C26">
@@ -2019,7 +2023,7 @@
       <c r="A27">
         <v>1210</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="45" t="s">
         <v>28</v>
       </c>
       <c r="C27">
@@ -2030,7 +2034,7 @@
       <c r="A28">
         <v>1219</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="45" t="s">
         <v>29</v>
       </c>
       <c r="C28">
@@ -2041,7 +2045,7 @@
       <c r="A29">
         <v>1220</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="45" t="s">
         <v>30</v>
       </c>
       <c r="C29">
@@ -2052,7 +2056,7 @@
       <c r="A30">
         <v>1230</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="45" t="s">
         <v>31</v>
       </c>
       <c r="C30">
@@ -2063,7 +2067,7 @@
       <c r="A31">
         <v>1310</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="45" t="s">
         <v>32</v>
       </c>
       <c r="C31">
@@ -2074,7 +2078,7 @@
       <c r="A32">
         <v>1320</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C32">
@@ -2085,7 +2089,7 @@
       <c r="A33">
         <v>-1</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="45" t="s">
         <v>34</v>
       </c>
       <c r="C33">
@@ -2096,7 +2100,7 @@
       <c r="A34">
         <v>2011</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="45" t="s">
         <v>35</v>
       </c>
       <c r="C34">
@@ -2107,7 +2111,7 @@
       <c r="A35">
         <v>2012</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="45" t="s">
         <v>36</v>
       </c>
       <c r="C35">
@@ -2118,7 +2122,7 @@
       <c r="A36">
         <v>2021</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C36">
@@ -2129,7 +2133,7 @@
       <c r="A37">
         <v>2111</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="45" t="s">
         <v>38</v>
       </c>
       <c r="C37">
@@ -2140,7 +2144,7 @@
       <c r="A38">
         <v>2112</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="45" t="s">
         <v>39</v>
       </c>
       <c r="C38">
@@ -2151,7 +2155,7 @@
       <c r="A39">
         <v>2121</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="45" t="s">
         <v>40</v>
       </c>
       <c r="C39">
@@ -2162,7 +2166,7 @@
       <c r="A40">
         <v>2122</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="45" t="s">
         <v>41</v>
       </c>
       <c r="C40">
@@ -2173,7 +2177,7 @@
       <c r="A41">
         <v>2123</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="45" t="s">
         <v>42</v>
       </c>
       <c r="C41">
@@ -2184,7 +2188,7 @@
       <c r="A42">
         <v>2124</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="45" t="s">
         <v>43</v>
       </c>
       <c r="C42">
@@ -2195,7 +2199,7 @@
       <c r="A43">
         <v>2125</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C43">
@@ -2206,7 +2210,7 @@
       <c r="A44">
         <v>2131</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C44">
@@ -2217,7 +2221,7 @@
       <c r="A45">
         <v>2132</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="45" t="s">
         <v>46</v>
       </c>
       <c r="C45">
@@ -2228,7 +2232,7 @@
       <c r="A46">
         <v>2133</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="45" t="s">
         <v>47</v>
       </c>
       <c r="C46">
@@ -2239,7 +2243,7 @@
       <c r="A47">
         <v>2134</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="45" t="s">
         <v>48</v>
       </c>
       <c r="C47">
@@ -2250,7 +2254,7 @@
       <c r="A48">
         <v>2140</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="45" t="s">
         <v>49</v>
       </c>
       <c r="C48">
@@ -2261,7 +2265,7 @@
       <c r="A49">
         <v>2141</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="45" t="s">
         <v>50</v>
       </c>
       <c r="C49">
@@ -2272,7 +2276,7 @@
       <c r="A50">
         <v>2142</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C50">
@@ -2283,7 +2287,7 @@
       <c r="A51">
         <v>2143</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="45" t="s">
         <v>52</v>
       </c>
       <c r="C51">
@@ -2294,7 +2298,7 @@
       <c r="A52">
         <v>2144</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="45" t="s">
         <v>53</v>
       </c>
       <c r="C52">
@@ -2305,7 +2309,7 @@
       <c r="A53">
         <v>2145</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="45" t="s">
         <v>54</v>
       </c>
       <c r="C53">
@@ -2316,7 +2320,7 @@
       <c r="A54">
         <v>2146</v>
       </c>
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="45" t="s">
         <v>55</v>
       </c>
       <c r="C54">
@@ -2327,7 +2331,7 @@
       <c r="A55">
         <v>2147</v>
       </c>
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C55">
@@ -2338,7 +2342,7 @@
       <c r="A56">
         <v>2148</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C56">
@@ -2349,7 +2353,7 @@
       <c r="A57">
         <v>2149</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="45" t="s">
         <v>58</v>
       </c>
       <c r="C57">
@@ -2360,7 +2364,7 @@
       <c r="A58">
         <v>2151</v>
       </c>
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="45" t="s">
         <v>59</v>
       </c>
       <c r="C58">
@@ -2371,7 +2375,7 @@
       <c r="A59">
         <v>2152</v>
       </c>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="45" t="s">
         <v>60</v>
       </c>
       <c r="C59">
@@ -2382,7 +2386,7 @@
       <c r="A60">
         <v>2153</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="45" t="s">
         <v>61</v>
       </c>
       <c r="C60">
@@ -2393,7 +2397,7 @@
       <c r="A61">
         <v>2211</v>
       </c>
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="45" t="s">
         <v>62</v>
       </c>
       <c r="C61">
@@ -2404,7 +2408,7 @@
       <c r="A62">
         <v>2221</v>
       </c>
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="45" t="s">
         <v>63</v>
       </c>
       <c r="C62">
@@ -2415,7 +2419,7 @@
       <c r="A63">
         <v>2231</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="45" t="s">
         <v>64</v>
       </c>
       <c r="C63">
@@ -2426,7 +2430,7 @@
       <c r="A64">
         <v>2232</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="45" t="s">
         <v>65</v>
       </c>
       <c r="C64">
@@ -2437,7 +2441,7 @@
       <c r="A65">
         <v>2233</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="45" t="s">
         <v>66</v>
       </c>
       <c r="C65">
@@ -2448,7 +2452,7 @@
       <c r="A66">
         <v>2234</v>
       </c>
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="45" t="s">
         <v>67</v>
       </c>
       <c r="C66">
@@ -2459,7 +2463,7 @@
       <c r="A67">
         <v>2235</v>
       </c>
-      <c r="B67" s="43" t="s">
+      <c r="B67" s="45" t="s">
         <v>68</v>
       </c>
       <c r="C67">
@@ -2470,7 +2474,7 @@
       <c r="A68">
         <v>2236</v>
       </c>
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="45" t="s">
         <v>69</v>
       </c>
       <c r="C68">
@@ -2481,7 +2485,7 @@
       <c r="A69">
         <v>2237</v>
       </c>
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="45" t="s">
         <v>70</v>
       </c>
       <c r="C69">
@@ -2492,7 +2496,7 @@
       <c r="A70">
         <v>2311</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="45" t="s">
         <v>71</v>
       </c>
       <c r="C70">
@@ -2503,7 +2507,7 @@
       <c r="A71">
         <v>2312</v>
       </c>
-      <c r="B71" s="43" t="s">
+      <c r="B71" s="45" t="s">
         <v>72</v>
       </c>
       <c r="C71">
@@ -2514,7 +2518,7 @@
       <c r="A72">
         <v>2313</v>
       </c>
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="45" t="s">
         <v>73</v>
       </c>
       <c r="C72">
@@ -2525,7 +2529,7 @@
       <c r="A73">
         <v>2321</v>
       </c>
-      <c r="B73" s="43" t="s">
+      <c r="B73" s="45" t="s">
         <v>74</v>
       </c>
       <c r="C73">
@@ -2536,7 +2540,7 @@
       <c r="A74">
         <v>2330</v>
       </c>
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="45" t="s">
         <v>75</v>
       </c>
       <c r="C74">
@@ -2547,7 +2551,7 @@
       <c r="A75">
         <v>2340</v>
       </c>
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="45" t="s">
         <v>76</v>
       </c>
       <c r="C75">
@@ -2558,7 +2562,7 @@
       <c r="A76">
         <v>2391</v>
       </c>
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="45" t="s">
         <v>77</v>
       </c>
       <c r="C76">
@@ -2569,7 +2573,7 @@
       <c r="A77">
         <v>2392</v>
       </c>
-      <c r="B77" s="43" t="s">
+      <c r="B77" s="45" t="s">
         <v>78</v>
       </c>
       <c r="C77">
@@ -2580,7 +2584,7 @@
       <c r="A78">
         <v>2394</v>
       </c>
-      <c r="B78" s="43" t="s">
+      <c r="B78" s="45" t="s">
         <v>79</v>
       </c>
       <c r="C78">
@@ -2591,7 +2595,7 @@
       <c r="A79">
         <v>2410</v>
       </c>
-      <c r="B79" s="43" t="s">
+      <c r="B79" s="45" t="s">
         <v>80</v>
       </c>
       <c r="C79">
@@ -2602,7 +2606,7 @@
       <c r="A80">
         <v>2412</v>
       </c>
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="45" t="s">
         <v>81</v>
       </c>
       <c r="C80">
@@ -2613,7 +2617,7 @@
       <c r="A81">
         <v>2419</v>
       </c>
-      <c r="B81" s="43" t="s">
+      <c r="B81" s="45" t="s">
         <v>82</v>
       </c>
       <c r="C81">
@@ -2624,7 +2628,7 @@
       <c r="A82">
         <v>2421</v>
       </c>
-      <c r="B82" s="43" t="s">
+      <c r="B82" s="45" t="s">
         <v>83</v>
       </c>
       <c r="C82">
@@ -2635,7 +2639,7 @@
       <c r="A83">
         <v>2422</v>
       </c>
-      <c r="B83" s="43" t="s">
+      <c r="B83" s="45" t="s">
         <v>84</v>
       </c>
       <c r="C83">
@@ -2646,7 +2650,7 @@
       <c r="A84">
         <v>2423</v>
       </c>
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="45" t="s">
         <v>85</v>
       </c>
       <c r="C84">
@@ -2657,7 +2661,7 @@
       <c r="A85">
         <v>2511</v>
       </c>
-      <c r="B85" s="43" t="s">
+      <c r="B85" s="45" t="s">
         <v>86</v>
       </c>
       <c r="C85">
@@ -2668,7 +2672,7 @@
       <c r="A86">
         <v>2512</v>
       </c>
-      <c r="B86" s="43" t="s">
+      <c r="B86" s="45" t="s">
         <v>87</v>
       </c>
       <c r="C86">
@@ -2679,7 +2683,7 @@
       <c r="A87">
         <v>2513</v>
       </c>
-      <c r="B87" s="43" t="s">
+      <c r="B87" s="45" t="s">
         <v>88</v>
       </c>
       <c r="C87">
@@ -2690,7 +2694,7 @@
       <c r="A88">
         <v>2514</v>
       </c>
-      <c r="B88" s="43" t="s">
+      <c r="B88" s="45" t="s">
         <v>89</v>
       </c>
       <c r="C88">
@@ -2701,7 +2705,7 @@
       <c r="A89">
         <v>2515</v>
       </c>
-      <c r="B89" s="43" t="s">
+      <c r="B89" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C89">
@@ -2712,7 +2716,7 @@
       <c r="A90">
         <v>2516</v>
       </c>
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="45" t="s">
         <v>91</v>
       </c>
       <c r="C90">
@@ -2723,7 +2727,7 @@
       <c r="A91">
         <v>2521</v>
       </c>
-      <c r="B91" s="43" t="s">
+      <c r="B91" s="45" t="s">
         <v>92</v>
       </c>
       <c r="C91">
@@ -2734,7 +2738,7 @@
       <c r="A92">
         <v>2522</v>
       </c>
-      <c r="B92" s="43" t="s">
+      <c r="B92" s="45" t="s">
         <v>93</v>
       </c>
       <c r="C92">
@@ -2745,7 +2749,7 @@
       <c r="A93">
         <v>2523</v>
       </c>
-      <c r="B93" s="43" t="s">
+      <c r="B93" s="45" t="s">
         <v>94</v>
       </c>
       <c r="C93">
@@ -2756,7 +2760,7 @@
       <c r="A94">
         <v>2524</v>
       </c>
-      <c r="B94" s="43" t="s">
+      <c r="B94" s="45" t="s">
         <v>95</v>
       </c>
       <c r="C94">
@@ -2767,7 +2771,7 @@
       <c r="A95">
         <v>2525</v>
       </c>
-      <c r="B95" s="43" t="s">
+      <c r="B95" s="45" t="s">
         <v>96</v>
       </c>
       <c r="C95">
@@ -2778,7 +2782,7 @@
       <c r="A96">
         <v>2531</v>
       </c>
-      <c r="B96" s="43" t="s">
+      <c r="B96" s="45" t="s">
         <v>97</v>
       </c>
       <c r="C96">
@@ -2789,7 +2793,7 @@
       <c r="A97">
         <v>2611</v>
       </c>
-      <c r="B97" s="43" t="s">
+      <c r="B97" s="45" t="s">
         <v>98</v>
       </c>
       <c r="C97">
@@ -2800,7 +2804,7 @@
       <c r="A98">
         <v>2612</v>
       </c>
-      <c r="B98" s="43" t="s">
+      <c r="B98" s="45" t="s">
         <v>99</v>
       </c>
       <c r="C98">
@@ -2811,7 +2815,7 @@
       <c r="A99">
         <v>2613</v>
       </c>
-      <c r="B99" s="43" t="s">
+      <c r="B99" s="45" t="s">
         <v>100</v>
       </c>
       <c r="C99">
@@ -2822,7 +2826,7 @@
       <c r="A100">
         <v>2614</v>
       </c>
-      <c r="B100" s="43" t="s">
+      <c r="B100" s="45" t="s">
         <v>101</v>
       </c>
       <c r="C100">
@@ -2833,7 +2837,7 @@
       <c r="A101">
         <v>2615</v>
       </c>
-      <c r="B101" s="43" t="s">
+      <c r="B101" s="45" t="s">
         <v>102</v>
       </c>
       <c r="C101">
@@ -2844,7 +2848,7 @@
       <c r="A102">
         <v>2616</v>
       </c>
-      <c r="B102" s="43" t="s">
+      <c r="B102" s="45" t="s">
         <v>103</v>
       </c>
       <c r="C102">
@@ -2855,7 +2859,7 @@
       <c r="A103">
         <v>2617</v>
       </c>
-      <c r="B103" s="43" t="s">
+      <c r="B103" s="45" t="s">
         <v>104</v>
       </c>
       <c r="C103">
@@ -2866,7 +2870,7 @@
       <c r="A104">
         <v>2621</v>
       </c>
-      <c r="B104" s="43" t="s">
+      <c r="B104" s="45" t="s">
         <v>105</v>
       </c>
       <c r="C104">
@@ -2877,7 +2881,7 @@
       <c r="A105">
         <v>2622</v>
       </c>
-      <c r="B105" s="43" t="s">
+      <c r="B105" s="45" t="s">
         <v>106</v>
       </c>
       <c r="C105">
@@ -2888,7 +2892,7 @@
       <c r="A106">
         <v>2623</v>
       </c>
-      <c r="B106" s="43" t="s">
+      <c r="B106" s="45" t="s">
         <v>107</v>
       </c>
       <c r="C106">
@@ -2899,7 +2903,7 @@
       <c r="A107">
         <v>2624</v>
       </c>
-      <c r="B107" s="43" t="s">
+      <c r="B107" s="45" t="s">
         <v>108</v>
       </c>
       <c r="C107">
@@ -2910,7 +2914,7 @@
       <c r="A108">
         <v>2625</v>
       </c>
-      <c r="B108" s="43" t="s">
+      <c r="B108" s="45" t="s">
         <v>109</v>
       </c>
       <c r="C108">
@@ -2921,7 +2925,7 @@
       <c r="A109">
         <v>2627</v>
       </c>
-      <c r="B109" s="43" t="s">
+      <c r="B109" s="45" t="s">
         <v>110</v>
       </c>
       <c r="C109">
@@ -2932,7 +2936,7 @@
       <c r="A110">
         <v>2631</v>
       </c>
-      <c r="B110" s="43" t="s">
+      <c r="B110" s="45" t="s">
         <v>111</v>
       </c>
       <c r="C110">
@@ -2943,7 +2947,7 @@
       <c r="A111">
         <v>-1</v>
       </c>
-      <c r="B111" s="43" t="s">
+      <c r="B111" s="45" t="s">
         <v>112</v>
       </c>
       <c r="C111">
@@ -2954,7 +2958,7 @@
       <c r="A112">
         <v>3001</v>
       </c>
-      <c r="B112" s="43" t="s">
+      <c r="B112" s="45" t="s">
         <v>113</v>
       </c>
       <c r="C112">
@@ -2965,7 +2969,7 @@
       <c r="A113">
         <v>3003</v>
       </c>
-      <c r="B113" s="43" t="s">
+      <c r="B113" s="45" t="s">
         <v>114</v>
       </c>
       <c r="C113">
@@ -2976,7 +2980,7 @@
       <c r="A114">
         <v>3011</v>
       </c>
-      <c r="B114" s="43" t="s">
+      <c r="B114" s="45" t="s">
         <v>115</v>
       </c>
       <c r="C114">
@@ -2987,7 +2991,7 @@
       <c r="A115">
         <v>3012</v>
       </c>
-      <c r="B115" s="43" t="s">
+      <c r="B115" s="45" t="s">
         <v>116</v>
       </c>
       <c r="C115">
@@ -2998,7 +3002,7 @@
       <c r="A116">
         <v>3111</v>
       </c>
-      <c r="B116" s="43" t="s">
+      <c r="B116" s="45" t="s">
         <v>117</v>
       </c>
       <c r="C116">
@@ -3009,7 +3013,7 @@
       <c r="A117">
         <v>3112</v>
       </c>
-      <c r="B117" s="43" t="s">
+      <c r="B117" s="45" t="s">
         <v>118</v>
       </c>
       <c r="C117">
@@ -3020,7 +3024,7 @@
       <c r="A118">
         <v>3113</v>
       </c>
-      <c r="B118" s="43" t="s">
+      <c r="B118" s="45" t="s">
         <v>119</v>
       </c>
       <c r="C118">
@@ -3031,7 +3035,7 @@
       <c r="A119">
         <v>3114</v>
       </c>
-      <c r="B119" s="43" t="s">
+      <c r="B119" s="45" t="s">
         <v>120</v>
       </c>
       <c r="C119">
@@ -3042,7 +3046,7 @@
       <c r="A120">
         <v>3115</v>
       </c>
-      <c r="B120" s="43" t="s">
+      <c r="B120" s="45" t="s">
         <v>121</v>
       </c>
       <c r="C120">
@@ -3053,7 +3057,7 @@
       <c r="A121">
         <v>3116</v>
       </c>
-      <c r="B121" s="43" t="s">
+      <c r="B121" s="45" t="s">
         <v>122</v>
       </c>
       <c r="C121">
@@ -3064,7 +3068,7 @@
       <c r="A122">
         <v>3117</v>
       </c>
-      <c r="B122" s="43" t="s">
+      <c r="B122" s="45" t="s">
         <v>123</v>
       </c>
       <c r="C122">
@@ -3075,7 +3079,7 @@
       <c r="A123">
         <v>3121</v>
       </c>
-      <c r="B123" s="43" t="s">
+      <c r="B123" s="45" t="s">
         <v>124</v>
       </c>
       <c r="C123">
@@ -3086,7 +3090,7 @@
       <c r="A124">
         <v>3122</v>
       </c>
-      <c r="B124" s="43" t="s">
+      <c r="B124" s="45" t="s">
         <v>125</v>
       </c>
       <c r="C124">
@@ -3097,7 +3101,7 @@
       <c r="A125">
         <v>3123</v>
       </c>
-      <c r="B125" s="43" t="s">
+      <c r="B125" s="45" t="s">
         <v>126</v>
       </c>
       <c r="C125">
@@ -3108,7 +3112,7 @@
       <c r="A126">
         <v>3131</v>
       </c>
-      <c r="B126" s="43" t="s">
+      <c r="B126" s="45" t="s">
         <v>127</v>
       </c>
       <c r="C126">
@@ -3119,7 +3123,7 @@
       <c r="A127">
         <v>3132</v>
       </c>
-      <c r="B127" s="43" t="s">
+      <c r="B127" s="45" t="s">
         <v>128</v>
       </c>
       <c r="C127">
@@ -3130,7 +3134,7 @@
       <c r="A128">
         <v>3134</v>
       </c>
-      <c r="B128" s="43" t="s">
+      <c r="B128" s="45" t="s">
         <v>129</v>
       </c>
       <c r="C128">
@@ -3141,7 +3145,7 @@
       <c r="A129">
         <v>3135</v>
       </c>
-      <c r="B129" s="43" t="s">
+      <c r="B129" s="45" t="s">
         <v>130</v>
       </c>
       <c r="C129">
@@ -3152,7 +3156,7 @@
       <c r="A130">
         <v>3136</v>
       </c>
-      <c r="B130" s="43" t="s">
+      <c r="B130" s="45" t="s">
         <v>131</v>
       </c>
       <c r="C130">
@@ -3163,7 +3167,7 @@
       <c r="A131">
         <v>3141</v>
       </c>
-      <c r="B131" s="43" t="s">
+      <c r="B131" s="45" t="s">
         <v>132</v>
       </c>
       <c r="C131">
@@ -3174,7 +3178,7 @@
       <c r="A132">
         <v>3142</v>
       </c>
-      <c r="B132" s="43" t="s">
+      <c r="B132" s="45" t="s">
         <v>133</v>
       </c>
       <c r="C132">
@@ -3185,7 +3189,7 @@
       <c r="A133">
         <v>3143</v>
       </c>
-      <c r="B133" s="43" t="s">
+      <c r="B133" s="45" t="s">
         <v>134</v>
       </c>
       <c r="C133">
@@ -3196,7 +3200,7 @@
       <c r="A134">
         <v>3144</v>
       </c>
-      <c r="B134" s="43" t="s">
+      <c r="B134" s="45" t="s">
         <v>135</v>
       </c>
       <c r="C134">
@@ -3207,7 +3211,7 @@
       <c r="A135">
         <v>3146</v>
       </c>
-      <c r="B135" s="43" t="s">
+      <c r="B135" s="45" t="s">
         <v>136</v>
       </c>
       <c r="C135">
@@ -3218,7 +3222,7 @@
       <c r="A136">
         <v>3147</v>
       </c>
-      <c r="B136" s="43" t="s">
+      <c r="B136" s="45" t="s">
         <v>137</v>
       </c>
       <c r="C136">
@@ -3229,7 +3233,7 @@
       <c r="A137">
         <v>3161</v>
       </c>
-      <c r="B137" s="43" t="s">
+      <c r="B137" s="45" t="s">
         <v>138</v>
       </c>
       <c r="C137">
@@ -3240,7 +3244,7 @@
       <c r="A138">
         <v>3162</v>
       </c>
-      <c r="B138" s="43" t="s">
+      <c r="B138" s="45" t="s">
         <v>139</v>
       </c>
       <c r="C138">
@@ -3251,7 +3255,7 @@
       <c r="A139">
         <v>3163</v>
       </c>
-      <c r="B139" s="43" t="s">
+      <c r="B139" s="45" t="s">
         <v>140</v>
       </c>
       <c r="C139">
@@ -3262,7 +3266,7 @@
       <c r="A140">
         <v>3171</v>
       </c>
-      <c r="B140" s="43" t="s">
+      <c r="B140" s="45" t="s">
         <v>141</v>
       </c>
       <c r="C140">
@@ -3273,7 +3277,7 @@
       <c r="A141">
         <v>3172</v>
       </c>
-      <c r="B141" s="43" t="s">
+      <c r="B141" s="45" t="s">
         <v>142</v>
       </c>
       <c r="C141">
@@ -3284,7 +3288,7 @@
       <c r="A142">
         <v>3189</v>
       </c>
-      <c r="B142" s="43" t="s">
+      <c r="B142" s="45" t="s">
         <v>143</v>
       </c>
       <c r="C142">
@@ -3295,7 +3299,7 @@
       <c r="A143">
         <v>3191</v>
       </c>
-      <c r="B143" s="43" t="s">
+      <c r="B143" s="45" t="s">
         <v>144</v>
       </c>
       <c r="C143">
@@ -3306,7 +3310,7 @@
       <c r="A144">
         <v>3192</v>
       </c>
-      <c r="B144" s="43" t="s">
+      <c r="B144" s="45" t="s">
         <v>145</v>
       </c>
       <c r="C144">
@@ -3317,7 +3321,7 @@
       <c r="A145">
         <v>3201</v>
       </c>
-      <c r="B145" s="43" t="s">
+      <c r="B145" s="45" t="s">
         <v>146</v>
       </c>
       <c r="C145">
@@ -3328,7 +3332,7 @@
       <c r="A146">
         <v>3210</v>
       </c>
-      <c r="B146" s="43" t="s">
+      <c r="B146" s="45" t="s">
         <v>147</v>
       </c>
       <c r="C146">
@@ -3339,7 +3343,7 @@
       <c r="A147">
         <v>3211</v>
       </c>
-      <c r="B147" s="43" t="s">
+      <c r="B147" s="45" t="s">
         <v>148</v>
       </c>
       <c r="C147">
@@ -3350,7 +3354,7 @@
       <c r="A148">
         <v>3212</v>
       </c>
-      <c r="B148" s="43" t="s">
+      <c r="B148" s="45" t="s">
         <v>149</v>
       </c>
       <c r="C148">
@@ -3361,7 +3365,7 @@
       <c r="A149">
         <v>3213</v>
       </c>
-      <c r="B149" s="43" t="s">
+      <c r="B149" s="45" t="s">
         <v>150</v>
       </c>
       <c r="C149">
@@ -3372,7 +3376,7 @@
       <c r="A150">
         <v>3214</v>
       </c>
-      <c r="B150" s="43" t="s">
+      <c r="B150" s="45" t="s">
         <v>151</v>
       </c>
       <c r="C150">
@@ -3383,7 +3387,7 @@
       <c r="A151">
         <v>3221</v>
       </c>
-      <c r="B151" s="43" t="s">
+      <c r="B151" s="45" t="s">
         <v>152</v>
       </c>
       <c r="C151">
@@ -3394,7 +3398,7 @@
       <c r="A152">
         <v>3222</v>
       </c>
-      <c r="B152" s="43" t="s">
+      <c r="B152" s="45" t="s">
         <v>153</v>
       </c>
       <c r="C152">
@@ -3405,7 +3409,7 @@
       <c r="A153">
         <v>3223</v>
       </c>
-      <c r="B153" s="43" t="s">
+      <c r="B153" s="45" t="s">
         <v>154</v>
       </c>
       <c r="C153">
@@ -3416,7 +3420,7 @@
       <c r="A154">
         <v>3224</v>
       </c>
-      <c r="B154" s="43" t="s">
+      <c r="B154" s="45" t="s">
         <v>155</v>
       </c>
       <c r="C154">
@@ -3427,7 +3431,7 @@
       <c r="A155">
         <v>3225</v>
       </c>
-      <c r="B155" s="43" t="s">
+      <c r="B155" s="45" t="s">
         <v>156</v>
       </c>
       <c r="C155">
@@ -3438,7 +3442,7 @@
       <c r="A156">
         <v>3231</v>
       </c>
-      <c r="B156" s="43" t="s">
+      <c r="B156" s="45" t="s">
         <v>157</v>
       </c>
       <c r="C156">
@@ -3449,7 +3453,7 @@
       <c r="A157">
         <v>3232</v>
       </c>
-      <c r="B157" s="43" t="s">
+      <c r="B157" s="45" t="s">
         <v>158</v>
       </c>
       <c r="C157">
@@ -3460,7 +3464,7 @@
       <c r="A158">
         <v>3241</v>
       </c>
-      <c r="B158" s="43" t="s">
+      <c r="B158" s="45" t="s">
         <v>159</v>
       </c>
       <c r="C158">
@@ -3471,7 +3475,7 @@
       <c r="A159">
         <v>3242</v>
       </c>
-      <c r="B159" s="43" t="s">
+      <c r="B159" s="45" t="s">
         <v>160</v>
       </c>
       <c r="C159">
@@ -3482,7 +3486,7 @@
       <c r="A160">
         <v>3250</v>
       </c>
-      <c r="B160" s="43" t="s">
+      <c r="B160" s="45" t="s">
         <v>161</v>
       </c>
       <c r="C160">
@@ -3493,7 +3497,7 @@
       <c r="A161">
         <v>3251</v>
       </c>
-      <c r="B161" s="43" t="s">
+      <c r="B161" s="45" t="s">
         <v>162</v>
       </c>
       <c r="C161">
@@ -3504,7 +3508,7 @@
       <c r="A162">
         <v>3252</v>
       </c>
-      <c r="B162" s="43" t="s">
+      <c r="B162" s="45" t="s">
         <v>163</v>
       </c>
       <c r="C162">
@@ -3515,7 +3519,7 @@
       <c r="A163">
         <v>3253</v>
       </c>
-      <c r="B163" s="43" t="s">
+      <c r="B163" s="45" t="s">
         <v>164</v>
       </c>
       <c r="C163">
@@ -3526,7 +3530,7 @@
       <c r="A164">
         <v>3281</v>
       </c>
-      <c r="B164" s="43" t="s">
+      <c r="B164" s="45" t="s">
         <v>165</v>
       </c>
       <c r="C164">
@@ -3537,7 +3541,7 @@
       <c r="A165">
         <v>3311</v>
       </c>
-      <c r="B165" s="43" t="s">
+      <c r="B165" s="45" t="s">
         <v>166</v>
       </c>
       <c r="C165">
@@ -3548,7 +3552,7 @@
       <c r="A166">
         <v>3312</v>
       </c>
-      <c r="B166" s="43" t="s">
+      <c r="B166" s="45" t="s">
         <v>167</v>
       </c>
       <c r="C166">
@@ -3559,7 +3563,7 @@
       <c r="A167">
         <v>3313</v>
       </c>
-      <c r="B167" s="43" t="s">
+      <c r="B167" s="45" t="s">
         <v>168</v>
       </c>
       <c r="C167">
@@ -3570,7 +3574,7 @@
       <c r="A168">
         <v>3321</v>
       </c>
-      <c r="B168" s="43" t="s">
+      <c r="B168" s="45" t="s">
         <v>169</v>
       </c>
       <c r="C168">
@@ -3581,7 +3585,7 @@
       <c r="A169">
         <v>3322</v>
       </c>
-      <c r="B169" s="43" t="s">
+      <c r="B169" s="45" t="s">
         <v>170</v>
       </c>
       <c r="C169">
@@ -3592,7 +3596,7 @@
       <c r="A170">
         <v>3331</v>
       </c>
-      <c r="B170" s="43" t="s">
+      <c r="B170" s="45" t="s">
         <v>171</v>
       </c>
       <c r="C170">
@@ -3603,7 +3607,7 @@
       <c r="A171">
         <v>3341</v>
       </c>
-      <c r="B171" s="43" t="s">
+      <c r="B171" s="45" t="s">
         <v>172</v>
       </c>
       <c r="C171">
@@ -3614,7 +3618,7 @@
       <c r="A172">
         <v>3411</v>
       </c>
-      <c r="B172" s="43" t="s">
+      <c r="B172" s="45" t="s">
         <v>173</v>
       </c>
       <c r="C172">
@@ -3625,7 +3629,7 @@
       <c r="A173">
         <v>3412</v>
       </c>
-      <c r="B173" s="43" t="s">
+      <c r="B173" s="45" t="s">
         <v>174</v>
       </c>
       <c r="C173">
@@ -3636,7 +3640,7 @@
       <c r="A174">
         <v>3413</v>
       </c>
-      <c r="B174" s="43" t="s">
+      <c r="B174" s="45" t="s">
         <v>175</v>
       </c>
       <c r="C174">
@@ -3647,7 +3651,7 @@
       <c r="A175">
         <v>3421</v>
       </c>
-      <c r="B175" s="43" t="s">
+      <c r="B175" s="45" t="s">
         <v>176</v>
       </c>
       <c r="C175">
@@ -3658,7 +3662,7 @@
       <c r="A176">
         <v>3422</v>
       </c>
-      <c r="B176" s="43" t="s">
+      <c r="B176" s="45" t="s">
         <v>177</v>
       </c>
       <c r="C176">
@@ -3669,7 +3673,7 @@
       <c r="A177">
         <v>3423</v>
       </c>
-      <c r="B177" s="43" t="s">
+      <c r="B177" s="45" t="s">
         <v>178</v>
       </c>
       <c r="C177">
@@ -3680,7 +3684,7 @@
       <c r="A178">
         <v>3424</v>
       </c>
-      <c r="B178" s="43" t="s">
+      <c r="B178" s="45" t="s">
         <v>179</v>
       </c>
       <c r="C178">
@@ -3691,7 +3695,7 @@
       <c r="A179">
         <v>3425</v>
       </c>
-      <c r="B179" s="43" t="s">
+      <c r="B179" s="45" t="s">
         <v>180</v>
       </c>
       <c r="C179">
@@ -3702,7 +3706,7 @@
       <c r="A180">
         <v>3426</v>
       </c>
-      <c r="B180" s="43" t="s">
+      <c r="B180" s="45" t="s">
         <v>181</v>
       </c>
       <c r="C180">
@@ -3713,7 +3717,7 @@
       <c r="A181">
         <v>3511</v>
       </c>
-      <c r="B181" s="43" t="s">
+      <c r="B181" s="45" t="s">
         <v>182</v>
       </c>
       <c r="C181">
@@ -3724,7 +3728,7 @@
       <c r="A182">
         <v>3512</v>
       </c>
-      <c r="B182" s="43" t="s">
+      <c r="B182" s="45" t="s">
         <v>183</v>
       </c>
       <c r="C182">
@@ -3735,7 +3739,7 @@
       <c r="A183">
         <v>3513</v>
       </c>
-      <c r="B183" s="43" t="s">
+      <c r="B183" s="45" t="s">
         <v>184</v>
       </c>
       <c r="C183">
@@ -3746,7 +3750,7 @@
       <c r="A184">
         <v>3514</v>
       </c>
-      <c r="B184" s="43" t="s">
+      <c r="B184" s="45" t="s">
         <v>185</v>
       </c>
       <c r="C184">
@@ -3757,7 +3761,7 @@
       <c r="A185">
         <v>3515</v>
       </c>
-      <c r="B185" s="43" t="s">
+      <c r="B185" s="45" t="s">
         <v>186</v>
       </c>
       <c r="C185">
@@ -3768,7 +3772,7 @@
       <c r="A186">
         <v>3516</v>
       </c>
-      <c r="B186" s="43" t="s">
+      <c r="B186" s="45" t="s">
         <v>187</v>
       </c>
       <c r="C186">
@@ -3779,7 +3783,7 @@
       <c r="A187">
         <v>3517</v>
       </c>
-      <c r="B187" s="43" t="s">
+      <c r="B187" s="45" t="s">
         <v>188</v>
       </c>
       <c r="C187">
@@ -3790,7 +3794,7 @@
       <c r="A188">
         <v>3518</v>
       </c>
-      <c r="B188" s="43" t="s">
+      <c r="B188" s="45" t="s">
         <v>189</v>
       </c>
       <c r="C188">
@@ -3801,7 +3805,7 @@
       <c r="A189">
         <v>3522</v>
       </c>
-      <c r="B189" s="43" t="s">
+      <c r="B189" s="45" t="s">
         <v>190</v>
       </c>
       <c r="C189">
@@ -3812,7 +3816,7 @@
       <c r="A190">
         <v>3523</v>
       </c>
-      <c r="B190" s="43" t="s">
+      <c r="B190" s="45" t="s">
         <v>191</v>
       </c>
       <c r="C190">
@@ -3823,7 +3827,7 @@
       <c r="A191">
         <v>3524</v>
       </c>
-      <c r="B191" s="43" t="s">
+      <c r="B191" s="45" t="s">
         <v>192</v>
       </c>
       <c r="C191">
@@ -3834,7 +3838,7 @@
       <c r="A192">
         <v>3525</v>
       </c>
-      <c r="B192" s="43" t="s">
+      <c r="B192" s="45" t="s">
         <v>193</v>
       </c>
       <c r="C192">
@@ -3845,7 +3849,7 @@
       <c r="A193">
         <v>3531</v>
       </c>
-      <c r="B193" s="43" t="s">
+      <c r="B193" s="45" t="s">
         <v>194</v>
       </c>
       <c r="C193">
@@ -3856,7 +3860,7 @@
       <c r="A194">
         <v>3532</v>
       </c>
-      <c r="B194" s="43" t="s">
+      <c r="B194" s="45" t="s">
         <v>195</v>
       </c>
       <c r="C194">
@@ -3867,7 +3871,7 @@
       <c r="A195">
         <v>3541</v>
       </c>
-      <c r="B195" s="43" t="s">
+      <c r="B195" s="45" t="s">
         <v>196</v>
       </c>
       <c r="C195">
@@ -3878,7 +3882,7 @@
       <c r="A196">
         <v>3542</v>
       </c>
-      <c r="B196" s="43" t="s">
+      <c r="B196" s="45" t="s">
         <v>197</v>
       </c>
       <c r="C196">
@@ -3889,7 +3893,7 @@
       <c r="A197">
         <v>3543</v>
       </c>
-      <c r="B197" s="43" t="s">
+      <c r="B197" s="45" t="s">
         <v>198</v>
       </c>
       <c r="C197">
@@ -3900,7 +3904,7 @@
       <c r="A198">
         <v>3544</v>
       </c>
-      <c r="B198" s="43" t="s">
+      <c r="B198" s="45" t="s">
         <v>199</v>
       </c>
       <c r="C198">
@@ -3911,7 +3915,7 @@
       <c r="A199">
         <v>3545</v>
       </c>
-      <c r="B199" s="43" t="s">
+      <c r="B199" s="45" t="s">
         <v>200</v>
       </c>
       <c r="C199">
@@ -3922,7 +3926,7 @@
       <c r="A200">
         <v>3546</v>
       </c>
-      <c r="B200" s="43" t="s">
+      <c r="B200" s="45" t="s">
         <v>201</v>
       </c>
       <c r="C200">
@@ -3933,7 +3937,7 @@
       <c r="A201">
         <v>3547</v>
       </c>
-      <c r="B201" s="43" t="s">
+      <c r="B201" s="45" t="s">
         <v>202</v>
       </c>
       <c r="C201">
@@ -3944,7 +3948,7 @@
       <c r="A202">
         <v>3548</v>
       </c>
-      <c r="B202" s="43" t="s">
+      <c r="B202" s="45" t="s">
         <v>203</v>
       </c>
       <c r="C202">
@@ -3955,7 +3959,7 @@
       <c r="A203">
         <v>3711</v>
       </c>
-      <c r="B203" s="43" t="s">
+      <c r="B203" s="45" t="s">
         <v>204</v>
       </c>
       <c r="C203">
@@ -3966,7 +3970,7 @@
       <c r="A204">
         <v>3712</v>
       </c>
-      <c r="B204" s="43" t="s">
+      <c r="B204" s="45" t="s">
         <v>205</v>
       </c>
       <c r="C204">
@@ -3977,7 +3981,7 @@
       <c r="A205">
         <v>3713</v>
       </c>
-      <c r="B205" s="43" t="s">
+      <c r="B205" s="45" t="s">
         <v>206</v>
       </c>
       <c r="C205">
@@ -3988,7 +3992,7 @@
       <c r="A206">
         <v>3721</v>
       </c>
-      <c r="B206" s="43" t="s">
+      <c r="B206" s="45" t="s">
         <v>207</v>
       </c>
       <c r="C206">
@@ -3999,7 +4003,7 @@
       <c r="A207">
         <v>3722</v>
       </c>
-      <c r="B207" s="43" t="s">
+      <c r="B207" s="45" t="s">
         <v>208</v>
       </c>
       <c r="C207">
@@ -4010,7 +4014,7 @@
       <c r="A208">
         <v>3723</v>
       </c>
-      <c r="B208" s="43" t="s">
+      <c r="B208" s="45" t="s">
         <v>209</v>
       </c>
       <c r="C208">
@@ -4021,7 +4025,7 @@
       <c r="A209">
         <v>3731</v>
       </c>
-      <c r="B209" s="43" t="s">
+      <c r="B209" s="45" t="s">
         <v>210</v>
       </c>
       <c r="C209">
@@ -4032,7 +4036,7 @@
       <c r="A210">
         <v>3732</v>
       </c>
-      <c r="B210" s="43" t="s">
+      <c r="B210" s="45" t="s">
         <v>211</v>
       </c>
       <c r="C210">
@@ -4043,7 +4047,7 @@
       <c r="A211">
         <v>3741</v>
       </c>
-      <c r="B211" s="43" t="s">
+      <c r="B211" s="45" t="s">
         <v>212</v>
       </c>
       <c r="C211">
@@ -4054,7 +4058,7 @@
       <c r="A212">
         <v>3742</v>
       </c>
-      <c r="B212" s="43" t="s">
+      <c r="B212" s="45" t="s">
         <v>213</v>
       </c>
       <c r="C212">
@@ -4065,7 +4069,7 @@
       <c r="A213">
         <v>3743</v>
       </c>
-      <c r="B213" s="43" t="s">
+      <c r="B213" s="45" t="s">
         <v>214</v>
       </c>
       <c r="C213">
@@ -4076,7 +4080,7 @@
       <c r="A214">
         <v>3751</v>
       </c>
-      <c r="B214" s="43" t="s">
+      <c r="B214" s="45" t="s">
         <v>215</v>
       </c>
       <c r="C214">
@@ -4087,7 +4091,7 @@
       <c r="A215">
         <v>3761</v>
       </c>
-      <c r="B215" s="43" t="s">
+      <c r="B215" s="45" t="s">
         <v>216</v>
       </c>
       <c r="C215">
@@ -4098,7 +4102,7 @@
       <c r="A216">
         <v>3762</v>
       </c>
-      <c r="B216" s="43" t="s">
+      <c r="B216" s="45" t="s">
         <v>217</v>
       </c>
       <c r="C216">
@@ -4109,7 +4113,7 @@
       <c r="A217">
         <v>3763</v>
       </c>
-      <c r="B217" s="43" t="s">
+      <c r="B217" s="45" t="s">
         <v>218</v>
       </c>
       <c r="C217">
@@ -4120,7 +4124,7 @@
       <c r="A218">
         <v>3764</v>
       </c>
-      <c r="B218" s="43" t="s">
+      <c r="B218" s="45" t="s">
         <v>219</v>
       </c>
       <c r="C218">
@@ -4131,7 +4135,7 @@
       <c r="A219">
         <v>3765</v>
       </c>
-      <c r="B219" s="43" t="s">
+      <c r="B219" s="45" t="s">
         <v>220</v>
       </c>
       <c r="C219">
@@ -4142,7 +4146,7 @@
       <c r="A220">
         <v>3771</v>
       </c>
-      <c r="B220" s="43" t="s">
+      <c r="B220" s="45" t="s">
         <v>221</v>
       </c>
       <c r="C220">
@@ -4153,7 +4157,7 @@
       <c r="A221">
         <v>3772</v>
       </c>
-      <c r="B221" s="43" t="s">
+      <c r="B221" s="45" t="s">
         <v>222</v>
       </c>
       <c r="C221">
@@ -4164,7 +4168,7 @@
       <c r="A222">
         <v>3773</v>
       </c>
-      <c r="B222" s="43" t="s">
+      <c r="B222" s="45" t="s">
         <v>223</v>
       </c>
       <c r="C222">
@@ -4175,7 +4179,7 @@
       <c r="A223">
         <v>3911</v>
       </c>
-      <c r="B223" s="43" t="s">
+      <c r="B223" s="45" t="s">
         <v>224</v>
       </c>
       <c r="C223">
@@ -4186,7 +4190,7 @@
       <c r="A224">
         <v>3912</v>
       </c>
-      <c r="B224" s="43" t="s">
+      <c r="B224" s="45" t="s">
         <v>225</v>
       </c>
       <c r="C224">
@@ -4197,7 +4201,7 @@
       <c r="A225">
         <v>-1</v>
       </c>
-      <c r="B225" s="43" t="s">
+      <c r="B225" s="45" t="s">
         <v>226</v>
       </c>
       <c r="C225">
@@ -4208,7 +4212,7 @@
       <c r="A226">
         <v>4101</v>
       </c>
-      <c r="B226" s="43" t="s">
+      <c r="B226" s="45" t="s">
         <v>227</v>
       </c>
       <c r="C226">
@@ -4219,7 +4223,7 @@
       <c r="A227">
         <v>4102</v>
       </c>
-      <c r="B227" s="43" t="s">
+      <c r="B227" s="45" t="s">
         <v>228</v>
       </c>
       <c r="C227">
@@ -4230,7 +4234,7 @@
       <c r="A228">
         <v>4110</v>
       </c>
-      <c r="B228" s="43" t="s">
+      <c r="B228" s="45" t="s">
         <v>229</v>
       </c>
       <c r="C228">
@@ -4241,7 +4245,7 @@
       <c r="A229">
         <v>4121</v>
       </c>
-      <c r="B229" s="43" t="s">
+      <c r="B229" s="45" t="s">
         <v>230</v>
       </c>
       <c r="C229">
@@ -4252,7 +4256,7 @@
       <c r="A230">
         <v>4122</v>
       </c>
-      <c r="B230" s="43" t="s">
+      <c r="B230" s="45" t="s">
         <v>231</v>
       </c>
       <c r="C230">
@@ -4263,7 +4267,7 @@
       <c r="A231">
         <v>4123</v>
       </c>
-      <c r="B231" s="43" t="s">
+      <c r="B231" s="45" t="s">
         <v>232</v>
       </c>
       <c r="C231">
@@ -4274,7 +4278,7 @@
       <c r="A232">
         <v>4131</v>
       </c>
-      <c r="B232" s="43" t="s">
+      <c r="B232" s="45" t="s">
         <v>233</v>
       </c>
       <c r="C232">
@@ -4285,7 +4289,7 @@
       <c r="A233">
         <v>4132</v>
       </c>
-      <c r="B233" s="43" t="s">
+      <c r="B233" s="45" t="s">
         <v>234</v>
       </c>
       <c r="C233">
@@ -4296,7 +4300,7 @@
       <c r="A234">
         <v>4141</v>
       </c>
-      <c r="B234" s="43" t="s">
+      <c r="B234" s="45" t="s">
         <v>235</v>
       </c>
       <c r="C234">
@@ -4307,7 +4311,7 @@
       <c r="A235">
         <v>4142</v>
       </c>
-      <c r="B235" s="43" t="s">
+      <c r="B235" s="45" t="s">
         <v>236</v>
       </c>
       <c r="C235">
@@ -4318,7 +4322,7 @@
       <c r="A236">
         <v>4151</v>
       </c>
-      <c r="B236" s="43" t="s">
+      <c r="B236" s="45" t="s">
         <v>237</v>
       </c>
       <c r="C236">
@@ -4329,7 +4333,7 @@
       <c r="A237">
         <v>4152</v>
       </c>
-      <c r="B237" s="43" t="s">
+      <c r="B237" s="45" t="s">
         <v>238</v>
       </c>
       <c r="C237">
@@ -4340,7 +4344,7 @@
       <c r="A238">
         <v>4201</v>
       </c>
-      <c r="B238" s="43" t="s">
+      <c r="B238" s="45" t="s">
         <v>239</v>
       </c>
       <c r="C238">
@@ -4351,7 +4355,7 @@
       <c r="A239">
         <v>4211</v>
       </c>
-      <c r="B239" s="43" t="s">
+      <c r="B239" s="45" t="s">
         <v>240</v>
       </c>
       <c r="C239">
@@ -4362,7 +4366,7 @@
       <c r="A240">
         <v>4212</v>
       </c>
-      <c r="B240" s="43" t="s">
+      <c r="B240" s="45" t="s">
         <v>241</v>
       </c>
       <c r="C240">
@@ -4373,7 +4377,7 @@
       <c r="A241">
         <v>4213</v>
       </c>
-      <c r="B241" s="43" t="s">
+      <c r="B241" s="45" t="s">
         <v>242</v>
       </c>
       <c r="C241">
@@ -4384,7 +4388,7 @@
       <c r="A242">
         <v>4214</v>
       </c>
-      <c r="B242" s="43" t="s">
+      <c r="B242" s="45" t="s">
         <v>243</v>
       </c>
       <c r="C242">
@@ -4395,7 +4399,7 @@
       <c r="A243">
         <v>4221</v>
       </c>
-      <c r="B243" s="43" t="s">
+      <c r="B243" s="45" t="s">
         <v>244</v>
       </c>
       <c r="C243">
@@ -4406,7 +4410,7 @@
       <c r="A244">
         <v>4222</v>
       </c>
-      <c r="B244" s="43" t="s">
+      <c r="B244" s="45" t="s">
         <v>245</v>
       </c>
       <c r="C244">
@@ -4417,7 +4421,7 @@
       <c r="A245">
         <v>4223</v>
       </c>
-      <c r="B245" s="43" t="s">
+      <c r="B245" s="45" t="s">
         <v>246</v>
       </c>
       <c r="C245">
@@ -4428,7 +4432,7 @@
       <c r="A246">
         <v>4231</v>
       </c>
-      <c r="B246" s="43" t="s">
+      <c r="B246" s="45" t="s">
         <v>247</v>
       </c>
       <c r="C246">
@@ -4439,7 +4443,7 @@
       <c r="A247">
         <v>4241</v>
       </c>
-      <c r="B247" s="43" t="s">
+      <c r="B247" s="45" t="s">
         <v>248</v>
       </c>
       <c r="C247">
@@ -4450,7 +4454,7 @@
       <c r="A248">
         <v>-1</v>
       </c>
-      <c r="B248" s="43" t="s">
+      <c r="B248" s="45" t="s">
         <v>249</v>
       </c>
       <c r="C248">
@@ -4461,7 +4465,7 @@
       <c r="A249">
         <v>5101</v>
       </c>
-      <c r="B249" s="43" t="s">
+      <c r="B249" s="45" t="s">
         <v>250</v>
       </c>
       <c r="C249">
@@ -4472,7 +4476,7 @@
       <c r="A250">
         <v>5102</v>
       </c>
-      <c r="B250" s="43" t="s">
+      <c r="B250" s="45" t="s">
         <v>251</v>
       </c>
       <c r="C250">
@@ -4483,7 +4487,7 @@
       <c r="A251">
         <v>5103</v>
       </c>
-      <c r="B251" s="43" t="s">
+      <c r="B251" s="45" t="s">
         <v>252</v>
       </c>
       <c r="C251">
@@ -4494,7 +4498,7 @@
       <c r="A252">
         <v>5111</v>
       </c>
-      <c r="B252" s="43" t="s">
+      <c r="B252" s="45" t="s">
         <v>253</v>
       </c>
       <c r="C252">
@@ -4505,7 +4509,7 @@
       <c r="A253">
         <v>5112</v>
       </c>
-      <c r="B253" s="43" t="s">
+      <c r="B253" s="45" t="s">
         <v>254</v>
       </c>
       <c r="C253">
@@ -4516,7 +4520,7 @@
       <c r="A254">
         <v>5114</v>
       </c>
-      <c r="B254" s="43" t="s">
+      <c r="B254" s="45" t="s">
         <v>255</v>
       </c>
       <c r="C254">
@@ -4527,7 +4531,7 @@
       <c r="A255">
         <v>5121</v>
       </c>
-      <c r="B255" s="43" t="s">
+      <c r="B255" s="45" t="s">
         <v>256</v>
       </c>
       <c r="C255">
@@ -4538,7 +4542,7 @@
       <c r="A256">
         <v>5131</v>
       </c>
-      <c r="B256" s="43" t="s">
+      <c r="B256" s="45" t="s">
         <v>257</v>
       </c>
       <c r="C256">
@@ -4549,7 +4553,7 @@
       <c r="A257">
         <v>5132</v>
       </c>
-      <c r="B257" s="43" t="s">
+      <c r="B257" s="45" t="s">
         <v>258</v>
       </c>
       <c r="C257">
@@ -4560,7 +4564,7 @@
       <c r="A258">
         <v>5133</v>
       </c>
-      <c r="B258" s="43" t="s">
+      <c r="B258" s="45" t="s">
         <v>259</v>
       </c>
       <c r="C258">
@@ -4571,7 +4575,7 @@
       <c r="A259">
         <v>5134</v>
       </c>
-      <c r="B259" s="43" t="s">
+      <c r="B259" s="45" t="s">
         <v>260</v>
       </c>
       <c r="C259">
@@ -4582,7 +4586,7 @@
       <c r="A260">
         <v>5141</v>
       </c>
-      <c r="B260" s="43" t="s">
+      <c r="B260" s="45" t="s">
         <v>261</v>
       </c>
       <c r="C260">
@@ -4593,7 +4597,7 @@
       <c r="A261">
         <v>5142</v>
       </c>
-      <c r="B261" s="43" t="s">
+      <c r="B261" s="45" t="s">
         <v>262</v>
       </c>
       <c r="C261">
@@ -4604,7 +4608,7 @@
       <c r="A262">
         <v>5151</v>
       </c>
-      <c r="B262" s="43" t="s">
+      <c r="B262" s="45" t="s">
         <v>263</v>
       </c>
       <c r="C262">
@@ -4615,7 +4619,7 @@
       <c r="A263">
         <v>5152</v>
       </c>
-      <c r="B263" s="43" t="s">
+      <c r="B263" s="45" t="s">
         <v>264</v>
       </c>
       <c r="C263">
@@ -4626,7 +4630,7 @@
       <c r="A264">
         <v>5161</v>
       </c>
-      <c r="B264" s="43" t="s">
+      <c r="B264" s="45" t="s">
         <v>265</v>
       </c>
       <c r="C264">
@@ -4637,7 +4641,7 @@
       <c r="A265">
         <v>5162</v>
       </c>
-      <c r="B265" s="43" t="s">
+      <c r="B265" s="45" t="s">
         <v>266</v>
       </c>
       <c r="C265">
@@ -4648,7 +4652,7 @@
       <c r="A266">
         <v>5165</v>
       </c>
-      <c r="B266" s="43" t="s">
+      <c r="B266" s="45" t="s">
         <v>267</v>
       </c>
       <c r="C266">
@@ -4659,7 +4663,7 @@
       <c r="A267">
         <v>5166</v>
       </c>
-      <c r="B267" s="43" t="s">
+      <c r="B267" s="45" t="s">
         <v>268</v>
       </c>
       <c r="C267">
@@ -4670,7 +4674,7 @@
       <c r="A268">
         <v>5167</v>
       </c>
-      <c r="B268" s="43" t="s">
+      <c r="B268" s="45" t="s">
         <v>269</v>
       </c>
       <c r="C268">
@@ -4681,7 +4685,7 @@
       <c r="A269">
         <v>5169</v>
       </c>
-      <c r="B269" s="43" t="s">
+      <c r="B269" s="45" t="s">
         <v>270</v>
       </c>
       <c r="C269">
@@ -4692,7 +4696,7 @@
       <c r="A270">
         <v>5171</v>
       </c>
-      <c r="B270" s="43" t="s">
+      <c r="B270" s="45" t="s">
         <v>271</v>
       </c>
       <c r="C270">
@@ -4703,7 +4707,7 @@
       <c r="A271">
         <v>5172</v>
       </c>
-      <c r="B271" s="43" t="s">
+      <c r="B271" s="45" t="s">
         <v>272</v>
       </c>
       <c r="C271">
@@ -4714,7 +4718,7 @@
       <c r="A272">
         <v>5173</v>
       </c>
-      <c r="B272" s="43" t="s">
+      <c r="B272" s="45" t="s">
         <v>273</v>
       </c>
       <c r="C272">
@@ -4725,7 +4729,7 @@
       <c r="A273">
         <v>5174</v>
       </c>
-      <c r="B273" s="43" t="s">
+      <c r="B273" s="45" t="s">
         <v>274</v>
       </c>
       <c r="C273">
@@ -4736,7 +4740,7 @@
       <c r="A274">
         <v>5191</v>
       </c>
-      <c r="B274" s="43" t="s">
+      <c r="B274" s="45" t="s">
         <v>275</v>
       </c>
       <c r="C274">
@@ -4747,7 +4751,7 @@
       <c r="A275">
         <v>5192</v>
       </c>
-      <c r="B275" s="43" t="s">
+      <c r="B275" s="45" t="s">
         <v>276</v>
       </c>
       <c r="C275">
@@ -4758,7 +4762,7 @@
       <c r="A276">
         <v>5198</v>
       </c>
-      <c r="B276" s="43" t="s">
+      <c r="B276" s="45" t="s">
         <v>277</v>
       </c>
       <c r="C276">
@@ -4769,7 +4773,7 @@
       <c r="A277">
         <v>5199</v>
       </c>
-      <c r="B277" s="43" t="s">
+      <c r="B277" s="45" t="s">
         <v>278</v>
       </c>
       <c r="C277">
@@ -4780,7 +4784,7 @@
       <c r="A278">
         <v>5201</v>
       </c>
-      <c r="B278" s="43" t="s">
+      <c r="B278" s="45" t="s">
         <v>279</v>
       </c>
       <c r="C278">
@@ -4791,7 +4795,7 @@
       <c r="A279">
         <v>5211</v>
       </c>
-      <c r="B279" s="43" t="s">
+      <c r="B279" s="45" t="s">
         <v>280</v>
       </c>
       <c r="C279">
@@ -4802,7 +4806,7 @@
       <c r="A280">
         <v>5221</v>
       </c>
-      <c r="B280" s="43" t="s">
+      <c r="B280" s="45" t="s">
         <v>281</v>
       </c>
       <c r="C280">
@@ -4813,7 +4817,7 @@
       <c r="A281">
         <v>5231</v>
       </c>
-      <c r="B281" s="43" t="s">
+      <c r="B281" s="45" t="s">
         <v>282</v>
       </c>
       <c r="C281">
@@ -4824,7 +4828,7 @@
       <c r="A282">
         <v>5241</v>
       </c>
-      <c r="B282" s="43" t="s">
+      <c r="B282" s="45" t="s">
         <v>283</v>
       </c>
       <c r="C282">
@@ -4835,7 +4839,7 @@
       <c r="A283">
         <v>5242</v>
       </c>
-      <c r="B283" s="43" t="s">
+      <c r="B283" s="45" t="s">
         <v>284</v>
       </c>
       <c r="C283">
@@ -4846,7 +4850,7 @@
       <c r="A284">
         <v>5243</v>
       </c>
-      <c r="B284" s="43" t="s">
+      <c r="B284" s="45" t="s">
         <v>285</v>
       </c>
       <c r="C284">
@@ -4857,7 +4861,7 @@
       <c r="A285">
         <v>-1</v>
       </c>
-      <c r="B285" s="43" t="s">
+      <c r="B285" s="45" t="s">
         <v>286</v>
       </c>
       <c r="C285">
@@ -4868,7 +4872,7 @@
       <c r="A286">
         <v>6110</v>
       </c>
-      <c r="B286" s="43" t="s">
+      <c r="B286" s="45" t="s">
         <v>287</v>
       </c>
       <c r="C286">
@@ -4879,7 +4883,7 @@
       <c r="A287">
         <v>6129</v>
       </c>
-      <c r="B287" s="43" t="s">
+      <c r="B287" s="45" t="s">
         <v>288</v>
       </c>
       <c r="C287">
@@ -4890,7 +4894,7 @@
       <c r="A288">
         <v>6139</v>
       </c>
-      <c r="B288" s="43" t="s">
+      <c r="B288" s="45" t="s">
         <v>289</v>
       </c>
       <c r="C288">
@@ -4901,7 +4905,7 @@
       <c r="A289">
         <v>6201</v>
       </c>
-      <c r="B289" s="43" t="s">
+      <c r="B289" s="45" t="s">
         <v>290</v>
       </c>
       <c r="C289">
@@ -4912,7 +4916,7 @@
       <c r="A290">
         <v>6210</v>
       </c>
-      <c r="B290" s="43" t="s">
+      <c r="B290" s="45" t="s">
         <v>291</v>
       </c>
       <c r="C290">
@@ -4923,7 +4927,7 @@
       <c r="A291">
         <v>6229</v>
       </c>
-      <c r="B291" s="43" t="s">
+      <c r="B291" s="45" t="s">
         <v>292</v>
       </c>
       <c r="C291">
@@ -4934,7 +4938,7 @@
       <c r="A292">
         <v>6239</v>
       </c>
-      <c r="B292" s="43" t="s">
+      <c r="B292" s="45" t="s">
         <v>293</v>
       </c>
       <c r="C292">
@@ -4945,7 +4949,7 @@
       <c r="A293">
         <v>6301</v>
       </c>
-      <c r="B293" s="43" t="s">
+      <c r="B293" s="45" t="s">
         <v>294</v>
       </c>
       <c r="C293">
@@ -4956,7 +4960,7 @@
       <c r="A294">
         <v>6319</v>
       </c>
-      <c r="B294" s="43" t="s">
+      <c r="B294" s="45" t="s">
         <v>295</v>
       </c>
       <c r="C294">
@@ -4967,7 +4971,7 @@
       <c r="A295">
         <v>6329</v>
       </c>
-      <c r="B295" s="43" t="s">
+      <c r="B295" s="45" t="s">
         <v>296</v>
       </c>
       <c r="C295">
@@ -4978,7 +4982,7 @@
       <c r="A296">
         <v>6410</v>
       </c>
-      <c r="B296" s="43" t="s">
+      <c r="B296" s="45" t="s">
         <v>297</v>
       </c>
       <c r="C296">
@@ -4989,7 +4993,7 @@
       <c r="A297">
         <v>6420</v>
       </c>
-      <c r="B297" s="43" t="s">
+      <c r="B297" s="45" t="s">
         <v>298</v>
       </c>
       <c r="C297">
@@ -5000,7 +5004,7 @@
       <c r="A298">
         <v>6430</v>
       </c>
-      <c r="B298" s="43" t="s">
+      <c r="B298" s="45" t="s">
         <v>299</v>
       </c>
       <c r="C298">
@@ -5011,7 +5015,7 @@
       <c r="A299">
         <v>-1</v>
       </c>
-      <c r="B299" s="43" t="s">
+      <c r="B299" s="45" t="s">
         <v>300</v>
       </c>
       <c r="C299">
@@ -5022,7 +5026,7 @@
       <c r="A300">
         <v>7101</v>
       </c>
-      <c r="B300" s="43" t="s">
+      <c r="B300" s="45" t="s">
         <v>301</v>
       </c>
       <c r="C300">
@@ -5033,7 +5037,7 @@
       <c r="A301">
         <v>7102</v>
       </c>
-      <c r="B301" s="43" t="s">
+      <c r="B301" s="45" t="s">
         <v>302</v>
       </c>
       <c r="C301">
@@ -5044,7 +5048,7 @@
       <c r="A302">
         <v>7111</v>
       </c>
-      <c r="B302" s="43" t="s">
+      <c r="B302" s="45" t="s">
         <v>303</v>
       </c>
       <c r="C302">
@@ -5055,7 +5059,7 @@
       <c r="A303">
         <v>7112</v>
       </c>
-      <c r="B303" s="43" t="s">
+      <c r="B303" s="45" t="s">
         <v>304</v>
       </c>
       <c r="C303">
@@ -5066,7 +5070,7 @@
       <c r="A304">
         <v>7113</v>
       </c>
-      <c r="B304" s="43" t="s">
+      <c r="B304" s="45" t="s">
         <v>305</v>
       </c>
       <c r="C304">
@@ -5077,7 +5081,7 @@
       <c r="A305">
         <v>7114</v>
       </c>
-      <c r="B305" s="43" t="s">
+      <c r="B305" s="45" t="s">
         <v>306</v>
       </c>
       <c r="C305">
@@ -5088,7 +5092,7 @@
       <c r="A306">
         <v>7121</v>
       </c>
-      <c r="B306" s="43" t="s">
+      <c r="B306" s="45" t="s">
         <v>307</v>
       </c>
       <c r="C306">
@@ -5099,7 +5103,7 @@
       <c r="A307">
         <v>7122</v>
       </c>
-      <c r="B307" s="43" t="s">
+      <c r="B307" s="45" t="s">
         <v>308</v>
       </c>
       <c r="C307">
@@ -5110,7 +5114,7 @@
       <c r="A308">
         <v>7151</v>
       </c>
-      <c r="B308" s="43" t="s">
+      <c r="B308" s="45" t="s">
         <v>309</v>
       </c>
       <c r="C308">
@@ -5121,7 +5125,7 @@
       <c r="A309">
         <v>7152</v>
       </c>
-      <c r="B309" s="43" t="s">
+      <c r="B309" s="45" t="s">
         <v>310</v>
       </c>
       <c r="C309">
@@ -5132,7 +5136,7 @@
       <c r="A310">
         <v>7153</v>
       </c>
-      <c r="B310" s="43" t="s">
+      <c r="B310" s="45" t="s">
         <v>311</v>
       </c>
       <c r="C310">
@@ -5143,7 +5147,7 @@
       <c r="A311">
         <v>7154</v>
       </c>
-      <c r="B311" s="43" t="s">
+      <c r="B311" s="45" t="s">
         <v>312</v>
       </c>
       <c r="C311">
@@ -5154,7 +5158,7 @@
       <c r="A312">
         <v>7155</v>
       </c>
-      <c r="B312" s="43" t="s">
+      <c r="B312" s="45" t="s">
         <v>313</v>
       </c>
       <c r="C312">
@@ -5165,7 +5169,7 @@
       <c r="A313">
         <v>7156</v>
       </c>
-      <c r="B313" s="43" t="s">
+      <c r="B313" s="45" t="s">
         <v>314</v>
       </c>
       <c r="C313">
@@ -5176,7 +5180,7 @@
       <c r="A314">
         <v>7157</v>
       </c>
-      <c r="B314" s="43" t="s">
+      <c r="B314" s="45" t="s">
         <v>315</v>
       </c>
       <c r="C314">
@@ -5187,7 +5191,7 @@
       <c r="A315">
         <v>7161</v>
       </c>
-      <c r="B315" s="43" t="s">
+      <c r="B315" s="45" t="s">
         <v>316</v>
       </c>
       <c r="C315">
@@ -5198,7 +5202,7 @@
       <c r="A316">
         <v>7162</v>
       </c>
-      <c r="B316" s="43" t="s">
+      <c r="B316" s="45" t="s">
         <v>317</v>
       </c>
       <c r="C316">
@@ -5209,7 +5213,7 @@
       <c r="A317">
         <v>7163</v>
       </c>
-      <c r="B317" s="43" t="s">
+      <c r="B317" s="45" t="s">
         <v>318</v>
       </c>
       <c r="C317">
@@ -5220,7 +5224,7 @@
       <c r="A318">
         <v>7164</v>
       </c>
-      <c r="B318" s="43" t="s">
+      <c r="B318" s="45" t="s">
         <v>319</v>
       </c>
       <c r="C318">
@@ -5231,7 +5235,7 @@
       <c r="A319">
         <v>7165</v>
       </c>
-      <c r="B319" s="43" t="s">
+      <c r="B319" s="45" t="s">
         <v>320</v>
       </c>
       <c r="C319">
@@ -5242,7 +5246,7 @@
       <c r="A320">
         <v>7166</v>
       </c>
-      <c r="B320" s="43" t="s">
+      <c r="B320" s="45" t="s">
         <v>321</v>
       </c>
       <c r="C320">
@@ -5253,7 +5257,7 @@
       <c r="A321">
         <v>7170</v>
       </c>
-      <c r="B321" s="43" t="s">
+      <c r="B321" s="45" t="s">
         <v>322</v>
       </c>
       <c r="C321">
@@ -5264,7 +5268,7 @@
       <c r="A322">
         <v>7201</v>
       </c>
-      <c r="B322" s="43" t="s">
+      <c r="B322" s="45" t="s">
         <v>323</v>
       </c>
       <c r="C322">
@@ -5275,7 +5279,7 @@
       <c r="A323">
         <v>7202</v>
       </c>
-      <c r="B323" s="43" t="s">
+      <c r="B323" s="45" t="s">
         <v>324</v>
       </c>
       <c r="C323">
@@ -5286,7 +5290,7 @@
       <c r="A324">
         <v>7211</v>
       </c>
-      <c r="B324" s="43" t="s">
+      <c r="B324" s="45" t="s">
         <v>325</v>
       </c>
       <c r="C324">
@@ -5297,7 +5301,7 @@
       <c r="A325">
         <v>7212</v>
       </c>
-      <c r="B325" s="43" t="s">
+      <c r="B325" s="45" t="s">
         <v>326</v>
       </c>
       <c r="C325">
@@ -5308,7 +5312,7 @@
       <c r="A326">
         <v>7213</v>
       </c>
-      <c r="B326" s="43" t="s">
+      <c r="B326" s="45" t="s">
         <v>327</v>
       </c>
       <c r="C326">
@@ -5319,7 +5323,7 @@
       <c r="A327">
         <v>7214</v>
       </c>
-      <c r="B327" s="43" t="s">
+      <c r="B327" s="45" t="s">
         <v>328</v>
       </c>
       <c r="C327">
@@ -5330,7 +5334,7 @@
       <c r="A328">
         <v>7215</v>
       </c>
-      <c r="B328" s="43" t="s">
+      <c r="B328" s="45" t="s">
         <v>329</v>
       </c>
       <c r="C328">
@@ -5341,7 +5345,7 @@
       <c r="A329">
         <v>7221</v>
       </c>
-      <c r="B329" s="43" t="s">
+      <c r="B329" s="45" t="s">
         <v>330</v>
       </c>
       <c r="C329">
@@ -5352,7 +5356,7 @@
       <c r="A330">
         <v>7222</v>
       </c>
-      <c r="B330" s="43" t="s">
+      <c r="B330" s="45" t="s">
         <v>331</v>
       </c>
       <c r="C330">
@@ -5363,7 +5367,7 @@
       <c r="A331">
         <v>7223</v>
       </c>
-      <c r="B331" s="43" t="s">
+      <c r="B331" s="45" t="s">
         <v>332</v>
       </c>
       <c r="C331">
@@ -5374,7 +5378,7 @@
       <c r="A332">
         <v>7224</v>
       </c>
-      <c r="B332" s="43" t="s">
+      <c r="B332" s="45" t="s">
         <v>333</v>
       </c>
       <c r="C332">
@@ -5385,7 +5389,7 @@
       <c r="A333">
         <v>7231</v>
       </c>
-      <c r="B333" s="43" t="s">
+      <c r="B333" s="45" t="s">
         <v>334</v>
       </c>
       <c r="C333">
@@ -5396,7 +5400,7 @@
       <c r="A334">
         <v>7232</v>
       </c>
-      <c r="B334" s="43" t="s">
+      <c r="B334" s="45" t="s">
         <v>335</v>
       </c>
       <c r="C334">
@@ -5407,7 +5411,7 @@
       <c r="A335">
         <v>7233</v>
       </c>
-      <c r="B335" s="43" t="s">
+      <c r="B335" s="45" t="s">
         <v>336</v>
       </c>
       <c r="C335">
@@ -5418,7 +5422,7 @@
       <c r="A336">
         <v>7241</v>
       </c>
-      <c r="B336" s="43" t="s">
+      <c r="B336" s="45" t="s">
         <v>337</v>
       </c>
       <c r="C336">
@@ -5429,7 +5433,7 @@
       <c r="A337">
         <v>7242</v>
       </c>
-      <c r="B337" s="43" t="s">
+      <c r="B337" s="45" t="s">
         <v>338</v>
       </c>
       <c r="C337">
@@ -5440,7 +5444,7 @@
       <c r="A338">
         <v>7243</v>
       </c>
-      <c r="B338" s="43" t="s">
+      <c r="B338" s="45" t="s">
         <v>339</v>
       </c>
       <c r="C338">
@@ -5451,7 +5455,7 @@
       <c r="A339">
         <v>7244</v>
       </c>
-      <c r="B339" s="43" t="s">
+      <c r="B339" s="45" t="s">
         <v>340</v>
       </c>
       <c r="C339">
@@ -5462,7 +5466,7 @@
       <c r="A340">
         <v>7245</v>
       </c>
-      <c r="B340" s="43" t="s">
+      <c r="B340" s="45" t="s">
         <v>341</v>
       </c>
       <c r="C340">
@@ -5473,7 +5477,7 @@
       <c r="A341">
         <v>7246</v>
       </c>
-      <c r="B341" s="43" t="s">
+      <c r="B341" s="45" t="s">
         <v>342</v>
       </c>
       <c r="C341">
@@ -5484,7 +5488,7 @@
       <c r="A342">
         <v>7250</v>
       </c>
-      <c r="B342" s="43" t="s">
+      <c r="B342" s="45" t="s">
         <v>343</v>
       </c>
       <c r="C342">
@@ -5495,7 +5499,7 @@
       <c r="A343">
         <v>7251</v>
       </c>
-      <c r="B343" s="43" t="s">
+      <c r="B343" s="45" t="s">
         <v>344</v>
       </c>
       <c r="C343">
@@ -5506,7 +5510,7 @@
       <c r="A344">
         <v>7252</v>
       </c>
-      <c r="B344" s="43" t="s">
+      <c r="B344" s="45" t="s">
         <v>345</v>
       </c>
       <c r="C344">
@@ -5517,7 +5521,7 @@
       <c r="A345">
         <v>7253</v>
       </c>
-      <c r="B345" s="43" t="s">
+      <c r="B345" s="45" t="s">
         <v>346</v>
       </c>
       <c r="C345">
@@ -5528,7 +5532,7 @@
       <c r="A346">
         <v>7254</v>
       </c>
-      <c r="B346" s="43" t="s">
+      <c r="B346" s="45" t="s">
         <v>347</v>
       </c>
       <c r="C346">
@@ -5539,7 +5543,7 @@
       <c r="A347">
         <v>7255</v>
       </c>
-      <c r="B347" s="43" t="s">
+      <c r="B347" s="45" t="s">
         <v>348</v>
       </c>
       <c r="C347">
@@ -5550,7 +5554,7 @@
       <c r="A348">
         <v>7256</v>
       </c>
-      <c r="B348" s="43" t="s">
+      <c r="B348" s="45" t="s">
         <v>349</v>
       </c>
       <c r="C348">
@@ -5561,7 +5565,7 @@
       <c r="A349">
         <v>7257</v>
       </c>
-      <c r="B349" s="43" t="s">
+      <c r="B349" s="45" t="s">
         <v>350</v>
       </c>
       <c r="C349">
@@ -5572,7 +5576,7 @@
       <c r="A350">
         <v>7301</v>
       </c>
-      <c r="B350" s="43" t="s">
+      <c r="B350" s="45" t="s">
         <v>351</v>
       </c>
       <c r="C350">
@@ -5583,7 +5587,7 @@
       <c r="A351">
         <v>7311</v>
       </c>
-      <c r="B351" s="43" t="s">
+      <c r="B351" s="45" t="s">
         <v>352</v>
       </c>
       <c r="C351">
@@ -5594,7 +5598,7 @@
       <c r="A352">
         <v>7312</v>
       </c>
-      <c r="B352" s="43" t="s">
+      <c r="B352" s="45" t="s">
         <v>353</v>
       </c>
       <c r="C352">
@@ -5605,7 +5609,7 @@
       <c r="A353">
         <v>7313</v>
       </c>
-      <c r="B353" s="43" t="s">
+      <c r="B353" s="45" t="s">
         <v>354</v>
       </c>
       <c r="C353">
@@ -5616,7 +5620,7 @@
       <c r="A354">
         <v>7321</v>
       </c>
-      <c r="B354" s="43" t="s">
+      <c r="B354" s="45" t="s">
         <v>355</v>
       </c>
       <c r="C354">
@@ -5627,7 +5631,7 @@
       <c r="A355">
         <v>7401</v>
       </c>
-      <c r="B355" s="43" t="s">
+      <c r="B355" s="45" t="s">
         <v>356</v>
       </c>
       <c r="C355">
@@ -5638,7 +5642,7 @@
       <c r="A356">
         <v>7411</v>
       </c>
-      <c r="B356" s="43" t="s">
+      <c r="B356" s="45" t="s">
         <v>357</v>
       </c>
       <c r="C356">
@@ -5649,7 +5653,7 @@
       <c r="A357">
         <v>7421</v>
       </c>
-      <c r="B357" s="43" t="s">
+      <c r="B357" s="45" t="s">
         <v>358</v>
       </c>
       <c r="C357">
@@ -5660,7 +5664,7 @@
       <c r="A358">
         <v>7501</v>
       </c>
-      <c r="B358" s="43" t="s">
+      <c r="B358" s="45" t="s">
         <v>359</v>
       </c>
       <c r="C358">
@@ -5671,7 +5675,7 @@
       <c r="A359">
         <v>7502</v>
       </c>
-      <c r="B359" s="43" t="s">
+      <c r="B359" s="45" t="s">
         <v>360</v>
       </c>
       <c r="C359">
@@ -5682,7 +5686,7 @@
       <c r="A360">
         <v>7519</v>
       </c>
-      <c r="B360" s="43" t="s">
+      <c r="B360" s="45" t="s">
         <v>361</v>
       </c>
       <c r="C360">
@@ -5693,7 +5697,7 @@
       <c r="A361">
         <v>7521</v>
       </c>
-      <c r="B361" s="43" t="s">
+      <c r="B361" s="45" t="s">
         <v>362</v>
       </c>
       <c r="C361">
@@ -5704,7 +5708,7 @@
       <c r="A362">
         <v>7522</v>
       </c>
-      <c r="B362" s="43" t="s">
+      <c r="B362" s="45" t="s">
         <v>363</v>
       </c>
       <c r="C362">
@@ -5715,7 +5719,7 @@
       <c r="A363">
         <v>7523</v>
       </c>
-      <c r="B363" s="43" t="s">
+      <c r="B363" s="45" t="s">
         <v>364</v>
       </c>
       <c r="C363">
@@ -5726,7 +5730,7 @@
       <c r="A364">
         <v>7524</v>
       </c>
-      <c r="B364" s="43" t="s">
+      <c r="B364" s="45" t="s">
         <v>365</v>
       </c>
       <c r="C364">
@@ -5737,7 +5741,7 @@
       <c r="A365">
         <v>7601</v>
       </c>
-      <c r="B365" s="43" t="s">
+      <c r="B365" s="45" t="s">
         <v>366</v>
       </c>
       <c r="C365">
@@ -5748,7 +5752,7 @@
       <c r="A366">
         <v>7602</v>
       </c>
-      <c r="B366" s="43" t="s">
+      <c r="B366" s="45" t="s">
         <v>367</v>
       </c>
       <c r="C366">
@@ -5759,7 +5763,7 @@
       <c r="A367">
         <v>7603</v>
       </c>
-      <c r="B367" s="43" t="s">
+      <c r="B367" s="45" t="s">
         <v>368</v>
       </c>
       <c r="C367">
@@ -5770,7 +5774,7 @@
       <c r="A368">
         <v>7604</v>
       </c>
-      <c r="B368" s="43" t="s">
+      <c r="B368" s="45" t="s">
         <v>369</v>
       </c>
       <c r="C368">
@@ -5781,7 +5785,7 @@
       <c r="A369">
         <v>7605</v>
       </c>
-      <c r="B369" s="43" t="s">
+      <c r="B369" s="45" t="s">
         <v>370</v>
       </c>
       <c r="C369">
@@ -5792,7 +5796,7 @@
       <c r="A370">
         <v>7606</v>
       </c>
-      <c r="B370" s="43" t="s">
+      <c r="B370" s="45" t="s">
         <v>371</v>
       </c>
       <c r="C370">
@@ -5803,7 +5807,7 @@
       <c r="A371">
         <v>7610</v>
       </c>
-      <c r="B371" s="43" t="s">
+      <c r="B371" s="45" t="s">
         <v>372</v>
       </c>
       <c r="C371">
@@ -5814,7 +5818,7 @@
       <c r="A372">
         <v>7611</v>
       </c>
-      <c r="B372" s="43" t="s">
+      <c r="B372" s="45" t="s">
         <v>373</v>
       </c>
       <c r="C372">
@@ -5825,7 +5829,7 @@
       <c r="A373">
         <v>7612</v>
       </c>
-      <c r="B373" s="43" t="s">
+      <c r="B373" s="45" t="s">
         <v>374</v>
       </c>
       <c r="C373">
@@ -5836,7 +5840,7 @@
       <c r="A374">
         <v>7613</v>
       </c>
-      <c r="B374" s="43" t="s">
+      <c r="B374" s="45" t="s">
         <v>375</v>
       </c>
       <c r="C374">
@@ -5847,7 +5851,7 @@
       <c r="A375">
         <v>7614</v>
       </c>
-      <c r="B375" s="43" t="s">
+      <c r="B375" s="45" t="s">
         <v>376</v>
       </c>
       <c r="C375">
@@ -5858,7 +5862,7 @@
       <c r="A376">
         <v>7618</v>
       </c>
-      <c r="B376" s="43" t="s">
+      <c r="B376" s="45" t="s">
         <v>377</v>
       </c>
       <c r="C376">
@@ -5869,7 +5873,7 @@
       <c r="A377">
         <v>7620</v>
       </c>
-      <c r="B377" s="43" t="s">
+      <c r="B377" s="45" t="s">
         <v>378</v>
       </c>
       <c r="C377">
@@ -5880,7 +5884,7 @@
       <c r="A378">
         <v>7621</v>
       </c>
-      <c r="B378" s="43" t="s">
+      <c r="B378" s="45" t="s">
         <v>379</v>
       </c>
       <c r="C378">
@@ -5891,7 +5895,7 @@
       <c r="A379">
         <v>7622</v>
       </c>
-      <c r="B379" s="43" t="s">
+      <c r="B379" s="45" t="s">
         <v>380</v>
       </c>
       <c r="C379">
@@ -5902,7 +5906,7 @@
       <c r="A380">
         <v>7623</v>
       </c>
-      <c r="B380" s="43" t="s">
+      <c r="B380" s="45" t="s">
         <v>381</v>
       </c>
       <c r="C380">
@@ -5913,7 +5917,7 @@
       <c r="A381">
         <v>7630</v>
       </c>
-      <c r="B381" s="43" t="s">
+      <c r="B381" s="45" t="s">
         <v>382</v>
       </c>
       <c r="C381">
@@ -5924,7 +5928,7 @@
       <c r="A382">
         <v>7631</v>
       </c>
-      <c r="B382" s="43" t="s">
+      <c r="B382" s="45" t="s">
         <v>383</v>
       </c>
       <c r="C382">
@@ -5935,7 +5939,7 @@
       <c r="A383">
         <v>7632</v>
       </c>
-      <c r="B383" s="43" t="s">
+      <c r="B383" s="45" t="s">
         <v>384</v>
       </c>
       <c r="C383">
@@ -5946,7 +5950,7 @@
       <c r="A384">
         <v>7633</v>
       </c>
-      <c r="B384" s="43" t="s">
+      <c r="B384" s="45" t="s">
         <v>385</v>
       </c>
       <c r="C384">
@@ -5957,7 +5961,7 @@
       <c r="A385">
         <v>7640</v>
       </c>
-      <c r="B385" s="43" t="s">
+      <c r="B385" s="45" t="s">
         <v>386</v>
       </c>
       <c r="C385">
@@ -5968,7 +5972,7 @@
       <c r="A386">
         <v>7641</v>
       </c>
-      <c r="B386" s="43" t="s">
+      <c r="B386" s="45" t="s">
         <v>387</v>
       </c>
       <c r="C386">
@@ -5979,7 +5983,7 @@
       <c r="A387">
         <v>7642</v>
       </c>
-      <c r="B387" s="43" t="s">
+      <c r="B387" s="45" t="s">
         <v>388</v>
       </c>
       <c r="C387">
@@ -5990,7 +5994,7 @@
       <c r="A388">
         <v>7643</v>
       </c>
-      <c r="B388" s="43" t="s">
+      <c r="B388" s="45" t="s">
         <v>389</v>
       </c>
       <c r="C388">
@@ -6001,7 +6005,7 @@
       <c r="A389">
         <v>7650</v>
       </c>
-      <c r="B389" s="43" t="s">
+      <c r="B389" s="45" t="s">
         <v>390</v>
       </c>
       <c r="C389">
@@ -6012,7 +6016,7 @@
       <c r="A390">
         <v>7651</v>
       </c>
-      <c r="B390" s="43" t="s">
+      <c r="B390" s="45" t="s">
         <v>391</v>
       </c>
       <c r="C390">
@@ -6023,7 +6027,7 @@
       <c r="A391">
         <v>7652</v>
       </c>
-      <c r="B391" s="43" t="s">
+      <c r="B391" s="45" t="s">
         <v>392</v>
       </c>
       <c r="C391">
@@ -6034,7 +6038,7 @@
       <c r="A392">
         <v>7653</v>
       </c>
-      <c r="B392" s="43" t="s">
+      <c r="B392" s="45" t="s">
         <v>393</v>
       </c>
       <c r="C392">
@@ -6045,7 +6049,7 @@
       <c r="A393">
         <v>7654</v>
       </c>
-      <c r="B393" s="43" t="s">
+      <c r="B393" s="45" t="s">
         <v>394</v>
       </c>
       <c r="C393">
@@ -6056,7 +6060,7 @@
       <c r="A394">
         <v>7660</v>
       </c>
-      <c r="B394" s="43" t="s">
+      <c r="B394" s="45" t="s">
         <v>395</v>
       </c>
       <c r="C394">
@@ -6067,7 +6071,7 @@
       <c r="A395">
         <v>7661</v>
       </c>
-      <c r="B395" s="43" t="s">
+      <c r="B395" s="45" t="s">
         <v>396</v>
       </c>
       <c r="C395">
@@ -6078,7 +6082,7 @@
       <c r="A396">
         <v>7662</v>
       </c>
-      <c r="B396" s="43" t="s">
+      <c r="B396" s="45" t="s">
         <v>397</v>
       </c>
       <c r="C396">
@@ -6089,7 +6093,7 @@
       <c r="A397">
         <v>7663</v>
       </c>
-      <c r="B397" s="43" t="s">
+      <c r="B397" s="45" t="s">
         <v>398</v>
       </c>
       <c r="C397">
@@ -6100,7 +6104,7 @@
       <c r="A398">
         <v>7664</v>
       </c>
-      <c r="B398" s="43" t="s">
+      <c r="B398" s="45" t="s">
         <v>399</v>
       </c>
       <c r="C398">
@@ -6111,7 +6115,7 @@
       <c r="A399">
         <v>7681</v>
       </c>
-      <c r="B399" s="43" t="s">
+      <c r="B399" s="45" t="s">
         <v>400</v>
       </c>
       <c r="C399">
@@ -6122,7 +6126,7 @@
       <c r="A400">
         <v>7682</v>
       </c>
-      <c r="B400" s="43" t="s">
+      <c r="B400" s="45" t="s">
         <v>401</v>
       </c>
       <c r="C400">
@@ -6133,7 +6137,7 @@
       <c r="A401">
         <v>7683</v>
       </c>
-      <c r="B401" s="43" t="s">
+      <c r="B401" s="45" t="s">
         <v>402</v>
       </c>
       <c r="C401">
@@ -6144,7 +6148,7 @@
       <c r="A402">
         <v>7686</v>
       </c>
-      <c r="B402" s="43" t="s">
+      <c r="B402" s="45" t="s">
         <v>403</v>
       </c>
       <c r="C402">
@@ -6155,7 +6159,7 @@
       <c r="A403">
         <v>7687</v>
       </c>
-      <c r="B403" s="43" t="s">
+      <c r="B403" s="45" t="s">
         <v>404</v>
       </c>
       <c r="C403">
@@ -6166,7 +6170,7 @@
       <c r="A404">
         <v>7701</v>
       </c>
-      <c r="B404" s="43" t="s">
+      <c r="B404" s="45" t="s">
         <v>405</v>
       </c>
       <c r="C404">
@@ -6177,7 +6181,7 @@
       <c r="A405">
         <v>7711</v>
       </c>
-      <c r="B405" s="43" t="s">
+      <c r="B405" s="45" t="s">
         <v>406</v>
       </c>
       <c r="C405">
@@ -6188,7 +6192,7 @@
       <c r="A406">
         <v>7721</v>
       </c>
-      <c r="B406" s="43" t="s">
+      <c r="B406" s="45" t="s">
         <v>407</v>
       </c>
       <c r="C406">
@@ -6199,7 +6203,7 @@
       <c r="A407">
         <v>7731</v>
       </c>
-      <c r="B407" s="43" t="s">
+      <c r="B407" s="45" t="s">
         <v>408</v>
       </c>
       <c r="C407">
@@ -6210,7 +6214,7 @@
       <c r="A408">
         <v>7732</v>
       </c>
-      <c r="B408" s="43" t="s">
+      <c r="B408" s="45" t="s">
         <v>409</v>
       </c>
       <c r="C408">
@@ -6221,7 +6225,7 @@
       <c r="A409">
         <v>7733</v>
       </c>
-      <c r="B409" s="43" t="s">
+      <c r="B409" s="45" t="s">
         <v>410</v>
       </c>
       <c r="C409">
@@ -6232,7 +6236,7 @@
       <c r="A410">
         <v>7734</v>
       </c>
-      <c r="B410" s="43" t="s">
+      <c r="B410" s="45" t="s">
         <v>411</v>
       </c>
       <c r="C410">
@@ -6243,7 +6247,7 @@
       <c r="A411">
         <v>7735</v>
       </c>
-      <c r="B411" s="43" t="s">
+      <c r="B411" s="45" t="s">
         <v>412</v>
       </c>
       <c r="C411">
@@ -6254,7 +6258,7 @@
       <c r="A412">
         <v>7741</v>
       </c>
-      <c r="B412" s="43" t="s">
+      <c r="B412" s="45" t="s">
         <v>413</v>
       </c>
       <c r="C412">
@@ -6265,7 +6269,7 @@
       <c r="A413">
         <v>7751</v>
       </c>
-      <c r="B413" s="43" t="s">
+      <c r="B413" s="45" t="s">
         <v>414</v>
       </c>
       <c r="C413">
@@ -6276,7 +6280,7 @@
       <c r="A414">
         <v>7764</v>
       </c>
-      <c r="B414" s="43" t="s">
+      <c r="B414" s="45" t="s">
         <v>415</v>
       </c>
       <c r="C414">
@@ -6287,7 +6291,7 @@
       <c r="A415">
         <v>7771</v>
       </c>
-      <c r="B415" s="43" t="s">
+      <c r="B415" s="45" t="s">
         <v>416</v>
       </c>
       <c r="C415">
@@ -6298,7 +6302,7 @@
       <c r="A416">
         <v>7772</v>
       </c>
-      <c r="B416" s="43" t="s">
+      <c r="B416" s="45" t="s">
         <v>417</v>
       </c>
       <c r="C416">
@@ -6309,7 +6313,7 @@
       <c r="A417">
         <v>7801</v>
       </c>
-      <c r="B417" s="43" t="s">
+      <c r="B417" s="45" t="s">
         <v>418</v>
       </c>
       <c r="C417">
@@ -6320,7 +6324,7 @@
       <c r="A418">
         <v>7811</v>
       </c>
-      <c r="B418" s="43" t="s">
+      <c r="B418" s="45" t="s">
         <v>419</v>
       </c>
       <c r="C418">
@@ -6331,7 +6335,7 @@
       <c r="A419">
         <v>7813</v>
       </c>
-      <c r="B419" s="43" t="s">
+      <c r="B419" s="45" t="s">
         <v>420</v>
       </c>
       <c r="C419">
@@ -6342,7 +6346,7 @@
       <c r="A420">
         <v>7817</v>
       </c>
-      <c r="B420" s="43" t="s">
+      <c r="B420" s="45" t="s">
         <v>421</v>
       </c>
       <c r="C420">
@@ -6353,7 +6357,7 @@
       <c r="A421">
         <v>7820</v>
       </c>
-      <c r="B421" s="43" t="s">
+      <c r="B421" s="45" t="s">
         <v>422</v>
       </c>
       <c r="C421">
@@ -6364,7 +6368,7 @@
       <c r="A422">
         <v>7821</v>
       </c>
-      <c r="B422" s="43" t="s">
+      <c r="B422" s="45" t="s">
         <v>423</v>
       </c>
       <c r="C422">
@@ -6375,7 +6379,7 @@
       <c r="A423">
         <v>7822</v>
       </c>
-      <c r="B423" s="43" t="s">
+      <c r="B423" s="45" t="s">
         <v>424</v>
       </c>
       <c r="C423">
@@ -6386,7 +6390,7 @@
       <c r="A424">
         <v>7823</v>
       </c>
-      <c r="B424" s="43" t="s">
+      <c r="B424" s="45" t="s">
         <v>425</v>
       </c>
       <c r="C424">
@@ -6397,7 +6401,7 @@
       <c r="A425">
         <v>7824</v>
       </c>
-      <c r="B425" s="43" t="s">
+      <c r="B425" s="45" t="s">
         <v>426</v>
       </c>
       <c r="C425">
@@ -6408,7 +6412,7 @@
       <c r="A426">
         <v>7825</v>
       </c>
-      <c r="B426" s="43" t="s">
+      <c r="B426" s="45" t="s">
         <v>427</v>
       </c>
       <c r="C426">
@@ -6419,7 +6423,7 @@
       <c r="A427">
         <v>7826</v>
       </c>
-      <c r="B427" s="43" t="s">
+      <c r="B427" s="45" t="s">
         <v>428</v>
       </c>
       <c r="C427">
@@ -6430,7 +6434,7 @@
       <c r="A428">
         <v>7827</v>
       </c>
-      <c r="B428" s="43" t="s">
+      <c r="B428" s="45" t="s">
         <v>429</v>
       </c>
       <c r="C428">
@@ -6441,7 +6445,7 @@
       <c r="A429">
         <v>7828</v>
       </c>
-      <c r="B429" s="43" t="s">
+      <c r="B429" s="45" t="s">
         <v>430</v>
       </c>
       <c r="C429">
@@ -6452,7 +6456,7 @@
       <c r="A430">
         <v>7831</v>
       </c>
-      <c r="B430" s="43" t="s">
+      <c r="B430" s="45" t="s">
         <v>431</v>
       </c>
       <c r="C430">
@@ -6463,7 +6467,7 @@
       <c r="A431">
         <v>7832</v>
       </c>
-      <c r="B431" s="43" t="s">
+      <c r="B431" s="45" t="s">
         <v>432</v>
       </c>
       <c r="C431">
@@ -6474,7 +6478,7 @@
       <c r="A432">
         <v>7841</v>
       </c>
-      <c r="B432" s="43" t="s">
+      <c r="B432" s="45" t="s">
         <v>433</v>
       </c>
       <c r="C432">
@@ -6485,7 +6489,7 @@
       <c r="A433">
         <v>7842</v>
       </c>
-      <c r="B433" s="43" t="s">
+      <c r="B433" s="45" t="s">
         <v>434</v>
       </c>
       <c r="C433">
@@ -6496,7 +6500,7 @@
       <c r="A434">
         <v>-1</v>
       </c>
-      <c r="B434" s="43" t="s">
+      <c r="B434" s="45" t="s">
         <v>300</v>
       </c>
       <c r="C434">
@@ -6507,7 +6511,7 @@
       <c r="A435">
         <v>8101</v>
       </c>
-      <c r="B435" s="43" t="s">
+      <c r="B435" s="45" t="s">
         <v>435</v>
       </c>
       <c r="C435">
@@ -6518,7 +6522,7 @@
       <c r="A436">
         <v>8102</v>
       </c>
-      <c r="B436" s="43" t="s">
+      <c r="B436" s="45" t="s">
         <v>436</v>
       </c>
       <c r="C436">
@@ -6529,7 +6533,7 @@
       <c r="A437">
         <v>8103</v>
       </c>
-      <c r="B437" s="43" t="s">
+      <c r="B437" s="45" t="s">
         <v>437</v>
       </c>
       <c r="C437">
@@ -6540,7 +6544,7 @@
       <c r="A438">
         <v>8110</v>
       </c>
-      <c r="B438" s="43" t="s">
+      <c r="B438" s="45" t="s">
         <v>438</v>
       </c>
       <c r="C438">
@@ -6551,7 +6555,7 @@
       <c r="A439">
         <v>8111</v>
       </c>
-      <c r="B439" s="43" t="s">
+      <c r="B439" s="45" t="s">
         <v>439</v>
       </c>
       <c r="C439">
@@ -6562,7 +6566,7 @@
       <c r="A440">
         <v>8112</v>
       </c>
-      <c r="B440" s="43" t="s">
+      <c r="B440" s="45" t="s">
         <v>440</v>
       </c>
       <c r="C440">
@@ -6573,7 +6577,7 @@
       <c r="A441">
         <v>8113</v>
       </c>
-      <c r="B441" s="43" t="s">
+      <c r="B441" s="45" t="s">
         <v>441</v>
       </c>
       <c r="C441">
@@ -6584,7 +6588,7 @@
       <c r="A442">
         <v>8114</v>
       </c>
-      <c r="B442" s="43" t="s">
+      <c r="B442" s="45" t="s">
         <v>442</v>
       </c>
       <c r="C442">
@@ -6595,7 +6599,7 @@
       <c r="A443">
         <v>8115</v>
       </c>
-      <c r="B443" s="43" t="s">
+      <c r="B443" s="45" t="s">
         <v>443</v>
       </c>
       <c r="C443">
@@ -6606,7 +6610,7 @@
       <c r="A444">
         <v>8116</v>
       </c>
-      <c r="B444" s="43" t="s">
+      <c r="B444" s="45" t="s">
         <v>444</v>
       </c>
       <c r="C444">
@@ -6617,7 +6621,7 @@
       <c r="A445">
         <v>8117</v>
       </c>
-      <c r="B445" s="43" t="s">
+      <c r="B445" s="45" t="s">
         <v>445</v>
       </c>
       <c r="C445">
@@ -6628,7 +6632,7 @@
       <c r="A446">
         <v>8118</v>
       </c>
-      <c r="B446" s="43" t="s">
+      <c r="B446" s="45" t="s">
         <v>446</v>
       </c>
       <c r="C446">
@@ -6639,7 +6643,7 @@
       <c r="A447">
         <v>8121</v>
       </c>
-      <c r="B447" s="43" t="s">
+      <c r="B447" s="45" t="s">
         <v>447</v>
       </c>
       <c r="C447">
@@ -6650,7 +6654,7 @@
       <c r="A448">
         <v>8131</v>
       </c>
-      <c r="B448" s="43" t="s">
+      <c r="B448" s="45" t="s">
         <v>448</v>
       </c>
       <c r="C448">
@@ -6661,7 +6665,7 @@
       <c r="A449">
         <v>8181</v>
       </c>
-      <c r="B449" s="43" t="s">
+      <c r="B449" s="45" t="s">
         <v>449</v>
       </c>
       <c r="C449">
@@ -6672,7 +6676,7 @@
       <c r="A450">
         <v>8201</v>
       </c>
-      <c r="B450" s="43" t="s">
+      <c r="B450" s="45" t="s">
         <v>450</v>
       </c>
       <c r="C450">
@@ -6683,7 +6687,7 @@
       <c r="A451">
         <v>8202</v>
       </c>
-      <c r="B451" s="43" t="s">
+      <c r="B451" s="45" t="s">
         <v>451</v>
       </c>
       <c r="C451">
@@ -6694,7 +6698,7 @@
       <c r="A452">
         <v>8211</v>
       </c>
-      <c r="B452" s="43" t="s">
+      <c r="B452" s="45" t="s">
         <v>452</v>
       </c>
       <c r="C452">
@@ -6705,7 +6709,7 @@
       <c r="A453">
         <v>8212</v>
       </c>
-      <c r="B453" s="43" t="s">
+      <c r="B453" s="45" t="s">
         <v>453</v>
       </c>
       <c r="C453">
@@ -6716,7 +6720,7 @@
       <c r="A454">
         <v>8213</v>
       </c>
-      <c r="B454" s="43" t="s">
+      <c r="B454" s="45" t="s">
         <v>454</v>
       </c>
       <c r="C454">
@@ -6727,7 +6731,7 @@
       <c r="A455">
         <v>8214</v>
       </c>
-      <c r="B455" s="43" t="s">
+      <c r="B455" s="45" t="s">
         <v>455</v>
       </c>
       <c r="C455">
@@ -6738,7 +6742,7 @@
       <c r="A456">
         <v>8221</v>
       </c>
-      <c r="B456" s="43" t="s">
+      <c r="B456" s="45" t="s">
         <v>456</v>
       </c>
       <c r="C456">
@@ -6749,7 +6753,7 @@
       <c r="A457">
         <v>8231</v>
       </c>
-      <c r="B457" s="43" t="s">
+      <c r="B457" s="45" t="s">
         <v>457</v>
       </c>
       <c r="C457">
@@ -6760,7 +6764,7 @@
       <c r="A458">
         <v>8232</v>
       </c>
-      <c r="B458" s="43" t="s">
+      <c r="B458" s="45" t="s">
         <v>458</v>
       </c>
       <c r="C458">
@@ -6771,7 +6775,7 @@
       <c r="A459">
         <v>8233</v>
       </c>
-      <c r="B459" s="43" t="s">
+      <c r="B459" s="45" t="s">
         <v>459</v>
       </c>
       <c r="C459">
@@ -6782,7 +6786,7 @@
       <c r="A460">
         <v>8281</v>
       </c>
-      <c r="B460" s="43" t="s">
+      <c r="B460" s="45" t="s">
         <v>460</v>
       </c>
       <c r="C460">
@@ -6793,7 +6797,7 @@
       <c r="A461">
         <v>8301</v>
       </c>
-      <c r="B461" s="43" t="s">
+      <c r="B461" s="45" t="s">
         <v>461</v>
       </c>
       <c r="C461">
@@ -6804,7 +6808,7 @@
       <c r="A462">
         <v>8311</v>
       </c>
-      <c r="B462" s="43" t="s">
+      <c r="B462" s="45" t="s">
         <v>462</v>
       </c>
       <c r="C462">
@@ -6815,7 +6819,7 @@
       <c r="A463">
         <v>8321</v>
       </c>
-      <c r="B463" s="43" t="s">
+      <c r="B463" s="45" t="s">
         <v>463</v>
       </c>
       <c r="C463">
@@ -6826,7 +6830,7 @@
       <c r="A464">
         <v>8339</v>
       </c>
-      <c r="B464" s="43" t="s">
+      <c r="B464" s="45" t="s">
         <v>464</v>
       </c>
       <c r="C464">
@@ -6837,7 +6841,7 @@
       <c r="A465">
         <v>8401</v>
       </c>
-      <c r="B465" s="43" t="s">
+      <c r="B465" s="45" t="s">
         <v>465</v>
       </c>
       <c r="C465">
@@ -6848,7 +6852,7 @@
       <c r="A466">
         <v>8411</v>
       </c>
-      <c r="B466" s="43" t="s">
+      <c r="B466" s="45" t="s">
         <v>466</v>
       </c>
       <c r="C466">
@@ -6859,7 +6863,7 @@
       <c r="A467">
         <v>8412</v>
       </c>
-      <c r="B467" s="43" t="s">
+      <c r="B467" s="45" t="s">
         <v>467</v>
       </c>
       <c r="C467">
@@ -6870,7 +6874,7 @@
       <c r="A468">
         <v>8413</v>
       </c>
-      <c r="B468" s="43" t="s">
+      <c r="B468" s="45" t="s">
         <v>468</v>
       </c>
       <c r="C468">
@@ -6881,7 +6885,7 @@
       <c r="A469">
         <v>8416</v>
       </c>
-      <c r="B469" s="43" t="s">
+      <c r="B469" s="45" t="s">
         <v>469</v>
       </c>
       <c r="C469">
@@ -6892,7 +6896,7 @@
       <c r="A470">
         <v>8417</v>
       </c>
-      <c r="B470" s="43" t="s">
+      <c r="B470" s="45" t="s">
         <v>470</v>
       </c>
       <c r="C470">
@@ -6903,7 +6907,7 @@
       <c r="A471">
         <v>8421</v>
       </c>
-      <c r="B471" s="43" t="s">
+      <c r="B471" s="45" t="s">
         <v>471</v>
       </c>
       <c r="C471">
@@ -6914,7 +6918,7 @@
       <c r="A472">
         <v>8423</v>
       </c>
-      <c r="B472" s="43" t="s">
+      <c r="B472" s="45" t="s">
         <v>472</v>
       </c>
       <c r="C472">
@@ -6925,7 +6929,7 @@
       <c r="A473">
         <v>8429</v>
       </c>
-      <c r="B473" s="43" t="s">
+      <c r="B473" s="45" t="s">
         <v>473</v>
       </c>
       <c r="C473">
@@ -6936,7 +6940,7 @@
       <c r="A474">
         <v>8484</v>
       </c>
-      <c r="B474" s="43" t="s">
+      <c r="B474" s="45" t="s">
         <v>474</v>
       </c>
       <c r="C474">
@@ -6947,7 +6951,7 @@
       <c r="A475">
         <v>8485</v>
       </c>
-      <c r="B475" s="43" t="s">
+      <c r="B475" s="45" t="s">
         <v>475</v>
       </c>
       <c r="C475">
@@ -6958,7 +6962,7 @@
       <c r="A476">
         <v>8491</v>
       </c>
-      <c r="B476" s="43" t="s">
+      <c r="B476" s="45" t="s">
         <v>476</v>
       </c>
       <c r="C476">
@@ -6969,7 +6973,7 @@
       <c r="A477">
         <v>8492</v>
       </c>
-      <c r="B477" s="43" t="s">
+      <c r="B477" s="45" t="s">
         <v>477</v>
       </c>
       <c r="C477">
@@ -6980,7 +6984,7 @@
       <c r="A478">
         <v>8493</v>
       </c>
-      <c r="B478" s="43" t="s">
+      <c r="B478" s="45" t="s">
         <v>478</v>
       </c>
       <c r="C478">
@@ -6991,7 +6995,7 @@
       <c r="A479">
         <v>8601</v>
       </c>
-      <c r="B479" s="43" t="s">
+      <c r="B479" s="45" t="s">
         <v>479</v>
       </c>
       <c r="C479">
@@ -7002,7 +7006,7 @@
       <c r="A480">
         <v>8611</v>
       </c>
-      <c r="B480" s="43" t="s">
+      <c r="B480" s="45" t="s">
         <v>480</v>
       </c>
       <c r="C480">
@@ -7013,7 +7017,7 @@
       <c r="A481">
         <v>8612</v>
       </c>
-      <c r="B481" s="43" t="s">
+      <c r="B481" s="45" t="s">
         <v>481</v>
       </c>
       <c r="C481">
@@ -7024,7 +7028,7 @@
       <c r="A482">
         <v>8621</v>
       </c>
-      <c r="B482" s="43" t="s">
+      <c r="B482" s="45" t="s">
         <v>482</v>
       </c>
       <c r="C482">
@@ -7035,7 +7039,7 @@
       <c r="A483">
         <v>8622</v>
       </c>
-      <c r="B483" s="43" t="s">
+      <c r="B483" s="45" t="s">
         <v>483</v>
       </c>
       <c r="C483">
@@ -7046,7 +7050,7 @@
       <c r="A484">
         <v>8623</v>
       </c>
-      <c r="B484" s="43" t="s">
+      <c r="B484" s="45" t="s">
         <v>484</v>
       </c>
       <c r="C484">
@@ -7057,7 +7061,7 @@
       <c r="A485">
         <v>8624</v>
       </c>
-      <c r="B485" s="43" t="s">
+      <c r="B485" s="45" t="s">
         <v>485</v>
       </c>
       <c r="C485">
@@ -7068,7 +7072,7 @@
       <c r="A486">
         <v>8625</v>
       </c>
-      <c r="B486" s="43" t="s">
+      <c r="B486" s="45" t="s">
         <v>486</v>
       </c>
       <c r="C486">
@@ -7079,7 +7083,7 @@
       <c r="A487">
         <v>8711</v>
       </c>
-      <c r="B487" s="43" t="s">
+      <c r="B487" s="45" t="s">
         <v>487</v>
       </c>
       <c r="C487">
@@ -7090,7 +7094,7 @@
       <c r="A488">
         <v>-1</v>
       </c>
-      <c r="B488" s="43" t="s">
+      <c r="B488" s="45" t="s">
         <v>488</v>
       </c>
       <c r="C488">
@@ -7101,7 +7105,7 @@
       <c r="A489">
         <v>9101</v>
       </c>
-      <c r="B489" s="43" t="s">
+      <c r="B489" s="45" t="s">
         <v>489</v>
       </c>
       <c r="C489">
@@ -7112,7 +7116,7 @@
       <c r="A490">
         <v>9102</v>
       </c>
-      <c r="B490" s="43" t="s">
+      <c r="B490" s="45" t="s">
         <v>490</v>
       </c>
       <c r="C490">
@@ -7123,7 +7127,7 @@
       <c r="A491">
         <v>9109</v>
       </c>
-      <c r="B491" s="43" t="s">
+      <c r="B491" s="45" t="s">
         <v>491</v>
       </c>
       <c r="C491">
@@ -7134,7 +7138,7 @@
       <c r="A492">
         <v>9111</v>
       </c>
-      <c r="B492" s="43" t="s">
+      <c r="B492" s="45" t="s">
         <v>492</v>
       </c>
       <c r="C492">
@@ -7145,7 +7149,7 @@
       <c r="A493">
         <v>9112</v>
       </c>
-      <c r="B493" s="43" t="s">
+      <c r="B493" s="45" t="s">
         <v>493</v>
       </c>
       <c r="C493">
@@ -7156,7 +7160,7 @@
       <c r="A494">
         <v>9113</v>
       </c>
-      <c r="B494" s="43" t="s">
+      <c r="B494" s="45" t="s">
         <v>494</v>
       </c>
       <c r="C494">
@@ -7167,7 +7171,7 @@
       <c r="A495">
         <v>9131</v>
       </c>
-      <c r="B495" s="43" t="s">
+      <c r="B495" s="45" t="s">
         <v>495</v>
       </c>
       <c r="C495">
@@ -7178,7 +7182,7 @@
       <c r="A496">
         <v>9141</v>
       </c>
-      <c r="B496" s="43" t="s">
+      <c r="B496" s="45" t="s">
         <v>496</v>
       </c>
       <c r="C496">
@@ -7189,7 +7193,7 @@
       <c r="A497">
         <v>9142</v>
       </c>
-      <c r="B497" s="43" t="s">
+      <c r="B497" s="45" t="s">
         <v>497</v>
       </c>
       <c r="C497">
@@ -7200,7 +7204,7 @@
       <c r="A498">
         <v>9143</v>
       </c>
-      <c r="B498" s="43" t="s">
+      <c r="B498" s="45" t="s">
         <v>498</v>
       </c>
       <c r="C498">
@@ -7211,7 +7215,7 @@
       <c r="A499">
         <v>9144</v>
       </c>
-      <c r="B499" s="43" t="s">
+      <c r="B499" s="45" t="s">
         <v>499</v>
       </c>
       <c r="C499">
@@ -7222,7 +7226,7 @@
       <c r="A500">
         <v>9151</v>
       </c>
-      <c r="B500" s="43" t="s">
+      <c r="B500" s="45" t="s">
         <v>500</v>
       </c>
       <c r="C500">
@@ -7233,7 +7237,7 @@
       <c r="A501">
         <v>9152</v>
       </c>
-      <c r="B501" s="43" t="s">
+      <c r="B501" s="45" t="s">
         <v>501</v>
       </c>
       <c r="C501">
@@ -7244,7 +7248,7 @@
       <c r="A502">
         <v>9153</v>
       </c>
-      <c r="B502" s="43" t="s">
+      <c r="B502" s="45" t="s">
         <v>502</v>
       </c>
       <c r="C502">
@@ -7255,7 +7259,7 @@
       <c r="A503">
         <v>9154</v>
       </c>
-      <c r="B503" s="43" t="s">
+      <c r="B503" s="45" t="s">
         <v>503</v>
       </c>
       <c r="C503">
@@ -7266,7 +7270,7 @@
       <c r="A504">
         <v>9191</v>
       </c>
-      <c r="B504" s="43" t="s">
+      <c r="B504" s="45" t="s">
         <v>504</v>
       </c>
       <c r="C504">
@@ -7277,7 +7281,7 @@
       <c r="A505">
         <v>9192</v>
       </c>
-      <c r="B505" s="43" t="s">
+      <c r="B505" s="45" t="s">
         <v>505</v>
       </c>
       <c r="C505">
@@ -7288,7 +7292,7 @@
       <c r="A506">
         <v>9193</v>
       </c>
-      <c r="B506" s="43" t="s">
+      <c r="B506" s="45" t="s">
         <v>506</v>
       </c>
       <c r="C506">
@@ -7299,7 +7303,7 @@
       <c r="A507">
         <v>9501</v>
       </c>
-      <c r="B507" s="43" t="s">
+      <c r="B507" s="45" t="s">
         <v>507</v>
       </c>
       <c r="C507">
@@ -7310,7 +7314,7 @@
       <c r="A508">
         <v>9502</v>
       </c>
-      <c r="B508" s="43" t="s">
+      <c r="B508" s="45" t="s">
         <v>508</v>
       </c>
       <c r="C508">
@@ -7321,7 +7325,7 @@
       <c r="A509">
         <v>9503</v>
       </c>
-      <c r="B509" s="43" t="s">
+      <c r="B509" s="45" t="s">
         <v>509</v>
       </c>
       <c r="C509">
@@ -7332,7 +7336,7 @@
       <c r="A510">
         <v>9511</v>
       </c>
-      <c r="B510" s="43" t="s">
+      <c r="B510" s="45" t="s">
         <v>510</v>
       </c>
       <c r="C510">
@@ -7343,7 +7347,7 @@
       <c r="A511">
         <v>9513</v>
       </c>
-      <c r="B511" s="43" t="s">
+      <c r="B511" s="45" t="s">
         <v>511</v>
       </c>
       <c r="C511">
@@ -7354,7 +7358,7 @@
       <c r="A512">
         <v>9531</v>
       </c>
-      <c r="B512" s="43" t="s">
+      <c r="B512" s="45" t="s">
         <v>512</v>
       </c>
       <c r="C512">
@@ -7365,7 +7369,7 @@
       <c r="A513">
         <v>9541</v>
       </c>
-      <c r="B513" s="43" t="s">
+      <c r="B513" s="45" t="s">
         <v>513</v>
       </c>
       <c r="C513">
@@ -7376,7 +7380,7 @@
       <c r="A514">
         <v>9542</v>
       </c>
-      <c r="B514" s="43" t="s">
+      <c r="B514" s="45" t="s">
         <v>514</v>
       </c>
       <c r="C514">
@@ -7387,7 +7391,7 @@
       <c r="A515">
         <v>9543</v>
       </c>
-      <c r="B515" s="43" t="s">
+      <c r="B515" s="45" t="s">
         <v>515</v>
       </c>
       <c r="C515">
@@ -7398,7 +7402,7 @@
       <c r="A516">
         <v>9911</v>
       </c>
-      <c r="B516" s="43" t="s">
+      <c r="B516" s="45" t="s">
         <v>516</v>
       </c>
       <c r="C516">
@@ -7409,7 +7413,7 @@
       <c r="A517">
         <v>9912</v>
       </c>
-      <c r="B517" s="43" t="s">
+      <c r="B517" s="45" t="s">
         <v>517</v>
       </c>
       <c r="C517">
@@ -7420,7 +7424,7 @@
       <c r="A518">
         <v>9913</v>
       </c>
-      <c r="B518" s="43" t="s">
+      <c r="B518" s="45" t="s">
         <v>518</v>
       </c>
       <c r="C518">
@@ -7431,7 +7435,7 @@
       <c r="A519">
         <v>9914</v>
       </c>
-      <c r="B519" s="43" t="s">
+      <c r="B519" s="45" t="s">
         <v>519</v>
       </c>
       <c r="C519">
@@ -7442,7 +7446,7 @@
       <c r="A520">
         <v>9921</v>
       </c>
-      <c r="B520" s="43" t="s">
+      <c r="B520" s="45" t="s">
         <v>520</v>
       </c>
       <c r="C520">
@@ -7453,7 +7457,7 @@
       <c r="A521">
         <v>9922</v>
       </c>
-      <c r="B521" s="43" t="s">
+      <c r="B521" s="45" t="s">
         <v>521</v>
       </c>
       <c r="C521">
@@ -7464,7 +7468,7 @@
       <c r="A522">
         <v>-1</v>
       </c>
-      <c r="B522" s="43" t="s">
+      <c r="B522" s="45" t="s">
         <v>522</v>
       </c>
       <c r="C522">
@@ -7475,7 +7479,7 @@
       <c r="A523">
         <v>9999</v>
       </c>
-      <c r="B523" s="43" t="s">
+      <c r="B523" s="45" t="s">
         <v>523</v>
       </c>
       <c r="C523">

--- a/+dataLH/test_files/readTest.xlsx
+++ b/+dataLH/test_files/readTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12095" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16820" uniqueCount="525">
   <si>
     <t>Code</t>
   </si>
@@ -1610,7 +1610,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1664,11 +1664,29 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1716,6 +1734,24 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1728,19 +1764,19 @@
   <dimension ref="A1:C584"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="true"/>
-    <col min="2" max="2" width="127.7109375" customWidth="true"/>
-    <col min="3" max="3" width="7.7109375" customWidth="true"/>
+    <col min="1" max="1" width="5.7109375" customWidth="true"/>
+    <col min="2" max="2" width="111.140625" customWidth="true"/>
+    <col min="3" max="3" width="8.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="63" t="s">
         <v>524</v>
       </c>
     </row>
@@ -1748,7 +1784,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="63" t="s">
         <v>2</v>
       </c>
       <c r="C2">
@@ -1759,7 +1795,7 @@
       <c r="A3">
         <v>-1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="63" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -1770,7 +1806,7 @@
       <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="63" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -1781,7 +1817,7 @@
       <c r="A5">
         <v>200</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="63" t="s">
         <v>5</v>
       </c>
       <c r="C5">
@@ -1792,7 +1828,7 @@
       <c r="A6">
         <v>300</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="63" t="s">
         <v>6</v>
       </c>
       <c r="C6">
@@ -1803,7 +1839,7 @@
       <c r="A7">
         <v>401</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C7">
@@ -1814,7 +1850,7 @@
       <c r="A8">
         <v>402</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="63" t="s">
         <v>8</v>
       </c>
       <c r="C8">
@@ -1825,7 +1861,7 @@
       <c r="A9">
         <v>403</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="63" t="s">
         <v>9</v>
       </c>
       <c r="C9">
@@ -1836,7 +1872,7 @@
       <c r="A10">
         <v>411</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="63" t="s">
         <v>10</v>
       </c>
       <c r="C10">
@@ -1847,7 +1883,7 @@
       <c r="A11">
         <v>412</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C11">
@@ -1858,7 +1894,7 @@
       <c r="A12">
         <v>413</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="63" t="s">
         <v>12</v>
       </c>
       <c r="C12">
@@ -1869,7 +1905,7 @@
       <c r="A13">
         <v>501</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="63" t="s">
         <v>13</v>
       </c>
       <c r="C13">
@@ -1880,7 +1916,7 @@
       <c r="A14">
         <v>502</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="63" t="s">
         <v>14</v>
       </c>
       <c r="C14">
@@ -1891,7 +1927,7 @@
       <c r="A15">
         <v>503</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="63" t="s">
         <v>15</v>
       </c>
       <c r="C15">
@@ -1902,7 +1938,7 @@
       <c r="A16">
         <v>511</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="63" t="s">
         <v>16</v>
       </c>
       <c r="C16">
@@ -1913,7 +1949,7 @@
       <c r="A17">
         <v>512</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="63" t="s">
         <v>17</v>
       </c>
       <c r="C17">
@@ -1924,7 +1960,7 @@
       <c r="A18">
         <v>513</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="63" t="s">
         <v>18</v>
       </c>
       <c r="C18">
@@ -1935,7 +1971,7 @@
       <c r="A19">
         <v>-1</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="63" t="s">
         <v>19</v>
       </c>
       <c r="C19">
@@ -1946,7 +1982,7 @@
       <c r="A20">
         <v>1111</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="63" t="s">
         <v>20</v>
       </c>
       <c r="C20">
@@ -1957,7 +1993,7 @@
       <c r="A21">
         <v>1112</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="63" t="s">
         <v>21</v>
       </c>
       <c r="C21">
@@ -1968,7 +2004,7 @@
       <c r="A22">
         <v>1113</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="63" t="s">
         <v>22</v>
       </c>
       <c r="C22">
@@ -1979,7 +2015,7 @@
       <c r="A23">
         <v>1122</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="63" t="s">
         <v>23</v>
       </c>
       <c r="C23">
@@ -1990,7 +2026,7 @@
       <c r="A24">
         <v>1123</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="63" t="s">
         <v>24</v>
       </c>
       <c r="C24">
@@ -2001,7 +2037,7 @@
       <c r="A25">
         <v>1130</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="63" t="s">
         <v>25</v>
       </c>
       <c r="C25">
@@ -2012,7 +2048,7 @@
       <c r="A26">
         <v>1140</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="63" t="s">
         <v>27</v>
       </c>
       <c r="C26">
@@ -2023,7 +2059,7 @@
       <c r="A27">
         <v>1210</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="63" t="s">
         <v>28</v>
       </c>
       <c r="C27">
@@ -2034,7 +2070,7 @@
       <c r="A28">
         <v>1219</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="63" t="s">
         <v>29</v>
       </c>
       <c r="C28">
@@ -2045,7 +2081,7 @@
       <c r="A29">
         <v>1220</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="63" t="s">
         <v>30</v>
       </c>
       <c r="C29">
@@ -2056,7 +2092,7 @@
       <c r="A30">
         <v>1230</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="63" t="s">
         <v>31</v>
       </c>
       <c r="C30">
@@ -2067,7 +2103,7 @@
       <c r="A31">
         <v>1310</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="63" t="s">
         <v>32</v>
       </c>
       <c r="C31">
@@ -2078,7 +2114,7 @@
       <c r="A32">
         <v>1320</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="63" t="s">
         <v>33</v>
       </c>
       <c r="C32">
@@ -2089,7 +2125,7 @@
       <c r="A33">
         <v>-1</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="63" t="s">
         <v>34</v>
       </c>
       <c r="C33">
@@ -2100,7 +2136,7 @@
       <c r="A34">
         <v>2011</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="63" t="s">
         <v>35</v>
       </c>
       <c r="C34">
@@ -2111,7 +2147,7 @@
       <c r="A35">
         <v>2012</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="63" t="s">
         <v>36</v>
       </c>
       <c r="C35">
@@ -2122,7 +2158,7 @@
       <c r="A36">
         <v>2021</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="63" t="s">
         <v>37</v>
       </c>
       <c r="C36">
@@ -2133,7 +2169,7 @@
       <c r="A37">
         <v>2111</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="63" t="s">
         <v>38</v>
       </c>
       <c r="C37">
@@ -2144,7 +2180,7 @@
       <c r="A38">
         <v>2112</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C38">
@@ -2155,7 +2191,7 @@
       <c r="A39">
         <v>2121</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="63" t="s">
         <v>40</v>
       </c>
       <c r="C39">
@@ -2166,7 +2202,7 @@
       <c r="A40">
         <v>2122</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="63" t="s">
         <v>41</v>
       </c>
       <c r="C40">
@@ -2177,7 +2213,7 @@
       <c r="A41">
         <v>2123</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="63" t="s">
         <v>42</v>
       </c>
       <c r="C41">
@@ -2188,7 +2224,7 @@
       <c r="A42">
         <v>2124</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="63" t="s">
         <v>43</v>
       </c>
       <c r="C42">
@@ -2199,7 +2235,7 @@
       <c r="A43">
         <v>2125</v>
       </c>
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="63" t="s">
         <v>44</v>
       </c>
       <c r="C43">
@@ -2210,7 +2246,7 @@
       <c r="A44">
         <v>2131</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="63" t="s">
         <v>45</v>
       </c>
       <c r="C44">
@@ -2221,7 +2257,7 @@
       <c r="A45">
         <v>2132</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="63" t="s">
         <v>46</v>
       </c>
       <c r="C45">
@@ -2232,7 +2268,7 @@
       <c r="A46">
         <v>2133</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="63" t="s">
         <v>47</v>
       </c>
       <c r="C46">
@@ -2243,7 +2279,7 @@
       <c r="A47">
         <v>2134</v>
       </c>
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="63" t="s">
         <v>48</v>
       </c>
       <c r="C47">
@@ -2254,7 +2290,7 @@
       <c r="A48">
         <v>2140</v>
       </c>
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="63" t="s">
         <v>49</v>
       </c>
       <c r="C48">
@@ -2265,7 +2301,7 @@
       <c r="A49">
         <v>2141</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="63" t="s">
         <v>50</v>
       </c>
       <c r="C49">
@@ -2276,7 +2312,7 @@
       <c r="A50">
         <v>2142</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="63" t="s">
         <v>51</v>
       </c>
       <c r="C50">
@@ -2287,7 +2323,7 @@
       <c r="A51">
         <v>2143</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="63" t="s">
         <v>52</v>
       </c>
       <c r="C51">
@@ -2298,7 +2334,7 @@
       <c r="A52">
         <v>2144</v>
       </c>
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="63" t="s">
         <v>53</v>
       </c>
       <c r="C52">
@@ -2309,7 +2345,7 @@
       <c r="A53">
         <v>2145</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="63" t="s">
         <v>54</v>
       </c>
       <c r="C53">
@@ -2320,7 +2356,7 @@
       <c r="A54">
         <v>2146</v>
       </c>
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="63" t="s">
         <v>55</v>
       </c>
       <c r="C54">
@@ -2331,7 +2367,7 @@
       <c r="A55">
         <v>2147</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="63" t="s">
         <v>56</v>
       </c>
       <c r="C55">
@@ -2342,7 +2378,7 @@
       <c r="A56">
         <v>2148</v>
       </c>
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="63" t="s">
         <v>57</v>
       </c>
       <c r="C56">
@@ -2353,7 +2389,7 @@
       <c r="A57">
         <v>2149</v>
       </c>
-      <c r="B57" s="45" t="s">
+      <c r="B57" s="63" t="s">
         <v>58</v>
       </c>
       <c r="C57">
@@ -2364,7 +2400,7 @@
       <c r="A58">
         <v>2151</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="63" t="s">
         <v>59</v>
       </c>
       <c r="C58">
@@ -2375,7 +2411,7 @@
       <c r="A59">
         <v>2152</v>
       </c>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="63" t="s">
         <v>60</v>
       </c>
       <c r="C59">
@@ -2386,7 +2422,7 @@
       <c r="A60">
         <v>2153</v>
       </c>
-      <c r="B60" s="45" t="s">
+      <c r="B60" s="63" t="s">
         <v>61</v>
       </c>
       <c r="C60">
@@ -2397,7 +2433,7 @@
       <c r="A61">
         <v>2211</v>
       </c>
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="63" t="s">
         <v>62</v>
       </c>
       <c r="C61">
@@ -2408,7 +2444,7 @@
       <c r="A62">
         <v>2221</v>
       </c>
-      <c r="B62" s="45" t="s">
+      <c r="B62" s="63" t="s">
         <v>63</v>
       </c>
       <c r="C62">
@@ -2419,7 +2455,7 @@
       <c r="A63">
         <v>2231</v>
       </c>
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="63" t="s">
         <v>64</v>
       </c>
       <c r="C63">
@@ -2430,7 +2466,7 @@
       <c r="A64">
         <v>2232</v>
       </c>
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="63" t="s">
         <v>65</v>
       </c>
       <c r="C64">
@@ -2441,7 +2477,7 @@
       <c r="A65">
         <v>2233</v>
       </c>
-      <c r="B65" s="45" t="s">
+      <c r="B65" s="63" t="s">
         <v>66</v>
       </c>
       <c r="C65">
@@ -2452,7 +2488,7 @@
       <c r="A66">
         <v>2234</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="63" t="s">
         <v>67</v>
       </c>
       <c r="C66">
@@ -2463,7 +2499,7 @@
       <c r="A67">
         <v>2235</v>
       </c>
-      <c r="B67" s="45" t="s">
+      <c r="B67" s="63" t="s">
         <v>68</v>
       </c>
       <c r="C67">
@@ -2474,7 +2510,7 @@
       <c r="A68">
         <v>2236</v>
       </c>
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="63" t="s">
         <v>69</v>
       </c>
       <c r="C68">
@@ -2485,7 +2521,7 @@
       <c r="A69">
         <v>2237</v>
       </c>
-      <c r="B69" s="45" t="s">
+      <c r="B69" s="63" t="s">
         <v>70</v>
       </c>
       <c r="C69">
@@ -2496,7 +2532,7 @@
       <c r="A70">
         <v>2311</v>
       </c>
-      <c r="B70" s="45" t="s">
+      <c r="B70" s="63" t="s">
         <v>71</v>
       </c>
       <c r="C70">
@@ -2507,7 +2543,7 @@
       <c r="A71">
         <v>2312</v>
       </c>
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="63" t="s">
         <v>72</v>
       </c>
       <c r="C71">
@@ -2518,7 +2554,7 @@
       <c r="A72">
         <v>2313</v>
       </c>
-      <c r="B72" s="45" t="s">
+      <c r="B72" s="63" t="s">
         <v>73</v>
       </c>
       <c r="C72">
@@ -2529,7 +2565,7 @@
       <c r="A73">
         <v>2321</v>
       </c>
-      <c r="B73" s="45" t="s">
+      <c r="B73" s="63" t="s">
         <v>74</v>
       </c>
       <c r="C73">
@@ -2540,7 +2576,7 @@
       <c r="A74">
         <v>2330</v>
       </c>
-      <c r="B74" s="45" t="s">
+      <c r="B74" s="63" t="s">
         <v>75</v>
       </c>
       <c r="C74">
@@ -2551,7 +2587,7 @@
       <c r="A75">
         <v>2340</v>
       </c>
-      <c r="B75" s="45" t="s">
+      <c r="B75" s="63" t="s">
         <v>76</v>
       </c>
       <c r="C75">
@@ -2562,7 +2598,7 @@
       <c r="A76">
         <v>2391</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="63" t="s">
         <v>77</v>
       </c>
       <c r="C76">
@@ -2573,7 +2609,7 @@
       <c r="A77">
         <v>2392</v>
       </c>
-      <c r="B77" s="45" t="s">
+      <c r="B77" s="63" t="s">
         <v>78</v>
       </c>
       <c r="C77">
@@ -2584,7 +2620,7 @@
       <c r="A78">
         <v>2394</v>
       </c>
-      <c r="B78" s="45" t="s">
+      <c r="B78" s="63" t="s">
         <v>79</v>
       </c>
       <c r="C78">
@@ -2595,7 +2631,7 @@
       <c r="A79">
         <v>2410</v>
       </c>
-      <c r="B79" s="45" t="s">
+      <c r="B79" s="63" t="s">
         <v>80</v>
       </c>
       <c r="C79">
@@ -2606,7 +2642,7 @@
       <c r="A80">
         <v>2412</v>
       </c>
-      <c r="B80" s="45" t="s">
+      <c r="B80" s="63" t="s">
         <v>81</v>
       </c>
       <c r="C80">
@@ -2617,7 +2653,7 @@
       <c r="A81">
         <v>2419</v>
       </c>
-      <c r="B81" s="45" t="s">
+      <c r="B81" s="63" t="s">
         <v>82</v>
       </c>
       <c r="C81">
@@ -2628,7 +2664,7 @@
       <c r="A82">
         <v>2421</v>
       </c>
-      <c r="B82" s="45" t="s">
+      <c r="B82" s="63" t="s">
         <v>83</v>
       </c>
       <c r="C82">
@@ -2639,7 +2675,7 @@
       <c r="A83">
         <v>2422</v>
       </c>
-      <c r="B83" s="45" t="s">
+      <c r="B83" s="63" t="s">
         <v>84</v>
       </c>
       <c r="C83">
@@ -2650,7 +2686,7 @@
       <c r="A84">
         <v>2423</v>
       </c>
-      <c r="B84" s="45" t="s">
+      <c r="B84" s="63" t="s">
         <v>85</v>
       </c>
       <c r="C84">
@@ -2661,7 +2697,7 @@
       <c r="A85">
         <v>2511</v>
       </c>
-      <c r="B85" s="45" t="s">
+      <c r="B85" s="63" t="s">
         <v>86</v>
       </c>
       <c r="C85">
@@ -2672,7 +2708,7 @@
       <c r="A86">
         <v>2512</v>
       </c>
-      <c r="B86" s="45" t="s">
+      <c r="B86" s="63" t="s">
         <v>87</v>
       </c>
       <c r="C86">
@@ -2683,7 +2719,7 @@
       <c r="A87">
         <v>2513</v>
       </c>
-      <c r="B87" s="45" t="s">
+      <c r="B87" s="63" t="s">
         <v>88</v>
       </c>
       <c r="C87">
@@ -2694,7 +2730,7 @@
       <c r="A88">
         <v>2514</v>
       </c>
-      <c r="B88" s="45" t="s">
+      <c r="B88" s="63" t="s">
         <v>89</v>
       </c>
       <c r="C88">
@@ -2705,7 +2741,7 @@
       <c r="A89">
         <v>2515</v>
       </c>
-      <c r="B89" s="45" t="s">
+      <c r="B89" s="63" t="s">
         <v>90</v>
       </c>
       <c r="C89">
@@ -2716,7 +2752,7 @@
       <c r="A90">
         <v>2516</v>
       </c>
-      <c r="B90" s="45" t="s">
+      <c r="B90" s="63" t="s">
         <v>91</v>
       </c>
       <c r="C90">
@@ -2727,7 +2763,7 @@
       <c r="A91">
         <v>2521</v>
       </c>
-      <c r="B91" s="45" t="s">
+      <c r="B91" s="63" t="s">
         <v>92</v>
       </c>
       <c r="C91">
@@ -2738,7 +2774,7 @@
       <c r="A92">
         <v>2522</v>
       </c>
-      <c r="B92" s="45" t="s">
+      <c r="B92" s="63" t="s">
         <v>93</v>
       </c>
       <c r="C92">
@@ -2749,7 +2785,7 @@
       <c r="A93">
         <v>2523</v>
       </c>
-      <c r="B93" s="45" t="s">
+      <c r="B93" s="63" t="s">
         <v>94</v>
       </c>
       <c r="C93">
@@ -2760,7 +2796,7 @@
       <c r="A94">
         <v>2524</v>
       </c>
-      <c r="B94" s="45" t="s">
+      <c r="B94" s="63" t="s">
         <v>95</v>
       </c>
       <c r="C94">
@@ -2771,7 +2807,7 @@
       <c r="A95">
         <v>2525</v>
       </c>
-      <c r="B95" s="45" t="s">
+      <c r="B95" s="63" t="s">
         <v>96</v>
       </c>
       <c r="C95">
@@ -2782,7 +2818,7 @@
       <c r="A96">
         <v>2531</v>
       </c>
-      <c r="B96" s="45" t="s">
+      <c r="B96" s="63" t="s">
         <v>97</v>
       </c>
       <c r="C96">
@@ -2793,7 +2829,7 @@
       <c r="A97">
         <v>2611</v>
       </c>
-      <c r="B97" s="45" t="s">
+      <c r="B97" s="63" t="s">
         <v>98</v>
       </c>
       <c r="C97">
@@ -2804,7 +2840,7 @@
       <c r="A98">
         <v>2612</v>
       </c>
-      <c r="B98" s="45" t="s">
+      <c r="B98" s="63" t="s">
         <v>99</v>
       </c>
       <c r="C98">
@@ -2815,7 +2851,7 @@
       <c r="A99">
         <v>2613</v>
       </c>
-      <c r="B99" s="45" t="s">
+      <c r="B99" s="63" t="s">
         <v>100</v>
       </c>
       <c r="C99">
@@ -2826,7 +2862,7 @@
       <c r="A100">
         <v>2614</v>
       </c>
-      <c r="B100" s="45" t="s">
+      <c r="B100" s="63" t="s">
         <v>101</v>
       </c>
       <c r="C100">
@@ -2837,7 +2873,7 @@
       <c r="A101">
         <v>2615</v>
       </c>
-      <c r="B101" s="45" t="s">
+      <c r="B101" s="63" t="s">
         <v>102</v>
       </c>
       <c r="C101">
@@ -2848,7 +2884,7 @@
       <c r="A102">
         <v>2616</v>
       </c>
-      <c r="B102" s="45" t="s">
+      <c r="B102" s="63" t="s">
         <v>103</v>
       </c>
       <c r="C102">
@@ -2859,7 +2895,7 @@
       <c r="A103">
         <v>2617</v>
       </c>
-      <c r="B103" s="45" t="s">
+      <c r="B103" s="63" t="s">
         <v>104</v>
       </c>
       <c r="C103">
@@ -2870,7 +2906,7 @@
       <c r="A104">
         <v>2621</v>
       </c>
-      <c r="B104" s="45" t="s">
+      <c r="B104" s="63" t="s">
         <v>105</v>
       </c>
       <c r="C104">
@@ -2881,7 +2917,7 @@
       <c r="A105">
         <v>2622</v>
       </c>
-      <c r="B105" s="45" t="s">
+      <c r="B105" s="63" t="s">
         <v>106</v>
       </c>
       <c r="C105">
@@ -2892,7 +2928,7 @@
       <c r="A106">
         <v>2623</v>
       </c>
-      <c r="B106" s="45" t="s">
+      <c r="B106" s="63" t="s">
         <v>107</v>
       </c>
       <c r="C106">
@@ -2903,7 +2939,7 @@
       <c r="A107">
         <v>2624</v>
       </c>
-      <c r="B107" s="45" t="s">
+      <c r="B107" s="63" t="s">
         <v>108</v>
       </c>
       <c r="C107">
@@ -2914,7 +2950,7 @@
       <c r="A108">
         <v>2625</v>
       </c>
-      <c r="B108" s="45" t="s">
+      <c r="B108" s="63" t="s">
         <v>109</v>
       </c>
       <c r="C108">
@@ -2925,7 +2961,7 @@
       <c r="A109">
         <v>2627</v>
       </c>
-      <c r="B109" s="45" t="s">
+      <c r="B109" s="63" t="s">
         <v>110</v>
       </c>
       <c r="C109">
@@ -2936,7 +2972,7 @@
       <c r="A110">
         <v>2631</v>
       </c>
-      <c r="B110" s="45" t="s">
+      <c r="B110" s="63" t="s">
         <v>111</v>
       </c>
       <c r="C110">
@@ -2947,7 +2983,7 @@
       <c r="A111">
         <v>-1</v>
       </c>
-      <c r="B111" s="45" t="s">
+      <c r="B111" s="63" t="s">
         <v>112</v>
       </c>
       <c r="C111">
@@ -2958,7 +2994,7 @@
       <c r="A112">
         <v>3001</v>
       </c>
-      <c r="B112" s="45" t="s">
+      <c r="B112" s="63" t="s">
         <v>113</v>
       </c>
       <c r="C112">
@@ -2969,7 +3005,7 @@
       <c r="A113">
         <v>3003</v>
       </c>
-      <c r="B113" s="45" t="s">
+      <c r="B113" s="63" t="s">
         <v>114</v>
       </c>
       <c r="C113">
@@ -2980,7 +3016,7 @@
       <c r="A114">
         <v>3011</v>
       </c>
-      <c r="B114" s="45" t="s">
+      <c r="B114" s="63" t="s">
         <v>115</v>
       </c>
       <c r="C114">
@@ -2991,7 +3027,7 @@
       <c r="A115">
         <v>3012</v>
       </c>
-      <c r="B115" s="45" t="s">
+      <c r="B115" s="63" t="s">
         <v>116</v>
       </c>
       <c r="C115">
@@ -3002,7 +3038,7 @@
       <c r="A116">
         <v>3111</v>
       </c>
-      <c r="B116" s="45" t="s">
+      <c r="B116" s="63" t="s">
         <v>117</v>
       </c>
       <c r="C116">
@@ -3013,7 +3049,7 @@
       <c r="A117">
         <v>3112</v>
       </c>
-      <c r="B117" s="45" t="s">
+      <c r="B117" s="63" t="s">
         <v>118</v>
       </c>
       <c r="C117">
@@ -3024,7 +3060,7 @@
       <c r="A118">
         <v>3113</v>
       </c>
-      <c r="B118" s="45" t="s">
+      <c r="B118" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C118">
@@ -3035,7 +3071,7 @@
       <c r="A119">
         <v>3114</v>
       </c>
-      <c r="B119" s="45" t="s">
+      <c r="B119" s="63" t="s">
         <v>120</v>
       </c>
       <c r="C119">
@@ -3046,7 +3082,7 @@
       <c r="A120">
         <v>3115</v>
       </c>
-      <c r="B120" s="45" t="s">
+      <c r="B120" s="63" t="s">
         <v>121</v>
       </c>
       <c r="C120">
@@ -3057,7 +3093,7 @@
       <c r="A121">
         <v>3116</v>
       </c>
-      <c r="B121" s="45" t="s">
+      <c r="B121" s="63" t="s">
         <v>122</v>
       </c>
       <c r="C121">
@@ -3068,7 +3104,7 @@
       <c r="A122">
         <v>3117</v>
       </c>
-      <c r="B122" s="45" t="s">
+      <c r="B122" s="63" t="s">
         <v>123</v>
       </c>
       <c r="C122">
@@ -3079,7 +3115,7 @@
       <c r="A123">
         <v>3121</v>
       </c>
-      <c r="B123" s="45" t="s">
+      <c r="B123" s="63" t="s">
         <v>124</v>
       </c>
       <c r="C123">
@@ -3090,7 +3126,7 @@
       <c r="A124">
         <v>3122</v>
       </c>
-      <c r="B124" s="45" t="s">
+      <c r="B124" s="63" t="s">
         <v>125</v>
       </c>
       <c r="C124">
@@ -3101,7 +3137,7 @@
       <c r="A125">
         <v>3123</v>
       </c>
-      <c r="B125" s="45" t="s">
+      <c r="B125" s="63" t="s">
         <v>126</v>
       </c>
       <c r="C125">
@@ -3112,7 +3148,7 @@
       <c r="A126">
         <v>3131</v>
       </c>
-      <c r="B126" s="45" t="s">
+      <c r="B126" s="63" t="s">
         <v>127</v>
       </c>
       <c r="C126">
@@ -3123,7 +3159,7 @@
       <c r="A127">
         <v>3132</v>
       </c>
-      <c r="B127" s="45" t="s">
+      <c r="B127" s="63" t="s">
         <v>128</v>
       </c>
       <c r="C127">
@@ -3134,7 +3170,7 @@
       <c r="A128">
         <v>3134</v>
       </c>
-      <c r="B128" s="45" t="s">
+      <c r="B128" s="63" t="s">
         <v>129</v>
       </c>
       <c r="C128">
@@ -3145,7 +3181,7 @@
       <c r="A129">
         <v>3135</v>
       </c>
-      <c r="B129" s="45" t="s">
+      <c r="B129" s="63" t="s">
         <v>130</v>
       </c>
       <c r="C129">
@@ -3156,7 +3192,7 @@
       <c r="A130">
         <v>3136</v>
       </c>
-      <c r="B130" s="45" t="s">
+      <c r="B130" s="63" t="s">
         <v>131</v>
       </c>
       <c r="C130">
@@ -3167,7 +3203,7 @@
       <c r="A131">
         <v>3141</v>
       </c>
-      <c r="B131" s="45" t="s">
+      <c r="B131" s="63" t="s">
         <v>132</v>
       </c>
       <c r="C131">
@@ -3178,7 +3214,7 @@
       <c r="A132">
         <v>3142</v>
       </c>
-      <c r="B132" s="45" t="s">
+      <c r="B132" s="63" t="s">
         <v>133</v>
       </c>
       <c r="C132">
@@ -3189,7 +3225,7 @@
       <c r="A133">
         <v>3143</v>
       </c>
-      <c r="B133" s="45" t="s">
+      <c r="B133" s="63" t="s">
         <v>134</v>
       </c>
       <c r="C133">
@@ -3200,7 +3236,7 @@
       <c r="A134">
         <v>3144</v>
       </c>
-      <c r="B134" s="45" t="s">
+      <c r="B134" s="63" t="s">
         <v>135</v>
       </c>
       <c r="C134">
@@ -3211,7 +3247,7 @@
       <c r="A135">
         <v>3146</v>
       </c>
-      <c r="B135" s="45" t="s">
+      <c r="B135" s="63" t="s">
         <v>136</v>
       </c>
       <c r="C135">
@@ -3222,7 +3258,7 @@
       <c r="A136">
         <v>3147</v>
       </c>
-      <c r="B136" s="45" t="s">
+      <c r="B136" s="63" t="s">
         <v>137</v>
       </c>
       <c r="C136">
@@ -3233,7 +3269,7 @@
       <c r="A137">
         <v>3161</v>
       </c>
-      <c r="B137" s="45" t="s">
+      <c r="B137" s="63" t="s">
         <v>138</v>
       </c>
       <c r="C137">
@@ -3244,7 +3280,7 @@
       <c r="A138">
         <v>3162</v>
       </c>
-      <c r="B138" s="45" t="s">
+      <c r="B138" s="63" t="s">
         <v>139</v>
       </c>
       <c r="C138">
@@ -3255,7 +3291,7 @@
       <c r="A139">
         <v>3163</v>
       </c>
-      <c r="B139" s="45" t="s">
+      <c r="B139" s="63" t="s">
         <v>140</v>
       </c>
       <c r="C139">
@@ -3266,7 +3302,7 @@
       <c r="A140">
         <v>3171</v>
       </c>
-      <c r="B140" s="45" t="s">
+      <c r="B140" s="63" t="s">
         <v>141</v>
       </c>
       <c r="C140">
@@ -3277,7 +3313,7 @@
       <c r="A141">
         <v>3172</v>
       </c>
-      <c r="B141" s="45" t="s">
+      <c r="B141" s="63" t="s">
         <v>142</v>
       </c>
       <c r="C141">
@@ -3288,7 +3324,7 @@
       <c r="A142">
         <v>3189</v>
       </c>
-      <c r="B142" s="45" t="s">
+      <c r="B142" s="63" t="s">
         <v>143</v>
       </c>
       <c r="C142">
@@ -3299,7 +3335,7 @@
       <c r="A143">
         <v>3191</v>
       </c>
-      <c r="B143" s="45" t="s">
+      <c r="B143" s="63" t="s">
         <v>144</v>
       </c>
       <c r="C143">
@@ -3310,7 +3346,7 @@
       <c r="A144">
         <v>3192</v>
       </c>
-      <c r="B144" s="45" t="s">
+      <c r="B144" s="63" t="s">
         <v>145</v>
       </c>
       <c r="C144">
@@ -3321,7 +3357,7 @@
       <c r="A145">
         <v>3201</v>
       </c>
-      <c r="B145" s="45" t="s">
+      <c r="B145" s="63" t="s">
         <v>146</v>
       </c>
       <c r="C145">
@@ -3332,7 +3368,7 @@
       <c r="A146">
         <v>3210</v>
       </c>
-      <c r="B146" s="45" t="s">
+      <c r="B146" s="63" t="s">
         <v>147</v>
       </c>
       <c r="C146">
@@ -3343,7 +3379,7 @@
       <c r="A147">
         <v>3211</v>
       </c>
-      <c r="B147" s="45" t="s">
+      <c r="B147" s="63" t="s">
         <v>148</v>
       </c>
       <c r="C147">
@@ -3354,7 +3390,7 @@
       <c r="A148">
         <v>3212</v>
       </c>
-      <c r="B148" s="45" t="s">
+      <c r="B148" s="63" t="s">
         <v>149</v>
       </c>
       <c r="C148">
@@ -3365,7 +3401,7 @@
       <c r="A149">
         <v>3213</v>
       </c>
-      <c r="B149" s="45" t="s">
+      <c r="B149" s="63" t="s">
         <v>150</v>
       </c>
       <c r="C149">
@@ -3376,7 +3412,7 @@
       <c r="A150">
         <v>3214</v>
       </c>
-      <c r="B150" s="45" t="s">
+      <c r="B150" s="63" t="s">
         <v>151</v>
       </c>
       <c r="C150">
@@ -3387,7 +3423,7 @@
       <c r="A151">
         <v>3221</v>
       </c>
-      <c r="B151" s="45" t="s">
+      <c r="B151" s="63" t="s">
         <v>152</v>
       </c>
       <c r="C151">
@@ -3398,7 +3434,7 @@
       <c r="A152">
         <v>3222</v>
       </c>
-      <c r="B152" s="45" t="s">
+      <c r="B152" s="63" t="s">
         <v>153</v>
       </c>
       <c r="C152">
@@ -3409,7 +3445,7 @@
       <c r="A153">
         <v>3223</v>
       </c>
-      <c r="B153" s="45" t="s">
+      <c r="B153" s="63" t="s">
         <v>154</v>
       </c>
       <c r="C153">
@@ -3420,7 +3456,7 @@
       <c r="A154">
         <v>3224</v>
       </c>
-      <c r="B154" s="45" t="s">
+      <c r="B154" s="63" t="s">
         <v>155</v>
       </c>
       <c r="C154">
@@ -3431,7 +3467,7 @@
       <c r="A155">
         <v>3225</v>
       </c>
-      <c r="B155" s="45" t="s">
+      <c r="B155" s="63" t="s">
         <v>156</v>
       </c>
       <c r="C155">
@@ -3442,7 +3478,7 @@
       <c r="A156">
         <v>3231</v>
       </c>
-      <c r="B156" s="45" t="s">
+      <c r="B156" s="63" t="s">
         <v>157</v>
       </c>
       <c r="C156">
@@ -3453,7 +3489,7 @@
       <c r="A157">
         <v>3232</v>
       </c>
-      <c r="B157" s="45" t="s">
+      <c r="B157" s="63" t="s">
         <v>158</v>
       </c>
       <c r="C157">
@@ -3464,7 +3500,7 @@
       <c r="A158">
         <v>3241</v>
       </c>
-      <c r="B158" s="45" t="s">
+      <c r="B158" s="63" t="s">
         <v>159</v>
       </c>
       <c r="C158">
@@ -3475,7 +3511,7 @@
       <c r="A159">
         <v>3242</v>
       </c>
-      <c r="B159" s="45" t="s">
+      <c r="B159" s="63" t="s">
         <v>160</v>
       </c>
       <c r="C159">
@@ -3486,7 +3522,7 @@
       <c r="A160">
         <v>3250</v>
       </c>
-      <c r="B160" s="45" t="s">
+      <c r="B160" s="63" t="s">
         <v>161</v>
       </c>
       <c r="C160">
@@ -3497,7 +3533,7 @@
       <c r="A161">
         <v>3251</v>
       </c>
-      <c r="B161" s="45" t="s">
+      <c r="B161" s="63" t="s">
         <v>162</v>
       </c>
       <c r="C161">
@@ -3508,7 +3544,7 @@
       <c r="A162">
         <v>3252</v>
       </c>
-      <c r="B162" s="45" t="s">
+      <c r="B162" s="63" t="s">
         <v>163</v>
       </c>
       <c r="C162">
@@ -3519,7 +3555,7 @@
       <c r="A163">
         <v>3253</v>
       </c>
-      <c r="B163" s="45" t="s">
+      <c r="B163" s="63" t="s">
         <v>164</v>
       </c>
       <c r="C163">
@@ -3530,7 +3566,7 @@
       <c r="A164">
         <v>3281</v>
       </c>
-      <c r="B164" s="45" t="s">
+      <c r="B164" s="63" t="s">
         <v>165</v>
       </c>
       <c r="C164">
@@ -3541,7 +3577,7 @@
       <c r="A165">
         <v>3311</v>
       </c>
-      <c r="B165" s="45" t="s">
+      <c r="B165" s="63" t="s">
         <v>166</v>
       </c>
       <c r="C165">
@@ -3552,7 +3588,7 @@
       <c r="A166">
         <v>3312</v>
       </c>
-      <c r="B166" s="45" t="s">
+      <c r="B166" s="63" t="s">
         <v>167</v>
       </c>
       <c r="C166">
@@ -3563,7 +3599,7 @@
       <c r="A167">
         <v>3313</v>
       </c>
-      <c r="B167" s="45" t="s">
+      <c r="B167" s="63" t="s">
         <v>168</v>
       </c>
       <c r="C167">
@@ -3574,7 +3610,7 @@
       <c r="A168">
         <v>3321</v>
       </c>
-      <c r="B168" s="45" t="s">
+      <c r="B168" s="63" t="s">
         <v>169</v>
       </c>
       <c r="C168">
@@ -3585,7 +3621,7 @@
       <c r="A169">
         <v>3322</v>
       </c>
-      <c r="B169" s="45" t="s">
+      <c r="B169" s="63" t="s">
         <v>170</v>
       </c>
       <c r="C169">
@@ -3596,7 +3632,7 @@
       <c r="A170">
         <v>3331</v>
       </c>
-      <c r="B170" s="45" t="s">
+      <c r="B170" s="63" t="s">
         <v>171</v>
       </c>
       <c r="C170">
@@ -3607,7 +3643,7 @@
       <c r="A171">
         <v>3341</v>
       </c>
-      <c r="B171" s="45" t="s">
+      <c r="B171" s="63" t="s">
         <v>172</v>
       </c>
       <c r="C171">
@@ -3618,7 +3654,7 @@
       <c r="A172">
         <v>3411</v>
       </c>
-      <c r="B172" s="45" t="s">
+      <c r="B172" s="63" t="s">
         <v>173</v>
       </c>
       <c r="C172">
@@ -3629,7 +3665,7 @@
       <c r="A173">
         <v>3412</v>
       </c>
-      <c r="B173" s="45" t="s">
+      <c r="B173" s="63" t="s">
         <v>174</v>
       </c>
       <c r="C173">
@@ -3640,7 +3676,7 @@
       <c r="A174">
         <v>3413</v>
       </c>
-      <c r="B174" s="45" t="s">
+      <c r="B174" s="63" t="s">
         <v>175</v>
       </c>
       <c r="C174">
@@ -3651,7 +3687,7 @@
       <c r="A175">
         <v>3421</v>
       </c>
-      <c r="B175" s="45" t="s">
+      <c r="B175" s="63" t="s">
         <v>176</v>
       </c>
       <c r="C175">
@@ -3662,7 +3698,7 @@
       <c r="A176">
         <v>3422</v>
       </c>
-      <c r="B176" s="45" t="s">
+      <c r="B176" s="63" t="s">
         <v>177</v>
       </c>
       <c r="C176">
@@ -3673,7 +3709,7 @@
       <c r="A177">
         <v>3423</v>
       </c>
-      <c r="B177" s="45" t="s">
+      <c r="B177" s="63" t="s">
         <v>178</v>
       </c>
       <c r="C177">
@@ -3684,7 +3720,7 @@
       <c r="A178">
         <v>3424</v>
       </c>
-      <c r="B178" s="45" t="s">
+      <c r="B178" s="63" t="s">
         <v>179</v>
       </c>
       <c r="C178">
@@ -3695,7 +3731,7 @@
       <c r="A179">
         <v>3425</v>
       </c>
-      <c r="B179" s="45" t="s">
+      <c r="B179" s="63" t="s">
         <v>180</v>
       </c>
       <c r="C179">
@@ -3706,7 +3742,7 @@
       <c r="A180">
         <v>3426</v>
       </c>
-      <c r="B180" s="45" t="s">
+      <c r="B180" s="63" t="s">
         <v>181</v>
       </c>
       <c r="C180">
@@ -3717,7 +3753,7 @@
       <c r="A181">
         <v>3511</v>
       </c>
-      <c r="B181" s="45" t="s">
+      <c r="B181" s="63" t="s">
         <v>182</v>
       </c>
       <c r="C181">
@@ -3728,7 +3764,7 @@
       <c r="A182">
         <v>3512</v>
       </c>
-      <c r="B182" s="45" t="s">
+      <c r="B182" s="63" t="s">
         <v>183</v>
       </c>
       <c r="C182">
@@ -3739,7 +3775,7 @@
       <c r="A183">
         <v>3513</v>
       </c>
-      <c r="B183" s="45" t="s">
+      <c r="B183" s="63" t="s">
         <v>184</v>
       </c>
       <c r="C183">
@@ -3750,7 +3786,7 @@
       <c r="A184">
         <v>3514</v>
       </c>
-      <c r="B184" s="45" t="s">
+      <c r="B184" s="63" t="s">
         <v>185</v>
       </c>
       <c r="C184">
@@ -3761,7 +3797,7 @@
       <c r="A185">
         <v>3515</v>
       </c>
-      <c r="B185" s="45" t="s">
+      <c r="B185" s="63" t="s">
         <v>186</v>
       </c>
       <c r="C185">
@@ -3772,7 +3808,7 @@
       <c r="A186">
         <v>3516</v>
       </c>
-      <c r="B186" s="45" t="s">
+      <c r="B186" s="63" t="s">
         <v>187</v>
       </c>
       <c r="C186">
@@ -3783,7 +3819,7 @@
       <c r="A187">
         <v>3517</v>
       </c>
-      <c r="B187" s="45" t="s">
+      <c r="B187" s="63" t="s">
         <v>188</v>
       </c>
       <c r="C187">
@@ -3794,7 +3830,7 @@
       <c r="A188">
         <v>3518</v>
       </c>
-      <c r="B188" s="45" t="s">
+      <c r="B188" s="63" t="s">
         <v>189</v>
       </c>
       <c r="C188">
@@ -3805,7 +3841,7 @@
       <c r="A189">
         <v>3522</v>
       </c>
-      <c r="B189" s="45" t="s">
+      <c r="B189" s="63" t="s">
         <v>190</v>
       </c>
       <c r="C189">
@@ -3816,7 +3852,7 @@
       <c r="A190">
         <v>3523</v>
       </c>
-      <c r="B190" s="45" t="s">
+      <c r="B190" s="63" t="s">
         <v>191</v>
       </c>
       <c r="C190">
@@ -3827,7 +3863,7 @@
       <c r="A191">
         <v>3524</v>
       </c>
-      <c r="B191" s="45" t="s">
+      <c r="B191" s="63" t="s">
         <v>192</v>
       </c>
       <c r="C191">
@@ -3838,7 +3874,7 @@
       <c r="A192">
         <v>3525</v>
       </c>
-      <c r="B192" s="45" t="s">
+      <c r="B192" s="63" t="s">
         <v>193</v>
       </c>
       <c r="C192">
@@ -3849,7 +3885,7 @@
       <c r="A193">
         <v>3531</v>
       </c>
-      <c r="B193" s="45" t="s">
+      <c r="B193" s="63" t="s">
         <v>194</v>
       </c>
       <c r="C193">
@@ -3860,7 +3896,7 @@
       <c r="A194">
         <v>3532</v>
       </c>
-      <c r="B194" s="45" t="s">
+      <c r="B194" s="63" t="s">
         <v>195</v>
       </c>
       <c r="C194">
@@ -3871,7 +3907,7 @@
       <c r="A195">
         <v>3541</v>
       </c>
-      <c r="B195" s="45" t="s">
+      <c r="B195" s="63" t="s">
         <v>196</v>
       </c>
       <c r="C195">
@@ -3882,7 +3918,7 @@
       <c r="A196">
         <v>3542</v>
       </c>
-      <c r="B196" s="45" t="s">
+      <c r="B196" s="63" t="s">
         <v>197</v>
       </c>
       <c r="C196">
@@ -3893,7 +3929,7 @@
       <c r="A197">
         <v>3543</v>
       </c>
-      <c r="B197" s="45" t="s">
+      <c r="B197" s="63" t="s">
         <v>198</v>
       </c>
       <c r="C197">
@@ -3904,7 +3940,7 @@
       <c r="A198">
         <v>3544</v>
       </c>
-      <c r="B198" s="45" t="s">
+      <c r="B198" s="63" t="s">
         <v>199</v>
       </c>
       <c r="C198">
@@ -3915,7 +3951,7 @@
       <c r="A199">
         <v>3545</v>
       </c>
-      <c r="B199" s="45" t="s">
+      <c r="B199" s="63" t="s">
         <v>200</v>
       </c>
       <c r="C199">
@@ -3926,7 +3962,7 @@
       <c r="A200">
         <v>3546</v>
       </c>
-      <c r="B200" s="45" t="s">
+      <c r="B200" s="63" t="s">
         <v>201</v>
       </c>
       <c r="C200">
@@ -3937,7 +3973,7 @@
       <c r="A201">
         <v>3547</v>
       </c>
-      <c r="B201" s="45" t="s">
+      <c r="B201" s="63" t="s">
         <v>202</v>
       </c>
       <c r="C201">
@@ -3948,7 +3984,7 @@
       <c r="A202">
         <v>3548</v>
       </c>
-      <c r="B202" s="45" t="s">
+      <c r="B202" s="63" t="s">
         <v>203</v>
       </c>
       <c r="C202">
@@ -3959,7 +3995,7 @@
       <c r="A203">
         <v>3711</v>
       </c>
-      <c r="B203" s="45" t="s">
+      <c r="B203" s="63" t="s">
         <v>204</v>
       </c>
       <c r="C203">
@@ -3970,7 +4006,7 @@
       <c r="A204">
         <v>3712</v>
       </c>
-      <c r="B204" s="45" t="s">
+      <c r="B204" s="63" t="s">
         <v>205</v>
       </c>
       <c r="C204">
@@ -3981,7 +4017,7 @@
       <c r="A205">
         <v>3713</v>
       </c>
-      <c r="B205" s="45" t="s">
+      <c r="B205" s="63" t="s">
         <v>206</v>
       </c>
       <c r="C205">
@@ -3992,7 +4028,7 @@
       <c r="A206">
         <v>3721</v>
       </c>
-      <c r="B206" s="45" t="s">
+      <c r="B206" s="63" t="s">
         <v>207</v>
       </c>
       <c r="C206">
@@ -4003,7 +4039,7 @@
       <c r="A207">
         <v>3722</v>
       </c>
-      <c r="B207" s="45" t="s">
+      <c r="B207" s="63" t="s">
         <v>208</v>
       </c>
       <c r="C207">
@@ -4014,7 +4050,7 @@
       <c r="A208">
         <v>3723</v>
       </c>
-      <c r="B208" s="45" t="s">
+      <c r="B208" s="63" t="s">
         <v>209</v>
       </c>
       <c r="C208">
@@ -4025,7 +4061,7 @@
       <c r="A209">
         <v>3731</v>
       </c>
-      <c r="B209" s="45" t="s">
+      <c r="B209" s="63" t="s">
         <v>210</v>
       </c>
       <c r="C209">
@@ -4036,7 +4072,7 @@
       <c r="A210">
         <v>3732</v>
       </c>
-      <c r="B210" s="45" t="s">
+      <c r="B210" s="63" t="s">
         <v>211</v>
       </c>
       <c r="C210">
@@ -4047,7 +4083,7 @@
       <c r="A211">
         <v>3741</v>
       </c>
-      <c r="B211" s="45" t="s">
+      <c r="B211" s="63" t="s">
         <v>212</v>
       </c>
       <c r="C211">
@@ -4058,7 +4094,7 @@
       <c r="A212">
         <v>3742</v>
       </c>
-      <c r="B212" s="45" t="s">
+      <c r="B212" s="63" t="s">
         <v>213</v>
       </c>
       <c r="C212">
@@ -4069,7 +4105,7 @@
       <c r="A213">
         <v>3743</v>
       </c>
-      <c r="B213" s="45" t="s">
+      <c r="B213" s="63" t="s">
         <v>214</v>
       </c>
       <c r="C213">
@@ -4080,7 +4116,7 @@
       <c r="A214">
         <v>3751</v>
       </c>
-      <c r="B214" s="45" t="s">
+      <c r="B214" s="63" t="s">
         <v>215</v>
       </c>
       <c r="C214">
@@ -4091,7 +4127,7 @@
       <c r="A215">
         <v>3761</v>
       </c>
-      <c r="B215" s="45" t="s">
+      <c r="B215" s="63" t="s">
         <v>216</v>
       </c>
       <c r="C215">
@@ -4102,7 +4138,7 @@
       <c r="A216">
         <v>3762</v>
       </c>
-      <c r="B216" s="45" t="s">
+      <c r="B216" s="63" t="s">
         <v>217</v>
       </c>
       <c r="C216">
@@ -4113,7 +4149,7 @@
       <c r="A217">
         <v>3763</v>
       </c>
-      <c r="B217" s="45" t="s">
+      <c r="B217" s="63" t="s">
         <v>218</v>
       </c>
       <c r="C217">
@@ -4124,7 +4160,7 @@
       <c r="A218">
         <v>3764</v>
       </c>
-      <c r="B218" s="45" t="s">
+      <c r="B218" s="63" t="s">
         <v>219</v>
       </c>
       <c r="C218">
@@ -4135,7 +4171,7 @@
       <c r="A219">
         <v>3765</v>
       </c>
-      <c r="B219" s="45" t="s">
+      <c r="B219" s="63" t="s">
         <v>220</v>
       </c>
       <c r="C219">
@@ -4146,7 +4182,7 @@
       <c r="A220">
         <v>3771</v>
       </c>
-      <c r="B220" s="45" t="s">
+      <c r="B220" s="63" t="s">
         <v>221</v>
       </c>
       <c r="C220">
@@ -4157,7 +4193,7 @@
       <c r="A221">
         <v>3772</v>
       </c>
-      <c r="B221" s="45" t="s">
+      <c r="B221" s="63" t="s">
         <v>222</v>
       </c>
       <c r="C221">
@@ -4168,7 +4204,7 @@
       <c r="A222">
         <v>3773</v>
       </c>
-      <c r="B222" s="45" t="s">
+      <c r="B222" s="63" t="s">
         <v>223</v>
       </c>
       <c r="C222">
@@ -4179,7 +4215,7 @@
       <c r="A223">
         <v>3911</v>
       </c>
-      <c r="B223" s="45" t="s">
+      <c r="B223" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C223">
@@ -4190,7 +4226,7 @@
       <c r="A224">
         <v>3912</v>
       </c>
-      <c r="B224" s="45" t="s">
+      <c r="B224" s="63" t="s">
         <v>225</v>
       </c>
       <c r="C224">
@@ -4201,7 +4237,7 @@
       <c r="A225">
         <v>-1</v>
       </c>
-      <c r="B225" s="45" t="s">
+      <c r="B225" s="63" t="s">
         <v>226</v>
       </c>
       <c r="C225">
@@ -4212,7 +4248,7 @@
       <c r="A226">
         <v>4101</v>
       </c>
-      <c r="B226" s="45" t="s">
+      <c r="B226" s="63" t="s">
         <v>227</v>
       </c>
       <c r="C226">
@@ -4223,7 +4259,7 @@
       <c r="A227">
         <v>4102</v>
       </c>
-      <c r="B227" s="45" t="s">
+      <c r="B227" s="63" t="s">
         <v>228</v>
       </c>
       <c r="C227">
@@ -4234,7 +4270,7 @@
       <c r="A228">
         <v>4110</v>
       </c>
-      <c r="B228" s="45" t="s">
+      <c r="B228" s="63" t="s">
         <v>229</v>
       </c>
       <c r="C228">
@@ -4245,7 +4281,7 @@
       <c r="A229">
         <v>4121</v>
       </c>
-      <c r="B229" s="45" t="s">
+      <c r="B229" s="63" t="s">
         <v>230</v>
       </c>
       <c r="C229">
@@ -4256,7 +4292,7 @@
       <c r="A230">
         <v>4122</v>
       </c>
-      <c r="B230" s="45" t="s">
+      <c r="B230" s="63" t="s">
         <v>231</v>
       </c>
       <c r="C230">
@@ -4267,7 +4303,7 @@
       <c r="A231">
         <v>4123</v>
       </c>
-      <c r="B231" s="45" t="s">
+      <c r="B231" s="63" t="s">
         <v>232</v>
       </c>
       <c r="C231">
@@ -4278,7 +4314,7 @@
       <c r="A232">
         <v>4131</v>
       </c>
-      <c r="B232" s="45" t="s">
+      <c r="B232" s="63" t="s">
         <v>233</v>
       </c>
       <c r="C232">
@@ -4289,7 +4325,7 @@
       <c r="A233">
         <v>4132</v>
       </c>
-      <c r="B233" s="45" t="s">
+      <c r="B233" s="63" t="s">
         <v>234</v>
       </c>
       <c r="C233">
@@ -4300,7 +4336,7 @@
       <c r="A234">
         <v>4141</v>
       </c>
-      <c r="B234" s="45" t="s">
+      <c r="B234" s="63" t="s">
         <v>235</v>
       </c>
       <c r="C234">
@@ -4311,7 +4347,7 @@
       <c r="A235">
         <v>4142</v>
       </c>
-      <c r="B235" s="45" t="s">
+      <c r="B235" s="63" t="s">
         <v>236</v>
       </c>
       <c r="C235">
@@ -4322,7 +4358,7 @@
       <c r="A236">
         <v>4151</v>
       </c>
-      <c r="B236" s="45" t="s">
+      <c r="B236" s="63" t="s">
         <v>237</v>
       </c>
       <c r="C236">
@@ -4333,7 +4369,7 @@
       <c r="A237">
         <v>4152</v>
       </c>
-      <c r="B237" s="45" t="s">
+      <c r="B237" s="63" t="s">
         <v>238</v>
       </c>
       <c r="C237">
@@ -4344,7 +4380,7 @@
       <c r="A238">
         <v>4201</v>
       </c>
-      <c r="B238" s="45" t="s">
+      <c r="B238" s="63" t="s">
         <v>239</v>
       </c>
       <c r="C238">
@@ -4355,7 +4391,7 @@
       <c r="A239">
         <v>4211</v>
       </c>
-      <c r="B239" s="45" t="s">
+      <c r="B239" s="63" t="s">
         <v>240</v>
       </c>
       <c r="C239">
@@ -4366,7 +4402,7 @@
       <c r="A240">
         <v>4212</v>
       </c>
-      <c r="B240" s="45" t="s">
+      <c r="B240" s="63" t="s">
         <v>241</v>
       </c>
       <c r="C240">
@@ -4377,7 +4413,7 @@
       <c r="A241">
         <v>4213</v>
       </c>
-      <c r="B241" s="45" t="s">
+      <c r="B241" s="63" t="s">
         <v>242</v>
       </c>
       <c r="C241">
@@ -4388,7 +4424,7 @@
       <c r="A242">
         <v>4214</v>
       </c>
-      <c r="B242" s="45" t="s">
+      <c r="B242" s="63" t="s">
         <v>243</v>
       </c>
       <c r="C242">
@@ -4399,7 +4435,7 @@
       <c r="A243">
         <v>4221</v>
       </c>
-      <c r="B243" s="45" t="s">
+      <c r="B243" s="63" t="s">
         <v>244</v>
       </c>
       <c r="C243">
@@ -4410,7 +4446,7 @@
       <c r="A244">
         <v>4222</v>
       </c>
-      <c r="B244" s="45" t="s">
+      <c r="B244" s="63" t="s">
         <v>245</v>
       </c>
       <c r="C244">
@@ -4421,7 +4457,7 @@
       <c r="A245">
         <v>4223</v>
       </c>
-      <c r="B245" s="45" t="s">
+      <c r="B245" s="63" t="s">
         <v>246</v>
       </c>
       <c r="C245">
@@ -4432,7 +4468,7 @@
       <c r="A246">
         <v>4231</v>
       </c>
-      <c r="B246" s="45" t="s">
+      <c r="B246" s="63" t="s">
         <v>247</v>
       </c>
       <c r="C246">
@@ -4443,7 +4479,7 @@
       <c r="A247">
         <v>4241</v>
       </c>
-      <c r="B247" s="45" t="s">
+      <c r="B247" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C247">
@@ -4454,7 +4490,7 @@
       <c r="A248">
         <v>-1</v>
       </c>
-      <c r="B248" s="45" t="s">
+      <c r="B248" s="63" t="s">
         <v>249</v>
       </c>
       <c r="C248">
@@ -4465,7 +4501,7 @@
       <c r="A249">
         <v>5101</v>
       </c>
-      <c r="B249" s="45" t="s">
+      <c r="B249" s="63" t="s">
         <v>250</v>
       </c>
       <c r="C249">
@@ -4476,7 +4512,7 @@
       <c r="A250">
         <v>5102</v>
       </c>
-      <c r="B250" s="45" t="s">
+      <c r="B250" s="63" t="s">
         <v>251</v>
       </c>
       <c r="C250">
@@ -4487,7 +4523,7 @@
       <c r="A251">
         <v>5103</v>
       </c>
-      <c r="B251" s="45" t="s">
+      <c r="B251" s="63" t="s">
         <v>252</v>
       </c>
       <c r="C251">
@@ -4498,7 +4534,7 @@
       <c r="A252">
         <v>5111</v>
       </c>
-      <c r="B252" s="45" t="s">
+      <c r="B252" s="63" t="s">
         <v>253</v>
       </c>
       <c r="C252">
@@ -4509,7 +4545,7 @@
       <c r="A253">
         <v>5112</v>
       </c>
-      <c r="B253" s="45" t="s">
+      <c r="B253" s="63" t="s">
         <v>254</v>
       </c>
       <c r="C253">
@@ -4520,7 +4556,7 @@
       <c r="A254">
         <v>5114</v>
       </c>
-      <c r="B254" s="45" t="s">
+      <c r="B254" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C254">
@@ -4531,7 +4567,7 @@
       <c r="A255">
         <v>5121</v>
       </c>
-      <c r="B255" s="45" t="s">
+      <c r="B255" s="63" t="s">
         <v>256</v>
       </c>
       <c r="C255">
@@ -4542,7 +4578,7 @@
       <c r="A256">
         <v>5131</v>
       </c>
-      <c r="B256" s="45" t="s">
+      <c r="B256" s="63" t="s">
         <v>257</v>
       </c>
       <c r="C256">
@@ -4553,7 +4589,7 @@
       <c r="A257">
         <v>5132</v>
       </c>
-      <c r="B257" s="45" t="s">
+      <c r="B257" s="63" t="s">
         <v>258</v>
       </c>
       <c r="C257">
@@ -4564,7 +4600,7 @@
       <c r="A258">
         <v>5133</v>
       </c>
-      <c r="B258" s="45" t="s">
+      <c r="B258" s="63" t="s">
         <v>259</v>
       </c>
       <c r="C258">
@@ -4575,7 +4611,7 @@
       <c r="A259">
         <v>5134</v>
       </c>
-      <c r="B259" s="45" t="s">
+      <c r="B259" s="63" t="s">
         <v>260</v>
       </c>
       <c r="C259">
@@ -4586,7 +4622,7 @@
       <c r="A260">
         <v>5141</v>
       </c>
-      <c r="B260" s="45" t="s">
+      <c r="B260" s="63" t="s">
         <v>261</v>
       </c>
       <c r="C260">
@@ -4597,7 +4633,7 @@
       <c r="A261">
         <v>5142</v>
       </c>
-      <c r="B261" s="45" t="s">
+      <c r="B261" s="63" t="s">
         <v>262</v>
       </c>
       <c r="C261">
@@ -4608,7 +4644,7 @@
       <c r="A262">
         <v>5151</v>
       </c>
-      <c r="B262" s="45" t="s">
+      <c r="B262" s="63" t="s">
         <v>263</v>
       </c>
       <c r="C262">
@@ -4619,7 +4655,7 @@
       <c r="A263">
         <v>5152</v>
       </c>
-      <c r="B263" s="45" t="s">
+      <c r="B263" s="63" t="s">
         <v>264</v>
       </c>
       <c r="C263">
@@ -4630,7 +4666,7 @@
       <c r="A264">
         <v>5161</v>
       </c>
-      <c r="B264" s="45" t="s">
+      <c r="B264" s="63" t="s">
         <v>265</v>
       </c>
       <c r="C264">
@@ -4641,7 +4677,7 @@
       <c r="A265">
         <v>5162</v>
       </c>
-      <c r="B265" s="45" t="s">
+      <c r="B265" s="63" t="s">
         <v>266</v>
       </c>
       <c r="C265">
@@ -4652,7 +4688,7 @@
       <c r="A266">
         <v>5165</v>
       </c>
-      <c r="B266" s="45" t="s">
+      <c r="B266" s="63" t="s">
         <v>267</v>
       </c>
       <c r="C266">
@@ -4663,7 +4699,7 @@
       <c r="A267">
         <v>5166</v>
       </c>
-      <c r="B267" s="45" t="s">
+      <c r="B267" s="63" t="s">
         <v>268</v>
       </c>
       <c r="C267">
@@ -4674,7 +4710,7 @@
       <c r="A268">
         <v>5167</v>
       </c>
-      <c r="B268" s="45" t="s">
+      <c r="B268" s="63" t="s">
         <v>269</v>
       </c>
       <c r="C268">
@@ -4685,7 +4721,7 @@
       <c r="A269">
         <v>5169</v>
       </c>
-      <c r="B269" s="45" t="s">
+      <c r="B269" s="63" t="s">
         <v>270</v>
       </c>
       <c r="C269">
@@ -4696,7 +4732,7 @@
       <c r="A270">
         <v>5171</v>
       </c>
-      <c r="B270" s="45" t="s">
+      <c r="B270" s="63" t="s">
         <v>271</v>
       </c>
       <c r="C270">
@@ -4707,7 +4743,7 @@
       <c r="A271">
         <v>5172</v>
       </c>
-      <c r="B271" s="45" t="s">
+      <c r="B271" s="63" t="s">
         <v>272</v>
       </c>
       <c r="C271">
@@ -4718,7 +4754,7 @@
       <c r="A272">
         <v>5173</v>
       </c>
-      <c r="B272" s="45" t="s">
+      <c r="B272" s="63" t="s">
         <v>273</v>
       </c>
       <c r="C272">
@@ -4729,7 +4765,7 @@
       <c r="A273">
         <v>5174</v>
       </c>
-      <c r="B273" s="45" t="s">
+      <c r="B273" s="63" t="s">
         <v>274</v>
       </c>
       <c r="C273">
@@ -4740,7 +4776,7 @@
       <c r="A274">
         <v>5191</v>
       </c>
-      <c r="B274" s="45" t="s">
+      <c r="B274" s="63" t="s">
         <v>275</v>
       </c>
       <c r="C274">
@@ -4751,7 +4787,7 @@
       <c r="A275">
         <v>5192</v>
       </c>
-      <c r="B275" s="45" t="s">
+      <c r="B275" s="63" t="s">
         <v>276</v>
       </c>
       <c r="C275">
@@ -4762,7 +4798,7 @@
       <c r="A276">
         <v>5198</v>
       </c>
-      <c r="B276" s="45" t="s">
+      <c r="B276" s="63" t="s">
         <v>277</v>
       </c>
       <c r="C276">
@@ -4773,7 +4809,7 @@
       <c r="A277">
         <v>5199</v>
       </c>
-      <c r="B277" s="45" t="s">
+      <c r="B277" s="63" t="s">
         <v>278</v>
       </c>
       <c r="C277">
@@ -4784,7 +4820,7 @@
       <c r="A278">
         <v>5201</v>
       </c>
-      <c r="B278" s="45" t="s">
+      <c r="B278" s="63" t="s">
         <v>279</v>
       </c>
       <c r="C278">
@@ -4795,7 +4831,7 @@
       <c r="A279">
         <v>5211</v>
       </c>
-      <c r="B279" s="45" t="s">
+      <c r="B279" s="63" t="s">
         <v>280</v>
       </c>
       <c r="C279">
@@ -4806,7 +4842,7 @@
       <c r="A280">
         <v>5221</v>
       </c>
-      <c r="B280" s="45" t="s">
+      <c r="B280" s="63" t="s">
         <v>281</v>
       </c>
       <c r="C280">
@@ -4817,7 +4853,7 @@
       <c r="A281">
         <v>5231</v>
       </c>
-      <c r="B281" s="45" t="s">
+      <c r="B281" s="63" t="s">
         <v>282</v>
       </c>
       <c r="C281">
@@ -4828,7 +4864,7 @@
       <c r="A282">
         <v>5241</v>
       </c>
-      <c r="B282" s="45" t="s">
+      <c r="B282" s="63" t="s">
         <v>283</v>
       </c>
       <c r="C282">
@@ -4839,7 +4875,7 @@
       <c r="A283">
         <v>5242</v>
       </c>
-      <c r="B283" s="45" t="s">
+      <c r="B283" s="63" t="s">
         <v>284</v>
       </c>
       <c r="C283">
@@ -4850,7 +4886,7 @@
       <c r="A284">
         <v>5243</v>
       </c>
-      <c r="B284" s="45" t="s">
+      <c r="B284" s="63" t="s">
         <v>285</v>
       </c>
       <c r="C284">
@@ -4861,7 +4897,7 @@
       <c r="A285">
         <v>-1</v>
       </c>
-      <c r="B285" s="45" t="s">
+      <c r="B285" s="63" t="s">
         <v>286</v>
       </c>
       <c r="C285">
@@ -4872,7 +4908,7 @@
       <c r="A286">
         <v>6110</v>
       </c>
-      <c r="B286" s="45" t="s">
+      <c r="B286" s="63" t="s">
         <v>287</v>
       </c>
       <c r="C286">
@@ -4883,7 +4919,7 @@
       <c r="A287">
         <v>6129</v>
       </c>
-      <c r="B287" s="45" t="s">
+      <c r="B287" s="63" t="s">
         <v>288</v>
       </c>
       <c r="C287">
@@ -4894,7 +4930,7 @@
       <c r="A288">
         <v>6139</v>
       </c>
-      <c r="B288" s="45" t="s">
+      <c r="B288" s="63" t="s">
         <v>289</v>
       </c>
       <c r="C288">
@@ -4905,7 +4941,7 @@
       <c r="A289">
         <v>6201</v>
       </c>
-      <c r="B289" s="45" t="s">
+      <c r="B289" s="63" t="s">
         <v>290</v>
       </c>
       <c r="C289">
@@ -4916,7 +4952,7 @@
       <c r="A290">
         <v>6210</v>
       </c>
-      <c r="B290" s="45" t="s">
+      <c r="B290" s="63" t="s">
         <v>291</v>
       </c>
       <c r="C290">
@@ -4927,7 +4963,7 @@
       <c r="A291">
         <v>6229</v>
       </c>
-      <c r="B291" s="45" t="s">
+      <c r="B291" s="63" t="s">
         <v>292</v>
       </c>
       <c r="C291">
@@ -4938,7 +4974,7 @@
       <c r="A292">
         <v>6239</v>
       </c>
-      <c r="B292" s="45" t="s">
+      <c r="B292" s="63" t="s">
         <v>293</v>
       </c>
       <c r="C292">
@@ -4949,7 +4985,7 @@
       <c r="A293">
         <v>6301</v>
       </c>
-      <c r="B293" s="45" t="s">
+      <c r="B293" s="63" t="s">
         <v>294</v>
       </c>
       <c r="C293">
@@ -4960,7 +4996,7 @@
       <c r="A294">
         <v>6319</v>
       </c>
-      <c r="B294" s="45" t="s">
+      <c r="B294" s="63" t="s">
         <v>295</v>
       </c>
       <c r="C294">
@@ -4971,7 +5007,7 @@
       <c r="A295">
         <v>6329</v>
       </c>
-      <c r="B295" s="45" t="s">
+      <c r="B295" s="63" t="s">
         <v>296</v>
       </c>
       <c r="C295">
@@ -4982,7 +5018,7 @@
       <c r="A296">
         <v>6410</v>
       </c>
-      <c r="B296" s="45" t="s">
+      <c r="B296" s="63" t="s">
         <v>297</v>
       </c>
       <c r="C296">
@@ -4993,7 +5029,7 @@
       <c r="A297">
         <v>6420</v>
       </c>
-      <c r="B297" s="45" t="s">
+      <c r="B297" s="63" t="s">
         <v>298</v>
       </c>
       <c r="C297">
@@ -5004,7 +5040,7 @@
       <c r="A298">
         <v>6430</v>
       </c>
-      <c r="B298" s="45" t="s">
+      <c r="B298" s="63" t="s">
         <v>299</v>
       </c>
       <c r="C298">
@@ -5015,7 +5051,7 @@
       <c r="A299">
         <v>-1</v>
       </c>
-      <c r="B299" s="45" t="s">
+      <c r="B299" s="63" t="s">
         <v>300</v>
       </c>
       <c r="C299">
@@ -5026,7 +5062,7 @@
       <c r="A300">
         <v>7101</v>
       </c>
-      <c r="B300" s="45" t="s">
+      <c r="B300" s="63" t="s">
         <v>301</v>
       </c>
       <c r="C300">
@@ -5037,7 +5073,7 @@
       <c r="A301">
         <v>7102</v>
       </c>
-      <c r="B301" s="45" t="s">
+      <c r="B301" s="63" t="s">
         <v>302</v>
       </c>
       <c r="C301">
@@ -5048,7 +5084,7 @@
       <c r="A302">
         <v>7111</v>
       </c>
-      <c r="B302" s="45" t="s">
+      <c r="B302" s="63" t="s">
         <v>303</v>
       </c>
       <c r="C302">
@@ -5059,7 +5095,7 @@
       <c r="A303">
         <v>7112</v>
       </c>
-      <c r="B303" s="45" t="s">
+      <c r="B303" s="63" t="s">
         <v>304</v>
       </c>
       <c r="C303">
@@ -5070,7 +5106,7 @@
       <c r="A304">
         <v>7113</v>
       </c>
-      <c r="B304" s="45" t="s">
+      <c r="B304" s="63" t="s">
         <v>305</v>
       </c>
       <c r="C304">
@@ -5081,7 +5117,7 @@
       <c r="A305">
         <v>7114</v>
       </c>
-      <c r="B305" s="45" t="s">
+      <c r="B305" s="63" t="s">
         <v>306</v>
       </c>
       <c r="C305">
@@ -5092,7 +5128,7 @@
       <c r="A306">
         <v>7121</v>
       </c>
-      <c r="B306" s="45" t="s">
+      <c r="B306" s="63" t="s">
         <v>307</v>
       </c>
       <c r="C306">
@@ -5103,7 +5139,7 @@
       <c r="A307">
         <v>7122</v>
       </c>
-      <c r="B307" s="45" t="s">
+      <c r="B307" s="63" t="s">
         <v>308</v>
       </c>
       <c r="C307">
@@ -5114,7 +5150,7 @@
       <c r="A308">
         <v>7151</v>
       </c>
-      <c r="B308" s="45" t="s">
+      <c r="B308" s="63" t="s">
         <v>309</v>
       </c>
       <c r="C308">
@@ -5125,7 +5161,7 @@
       <c r="A309">
         <v>7152</v>
       </c>
-      <c r="B309" s="45" t="s">
+      <c r="B309" s="63" t="s">
         <v>310</v>
       </c>
       <c r="C309">
@@ -5136,7 +5172,7 @@
       <c r="A310">
         <v>7153</v>
       </c>
-      <c r="B310" s="45" t="s">
+      <c r="B310" s="63" t="s">
         <v>311</v>
       </c>
       <c r="C310">
@@ -5147,7 +5183,7 @@
       <c r="A311">
         <v>7154</v>
       </c>
-      <c r="B311" s="45" t="s">
+      <c r="B311" s="63" t="s">
         <v>312</v>
       </c>
       <c r="C311">
@@ -5158,7 +5194,7 @@
       <c r="A312">
         <v>7155</v>
       </c>
-      <c r="B312" s="45" t="s">
+      <c r="B312" s="63" t="s">
         <v>313</v>
       </c>
       <c r="C312">
@@ -5169,7 +5205,7 @@
       <c r="A313">
         <v>7156</v>
       </c>
-      <c r="B313" s="45" t="s">
+      <c r="B313" s="63" t="s">
         <v>314</v>
       </c>
       <c r="C313">
@@ -5180,7 +5216,7 @@
       <c r="A314">
         <v>7157</v>
       </c>
-      <c r="B314" s="45" t="s">
+      <c r="B314" s="63" t="s">
         <v>315</v>
       </c>
       <c r="C314">
@@ -5191,7 +5227,7 @@
       <c r="A315">
         <v>7161</v>
       </c>
-      <c r="B315" s="45" t="s">
+      <c r="B315" s="63" t="s">
         <v>316</v>
       </c>
       <c r="C315">
@@ -5202,7 +5238,7 @@
       <c r="A316">
         <v>7162</v>
       </c>
-      <c r="B316" s="45" t="s">
+      <c r="B316" s="63" t="s">
         <v>317</v>
       </c>
       <c r="C316">
@@ -5213,7 +5249,7 @@
       <c r="A317">
         <v>7163</v>
       </c>
-      <c r="B317" s="45" t="s">
+      <c r="B317" s="63" t="s">
         <v>318</v>
       </c>
       <c r="C317">
@@ -5224,7 +5260,7 @@
       <c r="A318">
         <v>7164</v>
       </c>
-      <c r="B318" s="45" t="s">
+      <c r="B318" s="63" t="s">
         <v>319</v>
       </c>
       <c r="C318">
@@ -5235,7 +5271,7 @@
       <c r="A319">
         <v>7165</v>
       </c>
-      <c r="B319" s="45" t="s">
+      <c r="B319" s="63" t="s">
         <v>320</v>
       </c>
       <c r="C319">
@@ -5246,7 +5282,7 @@
       <c r="A320">
         <v>7166</v>
       </c>
-      <c r="B320" s="45" t="s">
+      <c r="B320" s="63" t="s">
         <v>321</v>
       </c>
       <c r="C320">
@@ -5257,7 +5293,7 @@
       <c r="A321">
         <v>7170</v>
       </c>
-      <c r="B321" s="45" t="s">
+      <c r="B321" s="63" t="s">
         <v>322</v>
       </c>
       <c r="C321">
@@ -5268,7 +5304,7 @@
       <c r="A322">
         <v>7201</v>
       </c>
-      <c r="B322" s="45" t="s">
+      <c r="B322" s="63" t="s">
         <v>323</v>
       </c>
       <c r="C322">
@@ -5279,7 +5315,7 @@
       <c r="A323">
         <v>7202</v>
       </c>
-      <c r="B323" s="45" t="s">
+      <c r="B323" s="63" t="s">
         <v>324</v>
       </c>
       <c r="C323">
@@ -5290,7 +5326,7 @@
       <c r="A324">
         <v>7211</v>
       </c>
-      <c r="B324" s="45" t="s">
+      <c r="B324" s="63" t="s">
         <v>325</v>
       </c>
       <c r="C324">
@@ -5301,7 +5337,7 @@
       <c r="A325">
         <v>7212</v>
       </c>
-      <c r="B325" s="45" t="s">
+      <c r="B325" s="63" t="s">
         <v>326</v>
       </c>
       <c r="C325">
@@ -5312,7 +5348,7 @@
       <c r="A326">
         <v>7213</v>
       </c>
-      <c r="B326" s="45" t="s">
+      <c r="B326" s="63" t="s">
         <v>327</v>
       </c>
       <c r="C326">
@@ -5323,7 +5359,7 @@
       <c r="A327">
         <v>7214</v>
       </c>
-      <c r="B327" s="45" t="s">
+      <c r="B327" s="63" t="s">
         <v>328</v>
       </c>
       <c r="C327">
@@ -5334,7 +5370,7 @@
       <c r="A328">
         <v>7215</v>
       </c>
-      <c r="B328" s="45" t="s">
+      <c r="B328" s="63" t="s">
         <v>329</v>
       </c>
       <c r="C328">
@@ -5345,7 +5381,7 @@
       <c r="A329">
         <v>7221</v>
       </c>
-      <c r="B329" s="45" t="s">
+      <c r="B329" s="63" t="s">
         <v>330</v>
       </c>
       <c r="C329">
@@ -5356,7 +5392,7 @@
       <c r="A330">
         <v>7222</v>
       </c>
-      <c r="B330" s="45" t="s">
+      <c r="B330" s="63" t="s">
         <v>331</v>
       </c>
       <c r="C330">
@@ -5367,7 +5403,7 @@
       <c r="A331">
         <v>7223</v>
       </c>
-      <c r="B331" s="45" t="s">
+      <c r="B331" s="63" t="s">
         <v>332</v>
       </c>
       <c r="C331">
@@ -5378,7 +5414,7 @@
       <c r="A332">
         <v>7224</v>
       </c>
-      <c r="B332" s="45" t="s">
+      <c r="B332" s="63" t="s">
         <v>333</v>
       </c>
       <c r="C332">
@@ -5389,7 +5425,7 @@
       <c r="A333">
         <v>7231</v>
       </c>
-      <c r="B333" s="45" t="s">
+      <c r="B333" s="63" t="s">
         <v>334</v>
       </c>
       <c r="C333">
@@ -5400,7 +5436,7 @@
       <c r="A334">
         <v>7232</v>
       </c>
-      <c r="B334" s="45" t="s">
+      <c r="B334" s="63" t="s">
         <v>335</v>
       </c>
       <c r="C334">
@@ -5411,7 +5447,7 @@
       <c r="A335">
         <v>7233</v>
       </c>
-      <c r="B335" s="45" t="s">
+      <c r="B335" s="63" t="s">
         <v>336</v>
       </c>
       <c r="C335">
@@ -5422,7 +5458,7 @@
       <c r="A336">
         <v>7241</v>
       </c>
-      <c r="B336" s="45" t="s">
+      <c r="B336" s="63" t="s">
         <v>337</v>
       </c>
       <c r="C336">
@@ -5433,7 +5469,7 @@
       <c r="A337">
         <v>7242</v>
       </c>
-      <c r="B337" s="45" t="s">
+      <c r="B337" s="63" t="s">
         <v>338</v>
       </c>
       <c r="C337">
@@ -5444,7 +5480,7 @@
       <c r="A338">
         <v>7243</v>
       </c>
-      <c r="B338" s="45" t="s">
+      <c r="B338" s="63" t="s">
         <v>339</v>
       </c>
       <c r="C338">
@@ -5455,7 +5491,7 @@
       <c r="A339">
         <v>7244</v>
       </c>
-      <c r="B339" s="45" t="s">
+      <c r="B339" s="63" t="s">
         <v>340</v>
       </c>
       <c r="C339">
@@ -5466,7 +5502,7 @@
       <c r="A340">
         <v>7245</v>
       </c>
-      <c r="B340" s="45" t="s">
+      <c r="B340" s="63" t="s">
         <v>341</v>
       </c>
       <c r="C340">
@@ -5477,7 +5513,7 @@
       <c r="A341">
         <v>7246</v>
       </c>
-      <c r="B341" s="45" t="s">
+      <c r="B341" s="63" t="s">
         <v>342</v>
       </c>
       <c r="C341">
@@ -5488,7 +5524,7 @@
       <c r="A342">
         <v>7250</v>
       </c>
-      <c r="B342" s="45" t="s">
+      <c r="B342" s="63" t="s">
         <v>343</v>
       </c>
       <c r="C342">
@@ -5499,7 +5535,7 @@
       <c r="A343">
         <v>7251</v>
       </c>
-      <c r="B343" s="45" t="s">
+      <c r="B343" s="63" t="s">
         <v>344</v>
       </c>
       <c r="C343">
@@ -5510,7 +5546,7 @@
       <c r="A344">
         <v>7252</v>
       </c>
-      <c r="B344" s="45" t="s">
+      <c r="B344" s="63" t="s">
         <v>345</v>
       </c>
       <c r="C344">
@@ -5521,7 +5557,7 @@
       <c r="A345">
         <v>7253</v>
       </c>
-      <c r="B345" s="45" t="s">
+      <c r="B345" s="63" t="s">
         <v>346</v>
       </c>
       <c r="C345">
@@ -5532,7 +5568,7 @@
       <c r="A346">
         <v>7254</v>
       </c>
-      <c r="B346" s="45" t="s">
+      <c r="B346" s="63" t="s">
         <v>347</v>
       </c>
       <c r="C346">
@@ -5543,7 +5579,7 @@
       <c r="A347">
         <v>7255</v>
       </c>
-      <c r="B347" s="45" t="s">
+      <c r="B347" s="63" t="s">
         <v>348</v>
       </c>
       <c r="C347">
@@ -5554,7 +5590,7 @@
       <c r="A348">
         <v>7256</v>
       </c>
-      <c r="B348" s="45" t="s">
+      <c r="B348" s="63" t="s">
         <v>349</v>
       </c>
       <c r="C348">
@@ -5565,7 +5601,7 @@
       <c r="A349">
         <v>7257</v>
       </c>
-      <c r="B349" s="45" t="s">
+      <c r="B349" s="63" t="s">
         <v>350</v>
       </c>
       <c r="C349">
@@ -5576,7 +5612,7 @@
       <c r="A350">
         <v>7301</v>
       </c>
-      <c r="B350" s="45" t="s">
+      <c r="B350" s="63" t="s">
         <v>351</v>
       </c>
       <c r="C350">
@@ -5587,7 +5623,7 @@
       <c r="A351">
         <v>7311</v>
       </c>
-      <c r="B351" s="45" t="s">
+      <c r="B351" s="63" t="s">
         <v>352</v>
       </c>
       <c r="C351">
@@ -5598,7 +5634,7 @@
       <c r="A352">
         <v>7312</v>
       </c>
-      <c r="B352" s="45" t="s">
+      <c r="B352" s="63" t="s">
         <v>353</v>
       </c>
       <c r="C352">
@@ -5609,7 +5645,7 @@
       <c r="A353">
         <v>7313</v>
       </c>
-      <c r="B353" s="45" t="s">
+      <c r="B353" s="63" t="s">
         <v>354</v>
       </c>
       <c r="C353">
@@ -5620,7 +5656,7 @@
       <c r="A354">
         <v>7321</v>
       </c>
-      <c r="B354" s="45" t="s">
+      <c r="B354" s="63" t="s">
         <v>355</v>
       </c>
       <c r="C354">
@@ -5631,7 +5667,7 @@
       <c r="A355">
         <v>7401</v>
       </c>
-      <c r="B355" s="45" t="s">
+      <c r="B355" s="63" t="s">
         <v>356</v>
       </c>
       <c r="C355">
@@ -5642,7 +5678,7 @@
       <c r="A356">
         <v>7411</v>
       </c>
-      <c r="B356" s="45" t="s">
+      <c r="B356" s="63" t="s">
         <v>357</v>
       </c>
       <c r="C356">
@@ -5653,7 +5689,7 @@
       <c r="A357">
         <v>7421</v>
       </c>
-      <c r="B357" s="45" t="s">
+      <c r="B357" s="63" t="s">
         <v>358</v>
       </c>
       <c r="C357">
@@ -5664,7 +5700,7 @@
       <c r="A358">
         <v>7501</v>
       </c>
-      <c r="B358" s="45" t="s">
+      <c r="B358" s="63" t="s">
         <v>359</v>
       </c>
       <c r="C358">
@@ -5675,7 +5711,7 @@
       <c r="A359">
         <v>7502</v>
       </c>
-      <c r="B359" s="45" t="s">
+      <c r="B359" s="63" t="s">
         <v>360</v>
       </c>
       <c r="C359">
@@ -5686,7 +5722,7 @@
       <c r="A360">
         <v>7519</v>
       </c>
-      <c r="B360" s="45" t="s">
+      <c r="B360" s="63" t="s">
         <v>361</v>
       </c>
       <c r="C360">
@@ -5697,7 +5733,7 @@
       <c r="A361">
         <v>7521</v>
       </c>
-      <c r="B361" s="45" t="s">
+      <c r="B361" s="63" t="s">
         <v>362</v>
       </c>
       <c r="C361">
@@ -5708,7 +5744,7 @@
       <c r="A362">
         <v>7522</v>
       </c>
-      <c r="B362" s="45" t="s">
+      <c r="B362" s="63" t="s">
         <v>363</v>
       </c>
       <c r="C362">
@@ -5719,7 +5755,7 @@
       <c r="A363">
         <v>7523</v>
       </c>
-      <c r="B363" s="45" t="s">
+      <c r="B363" s="63" t="s">
         <v>364</v>
       </c>
       <c r="C363">
@@ -5730,7 +5766,7 @@
       <c r="A364">
         <v>7524</v>
       </c>
-      <c r="B364" s="45" t="s">
+      <c r="B364" s="63" t="s">
         <v>365</v>
       </c>
       <c r="C364">
@@ -5741,7 +5777,7 @@
       <c r="A365">
         <v>7601</v>
       </c>
-      <c r="B365" s="45" t="s">
+      <c r="B365" s="63" t="s">
         <v>366</v>
       </c>
       <c r="C365">
@@ -5752,7 +5788,7 @@
       <c r="A366">
         <v>7602</v>
       </c>
-      <c r="B366" s="45" t="s">
+      <c r="B366" s="63" t="s">
         <v>367</v>
       </c>
       <c r="C366">
@@ -5763,7 +5799,7 @@
       <c r="A367">
         <v>7603</v>
       </c>
-      <c r="B367" s="45" t="s">
+      <c r="B367" s="63" t="s">
         <v>368</v>
       </c>
       <c r="C367">
@@ -5774,7 +5810,7 @@
       <c r="A368">
         <v>7604</v>
       </c>
-      <c r="B368" s="45" t="s">
+      <c r="B368" s="63" t="s">
         <v>369</v>
       </c>
       <c r="C368">
@@ -5785,7 +5821,7 @@
       <c r="A369">
         <v>7605</v>
       </c>
-      <c r="B369" s="45" t="s">
+      <c r="B369" s="63" t="s">
         <v>370</v>
       </c>
       <c r="C369">
@@ -5796,7 +5832,7 @@
       <c r="A370">
         <v>7606</v>
       </c>
-      <c r="B370" s="45" t="s">
+      <c r="B370" s="63" t="s">
         <v>371</v>
       </c>
       <c r="C370">
@@ -5807,7 +5843,7 @@
       <c r="A371">
         <v>7610</v>
       </c>
-      <c r="B371" s="45" t="s">
+      <c r="B371" s="63" t="s">
         <v>372</v>
       </c>
       <c r="C371">
@@ -5818,7 +5854,7 @@
       <c r="A372">
         <v>7611</v>
       </c>
-      <c r="B372" s="45" t="s">
+      <c r="B372" s="63" t="s">
         <v>373</v>
       </c>
       <c r="C372">
@@ -5829,7 +5865,7 @@
       <c r="A373">
         <v>7612</v>
       </c>
-      <c r="B373" s="45" t="s">
+      <c r="B373" s="63" t="s">
         <v>374</v>
       </c>
       <c r="C373">
@@ -5840,7 +5876,7 @@
       <c r="A374">
         <v>7613</v>
       </c>
-      <c r="B374" s="45" t="s">
+      <c r="B374" s="63" t="s">
         <v>375</v>
       </c>
       <c r="C374">
@@ -5851,7 +5887,7 @@
       <c r="A375">
         <v>7614</v>
       </c>
-      <c r="B375" s="45" t="s">
+      <c r="B375" s="63" t="s">
         <v>376</v>
       </c>
       <c r="C375">
@@ -5862,7 +5898,7 @@
       <c r="A376">
         <v>7618</v>
       </c>
-      <c r="B376" s="45" t="s">
+      <c r="B376" s="63" t="s">
         <v>377</v>
       </c>
       <c r="C376">
@@ -5873,7 +5909,7 @@
       <c r="A377">
         <v>7620</v>
       </c>
-      <c r="B377" s="45" t="s">
+      <c r="B377" s="63" t="s">
         <v>378</v>
       </c>
       <c r="C377">
@@ -5884,7 +5920,7 @@
       <c r="A378">
         <v>7621</v>
       </c>
-      <c r="B378" s="45" t="s">
+      <c r="B378" s="63" t="s">
         <v>379</v>
       </c>
       <c r="C378">
@@ -5895,7 +5931,7 @@
       <c r="A379">
         <v>7622</v>
       </c>
-      <c r="B379" s="45" t="s">
+      <c r="B379" s="63" t="s">
         <v>380</v>
       </c>
       <c r="C379">
@@ -5906,7 +5942,7 @@
       <c r="A380">
         <v>7623</v>
       </c>
-      <c r="B380" s="45" t="s">
+      <c r="B380" s="63" t="s">
         <v>381</v>
       </c>
       <c r="C380">
@@ -5917,7 +5953,7 @@
       <c r="A381">
         <v>7630</v>
       </c>
-      <c r="B381" s="45" t="s">
+      <c r="B381" s="63" t="s">
         <v>382</v>
       </c>
       <c r="C381">
@@ -5928,7 +5964,7 @@
       <c r="A382">
         <v>7631</v>
       </c>
-      <c r="B382" s="45" t="s">
+      <c r="B382" s="63" t="s">
         <v>383</v>
       </c>
       <c r="C382">
@@ -5939,7 +5975,7 @@
       <c r="A383">
         <v>7632</v>
       </c>
-      <c r="B383" s="45" t="s">
+      <c r="B383" s="63" t="s">
         <v>384</v>
       </c>
       <c r="C383">
@@ -5950,7 +5986,7 @@
       <c r="A384">
         <v>7633</v>
       </c>
-      <c r="B384" s="45" t="s">
+      <c r="B384" s="63" t="s">
         <v>385</v>
       </c>
       <c r="C384">
@@ -5961,7 +5997,7 @@
       <c r="A385">
         <v>7640</v>
       </c>
-      <c r="B385" s="45" t="s">
+      <c r="B385" s="63" t="s">
         <v>386</v>
       </c>
       <c r="C385">
@@ -5972,7 +6008,7 @@
       <c r="A386">
         <v>7641</v>
       </c>
-      <c r="B386" s="45" t="s">
+      <c r="B386" s="63" t="s">
         <v>387</v>
       </c>
       <c r="C386">
@@ -5983,7 +6019,7 @@
       <c r="A387">
         <v>7642</v>
       </c>
-      <c r="B387" s="45" t="s">
+      <c r="B387" s="63" t="s">
         <v>388</v>
       </c>
       <c r="C387">
@@ -5994,7 +6030,7 @@
       <c r="A388">
         <v>7643</v>
       </c>
-      <c r="B388" s="45" t="s">
+      <c r="B388" s="63" t="s">
         <v>389</v>
       </c>
       <c r="C388">
@@ -6005,7 +6041,7 @@
       <c r="A389">
         <v>7650</v>
       </c>
-      <c r="B389" s="45" t="s">
+      <c r="B389" s="63" t="s">
         <v>390</v>
       </c>
       <c r="C389">
@@ -6016,7 +6052,7 @@
       <c r="A390">
         <v>7651</v>
       </c>
-      <c r="B390" s="45" t="s">
+      <c r="B390" s="63" t="s">
         <v>391</v>
       </c>
       <c r="C390">
@@ -6027,7 +6063,7 @@
       <c r="A391">
         <v>7652</v>
       </c>
-      <c r="B391" s="45" t="s">
+      <c r="B391" s="63" t="s">
         <v>392</v>
       </c>
       <c r="C391">
@@ -6038,7 +6074,7 @@
       <c r="A392">
         <v>7653</v>
       </c>
-      <c r="B392" s="45" t="s">
+      <c r="B392" s="63" t="s">
         <v>393</v>
       </c>
       <c r="C392">
@@ -6049,7 +6085,7 @@
       <c r="A393">
         <v>7654</v>
       </c>
-      <c r="B393" s="45" t="s">
+      <c r="B393" s="63" t="s">
         <v>394</v>
       </c>
       <c r="C393">
@@ -6060,7 +6096,7 @@
       <c r="A394">
         <v>7660</v>
       </c>
-      <c r="B394" s="45" t="s">
+      <c r="B394" s="63" t="s">
         <v>395</v>
       </c>
       <c r="C394">
@@ -6071,7 +6107,7 @@
       <c r="A395">
         <v>7661</v>
       </c>
-      <c r="B395" s="45" t="s">
+      <c r="B395" s="63" t="s">
         <v>396</v>
       </c>
       <c r="C395">
@@ -6082,7 +6118,7 @@
       <c r="A396">
         <v>7662</v>
       </c>
-      <c r="B396" s="45" t="s">
+      <c r="B396" s="63" t="s">
         <v>397</v>
       </c>
       <c r="C396">
@@ -6093,7 +6129,7 @@
       <c r="A397">
         <v>7663</v>
       </c>
-      <c r="B397" s="45" t="s">
+      <c r="B397" s="63" t="s">
         <v>398</v>
       </c>
       <c r="C397">
@@ -6104,7 +6140,7 @@
       <c r="A398">
         <v>7664</v>
       </c>
-      <c r="B398" s="45" t="s">
+      <c r="B398" s="63" t="s">
         <v>399</v>
       </c>
       <c r="C398">
@@ -6115,7 +6151,7 @@
       <c r="A399">
         <v>7681</v>
       </c>
-      <c r="B399" s="45" t="s">
+      <c r="B399" s="63" t="s">
         <v>400</v>
       </c>
       <c r="C399">
@@ -6126,7 +6162,7 @@
       <c r="A400">
         <v>7682</v>
       </c>
-      <c r="B400" s="45" t="s">
+      <c r="B400" s="63" t="s">
         <v>401</v>
       </c>
       <c r="C400">
@@ -6137,7 +6173,7 @@
       <c r="A401">
         <v>7683</v>
       </c>
-      <c r="B401" s="45" t="s">
+      <c r="B401" s="63" t="s">
         <v>402</v>
       </c>
       <c r="C401">
@@ -6148,7 +6184,7 @@
       <c r="A402">
         <v>7686</v>
       </c>
-      <c r="B402" s="45" t="s">
+      <c r="B402" s="63" t="s">
         <v>403</v>
       </c>
       <c r="C402">
@@ -6159,7 +6195,7 @@
       <c r="A403">
         <v>7687</v>
       </c>
-      <c r="B403" s="45" t="s">
+      <c r="B403" s="63" t="s">
         <v>404</v>
       </c>
       <c r="C403">
@@ -6170,7 +6206,7 @@
       <c r="A404">
         <v>7701</v>
       </c>
-      <c r="B404" s="45" t="s">
+      <c r="B404" s="63" t="s">
         <v>405</v>
       </c>
       <c r="C404">
@@ -6181,7 +6217,7 @@
       <c r="A405">
         <v>7711</v>
       </c>
-      <c r="B405" s="45" t="s">
+      <c r="B405" s="63" t="s">
         <v>406</v>
       </c>
       <c r="C405">
@@ -6192,7 +6228,7 @@
       <c r="A406">
         <v>7721</v>
       </c>
-      <c r="B406" s="45" t="s">
+      <c r="B406" s="63" t="s">
         <v>407</v>
       </c>
       <c r="C406">
@@ -6203,7 +6239,7 @@
       <c r="A407">
         <v>7731</v>
       </c>
-      <c r="B407" s="45" t="s">
+      <c r="B407" s="63" t="s">
         <v>408</v>
       </c>
       <c r="C407">
@@ -6214,7 +6250,7 @@
       <c r="A408">
         <v>7732</v>
       </c>
-      <c r="B408" s="45" t="s">
+      <c r="B408" s="63" t="s">
         <v>409</v>
       </c>
       <c r="C408">
@@ -6225,7 +6261,7 @@
       <c r="A409">
         <v>7733</v>
       </c>
-      <c r="B409" s="45" t="s">
+      <c r="B409" s="63" t="s">
         <v>410</v>
       </c>
       <c r="C409">
@@ -6236,7 +6272,7 @@
       <c r="A410">
         <v>7734</v>
       </c>
-      <c r="B410" s="45" t="s">
+      <c r="B410" s="63" t="s">
         <v>411</v>
       </c>
       <c r="C410">
@@ -6247,7 +6283,7 @@
       <c r="A411">
         <v>7735</v>
       </c>
-      <c r="B411" s="45" t="s">
+      <c r="B411" s="63" t="s">
         <v>412</v>
       </c>
       <c r="C411">
@@ -6258,7 +6294,7 @@
       <c r="A412">
         <v>7741</v>
       </c>
-      <c r="B412" s="45" t="s">
+      <c r="B412" s="63" t="s">
         <v>413</v>
       </c>
       <c r="C412">
@@ -6269,7 +6305,7 @@
       <c r="A413">
         <v>7751</v>
       </c>
-      <c r="B413" s="45" t="s">
+      <c r="B413" s="63" t="s">
         <v>414</v>
       </c>
       <c r="C413">
@@ -6280,7 +6316,7 @@
       <c r="A414">
         <v>7764</v>
       </c>
-      <c r="B414" s="45" t="s">
+      <c r="B414" s="63" t="s">
         <v>415</v>
       </c>
       <c r="C414">
@@ -6291,7 +6327,7 @@
       <c r="A415">
         <v>7771</v>
       </c>
-      <c r="B415" s="45" t="s">
+      <c r="B415" s="63" t="s">
         <v>416</v>
       </c>
       <c r="C415">
@@ -6302,7 +6338,7 @@
       <c r="A416">
         <v>7772</v>
       </c>
-      <c r="B416" s="45" t="s">
+      <c r="B416" s="63" t="s">
         <v>417</v>
       </c>
       <c r="C416">
@@ -6313,7 +6349,7 @@
       <c r="A417">
         <v>7801</v>
       </c>
-      <c r="B417" s="45" t="s">
+      <c r="B417" s="63" t="s">
         <v>418</v>
       </c>
       <c r="C417">
@@ -6324,7 +6360,7 @@
       <c r="A418">
         <v>7811</v>
       </c>
-      <c r="B418" s="45" t="s">
+      <c r="B418" s="63" t="s">
         <v>419</v>
       </c>
       <c r="C418">
@@ -6335,7 +6371,7 @@
       <c r="A419">
         <v>7813</v>
       </c>
-      <c r="B419" s="45" t="s">
+      <c r="B419" s="63" t="s">
         <v>420</v>
       </c>
       <c r="C419">
@@ -6346,7 +6382,7 @@
       <c r="A420">
         <v>7817</v>
       </c>
-      <c r="B420" s="45" t="s">
+      <c r="B420" s="63" t="s">
         <v>421</v>
       </c>
       <c r="C420">
@@ -6357,7 +6393,7 @@
       <c r="A421">
         <v>7820</v>
       </c>
-      <c r="B421" s="45" t="s">
+      <c r="B421" s="63" t="s">
         <v>422</v>
       </c>
       <c r="C421">
@@ -6368,7 +6404,7 @@
       <c r="A422">
         <v>7821</v>
       </c>
-      <c r="B422" s="45" t="s">
+      <c r="B422" s="63" t="s">
         <v>423</v>
       </c>
       <c r="C422">
@@ -6379,7 +6415,7 @@
       <c r="A423">
         <v>7822</v>
       </c>
-      <c r="B423" s="45" t="s">
+      <c r="B423" s="63" t="s">
         <v>424</v>
       </c>
       <c r="C423">
@@ -6390,7 +6426,7 @@
       <c r="A424">
         <v>7823</v>
       </c>
-      <c r="B424" s="45" t="s">
+      <c r="B424" s="63" t="s">
         <v>425</v>
       </c>
       <c r="C424">
@@ -6401,7 +6437,7 @@
       <c r="A425">
         <v>7824</v>
       </c>
-      <c r="B425" s="45" t="s">
+      <c r="B425" s="63" t="s">
         <v>426</v>
       </c>
       <c r="C425">
@@ -6412,7 +6448,7 @@
       <c r="A426">
         <v>7825</v>
       </c>
-      <c r="B426" s="45" t="s">
+      <c r="B426" s="63" t="s">
         <v>427</v>
       </c>
       <c r="C426">
@@ -6423,7 +6459,7 @@
       <c r="A427">
         <v>7826</v>
       </c>
-      <c r="B427" s="45" t="s">
+      <c r="B427" s="63" t="s">
         <v>428</v>
       </c>
       <c r="C427">
@@ -6434,7 +6470,7 @@
       <c r="A428">
         <v>7827</v>
       </c>
-      <c r="B428" s="45" t="s">
+      <c r="B428" s="63" t="s">
         <v>429</v>
       </c>
       <c r="C428">
@@ -6445,7 +6481,7 @@
       <c r="A429">
         <v>7828</v>
       </c>
-      <c r="B429" s="45" t="s">
+      <c r="B429" s="63" t="s">
         <v>430</v>
       </c>
       <c r="C429">
@@ -6456,7 +6492,7 @@
       <c r="A430">
         <v>7831</v>
       </c>
-      <c r="B430" s="45" t="s">
+      <c r="B430" s="63" t="s">
         <v>431</v>
       </c>
       <c r="C430">
@@ -6467,7 +6503,7 @@
       <c r="A431">
         <v>7832</v>
       </c>
-      <c r="B431" s="45" t="s">
+      <c r="B431" s="63" t="s">
         <v>432</v>
       </c>
       <c r="C431">
@@ -6478,7 +6514,7 @@
       <c r="A432">
         <v>7841</v>
       </c>
-      <c r="B432" s="45" t="s">
+      <c r="B432" s="63" t="s">
         <v>433</v>
       </c>
       <c r="C432">
@@ -6489,7 +6525,7 @@
       <c r="A433">
         <v>7842</v>
       </c>
-      <c r="B433" s="45" t="s">
+      <c r="B433" s="63" t="s">
         <v>434</v>
       </c>
       <c r="C433">
@@ -6500,7 +6536,7 @@
       <c r="A434">
         <v>-1</v>
       </c>
-      <c r="B434" s="45" t="s">
+      <c r="B434" s="63" t="s">
         <v>300</v>
       </c>
       <c r="C434">
@@ -6511,7 +6547,7 @@
       <c r="A435">
         <v>8101</v>
       </c>
-      <c r="B435" s="45" t="s">
+      <c r="B435" s="63" t="s">
         <v>435</v>
       </c>
       <c r="C435">
@@ -6522,7 +6558,7 @@
       <c r="A436">
         <v>8102</v>
       </c>
-      <c r="B436" s="45" t="s">
+      <c r="B436" s="63" t="s">
         <v>436</v>
       </c>
       <c r="C436">
@@ -6533,7 +6569,7 @@
       <c r="A437">
         <v>8103</v>
       </c>
-      <c r="B437" s="45" t="s">
+      <c r="B437" s="63" t="s">
         <v>437</v>
       </c>
       <c r="C437">
@@ -6544,7 +6580,7 @@
       <c r="A438">
         <v>8110</v>
       </c>
-      <c r="B438" s="45" t="s">
+      <c r="B438" s="63" t="s">
         <v>438</v>
       </c>
       <c r="C438">
@@ -6555,7 +6591,7 @@
       <c r="A439">
         <v>8111</v>
       </c>
-      <c r="B439" s="45" t="s">
+      <c r="B439" s="63" t="s">
         <v>439</v>
       </c>
       <c r="C439">
@@ -6566,7 +6602,7 @@
       <c r="A440">
         <v>8112</v>
       </c>
-      <c r="B440" s="45" t="s">
+      <c r="B440" s="63" t="s">
         <v>440</v>
       </c>
       <c r="C440">
@@ -6577,7 +6613,7 @@
       <c r="A441">
         <v>8113</v>
       </c>
-      <c r="B441" s="45" t="s">
+      <c r="B441" s="63" t="s">
         <v>441</v>
       </c>
       <c r="C441">
@@ -6588,7 +6624,7 @@
       <c r="A442">
         <v>8114</v>
       </c>
-      <c r="B442" s="45" t="s">
+      <c r="B442" s="63" t="s">
         <v>442</v>
       </c>
       <c r="C442">
@@ -6599,7 +6635,7 @@
       <c r="A443">
         <v>8115</v>
       </c>
-      <c r="B443" s="45" t="s">
+      <c r="B443" s="63" t="s">
         <v>443</v>
       </c>
       <c r="C443">
@@ -6610,7 +6646,7 @@
       <c r="A444">
         <v>8116</v>
       </c>
-      <c r="B444" s="45" t="s">
+      <c r="B444" s="63" t="s">
         <v>444</v>
       </c>
       <c r="C444">
@@ -6621,7 +6657,7 @@
       <c r="A445">
         <v>8117</v>
       </c>
-      <c r="B445" s="45" t="s">
+      <c r="B445" s="63" t="s">
         <v>445</v>
       </c>
       <c r="C445">
@@ -6632,7 +6668,7 @@
       <c r="A446">
         <v>8118</v>
       </c>
-      <c r="B446" s="45" t="s">
+      <c r="B446" s="63" t="s">
         <v>446</v>
       </c>
       <c r="C446">
@@ -6643,7 +6679,7 @@
       <c r="A447">
         <v>8121</v>
       </c>
-      <c r="B447" s="45" t="s">
+      <c r="B447" s="63" t="s">
         <v>447</v>
       </c>
       <c r="C447">
@@ -6654,7 +6690,7 @@
       <c r="A448">
         <v>8131</v>
       </c>
-      <c r="B448" s="45" t="s">
+      <c r="B448" s="63" t="s">
         <v>448</v>
       </c>
       <c r="C448">
@@ -6665,7 +6701,7 @@
       <c r="A449">
         <v>8181</v>
       </c>
-      <c r="B449" s="45" t="s">
+      <c r="B449" s="63" t="s">
         <v>449</v>
       </c>
       <c r="C449">
@@ -6676,7 +6712,7 @@
       <c r="A450">
         <v>8201</v>
       </c>
-      <c r="B450" s="45" t="s">
+      <c r="B450" s="63" t="s">
         <v>450</v>
       </c>
       <c r="C450">
@@ -6687,7 +6723,7 @@
       <c r="A451">
         <v>8202</v>
       </c>
-      <c r="B451" s="45" t="s">
+      <c r="B451" s="63" t="s">
         <v>451</v>
       </c>
       <c r="C451">
@@ -6698,7 +6734,7 @@
       <c r="A452">
         <v>8211</v>
       </c>
-      <c r="B452" s="45" t="s">
+      <c r="B452" s="63" t="s">
         <v>452</v>
       </c>
       <c r="C452">
@@ -6709,7 +6745,7 @@
       <c r="A453">
         <v>8212</v>
       </c>
-      <c r="B453" s="45" t="s">
+      <c r="B453" s="63" t="s">
         <v>453</v>
       </c>
       <c r="C453">
@@ -6720,7 +6756,7 @@
       <c r="A454">
         <v>8213</v>
       </c>
-      <c r="B454" s="45" t="s">
+      <c r="B454" s="63" t="s">
         <v>454</v>
       </c>
       <c r="C454">
@@ -6731,7 +6767,7 @@
       <c r="A455">
         <v>8214</v>
       </c>
-      <c r="B455" s="45" t="s">
+      <c r="B455" s="63" t="s">
         <v>455</v>
       </c>
       <c r="C455">
@@ -6742,7 +6778,7 @@
       <c r="A456">
         <v>8221</v>
       </c>
-      <c r="B456" s="45" t="s">
+      <c r="B456" s="63" t="s">
         <v>456</v>
       </c>
       <c r="C456">
@@ -6753,7 +6789,7 @@
       <c r="A457">
         <v>8231</v>
       </c>
-      <c r="B457" s="45" t="s">
+      <c r="B457" s="63" t="s">
         <v>457</v>
       </c>
       <c r="C457">
@@ -6764,7 +6800,7 @@
       <c r="A458">
         <v>8232</v>
       </c>
-      <c r="B458" s="45" t="s">
+      <c r="B458" s="63" t="s">
         <v>458</v>
       </c>
       <c r="C458">
@@ -6775,7 +6811,7 @@
       <c r="A459">
         <v>8233</v>
       </c>
-      <c r="B459" s="45" t="s">
+      <c r="B459" s="63" t="s">
         <v>459</v>
       </c>
       <c r="C459">
@@ -6786,7 +6822,7 @@
       <c r="A460">
         <v>8281</v>
       </c>
-      <c r="B460" s="45" t="s">
+      <c r="B460" s="63" t="s">
         <v>460</v>
       </c>
       <c r="C460">
@@ -6797,7 +6833,7 @@
       <c r="A461">
         <v>8301</v>
       </c>
-      <c r="B461" s="45" t="s">
+      <c r="B461" s="63" t="s">
         <v>461</v>
       </c>
       <c r="C461">
@@ -6808,7 +6844,7 @@
       <c r="A462">
         <v>8311</v>
       </c>
-      <c r="B462" s="45" t="s">
+      <c r="B462" s="63" t="s">
         <v>462</v>
       </c>
       <c r="C462">
@@ -6819,7 +6855,7 @@
       <c r="A463">
         <v>8321</v>
       </c>
-      <c r="B463" s="45" t="s">
+      <c r="B463" s="63" t="s">
         <v>463</v>
       </c>
       <c r="C463">
@@ -6830,7 +6866,7 @@
       <c r="A464">
         <v>8339</v>
       </c>
-      <c r="B464" s="45" t="s">
+      <c r="B464" s="63" t="s">
         <v>464</v>
       </c>
       <c r="C464">
@@ -6841,7 +6877,7 @@
       <c r="A465">
         <v>8401</v>
       </c>
-      <c r="B465" s="45" t="s">
+      <c r="B465" s="63" t="s">
         <v>465</v>
       </c>
       <c r="C465">
@@ -6852,7 +6888,7 @@
       <c r="A466">
         <v>8411</v>
       </c>
-      <c r="B466" s="45" t="s">
+      <c r="B466" s="63" t="s">
         <v>466</v>
       </c>
       <c r="C466">
@@ -6863,7 +6899,7 @@
       <c r="A467">
         <v>8412</v>
       </c>
-      <c r="B467" s="45" t="s">
+      <c r="B467" s="63" t="s">
         <v>467</v>
       </c>
       <c r="C467">
@@ -6874,7 +6910,7 @@
       <c r="A468">
         <v>8413</v>
       </c>
-      <c r="B468" s="45" t="s">
+      <c r="B468" s="63" t="s">
         <v>468</v>
       </c>
       <c r="C468">
@@ -6885,7 +6921,7 @@
       <c r="A469">
         <v>8416</v>
       </c>
-      <c r="B469" s="45" t="s">
+      <c r="B469" s="63" t="s">
         <v>469</v>
       </c>
       <c r="C469">
@@ -6896,7 +6932,7 @@
       <c r="A470">
         <v>8417</v>
       </c>
-      <c r="B470" s="45" t="s">
+      <c r="B470" s="63" t="s">
         <v>470</v>
       </c>
       <c r="C470">
@@ -6907,7 +6943,7 @@
       <c r="A471">
         <v>8421</v>
       </c>
-      <c r="B471" s="45" t="s">
+      <c r="B471" s="63" t="s">
         <v>471</v>
       </c>
       <c r="C471">
@@ -6918,7 +6954,7 @@
       <c r="A472">
         <v>8423</v>
       </c>
-      <c r="B472" s="45" t="s">
+      <c r="B472" s="63" t="s">
         <v>472</v>
       </c>
       <c r="C472">
@@ -6929,7 +6965,7 @@
       <c r="A473">
         <v>8429</v>
       </c>
-      <c r="B473" s="45" t="s">
+      <c r="B473" s="63" t="s">
         <v>473</v>
       </c>
       <c r="C473">
@@ -6940,7 +6976,7 @@
       <c r="A474">
         <v>8484</v>
       </c>
-      <c r="B474" s="45" t="s">
+      <c r="B474" s="63" t="s">
         <v>474</v>
       </c>
       <c r="C474">
@@ -6951,7 +6987,7 @@
       <c r="A475">
         <v>8485</v>
       </c>
-      <c r="B475" s="45" t="s">
+      <c r="B475" s="63" t="s">
         <v>475</v>
       </c>
       <c r="C475">
@@ -6962,7 +6998,7 @@
       <c r="A476">
         <v>8491</v>
       </c>
-      <c r="B476" s="45" t="s">
+      <c r="B476" s="63" t="s">
         <v>476</v>
       </c>
       <c r="C476">
@@ -6973,7 +7009,7 @@
       <c r="A477">
         <v>8492</v>
       </c>
-      <c r="B477" s="45" t="s">
+      <c r="B477" s="63" t="s">
         <v>477</v>
       </c>
       <c r="C477">
@@ -6984,7 +7020,7 @@
       <c r="A478">
         <v>8493</v>
       </c>
-      <c r="B478" s="45" t="s">
+      <c r="B478" s="63" t="s">
         <v>478</v>
       </c>
       <c r="C478">
@@ -6995,7 +7031,7 @@
       <c r="A479">
         <v>8601</v>
       </c>
-      <c r="B479" s="45" t="s">
+      <c r="B479" s="63" t="s">
         <v>479</v>
       </c>
       <c r="C479">
@@ -7006,7 +7042,7 @@
       <c r="A480">
         <v>8611</v>
       </c>
-      <c r="B480" s="45" t="s">
+      <c r="B480" s="63" t="s">
         <v>480</v>
       </c>
       <c r="C480">
@@ -7017,7 +7053,7 @@
       <c r="A481">
         <v>8612</v>
       </c>
-      <c r="B481" s="45" t="s">
+      <c r="B481" s="63" t="s">
         <v>481</v>
       </c>
       <c r="C481">
@@ -7028,7 +7064,7 @@
       <c r="A482">
         <v>8621</v>
       </c>
-      <c r="B482" s="45" t="s">
+      <c r="B482" s="63" t="s">
         <v>482</v>
       </c>
       <c r="C482">
@@ -7039,7 +7075,7 @@
       <c r="A483">
         <v>8622</v>
       </c>
-      <c r="B483" s="45" t="s">
+      <c r="B483" s="63" t="s">
         <v>483</v>
       </c>
       <c r="C483">
@@ -7050,7 +7086,7 @@
       <c r="A484">
         <v>8623</v>
       </c>
-      <c r="B484" s="45" t="s">
+      <c r="B484" s="63" t="s">
         <v>484</v>
       </c>
       <c r="C484">
@@ -7061,7 +7097,7 @@
       <c r="A485">
         <v>8624</v>
       </c>
-      <c r="B485" s="45" t="s">
+      <c r="B485" s="63" t="s">
         <v>485</v>
       </c>
       <c r="C485">
@@ -7072,7 +7108,7 @@
       <c r="A486">
         <v>8625</v>
       </c>
-      <c r="B486" s="45" t="s">
+      <c r="B486" s="63" t="s">
         <v>486</v>
       </c>
       <c r="C486">
@@ -7083,7 +7119,7 @@
       <c r="A487">
         <v>8711</v>
       </c>
-      <c r="B487" s="45" t="s">
+      <c r="B487" s="63" t="s">
         <v>487</v>
       </c>
       <c r="C487">
@@ -7094,7 +7130,7 @@
       <c r="A488">
         <v>-1</v>
       </c>
-      <c r="B488" s="45" t="s">
+      <c r="B488" s="63" t="s">
         <v>488</v>
       </c>
       <c r="C488">
@@ -7105,7 +7141,7 @@
       <c r="A489">
         <v>9101</v>
       </c>
-      <c r="B489" s="45" t="s">
+      <c r="B489" s="63" t="s">
         <v>489</v>
       </c>
       <c r="C489">
@@ -7116,7 +7152,7 @@
       <c r="A490">
         <v>9102</v>
       </c>
-      <c r="B490" s="45" t="s">
+      <c r="B490" s="63" t="s">
         <v>490</v>
       </c>
       <c r="C490">
@@ -7127,7 +7163,7 @@
       <c r="A491">
         <v>9109</v>
       </c>
-      <c r="B491" s="45" t="s">
+      <c r="B491" s="63" t="s">
         <v>491</v>
       </c>
       <c r="C491">
@@ -7138,7 +7174,7 @@
       <c r="A492">
         <v>9111</v>
       </c>
-      <c r="B492" s="45" t="s">
+      <c r="B492" s="63" t="s">
         <v>492</v>
       </c>
       <c r="C492">
@@ -7149,7 +7185,7 @@
       <c r="A493">
         <v>9112</v>
       </c>
-      <c r="B493" s="45" t="s">
+      <c r="B493" s="63" t="s">
         <v>493</v>
       </c>
       <c r="C493">
@@ -7160,7 +7196,7 @@
       <c r="A494">
         <v>9113</v>
       </c>
-      <c r="B494" s="45" t="s">
+      <c r="B494" s="63" t="s">
         <v>494</v>
       </c>
       <c r="C494">
@@ -7171,7 +7207,7 @@
       <c r="A495">
         <v>9131</v>
       </c>
-      <c r="B495" s="45" t="s">
+      <c r="B495" s="63" t="s">
         <v>495</v>
       </c>
       <c r="C495">
@@ -7182,7 +7218,7 @@
       <c r="A496">
         <v>9141</v>
       </c>
-      <c r="B496" s="45" t="s">
+      <c r="B496" s="63" t="s">
         <v>496</v>
       </c>
       <c r="C496">
@@ -7193,7 +7229,7 @@
       <c r="A497">
         <v>9142</v>
       </c>
-      <c r="B497" s="45" t="s">
+      <c r="B497" s="63" t="s">
         <v>497</v>
       </c>
       <c r="C497">
@@ -7204,7 +7240,7 @@
       <c r="A498">
         <v>9143</v>
       </c>
-      <c r="B498" s="45" t="s">
+      <c r="B498" s="63" t="s">
         <v>498</v>
       </c>
       <c r="C498">
@@ -7215,7 +7251,7 @@
       <c r="A499">
         <v>9144</v>
       </c>
-      <c r="B499" s="45" t="s">
+      <c r="B499" s="63" t="s">
         <v>499</v>
       </c>
       <c r="C499">
@@ -7226,7 +7262,7 @@
       <c r="A500">
         <v>9151</v>
       </c>
-      <c r="B500" s="45" t="s">
+      <c r="B500" s="63" t="s">
         <v>500</v>
       </c>
       <c r="C500">
@@ -7237,7 +7273,7 @@
       <c r="A501">
         <v>9152</v>
       </c>
-      <c r="B501" s="45" t="s">
+      <c r="B501" s="63" t="s">
         <v>501</v>
       </c>
       <c r="C501">
@@ -7248,7 +7284,7 @@
       <c r="A502">
         <v>9153</v>
       </c>
-      <c r="B502" s="45" t="s">
+      <c r="B502" s="63" t="s">
         <v>502</v>
       </c>
       <c r="C502">
@@ -7259,7 +7295,7 @@
       <c r="A503">
         <v>9154</v>
       </c>
-      <c r="B503" s="45" t="s">
+      <c r="B503" s="63" t="s">
         <v>503</v>
       </c>
       <c r="C503">
@@ -7270,7 +7306,7 @@
       <c r="A504">
         <v>9191</v>
       </c>
-      <c r="B504" s="45" t="s">
+      <c r="B504" s="63" t="s">
         <v>504</v>
       </c>
       <c r="C504">
@@ -7281,7 +7317,7 @@
       <c r="A505">
         <v>9192</v>
       </c>
-      <c r="B505" s="45" t="s">
+      <c r="B505" s="63" t="s">
         <v>505</v>
       </c>
       <c r="C505">
@@ -7292,7 +7328,7 @@
       <c r="A506">
         <v>9193</v>
       </c>
-      <c r="B506" s="45" t="s">
+      <c r="B506" s="63" t="s">
         <v>506</v>
       </c>
       <c r="C506">
@@ -7303,7 +7339,7 @@
       <c r="A507">
         <v>9501</v>
       </c>
-      <c r="B507" s="45" t="s">
+      <c r="B507" s="63" t="s">
         <v>507</v>
       </c>
       <c r="C507">
@@ -7314,7 +7350,7 @@
       <c r="A508">
         <v>9502</v>
       </c>
-      <c r="B508" s="45" t="s">
+      <c r="B508" s="63" t="s">
         <v>508</v>
       </c>
       <c r="C508">
@@ -7325,7 +7361,7 @@
       <c r="A509">
         <v>9503</v>
       </c>
-      <c r="B509" s="45" t="s">
+      <c r="B509" s="63" t="s">
         <v>509</v>
       </c>
       <c r="C509">
@@ -7336,7 +7372,7 @@
       <c r="A510">
         <v>9511</v>
       </c>
-      <c r="B510" s="45" t="s">
+      <c r="B510" s="63" t="s">
         <v>510</v>
       </c>
       <c r="C510">
@@ -7347,7 +7383,7 @@
       <c r="A511">
         <v>9513</v>
       </c>
-      <c r="B511" s="45" t="s">
+      <c r="B511" s="63" t="s">
         <v>511</v>
       </c>
       <c r="C511">
@@ -7358,7 +7394,7 @@
       <c r="A512">
         <v>9531</v>
       </c>
-      <c r="B512" s="45" t="s">
+      <c r="B512" s="63" t="s">
         <v>512</v>
       </c>
       <c r="C512">
@@ -7369,7 +7405,7 @@
       <c r="A513">
         <v>9541</v>
       </c>
-      <c r="B513" s="45" t="s">
+      <c r="B513" s="63" t="s">
         <v>513</v>
       </c>
       <c r="C513">
@@ -7380,7 +7416,7 @@
       <c r="A514">
         <v>9542</v>
       </c>
-      <c r="B514" s="45" t="s">
+      <c r="B514" s="63" t="s">
         <v>514</v>
       </c>
       <c r="C514">
@@ -7391,7 +7427,7 @@
       <c r="A515">
         <v>9543</v>
       </c>
-      <c r="B515" s="45" t="s">
+      <c r="B515" s="63" t="s">
         <v>515</v>
       </c>
       <c r="C515">
@@ -7402,7 +7438,7 @@
       <c r="A516">
         <v>9911</v>
       </c>
-      <c r="B516" s="45" t="s">
+      <c r="B516" s="63" t="s">
         <v>516</v>
       </c>
       <c r="C516">
@@ -7413,7 +7449,7 @@
       <c r="A517">
         <v>9912</v>
       </c>
-      <c r="B517" s="45" t="s">
+      <c r="B517" s="63" t="s">
         <v>517</v>
       </c>
       <c r="C517">
@@ -7424,7 +7460,7 @@
       <c r="A518">
         <v>9913</v>
       </c>
-      <c r="B518" s="45" t="s">
+      <c r="B518" s="63" t="s">
         <v>518</v>
       </c>
       <c r="C518">
@@ -7435,7 +7471,7 @@
       <c r="A519">
         <v>9914</v>
       </c>
-      <c r="B519" s="45" t="s">
+      <c r="B519" s="63" t="s">
         <v>519</v>
       </c>
       <c r="C519">
@@ -7446,7 +7482,7 @@
       <c r="A520">
         <v>9921</v>
       </c>
-      <c r="B520" s="45" t="s">
+      <c r="B520" s="63" t="s">
         <v>520</v>
       </c>
       <c r="C520">
@@ -7457,7 +7493,7 @@
       <c r="A521">
         <v>9922</v>
       </c>
-      <c r="B521" s="45" t="s">
+      <c r="B521" s="63" t="s">
         <v>521</v>
       </c>
       <c r="C521">
@@ -7468,7 +7504,7 @@
       <c r="A522">
         <v>-1</v>
       </c>
-      <c r="B522" s="45" t="s">
+      <c r="B522" s="63" t="s">
         <v>522</v>
       </c>
       <c r="C522">
@@ -7479,7 +7515,7 @@
       <c r="A523">
         <v>9999</v>
       </c>
-      <c r="B523" s="45" t="s">
+      <c r="B523" s="63" t="s">
         <v>523</v>
       </c>
       <c r="C523">
